--- a/入力情報定義表.xlsx
+++ b/入力情報定義表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0120ED2-0861-46B5-B264-6DF6F8B9E7DE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA9062B-003F-4AF0-AB44-670DBAD52049}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8330" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4110" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4295" uniqueCount="558">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -5460,6 +5460,243 @@
       <t>コウモク</t>
     </rPh>
     <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土間床等の外周部の名称</t>
+    <rPh sb="9" eb="11">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EarthfloorPerimeters[i] Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EarthfloorPerimeters[i] Direction</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「土間床等の外周部の線熱橋」に項目「土間床等の外周部の名称」を追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「土間床等の外周部の線熱橋」に項目「方位」を追加</t>
+    <rPh sb="20" eb="22">
+      <t>ホウイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シート「熱負荷計算LV3csv」</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォーマットの変更（「階層1」「階層2」列を削除、「key」列を追加、「表示条件」列の記載内容を「備考」列に転記し、「表示条件」列を削除）</t>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「開口部の不透明部位」、「線熱橋」、「土間床等の外周部の線熱橋」を追加</t>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ネッキョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類名の変更（「壁体構成」→「開口部以外の不透明部位」、「開口部」→「開口部の透明部位」）</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>カイコウブ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="21" eb="26">
+      <t>フトウメイブイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ブイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各分類の項目をLv2の内容に合わせて変更または追加</t>
+    <rPh sb="0" eb="3">
+      <t>カクブンルイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>壁体が属する空間種類</t>
+    <rPh sb="0" eb="2">
+      <t>ヘキタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] Space</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1:主たる居室
+2:その他居室
+3:非居室
+4:床下空間</t>
+    <rPh sb="2" eb="3">
+      <t>シュ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョシツ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>開口部が属する空間種類</t>
+    <rPh sb="0" eb="3">
+      <t>カイコウブ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Space</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Doors[i] Space</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] NextSpace</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「開口部の不透明部位」に項目「隣接空間種類」を追加</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カイコウブ</t>
+    </rPh>
+    <rPh sb="7" eb="12">
+      <t>フトウメイブイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>リンセツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「外部日除け」、「空間」、「部位情報」、「簡易外皮入力」を削除</t>
+    <rPh sb="3" eb="5">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒヨ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「開口部以外の不透明部位」、「開口部の透明部位」、「開口部の不透明部位」に項目「空間種類」を追加</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カイコウブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="9" eb="14">
+      <t>フトウメイブイ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>カイコウブ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウメイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
       <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -5621,7 +5858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5891,6 +6128,39 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6275,11 +6545,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536BF8A1-E6C3-4235-B285-32136AE77F7C}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7024,6 +7294,110 @@
       </c>
       <c r="C67" s="82" t="s">
         <v>536</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="76">
+        <v>43265</v>
+      </c>
+      <c r="B68" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="C68" s="82" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="76">
+        <v>43265</v>
+      </c>
+      <c r="B69" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="C69" s="82" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="76">
+        <v>43265</v>
+      </c>
+      <c r="B70" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="C70" s="82" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="76">
+        <v>43265</v>
+      </c>
+      <c r="B71" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="C71" s="82" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="76">
+        <v>43266</v>
+      </c>
+      <c r="B72" s="76" t="str">
+        <f>$B$71</f>
+        <v>シート「熱負荷計算LV3csv」</v>
+      </c>
+      <c r="C72" s="82" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="76">
+        <v>43266</v>
+      </c>
+      <c r="B73" s="76" t="str">
+        <f>$B$71</f>
+        <v>シート「熱負荷計算LV3csv」</v>
+      </c>
+      <c r="C73" s="82" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="76">
+        <v>43266</v>
+      </c>
+      <c r="B74" s="76" t="str">
+        <f>$B$71</f>
+        <v>シート「熱負荷計算LV3csv」</v>
+      </c>
+      <c r="C74" s="82" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="76">
+        <v>43266</v>
+      </c>
+      <c r="B75" s="76" t="str">
+        <f>$B$71</f>
+        <v>シート「熱負荷計算LV3csv」</v>
+      </c>
+      <c r="C75" s="82" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="76">
+        <v>43269</v>
+      </c>
+      <c r="B76" s="76" t="str">
+        <f>$B$71</f>
+        <v>シート「熱負荷計算LV3csv」</v>
+      </c>
+      <c r="C76" s="82" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -7198,7 +7572,7 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="117" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7245,36 +7619,36 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="107"/>
-      <c r="B4" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="109"/>
-      <c r="D4" s="98" t="s">
+      <c r="A4" s="118"/>
+      <c r="B4" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="120"/>
+      <c r="D4" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="109"/>
+      <c r="E4" s="120"/>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="109">
+      <c r="H4" s="120">
         <v>6</v>
       </c>
-      <c r="I4" s="109">
-        <v>1</v>
-      </c>
-      <c r="J4" s="109">
+      <c r="I4" s="120">
+        <v>1</v>
+      </c>
+      <c r="J4" s="120">
         <v>8</v>
       </c>
-      <c r="K4" s="109" t="s">
+      <c r="K4" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
+      <c r="L4" s="120"/>
+      <c r="M4" s="120"/>
+      <c r="N4" s="120"/>
       <c r="O4" s="51" t="s">
         <v>51</v>
       </c>
@@ -7292,24 +7666,24 @@
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="107"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="115"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="126"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="126"/>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="115"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
+      <c r="H5" s="126"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
       <c r="O5" s="52"/>
       <c r="P5" s="52"/>
       <c r="Q5" s="52"/>
@@ -7317,24 +7691,24 @@
       <c r="S5" s="52"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="107"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="115"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="126"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="126"/>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="115"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
+      <c r="H6" s="126"/>
+      <c r="I6" s="126"/>
+      <c r="J6" s="126"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
       <c r="O6" s="52"/>
       <c r="P6" s="52"/>
       <c r="Q6" s="52"/>
@@ -7342,24 +7716,24 @@
       <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="107"/>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="115"/>
+      <c r="A7" s="118"/>
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="111"/>
+      <c r="E7" s="126"/>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
@@ -7367,24 +7741,24 @@
       <c r="S7" s="52"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="107"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="115"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="126"/>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="52"/>
@@ -7392,24 +7766,24 @@
       <c r="S8" s="52"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="107"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="115"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="126"/>
       <c r="F9" s="1">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
       <c r="O9" s="52"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="52"/>
@@ -7417,24 +7791,24 @@
       <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="107"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="115"/>
+      <c r="A10" s="118"/>
+      <c r="B10" s="126"/>
+      <c r="C10" s="126"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="126"/>
       <c r="F10" s="1">
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
-      <c r="J10" s="115"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
-      <c r="N10" s="115"/>
+      <c r="H10" s="126"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="126"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="126"/>
+      <c r="N10" s="126"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52"/>
@@ -7442,24 +7816,24 @@
       <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="107"/>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="110"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="121"/>
       <c r="F11" s="1">
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="110"/>
-      <c r="L11" s="110"/>
-      <c r="M11" s="110"/>
-      <c r="N11" s="110"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
@@ -7467,7 +7841,7 @@
       <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="107"/>
+      <c r="A12" s="118"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
@@ -7514,7 +7888,7 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="107"/>
+      <c r="A13" s="118"/>
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
@@ -7561,7 +7935,7 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="107"/>
+      <c r="A14" s="118"/>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
@@ -7608,38 +7982,38 @@
       </c>
     </row>
     <row r="15" spans="1:23" s="44" customFormat="1">
-      <c r="A15" s="107"/>
-      <c r="B15" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="103" t="s">
+      <c r="A15" s="118"/>
+      <c r="B15" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="117"/>
+      <c r="D15" s="114" t="s">
         <v>236</v>
       </c>
-      <c r="E15" s="106"/>
+      <c r="E15" s="117"/>
       <c r="F15" s="46">
         <v>1</v>
       </c>
       <c r="G15" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="98">
+      <c r="H15" s="109">
         <v>2</v>
       </c>
-      <c r="I15" s="98">
-        <v>1</v>
-      </c>
-      <c r="J15" s="98">
+      <c r="I15" s="109">
+        <v>1</v>
+      </c>
+      <c r="J15" s="109">
         <v>2</v>
       </c>
-      <c r="K15" s="98" t="s">
+      <c r="K15" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="109"/>
-      <c r="M15" s="98" t="s">
+      <c r="L15" s="120"/>
+      <c r="M15" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="109"/>
+      <c r="N15" s="120"/>
       <c r="O15" s="51" t="s">
         <v>51</v>
       </c>
@@ -7657,24 +8031,24 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="44" customFormat="1">
-      <c r="A16" s="107"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="114"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="114"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="116"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="46">
         <v>2</v>
       </c>
       <c r="G16" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="99"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="99"/>
-      <c r="N16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="121"/>
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="53"/>
@@ -7682,7 +8056,7 @@
       <c r="S16" s="53"/>
     </row>
     <row r="17" spans="1:23" s="44" customFormat="1">
-      <c r="A17" s="107"/>
+      <c r="A17" s="118"/>
       <c r="B17" s="43" t="s">
         <v>51</v>
       </c>
@@ -7727,7 +8101,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" s="23" customFormat="1">
-      <c r="A18" s="107"/>
+      <c r="A18" s="118"/>
       <c r="B18" s="43" t="s">
         <v>51</v>
       </c>
@@ -7776,7 +8150,7 @@
       <c r="W18" s="27"/>
     </row>
     <row r="19" spans="1:23" s="58" customFormat="1">
-      <c r="A19" s="107"/>
+      <c r="A19" s="118"/>
       <c r="B19" s="62" t="s">
         <v>51</v>
       </c>
@@ -7821,15 +8195,15 @@
       </c>
     </row>
     <row r="20" spans="1:23" s="58" customFormat="1">
-      <c r="A20" s="107"/>
-      <c r="B20" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="106"/>
-      <c r="D20" s="103" t="s">
+      <c r="A20" s="118"/>
+      <c r="B20" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="117"/>
+      <c r="D20" s="114" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="103" t="s">
+      <c r="E20" s="114" t="s">
         <v>265</v>
       </c>
       <c r="F20" s="69">
@@ -7838,64 +8212,64 @@
       <c r="G20" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98">
-        <v>1</v>
-      </c>
-      <c r="J20" s="98">
+      <c r="H20" s="109"/>
+      <c r="I20" s="109">
+        <v>1</v>
+      </c>
+      <c r="J20" s="109">
         <v>2</v>
       </c>
-      <c r="K20" s="98" t="s">
+      <c r="K20" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="96"/>
-      <c r="M20" s="98" t="s">
+      <c r="L20" s="107"/>
+      <c r="M20" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="98"/>
-      <c r="O20" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="S20" s="101" t="s">
+      <c r="N20" s="109"/>
+      <c r="O20" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="112" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="58" customFormat="1">
-      <c r="A21" s="107"/>
-      <c r="B21" s="104"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="104"/>
-      <c r="E21" s="104"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="118"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
       <c r="F21" s="69">
         <v>2</v>
       </c>
       <c r="G21" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="H21" s="100"/>
-      <c r="I21" s="100"/>
-      <c r="J21" s="100"/>
-      <c r="K21" s="100"/>
-      <c r="L21" s="108"/>
-      <c r="M21" s="100"/>
-      <c r="N21" s="100"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="102"/>
-      <c r="R21" s="102"/>
-      <c r="S21" s="102"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="113"/>
+      <c r="P21" s="113"/>
+      <c r="Q21" s="113"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="109" t="s">
+      <c r="A22" s="120" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -7934,36 +8308,36 @@
       </c>
     </row>
     <row r="23" spans="1:23" s="44" customFormat="1">
-      <c r="A23" s="115"/>
-      <c r="B23" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="106"/>
-      <c r="D23" s="103" t="s">
+      <c r="A23" s="126"/>
+      <c r="B23" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="117"/>
+      <c r="D23" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="E23" s="122"/>
+      <c r="E23" s="133"/>
       <c r="F23" s="46">
         <v>1</v>
       </c>
       <c r="G23" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="H23" s="111"/>
-      <c r="I23" s="98">
-        <v>1</v>
-      </c>
-      <c r="J23" s="98">
+      <c r="H23" s="122"/>
+      <c r="I23" s="109">
+        <v>1</v>
+      </c>
+      <c r="J23" s="109">
         <v>6</v>
       </c>
-      <c r="K23" s="103" t="s">
+      <c r="K23" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="111"/>
-      <c r="M23" s="103" t="s">
+      <c r="L23" s="122"/>
+      <c r="M23" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="106"/>
+      <c r="N23" s="117"/>
       <c r="O23" s="51" t="s">
         <v>51</v>
       </c>
@@ -7982,24 +8356,24 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:23" s="44" customFormat="1">
-      <c r="A24" s="115"/>
-      <c r="B24" s="104"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="123"/>
+      <c r="A24" s="126"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="134"/>
       <c r="F24" s="46">
         <v>2</v>
       </c>
       <c r="G24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="112"/>
-      <c r="I24" s="100"/>
-      <c r="J24" s="100"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="104"/>
-      <c r="N24" s="107"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="123"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="118"/>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="52"/>
@@ -8008,24 +8382,24 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:23" s="44" customFormat="1">
-      <c r="A25" s="115"/>
-      <c r="B25" s="104"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="104"/>
-      <c r="E25" s="123"/>
+      <c r="A25" s="126"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="118"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="134"/>
       <c r="F25" s="46">
         <v>3</v>
       </c>
       <c r="G25" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="112"/>
-      <c r="I25" s="100"/>
-      <c r="J25" s="100"/>
-      <c r="K25" s="104"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="107"/>
+      <c r="H25" s="123"/>
+      <c r="I25" s="111"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="118"/>
       <c r="O25" s="52"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="52"/>
@@ -8034,24 +8408,24 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="1:23" s="44" customFormat="1">
-      <c r="A26" s="115"/>
-      <c r="B26" s="104"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="123"/>
+      <c r="A26" s="126"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="134"/>
       <c r="F26" s="46">
         <v>4</v>
       </c>
       <c r="G26" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="112"/>
-      <c r="I26" s="100"/>
-      <c r="J26" s="100"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="112"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="107"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="111"/>
+      <c r="J26" s="111"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="118"/>
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="52"/>
@@ -8062,24 +8436,24 @@
       <c r="V26" s="49"/>
     </row>
     <row r="27" spans="1:23" s="44" customFormat="1">
-      <c r="A27" s="115"/>
-      <c r="B27" s="104"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="104"/>
-      <c r="E27" s="123"/>
+      <c r="A27" s="126"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="118"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="134"/>
       <c r="F27" s="46">
         <v>5</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="112"/>
-      <c r="I27" s="100"/>
-      <c r="J27" s="100"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="112"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="107"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="118"/>
       <c r="O27" s="52"/>
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
@@ -8090,24 +8464,24 @@
       <c r="V27" s="49"/>
     </row>
     <row r="28" spans="1:23" s="44" customFormat="1">
-      <c r="A28" s="115"/>
-      <c r="B28" s="105"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="124"/>
+      <c r="A28" s="126"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="125"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="135"/>
       <c r="F28" s="46">
         <v>6</v>
       </c>
       <c r="G28" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="113"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="105"/>
-      <c r="L28" s="113"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="114"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="124"/>
+      <c r="M28" s="116"/>
+      <c r="N28" s="125"/>
       <c r="O28" s="53"/>
       <c r="P28" s="53"/>
       <c r="Q28" s="53"/>
@@ -8118,7 +8492,7 @@
       <c r="V28" s="49"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="115"/>
+      <c r="A29" s="126"/>
       <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
@@ -8158,7 +8532,7 @@
       <c r="V29" s="49"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="115"/>
+      <c r="A30" s="126"/>
       <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
@@ -8206,7 +8580,7 @@
       <c r="V30" s="49"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="115"/>
+      <c r="A31" s="126"/>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
@@ -8254,7 +8628,7 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="115"/>
+      <c r="A32" s="126"/>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
@@ -8300,7 +8674,7 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="115"/>
+      <c r="A33" s="126"/>
       <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
@@ -8350,7 +8724,7 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="115"/>
+      <c r="A34" s="126"/>
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
@@ -8400,7 +8774,7 @@
       <c r="V34" s="49"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="115"/>
+      <c r="A35" s="126"/>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
@@ -8449,7 +8823,7 @@
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A36" s="115"/>
+      <c r="A36" s="126"/>
       <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
@@ -8497,7 +8871,7 @@
       <c r="T36" s="19"/>
     </row>
     <row r="37" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A37" s="115"/>
+      <c r="A37" s="126"/>
       <c r="B37" s="10" t="s">
         <v>51</v>
       </c>
@@ -8543,7 +8917,7 @@
       <c r="T37" s="19"/>
     </row>
     <row r="38" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A38" s="115"/>
+      <c r="A38" s="126"/>
       <c r="B38" s="10" t="s">
         <v>51</v>
       </c>
@@ -8589,38 +8963,38 @@
       <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:22" s="27" customFormat="1">
-      <c r="A39" s="115"/>
-      <c r="B39" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98" t="s">
+      <c r="A39" s="126"/>
+      <c r="B39" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="98"/>
+      <c r="E39" s="109"/>
       <c r="F39" s="10">
         <v>1</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H39" s="98">
-        <v>1</v>
-      </c>
-      <c r="I39" s="98">
-        <v>1</v>
-      </c>
-      <c r="J39" s="98">
+      <c r="H39" s="109">
+        <v>1</v>
+      </c>
+      <c r="I39" s="109">
+        <v>1</v>
+      </c>
+      <c r="J39" s="109">
         <v>3</v>
       </c>
-      <c r="K39" s="98" t="s">
+      <c r="K39" s="109" t="s">
         <v>208</v>
       </c>
-      <c r="L39" s="96"/>
-      <c r="M39" s="98" t="s">
+      <c r="L39" s="107"/>
+      <c r="M39" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="N39" s="98"/>
+      <c r="N39" s="109"/>
       <c r="O39" s="51" t="s">
         <v>169</v>
       </c>
@@ -8638,24 +9012,24 @@
       </c>
     </row>
     <row r="40" spans="1:22" s="27" customFormat="1">
-      <c r="A40" s="115"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="100"/>
+      <c r="A40" s="126"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
       <c r="F40" s="10">
         <v>2</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="108"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
+      <c r="K40" s="111"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="111"/>
+      <c r="N40" s="111"/>
       <c r="O40" s="52"/>
       <c r="P40" s="52"/>
       <c r="Q40" s="52"/>
@@ -8663,24 +9037,24 @@
       <c r="S40" s="52"/>
     </row>
     <row r="41" spans="1:22" s="58" customFormat="1">
-      <c r="A41" s="115"/>
-      <c r="B41" s="100"/>
-      <c r="C41" s="100"/>
-      <c r="D41" s="100"/>
-      <c r="E41" s="100"/>
+      <c r="A41" s="126"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
       <c r="F41" s="61">
         <v>3</v>
       </c>
       <c r="G41" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="119"/>
+      <c r="M41" s="111"/>
+      <c r="N41" s="111"/>
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
@@ -8688,24 +9062,24 @@
       <c r="S41" s="59"/>
     </row>
     <row r="42" spans="1:22" s="27" customFormat="1">
-      <c r="A42" s="115"/>
-      <c r="B42" s="99"/>
-      <c r="C42" s="99"/>
-      <c r="D42" s="99"/>
-      <c r="E42" s="99"/>
+      <c r="A42" s="126"/>
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="110"/>
+      <c r="E42" s="110"/>
       <c r="F42" s="10">
         <v>4</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="H42" s="99"/>
-      <c r="I42" s="99"/>
-      <c r="J42" s="99"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="97"/>
-      <c r="M42" s="99"/>
-      <c r="N42" s="99"/>
+      <c r="H42" s="110"/>
+      <c r="I42" s="110"/>
+      <c r="J42" s="110"/>
+      <c r="K42" s="110"/>
+      <c r="L42" s="108"/>
+      <c r="M42" s="110"/>
+      <c r="N42" s="110"/>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
       <c r="Q42" s="53"/>
@@ -8713,15 +9087,15 @@
       <c r="S42" s="53"/>
     </row>
     <row r="43" spans="1:22" s="27" customFormat="1">
-      <c r="A43" s="115"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="98" t="s">
+      <c r="A43" s="126"/>
+      <c r="B43" s="109"/>
+      <c r="C43" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="109" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="98" t="s">
+      <c r="E43" s="109" t="s">
         <v>215</v>
       </c>
       <c r="F43" s="10">
@@ -8730,23 +9104,23 @@
       <c r="G43" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H43" s="98">
-        <v>1</v>
-      </c>
-      <c r="I43" s="98">
-        <v>1</v>
-      </c>
-      <c r="J43" s="98">
+      <c r="H43" s="109">
+        <v>1</v>
+      </c>
+      <c r="I43" s="109">
+        <v>1</v>
+      </c>
+      <c r="J43" s="109">
         <v>3</v>
       </c>
-      <c r="K43" s="98" t="s">
+      <c r="K43" s="109" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="96"/>
-      <c r="M43" s="98" t="s">
+      <c r="L43" s="107"/>
+      <c r="M43" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="N43" s="98"/>
+      <c r="N43" s="109"/>
       <c r="O43" s="51" t="s">
         <v>169</v>
       </c>
@@ -8764,24 +9138,24 @@
       </c>
     </row>
     <row r="44" spans="1:22" s="27" customFormat="1">
-      <c r="A44" s="115"/>
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100"/>
-      <c r="E44" s="100"/>
+      <c r="A44" s="126"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
       <c r="F44" s="10">
         <v>2</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H44" s="100"/>
-      <c r="I44" s="100"/>
-      <c r="J44" s="100"/>
-      <c r="K44" s="100"/>
-      <c r="L44" s="108"/>
-      <c r="M44" s="100"/>
-      <c r="N44" s="100"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="119"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="111"/>
       <c r="O44" s="52"/>
       <c r="P44" s="52"/>
       <c r="Q44" s="52"/>
@@ -8789,24 +9163,24 @@
       <c r="S44" s="52"/>
     </row>
     <row r="45" spans="1:22" s="27" customFormat="1">
-      <c r="A45" s="115"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99"/>
-      <c r="E45" s="99"/>
+      <c r="A45" s="126"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
       <c r="F45" s="10">
         <v>3</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H45" s="99"/>
-      <c r="I45" s="99"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="99"/>
-      <c r="N45" s="99"/>
+      <c r="H45" s="110"/>
+      <c r="I45" s="110"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="108"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="110"/>
       <c r="O45" s="53"/>
       <c r="P45" s="53"/>
       <c r="Q45" s="53"/>
@@ -8814,7 +9188,7 @@
       <c r="S45" s="53"/>
     </row>
     <row r="46" spans="1:22" s="27" customFormat="1">
-      <c r="A46" s="115"/>
+      <c r="A46" s="126"/>
       <c r="B46" s="10" t="s">
         <v>51</v>
       </c>
@@ -8861,7 +9235,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A47" s="115"/>
+      <c r="A47" s="126"/>
       <c r="B47" s="10" t="s">
         <v>51</v>
       </c>
@@ -8908,7 +9282,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" s="27" customFormat="1">
-      <c r="A48" s="115"/>
+      <c r="A48" s="126"/>
       <c r="B48" s="10" t="s">
         <v>51</v>
       </c>
@@ -8955,7 +9329,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" s="27" customFormat="1">
-      <c r="A49" s="115"/>
+      <c r="A49" s="126"/>
       <c r="B49" s="10" t="s">
         <v>51</v>
       </c>
@@ -9002,7 +9376,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" s="27" customFormat="1" ht="19.5">
-      <c r="A50" s="115"/>
+      <c r="A50" s="126"/>
       <c r="B50" s="10" t="s">
         <v>51</v>
       </c>
@@ -9049,7 +9423,7 @@
       </c>
     </row>
     <row r="51" spans="1:23">
-      <c r="A51" s="109" t="s">
+      <c r="A51" s="120" t="s">
         <v>77</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -9088,7 +9462,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" s="16" customFormat="1">
-      <c r="A52" s="115"/>
+      <c r="A52" s="126"/>
       <c r="B52" s="17" t="s">
         <v>51</v>
       </c>
@@ -9141,7 +9515,7 @@
       <c r="W52" s="27"/>
     </row>
     <row r="53" spans="1:23" s="16" customFormat="1">
-      <c r="A53" s="115"/>
+      <c r="A53" s="126"/>
       <c r="B53" s="17" t="s">
         <v>51</v>
       </c>
@@ -9196,7 +9570,7 @@
       <c r="W53" s="27"/>
     </row>
     <row r="54" spans="1:23" s="16" customFormat="1">
-      <c r="A54" s="115"/>
+      <c r="A54" s="126"/>
       <c r="B54" s="17" t="s">
         <v>51</v>
       </c>
@@ -9251,7 +9625,7 @@
       <c r="W54" s="27"/>
     </row>
     <row r="55" spans="1:23">
-      <c r="A55" s="115"/>
+      <c r="A55" s="126"/>
       <c r="B55" s="1" t="s">
         <v>61</v>
       </c>
@@ -9300,7 +9674,7 @@
       </c>
     </row>
     <row r="56" spans="1:23" s="14" customFormat="1">
-      <c r="A56" s="115"/>
+      <c r="A56" s="126"/>
       <c r="B56" s="10" t="s">
         <v>51</v>
       </c>
@@ -9355,7 +9729,7 @@
       <c r="W56" s="27"/>
     </row>
     <row r="57" spans="1:23" s="14" customFormat="1">
-      <c r="A57" s="115"/>
+      <c r="A57" s="126"/>
       <c r="B57" s="10" t="s">
         <v>51</v>
       </c>
@@ -9410,7 +9784,7 @@
       <c r="W57" s="27"/>
     </row>
     <row r="58" spans="1:23">
-      <c r="A58" s="115"/>
+      <c r="A58" s="126"/>
       <c r="B58" s="1" t="s">
         <v>61</v>
       </c>
@@ -9459,7 +9833,7 @@
       </c>
     </row>
     <row r="59" spans="1:23" s="23" customFormat="1">
-      <c r="A59" s="115"/>
+      <c r="A59" s="126"/>
       <c r="B59" s="10" t="s">
         <v>51</v>
       </c>
@@ -9514,7 +9888,7 @@
       <c r="W59" s="27"/>
     </row>
     <row r="60" spans="1:23" s="23" customFormat="1">
-      <c r="A60" s="115"/>
+      <c r="A60" s="126"/>
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -9569,7 +9943,7 @@
       <c r="W60" s="27"/>
     </row>
     <row r="61" spans="1:23" ht="19.5">
-      <c r="A61" s="115"/>
+      <c r="A61" s="126"/>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
@@ -9616,7 +9990,7 @@
       </c>
     </row>
     <row r="62" spans="1:23">
-      <c r="A62" s="115"/>
+      <c r="A62" s="126"/>
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
@@ -9663,7 +10037,7 @@
       </c>
     </row>
     <row r="63" spans="1:23">
-      <c r="A63" s="115"/>
+      <c r="A63" s="126"/>
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
@@ -9710,7 +10084,7 @@
       </c>
     </row>
     <row r="64" spans="1:23" ht="19.5">
-      <c r="A64" s="110"/>
+      <c r="A64" s="121"/>
       <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
@@ -9757,7 +10131,7 @@
       </c>
     </row>
     <row r="65" spans="1:23">
-      <c r="A65" s="109" t="s">
+      <c r="A65" s="120" t="s">
         <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -9796,7 +10170,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" s="19" customFormat="1">
-      <c r="A66" s="115"/>
+      <c r="A66" s="126"/>
       <c r="B66" s="20" t="s">
         <v>51</v>
       </c>
@@ -9836,7 +10210,7 @@
       <c r="T66" s="27"/>
     </row>
     <row r="67" spans="1:23">
-      <c r="A67" s="115"/>
+      <c r="A67" s="126"/>
       <c r="B67" s="1" t="s">
         <v>51</v>
       </c>
@@ -9885,7 +10259,7 @@
       </c>
     </row>
     <row r="68" spans="1:23">
-      <c r="A68" s="115"/>
+      <c r="A68" s="126"/>
       <c r="B68" s="1" t="s">
         <v>51</v>
       </c>
@@ -9934,7 +10308,7 @@
       </c>
     </row>
     <row r="69" spans="1:23">
-      <c r="A69" s="115"/>
+      <c r="A69" s="126"/>
       <c r="B69" s="1" t="s">
         <v>51</v>
       </c>
@@ -9983,7 +10357,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" s="16" customFormat="1">
-      <c r="A70" s="115"/>
+      <c r="A70" s="126"/>
       <c r="B70" s="10" t="s">
         <v>51</v>
       </c>
@@ -10036,7 +10410,7 @@
       <c r="W70" s="27"/>
     </row>
     <row r="71" spans="1:23" s="16" customFormat="1">
-      <c r="A71" s="115"/>
+      <c r="A71" s="126"/>
       <c r="B71" s="10" t="s">
         <v>51</v>
       </c>
@@ -10089,7 +10463,7 @@
       <c r="W71" s="27"/>
     </row>
     <row r="72" spans="1:23" s="19" customFormat="1">
-      <c r="A72" s="115"/>
+      <c r="A72" s="126"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
       </c>
@@ -10129,7 +10503,7 @@
       <c r="T72" s="27"/>
     </row>
     <row r="73" spans="1:23" s="19" customFormat="1">
-      <c r="A73" s="110"/>
+      <c r="A73" s="121"/>
       <c r="B73" s="20" t="s">
         <v>51</v>
       </c>
@@ -10169,40 +10543,40 @@
       <c r="T73" s="27"/>
     </row>
     <row r="74" spans="1:23">
-      <c r="A74" s="119" t="s">
+      <c r="A74" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="109"/>
-      <c r="D74" s="98" t="s">
+      <c r="B74" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="120"/>
+      <c r="D74" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="109"/>
+      <c r="E74" s="120"/>
       <c r="F74" s="1">
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H74" s="109">
-        <v>1</v>
-      </c>
-      <c r="I74" s="98">
-        <v>1</v>
-      </c>
-      <c r="J74" s="98">
+      <c r="H74" s="120">
+        <v>1</v>
+      </c>
+      <c r="I74" s="109">
+        <v>1</v>
+      </c>
+      <c r="J74" s="109">
         <v>4</v>
       </c>
-      <c r="K74" s="109" t="s">
+      <c r="K74" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="L74" s="109"/>
-      <c r="M74" s="98" t="s">
+      <c r="L74" s="120"/>
+      <c r="M74" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="109"/>
+      <c r="N74" s="120"/>
       <c r="O74" s="51" t="s">
         <v>169</v>
       </c>
@@ -10220,24 +10594,24 @@
       </c>
     </row>
     <row r="75" spans="1:23">
-      <c r="A75" s="115"/>
-      <c r="B75" s="115"/>
-      <c r="C75" s="115"/>
-      <c r="D75" s="100"/>
-      <c r="E75" s="115"/>
+      <c r="A75" s="126"/>
+      <c r="B75" s="126"/>
+      <c r="C75" s="126"/>
+      <c r="D75" s="111"/>
+      <c r="E75" s="126"/>
       <c r="F75" s="1">
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H75" s="115"/>
-      <c r="I75" s="100"/>
-      <c r="J75" s="100"/>
-      <c r="K75" s="115"/>
-      <c r="L75" s="115"/>
-      <c r="M75" s="100"/>
-      <c r="N75" s="115"/>
+      <c r="H75" s="126"/>
+      <c r="I75" s="111"/>
+      <c r="J75" s="111"/>
+      <c r="K75" s="126"/>
+      <c r="L75" s="126"/>
+      <c r="M75" s="111"/>
+      <c r="N75" s="126"/>
       <c r="O75" s="52"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="52"/>
@@ -10245,24 +10619,24 @@
       <c r="S75" s="52"/>
     </row>
     <row r="76" spans="1:23" s="4" customFormat="1">
-      <c r="A76" s="115"/>
-      <c r="B76" s="115"/>
-      <c r="C76" s="115"/>
-      <c r="D76" s="100"/>
-      <c r="E76" s="115"/>
+      <c r="A76" s="126"/>
+      <c r="B76" s="126"/>
+      <c r="C76" s="126"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="126"/>
       <c r="F76" s="3">
         <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H76" s="115"/>
-      <c r="I76" s="100"/>
-      <c r="J76" s="100"/>
-      <c r="K76" s="115"/>
-      <c r="L76" s="115"/>
-      <c r="M76" s="100"/>
-      <c r="N76" s="115"/>
+      <c r="H76" s="126"/>
+      <c r="I76" s="111"/>
+      <c r="J76" s="111"/>
+      <c r="K76" s="126"/>
+      <c r="L76" s="126"/>
+      <c r="M76" s="111"/>
+      <c r="N76" s="126"/>
       <c r="O76" s="52"/>
       <c r="P76" s="52"/>
       <c r="Q76" s="52"/>
@@ -10274,24 +10648,24 @@
       <c r="W76" s="27"/>
     </row>
     <row r="77" spans="1:23">
-      <c r="A77" s="115"/>
-      <c r="B77" s="110"/>
-      <c r="C77" s="110"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="110"/>
+      <c r="A77" s="126"/>
+      <c r="B77" s="121"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="110"/>
+      <c r="E77" s="121"/>
       <c r="F77" s="10">
         <v>4</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H77" s="110"/>
-      <c r="I77" s="99"/>
-      <c r="J77" s="99"/>
-      <c r="K77" s="110"/>
-      <c r="L77" s="110"/>
-      <c r="M77" s="99"/>
-      <c r="N77" s="110"/>
+      <c r="H77" s="121"/>
+      <c r="I77" s="110"/>
+      <c r="J77" s="110"/>
+      <c r="K77" s="121"/>
+      <c r="L77" s="121"/>
+      <c r="M77" s="110"/>
+      <c r="N77" s="121"/>
       <c r="O77" s="53"/>
       <c r="P77" s="53"/>
       <c r="Q77" s="53"/>
@@ -10299,15 +10673,15 @@
       <c r="S77" s="53"/>
     </row>
     <row r="78" spans="1:23">
-      <c r="A78" s="115"/>
-      <c r="B78" s="109"/>
-      <c r="C78" s="109" t="s">
+      <c r="A78" s="126"/>
+      <c r="B78" s="120"/>
+      <c r="C78" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="98" t="s">
+      <c r="D78" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="E78" s="98" t="s">
+      <c r="E78" s="109" t="s">
         <v>147</v>
       </c>
       <c r="F78" s="1">
@@ -10316,23 +10690,23 @@
       <c r="G78" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H78" s="109">
-        <v>1</v>
-      </c>
-      <c r="I78" s="98">
-        <v>1</v>
-      </c>
-      <c r="J78" s="98">
+      <c r="H78" s="120">
+        <v>1</v>
+      </c>
+      <c r="I78" s="109">
+        <v>1</v>
+      </c>
+      <c r="J78" s="109">
         <v>4</v>
       </c>
-      <c r="K78" s="109" t="s">
+      <c r="K78" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="L78" s="109"/>
-      <c r="M78" s="98" t="s">
+      <c r="L78" s="120"/>
+      <c r="M78" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="109"/>
+      <c r="N78" s="120"/>
       <c r="O78" s="51" t="s">
         <v>169</v>
       </c>
@@ -10350,24 +10724,24 @@
       </c>
     </row>
     <row r="79" spans="1:23">
-      <c r="A79" s="115"/>
-      <c r="B79" s="115"/>
-      <c r="C79" s="115"/>
-      <c r="D79" s="100"/>
-      <c r="E79" s="100"/>
+      <c r="A79" s="126"/>
+      <c r="B79" s="126"/>
+      <c r="C79" s="126"/>
+      <c r="D79" s="111"/>
+      <c r="E79" s="111"/>
       <c r="F79" s="1">
         <v>2</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H79" s="115"/>
-      <c r="I79" s="100"/>
-      <c r="J79" s="100"/>
-      <c r="K79" s="115"/>
-      <c r="L79" s="115"/>
-      <c r="M79" s="100"/>
-      <c r="N79" s="115"/>
+      <c r="H79" s="126"/>
+      <c r="I79" s="111"/>
+      <c r="J79" s="111"/>
+      <c r="K79" s="126"/>
+      <c r="L79" s="126"/>
+      <c r="M79" s="111"/>
+      <c r="N79" s="126"/>
       <c r="O79" s="52"/>
       <c r="P79" s="52"/>
       <c r="Q79" s="52"/>
@@ -10375,24 +10749,24 @@
       <c r="S79" s="52"/>
     </row>
     <row r="80" spans="1:23">
-      <c r="A80" s="115"/>
-      <c r="B80" s="115"/>
-      <c r="C80" s="115"/>
-      <c r="D80" s="100"/>
-      <c r="E80" s="100"/>
+      <c r="A80" s="126"/>
+      <c r="B80" s="126"/>
+      <c r="C80" s="126"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="111"/>
       <c r="F80" s="1">
         <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H80" s="115"/>
-      <c r="I80" s="100"/>
-      <c r="J80" s="100"/>
-      <c r="K80" s="115"/>
-      <c r="L80" s="115"/>
-      <c r="M80" s="100"/>
-      <c r="N80" s="115"/>
+      <c r="H80" s="126"/>
+      <c r="I80" s="111"/>
+      <c r="J80" s="111"/>
+      <c r="K80" s="126"/>
+      <c r="L80" s="126"/>
+      <c r="M80" s="111"/>
+      <c r="N80" s="126"/>
       <c r="O80" s="52"/>
       <c r="P80" s="52"/>
       <c r="Q80" s="52"/>
@@ -10400,24 +10774,24 @@
       <c r="S80" s="52"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="115"/>
-      <c r="B81" s="110"/>
-      <c r="C81" s="110"/>
-      <c r="D81" s="99"/>
-      <c r="E81" s="99"/>
+      <c r="A81" s="126"/>
+      <c r="B81" s="121"/>
+      <c r="C81" s="121"/>
+      <c r="D81" s="110"/>
+      <c r="E81" s="110"/>
       <c r="F81" s="1">
         <v>4</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H81" s="110"/>
-      <c r="I81" s="99"/>
-      <c r="J81" s="99"/>
-      <c r="K81" s="110"/>
-      <c r="L81" s="110"/>
-      <c r="M81" s="99"/>
-      <c r="N81" s="110"/>
+      <c r="H81" s="121"/>
+      <c r="I81" s="110"/>
+      <c r="J81" s="110"/>
+      <c r="K81" s="121"/>
+      <c r="L81" s="121"/>
+      <c r="M81" s="110"/>
+      <c r="N81" s="121"/>
       <c r="O81" s="53"/>
       <c r="P81" s="53"/>
       <c r="Q81" s="53"/>
@@ -10425,7 +10799,7 @@
       <c r="S81" s="53"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="115"/>
+      <c r="A82" s="126"/>
       <c r="B82" s="1" t="s">
         <v>61</v>
       </c>
@@ -10470,7 +10844,7 @@
       </c>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="115"/>
+      <c r="A83" s="126"/>
       <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
@@ -10515,7 +10889,7 @@
       </c>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="115"/>
+      <c r="A84" s="126"/>
       <c r="B84" s="1" t="s">
         <v>61</v>
       </c>
@@ -10560,7 +10934,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="19.5">
-      <c r="A85" s="115"/>
+      <c r="A85" s="126"/>
       <c r="B85" s="1" t="s">
         <v>61</v>
       </c>
@@ -10607,7 +10981,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="19.5">
-      <c r="A86" s="115"/>
+      <c r="A86" s="126"/>
       <c r="B86" s="1" t="s">
         <v>61</v>
       </c>
@@ -10654,7 +11028,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="19.5">
-      <c r="A87" s="115"/>
+      <c r="A87" s="126"/>
       <c r="B87" s="1" t="s">
         <v>61</v>
       </c>
@@ -10699,7 +11073,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="19.5">
-      <c r="A88" s="115"/>
+      <c r="A88" s="126"/>
       <c r="B88" s="1" t="s">
         <v>61</v>
       </c>
@@ -10744,7 +11118,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" ht="19.5">
-      <c r="A89" s="115"/>
+      <c r="A89" s="126"/>
       <c r="B89" s="1" t="s">
         <v>61</v>
       </c>
@@ -10789,7 +11163,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="19.5">
-      <c r="A90" s="115"/>
+      <c r="A90" s="126"/>
       <c r="B90" s="1" t="s">
         <v>61</v>
       </c>
@@ -10834,7 +11208,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" ht="19.5">
-      <c r="A91" s="115"/>
+      <c r="A91" s="126"/>
       <c r="B91" s="1" t="s">
         <v>61</v>
       </c>
@@ -10879,7 +11253,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="19.5">
-      <c r="A92" s="115"/>
+      <c r="A92" s="126"/>
       <c r="B92" s="1" t="s">
         <v>61</v>
       </c>
@@ -10924,38 +11298,38 @@
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="115"/>
-      <c r="B93" s="109" t="s">
+      <c r="A93" s="126"/>
+      <c r="B93" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="C93" s="109"/>
-      <c r="D93" s="109" t="s">
+      <c r="C93" s="120"/>
+      <c r="D93" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="E93" s="109"/>
+      <c r="E93" s="120"/>
       <c r="F93" s="1">
         <v>1</v>
       </c>
       <c r="G93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H93" s="109">
-        <v>1</v>
-      </c>
-      <c r="I93" s="109">
-        <v>1</v>
-      </c>
-      <c r="J93" s="109">
+      <c r="H93" s="120">
+        <v>1</v>
+      </c>
+      <c r="I93" s="120">
+        <v>1</v>
+      </c>
+      <c r="J93" s="120">
         <v>2</v>
       </c>
-      <c r="K93" s="109" t="s">
+      <c r="K93" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="L93" s="109"/>
-      <c r="M93" s="109" t="s">
+      <c r="L93" s="120"/>
+      <c r="M93" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="N93" s="109"/>
+      <c r="N93" s="120"/>
       <c r="O93" s="56" t="s">
         <v>174</v>
       </c>
@@ -10965,24 +11339,24 @@
       <c r="S93" s="56"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="115"/>
-      <c r="B94" s="110"/>
-      <c r="C94" s="110"/>
-      <c r="D94" s="110"/>
-      <c r="E94" s="110"/>
+      <c r="A94" s="126"/>
+      <c r="B94" s="121"/>
+      <c r="C94" s="121"/>
+      <c r="D94" s="121"/>
+      <c r="E94" s="121"/>
       <c r="F94" s="1">
         <v>2</v>
       </c>
       <c r="G94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H94" s="110"/>
-      <c r="I94" s="110"/>
-      <c r="J94" s="110"/>
-      <c r="K94" s="110"/>
-      <c r="L94" s="110"/>
-      <c r="M94" s="110"/>
-      <c r="N94" s="110"/>
+      <c r="H94" s="121"/>
+      <c r="I94" s="121"/>
+      <c r="J94" s="121"/>
+      <c r="K94" s="121"/>
+      <c r="L94" s="121"/>
+      <c r="M94" s="121"/>
+      <c r="N94" s="121"/>
       <c r="O94" s="55"/>
       <c r="P94" s="55"/>
       <c r="Q94" s="55"/>
@@ -10990,38 +11364,38 @@
       <c r="S94" s="55"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="115"/>
-      <c r="B95" s="109" t="s">
+      <c r="A95" s="126"/>
+      <c r="B95" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="109"/>
-      <c r="D95" s="109" t="s">
+      <c r="C95" s="120"/>
+      <c r="D95" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="E95" s="109"/>
+      <c r="E95" s="120"/>
       <c r="F95" s="1">
         <v>1</v>
       </c>
       <c r="G95" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H95" s="109">
+      <c r="H95" s="120">
         <v>2</v>
       </c>
-      <c r="I95" s="109">
-        <v>1</v>
-      </c>
-      <c r="J95" s="109">
+      <c r="I95" s="120">
+        <v>1</v>
+      </c>
+      <c r="J95" s="120">
         <v>2</v>
       </c>
-      <c r="K95" s="109" t="s">
+      <c r="K95" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="L95" s="109"/>
-      <c r="M95" s="109" t="s">
+      <c r="L95" s="120"/>
+      <c r="M95" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="N95" s="109"/>
+      <c r="N95" s="120"/>
       <c r="O95" s="56" t="s">
         <v>174</v>
       </c>
@@ -11031,24 +11405,24 @@
       <c r="S95" s="56"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="115"/>
-      <c r="B96" s="110"/>
-      <c r="C96" s="110"/>
-      <c r="D96" s="110"/>
-      <c r="E96" s="110"/>
+      <c r="A96" s="126"/>
+      <c r="B96" s="121"/>
+      <c r="C96" s="121"/>
+      <c r="D96" s="121"/>
+      <c r="E96" s="121"/>
       <c r="F96" s="1">
         <v>2</v>
       </c>
       <c r="G96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H96" s="110"/>
-      <c r="I96" s="110"/>
-      <c r="J96" s="110"/>
-      <c r="K96" s="110"/>
-      <c r="L96" s="110"/>
-      <c r="M96" s="110"/>
-      <c r="N96" s="110"/>
+      <c r="H96" s="121"/>
+      <c r="I96" s="121"/>
+      <c r="J96" s="121"/>
+      <c r="K96" s="121"/>
+      <c r="L96" s="121"/>
+      <c r="M96" s="121"/>
+      <c r="N96" s="121"/>
       <c r="O96" s="55"/>
       <c r="P96" s="55"/>
       <c r="Q96" s="55"/>
@@ -11056,7 +11430,7 @@
       <c r="S96" s="55"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="110"/>
+      <c r="A97" s="121"/>
       <c r="B97" s="1" t="s">
         <v>61</v>
       </c>
@@ -11105,40 +11479,40 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="17.649999999999999" customHeight="1">
-      <c r="A98" s="119" t="s">
+      <c r="A98" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="B98" s="109" t="s">
+      <c r="B98" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="C98" s="109"/>
-      <c r="D98" s="109" t="s">
+      <c r="C98" s="120"/>
+      <c r="D98" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="E98" s="109"/>
+      <c r="E98" s="120"/>
       <c r="F98" s="1">
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H98" s="109">
-        <v>1</v>
-      </c>
-      <c r="I98" s="109">
-        <v>1</v>
-      </c>
-      <c r="J98" s="109">
+      <c r="H98" s="120">
+        <v>1</v>
+      </c>
+      <c r="I98" s="120">
+        <v>1</v>
+      </c>
+      <c r="J98" s="120">
         <v>3</v>
       </c>
-      <c r="K98" s="109" t="s">
+      <c r="K98" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="L98" s="109"/>
-      <c r="M98" s="109" t="s">
+      <c r="L98" s="120"/>
+      <c r="M98" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="N98" s="109"/>
+      <c r="N98" s="120"/>
       <c r="O98" s="51" t="s">
         <v>168</v>
       </c>
@@ -11156,24 +11530,24 @@
       </c>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="120"/>
-      <c r="B99" s="115"/>
-      <c r="C99" s="115"/>
-      <c r="D99" s="115"/>
-      <c r="E99" s="115"/>
+      <c r="A99" s="131"/>
+      <c r="B99" s="126"/>
+      <c r="C99" s="126"/>
+      <c r="D99" s="126"/>
+      <c r="E99" s="126"/>
       <c r="F99" s="1">
         <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H99" s="115"/>
-      <c r="I99" s="115"/>
-      <c r="J99" s="115"/>
-      <c r="K99" s="115"/>
-      <c r="L99" s="115"/>
-      <c r="M99" s="115"/>
-      <c r="N99" s="115"/>
+      <c r="H99" s="126"/>
+      <c r="I99" s="126"/>
+      <c r="J99" s="126"/>
+      <c r="K99" s="126"/>
+      <c r="L99" s="126"/>
+      <c r="M99" s="126"/>
+      <c r="N99" s="126"/>
       <c r="O99" s="52"/>
       <c r="P99" s="52"/>
       <c r="Q99" s="52"/>
@@ -11181,24 +11555,24 @@
       <c r="S99" s="52"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="120"/>
-      <c r="B100" s="110"/>
-      <c r="C100" s="110"/>
-      <c r="D100" s="110"/>
-      <c r="E100" s="110"/>
+      <c r="A100" s="131"/>
+      <c r="B100" s="121"/>
+      <c r="C100" s="121"/>
+      <c r="D100" s="121"/>
+      <c r="E100" s="121"/>
       <c r="F100" s="1">
         <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H100" s="110"/>
-      <c r="I100" s="110"/>
-      <c r="J100" s="110"/>
-      <c r="K100" s="110"/>
-      <c r="L100" s="110"/>
-      <c r="M100" s="110"/>
-      <c r="N100" s="110"/>
+      <c r="H100" s="121"/>
+      <c r="I100" s="121"/>
+      <c r="J100" s="121"/>
+      <c r="K100" s="121"/>
+      <c r="L100" s="121"/>
+      <c r="M100" s="121"/>
+      <c r="N100" s="121"/>
       <c r="O100" s="53"/>
       <c r="P100" s="53"/>
       <c r="Q100" s="53"/>
@@ -11206,15 +11580,15 @@
       <c r="S100" s="53"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="120"/>
-      <c r="B101" s="109"/>
-      <c r="C101" s="109" t="s">
+      <c r="A101" s="131"/>
+      <c r="B101" s="120"/>
+      <c r="C101" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="109" t="s">
+      <c r="D101" s="120" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="109" t="s">
+      <c r="E101" s="120" t="s">
         <v>119</v>
       </c>
       <c r="F101" s="1">
@@ -11223,21 +11597,21 @@
       <c r="G101" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H101" s="109"/>
-      <c r="I101" s="109">
-        <v>1</v>
-      </c>
-      <c r="J101" s="109">
+      <c r="H101" s="120"/>
+      <c r="I101" s="120">
+        <v>1</v>
+      </c>
+      <c r="J101" s="120">
         <v>4</v>
       </c>
-      <c r="K101" s="109" t="s">
+      <c r="K101" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="L101" s="109"/>
-      <c r="M101" s="109" t="s">
+      <c r="L101" s="120"/>
+      <c r="M101" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="N101" s="109"/>
+      <c r="N101" s="120"/>
       <c r="O101" s="51" t="s">
         <v>168</v>
       </c>
@@ -11255,24 +11629,24 @@
       </c>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="120"/>
-      <c r="B102" s="115"/>
-      <c r="C102" s="115"/>
-      <c r="D102" s="115"/>
-      <c r="E102" s="115"/>
+      <c r="A102" s="131"/>
+      <c r="B102" s="126"/>
+      <c r="C102" s="126"/>
+      <c r="D102" s="126"/>
+      <c r="E102" s="126"/>
       <c r="F102" s="1">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H102" s="115"/>
-      <c r="I102" s="115"/>
-      <c r="J102" s="115"/>
-      <c r="K102" s="115"/>
-      <c r="L102" s="115"/>
-      <c r="M102" s="115"/>
-      <c r="N102" s="115"/>
+      <c r="H102" s="126"/>
+      <c r="I102" s="126"/>
+      <c r="J102" s="126"/>
+      <c r="K102" s="126"/>
+      <c r="L102" s="126"/>
+      <c r="M102" s="126"/>
+      <c r="N102" s="126"/>
       <c r="O102" s="52"/>
       <c r="P102" s="52"/>
       <c r="Q102" s="52"/>
@@ -11280,24 +11654,24 @@
       <c r="S102" s="52"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="120"/>
-      <c r="B103" s="115"/>
-      <c r="C103" s="115"/>
-      <c r="D103" s="115"/>
-      <c r="E103" s="115"/>
+      <c r="A103" s="131"/>
+      <c r="B103" s="126"/>
+      <c r="C103" s="126"/>
+      <c r="D103" s="126"/>
+      <c r="E103" s="126"/>
       <c r="F103" s="1">
         <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H103" s="115"/>
-      <c r="I103" s="115"/>
-      <c r="J103" s="115"/>
-      <c r="K103" s="115"/>
-      <c r="L103" s="115"/>
-      <c r="M103" s="115"/>
-      <c r="N103" s="115"/>
+      <c r="H103" s="126"/>
+      <c r="I103" s="126"/>
+      <c r="J103" s="126"/>
+      <c r="K103" s="126"/>
+      <c r="L103" s="126"/>
+      <c r="M103" s="126"/>
+      <c r="N103" s="126"/>
       <c r="O103" s="52"/>
       <c r="P103" s="52"/>
       <c r="Q103" s="52"/>
@@ -11305,24 +11679,24 @@
       <c r="S103" s="52"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="120"/>
-      <c r="B104" s="110"/>
-      <c r="C104" s="110"/>
-      <c r="D104" s="110"/>
-      <c r="E104" s="110"/>
+      <c r="A104" s="131"/>
+      <c r="B104" s="121"/>
+      <c r="C104" s="121"/>
+      <c r="D104" s="121"/>
+      <c r="E104" s="121"/>
       <c r="F104" s="1">
         <v>4</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H104" s="110"/>
-      <c r="I104" s="110"/>
-      <c r="J104" s="110"/>
-      <c r="K104" s="110"/>
-      <c r="L104" s="110"/>
-      <c r="M104" s="110"/>
-      <c r="N104" s="110"/>
+      <c r="H104" s="121"/>
+      <c r="I104" s="121"/>
+      <c r="J104" s="121"/>
+      <c r="K104" s="121"/>
+      <c r="L104" s="121"/>
+      <c r="M104" s="121"/>
+      <c r="N104" s="121"/>
       <c r="O104" s="53"/>
       <c r="P104" s="53"/>
       <c r="Q104" s="53"/>
@@ -11330,38 +11704,38 @@
       <c r="S104" s="53"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="120"/>
-      <c r="B105" s="109" t="s">
+      <c r="A105" s="131"/>
+      <c r="B105" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="109"/>
-      <c r="D105" s="109" t="s">
+      <c r="C105" s="120"/>
+      <c r="D105" s="120" t="s">
         <v>120</v>
       </c>
-      <c r="E105" s="109"/>
+      <c r="E105" s="120"/>
       <c r="F105" s="1">
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H105" s="109">
+      <c r="H105" s="120">
         <v>3</v>
       </c>
-      <c r="I105" s="109">
-        <v>1</v>
-      </c>
-      <c r="J105" s="109">
+      <c r="I105" s="120">
+        <v>1</v>
+      </c>
+      <c r="J105" s="120">
         <v>3</v>
       </c>
-      <c r="K105" s="109" t="s">
+      <c r="K105" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="L105" s="109"/>
-      <c r="M105" s="109" t="s">
+      <c r="L105" s="120"/>
+      <c r="M105" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="N105" s="109"/>
+      <c r="N105" s="120"/>
       <c r="O105" s="51" t="s">
         <v>168</v>
       </c>
@@ -11379,24 +11753,24 @@
       </c>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="120"/>
-      <c r="B106" s="115"/>
-      <c r="C106" s="115"/>
-      <c r="D106" s="115"/>
-      <c r="E106" s="115"/>
+      <c r="A106" s="131"/>
+      <c r="B106" s="126"/>
+      <c r="C106" s="126"/>
+      <c r="D106" s="126"/>
+      <c r="E106" s="126"/>
       <c r="F106" s="1">
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H106" s="115"/>
-      <c r="I106" s="115"/>
-      <c r="J106" s="115"/>
-      <c r="K106" s="115"/>
-      <c r="L106" s="115"/>
-      <c r="M106" s="115"/>
-      <c r="N106" s="115"/>
+      <c r="H106" s="126"/>
+      <c r="I106" s="126"/>
+      <c r="J106" s="126"/>
+      <c r="K106" s="126"/>
+      <c r="L106" s="126"/>
+      <c r="M106" s="126"/>
+      <c r="N106" s="126"/>
       <c r="O106" s="52"/>
       <c r="P106" s="52"/>
       <c r="Q106" s="52"/>
@@ -11404,24 +11778,24 @@
       <c r="S106" s="52"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="120"/>
-      <c r="B107" s="110"/>
-      <c r="C107" s="110"/>
-      <c r="D107" s="110"/>
-      <c r="E107" s="110"/>
+      <c r="A107" s="131"/>
+      <c r="B107" s="121"/>
+      <c r="C107" s="121"/>
+      <c r="D107" s="121"/>
+      <c r="E107" s="121"/>
       <c r="F107" s="1">
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H107" s="110"/>
-      <c r="I107" s="110"/>
-      <c r="J107" s="110"/>
-      <c r="K107" s="110"/>
-      <c r="L107" s="110"/>
-      <c r="M107" s="110"/>
-      <c r="N107" s="110"/>
+      <c r="H107" s="121"/>
+      <c r="I107" s="121"/>
+      <c r="J107" s="121"/>
+      <c r="K107" s="121"/>
+      <c r="L107" s="121"/>
+      <c r="M107" s="121"/>
+      <c r="N107" s="121"/>
       <c r="O107" s="53"/>
       <c r="P107" s="53"/>
       <c r="Q107" s="53"/>
@@ -11429,15 +11803,15 @@
       <c r="S107" s="53"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="120"/>
-      <c r="B108" s="109"/>
-      <c r="C108" s="109" t="s">
+      <c r="A108" s="131"/>
+      <c r="B108" s="120"/>
+      <c r="C108" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="D108" s="109" t="s">
+      <c r="D108" s="120" t="s">
         <v>121</v>
       </c>
-      <c r="E108" s="109" t="s">
+      <c r="E108" s="120" t="s">
         <v>122</v>
       </c>
       <c r="F108" s="1">
@@ -11446,21 +11820,21 @@
       <c r="G108" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H108" s="109"/>
-      <c r="I108" s="109">
-        <v>1</v>
-      </c>
-      <c r="J108" s="109">
+      <c r="H108" s="120"/>
+      <c r="I108" s="120">
+        <v>1</v>
+      </c>
+      <c r="J108" s="120">
         <v>4</v>
       </c>
-      <c r="K108" s="109" t="s">
+      <c r="K108" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="L108" s="109"/>
-      <c r="M108" s="109" t="s">
+      <c r="L108" s="120"/>
+      <c r="M108" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="N108" s="109"/>
+      <c r="N108" s="120"/>
       <c r="O108" s="51" t="s">
         <v>168</v>
       </c>
@@ -11478,24 +11852,24 @@
       </c>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="120"/>
-      <c r="B109" s="115"/>
-      <c r="C109" s="115"/>
-      <c r="D109" s="115"/>
-      <c r="E109" s="115"/>
+      <c r="A109" s="131"/>
+      <c r="B109" s="126"/>
+      <c r="C109" s="126"/>
+      <c r="D109" s="126"/>
+      <c r="E109" s="126"/>
       <c r="F109" s="1">
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H109" s="115"/>
-      <c r="I109" s="115"/>
-      <c r="J109" s="115"/>
-      <c r="K109" s="115"/>
-      <c r="L109" s="115"/>
-      <c r="M109" s="115"/>
-      <c r="N109" s="115"/>
+      <c r="H109" s="126"/>
+      <c r="I109" s="126"/>
+      <c r="J109" s="126"/>
+      <c r="K109" s="126"/>
+      <c r="L109" s="126"/>
+      <c r="M109" s="126"/>
+      <c r="N109" s="126"/>
       <c r="O109" s="52"/>
       <c r="P109" s="52"/>
       <c r="Q109" s="52"/>
@@ -11503,24 +11877,24 @@
       <c r="S109" s="52"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="120"/>
-      <c r="B110" s="115"/>
-      <c r="C110" s="115"/>
-      <c r="D110" s="115"/>
-      <c r="E110" s="115"/>
+      <c r="A110" s="131"/>
+      <c r="B110" s="126"/>
+      <c r="C110" s="126"/>
+      <c r="D110" s="126"/>
+      <c r="E110" s="126"/>
       <c r="F110" s="1">
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H110" s="115"/>
-      <c r="I110" s="115"/>
-      <c r="J110" s="115"/>
-      <c r="K110" s="115"/>
-      <c r="L110" s="115"/>
-      <c r="M110" s="115"/>
-      <c r="N110" s="115"/>
+      <c r="H110" s="126"/>
+      <c r="I110" s="126"/>
+      <c r="J110" s="126"/>
+      <c r="K110" s="126"/>
+      <c r="L110" s="126"/>
+      <c r="M110" s="126"/>
+      <c r="N110" s="126"/>
       <c r="O110" s="52"/>
       <c r="P110" s="52"/>
       <c r="Q110" s="52"/>
@@ -11528,24 +11902,24 @@
       <c r="S110" s="52"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="120"/>
-      <c r="B111" s="110"/>
-      <c r="C111" s="110"/>
-      <c r="D111" s="110"/>
-      <c r="E111" s="110"/>
+      <c r="A111" s="131"/>
+      <c r="B111" s="121"/>
+      <c r="C111" s="121"/>
+      <c r="D111" s="121"/>
+      <c r="E111" s="121"/>
       <c r="F111" s="1">
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H111" s="110"/>
-      <c r="I111" s="110"/>
-      <c r="J111" s="110"/>
-      <c r="K111" s="110"/>
-      <c r="L111" s="110"/>
-      <c r="M111" s="110"/>
-      <c r="N111" s="110"/>
+      <c r="H111" s="121"/>
+      <c r="I111" s="121"/>
+      <c r="J111" s="121"/>
+      <c r="K111" s="121"/>
+      <c r="L111" s="121"/>
+      <c r="M111" s="121"/>
+      <c r="N111" s="121"/>
       <c r="O111" s="53"/>
       <c r="P111" s="53"/>
       <c r="Q111" s="53"/>
@@ -11553,7 +11927,7 @@
       <c r="S111" s="53"/>
     </row>
     <row r="112" spans="1:19" ht="19.5">
-      <c r="A112" s="120"/>
+      <c r="A112" s="131"/>
       <c r="B112" s="1" t="s">
         <v>61</v>
       </c>
@@ -11598,7 +11972,7 @@
       </c>
     </row>
     <row r="113" spans="1:23" ht="19.5">
-      <c r="A113" s="120"/>
+      <c r="A113" s="131"/>
       <c r="B113" s="1" t="s">
         <v>61</v>
       </c>
@@ -11643,7 +12017,7 @@
       </c>
     </row>
     <row r="114" spans="1:23" ht="19.5">
-      <c r="A114" s="121"/>
+      <c r="A114" s="132"/>
       <c r="B114" s="1" t="s">
         <v>61</v>
       </c>
@@ -11688,40 +12062,40 @@
       </c>
     </row>
     <row r="115" spans="1:23">
-      <c r="A115" s="119" t="s">
+      <c r="A115" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="C115" s="109"/>
-      <c r="D115" s="98" t="s">
+      <c r="B115" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="120"/>
+      <c r="D115" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="E115" s="109"/>
+      <c r="E115" s="120"/>
       <c r="F115" s="1">
         <v>1</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H115" s="109">
-        <v>1</v>
-      </c>
-      <c r="I115" s="98">
-        <v>1</v>
-      </c>
-      <c r="J115" s="98">
+      <c r="H115" s="120">
+        <v>1</v>
+      </c>
+      <c r="I115" s="109">
+        <v>1</v>
+      </c>
+      <c r="J115" s="109">
         <v>4</v>
       </c>
-      <c r="K115" s="109" t="s">
+      <c r="K115" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="L115" s="109"/>
-      <c r="M115" s="98" t="s">
+      <c r="L115" s="120"/>
+      <c r="M115" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="N115" s="109"/>
+      <c r="N115" s="120"/>
       <c r="O115" s="51" t="s">
         <v>169</v>
       </c>
@@ -11739,24 +12113,24 @@
       </c>
     </row>
     <row r="116" spans="1:23">
-      <c r="A116" s="115"/>
-      <c r="B116" s="115"/>
-      <c r="C116" s="115"/>
-      <c r="D116" s="100"/>
-      <c r="E116" s="115"/>
+      <c r="A116" s="126"/>
+      <c r="B116" s="126"/>
+      <c r="C116" s="126"/>
+      <c r="D116" s="111"/>
+      <c r="E116" s="126"/>
       <c r="F116" s="1">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H116" s="115"/>
-      <c r="I116" s="100"/>
-      <c r="J116" s="100"/>
-      <c r="K116" s="115"/>
-      <c r="L116" s="115"/>
-      <c r="M116" s="100"/>
-      <c r="N116" s="115"/>
+      <c r="H116" s="126"/>
+      <c r="I116" s="111"/>
+      <c r="J116" s="111"/>
+      <c r="K116" s="126"/>
+      <c r="L116" s="126"/>
+      <c r="M116" s="111"/>
+      <c r="N116" s="126"/>
       <c r="O116" s="52"/>
       <c r="P116" s="52"/>
       <c r="Q116" s="52"/>
@@ -11764,24 +12138,24 @@
       <c r="S116" s="52"/>
     </row>
     <row r="117" spans="1:23" s="7" customFormat="1">
-      <c r="A117" s="115"/>
-      <c r="B117" s="115"/>
-      <c r="C117" s="115"/>
-      <c r="D117" s="100"/>
-      <c r="E117" s="115"/>
+      <c r="A117" s="126"/>
+      <c r="B117" s="126"/>
+      <c r="C117" s="126"/>
+      <c r="D117" s="111"/>
+      <c r="E117" s="126"/>
       <c r="F117" s="6">
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H117" s="115"/>
-      <c r="I117" s="100"/>
-      <c r="J117" s="100"/>
-      <c r="K117" s="115"/>
-      <c r="L117" s="115"/>
-      <c r="M117" s="100"/>
-      <c r="N117" s="115"/>
+      <c r="H117" s="126"/>
+      <c r="I117" s="111"/>
+      <c r="J117" s="111"/>
+      <c r="K117" s="126"/>
+      <c r="L117" s="126"/>
+      <c r="M117" s="111"/>
+      <c r="N117" s="126"/>
       <c r="O117" s="52"/>
       <c r="P117" s="52"/>
       <c r="Q117" s="52"/>
@@ -11793,24 +12167,24 @@
       <c r="W117" s="27"/>
     </row>
     <row r="118" spans="1:23">
-      <c r="A118" s="115"/>
-      <c r="B118" s="110"/>
-      <c r="C118" s="110"/>
-      <c r="D118" s="99"/>
-      <c r="E118" s="110"/>
+      <c r="A118" s="126"/>
+      <c r="B118" s="121"/>
+      <c r="C118" s="121"/>
+      <c r="D118" s="110"/>
+      <c r="E118" s="121"/>
       <c r="F118" s="10">
         <v>4</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H118" s="110"/>
-      <c r="I118" s="99"/>
-      <c r="J118" s="99"/>
-      <c r="K118" s="110"/>
-      <c r="L118" s="110"/>
-      <c r="M118" s="99"/>
-      <c r="N118" s="110"/>
+      <c r="H118" s="121"/>
+      <c r="I118" s="110"/>
+      <c r="J118" s="110"/>
+      <c r="K118" s="121"/>
+      <c r="L118" s="121"/>
+      <c r="M118" s="110"/>
+      <c r="N118" s="121"/>
       <c r="O118" s="53"/>
       <c r="P118" s="53"/>
       <c r="Q118" s="53"/>
@@ -11818,15 +12192,15 @@
       <c r="S118" s="53"/>
     </row>
     <row r="119" spans="1:23">
-      <c r="A119" s="115"/>
-      <c r="B119" s="109"/>
-      <c r="C119" s="109" t="s">
+      <c r="A119" s="126"/>
+      <c r="B119" s="120"/>
+      <c r="C119" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="D119" s="98" t="s">
+      <c r="D119" s="109" t="s">
         <v>148</v>
       </c>
-      <c r="E119" s="98" t="s">
+      <c r="E119" s="109" t="s">
         <v>147</v>
       </c>
       <c r="F119" s="1">
@@ -11835,23 +12209,23 @@
       <c r="G119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H119" s="109">
-        <v>1</v>
-      </c>
-      <c r="I119" s="98">
-        <v>1</v>
-      </c>
-      <c r="J119" s="98">
+      <c r="H119" s="120">
+        <v>1</v>
+      </c>
+      <c r="I119" s="109">
+        <v>1</v>
+      </c>
+      <c r="J119" s="109">
         <v>4</v>
       </c>
-      <c r="K119" s="109" t="s">
+      <c r="K119" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="L119" s="109"/>
-      <c r="M119" s="98" t="s">
+      <c r="L119" s="120"/>
+      <c r="M119" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="N119" s="109"/>
+      <c r="N119" s="120"/>
       <c r="O119" s="51" t="s">
         <v>169</v>
       </c>
@@ -11869,24 +12243,24 @@
       </c>
     </row>
     <row r="120" spans="1:23">
-      <c r="A120" s="115"/>
-      <c r="B120" s="115"/>
-      <c r="C120" s="115"/>
-      <c r="D120" s="100"/>
-      <c r="E120" s="100"/>
+      <c r="A120" s="126"/>
+      <c r="B120" s="126"/>
+      <c r="C120" s="126"/>
+      <c r="D120" s="111"/>
+      <c r="E120" s="111"/>
       <c r="F120" s="1">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H120" s="115"/>
-      <c r="I120" s="100"/>
-      <c r="J120" s="100"/>
-      <c r="K120" s="115"/>
-      <c r="L120" s="115"/>
-      <c r="M120" s="100"/>
-      <c r="N120" s="115"/>
+      <c r="H120" s="126"/>
+      <c r="I120" s="111"/>
+      <c r="J120" s="111"/>
+      <c r="K120" s="126"/>
+      <c r="L120" s="126"/>
+      <c r="M120" s="111"/>
+      <c r="N120" s="126"/>
       <c r="O120" s="52"/>
       <c r="P120" s="52"/>
       <c r="Q120" s="52"/>
@@ -11894,24 +12268,24 @@
       <c r="S120" s="52"/>
     </row>
     <row r="121" spans="1:23">
-      <c r="A121" s="115"/>
-      <c r="B121" s="115"/>
-      <c r="C121" s="115"/>
-      <c r="D121" s="100"/>
-      <c r="E121" s="100"/>
+      <c r="A121" s="126"/>
+      <c r="B121" s="126"/>
+      <c r="C121" s="126"/>
+      <c r="D121" s="111"/>
+      <c r="E121" s="111"/>
       <c r="F121" s="1">
         <v>3</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H121" s="115"/>
-      <c r="I121" s="100"/>
-      <c r="J121" s="100"/>
-      <c r="K121" s="115"/>
-      <c r="L121" s="115"/>
-      <c r="M121" s="100"/>
-      <c r="N121" s="115"/>
+      <c r="H121" s="126"/>
+      <c r="I121" s="111"/>
+      <c r="J121" s="111"/>
+      <c r="K121" s="126"/>
+      <c r="L121" s="126"/>
+      <c r="M121" s="111"/>
+      <c r="N121" s="126"/>
       <c r="O121" s="52"/>
       <c r="P121" s="52"/>
       <c r="Q121" s="52"/>
@@ -11919,24 +12293,24 @@
       <c r="S121" s="52"/>
     </row>
     <row r="122" spans="1:23">
-      <c r="A122" s="115"/>
-      <c r="B122" s="110"/>
-      <c r="C122" s="110"/>
-      <c r="D122" s="99"/>
-      <c r="E122" s="99"/>
+      <c r="A122" s="126"/>
+      <c r="B122" s="121"/>
+      <c r="C122" s="121"/>
+      <c r="D122" s="110"/>
+      <c r="E122" s="110"/>
       <c r="F122" s="1">
         <v>4</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H122" s="110"/>
-      <c r="I122" s="99"/>
-      <c r="J122" s="99"/>
-      <c r="K122" s="110"/>
-      <c r="L122" s="110"/>
-      <c r="M122" s="99"/>
-      <c r="N122" s="110"/>
+      <c r="H122" s="121"/>
+      <c r="I122" s="110"/>
+      <c r="J122" s="110"/>
+      <c r="K122" s="121"/>
+      <c r="L122" s="121"/>
+      <c r="M122" s="110"/>
+      <c r="N122" s="121"/>
       <c r="O122" s="53"/>
       <c r="P122" s="53"/>
       <c r="Q122" s="53"/>
@@ -11944,38 +12318,38 @@
       <c r="S122" s="53"/>
     </row>
     <row r="123" spans="1:23">
-      <c r="A123" s="115"/>
-      <c r="B123" s="109" t="s">
+      <c r="A123" s="126"/>
+      <c r="B123" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="C123" s="109"/>
-      <c r="D123" s="109" t="s">
+      <c r="C123" s="120"/>
+      <c r="D123" s="120" t="s">
         <v>126</v>
       </c>
-      <c r="E123" s="109"/>
+      <c r="E123" s="120"/>
       <c r="F123" s="1">
         <v>1</v>
       </c>
       <c r="G123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H123" s="109">
-        <v>1</v>
-      </c>
-      <c r="I123" s="109">
-        <v>1</v>
-      </c>
-      <c r="J123" s="109">
+      <c r="H123" s="120">
+        <v>1</v>
+      </c>
+      <c r="I123" s="120">
+        <v>1</v>
+      </c>
+      <c r="J123" s="120">
         <v>2</v>
       </c>
-      <c r="K123" s="109" t="s">
+      <c r="K123" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="L123" s="109"/>
-      <c r="M123" s="109" t="s">
+      <c r="L123" s="120"/>
+      <c r="M123" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="N123" s="109"/>
+      <c r="N123" s="120"/>
       <c r="O123" s="51" t="s">
         <v>51</v>
       </c>
@@ -11993,24 +12367,24 @@
       </c>
     </row>
     <row r="124" spans="1:23">
-      <c r="A124" s="115"/>
-      <c r="B124" s="110"/>
-      <c r="C124" s="110"/>
-      <c r="D124" s="110"/>
-      <c r="E124" s="110"/>
+      <c r="A124" s="126"/>
+      <c r="B124" s="121"/>
+      <c r="C124" s="121"/>
+      <c r="D124" s="121"/>
+      <c r="E124" s="121"/>
       <c r="F124" s="1">
         <v>2</v>
       </c>
       <c r="G124" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H124" s="110"/>
-      <c r="I124" s="110"/>
-      <c r="J124" s="110"/>
-      <c r="K124" s="110"/>
-      <c r="L124" s="110"/>
-      <c r="M124" s="110"/>
-      <c r="N124" s="110"/>
+      <c r="H124" s="121"/>
+      <c r="I124" s="121"/>
+      <c r="J124" s="121"/>
+      <c r="K124" s="121"/>
+      <c r="L124" s="121"/>
+      <c r="M124" s="121"/>
+      <c r="N124" s="121"/>
       <c r="O124" s="53"/>
       <c r="P124" s="53"/>
       <c r="Q124" s="53"/>
@@ -12018,12 +12392,12 @@
       <c r="S124" s="53"/>
     </row>
     <row r="125" spans="1:23" s="11" customFormat="1">
-      <c r="A125" s="115"/>
-      <c r="B125" s="106" t="s">
+      <c r="A125" s="126"/>
+      <c r="B125" s="117" t="s">
         <v>51</v>
       </c>
       <c r="C125" s="12"/>
-      <c r="D125" s="103" t="s">
+      <c r="D125" s="114" t="s">
         <v>150</v>
       </c>
       <c r="E125" s="12"/>
@@ -12033,20 +12407,20 @@
       <c r="G125" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H125" s="98">
-        <v>1</v>
-      </c>
-      <c r="I125" s="98">
-        <v>1</v>
-      </c>
-      <c r="J125" s="98">
+      <c r="H125" s="109">
+        <v>1</v>
+      </c>
+      <c r="I125" s="109">
+        <v>1</v>
+      </c>
+      <c r="J125" s="109">
         <v>2</v>
       </c>
-      <c r="K125" s="98" t="s">
+      <c r="K125" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="L125" s="109"/>
-      <c r="M125" s="109" t="s">
+      <c r="L125" s="120"/>
+      <c r="M125" s="120" t="s">
         <v>38</v>
       </c>
       <c r="N125" s="12"/>
@@ -12071,10 +12445,10 @@
       <c r="W125" s="27"/>
     </row>
     <row r="126" spans="1:23" s="11" customFormat="1">
-      <c r="A126" s="115"/>
-      <c r="B126" s="114"/>
+      <c r="A126" s="126"/>
+      <c r="B126" s="125"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="105"/>
+      <c r="D126" s="116"/>
       <c r="E126" s="12"/>
       <c r="F126" s="10">
         <v>2</v>
@@ -12082,12 +12456,12 @@
       <c r="G126" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H126" s="99"/>
-      <c r="I126" s="99"/>
-      <c r="J126" s="99"/>
-      <c r="K126" s="99"/>
-      <c r="L126" s="110"/>
-      <c r="M126" s="110"/>
+      <c r="H126" s="110"/>
+      <c r="I126" s="110"/>
+      <c r="J126" s="110"/>
+      <c r="K126" s="110"/>
+      <c r="L126" s="121"/>
+      <c r="M126" s="121"/>
       <c r="N126" s="12"/>
       <c r="O126" s="53"/>
       <c r="P126" s="53"/>
@@ -12100,15 +12474,15 @@
       <c r="W126" s="27"/>
     </row>
     <row r="127" spans="1:23">
-      <c r="A127" s="115"/>
-      <c r="B127" s="109" t="s">
+      <c r="A127" s="126"/>
+      <c r="B127" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="C127" s="109"/>
-      <c r="D127" s="117" t="s">
+      <c r="C127" s="120"/>
+      <c r="D127" s="128" t="s">
         <v>186</v>
       </c>
-      <c r="E127" s="116" t="s">
+      <c r="E127" s="127" t="s">
         <v>145</v>
       </c>
       <c r="F127" s="1">
@@ -12117,20 +12491,20 @@
       <c r="G127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="109">
+      <c r="H127" s="120">
         <v>2</v>
       </c>
-      <c r="I127" s="109">
-        <v>1</v>
-      </c>
-      <c r="J127" s="98">
+      <c r="I127" s="120">
+        <v>1</v>
+      </c>
+      <c r="J127" s="109">
         <v>15</v>
       </c>
-      <c r="K127" s="109" t="s">
+      <c r="K127" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="L127" s="109"/>
-      <c r="M127" s="109" t="s">
+      <c r="L127" s="120"/>
+      <c r="M127" s="120" t="s">
         <v>74</v>
       </c>
       <c r="N127" s="8" t="s">
@@ -12153,23 +12527,23 @@
       </c>
     </row>
     <row r="128" spans="1:23">
-      <c r="A128" s="115"/>
-      <c r="B128" s="115"/>
-      <c r="C128" s="115"/>
-      <c r="D128" s="117"/>
-      <c r="E128" s="116"/>
+      <c r="A128" s="126"/>
+      <c r="B128" s="126"/>
+      <c r="C128" s="126"/>
+      <c r="D128" s="128"/>
+      <c r="E128" s="127"/>
       <c r="F128" s="1">
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H128" s="115"/>
-      <c r="I128" s="115"/>
-      <c r="J128" s="100"/>
-      <c r="K128" s="115"/>
-      <c r="L128" s="115"/>
-      <c r="M128" s="115"/>
+      <c r="H128" s="126"/>
+      <c r="I128" s="126"/>
+      <c r="J128" s="111"/>
+      <c r="K128" s="126"/>
+      <c r="L128" s="126"/>
+      <c r="M128" s="126"/>
       <c r="N128" s="9" t="s">
         <v>142</v>
       </c>
@@ -12190,23 +12564,23 @@
       </c>
     </row>
     <row r="129" spans="1:23">
-      <c r="A129" s="115"/>
-      <c r="B129" s="115"/>
-      <c r="C129" s="115"/>
-      <c r="D129" s="117"/>
-      <c r="E129" s="116"/>
+      <c r="A129" s="126"/>
+      <c r="B129" s="126"/>
+      <c r="C129" s="126"/>
+      <c r="D129" s="128"/>
+      <c r="E129" s="127"/>
       <c r="F129" s="1">
         <v>3</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H129" s="115"/>
-      <c r="I129" s="115"/>
-      <c r="J129" s="100"/>
-      <c r="K129" s="115"/>
-      <c r="L129" s="115"/>
-      <c r="M129" s="115"/>
+      <c r="H129" s="126"/>
+      <c r="I129" s="126"/>
+      <c r="J129" s="111"/>
+      <c r="K129" s="126"/>
+      <c r="L129" s="126"/>
+      <c r="M129" s="126"/>
       <c r="N129" s="9" t="s">
         <v>142</v>
       </c>
@@ -12227,23 +12601,23 @@
       </c>
     </row>
     <row r="130" spans="1:23">
-      <c r="A130" s="115"/>
-      <c r="B130" s="115"/>
-      <c r="C130" s="115"/>
-      <c r="D130" s="117"/>
-      <c r="E130" s="116"/>
+      <c r="A130" s="126"/>
+      <c r="B130" s="126"/>
+      <c r="C130" s="126"/>
+      <c r="D130" s="128"/>
+      <c r="E130" s="127"/>
       <c r="F130" s="1">
         <v>4</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="115"/>
-      <c r="I130" s="115"/>
-      <c r="J130" s="100"/>
-      <c r="K130" s="115"/>
-      <c r="L130" s="115"/>
-      <c r="M130" s="115"/>
+      <c r="H130" s="126"/>
+      <c r="I130" s="126"/>
+      <c r="J130" s="111"/>
+      <c r="K130" s="126"/>
+      <c r="L130" s="126"/>
+      <c r="M130" s="126"/>
       <c r="N130" s="9" t="s">
         <v>142</v>
       </c>
@@ -12264,23 +12638,23 @@
       </c>
     </row>
     <row r="131" spans="1:23">
-      <c r="A131" s="115"/>
-      <c r="B131" s="115"/>
-      <c r="C131" s="115"/>
-      <c r="D131" s="117"/>
-      <c r="E131" s="116"/>
+      <c r="A131" s="126"/>
+      <c r="B131" s="126"/>
+      <c r="C131" s="126"/>
+      <c r="D131" s="128"/>
+      <c r="E131" s="127"/>
       <c r="F131" s="1">
         <v>5</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H131" s="115"/>
-      <c r="I131" s="115"/>
-      <c r="J131" s="100"/>
-      <c r="K131" s="115"/>
-      <c r="L131" s="115"/>
-      <c r="M131" s="115"/>
+      <c r="H131" s="126"/>
+      <c r="I131" s="126"/>
+      <c r="J131" s="111"/>
+      <c r="K131" s="126"/>
+      <c r="L131" s="126"/>
+      <c r="M131" s="126"/>
       <c r="N131" s="9" t="s">
         <v>142</v>
       </c>
@@ -12301,23 +12675,23 @@
       </c>
     </row>
     <row r="132" spans="1:23">
-      <c r="A132" s="115"/>
-      <c r="B132" s="115"/>
-      <c r="C132" s="115"/>
-      <c r="D132" s="117"/>
-      <c r="E132" s="116"/>
+      <c r="A132" s="126"/>
+      <c r="B132" s="126"/>
+      <c r="C132" s="126"/>
+      <c r="D132" s="128"/>
+      <c r="E132" s="127"/>
       <c r="F132" s="1">
         <v>6</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H132" s="115"/>
-      <c r="I132" s="115"/>
-      <c r="J132" s="100"/>
-      <c r="K132" s="115"/>
-      <c r="L132" s="115"/>
-      <c r="M132" s="115"/>
+      <c r="H132" s="126"/>
+      <c r="I132" s="126"/>
+      <c r="J132" s="111"/>
+      <c r="K132" s="126"/>
+      <c r="L132" s="126"/>
+      <c r="M132" s="126"/>
       <c r="N132" s="9" t="s">
         <v>142</v>
       </c>
@@ -12338,23 +12712,23 @@
       </c>
     </row>
     <row r="133" spans="1:23">
-      <c r="A133" s="115"/>
-      <c r="B133" s="115"/>
-      <c r="C133" s="115"/>
-      <c r="D133" s="117"/>
-      <c r="E133" s="116"/>
+      <c r="A133" s="126"/>
+      <c r="B133" s="126"/>
+      <c r="C133" s="126"/>
+      <c r="D133" s="128"/>
+      <c r="E133" s="127"/>
       <c r="F133" s="1">
         <v>7</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="115"/>
-      <c r="I133" s="115"/>
-      <c r="J133" s="100"/>
-      <c r="K133" s="115"/>
-      <c r="L133" s="115"/>
-      <c r="M133" s="115"/>
+      <c r="H133" s="126"/>
+      <c r="I133" s="126"/>
+      <c r="J133" s="111"/>
+      <c r="K133" s="126"/>
+      <c r="L133" s="126"/>
+      <c r="M133" s="126"/>
       <c r="N133" s="9" t="s">
         <v>142</v>
       </c>
@@ -12375,23 +12749,23 @@
       </c>
     </row>
     <row r="134" spans="1:23">
-      <c r="A134" s="115"/>
-      <c r="B134" s="115"/>
-      <c r="C134" s="115"/>
-      <c r="D134" s="117"/>
-      <c r="E134" s="116"/>
+      <c r="A134" s="126"/>
+      <c r="B134" s="126"/>
+      <c r="C134" s="126"/>
+      <c r="D134" s="128"/>
+      <c r="E134" s="127"/>
       <c r="F134" s="1">
         <v>8</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H134" s="115"/>
-      <c r="I134" s="115"/>
-      <c r="J134" s="100"/>
-      <c r="K134" s="115"/>
-      <c r="L134" s="115"/>
-      <c r="M134" s="115"/>
+      <c r="H134" s="126"/>
+      <c r="I134" s="126"/>
+      <c r="J134" s="111"/>
+      <c r="K134" s="126"/>
+      <c r="L134" s="126"/>
+      <c r="M134" s="126"/>
       <c r="N134" s="9" t="s">
         <v>142</v>
       </c>
@@ -12412,23 +12786,23 @@
       </c>
     </row>
     <row r="135" spans="1:23">
-      <c r="A135" s="115"/>
-      <c r="B135" s="115"/>
-      <c r="C135" s="115"/>
-      <c r="D135" s="117"/>
-      <c r="E135" s="116"/>
+      <c r="A135" s="126"/>
+      <c r="B135" s="126"/>
+      <c r="C135" s="126"/>
+      <c r="D135" s="128"/>
+      <c r="E135" s="127"/>
       <c r="F135" s="1">
         <v>9</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="115"/>
-      <c r="I135" s="115"/>
-      <c r="J135" s="100"/>
-      <c r="K135" s="115"/>
-      <c r="L135" s="115"/>
-      <c r="M135" s="115"/>
+      <c r="H135" s="126"/>
+      <c r="I135" s="126"/>
+      <c r="J135" s="111"/>
+      <c r="K135" s="126"/>
+      <c r="L135" s="126"/>
+      <c r="M135" s="126"/>
       <c r="N135" s="9" t="s">
         <v>142</v>
       </c>
@@ -12449,23 +12823,23 @@
       </c>
     </row>
     <row r="136" spans="1:23">
-      <c r="A136" s="115"/>
-      <c r="B136" s="115"/>
-      <c r="C136" s="115"/>
-      <c r="D136" s="117"/>
-      <c r="E136" s="116"/>
+      <c r="A136" s="126"/>
+      <c r="B136" s="126"/>
+      <c r="C136" s="126"/>
+      <c r="D136" s="128"/>
+      <c r="E136" s="127"/>
       <c r="F136" s="1">
         <v>10</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H136" s="115"/>
-      <c r="I136" s="115"/>
-      <c r="J136" s="100"/>
-      <c r="K136" s="115"/>
-      <c r="L136" s="115"/>
-      <c r="M136" s="115"/>
+      <c r="H136" s="126"/>
+      <c r="I136" s="126"/>
+      <c r="J136" s="111"/>
+      <c r="K136" s="126"/>
+      <c r="L136" s="126"/>
+      <c r="M136" s="126"/>
       <c r="N136" s="9" t="s">
         <v>142</v>
       </c>
@@ -12486,23 +12860,23 @@
       </c>
     </row>
     <row r="137" spans="1:23" s="7" customFormat="1">
-      <c r="A137" s="115"/>
-      <c r="B137" s="115"/>
-      <c r="C137" s="115"/>
-      <c r="D137" s="117"/>
-      <c r="E137" s="116"/>
+      <c r="A137" s="126"/>
+      <c r="B137" s="126"/>
+      <c r="C137" s="126"/>
+      <c r="D137" s="128"/>
+      <c r="E137" s="127"/>
       <c r="F137" s="10">
         <v>11</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H137" s="115"/>
-      <c r="I137" s="115"/>
-      <c r="J137" s="100"/>
-      <c r="K137" s="115"/>
-      <c r="L137" s="115"/>
-      <c r="M137" s="115"/>
+      <c r="H137" s="126"/>
+      <c r="I137" s="126"/>
+      <c r="J137" s="111"/>
+      <c r="K137" s="126"/>
+      <c r="L137" s="126"/>
+      <c r="M137" s="126"/>
       <c r="N137" s="9" t="s">
         <v>143</v>
       </c>
@@ -12527,23 +12901,23 @@
       <c r="W137" s="27"/>
     </row>
     <row r="138" spans="1:23" s="4" customFormat="1">
-      <c r="A138" s="115"/>
-      <c r="B138" s="115"/>
-      <c r="C138" s="115"/>
-      <c r="D138" s="117"/>
-      <c r="E138" s="116"/>
+      <c r="A138" s="126"/>
+      <c r="B138" s="126"/>
+      <c r="C138" s="126"/>
+      <c r="D138" s="128"/>
+      <c r="E138" s="127"/>
       <c r="F138" s="10">
         <v>12</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H138" s="115"/>
-      <c r="I138" s="115"/>
-      <c r="J138" s="100"/>
-      <c r="K138" s="115"/>
-      <c r="L138" s="115"/>
-      <c r="M138" s="115"/>
+      <c r="H138" s="126"/>
+      <c r="I138" s="126"/>
+      <c r="J138" s="111"/>
+      <c r="K138" s="126"/>
+      <c r="L138" s="126"/>
+      <c r="M138" s="126"/>
       <c r="N138" s="9" t="s">
         <v>143</v>
       </c>
@@ -12568,23 +12942,23 @@
       <c r="W138" s="27"/>
     </row>
     <row r="139" spans="1:23" s="4" customFormat="1">
-      <c r="A139" s="115"/>
-      <c r="B139" s="115"/>
-      <c r="C139" s="115"/>
-      <c r="D139" s="117"/>
-      <c r="E139" s="116"/>
+      <c r="A139" s="126"/>
+      <c r="B139" s="126"/>
+      <c r="C139" s="126"/>
+      <c r="D139" s="128"/>
+      <c r="E139" s="127"/>
       <c r="F139" s="10">
         <v>13</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H139" s="115"/>
-      <c r="I139" s="115"/>
-      <c r="J139" s="100"/>
-      <c r="K139" s="115"/>
-      <c r="L139" s="115"/>
-      <c r="M139" s="115"/>
+      <c r="H139" s="126"/>
+      <c r="I139" s="126"/>
+      <c r="J139" s="111"/>
+      <c r="K139" s="126"/>
+      <c r="L139" s="126"/>
+      <c r="M139" s="126"/>
       <c r="N139" s="9" t="s">
         <v>144</v>
       </c>
@@ -12609,23 +12983,23 @@
       <c r="W139" s="27"/>
     </row>
     <row r="140" spans="1:23" s="58" customFormat="1">
-      <c r="A140" s="115"/>
-      <c r="B140" s="115"/>
-      <c r="C140" s="115"/>
-      <c r="D140" s="117"/>
-      <c r="E140" s="116"/>
+      <c r="A140" s="126"/>
+      <c r="B140" s="126"/>
+      <c r="C140" s="126"/>
+      <c r="D140" s="128"/>
+      <c r="E140" s="127"/>
       <c r="F140" s="75">
         <v>14</v>
       </c>
       <c r="G140" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="H140" s="115"/>
-      <c r="I140" s="115"/>
-      <c r="J140" s="100"/>
-      <c r="K140" s="115"/>
-      <c r="L140" s="115"/>
-      <c r="M140" s="115"/>
+      <c r="H140" s="126"/>
+      <c r="I140" s="126"/>
+      <c r="J140" s="111"/>
+      <c r="K140" s="126"/>
+      <c r="L140" s="126"/>
+      <c r="M140" s="126"/>
       <c r="N140" s="74" t="s">
         <v>269</v>
       </c>
@@ -12646,23 +13020,23 @@
       </c>
     </row>
     <row r="141" spans="1:23" s="7" customFormat="1">
-      <c r="A141" s="115"/>
-      <c r="B141" s="115"/>
-      <c r="C141" s="115"/>
-      <c r="D141" s="117"/>
-      <c r="E141" s="116"/>
+      <c r="A141" s="126"/>
+      <c r="B141" s="126"/>
+      <c r="C141" s="126"/>
+      <c r="D141" s="128"/>
+      <c r="E141" s="127"/>
       <c r="F141" s="10">
         <v>15</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="H141" s="115"/>
-      <c r="I141" s="115"/>
-      <c r="J141" s="100"/>
-      <c r="K141" s="115"/>
-      <c r="L141" s="115"/>
-      <c r="M141" s="115"/>
+      <c r="H141" s="126"/>
+      <c r="I141" s="126"/>
+      <c r="J141" s="111"/>
+      <c r="K141" s="126"/>
+      <c r="L141" s="126"/>
+      <c r="M141" s="126"/>
       <c r="N141" s="9"/>
       <c r="O141" s="55" t="s">
         <v>51</v>
@@ -12685,15 +13059,15 @@
       <c r="W141" s="27"/>
     </row>
     <row r="142" spans="1:23">
-      <c r="A142" s="115"/>
-      <c r="B142" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" s="109"/>
-      <c r="D142" s="117" t="s">
+      <c r="A142" s="126"/>
+      <c r="B142" s="120" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="120"/>
+      <c r="D142" s="128" t="s">
         <v>187</v>
       </c>
-      <c r="E142" s="116" t="s">
+      <c r="E142" s="127" t="s">
         <v>146</v>
       </c>
       <c r="F142" s="10">
@@ -12702,20 +13076,20 @@
       <c r="G142" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H142" s="118">
-        <v>1</v>
-      </c>
-      <c r="I142" s="118">
-        <v>1</v>
-      </c>
-      <c r="J142" s="116">
+      <c r="H142" s="129">
+        <v>1</v>
+      </c>
+      <c r="I142" s="129">
+        <v>1</v>
+      </c>
+      <c r="J142" s="127">
         <v>4</v>
       </c>
-      <c r="K142" s="109" t="s">
+      <c r="K142" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="L142" s="109"/>
-      <c r="M142" s="109" t="s">
+      <c r="L142" s="120"/>
+      <c r="M142" s="120" t="s">
         <v>38</v>
       </c>
       <c r="N142" s="29"/>
@@ -12736,23 +13110,23 @@
       </c>
     </row>
     <row r="143" spans="1:23">
-      <c r="A143" s="115"/>
-      <c r="B143" s="115"/>
-      <c r="C143" s="115"/>
-      <c r="D143" s="117"/>
-      <c r="E143" s="116"/>
+      <c r="A143" s="126"/>
+      <c r="B143" s="126"/>
+      <c r="C143" s="126"/>
+      <c r="D143" s="128"/>
+      <c r="E143" s="127"/>
       <c r="F143" s="10">
         <v>2</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H143" s="118"/>
-      <c r="I143" s="118"/>
-      <c r="J143" s="116"/>
-      <c r="K143" s="115"/>
-      <c r="L143" s="115"/>
-      <c r="M143" s="115"/>
+      <c r="H143" s="129"/>
+      <c r="I143" s="129"/>
+      <c r="J143" s="127"/>
+      <c r="K143" s="126"/>
+      <c r="L143" s="126"/>
+      <c r="M143" s="126"/>
       <c r="N143" s="32"/>
       <c r="O143" s="55" t="s">
         <v>169</v>
@@ -12771,23 +13145,23 @@
       </c>
     </row>
     <row r="144" spans="1:23" s="7" customFormat="1">
-      <c r="A144" s="115"/>
-      <c r="B144" s="115"/>
-      <c r="C144" s="115"/>
-      <c r="D144" s="117"/>
-      <c r="E144" s="116"/>
+      <c r="A144" s="126"/>
+      <c r="B144" s="126"/>
+      <c r="C144" s="126"/>
+      <c r="D144" s="128"/>
+      <c r="E144" s="127"/>
       <c r="F144" s="10">
         <v>3</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H144" s="118"/>
-      <c r="I144" s="118"/>
-      <c r="J144" s="116"/>
-      <c r="K144" s="115"/>
-      <c r="L144" s="115"/>
-      <c r="M144" s="115"/>
+      <c r="H144" s="129"/>
+      <c r="I144" s="129"/>
+      <c r="J144" s="127"/>
+      <c r="K144" s="126"/>
+      <c r="L144" s="126"/>
+      <c r="M144" s="126"/>
       <c r="N144" s="32"/>
       <c r="O144" s="55" t="s">
         <v>169</v>
@@ -12810,23 +13184,23 @@
       <c r="W144" s="27"/>
     </row>
     <row r="145" spans="1:19">
-      <c r="A145" s="115"/>
-      <c r="B145" s="110"/>
-      <c r="C145" s="110"/>
-      <c r="D145" s="117"/>
-      <c r="E145" s="116"/>
+      <c r="A145" s="126"/>
+      <c r="B145" s="121"/>
+      <c r="C145" s="121"/>
+      <c r="D145" s="128"/>
+      <c r="E145" s="127"/>
       <c r="F145" s="10">
         <v>4</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H145" s="118"/>
-      <c r="I145" s="118"/>
-      <c r="J145" s="116"/>
-      <c r="K145" s="110"/>
-      <c r="L145" s="110"/>
-      <c r="M145" s="110"/>
+      <c r="H145" s="129"/>
+      <c r="I145" s="129"/>
+      <c r="J145" s="127"/>
+      <c r="K145" s="121"/>
+      <c r="L145" s="121"/>
+      <c r="M145" s="121"/>
       <c r="N145" s="30"/>
       <c r="O145" s="55" t="s">
         <v>169</v>
@@ -12845,15 +13219,15 @@
       </c>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="115"/>
-      <c r="B146" s="109"/>
-      <c r="C146" s="109" t="s">
+      <c r="A146" s="126"/>
+      <c r="B146" s="120"/>
+      <c r="C146" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="D146" s="98" t="s">
+      <c r="D146" s="109" t="s">
         <v>149</v>
       </c>
-      <c r="E146" s="98" t="s">
+      <c r="E146" s="109" t="s">
         <v>189</v>
       </c>
       <c r="F146" s="1">
@@ -12862,23 +13236,23 @@
       <c r="G146" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H146" s="109">
-        <v>1</v>
-      </c>
-      <c r="I146" s="109">
-        <v>1</v>
-      </c>
-      <c r="J146" s="109">
+      <c r="H146" s="120">
+        <v>1</v>
+      </c>
+      <c r="I146" s="120">
+        <v>1</v>
+      </c>
+      <c r="J146" s="120">
         <v>4</v>
       </c>
-      <c r="K146" s="109" t="s">
+      <c r="K146" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="L146" s="109"/>
-      <c r="M146" s="109" t="s">
+      <c r="L146" s="120"/>
+      <c r="M146" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="N146" s="109"/>
+      <c r="N146" s="120"/>
       <c r="O146" s="55" t="s">
         <v>169</v>
       </c>
@@ -12896,24 +13270,24 @@
       </c>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="115"/>
-      <c r="B147" s="115"/>
-      <c r="C147" s="115"/>
-      <c r="D147" s="100"/>
-      <c r="E147" s="100"/>
+      <c r="A147" s="126"/>
+      <c r="B147" s="126"/>
+      <c r="C147" s="126"/>
+      <c r="D147" s="111"/>
+      <c r="E147" s="111"/>
       <c r="F147" s="1">
         <v>2</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H147" s="115"/>
-      <c r="I147" s="115"/>
-      <c r="J147" s="115"/>
-      <c r="K147" s="115"/>
-      <c r="L147" s="115"/>
-      <c r="M147" s="115"/>
-      <c r="N147" s="115"/>
+      <c r="H147" s="126"/>
+      <c r="I147" s="126"/>
+      <c r="J147" s="126"/>
+      <c r="K147" s="126"/>
+      <c r="L147" s="126"/>
+      <c r="M147" s="126"/>
+      <c r="N147" s="126"/>
       <c r="O147" s="55" t="s">
         <v>169</v>
       </c>
@@ -12931,24 +13305,24 @@
       </c>
     </row>
     <row r="148" spans="1:19">
-      <c r="A148" s="115"/>
-      <c r="B148" s="115"/>
-      <c r="C148" s="115"/>
-      <c r="D148" s="100"/>
-      <c r="E148" s="100"/>
+      <c r="A148" s="126"/>
+      <c r="B148" s="126"/>
+      <c r="C148" s="126"/>
+      <c r="D148" s="111"/>
+      <c r="E148" s="111"/>
       <c r="F148" s="1">
         <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H148" s="115"/>
-      <c r="I148" s="115"/>
-      <c r="J148" s="115"/>
-      <c r="K148" s="115"/>
-      <c r="L148" s="115"/>
-      <c r="M148" s="115"/>
-      <c r="N148" s="115"/>
+      <c r="H148" s="126"/>
+      <c r="I148" s="126"/>
+      <c r="J148" s="126"/>
+      <c r="K148" s="126"/>
+      <c r="L148" s="126"/>
+      <c r="M148" s="126"/>
+      <c r="N148" s="126"/>
       <c r="O148" s="55" t="s">
         <v>169</v>
       </c>
@@ -12966,24 +13340,24 @@
       </c>
     </row>
     <row r="149" spans="1:19">
-      <c r="A149" s="115"/>
-      <c r="B149" s="110"/>
-      <c r="C149" s="110"/>
-      <c r="D149" s="99"/>
-      <c r="E149" s="99"/>
+      <c r="A149" s="126"/>
+      <c r="B149" s="121"/>
+      <c r="C149" s="121"/>
+      <c r="D149" s="110"/>
+      <c r="E149" s="110"/>
       <c r="F149" s="1">
         <v>4</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H149" s="110"/>
-      <c r="I149" s="110"/>
-      <c r="J149" s="110"/>
-      <c r="K149" s="110"/>
-      <c r="L149" s="110"/>
-      <c r="M149" s="110"/>
-      <c r="N149" s="110"/>
+      <c r="H149" s="121"/>
+      <c r="I149" s="121"/>
+      <c r="J149" s="121"/>
+      <c r="K149" s="121"/>
+      <c r="L149" s="121"/>
+      <c r="M149" s="121"/>
+      <c r="N149" s="121"/>
       <c r="O149" s="55" t="s">
         <v>169</v>
       </c>
@@ -13001,38 +13375,38 @@
       </c>
     </row>
     <row r="150" spans="1:19">
-      <c r="A150" s="115"/>
-      <c r="B150" s="109" t="s">
+      <c r="A150" s="126"/>
+      <c r="B150" s="120" t="s">
         <v>61</v>
       </c>
-      <c r="C150" s="109"/>
-      <c r="D150" s="109" t="s">
+      <c r="C150" s="120"/>
+      <c r="D150" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="E150" s="109"/>
+      <c r="E150" s="120"/>
       <c r="F150" s="1">
         <v>1</v>
       </c>
       <c r="G150" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H150" s="109">
-        <v>1</v>
-      </c>
-      <c r="I150" s="109">
-        <v>1</v>
-      </c>
-      <c r="J150" s="109">
+      <c r="H150" s="120">
+        <v>1</v>
+      </c>
+      <c r="I150" s="120">
+        <v>1</v>
+      </c>
+      <c r="J150" s="120">
         <v>2</v>
       </c>
-      <c r="K150" s="109" t="s">
+      <c r="K150" s="120" t="s">
         <v>57</v>
       </c>
-      <c r="L150" s="109"/>
-      <c r="M150" s="109" t="s">
+      <c r="L150" s="120"/>
+      <c r="M150" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="N150" s="109"/>
+      <c r="N150" s="120"/>
       <c r="O150" s="51" t="s">
         <v>168</v>
       </c>
@@ -13050,24 +13424,24 @@
       </c>
     </row>
     <row r="151" spans="1:19">
-      <c r="A151" s="115"/>
-      <c r="B151" s="110"/>
-      <c r="C151" s="110"/>
-      <c r="D151" s="110"/>
-      <c r="E151" s="110"/>
+      <c r="A151" s="126"/>
+      <c r="B151" s="121"/>
+      <c r="C151" s="121"/>
+      <c r="D151" s="121"/>
+      <c r="E151" s="121"/>
       <c r="F151" s="1">
         <v>2</v>
       </c>
       <c r="G151" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H151" s="110"/>
-      <c r="I151" s="110"/>
-      <c r="J151" s="110"/>
-      <c r="K151" s="110"/>
-      <c r="L151" s="110"/>
-      <c r="M151" s="110"/>
-      <c r="N151" s="110"/>
+      <c r="H151" s="121"/>
+      <c r="I151" s="121"/>
+      <c r="J151" s="121"/>
+      <c r="K151" s="121"/>
+      <c r="L151" s="121"/>
+      <c r="M151" s="121"/>
+      <c r="N151" s="121"/>
       <c r="O151" s="53"/>
       <c r="P151" s="53"/>
       <c r="Q151" s="53"/>
@@ -13075,7 +13449,7 @@
       <c r="S151" s="53"/>
     </row>
     <row r="152" spans="1:19">
-      <c r="A152" s="115"/>
+      <c r="A152" s="126"/>
       <c r="B152" s="1" t="s">
         <v>61</v>
       </c>
@@ -13112,7 +13486,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" ht="19.5">
-      <c r="A153" s="115"/>
+      <c r="A153" s="126"/>
       <c r="B153" s="1" t="s">
         <v>61</v>
       </c>
@@ -13159,7 +13533,7 @@
       </c>
     </row>
     <row r="154" spans="1:19">
-      <c r="A154" s="115"/>
+      <c r="A154" s="126"/>
       <c r="B154" s="1" t="s">
         <v>61</v>
       </c>
@@ -13196,7 +13570,7 @@
       </c>
     </row>
     <row r="155" spans="1:19">
-      <c r="A155" s="115"/>
+      <c r="A155" s="126"/>
       <c r="B155" s="1" t="s">
         <v>61</v>
       </c>
@@ -13245,7 +13619,7 @@
       </c>
     </row>
     <row r="156" spans="1:19">
-      <c r="A156" s="110"/>
+      <c r="A156" s="121"/>
       <c r="B156" s="1" t="s">
         <v>61</v>
       </c>
@@ -13292,17 +13666,17 @@
       </c>
     </row>
     <row r="157" spans="1:19">
-      <c r="A157" s="103" t="s">
+      <c r="A157" s="114" t="s">
         <v>249</v>
       </c>
-      <c r="B157" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="C157" s="98"/>
-      <c r="D157" s="98" t="s">
+      <c r="B157" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C157" s="109"/>
+      <c r="D157" s="109" t="s">
         <v>241</v>
       </c>
-      <c r="E157" s="98" t="s">
+      <c r="E157" s="109" t="s">
         <v>265</v>
       </c>
       <c r="F157" s="69">
@@ -13311,21 +13685,21 @@
       <c r="G157" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="H157" s="98"/>
-      <c r="I157" s="98">
-        <v>1</v>
-      </c>
-      <c r="J157" s="98">
+      <c r="H157" s="109"/>
+      <c r="I157" s="109">
+        <v>1</v>
+      </c>
+      <c r="J157" s="109">
         <v>2</v>
       </c>
-      <c r="K157" s="98" t="s">
+      <c r="K157" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="L157" s="96"/>
-      <c r="M157" s="98" t="s">
+      <c r="L157" s="107"/>
+      <c r="M157" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="N157" s="98"/>
+      <c r="N157" s="109"/>
       <c r="O157" s="65" t="s">
         <v>51</v>
       </c>
@@ -13343,24 +13717,24 @@
       </c>
     </row>
     <row r="158" spans="1:19" s="58" customFormat="1">
-      <c r="A158" s="104"/>
-      <c r="B158" s="99"/>
-      <c r="C158" s="99"/>
-      <c r="D158" s="99"/>
-      <c r="E158" s="99"/>
+      <c r="A158" s="115"/>
+      <c r="B158" s="110"/>
+      <c r="C158" s="110"/>
+      <c r="D158" s="110"/>
+      <c r="E158" s="110"/>
       <c r="F158" s="69">
         <v>2</v>
       </c>
       <c r="G158" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="H158" s="99"/>
-      <c r="I158" s="99"/>
-      <c r="J158" s="99"/>
-      <c r="K158" s="99"/>
-      <c r="L158" s="97"/>
-      <c r="M158" s="99"/>
-      <c r="N158" s="99"/>
+      <c r="H158" s="110"/>
+      <c r="I158" s="110"/>
+      <c r="J158" s="110"/>
+      <c r="K158" s="110"/>
+      <c r="L158" s="108"/>
+      <c r="M158" s="110"/>
+      <c r="N158" s="110"/>
       <c r="O158" s="66"/>
       <c r="P158" s="66"/>
       <c r="Q158" s="66"/>
@@ -13368,7 +13742,7 @@
       <c r="S158" s="66"/>
     </row>
     <row r="159" spans="1:19" ht="19.5">
-      <c r="A159" s="104"/>
+      <c r="A159" s="115"/>
       <c r="B159" s="69" t="s">
         <v>51</v>
       </c>
@@ -13415,7 +13789,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" ht="19.5">
-      <c r="A160" s="104"/>
+      <c r="A160" s="115"/>
       <c r="B160" s="69" t="s">
         <v>51</v>
       </c>
@@ -13462,7 +13836,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" ht="19.5">
-      <c r="A161" s="104"/>
+      <c r="A161" s="115"/>
       <c r="B161" s="69" t="s">
         <v>51</v>
       </c>
@@ -13509,7 +13883,7 @@
       </c>
     </row>
     <row r="162" spans="1:19" ht="19.5">
-      <c r="A162" s="104"/>
+      <c r="A162" s="115"/>
       <c r="B162" s="69" t="s">
         <v>51</v>
       </c>
@@ -13556,7 +13930,7 @@
       </c>
     </row>
     <row r="163" spans="1:19" ht="19.5">
-      <c r="A163" s="104"/>
+      <c r="A163" s="115"/>
       <c r="B163" s="69" t="s">
         <v>51</v>
       </c>
@@ -13603,7 +13977,7 @@
       </c>
     </row>
     <row r="164" spans="1:19">
-      <c r="A164" s="104"/>
+      <c r="A164" s="115"/>
       <c r="B164" s="69" t="s">
         <v>51</v>
       </c>
@@ -13652,7 +14026,7 @@
       </c>
     </row>
     <row r="165" spans="1:19">
-      <c r="A165" s="104"/>
+      <c r="A165" s="115"/>
       <c r="B165" s="69" t="s">
         <v>51</v>
       </c>
@@ -13701,15 +14075,15 @@
       </c>
     </row>
     <row r="166" spans="1:19">
-      <c r="A166" s="104"/>
-      <c r="B166" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="C166" s="98"/>
-      <c r="D166" s="98" t="s">
+      <c r="A166" s="115"/>
+      <c r="B166" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C166" s="109"/>
+      <c r="D166" s="109" t="s">
         <v>254</v>
       </c>
-      <c r="E166" s="98" t="s">
+      <c r="E166" s="109" t="s">
         <v>265</v>
       </c>
       <c r="F166" s="69">
@@ -13718,21 +14092,21 @@
       <c r="G166" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H166" s="98"/>
-      <c r="I166" s="98">
-        <v>1</v>
-      </c>
-      <c r="J166" s="98">
+      <c r="H166" s="109"/>
+      <c r="I166" s="109">
+        <v>1</v>
+      </c>
+      <c r="J166" s="109">
         <v>2</v>
       </c>
-      <c r="K166" s="98" t="s">
+      <c r="K166" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="L166" s="96"/>
-      <c r="M166" s="98" t="s">
+      <c r="L166" s="107"/>
+      <c r="M166" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="N166" s="98"/>
+      <c r="N166" s="109"/>
       <c r="O166" s="65" t="s">
         <v>51</v>
       </c>
@@ -13750,24 +14124,24 @@
       </c>
     </row>
     <row r="167" spans="1:19" s="58" customFormat="1">
-      <c r="A167" s="104"/>
-      <c r="B167" s="99"/>
-      <c r="C167" s="99"/>
-      <c r="D167" s="99"/>
-      <c r="E167" s="99"/>
+      <c r="A167" s="115"/>
+      <c r="B167" s="110"/>
+      <c r="C167" s="110"/>
+      <c r="D167" s="110"/>
+      <c r="E167" s="110"/>
       <c r="F167" s="69">
         <v>2</v>
       </c>
       <c r="G167" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H167" s="99"/>
-      <c r="I167" s="99"/>
-      <c r="J167" s="99"/>
-      <c r="K167" s="99"/>
-      <c r="L167" s="97"/>
-      <c r="M167" s="99"/>
-      <c r="N167" s="99"/>
+      <c r="H167" s="110"/>
+      <c r="I167" s="110"/>
+      <c r="J167" s="110"/>
+      <c r="K167" s="110"/>
+      <c r="L167" s="108"/>
+      <c r="M167" s="110"/>
+      <c r="N167" s="110"/>
       <c r="O167" s="66"/>
       <c r="P167" s="66"/>
       <c r="Q167" s="66"/>
@@ -13775,7 +14149,7 @@
       <c r="S167" s="66"/>
     </row>
     <row r="168" spans="1:19">
-      <c r="A168" s="104"/>
+      <c r="A168" s="115"/>
       <c r="B168" s="69" t="s">
         <v>51</v>
       </c>
@@ -13824,7 +14198,7 @@
       </c>
     </row>
     <row r="169" spans="1:19">
-      <c r="A169" s="104"/>
+      <c r="A169" s="115"/>
       <c r="B169" s="69" t="s">
         <v>51</v>
       </c>
@@ -13873,15 +14247,15 @@
       </c>
     </row>
     <row r="170" spans="1:19">
-      <c r="A170" s="104"/>
-      <c r="B170" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="C170" s="98"/>
-      <c r="D170" s="98" t="s">
+      <c r="A170" s="115"/>
+      <c r="B170" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" s="109"/>
+      <c r="D170" s="109" t="s">
         <v>260</v>
       </c>
-      <c r="E170" s="98" t="s">
+      <c r="E170" s="109" t="s">
         <v>265</v>
       </c>
       <c r="F170" s="69">
@@ -13890,21 +14264,21 @@
       <c r="G170" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H170" s="98"/>
-      <c r="I170" s="98">
-        <v>1</v>
-      </c>
-      <c r="J170" s="98">
+      <c r="H170" s="109"/>
+      <c r="I170" s="109">
+        <v>1</v>
+      </c>
+      <c r="J170" s="109">
         <v>2</v>
       </c>
-      <c r="K170" s="98" t="s">
+      <c r="K170" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="L170" s="96"/>
-      <c r="M170" s="98" t="s">
+      <c r="L170" s="107"/>
+      <c r="M170" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="N170" s="98"/>
+      <c r="N170" s="109"/>
       <c r="O170" s="65" t="s">
         <v>51</v>
       </c>
@@ -13922,24 +14296,24 @@
       </c>
     </row>
     <row r="171" spans="1:19" s="58" customFormat="1">
-      <c r="A171" s="104"/>
-      <c r="B171" s="99"/>
-      <c r="C171" s="99"/>
-      <c r="D171" s="99"/>
-      <c r="E171" s="99"/>
+      <c r="A171" s="115"/>
+      <c r="B171" s="110"/>
+      <c r="C171" s="110"/>
+      <c r="D171" s="110"/>
+      <c r="E171" s="110"/>
       <c r="F171" s="69">
         <v>2</v>
       </c>
       <c r="G171" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H171" s="99"/>
-      <c r="I171" s="99"/>
-      <c r="J171" s="99"/>
-      <c r="K171" s="99"/>
-      <c r="L171" s="97"/>
-      <c r="M171" s="99"/>
-      <c r="N171" s="99"/>
+      <c r="H171" s="110"/>
+      <c r="I171" s="110"/>
+      <c r="J171" s="110"/>
+      <c r="K171" s="110"/>
+      <c r="L171" s="108"/>
+      <c r="M171" s="110"/>
+      <c r="N171" s="110"/>
       <c r="O171" s="66"/>
       <c r="P171" s="66"/>
       <c r="Q171" s="66"/>
@@ -13947,7 +14321,7 @@
       <c r="S171" s="66"/>
     </row>
     <row r="172" spans="1:19">
-      <c r="A172" s="104"/>
+      <c r="A172" s="115"/>
       <c r="B172" s="69" t="s">
         <v>51</v>
       </c>
@@ -13994,7 +14368,7 @@
       </c>
     </row>
     <row r="173" spans="1:19">
-      <c r="A173" s="105"/>
+      <c r="A173" s="116"/>
       <c r="B173" s="69" t="s">
         <v>51</v>
       </c>
@@ -19137,7 +19511,7 @@
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18:C20"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -19753,14 +20127,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D522F8-64CF-4EEA-A5EC-3F34B1E07BF7}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:Q75"/>
+  <dimension ref="A2:Q77"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="A73" sqref="A73"/>
+      <selection pane="bottomRight" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -21964,93 +22338,147 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="95" t="s">
+      <c r="A73" s="98" t="s">
         <v>407</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="C73" s="95" t="s">
-        <v>534</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>535</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="D73" s="35"/>
       <c r="E73" s="35"/>
-      <c r="F73" s="35">
-        <v>1</v>
-      </c>
-      <c r="G73" s="35">
-        <v>2</v>
-      </c>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
       <c r="H73" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73" s="37"/>
-      <c r="J73" s="35" t="s">
-        <v>38</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
       <c r="K73" s="35" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="89" t="s">
+      <c r="A74" s="95" t="s">
         <v>407</v>
       </c>
       <c r="B74" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="C74" s="95" t="s">
+        <v>534</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35">
+        <v>1</v>
+      </c>
+      <c r="G74" s="35">
+        <v>2</v>
+      </c>
+      <c r="H74" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="37"/>
+      <c r="J74" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K74" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="98" t="s">
+        <v>407</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E75" s="35">
+        <v>2</v>
+      </c>
+      <c r="F75" s="35">
+        <v>1</v>
+      </c>
+      <c r="G75" s="35">
+        <v>14</v>
+      </c>
+      <c r="H75" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K75" s="35"/>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="89" t="s">
+        <v>407</v>
+      </c>
+      <c r="B76" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="C74" s="89" t="s">
+      <c r="C76" s="89" t="s">
         <v>524</v>
       </c>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="35" t="s">
+      <c r="D76" s="89"/>
+      <c r="E76" s="89"/>
+      <c r="F76" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="G74" s="35" t="s">
+      <c r="G76" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="H74" s="35" t="s">
+      <c r="H76" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="I74" s="37">
+      <c r="I76" s="37">
         <v>3</v>
       </c>
-      <c r="J74" s="35" t="s">
+      <c r="J76" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="K74" s="89"/>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="89" t="s">
+      <c r="K76" s="89"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="89" t="s">
         <v>407</v>
       </c>
-      <c r="B75" s="35" t="s">
+      <c r="B77" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C75" s="89" t="s">
+      <c r="C77" s="89" t="s">
         <v>525</v>
       </c>
-      <c r="D75" s="89"/>
-      <c r="E75" s="89"/>
-      <c r="F75" s="35">
-        <v>0</v>
-      </c>
-      <c r="G75" s="35">
+      <c r="D77" s="89"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="35">
+        <v>0</v>
+      </c>
+      <c r="G77" s="35">
         <v>10</v>
       </c>
-      <c r="H75" s="35" t="s">
+      <c r="H77" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I75" s="37">
+      <c r="I77" s="37">
         <v>2</v>
       </c>
-      <c r="J75" s="35" t="s">
+      <c r="J77" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="K75" s="89"/>
+      <c r="K77" s="89"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -22062,1836 +22490,2467 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883AEBD5-B255-4B86-ABCF-F48DF2A77A1E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:S57"/>
+  <dimension ref="A2:Q81"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M33" sqref="M33"/>
+      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="22.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.58203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.58203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="27"/>
+    <col min="8" max="8" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:17">
       <c r="A2" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="C2" s="98" t="s">
+        <v>542</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>166</v>
+        <v>5</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="97" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="98" t="s">
+        <v>283</v>
+      </c>
+      <c r="E3" s="29">
         <v>6</v>
       </c>
-      <c r="J2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="26" t="s">
+      <c r="F3" s="29">
+        <v>1</v>
+      </c>
+      <c r="G3" s="29">
         <v>8</v>
       </c>
-      <c r="L2" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="31" t="s">
+      <c r="H3" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+    </row>
+    <row r="4" spans="1:17" s="19" customFormat="1">
+      <c r="A4" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" s="29">
-        <v>6</v>
-      </c>
-      <c r="H3" s="29">
-        <v>1</v>
-      </c>
-      <c r="I3" s="29">
-        <v>8</v>
-      </c>
-      <c r="J3" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-    </row>
-    <row r="4" spans="1:19" s="19" customFormat="1">
-      <c r="A4" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34" t="s">
+      <c r="B4" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="35" t="s">
-        <v>167</v>
+      <c r="C4" s="99" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="36">
+        <v>2</v>
+      </c>
+      <c r="F4" s="36">
+        <v>1</v>
       </c>
       <c r="G4" s="36">
         <v>2</v>
       </c>
-      <c r="H4" s="36">
-        <v>1</v>
-      </c>
-      <c r="I4" s="36">
+      <c r="H4" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="36"/>
+    </row>
+    <row r="5" spans="1:17" s="19" customFormat="1" ht="19.5">
+      <c r="A5" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="43">
+        <v>0</v>
+      </c>
+      <c r="G5" s="43">
+        <v>999.99</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="5">
         <v>2</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J5" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="36"/>
+    </row>
+    <row r="6" spans="1:17" s="19" customFormat="1" ht="19.5">
+      <c r="A6" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="99" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="43">
+        <v>0</v>
+      </c>
+      <c r="G6" s="43">
+        <v>999.99</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2</v>
+      </c>
+      <c r="J6" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="36"/>
+    </row>
+    <row r="7" spans="1:17" s="19" customFormat="1" ht="19.5">
+      <c r="A7" s="96" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="99" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>288</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="43">
+        <v>0</v>
+      </c>
+      <c r="G7" s="43">
+        <v>999.99</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="5">
+        <v>2</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="36"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="100" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="101" t="s">
+        <v>463</v>
+      </c>
+      <c r="D8" s="101"/>
+      <c r="E8" s="101"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="101"/>
+      <c r="H8" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="101"/>
+      <c r="J8" s="101"/>
+      <c r="K8" s="101" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="49" customFormat="1">
+      <c r="A9" s="100" t="s">
+        <v>289</v>
+      </c>
+      <c r="B9" s="101" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="101" t="s">
+        <v>464</v>
+      </c>
+      <c r="D9" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101">
+        <v>1</v>
+      </c>
+      <c r="G9" s="101">
+        <v>6</v>
+      </c>
+      <c r="H9" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36" t="s">
+      <c r="I9" s="101"/>
+      <c r="J9" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="36"/>
-    </row>
-    <row r="5" spans="1:19" s="19" customFormat="1" ht="19.5">
-      <c r="A5" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="43">
-        <v>0</v>
-      </c>
-      <c r="I5" s="43">
-        <v>999.99</v>
-      </c>
-      <c r="J5" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="5">
-        <v>2</v>
-      </c>
-      <c r="L5" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="36"/>
-    </row>
-    <row r="6" spans="1:19" s="19" customFormat="1" ht="19.5">
-      <c r="A6" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="43"/>
-      <c r="D6" s="34" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="43">
-        <v>0</v>
-      </c>
-      <c r="I6" s="43">
-        <v>999.99</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="5">
-        <v>2</v>
-      </c>
-      <c r="L6" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="36"/>
-    </row>
-    <row r="7" spans="1:19" s="19" customFormat="1" ht="19.5">
-      <c r="A7" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="34" t="s">
-        <v>237</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="43">
-        <v>0</v>
-      </c>
-      <c r="I7" s="43">
-        <v>999.99</v>
-      </c>
-      <c r="J7" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="5">
-        <v>2</v>
-      </c>
-      <c r="L7" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="36"/>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="1:19" s="49" customFormat="1">
-      <c r="A9" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48">
-        <v>1</v>
-      </c>
-      <c r="I9" s="48">
-        <v>6</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="48"/>
-      <c r="O9" s="38"/>
+      <c r="K9" s="101" t="s">
+        <v>280</v>
+      </c>
+      <c r="M9" s="38"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-    </row>
-    <row r="10" spans="1:19">
-      <c r="A10" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26" t="s">
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="100" t="s">
+        <v>289</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="36">
+        <v>1</v>
+      </c>
+      <c r="F10" s="36">
+        <v>1</v>
+      </c>
+      <c r="G10" s="36">
+        <v>3</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="42"/>
+      <c r="J10" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="58" customFormat="1">
+      <c r="A11" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>444</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="E11" s="35">
+        <v>1</v>
+      </c>
+      <c r="F11" s="36">
+        <v>1</v>
+      </c>
+      <c r="G11" s="36">
+        <v>4</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="42"/>
+      <c r="J11" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="35" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" s="58" customFormat="1">
+      <c r="A12" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>454</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="E12" s="35">
+        <v>1</v>
+      </c>
+      <c r="F12" s="36">
+        <v>1</v>
+      </c>
+      <c r="G12" s="36">
+        <v>4</v>
+      </c>
+      <c r="H12" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="42"/>
+      <c r="J12" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="35" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="58" customFormat="1">
+      <c r="A13" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="E13" s="35">
+        <v>1</v>
+      </c>
+      <c r="F13" s="36">
+        <v>1</v>
+      </c>
+      <c r="G13" s="36">
+        <v>4</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="42"/>
+      <c r="J13" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="35" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="58" customFormat="1">
+      <c r="A14" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>473</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" s="35">
+        <v>2</v>
+      </c>
+      <c r="F14" s="35">
+        <v>1</v>
+      </c>
+      <c r="G14" s="35">
+        <v>14</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="58" customFormat="1" ht="19.5">
+      <c r="A15" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B15" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="104" t="s">
+        <v>472</v>
+      </c>
+      <c r="D15" s="104"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="104">
+        <v>0</v>
+      </c>
+      <c r="G15" s="104">
+        <v>99</v>
+      </c>
+      <c r="H15" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2</v>
+      </c>
+      <c r="J15" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="58" customFormat="1">
+      <c r="A16" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>550</v>
+      </c>
+      <c r="E16" s="36">
+        <v>1</v>
+      </c>
+      <c r="F16" s="36">
+        <v>1</v>
+      </c>
+      <c r="G16" s="36">
+        <v>4</v>
+      </c>
+      <c r="H16" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="35"/>
+    </row>
+    <row r="17" spans="1:11" s="58" customFormat="1">
+      <c r="A17" s="105" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>222</v>
+      </c>
+      <c r="E17" s="35">
+        <v>4</v>
+      </c>
+      <c r="F17" s="35">
+        <v>4</v>
+      </c>
+      <c r="G17" s="35">
+        <v>4</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="35"/>
+      <c r="J17" s="106" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="19.5">
+      <c r="A18" s="100" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>471</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35">
+        <v>0</v>
+      </c>
+      <c r="G18" s="35">
         <v>10</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26">
-        <v>0</v>
-      </c>
-      <c r="I11" s="26">
+      <c r="H18" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="37">
+        <v>2</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="35" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="58" customFormat="1">
+      <c r="A19" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="C19" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="D19" s="104" t="s">
+        <v>427</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="104">
+        <v>1</v>
+      </c>
+      <c r="G19" s="104">
+        <v>7</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="58" customFormat="1">
+      <c r="A20" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>362</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>428</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="104">
+        <v>1</v>
+      </c>
+      <c r="G20" s="104">
+        <v>6</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="58" customFormat="1">
+      <c r="A21" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>468</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="104">
+        <v>1</v>
+      </c>
+      <c r="G21" s="104">
+        <v>1</v>
+      </c>
+      <c r="H21" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="58" customFormat="1">
+      <c r="A22" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>467</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>429</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="104">
+        <v>1</v>
+      </c>
+      <c r="G22" s="104">
+        <v>2</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="58" customFormat="1" ht="19.5">
+      <c r="A23" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35">
+        <v>0</v>
+      </c>
+      <c r="G23" s="35">
+        <v>10</v>
+      </c>
+      <c r="H23" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="37">
+        <v>2</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K23" s="35" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="58" customFormat="1" ht="19.5">
+      <c r="A24" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>431</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35">
+        <v>0</v>
+      </c>
+      <c r="G24" s="35">
+        <v>10</v>
+      </c>
+      <c r="H24" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="37">
+        <v>2</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="35" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="58" customFormat="1">
+      <c r="A25" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>478</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="35">
+        <v>0</v>
+      </c>
+      <c r="G25" s="35">
+        <v>1</v>
+      </c>
+      <c r="H25" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="37">
+        <v>3</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="58" customFormat="1">
+      <c r="A26" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>436</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>479</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>440</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="104">
+        <v>1</v>
+      </c>
+      <c r="G26" s="104">
+        <v>6</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="37"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="35" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="58" customFormat="1">
+      <c r="A27" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>441</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="104">
+        <v>1</v>
+      </c>
+      <c r="G27" s="104">
+        <v>12</v>
+      </c>
+      <c r="H27" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="37"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="35" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="58" customFormat="1">
+      <c r="A28" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>438</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>481</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>442</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="104">
+        <v>1</v>
+      </c>
+      <c r="G28" s="104">
+        <v>2</v>
+      </c>
+      <c r="H28" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="35" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="58" customFormat="1">
+      <c r="A29" s="102" t="s">
+        <v>333</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>439</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>482</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>443</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="104">
+        <v>1</v>
+      </c>
+      <c r="G29" s="104">
+        <v>6</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="37"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="35" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="100" t="s">
+        <v>289</v>
+      </c>
+      <c r="B30" s="101" t="s">
+        <v>338</v>
+      </c>
+      <c r="C30" s="101" t="s">
+        <v>483</v>
+      </c>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="35"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="100" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" s="101" t="s">
+        <v>336</v>
+      </c>
+      <c r="C31" s="101" t="s">
+        <v>484</v>
+      </c>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101">
+        <v>0</v>
+      </c>
+      <c r="G31" s="101">
         <v>9999</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="H31" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="5">
+      <c r="I31" s="5">
         <v>2</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="J31" s="101" t="s">
         <v>70</v>
       </c>
-      <c r="M11" s="26"/>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26">
+      <c r="K31" s="35"/>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="100" t="s">
+        <v>289</v>
+      </c>
+      <c r="B32" s="101" t="s">
+        <v>334</v>
+      </c>
+      <c r="C32" s="101" t="s">
+        <v>485</v>
+      </c>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101">
         <v>0.02</v>
       </c>
-      <c r="I12" s="26">
+      <c r="G32" s="101">
         <v>370</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="H32" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="5">
+      <c r="I32" s="5">
         <v>3</v>
       </c>
-      <c r="L12" s="26" t="s">
+      <c r="J32" s="101" t="s">
         <v>66</v>
       </c>
-      <c r="M12" s="26"/>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26">
-        <v>0</v>
-      </c>
-      <c r="I13" s="26">
+      <c r="K32" s="35"/>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="100" t="s">
+        <v>289</v>
+      </c>
+      <c r="B33" s="101" t="s">
+        <v>335</v>
+      </c>
+      <c r="C33" s="101" t="s">
+        <v>486</v>
+      </c>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101">
+        <v>0</v>
+      </c>
+      <c r="G33" s="101">
         <v>4000</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="H33" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26" t="s">
+      <c r="I33" s="101"/>
+      <c r="J33" s="101" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="26"/>
-    </row>
-    <row r="14" spans="1:19" ht="19.5">
-      <c r="A14" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35">
-        <v>0</v>
-      </c>
-      <c r="I14" s="35">
+      <c r="K33" s="35"/>
+    </row>
+    <row r="34" spans="1:11" s="58" customFormat="1">
+      <c r="A34" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B34" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>528</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104">
+        <v>1</v>
+      </c>
+      <c r="G34" s="104">
+        <v>2</v>
+      </c>
+      <c r="H34" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="104"/>
+      <c r="J34" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="19" customFormat="1">
+      <c r="A35" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>529</v>
+      </c>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="35">
+        <v>15</v>
+      </c>
+      <c r="H35" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="37">
+        <v>3</v>
+      </c>
+      <c r="J35" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K35" s="35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="19" customFormat="1">
+      <c r="A36" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>530</v>
+      </c>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35">
+        <v>0</v>
+      </c>
+      <c r="G36" s="35">
+        <v>2</v>
+      </c>
+      <c r="H36" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" s="37">
+        <v>3</v>
+      </c>
+      <c r="J36" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="19" customFormat="1">
+      <c r="A37" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="35" t="s">
+        <v>531</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35">
+        <v>0</v>
+      </c>
+      <c r="G37" s="35">
+        <v>2</v>
+      </c>
+      <c r="H37" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="37">
+        <v>3</v>
+      </c>
+      <c r="J37" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K37" s="35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B38" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>487</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="35" t="s">
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="58" customFormat="1">
+      <c r="A39" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B39" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>488</v>
+      </c>
+      <c r="D39" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E39" s="35">
+        <v>2</v>
+      </c>
+      <c r="F39" s="35">
+        <v>1</v>
+      </c>
+      <c r="G39" s="35">
+        <v>14</v>
+      </c>
+      <c r="H39" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="58" customFormat="1" ht="19.5">
+      <c r="A40" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B40" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="104" t="s">
+        <v>489</v>
+      </c>
+      <c r="D40" s="104"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="104">
+        <v>0</v>
+      </c>
+      <c r="G40" s="104">
+        <v>99</v>
+      </c>
+      <c r="H40" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="K14" s="37">
+      <c r="I40" s="5">
         <v>2</v>
       </c>
-      <c r="L14" s="35" t="s">
+      <c r="J40" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="K40" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="58" customFormat="1">
+      <c r="A41" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="D41" s="35" t="s">
+        <v>550</v>
+      </c>
+      <c r="E41" s="36">
+        <v>1</v>
+      </c>
+      <c r="F41" s="36">
+        <v>1</v>
+      </c>
+      <c r="G41" s="36">
+        <v>4</v>
+      </c>
+      <c r="H41" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="35"/>
+    </row>
+    <row r="42" spans="1:11" s="58" customFormat="1">
+      <c r="A42" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B42" s="104" t="s">
+        <v>391</v>
+      </c>
+      <c r="C42" s="104" t="s">
+        <v>493</v>
+      </c>
+      <c r="D42" s="104" t="s">
+        <v>392</v>
+      </c>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104">
+        <v>1</v>
+      </c>
+      <c r="G42" s="104">
+        <v>2</v>
+      </c>
+      <c r="H42" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I42" s="5"/>
+      <c r="J42" s="102"/>
+      <c r="K42" s="103"/>
+    </row>
+    <row r="43" spans="1:11" s="58" customFormat="1">
+      <c r="A43" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B43" s="104" t="s">
+        <v>367</v>
+      </c>
+      <c r="C43" s="104" t="s">
+        <v>490</v>
+      </c>
+      <c r="D43" s="104" t="s">
+        <v>376</v>
+      </c>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104">
+        <v>1</v>
+      </c>
+      <c r="G43" s="104">
+        <v>2</v>
+      </c>
+      <c r="H43" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="104"/>
+      <c r="J43" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="K43" s="103" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>491</v>
+      </c>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F44" s="35">
+        <v>0</v>
+      </c>
+      <c r="G44" s="35">
+        <v>1</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" s="37">
+        <v>3</v>
+      </c>
+      <c r="J44" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K44" s="40" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>492</v>
+      </c>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F45" s="35">
+        <v>0</v>
+      </c>
+      <c r="G45" s="35">
+        <v>1</v>
+      </c>
+      <c r="H45" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="37">
+        <v>3</v>
+      </c>
+      <c r="J45" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45" s="40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>494</v>
+      </c>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F46" s="35">
+        <v>0</v>
+      </c>
+      <c r="G46" s="35">
+        <v>1</v>
+      </c>
+      <c r="H46" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" s="37">
+        <v>3</v>
+      </c>
+      <c r="J46" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K46" s="40" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="58" customFormat="1">
+      <c r="A47" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B47" s="104" t="s">
+        <v>369</v>
+      </c>
+      <c r="C47" s="104" t="s">
+        <v>495</v>
+      </c>
+      <c r="D47" s="104" t="s">
+        <v>375</v>
+      </c>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104">
+        <v>1</v>
+      </c>
+      <c r="G47" s="104">
+        <v>2</v>
+      </c>
+      <c r="H47" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="104"/>
+      <c r="J47" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="K47" s="103" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="58" customFormat="1">
+      <c r="A48" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B48" s="104" t="s">
+        <v>370</v>
+      </c>
+      <c r="C48" s="104" t="s">
+        <v>496</v>
+      </c>
+      <c r="D48" s="104" t="s">
+        <v>419</v>
+      </c>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104">
+        <v>1</v>
+      </c>
+      <c r="G48" s="104">
+        <v>17</v>
+      </c>
+      <c r="H48" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="104"/>
+      <c r="J48" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" s="103" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="58" customFormat="1">
+      <c r="A49" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B49" s="104" t="s">
+        <v>377</v>
+      </c>
+      <c r="C49" s="104" t="s">
+        <v>497</v>
+      </c>
+      <c r="D49" s="104" t="s">
+        <v>378</v>
+      </c>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104">
+        <v>1</v>
+      </c>
+      <c r="G49" s="104">
+        <v>3</v>
+      </c>
+      <c r="H49" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="104"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="103" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="58" customFormat="1">
+      <c r="A50" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>396</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>498</v>
+      </c>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F50" s="35">
+        <v>0</v>
+      </c>
+      <c r="G50" s="35">
+        <v>1</v>
+      </c>
+      <c r="H50" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" s="37">
+        <v>3</v>
+      </c>
+      <c r="J50" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" s="40" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="58" customFormat="1">
+      <c r="A51" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B51" s="104" t="s">
+        <v>397</v>
+      </c>
+      <c r="C51" s="104" t="s">
+        <v>499</v>
+      </c>
+      <c r="D51" s="104" t="s">
+        <v>375</v>
+      </c>
+      <c r="E51" s="104"/>
+      <c r="F51" s="104">
+        <v>1</v>
+      </c>
+      <c r="G51" s="104">
+        <v>2</v>
+      </c>
+      <c r="H51" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="104"/>
+      <c r="J51" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="K51" s="103" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="58" customFormat="1">
+      <c r="A52" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B52" s="104" t="s">
+        <v>398</v>
+      </c>
+      <c r="C52" s="104" t="s">
+        <v>500</v>
+      </c>
+      <c r="D52" s="104" t="s">
+        <v>419</v>
+      </c>
+      <c r="E52" s="104"/>
+      <c r="F52" s="104">
+        <v>1</v>
+      </c>
+      <c r="G52" s="104">
+        <v>17</v>
+      </c>
+      <c r="H52" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="104"/>
+      <c r="J52" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="K52" s="103" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="58" customFormat="1">
+      <c r="A53" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B53" s="104" t="s">
+        <v>399</v>
+      </c>
+      <c r="C53" s="104" t="s">
+        <v>501</v>
+      </c>
+      <c r="D53" s="104" t="s">
+        <v>378</v>
+      </c>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104">
+        <v>1</v>
+      </c>
+      <c r="G53" s="104">
+        <v>3</v>
+      </c>
+      <c r="H53" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="104"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="103" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="58" customFormat="1">
+      <c r="A54" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="C54" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F54" s="35">
+        <v>0</v>
+      </c>
+      <c r="G54" s="35">
+        <v>1</v>
+      </c>
+      <c r="H54" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" s="37">
+        <v>3</v>
+      </c>
+      <c r="J54" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K54" s="103" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="58" customFormat="1">
+      <c r="A55" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B55" s="104" t="s">
+        <v>401</v>
+      </c>
+      <c r="C55" s="104" t="s">
+        <v>504</v>
+      </c>
+      <c r="D55" s="104" t="s">
+        <v>375</v>
+      </c>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104">
+        <v>1</v>
+      </c>
+      <c r="G55" s="104">
+        <v>2</v>
+      </c>
+      <c r="H55" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="104"/>
+      <c r="J55" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="K55" s="103" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="58" customFormat="1">
+      <c r="A56" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B56" s="104" t="s">
+        <v>402</v>
+      </c>
+      <c r="C56" s="104" t="s">
+        <v>503</v>
+      </c>
+      <c r="D56" s="104" t="s">
+        <v>419</v>
+      </c>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104">
+        <v>1</v>
+      </c>
+      <c r="G56" s="104">
+        <v>17</v>
+      </c>
+      <c r="H56" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="104"/>
+      <c r="J56" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56" s="103" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" s="58" customFormat="1">
+      <c r="A57" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B57" s="104" t="s">
+        <v>403</v>
+      </c>
+      <c r="C57" s="104" t="s">
+        <v>505</v>
+      </c>
+      <c r="D57" s="104" t="s">
+        <v>378</v>
+      </c>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104">
+        <v>1</v>
+      </c>
+      <c r="G57" s="104">
+        <v>3</v>
+      </c>
+      <c r="H57" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I57" s="104"/>
+      <c r="J57" s="102"/>
+      <c r="K57" s="103" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="19.5">
+      <c r="A58" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>506</v>
+      </c>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F58" s="35">
+        <v>0</v>
+      </c>
+      <c r="G58" s="35">
+        <v>10</v>
+      </c>
+      <c r="H58" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" s="37">
+        <v>2</v>
+      </c>
+      <c r="J58" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="M14" s="35"/>
-    </row>
-    <row r="15" spans="1:19" ht="19.5">
-      <c r="A15" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35">
-        <v>0</v>
-      </c>
-      <c r="I15" s="35">
+      <c r="K58" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="58" customFormat="1">
+      <c r="A59" s="102" t="s">
+        <v>339</v>
+      </c>
+      <c r="B59" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>507</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104">
+        <v>1</v>
+      </c>
+      <c r="G59" s="104">
+        <v>2</v>
+      </c>
+      <c r="H59" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I59" s="104"/>
+      <c r="J59" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59" s="35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" s="19" customFormat="1">
+      <c r="A60" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>508</v>
+      </c>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35">
+        <v>0</v>
+      </c>
+      <c r="G60" s="35">
+        <v>15</v>
+      </c>
+      <c r="H60" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="37">
+        <v>3</v>
+      </c>
+      <c r="J60" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60" s="35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" s="19" customFormat="1">
+      <c r="A61" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>509</v>
+      </c>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35">
+        <v>0</v>
+      </c>
+      <c r="G61" s="35">
+        <v>2</v>
+      </c>
+      <c r="H61" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="37">
+        <v>3</v>
+      </c>
+      <c r="J61" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K61" s="35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="19" customFormat="1">
+      <c r="A62" s="102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B62" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>510</v>
+      </c>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35">
+        <v>0</v>
+      </c>
+      <c r="G62" s="35">
+        <v>2</v>
+      </c>
+      <c r="H62" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" s="37">
+        <v>3</v>
+      </c>
+      <c r="J62" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K62" s="35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="58" customFormat="1">
+      <c r="A63" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="B63" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="35" t="s">
+        <v>511</v>
+      </c>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="58" customFormat="1">
+      <c r="A64" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="D64" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E64" s="35">
+        <v>2</v>
+      </c>
+      <c r="F64" s="35">
+        <v>1</v>
+      </c>
+      <c r="G64" s="35">
+        <v>14</v>
+      </c>
+      <c r="H64" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K64" s="35" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="58" customFormat="1" ht="19.5">
+      <c r="A65" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="B65" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="104" t="s">
+        <v>513</v>
+      </c>
+      <c r="D65" s="104"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="104">
+        <v>0</v>
+      </c>
+      <c r="G65" s="104">
+        <v>99</v>
+      </c>
+      <c r="H65" s="104" t="s">
         <v>22</v>
       </c>
-      <c r="K15" s="37">
+      <c r="I65" s="5">
         <v>2</v>
       </c>
-      <c r="L15" s="35" t="s">
+      <c r="J65" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="K65" s="104" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" s="58" customFormat="1">
+      <c r="A66" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="B66" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="C66" s="36" t="s">
+        <v>553</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>550</v>
+      </c>
+      <c r="E66" s="36">
+        <v>1</v>
+      </c>
+      <c r="F66" s="36">
+        <v>1</v>
+      </c>
+      <c r="G66" s="36">
+        <v>4</v>
+      </c>
+      <c r="H66" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="35"/>
+    </row>
+    <row r="67" spans="1:11" s="58" customFormat="1" ht="19.5">
+      <c r="A67" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>514</v>
+      </c>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35">
+        <v>2.33</v>
+      </c>
+      <c r="F67" s="35">
+        <v>0</v>
+      </c>
+      <c r="G67" s="35">
+        <v>10</v>
+      </c>
+      <c r="H67" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="37">
+        <v>2</v>
+      </c>
+      <c r="J67" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="M15" s="35"/>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="G16" s="36">
-        <v>1</v>
-      </c>
-      <c r="H16" s="36">
-        <v>1</v>
-      </c>
-      <c r="I16" s="36">
+      <c r="K67" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="58" customFormat="1">
+      <c r="A68" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>416</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>515</v>
+      </c>
+      <c r="D68" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="E68" s="104"/>
+      <c r="F68" s="104">
+        <v>1</v>
+      </c>
+      <c r="G68" s="104">
+        <v>2</v>
+      </c>
+      <c r="H68" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I68" s="104"/>
+      <c r="J68" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="K68" s="35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="19" customFormat="1">
+      <c r="A69" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="B69" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35">
+        <v>0</v>
+      </c>
+      <c r="G69" s="35">
+        <v>15</v>
+      </c>
+      <c r="H69" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" s="37">
         <v>3</v>
       </c>
-      <c r="J16" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="36" t="s">
+      <c r="J69" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K69" s="35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="19" customFormat="1">
+      <c r="A70" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="B70" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="35" t="s">
+        <v>517</v>
+      </c>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35">
+        <v>0</v>
+      </c>
+      <c r="G70" s="35">
+        <v>2</v>
+      </c>
+      <c r="H70" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70" s="37">
+        <v>3</v>
+      </c>
+      <c r="J70" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K70" s="35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="19" customFormat="1">
+      <c r="A71" s="102" t="s">
+        <v>301</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="35" t="s">
+        <v>518</v>
+      </c>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35">
+        <v>0</v>
+      </c>
+      <c r="G71" s="35">
+        <v>2</v>
+      </c>
+      <c r="H71" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" s="37">
+        <v>3</v>
+      </c>
+      <c r="J71" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K71" s="35" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="19" customFormat="1">
+      <c r="A72" s="102" t="s">
+        <v>408</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>409</v>
+      </c>
+      <c r="C72" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35">
+        <v>1</v>
+      </c>
+      <c r="G72" s="35">
+        <v>2</v>
+      </c>
+      <c r="H72" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="37"/>
+      <c r="J72" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="35"/>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>214</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>221</v>
-      </c>
-      <c r="G17" s="36">
-        <v>1</v>
-      </c>
-      <c r="H17" s="36">
-        <v>1</v>
-      </c>
-      <c r="I17" s="36">
+      <c r="K72" s="35" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="58" customFormat="1">
+      <c r="A73" s="102" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G73" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="H73" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="I73" s="37">
         <v>3</v>
       </c>
-      <c r="J17" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="36" t="s">
+      <c r="J73" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="K73" s="35" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="58" customFormat="1">
+      <c r="A74" s="102" t="s">
+        <v>290</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>520</v>
+      </c>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35">
+        <v>0</v>
+      </c>
+      <c r="G74" s="35">
+        <v>10</v>
+      </c>
+      <c r="H74" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" s="37">
+        <v>2</v>
+      </c>
+      <c r="J74" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="K74" s="35" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" s="58" customFormat="1">
+      <c r="A75" s="102" t="s">
+        <v>290</v>
+      </c>
+      <c r="B75" s="35" t="s">
+        <v>291</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>522</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E75" s="35">
+        <v>2</v>
+      </c>
+      <c r="F75" s="35">
+        <v>1</v>
+      </c>
+      <c r="G75" s="35">
+        <v>14</v>
+      </c>
+      <c r="H75" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="M17" s="35"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="35">
-        <v>0</v>
-      </c>
-      <c r="I18" s="35">
-        <v>1</v>
-      </c>
-      <c r="J18" s="35" t="s">
+      <c r="K75" s="35" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="58" customFormat="1">
+      <c r="A76" s="104" t="s">
+        <v>290</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>292</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="D76" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E76" s="35">
+        <v>2</v>
+      </c>
+      <c r="F76" s="35">
+        <v>1</v>
+      </c>
+      <c r="G76" s="35">
+        <v>14</v>
+      </c>
+      <c r="H76" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K76" s="35" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="58" customFormat="1">
+      <c r="A77" s="104" t="s">
+        <v>407</v>
+      </c>
+      <c r="B77" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="C77" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" s="58" customFormat="1">
+      <c r="A78" s="104" t="s">
+        <v>407</v>
+      </c>
+      <c r="B78" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="C78" s="104" t="s">
+        <v>534</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="E78" s="35"/>
+      <c r="F78" s="35">
+        <v>1</v>
+      </c>
+      <c r="G78" s="35">
+        <v>2</v>
+      </c>
+      <c r="H78" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I78" s="37"/>
+      <c r="J78" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K78" s="35" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="58" customFormat="1">
+      <c r="A79" s="104" t="s">
+        <v>407</v>
+      </c>
+      <c r="B79" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="35" t="s">
+        <v>539</v>
+      </c>
+      <c r="D79" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E79" s="35">
+        <v>2</v>
+      </c>
+      <c r="F79" s="35">
+        <v>1</v>
+      </c>
+      <c r="G79" s="35">
+        <v>14</v>
+      </c>
+      <c r="H79" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" s="35"/>
+    </row>
+    <row r="80" spans="1:11" s="58" customFormat="1">
+      <c r="A80" s="104" t="s">
+        <v>407</v>
+      </c>
+      <c r="B80" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C80" s="104" t="s">
+        <v>524</v>
+      </c>
+      <c r="D80" s="104"/>
+      <c r="E80" s="104"/>
+      <c r="F80" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G80" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="H80" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="I80" s="37">
+        <v>3</v>
+      </c>
+      <c r="J80" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="K80" s="104"/>
+    </row>
+    <row r="81" spans="1:11" s="58" customFormat="1">
+      <c r="A81" s="104" t="s">
+        <v>407</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="104" t="s">
+        <v>525</v>
+      </c>
+      <c r="D81" s="104"/>
+      <c r="E81" s="104"/>
+      <c r="F81" s="35">
+        <v>0</v>
+      </c>
+      <c r="G81" s="35">
+        <v>10</v>
+      </c>
+      <c r="H81" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="37">
-        <v>3</v>
-      </c>
-      <c r="L18" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" s="35"/>
-    </row>
-    <row r="19" spans="1:13" ht="19.5">
-      <c r="A19" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="40" t="s">
-        <v>220</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>218</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35">
-        <v>0</v>
-      </c>
-      <c r="I19" s="35">
-        <v>10</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="37">
+      <c r="I81" s="37">
         <v>2</v>
       </c>
-      <c r="L19" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="E20" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="K20" s="37">
-        <v>3</v>
-      </c>
-      <c r="L20" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="M20" s="35"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35">
-        <v>0</v>
-      </c>
-      <c r="I21" s="35">
-        <v>10</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="37">
-        <v>2</v>
-      </c>
-      <c r="L21" s="35" t="s">
+      <c r="J81" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="M21" s="35"/>
-    </row>
-    <row r="22" spans="1:13" ht="19.5">
-      <c r="A22" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35">
-        <v>0</v>
-      </c>
-      <c r="I22" s="35">
-        <v>10</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="37">
-        <v>2</v>
-      </c>
-      <c r="L22" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="M22" s="35"/>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="E24" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="H24" s="35">
-        <v>0</v>
-      </c>
-      <c r="I24" s="35">
-        <v>1</v>
-      </c>
-      <c r="J24" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="37">
-        <v>3</v>
-      </c>
-      <c r="L24" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M24" s="40"/>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="E25" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="H25" s="35">
-        <v>0</v>
-      </c>
-      <c r="I25" s="35">
-        <v>1</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="37">
-        <v>3</v>
-      </c>
-      <c r="L25" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" s="40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="H26" s="35">
-        <v>0</v>
-      </c>
-      <c r="I26" s="35">
-        <v>1</v>
-      </c>
-      <c r="J26" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="37">
-        <v>3</v>
-      </c>
-      <c r="L26" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M26" s="40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="19.5">
-      <c r="A27" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="H27" s="35">
-        <v>0</v>
-      </c>
-      <c r="I27" s="35">
-        <v>10</v>
-      </c>
-      <c r="J27" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="37">
-        <v>2</v>
-      </c>
-      <c r="L27" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="M27" s="35"/>
-    </row>
-    <row r="28" spans="1:13" s="19" customFormat="1">
-      <c r="A28" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-    </row>
-    <row r="29" spans="1:13" s="19" customFormat="1">
-      <c r="A29" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35">
-        <v>0</v>
-      </c>
-      <c r="I29" s="35">
-        <v>15</v>
-      </c>
-      <c r="J29" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="37">
-        <v>3</v>
-      </c>
-      <c r="L29" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="M29" s="35"/>
-    </row>
-    <row r="30" spans="1:13" s="19" customFormat="1">
-      <c r="A30" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35">
-        <v>0</v>
-      </c>
-      <c r="I30" s="35">
-        <v>2</v>
-      </c>
-      <c r="J30" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K30" s="37">
-        <v>3</v>
-      </c>
-      <c r="L30" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="M30" s="35"/>
-    </row>
-    <row r="31" spans="1:13" s="19" customFormat="1">
-      <c r="A31" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35">
-        <v>0</v>
-      </c>
-      <c r="I31" s="35">
-        <v>2</v>
-      </c>
-      <c r="J31" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="37">
-        <v>3</v>
-      </c>
-      <c r="L31" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="M31" s="35"/>
-    </row>
-    <row r="32" spans="1:13" s="19" customFormat="1">
-      <c r="A32" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35" t="s">
-        <v>157</v>
-      </c>
-      <c r="E32" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35">
-        <v>0</v>
-      </c>
-      <c r="I32" s="35">
-        <v>1</v>
-      </c>
-      <c r="J32" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="37">
-        <v>3</v>
-      </c>
-      <c r="L32" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M32" s="35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" s="19" customFormat="1">
-      <c r="A33" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35" t="s">
-        <v>158</v>
-      </c>
-      <c r="E33" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35">
-        <v>0</v>
-      </c>
-      <c r="I33" s="35">
-        <v>1</v>
-      </c>
-      <c r="J33" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="37">
-        <v>3</v>
-      </c>
-      <c r="L33" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M33" s="35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="17.649999999999999" customHeight="1">
-      <c r="A34" s="36" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E34" s="36"/>
-      <c r="F34" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G34" s="36">
-        <v>1</v>
-      </c>
-      <c r="H34" s="36">
-        <v>1</v>
-      </c>
-      <c r="I34" s="36">
-        <v>4</v>
-      </c>
-      <c r="J34" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34" s="36"/>
-    </row>
-    <row r="35" spans="1:13" ht="17.649999999999999" customHeight="1">
-      <c r="A35" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="E35" s="36"/>
-      <c r="F35" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="G35" s="36">
-        <v>1</v>
-      </c>
-      <c r="H35" s="36">
-        <v>1</v>
-      </c>
-      <c r="I35" s="36">
-        <v>4</v>
-      </c>
-      <c r="J35" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M35" s="36"/>
-    </row>
-    <row r="36" spans="1:13">
-      <c r="A36" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="G36" s="35">
-        <v>1</v>
-      </c>
-      <c r="H36" s="35">
-        <v>1</v>
-      </c>
-      <c r="I36" s="35">
-        <v>2</v>
-      </c>
-      <c r="J36" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M36" s="26"/>
-    </row>
-    <row r="37" spans="1:13">
-      <c r="A37" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="41" t="s">
-        <v>150</v>
-      </c>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="G37" s="35">
-        <v>1</v>
-      </c>
-      <c r="H37" s="35">
-        <v>1</v>
-      </c>
-      <c r="I37" s="35">
-        <v>2</v>
-      </c>
-      <c r="J37" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M37" s="26"/>
-    </row>
-    <row r="38" spans="1:13">
-      <c r="A38" s="73" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="F38" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="G38" s="35">
-        <v>2</v>
-      </c>
-      <c r="H38" s="35">
-        <v>1</v>
-      </c>
-      <c r="I38" s="35">
-        <v>14</v>
-      </c>
-      <c r="J38" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M38" s="35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
-      <c r="A39" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="F39" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="G39" s="35">
-        <v>4</v>
-      </c>
-      <c r="H39" s="35">
-        <v>4</v>
-      </c>
-      <c r="I39" s="35">
-        <v>4</v>
-      </c>
-      <c r="J39" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="K39" s="35"/>
-      <c r="L39" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="M39" s="26"/>
-    </row>
-    <row r="40" spans="1:13">
-      <c r="A40" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="E40" s="26"/>
-      <c r="F40" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="G40" s="26">
-        <v>1</v>
-      </c>
-      <c r="H40" s="26">
-        <v>1</v>
-      </c>
-      <c r="I40" s="26">
-        <v>2</v>
-      </c>
-      <c r="J40" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="26"/>
-      <c r="L40" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="M40" s="29"/>
-    </row>
-    <row r="41" spans="1:13">
-      <c r="A41" s="29" t="s">
-        <v>135</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-    </row>
-    <row r="42" spans="1:13" ht="19.5">
-      <c r="A42" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26">
-        <v>0</v>
-      </c>
-      <c r="I42" s="26">
-        <v>99</v>
-      </c>
-      <c r="J42" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" s="5">
-        <v>2</v>
-      </c>
-      <c r="L42" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="M42" s="26"/>
-    </row>
-    <row r="43" spans="1:13">
-      <c r="A43" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-    </row>
-    <row r="44" spans="1:13">
-      <c r="A44" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="B44" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="E44" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F44" s="62" t="s">
-        <v>245</v>
-      </c>
-      <c r="G44" s="36"/>
-      <c r="H44" s="62">
-        <v>1</v>
-      </c>
-      <c r="I44" s="62">
-        <v>2</v>
-      </c>
-      <c r="J44" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="K44" s="5"/>
-      <c r="L44" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M44" s="36"/>
-    </row>
-    <row r="45" spans="1:13" ht="19.5">
-      <c r="A45" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="62"/>
-      <c r="D45" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="E45" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35">
-        <v>0</v>
-      </c>
-      <c r="I45" s="35">
-        <v>10</v>
-      </c>
-      <c r="J45" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" s="37">
-        <v>2</v>
-      </c>
-      <c r="L45" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="M45" s="36"/>
-    </row>
-    <row r="46" spans="1:13" ht="19.5">
-      <c r="A46" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="B46" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="62"/>
-      <c r="D46" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="E46" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35">
-        <v>0</v>
-      </c>
-      <c r="I46" s="35">
-        <v>10</v>
-      </c>
-      <c r="J46" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="37">
-        <v>2</v>
-      </c>
-      <c r="L46" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="M46" s="36"/>
-    </row>
-    <row r="47" spans="1:13" ht="19.5">
-      <c r="A47" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="B47" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="62"/>
-      <c r="D47" s="34" t="s">
-        <v>252</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35">
-        <v>0</v>
-      </c>
-      <c r="I47" s="35">
-        <v>10</v>
-      </c>
-      <c r="J47" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="37">
-        <v>2</v>
-      </c>
-      <c r="L47" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="M47" s="36"/>
-    </row>
-    <row r="48" spans="1:13" ht="19.5">
-      <c r="A48" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" s="62"/>
-      <c r="D48" s="34" t="s">
-        <v>253</v>
-      </c>
-      <c r="E48" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35">
-        <v>0</v>
-      </c>
-      <c r="I48" s="35">
-        <v>10</v>
-      </c>
-      <c r="J48" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="37">
-        <v>2</v>
-      </c>
-      <c r="L48" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="M48" s="36"/>
-    </row>
-    <row r="49" spans="1:13" ht="19.5">
-      <c r="A49" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="B49" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="E49" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35">
-        <v>0</v>
-      </c>
-      <c r="I49" s="35">
-        <v>10</v>
-      </c>
-      <c r="J49" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" s="37">
-        <v>2</v>
-      </c>
-      <c r="L49" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="M49" s="36"/>
-    </row>
-    <row r="50" spans="1:13">
-      <c r="A50" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="B50" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50" s="62"/>
-      <c r="D50" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="E50" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35">
-        <v>0</v>
-      </c>
-      <c r="I50" s="35">
-        <v>1</v>
-      </c>
-      <c r="J50" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" s="37">
-        <v>3</v>
-      </c>
-      <c r="L50" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M50" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="B51" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="62"/>
-      <c r="D51" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="E51" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35">
-        <v>0</v>
-      </c>
-      <c r="I51" s="35">
-        <v>1</v>
-      </c>
-      <c r="J51" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" s="37">
-        <v>3</v>
-      </c>
-      <c r="L51" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M51" s="35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="B52" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="62"/>
-      <c r="D52" s="34" t="s">
-        <v>254</v>
-      </c>
-      <c r="E52" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="G52" s="36"/>
-      <c r="H52" s="62">
-        <v>1</v>
-      </c>
-      <c r="I52" s="62">
-        <v>2</v>
-      </c>
-      <c r="J52" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M52" s="36"/>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="B53" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="62"/>
-      <c r="D53" s="34" t="s">
-        <v>255</v>
-      </c>
-      <c r="E53" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35">
-        <v>0</v>
-      </c>
-      <c r="I53" s="35">
-        <v>1</v>
-      </c>
-      <c r="J53" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" s="37">
-        <v>3</v>
-      </c>
-      <c r="L53" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M53" s="35" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="B54" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="E54" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35">
-        <v>0</v>
-      </c>
-      <c r="I54" s="35">
-        <v>1</v>
-      </c>
-      <c r="J54" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K54" s="37">
-        <v>3</v>
-      </c>
-      <c r="L54" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="M54" s="35" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="B55" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C55" s="62"/>
-      <c r="D55" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="E55" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="F55" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="G55" s="36"/>
-      <c r="H55" s="62">
-        <v>1</v>
-      </c>
-      <c r="I55" s="62">
-        <v>2</v>
-      </c>
-      <c r="J55" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="5"/>
-      <c r="L55" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="M55" s="36"/>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" s="68" t="s">
-        <v>249</v>
-      </c>
-      <c r="B56" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" s="62"/>
-      <c r="D56" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="E56" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35">
-        <v>0</v>
-      </c>
-      <c r="I56" s="35">
-        <v>10</v>
-      </c>
-      <c r="J56" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" s="37">
-        <v>2</v>
-      </c>
-      <c r="L56" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="M56" s="36"/>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" s="54" t="s">
-        <v>249</v>
-      </c>
-      <c r="B57" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="62"/>
-      <c r="D57" s="41" t="s">
-        <v>262</v>
-      </c>
-      <c r="E57" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35">
-        <v>0</v>
-      </c>
-      <c r="I57" s="35">
-        <v>10</v>
-      </c>
-      <c r="J57" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" s="37">
-        <v>2</v>
-      </c>
-      <c r="L57" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="M57" s="35"/>
+      <c r="K81" s="104"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -23906,7 +24965,7 @@
   <dimension ref="A2:S56"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
@@ -25724,7 +26783,7 @@
   <dimension ref="A2:S71"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="E38" sqref="E38"/>

--- a/入力情報定義表.xlsx
+++ b/入力情報定義表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA9062B-003F-4AF0-AB44-670DBAD52049}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7ABC5A-5446-4382-8858-2F911DF8321C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8330" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8330" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4295" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4316" uniqueCount="565">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -4231,46 +4231,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[木造熱橋部計算方法]=１の場合に表示。部位（part[j]）の最大数は6とする（以下同様）。</t>
-    <rPh sb="1" eb="3">
-      <t>モクゾウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ネッキョウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケイサン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ブイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>スウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ドウヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>1:桁・梁間に断熱</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -5699,6 +5659,122 @@
     <rPh sb="48" eb="50">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[木造熱橋部計算方法]=２の場合に表示。部位（part[j]）の最大数は6とする（以下同様）。</t>
+    <rPh sb="1" eb="3">
+      <t>モクゾウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ネッキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「開口部以外の不透明部位」の項目「部位/面積比率」の備考を変更（「[木造熱橋部計算方法]=１の場合に表示」→「[木造熱橋部計算方法]=２の場合に表示」に変更）</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Heatbridges[i] Space</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>熱橋部が属する空間種類</t>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土間床等の種類</t>
+    <rPh sb="0" eb="2">
+      <t>ドマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土間床等が属する空間種類</t>
+    <rPh sb="3" eb="4">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EarthfloorPerimeters[i] Space</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「線熱橋」、「土間床等の外周部の線熱橋」に項目「空間種類」を追加</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5858,7 +5934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6172,26 +6248,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6208,10 +6287,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6226,11 +6317,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6241,23 +6335,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6545,11 +6627,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536BF8A1-E6C3-4235-B285-32136AE77F7C}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -7051,7 +7133,7 @@
         <v>276</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7062,7 +7144,7 @@
         <v>276</v>
       </c>
       <c r="C46" s="82" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7073,7 +7155,7 @@
         <v>276</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7084,7 +7166,7 @@
         <v>276</v>
       </c>
       <c r="C48" s="82" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7095,7 +7177,7 @@
         <v>276</v>
       </c>
       <c r="C49" s="82" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7128,7 +7210,7 @@
         <v>276</v>
       </c>
       <c r="C52" s="82" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7139,7 +7221,7 @@
         <v>276</v>
       </c>
       <c r="C53" s="82" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7150,7 +7232,7 @@
         <v>276</v>
       </c>
       <c r="C54" s="82" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7161,7 +7243,7 @@
         <v>276</v>
       </c>
       <c r="C55" s="82" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7172,7 +7254,7 @@
         <v>276</v>
       </c>
       <c r="C56" s="82" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7183,7 +7265,7 @@
         <v>276</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7194,7 +7276,7 @@
         <v>276</v>
       </c>
       <c r="C58" s="82" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7205,7 +7287,7 @@
         <v>276</v>
       </c>
       <c r="C59" s="82" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7216,7 +7298,7 @@
         <v>276</v>
       </c>
       <c r="C60" s="82" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7227,7 +7309,7 @@
         <v>276</v>
       </c>
       <c r="C61" s="82" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -7238,7 +7320,7 @@
         <v>276</v>
       </c>
       <c r="C62" s="82" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -7249,7 +7331,7 @@
         <v>276</v>
       </c>
       <c r="C63" s="82" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -7260,7 +7342,7 @@
         <v>276</v>
       </c>
       <c r="C64" s="81" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -7268,10 +7350,10 @@
         <v>43257</v>
       </c>
       <c r="B65" s="76" t="s">
+        <v>525</v>
+      </c>
+      <c r="C65" s="82" t="s">
         <v>526</v>
-      </c>
-      <c r="C65" s="82" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7279,10 +7361,10 @@
         <v>43257</v>
       </c>
       <c r="B66" s="76" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C66" s="82" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7290,10 +7372,10 @@
         <v>43257</v>
       </c>
       <c r="B67" s="76" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C67" s="82" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7304,7 +7386,7 @@
         <v>276</v>
       </c>
       <c r="C68" s="82" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7315,7 +7397,7 @@
         <v>276</v>
       </c>
       <c r="C69" s="82" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7323,10 +7405,10 @@
         <v>43265</v>
       </c>
       <c r="B70" s="76" t="s">
+        <v>542</v>
+      </c>
+      <c r="C70" s="82" t="s">
         <v>543</v>
-      </c>
-      <c r="C70" s="82" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7334,70 +7416,98 @@
         <v>43265</v>
       </c>
       <c r="B71" s="76" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C71" s="82" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="76">
         <v>43266</v>
       </c>
-      <c r="B72" s="76" t="str">
-        <f>$B$71</f>
-        <v>シート「熱負荷計算LV3csv」</v>
+      <c r="B72" s="76" t="s">
+        <v>542</v>
       </c>
       <c r="C72" s="82" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="76">
         <v>43266</v>
       </c>
-      <c r="B73" s="76" t="str">
-        <f>$B$71</f>
-        <v>シート「熱負荷計算LV3csv」</v>
+      <c r="B73" s="76" t="s">
+        <v>542</v>
       </c>
       <c r="C73" s="82" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="76">
         <v>43266</v>
       </c>
-      <c r="B74" s="76" t="str">
-        <f>$B$71</f>
-        <v>シート「熱負荷計算LV3csv」</v>
+      <c r="B74" s="76" t="s">
+        <v>542</v>
       </c>
       <c r="C74" s="82" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="76">
         <v>43266</v>
       </c>
-      <c r="B75" s="76" t="str">
-        <f>$B$71</f>
-        <v>シート「熱負荷計算LV3csv」</v>
+      <c r="B75" s="76" t="s">
+        <v>542</v>
       </c>
       <c r="C75" s="82" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="76">
         <v>43269</v>
       </c>
-      <c r="B76" s="76" t="str">
-        <f>$B$71</f>
-        <v>シート「熱負荷計算LV3csv」</v>
+      <c r="B76" s="76" t="s">
+        <v>542</v>
       </c>
       <c r="C76" s="82" t="s">
-        <v>555</v>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="76">
+        <v>43279</v>
+      </c>
+      <c r="B77" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="C77" s="82" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="76">
+        <v>43279</v>
+      </c>
+      <c r="B78" s="76" t="s">
+        <v>542</v>
+      </c>
+      <c r="C78" s="82" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="76">
+        <v>43279</v>
+      </c>
+      <c r="B79" s="76" t="s">
+        <v>542</v>
+      </c>
+      <c r="C79" s="82" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -7572,7 +7682,7 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="118" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7619,36 +7729,36 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="118"/>
-      <c r="B4" s="120" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="120"/>
+      <c r="A4" s="119"/>
+      <c r="B4" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="124"/>
       <c r="D4" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="120"/>
+      <c r="E4" s="124"/>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="120">
+      <c r="H4" s="124">
         <v>6</v>
       </c>
-      <c r="I4" s="120">
-        <v>1</v>
-      </c>
-      <c r="J4" s="120">
+      <c r="I4" s="124">
+        <v>1</v>
+      </c>
+      <c r="J4" s="124">
         <v>8</v>
       </c>
-      <c r="K4" s="120" t="s">
+      <c r="K4" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="120"/>
-      <c r="M4" s="120"/>
-      <c r="N4" s="120"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
       <c r="O4" s="51" t="s">
         <v>51</v>
       </c>
@@ -7666,24 +7776,24 @@
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="118"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="126"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="125"/>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
       <c r="O5" s="52"/>
       <c r="P5" s="52"/>
       <c r="Q5" s="52"/>
@@ -7691,24 +7801,24 @@
       <c r="S5" s="52"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="118"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="126"/>
+      <c r="A6" s="119"/>
+      <c r="B6" s="125"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="125"/>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="126"/>
-      <c r="I6" s="126"/>
-      <c r="J6" s="126"/>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
+      <c r="H6" s="125"/>
+      <c r="I6" s="125"/>
+      <c r="J6" s="125"/>
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="125"/>
+      <c r="N6" s="125"/>
       <c r="O6" s="52"/>
       <c r="P6" s="52"/>
       <c r="Q6" s="52"/>
@@ -7716,24 +7826,24 @@
       <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="118"/>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="126"/>
+      <c r="A7" s="119"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="125"/>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="126"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="126"/>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
+      <c r="K7" s="125"/>
+      <c r="L7" s="125"/>
+      <c r="M7" s="125"/>
+      <c r="N7" s="125"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
@@ -7741,24 +7851,24 @@
       <c r="S7" s="52"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="118"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="111"/>
-      <c r="E8" s="126"/>
+      <c r="A8" s="119"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="125"/>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="126"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="126"/>
-      <c r="N8" s="126"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="125"/>
+      <c r="N8" s="125"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="52"/>
@@ -7766,24 +7876,24 @@
       <c r="S8" s="52"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="118"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="126"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="125"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="125"/>
       <c r="F9" s="1">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="126"/>
-      <c r="K9" s="126"/>
-      <c r="L9" s="126"/>
-      <c r="M9" s="126"/>
-      <c r="N9" s="126"/>
+      <c r="H9" s="125"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="125"/>
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
       <c r="O9" s="52"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="52"/>
@@ -7791,24 +7901,24 @@
       <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="118"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="126"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="125"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="1">
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="126"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="126"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="126"/>
-      <c r="N10" s="126"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52"/>
@@ -7816,24 +7926,24 @@
       <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="118"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="110"/>
-      <c r="E11" s="121"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="1">
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
@@ -7841,7 +7951,7 @@
       <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="118"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
@@ -7888,7 +7998,7 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="118"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
@@ -7935,7 +8045,7 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="118"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
@@ -7982,15 +8092,15 @@
       </c>
     </row>
     <row r="15" spans="1:23" s="44" customFormat="1">
-      <c r="A15" s="118"/>
-      <c r="B15" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="117"/>
-      <c r="D15" s="114" t="s">
+      <c r="A15" s="119"/>
+      <c r="B15" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="118"/>
+      <c r="D15" s="115" t="s">
         <v>236</v>
       </c>
-      <c r="E15" s="117"/>
+      <c r="E15" s="118"/>
       <c r="F15" s="46">
         <v>1</v>
       </c>
@@ -8009,11 +8119,11 @@
       <c r="K15" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="120"/>
+      <c r="L15" s="124"/>
       <c r="M15" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="120"/>
+      <c r="N15" s="124"/>
       <c r="O15" s="51" t="s">
         <v>51</v>
       </c>
@@ -8031,24 +8141,24 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="44" customFormat="1">
-      <c r="A16" s="118"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="125"/>
+      <c r="A16" s="119"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="120"/>
       <c r="F16" s="46">
         <v>2</v>
       </c>
       <c r="G16" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="121"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="126"/>
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="53"/>
@@ -8056,7 +8166,7 @@
       <c r="S16" s="53"/>
     </row>
     <row r="17" spans="1:23" s="44" customFormat="1">
-      <c r="A17" s="118"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="43" t="s">
         <v>51</v>
       </c>
@@ -8101,7 +8211,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" s="23" customFormat="1">
-      <c r="A18" s="118"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="43" t="s">
         <v>51</v>
       </c>
@@ -8150,7 +8260,7 @@
       <c r="W18" s="27"/>
     </row>
     <row r="19" spans="1:23" s="58" customFormat="1">
-      <c r="A19" s="118"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="62" t="s">
         <v>51</v>
       </c>
@@ -8195,15 +8305,15 @@
       </c>
     </row>
     <row r="20" spans="1:23" s="58" customFormat="1">
-      <c r="A20" s="118"/>
-      <c r="B20" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="117"/>
-      <c r="D20" s="114" t="s">
+      <c r="A20" s="119"/>
+      <c r="B20" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="118"/>
+      <c r="D20" s="115" t="s">
         <v>242</v>
       </c>
-      <c r="E20" s="114" t="s">
+      <c r="E20" s="115" t="s">
         <v>265</v>
       </c>
       <c r="F20" s="69">
@@ -8222,54 +8332,54 @@
       <c r="K20" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="107"/>
+      <c r="L20" s="112"/>
       <c r="M20" s="109" t="s">
         <v>38</v>
       </c>
       <c r="N20" s="109"/>
-      <c r="O20" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="S20" s="112" t="s">
+      <c r="O20" s="136" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="136" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="136" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="136" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="136" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="58" customFormat="1">
-      <c r="A21" s="118"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="118"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
+      <c r="A21" s="119"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
       <c r="F21" s="69">
         <v>2</v>
       </c>
       <c r="G21" s="69" t="s">
         <v>244</v>
       </c>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="113"/>
-      <c r="P21" s="113"/>
-      <c r="Q21" s="113"/>
-      <c r="R21" s="113"/>
-      <c r="S21" s="113"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="113"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="137"/>
+      <c r="R21" s="137"/>
+      <c r="S21" s="137"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="124" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -8308,36 +8418,36 @@
       </c>
     </row>
     <row r="23" spans="1:23" s="44" customFormat="1">
-      <c r="A23" s="126"/>
-      <c r="B23" s="114" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="117"/>
-      <c r="D23" s="114" t="s">
+      <c r="A23" s="125"/>
+      <c r="B23" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="118"/>
+      <c r="D23" s="115" t="s">
         <v>226</v>
       </c>
-      <c r="E23" s="133"/>
+      <c r="E23" s="121"/>
       <c r="F23" s="46">
         <v>1</v>
       </c>
       <c r="G23" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="H23" s="122"/>
+      <c r="H23" s="127"/>
       <c r="I23" s="109">
         <v>1</v>
       </c>
       <c r="J23" s="109">
         <v>6</v>
       </c>
-      <c r="K23" s="114" t="s">
+      <c r="K23" s="115" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="122"/>
-      <c r="M23" s="114" t="s">
+      <c r="L23" s="127"/>
+      <c r="M23" s="115" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="117"/>
+      <c r="N23" s="118"/>
       <c r="O23" s="51" t="s">
         <v>51</v>
       </c>
@@ -8356,24 +8466,24 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:23" s="44" customFormat="1">
-      <c r="A24" s="126"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="118"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="134"/>
+      <c r="A24" s="125"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="122"/>
       <c r="F24" s="46">
         <v>2</v>
       </c>
       <c r="G24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="123"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="123"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="118"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="119"/>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="52"/>
@@ -8382,24 +8492,24 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:23" s="44" customFormat="1">
-      <c r="A25" s="126"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="115"/>
-      <c r="E25" s="134"/>
+      <c r="A25" s="125"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="122"/>
       <c r="F25" s="46">
         <v>3</v>
       </c>
       <c r="G25" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="123"/>
-      <c r="I25" s="111"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="115"/>
-      <c r="N25" s="118"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="119"/>
       <c r="O25" s="52"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="52"/>
@@ -8408,24 +8518,24 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="1:23" s="44" customFormat="1">
-      <c r="A26" s="126"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="134"/>
+      <c r="A26" s="125"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="122"/>
       <c r="F26" s="46">
         <v>4</v>
       </c>
       <c r="G26" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="123"/>
-      <c r="I26" s="111"/>
-      <c r="J26" s="111"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="123"/>
-      <c r="M26" s="115"/>
-      <c r="N26" s="118"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="116"/>
+      <c r="N26" s="119"/>
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="52"/>
@@ -8436,24 +8546,24 @@
       <c r="V26" s="49"/>
     </row>
     <row r="27" spans="1:23" s="44" customFormat="1">
-      <c r="A27" s="126"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="134"/>
+      <c r="A27" s="125"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="46">
         <v>5</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="123"/>
-      <c r="I27" s="111"/>
-      <c r="J27" s="111"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="123"/>
-      <c r="M27" s="115"/>
-      <c r="N27" s="118"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="116"/>
+      <c r="N27" s="119"/>
       <c r="O27" s="52"/>
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
@@ -8464,24 +8574,24 @@
       <c r="V27" s="49"/>
     </row>
     <row r="28" spans="1:23" s="44" customFormat="1">
-      <c r="A28" s="126"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="125"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="135"/>
+      <c r="A28" s="125"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="123"/>
       <c r="F28" s="46">
         <v>6</v>
       </c>
       <c r="G28" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="124"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="124"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="125"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="120"/>
       <c r="O28" s="53"/>
       <c r="P28" s="53"/>
       <c r="Q28" s="53"/>
@@ -8492,7 +8602,7 @@
       <c r="V28" s="49"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="126"/>
+      <c r="A29" s="125"/>
       <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
@@ -8532,7 +8642,7 @@
       <c r="V29" s="49"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="126"/>
+      <c r="A30" s="125"/>
       <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
@@ -8580,7 +8690,7 @@
       <c r="V30" s="49"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="126"/>
+      <c r="A31" s="125"/>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
@@ -8628,7 +8738,7 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="126"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
@@ -8674,7 +8784,7 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="126"/>
+      <c r="A33" s="125"/>
       <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
@@ -8724,7 +8834,7 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="126"/>
+      <c r="A34" s="125"/>
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
@@ -8774,7 +8884,7 @@
       <c r="V34" s="49"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="126"/>
+      <c r="A35" s="125"/>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
@@ -8823,7 +8933,7 @@
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A36" s="126"/>
+      <c r="A36" s="125"/>
       <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
@@ -8871,7 +8981,7 @@
       <c r="T36" s="19"/>
     </row>
     <row r="37" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A37" s="126"/>
+      <c r="A37" s="125"/>
       <c r="B37" s="10" t="s">
         <v>51</v>
       </c>
@@ -8917,7 +9027,7 @@
       <c r="T37" s="19"/>
     </row>
     <row r="38" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A38" s="126"/>
+      <c r="A38" s="125"/>
       <c r="B38" s="10" t="s">
         <v>51</v>
       </c>
@@ -8963,7 +9073,7 @@
       <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:22" s="27" customFormat="1">
-      <c r="A39" s="126"/>
+      <c r="A39" s="125"/>
       <c r="B39" s="109" t="s">
         <v>51</v>
       </c>
@@ -8990,7 +9100,7 @@
       <c r="K39" s="109" t="s">
         <v>208</v>
       </c>
-      <c r="L39" s="107"/>
+      <c r="L39" s="112"/>
       <c r="M39" s="109" t="s">
         <v>38</v>
       </c>
@@ -9012,24 +9122,24 @@
       </c>
     </row>
     <row r="40" spans="1:22" s="27" customFormat="1">
-      <c r="A40" s="126"/>
-      <c r="B40" s="111"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
+      <c r="A40" s="125"/>
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="110"/>
+      <c r="E40" s="110"/>
       <c r="F40" s="10">
         <v>2</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H40" s="111"/>
-      <c r="I40" s="111"/>
-      <c r="J40" s="111"/>
-      <c r="K40" s="111"/>
-      <c r="L40" s="119"/>
-      <c r="M40" s="111"/>
-      <c r="N40" s="111"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="110"/>
+      <c r="J40" s="110"/>
+      <c r="K40" s="110"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="110"/>
+      <c r="N40" s="110"/>
       <c r="O40" s="52"/>
       <c r="P40" s="52"/>
       <c r="Q40" s="52"/>
@@ -9037,24 +9147,24 @@
       <c r="S40" s="52"/>
     </row>
     <row r="41" spans="1:22" s="58" customFormat="1">
-      <c r="A41" s="126"/>
-      <c r="B41" s="111"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
+      <c r="A41" s="125"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
       <c r="F41" s="61">
         <v>3</v>
       </c>
       <c r="G41" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="H41" s="111"/>
-      <c r="I41" s="111"/>
-      <c r="J41" s="111"/>
-      <c r="K41" s="111"/>
-      <c r="L41" s="119"/>
-      <c r="M41" s="111"/>
-      <c r="N41" s="111"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="110"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="110"/>
+      <c r="N41" s="110"/>
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
@@ -9062,24 +9172,24 @@
       <c r="S41" s="59"/>
     </row>
     <row r="42" spans="1:22" s="27" customFormat="1">
-      <c r="A42" s="126"/>
-      <c r="B42" s="110"/>
-      <c r="C42" s="110"/>
-      <c r="D42" s="110"/>
-      <c r="E42" s="110"/>
+      <c r="A42" s="125"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="111"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="10">
         <v>4</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="H42" s="110"/>
-      <c r="I42" s="110"/>
-      <c r="J42" s="110"/>
-      <c r="K42" s="110"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="110"/>
-      <c r="N42" s="110"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="111"/>
+      <c r="N42" s="111"/>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
       <c r="Q42" s="53"/>
@@ -9087,7 +9197,7 @@
       <c r="S42" s="53"/>
     </row>
     <row r="43" spans="1:22" s="27" customFormat="1">
-      <c r="A43" s="126"/>
+      <c r="A43" s="125"/>
       <c r="B43" s="109"/>
       <c r="C43" s="109" t="s">
         <v>51</v>
@@ -9116,7 +9226,7 @@
       <c r="K43" s="109" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="107"/>
+      <c r="L43" s="112"/>
       <c r="M43" s="109" t="s">
         <v>38</v>
       </c>
@@ -9138,24 +9248,24 @@
       </c>
     </row>
     <row r="44" spans="1:22" s="27" customFormat="1">
-      <c r="A44" s="126"/>
-      <c r="B44" s="111"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="110"/>
+      <c r="E44" s="110"/>
       <c r="F44" s="10">
         <v>2</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="111"/>
-      <c r="L44" s="119"/>
-      <c r="M44" s="111"/>
-      <c r="N44" s="111"/>
+      <c r="H44" s="110"/>
+      <c r="I44" s="110"/>
+      <c r="J44" s="110"/>
+      <c r="K44" s="110"/>
+      <c r="L44" s="113"/>
+      <c r="M44" s="110"/>
+      <c r="N44" s="110"/>
       <c r="O44" s="52"/>
       <c r="P44" s="52"/>
       <c r="Q44" s="52"/>
@@ -9163,24 +9273,24 @@
       <c r="S44" s="52"/>
     </row>
     <row r="45" spans="1:22" s="27" customFormat="1">
-      <c r="A45" s="126"/>
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
-      <c r="E45" s="110"/>
+      <c r="A45" s="125"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
       <c r="F45" s="10">
         <v>3</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H45" s="110"/>
-      <c r="I45" s="110"/>
-      <c r="J45" s="110"/>
-      <c r="K45" s="110"/>
-      <c r="L45" s="108"/>
-      <c r="M45" s="110"/>
-      <c r="N45" s="110"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="111"/>
       <c r="O45" s="53"/>
       <c r="P45" s="53"/>
       <c r="Q45" s="53"/>
@@ -9188,7 +9298,7 @@
       <c r="S45" s="53"/>
     </row>
     <row r="46" spans="1:22" s="27" customFormat="1">
-      <c r="A46" s="126"/>
+      <c r="A46" s="125"/>
       <c r="B46" s="10" t="s">
         <v>51</v>
       </c>
@@ -9235,7 +9345,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A47" s="126"/>
+      <c r="A47" s="125"/>
       <c r="B47" s="10" t="s">
         <v>51</v>
       </c>
@@ -9282,7 +9392,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" s="27" customFormat="1">
-      <c r="A48" s="126"/>
+      <c r="A48" s="125"/>
       <c r="B48" s="10" t="s">
         <v>51</v>
       </c>
@@ -9329,7 +9439,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" s="27" customFormat="1">
-      <c r="A49" s="126"/>
+      <c r="A49" s="125"/>
       <c r="B49" s="10" t="s">
         <v>51</v>
       </c>
@@ -9376,7 +9486,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" s="27" customFormat="1" ht="19.5">
-      <c r="A50" s="126"/>
+      <c r="A50" s="125"/>
       <c r="B50" s="10" t="s">
         <v>51</v>
       </c>
@@ -9423,7 +9533,7 @@
       </c>
     </row>
     <row r="51" spans="1:23">
-      <c r="A51" s="120" t="s">
+      <c r="A51" s="124" t="s">
         <v>77</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -9462,7 +9572,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" s="16" customFormat="1">
-      <c r="A52" s="126"/>
+      <c r="A52" s="125"/>
       <c r="B52" s="17" t="s">
         <v>51</v>
       </c>
@@ -9515,7 +9625,7 @@
       <c r="W52" s="27"/>
     </row>
     <row r="53" spans="1:23" s="16" customFormat="1">
-      <c r="A53" s="126"/>
+      <c r="A53" s="125"/>
       <c r="B53" s="17" t="s">
         <v>51</v>
       </c>
@@ -9570,7 +9680,7 @@
       <c r="W53" s="27"/>
     </row>
     <row r="54" spans="1:23" s="16" customFormat="1">
-      <c r="A54" s="126"/>
+      <c r="A54" s="125"/>
       <c r="B54" s="17" t="s">
         <v>51</v>
       </c>
@@ -9625,7 +9735,7 @@
       <c r="W54" s="27"/>
     </row>
     <row r="55" spans="1:23">
-      <c r="A55" s="126"/>
+      <c r="A55" s="125"/>
       <c r="B55" s="1" t="s">
         <v>61</v>
       </c>
@@ -9674,7 +9784,7 @@
       </c>
     </row>
     <row r="56" spans="1:23" s="14" customFormat="1">
-      <c r="A56" s="126"/>
+      <c r="A56" s="125"/>
       <c r="B56" s="10" t="s">
         <v>51</v>
       </c>
@@ -9729,7 +9839,7 @@
       <c r="W56" s="27"/>
     </row>
     <row r="57" spans="1:23" s="14" customFormat="1">
-      <c r="A57" s="126"/>
+      <c r="A57" s="125"/>
       <c r="B57" s="10" t="s">
         <v>51</v>
       </c>
@@ -9784,7 +9894,7 @@
       <c r="W57" s="27"/>
     </row>
     <row r="58" spans="1:23">
-      <c r="A58" s="126"/>
+      <c r="A58" s="125"/>
       <c r="B58" s="1" t="s">
         <v>61</v>
       </c>
@@ -9833,7 +9943,7 @@
       </c>
     </row>
     <row r="59" spans="1:23" s="23" customFormat="1">
-      <c r="A59" s="126"/>
+      <c r="A59" s="125"/>
       <c r="B59" s="10" t="s">
         <v>51</v>
       </c>
@@ -9888,7 +9998,7 @@
       <c r="W59" s="27"/>
     </row>
     <row r="60" spans="1:23" s="23" customFormat="1">
-      <c r="A60" s="126"/>
+      <c r="A60" s="125"/>
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -9943,7 +10053,7 @@
       <c r="W60" s="27"/>
     </row>
     <row r="61" spans="1:23" ht="19.5">
-      <c r="A61" s="126"/>
+      <c r="A61" s="125"/>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
@@ -9990,7 +10100,7 @@
       </c>
     </row>
     <row r="62" spans="1:23">
-      <c r="A62" s="126"/>
+      <c r="A62" s="125"/>
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
@@ -10037,7 +10147,7 @@
       </c>
     </row>
     <row r="63" spans="1:23">
-      <c r="A63" s="126"/>
+      <c r="A63" s="125"/>
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
@@ -10084,7 +10194,7 @@
       </c>
     </row>
     <row r="64" spans="1:23" ht="19.5">
-      <c r="A64" s="121"/>
+      <c r="A64" s="126"/>
       <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
@@ -10131,7 +10241,7 @@
       </c>
     </row>
     <row r="65" spans="1:23">
-      <c r="A65" s="120" t="s">
+      <c r="A65" s="124" t="s">
         <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -10170,7 +10280,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" s="19" customFormat="1">
-      <c r="A66" s="126"/>
+      <c r="A66" s="125"/>
       <c r="B66" s="20" t="s">
         <v>51</v>
       </c>
@@ -10210,7 +10320,7 @@
       <c r="T66" s="27"/>
     </row>
     <row r="67" spans="1:23">
-      <c r="A67" s="126"/>
+      <c r="A67" s="125"/>
       <c r="B67" s="1" t="s">
         <v>51</v>
       </c>
@@ -10259,7 +10369,7 @@
       </c>
     </row>
     <row r="68" spans="1:23">
-      <c r="A68" s="126"/>
+      <c r="A68" s="125"/>
       <c r="B68" s="1" t="s">
         <v>51</v>
       </c>
@@ -10308,7 +10418,7 @@
       </c>
     </row>
     <row r="69" spans="1:23">
-      <c r="A69" s="126"/>
+      <c r="A69" s="125"/>
       <c r="B69" s="1" t="s">
         <v>51</v>
       </c>
@@ -10357,7 +10467,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" s="16" customFormat="1">
-      <c r="A70" s="126"/>
+      <c r="A70" s="125"/>
       <c r="B70" s="10" t="s">
         <v>51</v>
       </c>
@@ -10410,7 +10520,7 @@
       <c r="W70" s="27"/>
     </row>
     <row r="71" spans="1:23" s="16" customFormat="1">
-      <c r="A71" s="126"/>
+      <c r="A71" s="125"/>
       <c r="B71" s="10" t="s">
         <v>51</v>
       </c>
@@ -10463,7 +10573,7 @@
       <c r="W71" s="27"/>
     </row>
     <row r="72" spans="1:23" s="19" customFormat="1">
-      <c r="A72" s="126"/>
+      <c r="A72" s="125"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
       </c>
@@ -10503,7 +10613,7 @@
       <c r="T72" s="27"/>
     </row>
     <row r="73" spans="1:23" s="19" customFormat="1">
-      <c r="A73" s="121"/>
+      <c r="A73" s="126"/>
       <c r="B73" s="20" t="s">
         <v>51</v>
       </c>
@@ -10546,21 +10656,21 @@
       <c r="A74" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="120" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="120"/>
+      <c r="B74" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="124"/>
       <c r="D74" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="120"/>
+      <c r="E74" s="124"/>
       <c r="F74" s="1">
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H74" s="120">
+      <c r="H74" s="124">
         <v>1</v>
       </c>
       <c r="I74" s="109">
@@ -10569,14 +10679,14 @@
       <c r="J74" s="109">
         <v>4</v>
       </c>
-      <c r="K74" s="120" t="s">
+      <c r="K74" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="L74" s="120"/>
+      <c r="L74" s="124"/>
       <c r="M74" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="120"/>
+      <c r="N74" s="124"/>
       <c r="O74" s="51" t="s">
         <v>169</v>
       </c>
@@ -10594,24 +10704,24 @@
       </c>
     </row>
     <row r="75" spans="1:23">
-      <c r="A75" s="126"/>
-      <c r="B75" s="126"/>
-      <c r="C75" s="126"/>
-      <c r="D75" s="111"/>
-      <c r="E75" s="126"/>
+      <c r="A75" s="125"/>
+      <c r="B75" s="125"/>
+      <c r="C75" s="125"/>
+      <c r="D75" s="110"/>
+      <c r="E75" s="125"/>
       <c r="F75" s="1">
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H75" s="126"/>
-      <c r="I75" s="111"/>
-      <c r="J75" s="111"/>
-      <c r="K75" s="126"/>
-      <c r="L75" s="126"/>
-      <c r="M75" s="111"/>
-      <c r="N75" s="126"/>
+      <c r="H75" s="125"/>
+      <c r="I75" s="110"/>
+      <c r="J75" s="110"/>
+      <c r="K75" s="125"/>
+      <c r="L75" s="125"/>
+      <c r="M75" s="110"/>
+      <c r="N75" s="125"/>
       <c r="O75" s="52"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="52"/>
@@ -10619,24 +10729,24 @@
       <c r="S75" s="52"/>
     </row>
     <row r="76" spans="1:23" s="4" customFormat="1">
-      <c r="A76" s="126"/>
-      <c r="B76" s="126"/>
-      <c r="C76" s="126"/>
-      <c r="D76" s="111"/>
-      <c r="E76" s="126"/>
+      <c r="A76" s="125"/>
+      <c r="B76" s="125"/>
+      <c r="C76" s="125"/>
+      <c r="D76" s="110"/>
+      <c r="E76" s="125"/>
       <c r="F76" s="3">
         <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H76" s="126"/>
-      <c r="I76" s="111"/>
-      <c r="J76" s="111"/>
-      <c r="K76" s="126"/>
-      <c r="L76" s="126"/>
-      <c r="M76" s="111"/>
-      <c r="N76" s="126"/>
+      <c r="H76" s="125"/>
+      <c r="I76" s="110"/>
+      <c r="J76" s="110"/>
+      <c r="K76" s="125"/>
+      <c r="L76" s="125"/>
+      <c r="M76" s="110"/>
+      <c r="N76" s="125"/>
       <c r="O76" s="52"/>
       <c r="P76" s="52"/>
       <c r="Q76" s="52"/>
@@ -10648,24 +10758,24 @@
       <c r="W76" s="27"/>
     </row>
     <row r="77" spans="1:23">
-      <c r="A77" s="126"/>
-      <c r="B77" s="121"/>
-      <c r="C77" s="121"/>
-      <c r="D77" s="110"/>
-      <c r="E77" s="121"/>
+      <c r="A77" s="125"/>
+      <c r="B77" s="126"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="111"/>
+      <c r="E77" s="126"/>
       <c r="F77" s="10">
         <v>4</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H77" s="121"/>
-      <c r="I77" s="110"/>
-      <c r="J77" s="110"/>
-      <c r="K77" s="121"/>
-      <c r="L77" s="121"/>
-      <c r="M77" s="110"/>
-      <c r="N77" s="121"/>
+      <c r="H77" s="126"/>
+      <c r="I77" s="111"/>
+      <c r="J77" s="111"/>
+      <c r="K77" s="126"/>
+      <c r="L77" s="126"/>
+      <c r="M77" s="111"/>
+      <c r="N77" s="126"/>
       <c r="O77" s="53"/>
       <c r="P77" s="53"/>
       <c r="Q77" s="53"/>
@@ -10673,9 +10783,9 @@
       <c r="S77" s="53"/>
     </row>
     <row r="78" spans="1:23">
-      <c r="A78" s="126"/>
-      <c r="B78" s="120"/>
-      <c r="C78" s="120" t="s">
+      <c r="A78" s="125"/>
+      <c r="B78" s="124"/>
+      <c r="C78" s="124" t="s">
         <v>61</v>
       </c>
       <c r="D78" s="109" t="s">
@@ -10690,7 +10800,7 @@
       <c r="G78" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H78" s="120">
+      <c r="H78" s="124">
         <v>1</v>
       </c>
       <c r="I78" s="109">
@@ -10699,14 +10809,14 @@
       <c r="J78" s="109">
         <v>4</v>
       </c>
-      <c r="K78" s="120" t="s">
+      <c r="K78" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="L78" s="120"/>
+      <c r="L78" s="124"/>
       <c r="M78" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="120"/>
+      <c r="N78" s="124"/>
       <c r="O78" s="51" t="s">
         <v>169</v>
       </c>
@@ -10724,24 +10834,24 @@
       </c>
     </row>
     <row r="79" spans="1:23">
-      <c r="A79" s="126"/>
-      <c r="B79" s="126"/>
-      <c r="C79" s="126"/>
-      <c r="D79" s="111"/>
-      <c r="E79" s="111"/>
+      <c r="A79" s="125"/>
+      <c r="B79" s="125"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="110"/>
+      <c r="E79" s="110"/>
       <c r="F79" s="1">
         <v>2</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H79" s="126"/>
-      <c r="I79" s="111"/>
-      <c r="J79" s="111"/>
-      <c r="K79" s="126"/>
-      <c r="L79" s="126"/>
-      <c r="M79" s="111"/>
-      <c r="N79" s="126"/>
+      <c r="H79" s="125"/>
+      <c r="I79" s="110"/>
+      <c r="J79" s="110"/>
+      <c r="K79" s="125"/>
+      <c r="L79" s="125"/>
+      <c r="M79" s="110"/>
+      <c r="N79" s="125"/>
       <c r="O79" s="52"/>
       <c r="P79" s="52"/>
       <c r="Q79" s="52"/>
@@ -10749,24 +10859,24 @@
       <c r="S79" s="52"/>
     </row>
     <row r="80" spans="1:23">
-      <c r="A80" s="126"/>
-      <c r="B80" s="126"/>
-      <c r="C80" s="126"/>
-      <c r="D80" s="111"/>
-      <c r="E80" s="111"/>
+      <c r="A80" s="125"/>
+      <c r="B80" s="125"/>
+      <c r="C80" s="125"/>
+      <c r="D80" s="110"/>
+      <c r="E80" s="110"/>
       <c r="F80" s="1">
         <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H80" s="126"/>
-      <c r="I80" s="111"/>
-      <c r="J80" s="111"/>
-      <c r="K80" s="126"/>
-      <c r="L80" s="126"/>
-      <c r="M80" s="111"/>
-      <c r="N80" s="126"/>
+      <c r="H80" s="125"/>
+      <c r="I80" s="110"/>
+      <c r="J80" s="110"/>
+      <c r="K80" s="125"/>
+      <c r="L80" s="125"/>
+      <c r="M80" s="110"/>
+      <c r="N80" s="125"/>
       <c r="O80" s="52"/>
       <c r="P80" s="52"/>
       <c r="Q80" s="52"/>
@@ -10774,24 +10884,24 @@
       <c r="S80" s="52"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="126"/>
-      <c r="B81" s="121"/>
-      <c r="C81" s="121"/>
-      <c r="D81" s="110"/>
-      <c r="E81" s="110"/>
+      <c r="A81" s="125"/>
+      <c r="B81" s="126"/>
+      <c r="C81" s="126"/>
+      <c r="D81" s="111"/>
+      <c r="E81" s="111"/>
       <c r="F81" s="1">
         <v>4</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H81" s="121"/>
-      <c r="I81" s="110"/>
-      <c r="J81" s="110"/>
-      <c r="K81" s="121"/>
-      <c r="L81" s="121"/>
-      <c r="M81" s="110"/>
-      <c r="N81" s="121"/>
+      <c r="H81" s="126"/>
+      <c r="I81" s="111"/>
+      <c r="J81" s="111"/>
+      <c r="K81" s="126"/>
+      <c r="L81" s="126"/>
+      <c r="M81" s="111"/>
+      <c r="N81" s="126"/>
       <c r="O81" s="53"/>
       <c r="P81" s="53"/>
       <c r="Q81" s="53"/>
@@ -10799,7 +10909,7 @@
       <c r="S81" s="53"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="126"/>
+      <c r="A82" s="125"/>
       <c r="B82" s="1" t="s">
         <v>61</v>
       </c>
@@ -10844,7 +10954,7 @@
       </c>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="126"/>
+      <c r="A83" s="125"/>
       <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
@@ -10889,7 +10999,7 @@
       </c>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="126"/>
+      <c r="A84" s="125"/>
       <c r="B84" s="1" t="s">
         <v>61</v>
       </c>
@@ -10934,7 +11044,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="19.5">
-      <c r="A85" s="126"/>
+      <c r="A85" s="125"/>
       <c r="B85" s="1" t="s">
         <v>61</v>
       </c>
@@ -10981,7 +11091,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="19.5">
-      <c r="A86" s="126"/>
+      <c r="A86" s="125"/>
       <c r="B86" s="1" t="s">
         <v>61</v>
       </c>
@@ -11028,7 +11138,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="19.5">
-      <c r="A87" s="126"/>
+      <c r="A87" s="125"/>
       <c r="B87" s="1" t="s">
         <v>61</v>
       </c>
@@ -11073,7 +11183,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="19.5">
-      <c r="A88" s="126"/>
+      <c r="A88" s="125"/>
       <c r="B88" s="1" t="s">
         <v>61</v>
       </c>
@@ -11118,7 +11228,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" ht="19.5">
-      <c r="A89" s="126"/>
+      <c r="A89" s="125"/>
       <c r="B89" s="1" t="s">
         <v>61</v>
       </c>
@@ -11163,7 +11273,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="19.5">
-      <c r="A90" s="126"/>
+      <c r="A90" s="125"/>
       <c r="B90" s="1" t="s">
         <v>61</v>
       </c>
@@ -11208,7 +11318,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" ht="19.5">
-      <c r="A91" s="126"/>
+      <c r="A91" s="125"/>
       <c r="B91" s="1" t="s">
         <v>61</v>
       </c>
@@ -11253,7 +11363,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="19.5">
-      <c r="A92" s="126"/>
+      <c r="A92" s="125"/>
       <c r="B92" s="1" t="s">
         <v>61</v>
       </c>
@@ -11298,38 +11408,38 @@
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="126"/>
-      <c r="B93" s="120" t="s">
+      <c r="A93" s="125"/>
+      <c r="B93" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="C93" s="120"/>
-      <c r="D93" s="120" t="s">
+      <c r="C93" s="124"/>
+      <c r="D93" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="E93" s="120"/>
+      <c r="E93" s="124"/>
       <c r="F93" s="1">
         <v>1</v>
       </c>
       <c r="G93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H93" s="120">
-        <v>1</v>
-      </c>
-      <c r="I93" s="120">
-        <v>1</v>
-      </c>
-      <c r="J93" s="120">
+      <c r="H93" s="124">
+        <v>1</v>
+      </c>
+      <c r="I93" s="124">
+        <v>1</v>
+      </c>
+      <c r="J93" s="124">
         <v>2</v>
       </c>
-      <c r="K93" s="120" t="s">
+      <c r="K93" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="L93" s="120"/>
-      <c r="M93" s="120" t="s">
+      <c r="L93" s="124"/>
+      <c r="M93" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="N93" s="120"/>
+      <c r="N93" s="124"/>
       <c r="O93" s="56" t="s">
         <v>174</v>
       </c>
@@ -11339,24 +11449,24 @@
       <c r="S93" s="56"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="126"/>
-      <c r="B94" s="121"/>
-      <c r="C94" s="121"/>
-      <c r="D94" s="121"/>
-      <c r="E94" s="121"/>
+      <c r="A94" s="125"/>
+      <c r="B94" s="126"/>
+      <c r="C94" s="126"/>
+      <c r="D94" s="126"/>
+      <c r="E94" s="126"/>
       <c r="F94" s="1">
         <v>2</v>
       </c>
       <c r="G94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H94" s="121"/>
-      <c r="I94" s="121"/>
-      <c r="J94" s="121"/>
-      <c r="K94" s="121"/>
-      <c r="L94" s="121"/>
-      <c r="M94" s="121"/>
-      <c r="N94" s="121"/>
+      <c r="H94" s="126"/>
+      <c r="I94" s="126"/>
+      <c r="J94" s="126"/>
+      <c r="K94" s="126"/>
+      <c r="L94" s="126"/>
+      <c r="M94" s="126"/>
+      <c r="N94" s="126"/>
       <c r="O94" s="55"/>
       <c r="P94" s="55"/>
       <c r="Q94" s="55"/>
@@ -11364,38 +11474,38 @@
       <c r="S94" s="55"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="126"/>
-      <c r="B95" s="120" t="s">
+      <c r="A95" s="125"/>
+      <c r="B95" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="120"/>
-      <c r="D95" s="120" t="s">
+      <c r="C95" s="124"/>
+      <c r="D95" s="124" t="s">
         <v>114</v>
       </c>
-      <c r="E95" s="120"/>
+      <c r="E95" s="124"/>
       <c r="F95" s="1">
         <v>1</v>
       </c>
       <c r="G95" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H95" s="120">
+      <c r="H95" s="124">
         <v>2</v>
       </c>
-      <c r="I95" s="120">
-        <v>1</v>
-      </c>
-      <c r="J95" s="120">
+      <c r="I95" s="124">
+        <v>1</v>
+      </c>
+      <c r="J95" s="124">
         <v>2</v>
       </c>
-      <c r="K95" s="120" t="s">
+      <c r="K95" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="L95" s="120"/>
-      <c r="M95" s="120" t="s">
+      <c r="L95" s="124"/>
+      <c r="M95" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="N95" s="120"/>
+      <c r="N95" s="124"/>
       <c r="O95" s="56" t="s">
         <v>174</v>
       </c>
@@ -11405,24 +11515,24 @@
       <c r="S95" s="56"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="126"/>
-      <c r="B96" s="121"/>
-      <c r="C96" s="121"/>
-      <c r="D96" s="121"/>
-      <c r="E96" s="121"/>
+      <c r="A96" s="125"/>
+      <c r="B96" s="126"/>
+      <c r="C96" s="126"/>
+      <c r="D96" s="126"/>
+      <c r="E96" s="126"/>
       <c r="F96" s="1">
         <v>2</v>
       </c>
       <c r="G96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H96" s="121"/>
-      <c r="I96" s="121"/>
-      <c r="J96" s="121"/>
-      <c r="K96" s="121"/>
-      <c r="L96" s="121"/>
-      <c r="M96" s="121"/>
-      <c r="N96" s="121"/>
+      <c r="H96" s="126"/>
+      <c r="I96" s="126"/>
+      <c r="J96" s="126"/>
+      <c r="K96" s="126"/>
+      <c r="L96" s="126"/>
+      <c r="M96" s="126"/>
+      <c r="N96" s="126"/>
       <c r="O96" s="55"/>
       <c r="P96" s="55"/>
       <c r="Q96" s="55"/>
@@ -11430,7 +11540,7 @@
       <c r="S96" s="55"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="121"/>
+      <c r="A97" s="126"/>
       <c r="B97" s="1" t="s">
         <v>61</v>
       </c>
@@ -11482,37 +11592,37 @@
       <c r="A98" s="130" t="s">
         <v>134</v>
       </c>
-      <c r="B98" s="120" t="s">
+      <c r="B98" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="C98" s="120"/>
-      <c r="D98" s="120" t="s">
+      <c r="C98" s="124"/>
+      <c r="D98" s="124" t="s">
         <v>117</v>
       </c>
-      <c r="E98" s="120"/>
+      <c r="E98" s="124"/>
       <c r="F98" s="1">
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H98" s="120">
-        <v>1</v>
-      </c>
-      <c r="I98" s="120">
-        <v>1</v>
-      </c>
-      <c r="J98" s="120">
+      <c r="H98" s="124">
+        <v>1</v>
+      </c>
+      <c r="I98" s="124">
+        <v>1</v>
+      </c>
+      <c r="J98" s="124">
         <v>3</v>
       </c>
-      <c r="K98" s="120" t="s">
+      <c r="K98" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="L98" s="120"/>
-      <c r="M98" s="120" t="s">
+      <c r="L98" s="124"/>
+      <c r="M98" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="N98" s="120"/>
+      <c r="N98" s="124"/>
       <c r="O98" s="51" t="s">
         <v>168</v>
       </c>
@@ -11531,23 +11641,23 @@
     </row>
     <row r="99" spans="1:19">
       <c r="A99" s="131"/>
-      <c r="B99" s="126"/>
-      <c r="C99" s="126"/>
-      <c r="D99" s="126"/>
-      <c r="E99" s="126"/>
+      <c r="B99" s="125"/>
+      <c r="C99" s="125"/>
+      <c r="D99" s="125"/>
+      <c r="E99" s="125"/>
       <c r="F99" s="1">
         <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H99" s="126"/>
-      <c r="I99" s="126"/>
-      <c r="J99" s="126"/>
-      <c r="K99" s="126"/>
-      <c r="L99" s="126"/>
-      <c r="M99" s="126"/>
-      <c r="N99" s="126"/>
+      <c r="H99" s="125"/>
+      <c r="I99" s="125"/>
+      <c r="J99" s="125"/>
+      <c r="K99" s="125"/>
+      <c r="L99" s="125"/>
+      <c r="M99" s="125"/>
+      <c r="N99" s="125"/>
       <c r="O99" s="52"/>
       <c r="P99" s="52"/>
       <c r="Q99" s="52"/>
@@ -11556,23 +11666,23 @@
     </row>
     <row r="100" spans="1:19">
       <c r="A100" s="131"/>
-      <c r="B100" s="121"/>
-      <c r="C100" s="121"/>
-      <c r="D100" s="121"/>
-      <c r="E100" s="121"/>
+      <c r="B100" s="126"/>
+      <c r="C100" s="126"/>
+      <c r="D100" s="126"/>
+      <c r="E100" s="126"/>
       <c r="F100" s="1">
         <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H100" s="121"/>
-      <c r="I100" s="121"/>
-      <c r="J100" s="121"/>
-      <c r="K100" s="121"/>
-      <c r="L100" s="121"/>
-      <c r="M100" s="121"/>
-      <c r="N100" s="121"/>
+      <c r="H100" s="126"/>
+      <c r="I100" s="126"/>
+      <c r="J100" s="126"/>
+      <c r="K100" s="126"/>
+      <c r="L100" s="126"/>
+      <c r="M100" s="126"/>
+      <c r="N100" s="126"/>
       <c r="O100" s="53"/>
       <c r="P100" s="53"/>
       <c r="Q100" s="53"/>
@@ -11581,14 +11691,14 @@
     </row>
     <row r="101" spans="1:19">
       <c r="A101" s="131"/>
-      <c r="B101" s="120"/>
-      <c r="C101" s="120" t="s">
+      <c r="B101" s="124"/>
+      <c r="C101" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="120" t="s">
+      <c r="D101" s="124" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="120" t="s">
+      <c r="E101" s="124" t="s">
         <v>119</v>
       </c>
       <c r="F101" s="1">
@@ -11597,21 +11707,21 @@
       <c r="G101" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H101" s="120"/>
-      <c r="I101" s="120">
-        <v>1</v>
-      </c>
-      <c r="J101" s="120">
+      <c r="H101" s="124"/>
+      <c r="I101" s="124">
+        <v>1</v>
+      </c>
+      <c r="J101" s="124">
         <v>4</v>
       </c>
-      <c r="K101" s="120" t="s">
+      <c r="K101" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="L101" s="120"/>
-      <c r="M101" s="120" t="s">
+      <c r="L101" s="124"/>
+      <c r="M101" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="N101" s="120"/>
+      <c r="N101" s="124"/>
       <c r="O101" s="51" t="s">
         <v>168</v>
       </c>
@@ -11630,23 +11740,23 @@
     </row>
     <row r="102" spans="1:19">
       <c r="A102" s="131"/>
-      <c r="B102" s="126"/>
-      <c r="C102" s="126"/>
-      <c r="D102" s="126"/>
-      <c r="E102" s="126"/>
+      <c r="B102" s="125"/>
+      <c r="C102" s="125"/>
+      <c r="D102" s="125"/>
+      <c r="E102" s="125"/>
       <c r="F102" s="1">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H102" s="126"/>
-      <c r="I102" s="126"/>
-      <c r="J102" s="126"/>
-      <c r="K102" s="126"/>
-      <c r="L102" s="126"/>
-      <c r="M102" s="126"/>
-      <c r="N102" s="126"/>
+      <c r="H102" s="125"/>
+      <c r="I102" s="125"/>
+      <c r="J102" s="125"/>
+      <c r="K102" s="125"/>
+      <c r="L102" s="125"/>
+      <c r="M102" s="125"/>
+      <c r="N102" s="125"/>
       <c r="O102" s="52"/>
       <c r="P102" s="52"/>
       <c r="Q102" s="52"/>
@@ -11655,23 +11765,23 @@
     </row>
     <row r="103" spans="1:19">
       <c r="A103" s="131"/>
-      <c r="B103" s="126"/>
-      <c r="C103" s="126"/>
-      <c r="D103" s="126"/>
-      <c r="E103" s="126"/>
+      <c r="B103" s="125"/>
+      <c r="C103" s="125"/>
+      <c r="D103" s="125"/>
+      <c r="E103" s="125"/>
       <c r="F103" s="1">
         <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H103" s="126"/>
-      <c r="I103" s="126"/>
-      <c r="J103" s="126"/>
-      <c r="K103" s="126"/>
-      <c r="L103" s="126"/>
-      <c r="M103" s="126"/>
-      <c r="N103" s="126"/>
+      <c r="H103" s="125"/>
+      <c r="I103" s="125"/>
+      <c r="J103" s="125"/>
+      <c r="K103" s="125"/>
+      <c r="L103" s="125"/>
+      <c r="M103" s="125"/>
+      <c r="N103" s="125"/>
       <c r="O103" s="52"/>
       <c r="P103" s="52"/>
       <c r="Q103" s="52"/>
@@ -11680,23 +11790,23 @@
     </row>
     <row r="104" spans="1:19">
       <c r="A104" s="131"/>
-      <c r="B104" s="121"/>
-      <c r="C104" s="121"/>
-      <c r="D104" s="121"/>
-      <c r="E104" s="121"/>
+      <c r="B104" s="126"/>
+      <c r="C104" s="126"/>
+      <c r="D104" s="126"/>
+      <c r="E104" s="126"/>
       <c r="F104" s="1">
         <v>4</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H104" s="121"/>
-      <c r="I104" s="121"/>
-      <c r="J104" s="121"/>
-      <c r="K104" s="121"/>
-      <c r="L104" s="121"/>
-      <c r="M104" s="121"/>
-      <c r="N104" s="121"/>
+      <c r="H104" s="126"/>
+      <c r="I104" s="126"/>
+      <c r="J104" s="126"/>
+      <c r="K104" s="126"/>
+      <c r="L104" s="126"/>
+      <c r="M104" s="126"/>
+      <c r="N104" s="126"/>
       <c r="O104" s="53"/>
       <c r="P104" s="53"/>
       <c r="Q104" s="53"/>
@@ -11705,37 +11815,37 @@
     </row>
     <row r="105" spans="1:19">
       <c r="A105" s="131"/>
-      <c r="B105" s="120" t="s">
+      <c r="B105" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="120"/>
-      <c r="D105" s="120" t="s">
+      <c r="C105" s="124"/>
+      <c r="D105" s="124" t="s">
         <v>120</v>
       </c>
-      <c r="E105" s="120"/>
+      <c r="E105" s="124"/>
       <c r="F105" s="1">
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H105" s="120">
+      <c r="H105" s="124">
         <v>3</v>
       </c>
-      <c r="I105" s="120">
-        <v>1</v>
-      </c>
-      <c r="J105" s="120">
+      <c r="I105" s="124">
+        <v>1</v>
+      </c>
+      <c r="J105" s="124">
         <v>3</v>
       </c>
-      <c r="K105" s="120" t="s">
+      <c r="K105" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="L105" s="120"/>
-      <c r="M105" s="120" t="s">
+      <c r="L105" s="124"/>
+      <c r="M105" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="N105" s="120"/>
+      <c r="N105" s="124"/>
       <c r="O105" s="51" t="s">
         <v>168</v>
       </c>
@@ -11754,23 +11864,23 @@
     </row>
     <row r="106" spans="1:19">
       <c r="A106" s="131"/>
-      <c r="B106" s="126"/>
-      <c r="C106" s="126"/>
-      <c r="D106" s="126"/>
-      <c r="E106" s="126"/>
+      <c r="B106" s="125"/>
+      <c r="C106" s="125"/>
+      <c r="D106" s="125"/>
+      <c r="E106" s="125"/>
       <c r="F106" s="1">
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H106" s="126"/>
-      <c r="I106" s="126"/>
-      <c r="J106" s="126"/>
-      <c r="K106" s="126"/>
-      <c r="L106" s="126"/>
-      <c r="M106" s="126"/>
-      <c r="N106" s="126"/>
+      <c r="H106" s="125"/>
+      <c r="I106" s="125"/>
+      <c r="J106" s="125"/>
+      <c r="K106" s="125"/>
+      <c r="L106" s="125"/>
+      <c r="M106" s="125"/>
+      <c r="N106" s="125"/>
       <c r="O106" s="52"/>
       <c r="P106" s="52"/>
       <c r="Q106" s="52"/>
@@ -11779,23 +11889,23 @@
     </row>
     <row r="107" spans="1:19">
       <c r="A107" s="131"/>
-      <c r="B107" s="121"/>
-      <c r="C107" s="121"/>
-      <c r="D107" s="121"/>
-      <c r="E107" s="121"/>
+      <c r="B107" s="126"/>
+      <c r="C107" s="126"/>
+      <c r="D107" s="126"/>
+      <c r="E107" s="126"/>
       <c r="F107" s="1">
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H107" s="121"/>
-      <c r="I107" s="121"/>
-      <c r="J107" s="121"/>
-      <c r="K107" s="121"/>
-      <c r="L107" s="121"/>
-      <c r="M107" s="121"/>
-      <c r="N107" s="121"/>
+      <c r="H107" s="126"/>
+      <c r="I107" s="126"/>
+      <c r="J107" s="126"/>
+      <c r="K107" s="126"/>
+      <c r="L107" s="126"/>
+      <c r="M107" s="126"/>
+      <c r="N107" s="126"/>
       <c r="O107" s="53"/>
       <c r="P107" s="53"/>
       <c r="Q107" s="53"/>
@@ -11804,14 +11914,14 @@
     </row>
     <row r="108" spans="1:19">
       <c r="A108" s="131"/>
-      <c r="B108" s="120"/>
-      <c r="C108" s="120" t="s">
+      <c r="B108" s="124"/>
+      <c r="C108" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="D108" s="120" t="s">
+      <c r="D108" s="124" t="s">
         <v>121</v>
       </c>
-      <c r="E108" s="120" t="s">
+      <c r="E108" s="124" t="s">
         <v>122</v>
       </c>
       <c r="F108" s="1">
@@ -11820,21 +11930,21 @@
       <c r="G108" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H108" s="120"/>
-      <c r="I108" s="120">
-        <v>1</v>
-      </c>
-      <c r="J108" s="120">
+      <c r="H108" s="124"/>
+      <c r="I108" s="124">
+        <v>1</v>
+      </c>
+      <c r="J108" s="124">
         <v>4</v>
       </c>
-      <c r="K108" s="120" t="s">
+      <c r="K108" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="L108" s="120"/>
-      <c r="M108" s="120" t="s">
+      <c r="L108" s="124"/>
+      <c r="M108" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="N108" s="120"/>
+      <c r="N108" s="124"/>
       <c r="O108" s="51" t="s">
         <v>168</v>
       </c>
@@ -11853,23 +11963,23 @@
     </row>
     <row r="109" spans="1:19">
       <c r="A109" s="131"/>
-      <c r="B109" s="126"/>
-      <c r="C109" s="126"/>
-      <c r="D109" s="126"/>
-      <c r="E109" s="126"/>
+      <c r="B109" s="125"/>
+      <c r="C109" s="125"/>
+      <c r="D109" s="125"/>
+      <c r="E109" s="125"/>
       <c r="F109" s="1">
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H109" s="126"/>
-      <c r="I109" s="126"/>
-      <c r="J109" s="126"/>
-      <c r="K109" s="126"/>
-      <c r="L109" s="126"/>
-      <c r="M109" s="126"/>
-      <c r="N109" s="126"/>
+      <c r="H109" s="125"/>
+      <c r="I109" s="125"/>
+      <c r="J109" s="125"/>
+      <c r="K109" s="125"/>
+      <c r="L109" s="125"/>
+      <c r="M109" s="125"/>
+      <c r="N109" s="125"/>
       <c r="O109" s="52"/>
       <c r="P109" s="52"/>
       <c r="Q109" s="52"/>
@@ -11878,23 +11988,23 @@
     </row>
     <row r="110" spans="1:19">
       <c r="A110" s="131"/>
-      <c r="B110" s="126"/>
-      <c r="C110" s="126"/>
-      <c r="D110" s="126"/>
-      <c r="E110" s="126"/>
+      <c r="B110" s="125"/>
+      <c r="C110" s="125"/>
+      <c r="D110" s="125"/>
+      <c r="E110" s="125"/>
       <c r="F110" s="1">
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H110" s="126"/>
-      <c r="I110" s="126"/>
-      <c r="J110" s="126"/>
-      <c r="K110" s="126"/>
-      <c r="L110" s="126"/>
-      <c r="M110" s="126"/>
-      <c r="N110" s="126"/>
+      <c r="H110" s="125"/>
+      <c r="I110" s="125"/>
+      <c r="J110" s="125"/>
+      <c r="K110" s="125"/>
+      <c r="L110" s="125"/>
+      <c r="M110" s="125"/>
+      <c r="N110" s="125"/>
       <c r="O110" s="52"/>
       <c r="P110" s="52"/>
       <c r="Q110" s="52"/>
@@ -11903,23 +12013,23 @@
     </row>
     <row r="111" spans="1:19">
       <c r="A111" s="131"/>
-      <c r="B111" s="121"/>
-      <c r="C111" s="121"/>
-      <c r="D111" s="121"/>
-      <c r="E111" s="121"/>
+      <c r="B111" s="126"/>
+      <c r="C111" s="126"/>
+      <c r="D111" s="126"/>
+      <c r="E111" s="126"/>
       <c r="F111" s="1">
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H111" s="121"/>
-      <c r="I111" s="121"/>
-      <c r="J111" s="121"/>
-      <c r="K111" s="121"/>
-      <c r="L111" s="121"/>
-      <c r="M111" s="121"/>
-      <c r="N111" s="121"/>
+      <c r="H111" s="126"/>
+      <c r="I111" s="126"/>
+      <c r="J111" s="126"/>
+      <c r="K111" s="126"/>
+      <c r="L111" s="126"/>
+      <c r="M111" s="126"/>
+      <c r="N111" s="126"/>
       <c r="O111" s="53"/>
       <c r="P111" s="53"/>
       <c r="Q111" s="53"/>
@@ -12065,21 +12175,21 @@
       <c r="A115" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="120" t="s">
-        <v>51</v>
-      </c>
-      <c r="C115" s="120"/>
+      <c r="B115" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="124"/>
       <c r="D115" s="109" t="s">
         <v>137</v>
       </c>
-      <c r="E115" s="120"/>
+      <c r="E115" s="124"/>
       <c r="F115" s="1">
         <v>1</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H115" s="120">
+      <c r="H115" s="124">
         <v>1</v>
       </c>
       <c r="I115" s="109">
@@ -12088,14 +12198,14 @@
       <c r="J115" s="109">
         <v>4</v>
       </c>
-      <c r="K115" s="120" t="s">
+      <c r="K115" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="L115" s="120"/>
+      <c r="L115" s="124"/>
       <c r="M115" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="N115" s="120"/>
+      <c r="N115" s="124"/>
       <c r="O115" s="51" t="s">
         <v>169</v>
       </c>
@@ -12113,24 +12223,24 @@
       </c>
     </row>
     <row r="116" spans="1:23">
-      <c r="A116" s="126"/>
-      <c r="B116" s="126"/>
-      <c r="C116" s="126"/>
-      <c r="D116" s="111"/>
-      <c r="E116" s="126"/>
+      <c r="A116" s="125"/>
+      <c r="B116" s="125"/>
+      <c r="C116" s="125"/>
+      <c r="D116" s="110"/>
+      <c r="E116" s="125"/>
       <c r="F116" s="1">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H116" s="126"/>
-      <c r="I116" s="111"/>
-      <c r="J116" s="111"/>
-      <c r="K116" s="126"/>
-      <c r="L116" s="126"/>
-      <c r="M116" s="111"/>
-      <c r="N116" s="126"/>
+      <c r="H116" s="125"/>
+      <c r="I116" s="110"/>
+      <c r="J116" s="110"/>
+      <c r="K116" s="125"/>
+      <c r="L116" s="125"/>
+      <c r="M116" s="110"/>
+      <c r="N116" s="125"/>
       <c r="O116" s="52"/>
       <c r="P116" s="52"/>
       <c r="Q116" s="52"/>
@@ -12138,24 +12248,24 @@
       <c r="S116" s="52"/>
     </row>
     <row r="117" spans="1:23" s="7" customFormat="1">
-      <c r="A117" s="126"/>
-      <c r="B117" s="126"/>
-      <c r="C117" s="126"/>
-      <c r="D117" s="111"/>
-      <c r="E117" s="126"/>
+      <c r="A117" s="125"/>
+      <c r="B117" s="125"/>
+      <c r="C117" s="125"/>
+      <c r="D117" s="110"/>
+      <c r="E117" s="125"/>
       <c r="F117" s="6">
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H117" s="126"/>
-      <c r="I117" s="111"/>
-      <c r="J117" s="111"/>
-      <c r="K117" s="126"/>
-      <c r="L117" s="126"/>
-      <c r="M117" s="111"/>
-      <c r="N117" s="126"/>
+      <c r="H117" s="125"/>
+      <c r="I117" s="110"/>
+      <c r="J117" s="110"/>
+      <c r="K117" s="125"/>
+      <c r="L117" s="125"/>
+      <c r="M117" s="110"/>
+      <c r="N117" s="125"/>
       <c r="O117" s="52"/>
       <c r="P117" s="52"/>
       <c r="Q117" s="52"/>
@@ -12167,24 +12277,24 @@
       <c r="W117" s="27"/>
     </row>
     <row r="118" spans="1:23">
-      <c r="A118" s="126"/>
-      <c r="B118" s="121"/>
-      <c r="C118" s="121"/>
-      <c r="D118" s="110"/>
-      <c r="E118" s="121"/>
+      <c r="A118" s="125"/>
+      <c r="B118" s="126"/>
+      <c r="C118" s="126"/>
+      <c r="D118" s="111"/>
+      <c r="E118" s="126"/>
       <c r="F118" s="10">
         <v>4</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H118" s="121"/>
-      <c r="I118" s="110"/>
-      <c r="J118" s="110"/>
-      <c r="K118" s="121"/>
-      <c r="L118" s="121"/>
-      <c r="M118" s="110"/>
-      <c r="N118" s="121"/>
+      <c r="H118" s="126"/>
+      <c r="I118" s="111"/>
+      <c r="J118" s="111"/>
+      <c r="K118" s="126"/>
+      <c r="L118" s="126"/>
+      <c r="M118" s="111"/>
+      <c r="N118" s="126"/>
       <c r="O118" s="53"/>
       <c r="P118" s="53"/>
       <c r="Q118" s="53"/>
@@ -12192,9 +12302,9 @@
       <c r="S118" s="53"/>
     </row>
     <row r="119" spans="1:23">
-      <c r="A119" s="126"/>
-      <c r="B119" s="120"/>
-      <c r="C119" s="120" t="s">
+      <c r="A119" s="125"/>
+      <c r="B119" s="124"/>
+      <c r="C119" s="124" t="s">
         <v>61</v>
       </c>
       <c r="D119" s="109" t="s">
@@ -12209,7 +12319,7 @@
       <c r="G119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H119" s="120">
+      <c r="H119" s="124">
         <v>1</v>
       </c>
       <c r="I119" s="109">
@@ -12218,14 +12328,14 @@
       <c r="J119" s="109">
         <v>4</v>
       </c>
-      <c r="K119" s="120" t="s">
+      <c r="K119" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="L119" s="120"/>
+      <c r="L119" s="124"/>
       <c r="M119" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="N119" s="120"/>
+      <c r="N119" s="124"/>
       <c r="O119" s="51" t="s">
         <v>169</v>
       </c>
@@ -12243,24 +12353,24 @@
       </c>
     </row>
     <row r="120" spans="1:23">
-      <c r="A120" s="126"/>
-      <c r="B120" s="126"/>
-      <c r="C120" s="126"/>
-      <c r="D120" s="111"/>
-      <c r="E120" s="111"/>
+      <c r="A120" s="125"/>
+      <c r="B120" s="125"/>
+      <c r="C120" s="125"/>
+      <c r="D120" s="110"/>
+      <c r="E120" s="110"/>
       <c r="F120" s="1">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H120" s="126"/>
-      <c r="I120" s="111"/>
-      <c r="J120" s="111"/>
-      <c r="K120" s="126"/>
-      <c r="L120" s="126"/>
-      <c r="M120" s="111"/>
-      <c r="N120" s="126"/>
+      <c r="H120" s="125"/>
+      <c r="I120" s="110"/>
+      <c r="J120" s="110"/>
+      <c r="K120" s="125"/>
+      <c r="L120" s="125"/>
+      <c r="M120" s="110"/>
+      <c r="N120" s="125"/>
       <c r="O120" s="52"/>
       <c r="P120" s="52"/>
       <c r="Q120" s="52"/>
@@ -12268,24 +12378,24 @@
       <c r="S120" s="52"/>
     </row>
     <row r="121" spans="1:23">
-      <c r="A121" s="126"/>
-      <c r="B121" s="126"/>
-      <c r="C121" s="126"/>
-      <c r="D121" s="111"/>
-      <c r="E121" s="111"/>
+      <c r="A121" s="125"/>
+      <c r="B121" s="125"/>
+      <c r="C121" s="125"/>
+      <c r="D121" s="110"/>
+      <c r="E121" s="110"/>
       <c r="F121" s="1">
         <v>3</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H121" s="126"/>
-      <c r="I121" s="111"/>
-      <c r="J121" s="111"/>
-      <c r="K121" s="126"/>
-      <c r="L121" s="126"/>
-      <c r="M121" s="111"/>
-      <c r="N121" s="126"/>
+      <c r="H121" s="125"/>
+      <c r="I121" s="110"/>
+      <c r="J121" s="110"/>
+      <c r="K121" s="125"/>
+      <c r="L121" s="125"/>
+      <c r="M121" s="110"/>
+      <c r="N121" s="125"/>
       <c r="O121" s="52"/>
       <c r="P121" s="52"/>
       <c r="Q121" s="52"/>
@@ -12293,24 +12403,24 @@
       <c r="S121" s="52"/>
     </row>
     <row r="122" spans="1:23">
-      <c r="A122" s="126"/>
-      <c r="B122" s="121"/>
-      <c r="C122" s="121"/>
-      <c r="D122" s="110"/>
-      <c r="E122" s="110"/>
+      <c r="A122" s="125"/>
+      <c r="B122" s="126"/>
+      <c r="C122" s="126"/>
+      <c r="D122" s="111"/>
+      <c r="E122" s="111"/>
       <c r="F122" s="1">
         <v>4</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H122" s="121"/>
-      <c r="I122" s="110"/>
-      <c r="J122" s="110"/>
-      <c r="K122" s="121"/>
-      <c r="L122" s="121"/>
-      <c r="M122" s="110"/>
-      <c r="N122" s="121"/>
+      <c r="H122" s="126"/>
+      <c r="I122" s="111"/>
+      <c r="J122" s="111"/>
+      <c r="K122" s="126"/>
+      <c r="L122" s="126"/>
+      <c r="M122" s="111"/>
+      <c r="N122" s="126"/>
       <c r="O122" s="53"/>
       <c r="P122" s="53"/>
       <c r="Q122" s="53"/>
@@ -12318,38 +12428,38 @@
       <c r="S122" s="53"/>
     </row>
     <row r="123" spans="1:23">
-      <c r="A123" s="126"/>
-      <c r="B123" s="120" t="s">
+      <c r="A123" s="125"/>
+      <c r="B123" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="C123" s="120"/>
-      <c r="D123" s="120" t="s">
+      <c r="C123" s="124"/>
+      <c r="D123" s="124" t="s">
         <v>126</v>
       </c>
-      <c r="E123" s="120"/>
+      <c r="E123" s="124"/>
       <c r="F123" s="1">
         <v>1</v>
       </c>
       <c r="G123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H123" s="120">
-        <v>1</v>
-      </c>
-      <c r="I123" s="120">
-        <v>1</v>
-      </c>
-      <c r="J123" s="120">
+      <c r="H123" s="124">
+        <v>1</v>
+      </c>
+      <c r="I123" s="124">
+        <v>1</v>
+      </c>
+      <c r="J123" s="124">
         <v>2</v>
       </c>
-      <c r="K123" s="120" t="s">
+      <c r="K123" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="L123" s="120"/>
-      <c r="M123" s="120" t="s">
+      <c r="L123" s="124"/>
+      <c r="M123" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="N123" s="120"/>
+      <c r="N123" s="124"/>
       <c r="O123" s="51" t="s">
         <v>51</v>
       </c>
@@ -12367,24 +12477,24 @@
       </c>
     </row>
     <row r="124" spans="1:23">
-      <c r="A124" s="126"/>
-      <c r="B124" s="121"/>
-      <c r="C124" s="121"/>
-      <c r="D124" s="121"/>
-      <c r="E124" s="121"/>
+      <c r="A124" s="125"/>
+      <c r="B124" s="126"/>
+      <c r="C124" s="126"/>
+      <c r="D124" s="126"/>
+      <c r="E124" s="126"/>
       <c r="F124" s="1">
         <v>2</v>
       </c>
       <c r="G124" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H124" s="121"/>
-      <c r="I124" s="121"/>
-      <c r="J124" s="121"/>
-      <c r="K124" s="121"/>
-      <c r="L124" s="121"/>
-      <c r="M124" s="121"/>
-      <c r="N124" s="121"/>
+      <c r="H124" s="126"/>
+      <c r="I124" s="126"/>
+      <c r="J124" s="126"/>
+      <c r="K124" s="126"/>
+      <c r="L124" s="126"/>
+      <c r="M124" s="126"/>
+      <c r="N124" s="126"/>
       <c r="O124" s="53"/>
       <c r="P124" s="53"/>
       <c r="Q124" s="53"/>
@@ -12392,12 +12502,12 @@
       <c r="S124" s="53"/>
     </row>
     <row r="125" spans="1:23" s="11" customFormat="1">
-      <c r="A125" s="126"/>
-      <c r="B125" s="117" t="s">
+      <c r="A125" s="125"/>
+      <c r="B125" s="118" t="s">
         <v>51</v>
       </c>
       <c r="C125" s="12"/>
-      <c r="D125" s="114" t="s">
+      <c r="D125" s="115" t="s">
         <v>150</v>
       </c>
       <c r="E125" s="12"/>
@@ -12419,8 +12529,8 @@
       <c r="K125" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="L125" s="120"/>
-      <c r="M125" s="120" t="s">
+      <c r="L125" s="124"/>
+      <c r="M125" s="124" t="s">
         <v>38</v>
       </c>
       <c r="N125" s="12"/>
@@ -12445,10 +12555,10 @@
       <c r="W125" s="27"/>
     </row>
     <row r="126" spans="1:23" s="11" customFormat="1">
-      <c r="A126" s="126"/>
-      <c r="B126" s="125"/>
+      <c r="A126" s="125"/>
+      <c r="B126" s="120"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="116"/>
+      <c r="D126" s="117"/>
       <c r="E126" s="12"/>
       <c r="F126" s="10">
         <v>2</v>
@@ -12456,12 +12566,12 @@
       <c r="G126" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H126" s="110"/>
-      <c r="I126" s="110"/>
-      <c r="J126" s="110"/>
-      <c r="K126" s="110"/>
-      <c r="L126" s="121"/>
-      <c r="M126" s="121"/>
+      <c r="H126" s="111"/>
+      <c r="I126" s="111"/>
+      <c r="J126" s="111"/>
+      <c r="K126" s="111"/>
+      <c r="L126" s="126"/>
+      <c r="M126" s="126"/>
       <c r="N126" s="12"/>
       <c r="O126" s="53"/>
       <c r="P126" s="53"/>
@@ -12474,15 +12584,15 @@
       <c r="W126" s="27"/>
     </row>
     <row r="127" spans="1:23">
-      <c r="A127" s="126"/>
-      <c r="B127" s="120" t="s">
+      <c r="A127" s="125"/>
+      <c r="B127" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="C127" s="120"/>
-      <c r="D127" s="128" t="s">
+      <c r="C127" s="124"/>
+      <c r="D127" s="134" t="s">
         <v>186</v>
       </c>
-      <c r="E127" s="127" t="s">
+      <c r="E127" s="133" t="s">
         <v>145</v>
       </c>
       <c r="F127" s="1">
@@ -12491,20 +12601,20 @@
       <c r="G127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="120">
+      <c r="H127" s="124">
         <v>2</v>
       </c>
-      <c r="I127" s="120">
+      <c r="I127" s="124">
         <v>1</v>
       </c>
       <c r="J127" s="109">
         <v>15</v>
       </c>
-      <c r="K127" s="120" t="s">
+      <c r="K127" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="L127" s="120"/>
-      <c r="M127" s="120" t="s">
+      <c r="L127" s="124"/>
+      <c r="M127" s="124" t="s">
         <v>74</v>
       </c>
       <c r="N127" s="8" t="s">
@@ -12527,23 +12637,23 @@
       </c>
     </row>
     <row r="128" spans="1:23">
-      <c r="A128" s="126"/>
-      <c r="B128" s="126"/>
-      <c r="C128" s="126"/>
-      <c r="D128" s="128"/>
-      <c r="E128" s="127"/>
+      <c r="A128" s="125"/>
+      <c r="B128" s="125"/>
+      <c r="C128" s="125"/>
+      <c r="D128" s="134"/>
+      <c r="E128" s="133"/>
       <c r="F128" s="1">
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H128" s="126"/>
-      <c r="I128" s="126"/>
-      <c r="J128" s="111"/>
-      <c r="K128" s="126"/>
-      <c r="L128" s="126"/>
-      <c r="M128" s="126"/>
+      <c r="H128" s="125"/>
+      <c r="I128" s="125"/>
+      <c r="J128" s="110"/>
+      <c r="K128" s="125"/>
+      <c r="L128" s="125"/>
+      <c r="M128" s="125"/>
       <c r="N128" s="9" t="s">
         <v>142</v>
       </c>
@@ -12564,23 +12674,23 @@
       </c>
     </row>
     <row r="129" spans="1:23">
-      <c r="A129" s="126"/>
-      <c r="B129" s="126"/>
-      <c r="C129" s="126"/>
-      <c r="D129" s="128"/>
-      <c r="E129" s="127"/>
+      <c r="A129" s="125"/>
+      <c r="B129" s="125"/>
+      <c r="C129" s="125"/>
+      <c r="D129" s="134"/>
+      <c r="E129" s="133"/>
       <c r="F129" s="1">
         <v>3</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H129" s="126"/>
-      <c r="I129" s="126"/>
-      <c r="J129" s="111"/>
-      <c r="K129" s="126"/>
-      <c r="L129" s="126"/>
-      <c r="M129" s="126"/>
+      <c r="H129" s="125"/>
+      <c r="I129" s="125"/>
+      <c r="J129" s="110"/>
+      <c r="K129" s="125"/>
+      <c r="L129" s="125"/>
+      <c r="M129" s="125"/>
       <c r="N129" s="9" t="s">
         <v>142</v>
       </c>
@@ -12601,23 +12711,23 @@
       </c>
     </row>
     <row r="130" spans="1:23">
-      <c r="A130" s="126"/>
-      <c r="B130" s="126"/>
-      <c r="C130" s="126"/>
-      <c r="D130" s="128"/>
-      <c r="E130" s="127"/>
+      <c r="A130" s="125"/>
+      <c r="B130" s="125"/>
+      <c r="C130" s="125"/>
+      <c r="D130" s="134"/>
+      <c r="E130" s="133"/>
       <c r="F130" s="1">
         <v>4</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="126"/>
-      <c r="I130" s="126"/>
-      <c r="J130" s="111"/>
-      <c r="K130" s="126"/>
-      <c r="L130" s="126"/>
-      <c r="M130" s="126"/>
+      <c r="H130" s="125"/>
+      <c r="I130" s="125"/>
+      <c r="J130" s="110"/>
+      <c r="K130" s="125"/>
+      <c r="L130" s="125"/>
+      <c r="M130" s="125"/>
       <c r="N130" s="9" t="s">
         <v>142</v>
       </c>
@@ -12638,23 +12748,23 @@
       </c>
     </row>
     <row r="131" spans="1:23">
-      <c r="A131" s="126"/>
-      <c r="B131" s="126"/>
-      <c r="C131" s="126"/>
-      <c r="D131" s="128"/>
-      <c r="E131" s="127"/>
+      <c r="A131" s="125"/>
+      <c r="B131" s="125"/>
+      <c r="C131" s="125"/>
+      <c r="D131" s="134"/>
+      <c r="E131" s="133"/>
       <c r="F131" s="1">
         <v>5</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H131" s="126"/>
-      <c r="I131" s="126"/>
-      <c r="J131" s="111"/>
-      <c r="K131" s="126"/>
-      <c r="L131" s="126"/>
-      <c r="M131" s="126"/>
+      <c r="H131" s="125"/>
+      <c r="I131" s="125"/>
+      <c r="J131" s="110"/>
+      <c r="K131" s="125"/>
+      <c r="L131" s="125"/>
+      <c r="M131" s="125"/>
       <c r="N131" s="9" t="s">
         <v>142</v>
       </c>
@@ -12675,23 +12785,23 @@
       </c>
     </row>
     <row r="132" spans="1:23">
-      <c r="A132" s="126"/>
-      <c r="B132" s="126"/>
-      <c r="C132" s="126"/>
-      <c r="D132" s="128"/>
-      <c r="E132" s="127"/>
+      <c r="A132" s="125"/>
+      <c r="B132" s="125"/>
+      <c r="C132" s="125"/>
+      <c r="D132" s="134"/>
+      <c r="E132" s="133"/>
       <c r="F132" s="1">
         <v>6</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H132" s="126"/>
-      <c r="I132" s="126"/>
-      <c r="J132" s="111"/>
-      <c r="K132" s="126"/>
-      <c r="L132" s="126"/>
-      <c r="M132" s="126"/>
+      <c r="H132" s="125"/>
+      <c r="I132" s="125"/>
+      <c r="J132" s="110"/>
+      <c r="K132" s="125"/>
+      <c r="L132" s="125"/>
+      <c r="M132" s="125"/>
       <c r="N132" s="9" t="s">
         <v>142</v>
       </c>
@@ -12712,23 +12822,23 @@
       </c>
     </row>
     <row r="133" spans="1:23">
-      <c r="A133" s="126"/>
-      <c r="B133" s="126"/>
-      <c r="C133" s="126"/>
-      <c r="D133" s="128"/>
-      <c r="E133" s="127"/>
+      <c r="A133" s="125"/>
+      <c r="B133" s="125"/>
+      <c r="C133" s="125"/>
+      <c r="D133" s="134"/>
+      <c r="E133" s="133"/>
       <c r="F133" s="1">
         <v>7</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="126"/>
-      <c r="I133" s="126"/>
-      <c r="J133" s="111"/>
-      <c r="K133" s="126"/>
-      <c r="L133" s="126"/>
-      <c r="M133" s="126"/>
+      <c r="H133" s="125"/>
+      <c r="I133" s="125"/>
+      <c r="J133" s="110"/>
+      <c r="K133" s="125"/>
+      <c r="L133" s="125"/>
+      <c r="M133" s="125"/>
       <c r="N133" s="9" t="s">
         <v>142</v>
       </c>
@@ -12749,23 +12859,23 @@
       </c>
     </row>
     <row r="134" spans="1:23">
-      <c r="A134" s="126"/>
-      <c r="B134" s="126"/>
-      <c r="C134" s="126"/>
-      <c r="D134" s="128"/>
-      <c r="E134" s="127"/>
+      <c r="A134" s="125"/>
+      <c r="B134" s="125"/>
+      <c r="C134" s="125"/>
+      <c r="D134" s="134"/>
+      <c r="E134" s="133"/>
       <c r="F134" s="1">
         <v>8</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H134" s="126"/>
-      <c r="I134" s="126"/>
-      <c r="J134" s="111"/>
-      <c r="K134" s="126"/>
-      <c r="L134" s="126"/>
-      <c r="M134" s="126"/>
+      <c r="H134" s="125"/>
+      <c r="I134" s="125"/>
+      <c r="J134" s="110"/>
+      <c r="K134" s="125"/>
+      <c r="L134" s="125"/>
+      <c r="M134" s="125"/>
       <c r="N134" s="9" t="s">
         <v>142</v>
       </c>
@@ -12786,23 +12896,23 @@
       </c>
     </row>
     <row r="135" spans="1:23">
-      <c r="A135" s="126"/>
-      <c r="B135" s="126"/>
-      <c r="C135" s="126"/>
-      <c r="D135" s="128"/>
-      <c r="E135" s="127"/>
+      <c r="A135" s="125"/>
+      <c r="B135" s="125"/>
+      <c r="C135" s="125"/>
+      <c r="D135" s="134"/>
+      <c r="E135" s="133"/>
       <c r="F135" s="1">
         <v>9</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="126"/>
-      <c r="I135" s="126"/>
-      <c r="J135" s="111"/>
-      <c r="K135" s="126"/>
-      <c r="L135" s="126"/>
-      <c r="M135" s="126"/>
+      <c r="H135" s="125"/>
+      <c r="I135" s="125"/>
+      <c r="J135" s="110"/>
+      <c r="K135" s="125"/>
+      <c r="L135" s="125"/>
+      <c r="M135" s="125"/>
       <c r="N135" s="9" t="s">
         <v>142</v>
       </c>
@@ -12823,23 +12933,23 @@
       </c>
     </row>
     <row r="136" spans="1:23">
-      <c r="A136" s="126"/>
-      <c r="B136" s="126"/>
-      <c r="C136" s="126"/>
-      <c r="D136" s="128"/>
-      <c r="E136" s="127"/>
+      <c r="A136" s="125"/>
+      <c r="B136" s="125"/>
+      <c r="C136" s="125"/>
+      <c r="D136" s="134"/>
+      <c r="E136" s="133"/>
       <c r="F136" s="1">
         <v>10</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H136" s="126"/>
-      <c r="I136" s="126"/>
-      <c r="J136" s="111"/>
-      <c r="K136" s="126"/>
-      <c r="L136" s="126"/>
-      <c r="M136" s="126"/>
+      <c r="H136" s="125"/>
+      <c r="I136" s="125"/>
+      <c r="J136" s="110"/>
+      <c r="K136" s="125"/>
+      <c r="L136" s="125"/>
+      <c r="M136" s="125"/>
       <c r="N136" s="9" t="s">
         <v>142</v>
       </c>
@@ -12860,23 +12970,23 @@
       </c>
     </row>
     <row r="137" spans="1:23" s="7" customFormat="1">
-      <c r="A137" s="126"/>
-      <c r="B137" s="126"/>
-      <c r="C137" s="126"/>
-      <c r="D137" s="128"/>
-      <c r="E137" s="127"/>
+      <c r="A137" s="125"/>
+      <c r="B137" s="125"/>
+      <c r="C137" s="125"/>
+      <c r="D137" s="134"/>
+      <c r="E137" s="133"/>
       <c r="F137" s="10">
         <v>11</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H137" s="126"/>
-      <c r="I137" s="126"/>
-      <c r="J137" s="111"/>
-      <c r="K137" s="126"/>
-      <c r="L137" s="126"/>
-      <c r="M137" s="126"/>
+      <c r="H137" s="125"/>
+      <c r="I137" s="125"/>
+      <c r="J137" s="110"/>
+      <c r="K137" s="125"/>
+      <c r="L137" s="125"/>
+      <c r="M137" s="125"/>
       <c r="N137" s="9" t="s">
         <v>143</v>
       </c>
@@ -12901,23 +13011,23 @@
       <c r="W137" s="27"/>
     </row>
     <row r="138" spans="1:23" s="4" customFormat="1">
-      <c r="A138" s="126"/>
-      <c r="B138" s="126"/>
-      <c r="C138" s="126"/>
-      <c r="D138" s="128"/>
-      <c r="E138" s="127"/>
+      <c r="A138" s="125"/>
+      <c r="B138" s="125"/>
+      <c r="C138" s="125"/>
+      <c r="D138" s="134"/>
+      <c r="E138" s="133"/>
       <c r="F138" s="10">
         <v>12</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H138" s="126"/>
-      <c r="I138" s="126"/>
-      <c r="J138" s="111"/>
-      <c r="K138" s="126"/>
-      <c r="L138" s="126"/>
-      <c r="M138" s="126"/>
+      <c r="H138" s="125"/>
+      <c r="I138" s="125"/>
+      <c r="J138" s="110"/>
+      <c r="K138" s="125"/>
+      <c r="L138" s="125"/>
+      <c r="M138" s="125"/>
       <c r="N138" s="9" t="s">
         <v>143</v>
       </c>
@@ -12942,23 +13052,23 @@
       <c r="W138" s="27"/>
     </row>
     <row r="139" spans="1:23" s="4" customFormat="1">
-      <c r="A139" s="126"/>
-      <c r="B139" s="126"/>
-      <c r="C139" s="126"/>
-      <c r="D139" s="128"/>
-      <c r="E139" s="127"/>
+      <c r="A139" s="125"/>
+      <c r="B139" s="125"/>
+      <c r="C139" s="125"/>
+      <c r="D139" s="134"/>
+      <c r="E139" s="133"/>
       <c r="F139" s="10">
         <v>13</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H139" s="126"/>
-      <c r="I139" s="126"/>
-      <c r="J139" s="111"/>
-      <c r="K139" s="126"/>
-      <c r="L139" s="126"/>
-      <c r="M139" s="126"/>
+      <c r="H139" s="125"/>
+      <c r="I139" s="125"/>
+      <c r="J139" s="110"/>
+      <c r="K139" s="125"/>
+      <c r="L139" s="125"/>
+      <c r="M139" s="125"/>
       <c r="N139" s="9" t="s">
         <v>144</v>
       </c>
@@ -12983,23 +13093,23 @@
       <c r="W139" s="27"/>
     </row>
     <row r="140" spans="1:23" s="58" customFormat="1">
-      <c r="A140" s="126"/>
-      <c r="B140" s="126"/>
-      <c r="C140" s="126"/>
-      <c r="D140" s="128"/>
-      <c r="E140" s="127"/>
+      <c r="A140" s="125"/>
+      <c r="B140" s="125"/>
+      <c r="C140" s="125"/>
+      <c r="D140" s="134"/>
+      <c r="E140" s="133"/>
       <c r="F140" s="75">
         <v>14</v>
       </c>
       <c r="G140" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="H140" s="126"/>
-      <c r="I140" s="126"/>
-      <c r="J140" s="111"/>
-      <c r="K140" s="126"/>
-      <c r="L140" s="126"/>
-      <c r="M140" s="126"/>
+      <c r="H140" s="125"/>
+      <c r="I140" s="125"/>
+      <c r="J140" s="110"/>
+      <c r="K140" s="125"/>
+      <c r="L140" s="125"/>
+      <c r="M140" s="125"/>
       <c r="N140" s="74" t="s">
         <v>269</v>
       </c>
@@ -13020,23 +13130,23 @@
       </c>
     </row>
     <row r="141" spans="1:23" s="7" customFormat="1">
-      <c r="A141" s="126"/>
-      <c r="B141" s="126"/>
-      <c r="C141" s="126"/>
-      <c r="D141" s="128"/>
-      <c r="E141" s="127"/>
+      <c r="A141" s="125"/>
+      <c r="B141" s="125"/>
+      <c r="C141" s="125"/>
+      <c r="D141" s="134"/>
+      <c r="E141" s="133"/>
       <c r="F141" s="10">
         <v>15</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="H141" s="126"/>
-      <c r="I141" s="126"/>
-      <c r="J141" s="111"/>
-      <c r="K141" s="126"/>
-      <c r="L141" s="126"/>
-      <c r="M141" s="126"/>
+      <c r="H141" s="125"/>
+      <c r="I141" s="125"/>
+      <c r="J141" s="110"/>
+      <c r="K141" s="125"/>
+      <c r="L141" s="125"/>
+      <c r="M141" s="125"/>
       <c r="N141" s="9"/>
       <c r="O141" s="55" t="s">
         <v>51</v>
@@ -13059,15 +13169,15 @@
       <c r="W141" s="27"/>
     </row>
     <row r="142" spans="1:23">
-      <c r="A142" s="126"/>
-      <c r="B142" s="120" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" s="120"/>
-      <c r="D142" s="128" t="s">
+      <c r="A142" s="125"/>
+      <c r="B142" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="124"/>
+      <c r="D142" s="134" t="s">
         <v>187</v>
       </c>
-      <c r="E142" s="127" t="s">
+      <c r="E142" s="133" t="s">
         <v>146</v>
       </c>
       <c r="F142" s="10">
@@ -13076,20 +13186,20 @@
       <c r="G142" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H142" s="129">
-        <v>1</v>
-      </c>
-      <c r="I142" s="129">
-        <v>1</v>
-      </c>
-      <c r="J142" s="127">
+      <c r="H142" s="135">
+        <v>1</v>
+      </c>
+      <c r="I142" s="135">
+        <v>1</v>
+      </c>
+      <c r="J142" s="133">
         <v>4</v>
       </c>
-      <c r="K142" s="120" t="s">
+      <c r="K142" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="L142" s="120"/>
-      <c r="M142" s="120" t="s">
+      <c r="L142" s="124"/>
+      <c r="M142" s="124" t="s">
         <v>38</v>
       </c>
       <c r="N142" s="29"/>
@@ -13110,23 +13220,23 @@
       </c>
     </row>
     <row r="143" spans="1:23">
-      <c r="A143" s="126"/>
-      <c r="B143" s="126"/>
-      <c r="C143" s="126"/>
-      <c r="D143" s="128"/>
-      <c r="E143" s="127"/>
+      <c r="A143" s="125"/>
+      <c r="B143" s="125"/>
+      <c r="C143" s="125"/>
+      <c r="D143" s="134"/>
+      <c r="E143" s="133"/>
       <c r="F143" s="10">
         <v>2</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H143" s="129"/>
-      <c r="I143" s="129"/>
-      <c r="J143" s="127"/>
-      <c r="K143" s="126"/>
-      <c r="L143" s="126"/>
-      <c r="M143" s="126"/>
+      <c r="H143" s="135"/>
+      <c r="I143" s="135"/>
+      <c r="J143" s="133"/>
+      <c r="K143" s="125"/>
+      <c r="L143" s="125"/>
+      <c r="M143" s="125"/>
       <c r="N143" s="32"/>
       <c r="O143" s="55" t="s">
         <v>169</v>
@@ -13145,23 +13255,23 @@
       </c>
     </row>
     <row r="144" spans="1:23" s="7" customFormat="1">
-      <c r="A144" s="126"/>
-      <c r="B144" s="126"/>
-      <c r="C144" s="126"/>
-      <c r="D144" s="128"/>
-      <c r="E144" s="127"/>
+      <c r="A144" s="125"/>
+      <c r="B144" s="125"/>
+      <c r="C144" s="125"/>
+      <c r="D144" s="134"/>
+      <c r="E144" s="133"/>
       <c r="F144" s="10">
         <v>3</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H144" s="129"/>
-      <c r="I144" s="129"/>
-      <c r="J144" s="127"/>
-      <c r="K144" s="126"/>
-      <c r="L144" s="126"/>
-      <c r="M144" s="126"/>
+      <c r="H144" s="135"/>
+      <c r="I144" s="135"/>
+      <c r="J144" s="133"/>
+      <c r="K144" s="125"/>
+      <c r="L144" s="125"/>
+      <c r="M144" s="125"/>
       <c r="N144" s="32"/>
       <c r="O144" s="55" t="s">
         <v>169</v>
@@ -13184,23 +13294,23 @@
       <c r="W144" s="27"/>
     </row>
     <row r="145" spans="1:19">
-      <c r="A145" s="126"/>
-      <c r="B145" s="121"/>
-      <c r="C145" s="121"/>
-      <c r="D145" s="128"/>
-      <c r="E145" s="127"/>
+      <c r="A145" s="125"/>
+      <c r="B145" s="126"/>
+      <c r="C145" s="126"/>
+      <c r="D145" s="134"/>
+      <c r="E145" s="133"/>
       <c r="F145" s="10">
         <v>4</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H145" s="129"/>
-      <c r="I145" s="129"/>
-      <c r="J145" s="127"/>
-      <c r="K145" s="121"/>
-      <c r="L145" s="121"/>
-      <c r="M145" s="121"/>
+      <c r="H145" s="135"/>
+      <c r="I145" s="135"/>
+      <c r="J145" s="133"/>
+      <c r="K145" s="126"/>
+      <c r="L145" s="126"/>
+      <c r="M145" s="126"/>
       <c r="N145" s="30"/>
       <c r="O145" s="55" t="s">
         <v>169</v>
@@ -13219,9 +13329,9 @@
       </c>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="126"/>
-      <c r="B146" s="120"/>
-      <c r="C146" s="120" t="s">
+      <c r="A146" s="125"/>
+      <c r="B146" s="124"/>
+      <c r="C146" s="124" t="s">
         <v>61</v>
       </c>
       <c r="D146" s="109" t="s">
@@ -13236,23 +13346,23 @@
       <c r="G146" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H146" s="120">
-        <v>1</v>
-      </c>
-      <c r="I146" s="120">
-        <v>1</v>
-      </c>
-      <c r="J146" s="120">
+      <c r="H146" s="124">
+        <v>1</v>
+      </c>
+      <c r="I146" s="124">
+        <v>1</v>
+      </c>
+      <c r="J146" s="124">
         <v>4</v>
       </c>
-      <c r="K146" s="120" t="s">
+      <c r="K146" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="L146" s="120"/>
-      <c r="M146" s="120" t="s">
+      <c r="L146" s="124"/>
+      <c r="M146" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="N146" s="120"/>
+      <c r="N146" s="124"/>
       <c r="O146" s="55" t="s">
         <v>169</v>
       </c>
@@ -13270,24 +13380,24 @@
       </c>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="126"/>
-      <c r="B147" s="126"/>
-      <c r="C147" s="126"/>
-      <c r="D147" s="111"/>
-      <c r="E147" s="111"/>
+      <c r="A147" s="125"/>
+      <c r="B147" s="125"/>
+      <c r="C147" s="125"/>
+      <c r="D147" s="110"/>
+      <c r="E147" s="110"/>
       <c r="F147" s="1">
         <v>2</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H147" s="126"/>
-      <c r="I147" s="126"/>
-      <c r="J147" s="126"/>
-      <c r="K147" s="126"/>
-      <c r="L147" s="126"/>
-      <c r="M147" s="126"/>
-      <c r="N147" s="126"/>
+      <c r="H147" s="125"/>
+      <c r="I147" s="125"/>
+      <c r="J147" s="125"/>
+      <c r="K147" s="125"/>
+      <c r="L147" s="125"/>
+      <c r="M147" s="125"/>
+      <c r="N147" s="125"/>
       <c r="O147" s="55" t="s">
         <v>169</v>
       </c>
@@ -13305,24 +13415,24 @@
       </c>
     </row>
     <row r="148" spans="1:19">
-      <c r="A148" s="126"/>
-      <c r="B148" s="126"/>
-      <c r="C148" s="126"/>
-      <c r="D148" s="111"/>
-      <c r="E148" s="111"/>
+      <c r="A148" s="125"/>
+      <c r="B148" s="125"/>
+      <c r="C148" s="125"/>
+      <c r="D148" s="110"/>
+      <c r="E148" s="110"/>
       <c r="F148" s="1">
         <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H148" s="126"/>
-      <c r="I148" s="126"/>
-      <c r="J148" s="126"/>
-      <c r="K148" s="126"/>
-      <c r="L148" s="126"/>
-      <c r="M148" s="126"/>
-      <c r="N148" s="126"/>
+      <c r="H148" s="125"/>
+      <c r="I148" s="125"/>
+      <c r="J148" s="125"/>
+      <c r="K148" s="125"/>
+      <c r="L148" s="125"/>
+      <c r="M148" s="125"/>
+      <c r="N148" s="125"/>
       <c r="O148" s="55" t="s">
         <v>169</v>
       </c>
@@ -13340,24 +13450,24 @@
       </c>
     </row>
     <row r="149" spans="1:19">
-      <c r="A149" s="126"/>
-      <c r="B149" s="121"/>
-      <c r="C149" s="121"/>
-      <c r="D149" s="110"/>
-      <c r="E149" s="110"/>
+      <c r="A149" s="125"/>
+      <c r="B149" s="126"/>
+      <c r="C149" s="126"/>
+      <c r="D149" s="111"/>
+      <c r="E149" s="111"/>
       <c r="F149" s="1">
         <v>4</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H149" s="121"/>
-      <c r="I149" s="121"/>
-      <c r="J149" s="121"/>
-      <c r="K149" s="121"/>
-      <c r="L149" s="121"/>
-      <c r="M149" s="121"/>
-      <c r="N149" s="121"/>
+      <c r="H149" s="126"/>
+      <c r="I149" s="126"/>
+      <c r="J149" s="126"/>
+      <c r="K149" s="126"/>
+      <c r="L149" s="126"/>
+      <c r="M149" s="126"/>
+      <c r="N149" s="126"/>
       <c r="O149" s="55" t="s">
         <v>169</v>
       </c>
@@ -13375,38 +13485,38 @@
       </c>
     </row>
     <row r="150" spans="1:19">
-      <c r="A150" s="126"/>
-      <c r="B150" s="120" t="s">
+      <c r="A150" s="125"/>
+      <c r="B150" s="124" t="s">
         <v>61</v>
       </c>
-      <c r="C150" s="120"/>
-      <c r="D150" s="120" t="s">
+      <c r="C150" s="124"/>
+      <c r="D150" s="124" t="s">
         <v>127</v>
       </c>
-      <c r="E150" s="120"/>
+      <c r="E150" s="124"/>
       <c r="F150" s="1">
         <v>1</v>
       </c>
       <c r="G150" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H150" s="120">
-        <v>1</v>
-      </c>
-      <c r="I150" s="120">
-        <v>1</v>
-      </c>
-      <c r="J150" s="120">
+      <c r="H150" s="124">
+        <v>1</v>
+      </c>
+      <c r="I150" s="124">
+        <v>1</v>
+      </c>
+      <c r="J150" s="124">
         <v>2</v>
       </c>
-      <c r="K150" s="120" t="s">
+      <c r="K150" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="L150" s="120"/>
-      <c r="M150" s="120" t="s">
+      <c r="L150" s="124"/>
+      <c r="M150" s="124" t="s">
         <v>74</v>
       </c>
-      <c r="N150" s="120"/>
+      <c r="N150" s="124"/>
       <c r="O150" s="51" t="s">
         <v>168</v>
       </c>
@@ -13424,24 +13534,24 @@
       </c>
     </row>
     <row r="151" spans="1:19">
-      <c r="A151" s="126"/>
-      <c r="B151" s="121"/>
-      <c r="C151" s="121"/>
-      <c r="D151" s="121"/>
-      <c r="E151" s="121"/>
+      <c r="A151" s="125"/>
+      <c r="B151" s="126"/>
+      <c r="C151" s="126"/>
+      <c r="D151" s="126"/>
+      <c r="E151" s="126"/>
       <c r="F151" s="1">
         <v>2</v>
       </c>
       <c r="G151" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H151" s="121"/>
-      <c r="I151" s="121"/>
-      <c r="J151" s="121"/>
-      <c r="K151" s="121"/>
-      <c r="L151" s="121"/>
-      <c r="M151" s="121"/>
-      <c r="N151" s="121"/>
+      <c r="H151" s="126"/>
+      <c r="I151" s="126"/>
+      <c r="J151" s="126"/>
+      <c r="K151" s="126"/>
+      <c r="L151" s="126"/>
+      <c r="M151" s="126"/>
+      <c r="N151" s="126"/>
       <c r="O151" s="53"/>
       <c r="P151" s="53"/>
       <c r="Q151" s="53"/>
@@ -13449,7 +13559,7 @@
       <c r="S151" s="53"/>
     </row>
     <row r="152" spans="1:19">
-      <c r="A152" s="126"/>
+      <c r="A152" s="125"/>
       <c r="B152" s="1" t="s">
         <v>61</v>
       </c>
@@ -13486,7 +13596,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" ht="19.5">
-      <c r="A153" s="126"/>
+      <c r="A153" s="125"/>
       <c r="B153" s="1" t="s">
         <v>61</v>
       </c>
@@ -13533,7 +13643,7 @@
       </c>
     </row>
     <row r="154" spans="1:19">
-      <c r="A154" s="126"/>
+      <c r="A154" s="125"/>
       <c r="B154" s="1" t="s">
         <v>61</v>
       </c>
@@ -13570,7 +13680,7 @@
       </c>
     </row>
     <row r="155" spans="1:19">
-      <c r="A155" s="126"/>
+      <c r="A155" s="125"/>
       <c r="B155" s="1" t="s">
         <v>61</v>
       </c>
@@ -13619,7 +13729,7 @@
       </c>
     </row>
     <row r="156" spans="1:19">
-      <c r="A156" s="121"/>
+      <c r="A156" s="126"/>
       <c r="B156" s="1" t="s">
         <v>61</v>
       </c>
@@ -13666,7 +13776,7 @@
       </c>
     </row>
     <row r="157" spans="1:19">
-      <c r="A157" s="114" t="s">
+      <c r="A157" s="115" t="s">
         <v>249</v>
       </c>
       <c r="B157" s="109" t="s">
@@ -13695,7 +13805,7 @@
       <c r="K157" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="L157" s="107"/>
+      <c r="L157" s="112"/>
       <c r="M157" s="109" t="s">
         <v>38</v>
       </c>
@@ -13717,24 +13827,24 @@
       </c>
     </row>
     <row r="158" spans="1:19" s="58" customFormat="1">
-      <c r="A158" s="115"/>
-      <c r="B158" s="110"/>
-      <c r="C158" s="110"/>
-      <c r="D158" s="110"/>
-      <c r="E158" s="110"/>
+      <c r="A158" s="116"/>
+      <c r="B158" s="111"/>
+      <c r="C158" s="111"/>
+      <c r="D158" s="111"/>
+      <c r="E158" s="111"/>
       <c r="F158" s="69">
         <v>2</v>
       </c>
       <c r="G158" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="H158" s="110"/>
-      <c r="I158" s="110"/>
-      <c r="J158" s="110"/>
-      <c r="K158" s="110"/>
-      <c r="L158" s="108"/>
-      <c r="M158" s="110"/>
-      <c r="N158" s="110"/>
+      <c r="H158" s="111"/>
+      <c r="I158" s="111"/>
+      <c r="J158" s="111"/>
+      <c r="K158" s="111"/>
+      <c r="L158" s="114"/>
+      <c r="M158" s="111"/>
+      <c r="N158" s="111"/>
       <c r="O158" s="66"/>
       <c r="P158" s="66"/>
       <c r="Q158" s="66"/>
@@ -13742,7 +13852,7 @@
       <c r="S158" s="66"/>
     </row>
     <row r="159" spans="1:19" ht="19.5">
-      <c r="A159" s="115"/>
+      <c r="A159" s="116"/>
       <c r="B159" s="69" t="s">
         <v>51</v>
       </c>
@@ -13789,7 +13899,7 @@
       </c>
     </row>
     <row r="160" spans="1:19" ht="19.5">
-      <c r="A160" s="115"/>
+      <c r="A160" s="116"/>
       <c r="B160" s="69" t="s">
         <v>51</v>
       </c>
@@ -13836,7 +13946,7 @@
       </c>
     </row>
     <row r="161" spans="1:19" ht="19.5">
-      <c r="A161" s="115"/>
+      <c r="A161" s="116"/>
       <c r="B161" s="69" t="s">
         <v>51</v>
       </c>
@@ -13883,7 +13993,7 @@
       </c>
     </row>
     <row r="162" spans="1:19" ht="19.5">
-      <c r="A162" s="115"/>
+      <c r="A162" s="116"/>
       <c r="B162" s="69" t="s">
         <v>51</v>
       </c>
@@ -13930,7 +14040,7 @@
       </c>
     </row>
     <row r="163" spans="1:19" ht="19.5">
-      <c r="A163" s="115"/>
+      <c r="A163" s="116"/>
       <c r="B163" s="69" t="s">
         <v>51</v>
       </c>
@@ -13977,7 +14087,7 @@
       </c>
     </row>
     <row r="164" spans="1:19">
-      <c r="A164" s="115"/>
+      <c r="A164" s="116"/>
       <c r="B164" s="69" t="s">
         <v>51</v>
       </c>
@@ -14026,7 +14136,7 @@
       </c>
     </row>
     <row r="165" spans="1:19">
-      <c r="A165" s="115"/>
+      <c r="A165" s="116"/>
       <c r="B165" s="69" t="s">
         <v>51</v>
       </c>
@@ -14075,7 +14185,7 @@
       </c>
     </row>
     <row r="166" spans="1:19">
-      <c r="A166" s="115"/>
+      <c r="A166" s="116"/>
       <c r="B166" s="109" t="s">
         <v>51</v>
       </c>
@@ -14102,7 +14212,7 @@
       <c r="K166" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="L166" s="107"/>
+      <c r="L166" s="112"/>
       <c r="M166" s="109" t="s">
         <v>38</v>
       </c>
@@ -14124,24 +14234,24 @@
       </c>
     </row>
     <row r="167" spans="1:19" s="58" customFormat="1">
-      <c r="A167" s="115"/>
-      <c r="B167" s="110"/>
-      <c r="C167" s="110"/>
-      <c r="D167" s="110"/>
-      <c r="E167" s="110"/>
+      <c r="A167" s="116"/>
+      <c r="B167" s="111"/>
+      <c r="C167" s="111"/>
+      <c r="D167" s="111"/>
+      <c r="E167" s="111"/>
       <c r="F167" s="69">
         <v>2</v>
       </c>
       <c r="G167" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H167" s="110"/>
-      <c r="I167" s="110"/>
-      <c r="J167" s="110"/>
-      <c r="K167" s="110"/>
-      <c r="L167" s="108"/>
-      <c r="M167" s="110"/>
-      <c r="N167" s="110"/>
+      <c r="H167" s="111"/>
+      <c r="I167" s="111"/>
+      <c r="J167" s="111"/>
+      <c r="K167" s="111"/>
+      <c r="L167" s="114"/>
+      <c r="M167" s="111"/>
+      <c r="N167" s="111"/>
       <c r="O167" s="66"/>
       <c r="P167" s="66"/>
       <c r="Q167" s="66"/>
@@ -14149,7 +14259,7 @@
       <c r="S167" s="66"/>
     </row>
     <row r="168" spans="1:19">
-      <c r="A168" s="115"/>
+      <c r="A168" s="116"/>
       <c r="B168" s="69" t="s">
         <v>51</v>
       </c>
@@ -14198,7 +14308,7 @@
       </c>
     </row>
     <row r="169" spans="1:19">
-      <c r="A169" s="115"/>
+      <c r="A169" s="116"/>
       <c r="B169" s="69" t="s">
         <v>51</v>
       </c>
@@ -14247,7 +14357,7 @@
       </c>
     </row>
     <row r="170" spans="1:19">
-      <c r="A170" s="115"/>
+      <c r="A170" s="116"/>
       <c r="B170" s="109" t="s">
         <v>51</v>
       </c>
@@ -14274,7 +14384,7 @@
       <c r="K170" s="109" t="s">
         <v>11</v>
       </c>
-      <c r="L170" s="107"/>
+      <c r="L170" s="112"/>
       <c r="M170" s="109" t="s">
         <v>38</v>
       </c>
@@ -14296,24 +14406,24 @@
       </c>
     </row>
     <row r="171" spans="1:19" s="58" customFormat="1">
-      <c r="A171" s="115"/>
-      <c r="B171" s="110"/>
-      <c r="C171" s="110"/>
-      <c r="D171" s="110"/>
-      <c r="E171" s="110"/>
+      <c r="A171" s="116"/>
+      <c r="B171" s="111"/>
+      <c r="C171" s="111"/>
+      <c r="D171" s="111"/>
+      <c r="E171" s="111"/>
       <c r="F171" s="69">
         <v>2</v>
       </c>
       <c r="G171" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H171" s="110"/>
-      <c r="I171" s="110"/>
-      <c r="J171" s="110"/>
-      <c r="K171" s="110"/>
-      <c r="L171" s="108"/>
-      <c r="M171" s="110"/>
-      <c r="N171" s="110"/>
+      <c r="H171" s="111"/>
+      <c r="I171" s="111"/>
+      <c r="J171" s="111"/>
+      <c r="K171" s="111"/>
+      <c r="L171" s="114"/>
+      <c r="M171" s="111"/>
+      <c r="N171" s="111"/>
       <c r="O171" s="66"/>
       <c r="P171" s="66"/>
       <c r="Q171" s="66"/>
@@ -14321,7 +14431,7 @@
       <c r="S171" s="66"/>
     </row>
     <row r="172" spans="1:19">
-      <c r="A172" s="115"/>
+      <c r="A172" s="116"/>
       <c r="B172" s="69" t="s">
         <v>51</v>
       </c>
@@ -14368,7 +14478,7 @@
       </c>
     </row>
     <row r="173" spans="1:19">
-      <c r="A173" s="116"/>
+      <c r="A173" s="117"/>
       <c r="B173" s="69" t="s">
         <v>51</v>
       </c>
@@ -14416,46 +14526,225 @@
     </row>
   </sheetData>
   <mergeCells count="283">
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="H105:H107"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="L170:L171"/>
+    <mergeCell ref="M170:M171"/>
+    <mergeCell ref="N170:N171"/>
+    <mergeCell ref="N166:N167"/>
+    <mergeCell ref="M166:M167"/>
+    <mergeCell ref="L166:L167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="J166:J167"/>
+    <mergeCell ref="K166:K167"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="J170:J171"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="A157:A173"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="L157:L158"/>
+    <mergeCell ref="M157:M158"/>
+    <mergeCell ref="N157:N158"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="M23:M28"/>
+    <mergeCell ref="L23:L28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="N23:N28"/>
+    <mergeCell ref="N150:N151"/>
+    <mergeCell ref="J146:J149"/>
+    <mergeCell ref="K146:K149"/>
+    <mergeCell ref="L146:L149"/>
+    <mergeCell ref="M146:M149"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="N123:N124"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="I146:I149"/>
+    <mergeCell ref="K127:K141"/>
+    <mergeCell ref="M127:M141"/>
+    <mergeCell ref="M142:M145"/>
+    <mergeCell ref="K142:K145"/>
+    <mergeCell ref="L127:L141"/>
+    <mergeCell ref="L142:L145"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="L150:L151"/>
+    <mergeCell ref="M150:M151"/>
+    <mergeCell ref="J127:J141"/>
+    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="H146:H149"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="E127:E141"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="C127:C141"/>
+    <mergeCell ref="D127:D141"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="H127:H141"/>
+    <mergeCell ref="I127:I141"/>
+    <mergeCell ref="H142:H145"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="I119:I122"/>
+    <mergeCell ref="J119:J122"/>
+    <mergeCell ref="K119:K122"/>
+    <mergeCell ref="L119:L122"/>
+    <mergeCell ref="M119:M122"/>
+    <mergeCell ref="N119:N122"/>
+    <mergeCell ref="J115:J118"/>
+    <mergeCell ref="K115:K118"/>
+    <mergeCell ref="L115:L118"/>
+    <mergeCell ref="M115:M118"/>
+    <mergeCell ref="N115:N118"/>
+    <mergeCell ref="I115:I118"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="D119:D122"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="H119:H122"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="D115:D118"/>
+    <mergeCell ref="E115:E118"/>
+    <mergeCell ref="H115:H118"/>
+    <mergeCell ref="I108:I111"/>
+    <mergeCell ref="J108:J111"/>
+    <mergeCell ref="K108:K111"/>
+    <mergeCell ref="L108:L111"/>
+    <mergeCell ref="M108:M111"/>
+    <mergeCell ref="N108:N111"/>
+    <mergeCell ref="J105:J107"/>
+    <mergeCell ref="K105:K107"/>
+    <mergeCell ref="L105:L107"/>
+    <mergeCell ref="M105:M107"/>
+    <mergeCell ref="N105:N107"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="N101:N104"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="K98:K100"/>
+    <mergeCell ref="L98:L100"/>
+    <mergeCell ref="M98:M100"/>
+    <mergeCell ref="N98:N100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="J101:J104"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="N4:N11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A115:A156"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="E4:E11"/>
+    <mergeCell ref="H4:H11"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="A22:A50"/>
+    <mergeCell ref="A51:A64"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A74:A97"/>
+    <mergeCell ref="A98:A114"/>
+    <mergeCell ref="H98:H100"/>
     <mergeCell ref="L74:L77"/>
     <mergeCell ref="K95:K96"/>
     <mergeCell ref="L95:L96"/>
@@ -14480,225 +14769,46 @@
     <mergeCell ref="I23:I28"/>
     <mergeCell ref="H23:H28"/>
     <mergeCell ref="D23:D28"/>
-    <mergeCell ref="N4:N11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A115:A156"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="E4:E11"/>
-    <mergeCell ref="H4:H11"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="A22:A50"/>
-    <mergeCell ref="A51:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A97"/>
-    <mergeCell ref="A98:A114"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="E108:E111"/>
-    <mergeCell ref="H108:H111"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="N93:N94"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="N101:N104"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="K98:K100"/>
-    <mergeCell ref="L98:L100"/>
-    <mergeCell ref="M98:M100"/>
-    <mergeCell ref="N98:N100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="H101:H104"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="J101:J104"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="I108:I111"/>
-    <mergeCell ref="J108:J111"/>
-    <mergeCell ref="K108:K111"/>
-    <mergeCell ref="L108:L111"/>
-    <mergeCell ref="M108:M111"/>
-    <mergeCell ref="N108:N111"/>
-    <mergeCell ref="J105:J107"/>
-    <mergeCell ref="K105:K107"/>
-    <mergeCell ref="L105:L107"/>
-    <mergeCell ref="M105:M107"/>
-    <mergeCell ref="N105:N107"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="D119:D122"/>
-    <mergeCell ref="E119:E122"/>
-    <mergeCell ref="H119:H122"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="C115:C118"/>
-    <mergeCell ref="D115:D118"/>
-    <mergeCell ref="E115:E118"/>
-    <mergeCell ref="H115:H118"/>
-    <mergeCell ref="I119:I122"/>
-    <mergeCell ref="J119:J122"/>
-    <mergeCell ref="K119:K122"/>
-    <mergeCell ref="L119:L122"/>
-    <mergeCell ref="M119:M122"/>
-    <mergeCell ref="N119:N122"/>
-    <mergeCell ref="J115:J118"/>
-    <mergeCell ref="K115:K118"/>
-    <mergeCell ref="L115:L118"/>
-    <mergeCell ref="M115:M118"/>
-    <mergeCell ref="N115:N118"/>
-    <mergeCell ref="I115:I118"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="E127:E141"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B141"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="C127:C141"/>
-    <mergeCell ref="D127:D141"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="H127:H141"/>
-    <mergeCell ref="I127:I141"/>
-    <mergeCell ref="H142:H145"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="H150:H151"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="H146:H149"/>
-    <mergeCell ref="I146:I149"/>
-    <mergeCell ref="K127:K141"/>
-    <mergeCell ref="M127:M141"/>
-    <mergeCell ref="M142:M145"/>
-    <mergeCell ref="K142:K145"/>
-    <mergeCell ref="L127:L141"/>
-    <mergeCell ref="L142:L145"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="L150:L151"/>
-    <mergeCell ref="M150:M151"/>
-    <mergeCell ref="J127:J141"/>
-    <mergeCell ref="J142:J145"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K23:K28"/>
-    <mergeCell ref="M23:M28"/>
-    <mergeCell ref="L23:L28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="N23:N28"/>
-    <mergeCell ref="N150:N151"/>
-    <mergeCell ref="J146:J149"/>
-    <mergeCell ref="K146:K149"/>
-    <mergeCell ref="L146:L149"/>
-    <mergeCell ref="M146:M149"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="N123:N124"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="M125:M126"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="M123:M124"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="K74:K77"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="A157:A173"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="L157:L158"/>
-    <mergeCell ref="M157:M158"/>
-    <mergeCell ref="N157:N158"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="L170:L171"/>
-    <mergeCell ref="M170:M171"/>
-    <mergeCell ref="N170:N171"/>
-    <mergeCell ref="N166:N167"/>
-    <mergeCell ref="M166:M167"/>
-    <mergeCell ref="L166:L167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="J166:J167"/>
-    <mergeCell ref="K166:K167"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="J170:J171"/>
-    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="H105:H107"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19511,7 +19621,7 @@
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -20129,12 +20239,12 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:Q77"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C42" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="B74" sqref="B74"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -20353,7 +20463,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
@@ -20376,7 +20486,7 @@
         <v>227</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D9" s="87" t="s">
         <v>293</v>
@@ -20412,7 +20522,7 @@
         <v>207</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>294</v>
@@ -20442,13 +20552,13 @@
         <v>289</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E11" s="35">
         <v>1</v>
@@ -20467,7 +20577,7 @@
         <v>38</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -20475,13 +20585,13 @@
         <v>289</v>
       </c>
       <c r="B12" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>454</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>455</v>
       </c>
       <c r="E12" s="35">
         <v>1</v>
@@ -20500,7 +20610,7 @@
         <v>38</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -20508,13 +20618,13 @@
         <v>289</v>
       </c>
       <c r="B13" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>457</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>458</v>
       </c>
       <c r="E13" s="35">
         <v>1</v>
@@ -20533,7 +20643,7 @@
         <v>38</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -20544,7 +20654,7 @@
         <v>186</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>298</v>
@@ -20577,7 +20687,7 @@
         <v>129</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D15" s="87"/>
       <c r="E15" s="87"/>
@@ -20608,7 +20718,7 @@
         <v>202</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -20628,7 +20738,7 @@
         <v>76</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -20639,10 +20749,10 @@
         <v>361</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="87">
@@ -20659,7 +20769,7 @@
         <v>38</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -20670,10 +20780,10 @@
         <v>362</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="87">
@@ -20690,7 +20800,7 @@
         <v>38</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -20701,10 +20811,10 @@
         <v>363</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="87">
@@ -20721,7 +20831,7 @@
         <v>38</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -20732,10 +20842,10 @@
         <v>364</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="87">
@@ -20752,7 +20862,7 @@
         <v>38</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="19.5">
@@ -20760,10 +20870,10 @@
         <v>289</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
@@ -20783,7 +20893,7 @@
         <v>76</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="19.5">
@@ -20791,10 +20901,10 @@
         <v>289</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -20814,7 +20924,7 @@
         <v>76</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -20825,7 +20935,7 @@
         <v>337</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="40"/>
@@ -20845,7 +20955,7 @@
         <v>38</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>386</v>
+        <v>557</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -20853,13 +20963,13 @@
         <v>333</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="87">
@@ -20874,7 +20984,7 @@
       <c r="I24" s="37"/>
       <c r="J24" s="36"/>
       <c r="K24" s="35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -20882,13 +20992,13 @@
         <v>333</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="91">
@@ -20903,7 +21013,7 @@
       <c r="I25" s="37"/>
       <c r="J25" s="36"/>
       <c r="K25" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -20911,13 +21021,13 @@
         <v>333</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="91">
@@ -20932,7 +21042,7 @@
       <c r="I26" s="37"/>
       <c r="J26" s="36"/>
       <c r="K26" s="35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -20940,13 +21050,13 @@
         <v>333</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="91">
@@ -20961,7 +21071,7 @@
       <c r="I27" s="37"/>
       <c r="J27" s="36"/>
       <c r="K27" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -20972,7 +21082,7 @@
         <v>338</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D28" s="87"/>
       <c r="E28" s="87"/>
@@ -20993,7 +21103,7 @@
         <v>336</v>
       </c>
       <c r="C29" s="93" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -21022,7 +21132,7 @@
         <v>334</v>
       </c>
       <c r="C30" s="93" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D30" s="87"/>
       <c r="E30" s="87"/>
@@ -21051,7 +21161,7 @@
         <v>335</v>
       </c>
       <c r="C31" s="93" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D31" s="87"/>
       <c r="E31" s="87"/>
@@ -21075,13 +21185,13 @@
         <v>289</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E32" s="95"/>
       <c r="F32" s="95">
@@ -21109,7 +21219,7 @@
         <v>85</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -21129,7 +21239,7 @@
         <v>45</v>
       </c>
       <c r="K33" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="19" customFormat="1">
@@ -21140,7 +21250,7 @@
         <v>86</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -21160,7 +21270,7 @@
         <v>45</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="19" customFormat="1">
@@ -21171,7 +21281,7 @@
         <v>87</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -21191,7 +21301,7 @@
         <v>45</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -21202,7 +21312,7 @@
         <v>78</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -21225,7 +21335,7 @@
         <v>186</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>298</v>
@@ -21258,7 +21368,7 @@
         <v>129</v>
       </c>
       <c r="C38" s="87" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
@@ -21286,13 +21396,13 @@
         <v>299</v>
       </c>
       <c r="B39" s="87" t="s">
+        <v>390</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>492</v>
+      </c>
+      <c r="D39" s="87" t="s">
         <v>391</v>
-      </c>
-      <c r="C39" s="87" t="s">
-        <v>493</v>
-      </c>
-      <c r="D39" s="87" t="s">
-        <v>392</v>
       </c>
       <c r="E39" s="87"/>
       <c r="F39" s="87">
@@ -21316,7 +21426,7 @@
         <v>367</v>
       </c>
       <c r="C40" s="87" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D40" s="87" t="s">
         <v>376</v>
@@ -21347,7 +21457,7 @@
         <v>155</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35">
@@ -21380,7 +21490,7 @@
         <v>156</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35">
@@ -21413,7 +21523,7 @@
         <v>154</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35">
@@ -21435,7 +21545,7 @@
         <v>38</v>
       </c>
       <c r="K43" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -21446,7 +21556,7 @@
         <v>369</v>
       </c>
       <c r="C44" s="87" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D44" s="89" t="s">
         <v>375</v>
@@ -21466,7 +21576,7 @@
         <v>38</v>
       </c>
       <c r="K44" s="86" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -21477,10 +21587,10 @@
         <v>370</v>
       </c>
       <c r="C45" s="87" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D45" s="89" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E45" s="87"/>
       <c r="F45" s="87">
@@ -21497,7 +21607,7 @@
         <v>38</v>
       </c>
       <c r="K45" s="86" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -21508,7 +21618,7 @@
         <v>377</v>
       </c>
       <c r="C46" s="87" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D46" s="87" t="s">
         <v>378</v>
@@ -21526,7 +21636,7 @@
       <c r="I46" s="87"/>
       <c r="J46" s="85"/>
       <c r="K46" s="86" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -21534,10 +21644,10 @@
         <v>299</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35">
@@ -21559,7 +21669,7 @@
         <v>38</v>
       </c>
       <c r="K47" s="40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -21567,10 +21677,10 @@
         <v>299</v>
       </c>
       <c r="B48" s="87" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C48" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D48" s="87" t="s">
         <v>375</v>
@@ -21590,7 +21700,7 @@
         <v>38</v>
       </c>
       <c r="K48" s="86" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -21598,13 +21708,13 @@
         <v>299</v>
       </c>
       <c r="B49" s="87" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C49" s="87" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D49" s="89" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E49" s="89"/>
       <c r="F49" s="89">
@@ -21621,7 +21731,7 @@
         <v>38</v>
       </c>
       <c r="K49" s="86" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -21629,10 +21739,10 @@
         <v>299</v>
       </c>
       <c r="B50" s="87" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C50" s="87" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D50" s="87" t="s">
         <v>378</v>
@@ -21650,7 +21760,7 @@
       <c r="I50" s="87"/>
       <c r="J50" s="85"/>
       <c r="K50" s="86" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -21658,10 +21768,10 @@
         <v>299</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35">
@@ -21683,7 +21793,7 @@
         <v>38</v>
       </c>
       <c r="K51" s="86" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -21691,10 +21801,10 @@
         <v>299</v>
       </c>
       <c r="B52" s="87" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C52" s="87" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D52" s="87" t="s">
         <v>375</v>
@@ -21714,7 +21824,7 @@
         <v>38</v>
       </c>
       <c r="K52" s="86" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -21722,13 +21832,13 @@
         <v>299</v>
       </c>
       <c r="B53" s="87" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C53" s="87" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D53" s="89" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E53" s="89"/>
       <c r="F53" s="89">
@@ -21745,7 +21855,7 @@
         <v>38</v>
       </c>
       <c r="K53" s="86" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -21753,10 +21863,10 @@
         <v>299</v>
       </c>
       <c r="B54" s="87" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C54" s="87" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D54" s="87" t="s">
         <v>378</v>
@@ -21774,7 +21884,7 @@
       <c r="I54" s="87"/>
       <c r="J54" s="85"/>
       <c r="K54" s="86" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="19.5">
@@ -21785,7 +21895,7 @@
         <v>371</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35">
@@ -21815,13 +21925,13 @@
         <v>339</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E56" s="87"/>
       <c r="F56" s="87">
@@ -21849,7 +21959,7 @@
         <v>85</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -21869,7 +21979,7 @@
         <v>45</v>
       </c>
       <c r="K57" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="19" customFormat="1">
@@ -21880,7 +21990,7 @@
         <v>86</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
@@ -21900,7 +22010,7 @@
         <v>45</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="19" customFormat="1">
@@ -21911,7 +22021,7 @@
         <v>87</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -21931,7 +22041,7 @@
         <v>45</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -21942,7 +22052,7 @@
         <v>78</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -21965,7 +22075,7 @@
         <v>186</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D61" s="35" t="s">
         <v>298</v>
@@ -21998,7 +22108,7 @@
         <v>129</v>
       </c>
       <c r="C62" s="87" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D62" s="87"/>
       <c r="E62" s="87"/>
@@ -22029,7 +22139,7 @@
         <v>81</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35">
@@ -22059,13 +22169,13 @@
         <v>301</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E64" s="87"/>
       <c r="F64" s="87">
@@ -22093,7 +22203,7 @@
         <v>85</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -22113,7 +22223,7 @@
         <v>45</v>
       </c>
       <c r="K65" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="19" customFormat="1">
@@ -22124,7 +22234,7 @@
         <v>86</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -22144,7 +22254,7 @@
         <v>45</v>
       </c>
       <c r="K66" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="19" customFormat="1">
@@ -22155,7 +22265,7 @@
         <v>87</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
@@ -22175,21 +22285,21 @@
         <v>45</v>
       </c>
       <c r="K67" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="19" customFormat="1">
       <c r="A68" s="88" t="s">
+        <v>407</v>
+      </c>
+      <c r="B68" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="B68" s="35" t="s">
-        <v>409</v>
-      </c>
       <c r="C68" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E68" s="35"/>
       <c r="F68" s="35">
@@ -22203,10 +22313,10 @@
       </c>
       <c r="I68" s="37"/>
       <c r="J68" s="35" t="s">
+        <v>411</v>
+      </c>
+      <c r="K68" s="35" t="s">
         <v>412</v>
-      </c>
-      <c r="K68" s="35" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -22217,7 +22327,7 @@
         <v>198</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -22237,7 +22347,7 @@
         <v>201</v>
       </c>
       <c r="K69" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -22248,7 +22358,7 @@
         <v>46</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -22268,7 +22378,7 @@
         <v>203</v>
       </c>
       <c r="K70" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -22279,7 +22389,7 @@
         <v>291</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D71" s="35" t="s">
         <v>298</v>
@@ -22301,7 +22411,7 @@
         <v>38</v>
       </c>
       <c r="K71" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -22312,7 +22422,7 @@
         <v>292</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D72" s="35" t="s">
         <v>298</v>
@@ -22334,18 +22444,18 @@
         <v>38</v>
       </c>
       <c r="K72" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B73" s="35" t="s">
+        <v>536</v>
+      </c>
+      <c r="C73" s="35" t="s">
         <v>537</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>538</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -22362,16 +22472,16 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="95" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B74" s="35" t="s">
+        <v>532</v>
+      </c>
+      <c r="C74" s="95" t="s">
         <v>533</v>
       </c>
-      <c r="C74" s="95" t="s">
+      <c r="D74" s="35" t="s">
         <v>534</v>
-      </c>
-      <c r="D74" s="35" t="s">
-        <v>535</v>
       </c>
       <c r="E74" s="35"/>
       <c r="F74" s="35">
@@ -22393,13 +22503,13 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="98" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B75" s="35" t="s">
         <v>186</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D75" s="35" t="s">
         <v>298</v>
@@ -22424,13 +22534,13 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="89" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B76" s="35" t="s">
         <v>198</v>
       </c>
       <c r="C76" s="89" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D76" s="89"/>
       <c r="E76" s="89"/>
@@ -22453,13 +22563,13 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="89" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B77" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C77" s="89" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D77" s="89"/>
       <c r="E77" s="89"/>
@@ -22490,18 +22600,18 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883AEBD5-B255-4B86-ABCF-F48DF2A77A1E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:Q81"/>
+  <dimension ref="A2:Q83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A38" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="A63" sqref="A63:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.08203125" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.83203125" style="58" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.83203125" style="27" customWidth="1"/>
@@ -22523,7 +22633,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="98" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>166</v>
@@ -22705,7 +22815,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D8" s="101"/>
       <c r="E8" s="101"/>
@@ -22728,7 +22838,7 @@
         <v>227</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D9" s="101" t="s">
         <v>293</v>
@@ -22764,7 +22874,7 @@
         <v>207</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>294</v>
@@ -22794,13 +22904,13 @@
         <v>289</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E11" s="35">
         <v>1</v>
@@ -22819,7 +22929,7 @@
         <v>38</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="58" customFormat="1">
@@ -22827,13 +22937,13 @@
         <v>289</v>
       </c>
       <c r="B12" s="35" t="s">
+        <v>453</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>454</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>455</v>
       </c>
       <c r="E12" s="35">
         <v>1</v>
@@ -22852,7 +22962,7 @@
         <v>38</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1">
@@ -22860,13 +22970,13 @@
         <v>289</v>
       </c>
       <c r="B13" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>457</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>458</v>
       </c>
       <c r="E13" s="35">
         <v>1</v>
@@ -22885,7 +22995,7 @@
         <v>38</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="58" customFormat="1">
@@ -22896,7 +23006,7 @@
         <v>186</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>298</v>
@@ -22929,7 +23039,7 @@
         <v>129</v>
       </c>
       <c r="C15" s="104" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D15" s="104"/>
       <c r="E15" s="104"/>
@@ -22957,13 +23067,13 @@
         <v>289</v>
       </c>
       <c r="B16" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="C16" s="36" t="s">
         <v>548</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="D16" s="35" t="s">
         <v>549</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>550</v>
       </c>
       <c r="E16" s="36">
         <v>1</v>
@@ -22989,7 +23099,7 @@
         <v>188</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>222</v>
@@ -23022,7 +23132,7 @@
         <v>202</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -23042,7 +23152,7 @@
         <v>76</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="58" customFormat="1">
@@ -23053,10 +23163,10 @@
         <v>361</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D19" s="104" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="104">
@@ -23073,7 +23183,7 @@
         <v>38</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="58" customFormat="1">
@@ -23084,10 +23194,10 @@
         <v>362</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="104">
@@ -23104,7 +23214,7 @@
         <v>38</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="58" customFormat="1">
@@ -23115,10 +23225,10 @@
         <v>363</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="104">
@@ -23135,7 +23245,7 @@
         <v>38</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="58" customFormat="1">
@@ -23146,10 +23256,10 @@
         <v>364</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E22" s="40"/>
       <c r="F22" s="104">
@@ -23166,7 +23276,7 @@
         <v>38</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="58" customFormat="1" ht="19.5">
@@ -23174,10 +23284,10 @@
         <v>289</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -23197,7 +23307,7 @@
         <v>76</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="58" customFormat="1" ht="19.5">
@@ -23205,10 +23315,10 @@
         <v>289</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
@@ -23228,7 +23338,7 @@
         <v>76</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="58" customFormat="1">
@@ -23239,7 +23349,7 @@
         <v>337</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="40"/>
@@ -23259,7 +23369,7 @@
         <v>38</v>
       </c>
       <c r="K25" s="35" t="s">
-        <v>386</v>
+        <v>557</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="58" customFormat="1">
@@ -23267,13 +23377,13 @@
         <v>333</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="104">
@@ -23288,7 +23398,7 @@
       <c r="I26" s="37"/>
       <c r="J26" s="36"/>
       <c r="K26" s="35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="58" customFormat="1">
@@ -23296,13 +23406,13 @@
         <v>333</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="104">
@@ -23317,7 +23427,7 @@
       <c r="I27" s="37"/>
       <c r="J27" s="36"/>
       <c r="K27" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="58" customFormat="1">
@@ -23325,13 +23435,13 @@
         <v>333</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="104">
@@ -23346,7 +23456,7 @@
       <c r="I28" s="37"/>
       <c r="J28" s="36"/>
       <c r="K28" s="35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="58" customFormat="1">
@@ -23354,13 +23464,13 @@
         <v>333</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E29" s="40"/>
       <c r="F29" s="104">
@@ -23375,7 +23485,7 @@
       <c r="I29" s="37"/>
       <c r="J29" s="36"/>
       <c r="K29" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -23386,7 +23496,7 @@
         <v>338</v>
       </c>
       <c r="C30" s="101" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D30" s="101"/>
       <c r="E30" s="101"/>
@@ -23407,7 +23517,7 @@
         <v>336</v>
       </c>
       <c r="C31" s="101" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D31" s="101"/>
       <c r="E31" s="101"/>
@@ -23436,7 +23546,7 @@
         <v>334</v>
       </c>
       <c r="C32" s="101" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D32" s="101"/>
       <c r="E32" s="101"/>
@@ -23465,7 +23575,7 @@
         <v>335</v>
       </c>
       <c r="C33" s="101" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D33" s="101"/>
       <c r="E33" s="101"/>
@@ -23489,13 +23599,13 @@
         <v>289</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E34" s="104"/>
       <c r="F34" s="104">
@@ -23523,7 +23633,7 @@
         <v>85</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -23543,7 +23653,7 @@
         <v>45</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="19" customFormat="1">
@@ -23554,7 +23664,7 @@
         <v>86</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -23574,7 +23684,7 @@
         <v>45</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="19" customFormat="1">
@@ -23585,7 +23695,7 @@
         <v>87</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -23605,7 +23715,7 @@
         <v>45</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -23616,7 +23726,7 @@
         <v>78</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
@@ -23639,7 +23749,7 @@
         <v>186</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>298</v>
@@ -23672,7 +23782,7 @@
         <v>129</v>
       </c>
       <c r="C40" s="104" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D40" s="104"/>
       <c r="E40" s="104"/>
@@ -23700,13 +23810,13 @@
         <v>299</v>
       </c>
       <c r="B41" s="36" t="s">
+        <v>550</v>
+      </c>
+      <c r="C41" s="36" t="s">
         <v>551</v>
       </c>
-      <c r="C41" s="36" t="s">
-        <v>552</v>
-      </c>
       <c r="D41" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E41" s="36">
         <v>1</v>
@@ -23729,13 +23839,13 @@
         <v>299</v>
       </c>
       <c r="B42" s="104" t="s">
+        <v>390</v>
+      </c>
+      <c r="C42" s="104" t="s">
+        <v>492</v>
+      </c>
+      <c r="D42" s="104" t="s">
         <v>391</v>
-      </c>
-      <c r="C42" s="104" t="s">
-        <v>493</v>
-      </c>
-      <c r="D42" s="104" t="s">
-        <v>392</v>
       </c>
       <c r="E42" s="104"/>
       <c r="F42" s="104">
@@ -23759,7 +23869,7 @@
         <v>367</v>
       </c>
       <c r="C43" s="104" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D43" s="104" t="s">
         <v>376</v>
@@ -23790,7 +23900,7 @@
         <v>155</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35">
@@ -23823,7 +23933,7 @@
         <v>156</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35">
@@ -23856,7 +23966,7 @@
         <v>154</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35">
@@ -23878,7 +23988,7 @@
         <v>38</v>
       </c>
       <c r="K46" s="40" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="58" customFormat="1">
@@ -23889,7 +23999,7 @@
         <v>369</v>
       </c>
       <c r="C47" s="104" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D47" s="104" t="s">
         <v>375</v>
@@ -23909,7 +24019,7 @@
         <v>38</v>
       </c>
       <c r="K47" s="103" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="58" customFormat="1">
@@ -23920,10 +24030,10 @@
         <v>370</v>
       </c>
       <c r="C48" s="104" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D48" s="104" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E48" s="104"/>
       <c r="F48" s="104">
@@ -23940,7 +24050,7 @@
         <v>38</v>
       </c>
       <c r="K48" s="103" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="58" customFormat="1">
@@ -23951,7 +24061,7 @@
         <v>377</v>
       </c>
       <c r="C49" s="104" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D49" s="104" t="s">
         <v>378</v>
@@ -23969,7 +24079,7 @@
       <c r="I49" s="104"/>
       <c r="J49" s="102"/>
       <c r="K49" s="103" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="58" customFormat="1">
@@ -23977,10 +24087,10 @@
         <v>299</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35">
@@ -24002,7 +24112,7 @@
         <v>38</v>
       </c>
       <c r="K50" s="40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="58" customFormat="1">
@@ -24010,10 +24120,10 @@
         <v>299</v>
       </c>
       <c r="B51" s="104" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C51" s="104" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D51" s="104" t="s">
         <v>375</v>
@@ -24033,7 +24143,7 @@
         <v>38</v>
       </c>
       <c r="K51" s="103" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="58" customFormat="1">
@@ -24041,13 +24151,13 @@
         <v>299</v>
       </c>
       <c r="B52" s="104" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C52" s="104" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D52" s="104" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E52" s="104"/>
       <c r="F52" s="104">
@@ -24064,7 +24174,7 @@
         <v>38</v>
       </c>
       <c r="K52" s="103" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="58" customFormat="1">
@@ -24072,10 +24182,10 @@
         <v>299</v>
       </c>
       <c r="B53" s="104" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C53" s="104" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D53" s="104" t="s">
         <v>378</v>
@@ -24093,7 +24203,7 @@
       <c r="I53" s="104"/>
       <c r="J53" s="102"/>
       <c r="K53" s="103" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="58" customFormat="1">
@@ -24101,10 +24211,10 @@
         <v>299</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35">
@@ -24126,7 +24236,7 @@
         <v>38</v>
       </c>
       <c r="K54" s="103" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="58" customFormat="1">
@@ -24134,10 +24244,10 @@
         <v>299</v>
       </c>
       <c r="B55" s="104" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C55" s="104" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D55" s="104" t="s">
         <v>375</v>
@@ -24157,7 +24267,7 @@
         <v>38</v>
       </c>
       <c r="K55" s="103" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="58" customFormat="1">
@@ -24165,13 +24275,13 @@
         <v>299</v>
       </c>
       <c r="B56" s="104" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C56" s="104" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D56" s="104" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E56" s="104"/>
       <c r="F56" s="104">
@@ -24188,7 +24298,7 @@
         <v>38</v>
       </c>
       <c r="K56" s="103" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="58" customFormat="1">
@@ -24196,10 +24306,10 @@
         <v>299</v>
       </c>
       <c r="B57" s="104" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C57" s="104" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D57" s="104" t="s">
         <v>378</v>
@@ -24217,7 +24327,7 @@
       <c r="I57" s="104"/>
       <c r="J57" s="102"/>
       <c r="K57" s="103" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="19.5">
@@ -24228,7 +24338,7 @@
         <v>371</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="35">
@@ -24258,13 +24368,13 @@
         <v>339</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E59" s="104"/>
       <c r="F59" s="104">
@@ -24292,7 +24402,7 @@
         <v>85</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -24312,7 +24422,7 @@
         <v>45</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="19" customFormat="1">
@@ -24323,7 +24433,7 @@
         <v>86</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -24343,7 +24453,7 @@
         <v>45</v>
       </c>
       <c r="K61" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="19" customFormat="1">
@@ -24354,7 +24464,7 @@
         <v>87</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -24374,7 +24484,7 @@
         <v>45</v>
       </c>
       <c r="K62" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="58" customFormat="1">
@@ -24385,7 +24495,7 @@
         <v>78</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -24408,7 +24518,7 @@
         <v>186</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D64" s="35" t="s">
         <v>298</v>
@@ -24441,7 +24551,7 @@
         <v>129</v>
       </c>
       <c r="C65" s="104" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D65" s="104"/>
       <c r="E65" s="104"/>
@@ -24469,13 +24579,13 @@
         <v>301</v>
       </c>
       <c r="B66" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D66" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E66" s="36">
         <v>1</v>
@@ -24501,7 +24611,7 @@
         <v>81</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="35">
@@ -24531,13 +24641,13 @@
         <v>301</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E68" s="104"/>
       <c r="F68" s="104">
@@ -24565,7 +24675,7 @@
         <v>85</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -24585,7 +24695,7 @@
         <v>45</v>
       </c>
       <c r="K69" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="19" customFormat="1">
@@ -24596,7 +24706,7 @@
         <v>86</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -24616,7 +24726,7 @@
         <v>45</v>
       </c>
       <c r="K70" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="19" customFormat="1">
@@ -24627,7 +24737,7 @@
         <v>87</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -24647,21 +24757,21 @@
         <v>45</v>
       </c>
       <c r="K71" s="35" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="19" customFormat="1">
       <c r="A72" s="102" t="s">
+        <v>407</v>
+      </c>
+      <c r="B72" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="B72" s="35" t="s">
-        <v>409</v>
-      </c>
       <c r="C72" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E72" s="35"/>
       <c r="F72" s="35">
@@ -24678,69 +24788,67 @@
         <v>38</v>
       </c>
       <c r="K72" s="35" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="58" customFormat="1">
-      <c r="A73" s="102" t="s">
-        <v>290</v>
+        <v>412</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="19" customFormat="1">
+      <c r="A73" s="107" t="s">
+        <v>407</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>521</v>
-      </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="G73" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="H73" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="I73" s="37">
-        <v>3</v>
-      </c>
-      <c r="J73" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="K73" s="35" t="s">
-        <v>413</v>
-      </c>
+        <v>560</v>
+      </c>
+      <c r="C73" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="E73" s="36">
+        <v>1</v>
+      </c>
+      <c r="F73" s="36">
+        <v>1</v>
+      </c>
+      <c r="G73" s="36">
+        <v>4</v>
+      </c>
+      <c r="H73" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="35"/>
     </row>
     <row r="74" spans="1:11" s="58" customFormat="1">
       <c r="A74" s="102" t="s">
         <v>290</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>46</v>
+        <v>198</v>
       </c>
       <c r="C74" s="35" t="s">
         <v>520</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
-      <c r="F74" s="35">
-        <v>0</v>
-      </c>
-      <c r="G74" s="35">
-        <v>10</v>
+      <c r="F74" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G74" s="35" t="s">
+        <v>200</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="I74" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J74" s="35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K74" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="58" customFormat="1">
@@ -24748,43 +24856,41 @@
         <v>290</v>
       </c>
       <c r="B75" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35">
+        <v>0</v>
+      </c>
+      <c r="G75" s="35">
+        <v>10</v>
+      </c>
+      <c r="H75" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="37">
+        <v>2</v>
+      </c>
+      <c r="J75" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="K75" s="35" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="58" customFormat="1">
+      <c r="A76" s="102" t="s">
+        <v>290</v>
+      </c>
+      <c r="B76" s="35" t="s">
         <v>291</v>
       </c>
-      <c r="C75" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="D75" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E75" s="35">
-        <v>2</v>
-      </c>
-      <c r="F75" s="35">
-        <v>1</v>
-      </c>
-      <c r="G75" s="35">
-        <v>14</v>
-      </c>
-      <c r="H75" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K75" s="35" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="58" customFormat="1">
-      <c r="A76" s="104" t="s">
-        <v>290</v>
-      </c>
-      <c r="B76" s="35" t="s">
-        <v>292</v>
-      </c>
       <c r="C76" s="35" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D76" s="35" t="s">
         <v>298</v>
@@ -24806,151 +24912,213 @@
         <v>38</v>
       </c>
       <c r="K76" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="58" customFormat="1">
       <c r="A77" s="104" t="s">
-        <v>407</v>
+        <v>290</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>537</v>
+        <v>292</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>538</v>
-      </c>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
+        <v>522</v>
+      </c>
+      <c r="D77" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E77" s="35">
+        <v>2</v>
+      </c>
+      <c r="F77" s="35">
+        <v>1</v>
+      </c>
+      <c r="G77" s="35">
+        <v>14</v>
+      </c>
       <c r="H77" s="35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
+      <c r="J77" s="35" t="s">
+        <v>38</v>
+      </c>
       <c r="K77" s="35" t="s">
-        <v>280</v>
+        <v>412</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="58" customFormat="1">
       <c r="A78" s="104" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>533</v>
-      </c>
-      <c r="C78" s="104" t="s">
-        <v>534</v>
-      </c>
-      <c r="D78" s="35" t="s">
-        <v>535</v>
-      </c>
+        <v>536</v>
+      </c>
+      <c r="C78" s="35" t="s">
+        <v>537</v>
+      </c>
+      <c r="D78" s="35"/>
       <c r="E78" s="35"/>
-      <c r="F78" s="35">
-        <v>1</v>
-      </c>
-      <c r="G78" s="35">
-        <v>2</v>
-      </c>
+      <c r="F78" s="35"/>
+      <c r="G78" s="35"/>
       <c r="H78" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I78" s="37"/>
-      <c r="J78" s="35" t="s">
-        <v>38</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35"/>
       <c r="K78" s="35" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:11" s="58" customFormat="1">
       <c r="A79" s="104" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>539</v>
+        <v>561</v>
+      </c>
+      <c r="C79" s="104" t="s">
+        <v>533</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E79" s="35">
+        <v>534</v>
+      </c>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35">
+        <v>1</v>
+      </c>
+      <c r="G79" s="35">
         <v>2</v>
-      </c>
-      <c r="F79" s="35">
-        <v>1</v>
-      </c>
-      <c r="G79" s="35">
-        <v>14</v>
       </c>
       <c r="H79" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I79" s="35"/>
+      <c r="I79" s="37"/>
       <c r="J79" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K79" s="35"/>
+      <c r="K79" s="35" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="80" spans="1:11" s="58" customFormat="1">
       <c r="A80" s="104" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B80" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C80" s="35" t="s">
+        <v>538</v>
+      </c>
+      <c r="D80" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="E80" s="35">
+        <v>2</v>
+      </c>
+      <c r="F80" s="35">
+        <v>1</v>
+      </c>
+      <c r="G80" s="35">
+        <v>14</v>
+      </c>
+      <c r="H80" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K80" s="35"/>
+    </row>
+    <row r="81" spans="1:11" s="58" customFormat="1">
+      <c r="A81" s="108" t="s">
+        <v>406</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>562</v>
+      </c>
+      <c r="C81" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="D81" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="E81" s="36">
+        <v>1</v>
+      </c>
+      <c r="F81" s="36">
+        <v>1</v>
+      </c>
+      <c r="G81" s="36">
+        <v>4</v>
+      </c>
+      <c r="H81" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="35"/>
+    </row>
+    <row r="82" spans="1:11" s="58" customFormat="1">
+      <c r="A82" s="104" t="s">
+        <v>406</v>
+      </c>
+      <c r="B82" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="C80" s="104" t="s">
+      <c r="C82" s="104" t="s">
+        <v>523</v>
+      </c>
+      <c r="D82" s="104"/>
+      <c r="E82" s="104"/>
+      <c r="F82" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G82" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="H82" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="I82" s="37">
+        <v>3</v>
+      </c>
+      <c r="J82" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="K82" s="104"/>
+    </row>
+    <row r="83" spans="1:11" s="58" customFormat="1">
+      <c r="A83" s="104" t="s">
+        <v>406</v>
+      </c>
+      <c r="B83" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="104" t="s">
         <v>524</v>
       </c>
-      <c r="D80" s="104"/>
-      <c r="E80" s="104"/>
-      <c r="F80" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="G80" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="H80" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="I80" s="37">
-        <v>3</v>
-      </c>
-      <c r="J80" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="K80" s="104"/>
-    </row>
-    <row r="81" spans="1:11" s="58" customFormat="1">
-      <c r="A81" s="104" t="s">
-        <v>407</v>
-      </c>
-      <c r="B81" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C81" s="104" t="s">
-        <v>525</v>
-      </c>
-      <c r="D81" s="104"/>
-      <c r="E81" s="104"/>
-      <c r="F81" s="35">
-        <v>0</v>
-      </c>
-      <c r="G81" s="35">
+      <c r="D83" s="104"/>
+      <c r="E83" s="104"/>
+      <c r="F83" s="35">
+        <v>0</v>
+      </c>
+      <c r="G83" s="35">
         <v>10</v>
       </c>
-      <c r="H81" s="35" t="s">
+      <c r="H83" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="I81" s="37">
+      <c r="I83" s="37">
         <v>2</v>
       </c>
-      <c r="J81" s="35" t="s">
+      <c r="J83" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="K81" s="104"/>
+      <c r="K83" s="104"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/入力情報定義表.xlsx
+++ b/入力情報定義表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7ABC5A-5446-4382-8858-2F911DF8321C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB07BE0-E66A-40C8-A93F-961803A48430}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8330" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8330" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4316" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="572">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2303,10 +2303,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>4:床下空間</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>主たる居室床面積</t>
     <rPh sb="0" eb="1">
       <t>シュ</t>
@@ -5372,46 +5368,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>土間床の種類</t>
-    <rPh sb="0" eb="2">
-      <t>ドマ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ユカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EarthfloorPerimeters[i] Type_earthfloor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1:一般（玄関等を除く）
-2:玄関等</t>
-    <rPh sb="2" eb="4">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ゲンカン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ノゾ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ゲンカン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>トウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>分類「土間床等の外周部の線熱橋」に項目「土間床の種類」を追加</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
@@ -5589,10 +5545,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Walls[i] NextSpace</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>分類「開口部の不透明部位」に項目「隣接空間種類」を追加</t>
     <rPh sb="0" eb="2">
       <t>ブンルイ</t>
@@ -5741,40 +5693,190 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>土間床等の種類</t>
+    <t>EarthfloorPerimeters[i] Space</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「線熱橋」、「土間床等の外周部の線熱橋」に項目「空間種類」を追加</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土間床</t>
     <rPh sb="0" eb="2">
       <t>ドマ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ユカ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Earthfloor[i] Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>面積</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Earthfloor[i] Area</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土間床が属する空間種類</t>
+    <rPh sb="4" eb="5">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「土間床等の外周部の線熱橋」から項目「土間床の種類」を削除</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土間床の名称</t>
+    <rPh sb="0" eb="2">
+      <t>ドマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「土間床」を追加、項目として「土間床の名称」、「面積」を追加</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「開口部以外の不透明部位」の項目「隣接空間種類」を削除</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>分類「土間床」を追加、項目として「土間床の名称」、「面積」、「土間床が属する空間種類」を追加</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ドマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>メンセキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ドマ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土間床等の外周部の線熱橋が属する空間種類</t>
+    <rPh sb="0" eb="2">
+      <t>ドマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トウ</t>
+    </rPh>
     <rPh sb="5" eb="7">
+      <t>ガイシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ネッキョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ゾク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>クウカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
       <t>シュルイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>土間床等が属する空間種類</t>
-    <rPh sb="3" eb="4">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ゾク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>クウカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>EarthfloorPerimeters[i] Space</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>分類「線熱橋」、「土間床等の外周部の線熱橋」に項目「空間種類」を追加</t>
+    <t>Earthfloors[i] Name</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Earthfloors[i] Area</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Earthfloors[i] Space</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6248,7 +6350,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6627,11 +6729,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536BF8A1-E6C3-4235-B285-32136AE77F7C}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6643,13 +6745,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="77" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>274</v>
+      </c>
+      <c r="C1" s="77" t="s">
         <v>272</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -6657,10 +6759,10 @@
         <v>43182</v>
       </c>
       <c r="B2" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="C2" t="s">
         <v>276</v>
-      </c>
-      <c r="C2" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -6668,10 +6770,10 @@
         <v>43182</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -6679,10 +6781,10 @@
         <v>43182</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6690,10 +6792,10 @@
         <v>43182</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -6701,10 +6803,10 @@
         <v>43182</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6712,10 +6814,10 @@
         <v>43182</v>
       </c>
       <c r="B7" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -6723,10 +6825,10 @@
         <v>43182</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -6734,10 +6836,10 @@
         <v>43182</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6745,10 +6847,10 @@
         <v>43182</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -6756,10 +6858,10 @@
         <v>43182</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -6767,10 +6869,10 @@
         <v>43182</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6778,10 +6880,10 @@
         <v>43182</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -6789,10 +6891,10 @@
         <v>43185</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6800,10 +6902,10 @@
         <v>43185</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6811,10 +6913,10 @@
         <v>43185</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C16" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6822,10 +6924,10 @@
         <v>43185</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C17" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6833,10 +6935,10 @@
         <v>43185</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C18" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6844,10 +6946,10 @@
         <v>43185</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6855,10 +6957,10 @@
         <v>43192</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6866,10 +6968,10 @@
         <v>43192</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6877,10 +6979,10 @@
         <v>43192</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -6888,10 +6990,10 @@
         <v>43192</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C23" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -6899,10 +7001,10 @@
         <v>43192</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -6910,10 +7012,10 @@
         <v>43192</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6921,10 +7023,10 @@
         <v>43193</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C26" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -6932,10 +7034,10 @@
         <v>43193</v>
       </c>
       <c r="B27" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -6943,10 +7045,10 @@
         <v>43193</v>
       </c>
       <c r="B28" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -6954,10 +7056,10 @@
         <v>43193</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -6965,10 +7067,10 @@
         <v>43196</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C30" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -6976,10 +7078,10 @@
         <v>43196</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C31" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -6987,10 +7089,10 @@
         <v>43196</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C32" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -6998,10 +7100,10 @@
         <v>43196</v>
       </c>
       <c r="B33" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C33" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7009,10 +7111,10 @@
         <v>43196</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7020,10 +7122,10 @@
         <v>43196</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C35" s="81" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7031,10 +7133,10 @@
         <v>43196</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C36" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7042,10 +7144,10 @@
         <v>43196</v>
       </c>
       <c r="B37" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C37" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7053,10 +7155,10 @@
         <v>43196</v>
       </c>
       <c r="B38" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7064,10 +7166,10 @@
         <v>43196</v>
       </c>
       <c r="B39" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -7075,10 +7177,10 @@
         <v>43196</v>
       </c>
       <c r="B40" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C40" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -7086,10 +7188,10 @@
         <v>43196</v>
       </c>
       <c r="B41" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C41" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7097,10 +7199,10 @@
         <v>43196</v>
       </c>
       <c r="B42" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7108,10 +7210,10 @@
         <v>43202</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C43" s="82" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7119,10 +7221,10 @@
         <v>43202</v>
       </c>
       <c r="B44" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C44" s="81" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7130,10 +7232,10 @@
         <v>43202</v>
       </c>
       <c r="B45" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7141,10 +7243,10 @@
         <v>43202</v>
       </c>
       <c r="B46" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C46" s="82" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7152,10 +7254,10 @@
         <v>43202</v>
       </c>
       <c r="B47" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7163,10 +7265,10 @@
         <v>43202</v>
       </c>
       <c r="B48" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C48" s="82" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7174,10 +7276,10 @@
         <v>43202</v>
       </c>
       <c r="B49" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C49" s="82" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7185,10 +7287,10 @@
         <v>43203</v>
       </c>
       <c r="B50" s="76" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C50" s="82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -7196,10 +7298,10 @@
         <v>43203</v>
       </c>
       <c r="B51" s="76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C51" s="82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -7207,10 +7309,10 @@
         <v>43203</v>
       </c>
       <c r="B52" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C52" s="82" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7218,10 +7320,10 @@
         <v>43203</v>
       </c>
       <c r="B53" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C53" s="82" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7229,10 +7331,10 @@
         <v>43203</v>
       </c>
       <c r="B54" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C54" s="82" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7240,10 +7342,10 @@
         <v>43203</v>
       </c>
       <c r="B55" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C55" s="82" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7251,10 +7353,10 @@
         <v>43203</v>
       </c>
       <c r="B56" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C56" s="82" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7262,10 +7364,10 @@
         <v>43203</v>
       </c>
       <c r="B57" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7273,10 +7375,10 @@
         <v>43203</v>
       </c>
       <c r="B58" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C58" s="82" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7284,10 +7386,10 @@
         <v>43203</v>
       </c>
       <c r="B59" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C59" s="82" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7295,10 +7397,10 @@
         <v>43203</v>
       </c>
       <c r="B60" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C60" s="82" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7306,10 +7408,10 @@
         <v>43203</v>
       </c>
       <c r="B61" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C61" s="82" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -7317,10 +7419,10 @@
         <v>43203</v>
       </c>
       <c r="B62" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C62" s="82" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -7328,10 +7430,10 @@
         <v>43207</v>
       </c>
       <c r="B63" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C63" s="82" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -7339,10 +7441,10 @@
         <v>43207</v>
       </c>
       <c r="B64" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C64" s="81" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -7350,10 +7452,10 @@
         <v>43257</v>
       </c>
       <c r="B65" s="76" t="s">
+        <v>524</v>
+      </c>
+      <c r="C65" s="82" t="s">
         <v>525</v>
-      </c>
-      <c r="C65" s="82" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7361,10 +7463,10 @@
         <v>43257</v>
       </c>
       <c r="B66" s="76" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C66" s="82" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7372,10 +7474,10 @@
         <v>43257</v>
       </c>
       <c r="B67" s="76" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C67" s="82" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7383,10 +7485,10 @@
         <v>43265</v>
       </c>
       <c r="B68" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C68" s="82" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7394,10 +7496,10 @@
         <v>43265</v>
       </c>
       <c r="B69" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C69" s="82" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7405,10 +7507,10 @@
         <v>43265</v>
       </c>
       <c r="B70" s="76" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C70" s="82" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7416,10 +7518,10 @@
         <v>43265</v>
       </c>
       <c r="B71" s="76" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C71" s="82" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7427,10 +7529,10 @@
         <v>43266</v>
       </c>
       <c r="B72" s="76" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C72" s="82" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7438,10 +7540,10 @@
         <v>43266</v>
       </c>
       <c r="B73" s="76" t="s">
+        <v>538</v>
+      </c>
+      <c r="C73" s="82" t="s">
         <v>542</v>
-      </c>
-      <c r="C73" s="82" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7449,10 +7551,10 @@
         <v>43266</v>
       </c>
       <c r="B74" s="76" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C74" s="82" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7460,10 +7562,10 @@
         <v>43266</v>
       </c>
       <c r="B75" s="76" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C75" s="82" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -7471,10 +7573,10 @@
         <v>43269</v>
       </c>
       <c r="B76" s="76" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C76" s="82" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -7482,10 +7584,10 @@
         <v>43279</v>
       </c>
       <c r="B77" s="76" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C77" s="82" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7493,10 +7595,10 @@
         <v>43279</v>
       </c>
       <c r="B78" s="76" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C78" s="82" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7504,10 +7606,65 @@
         <v>43279</v>
       </c>
       <c r="B79" s="76" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C79" s="82" t="s">
-        <v>564</v>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="76">
+        <v>43283</v>
+      </c>
+      <c r="B80" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="C80" s="82" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="76">
+        <v>43283</v>
+      </c>
+      <c r="B81" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="C81" s="82" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="76">
+        <v>43283</v>
+      </c>
+      <c r="B82" s="76" t="s">
+        <v>538</v>
+      </c>
+      <c r="C82" s="82" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="76">
+        <v>43283</v>
+      </c>
+      <c r="B83" s="76" t="s">
+        <v>538</v>
+      </c>
+      <c r="C83" s="82" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="76">
+        <v>43283</v>
+      </c>
+      <c r="B84" s="76" t="s">
+        <v>538</v>
+      </c>
+      <c r="C84" s="82" t="s">
+        <v>567</v>
       </c>
     </row>
   </sheetData>
@@ -7533,10 +7690,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="71" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C1" s="49"/>
       <c r="D1" s="49"/>
@@ -7585,10 +7742,10 @@
   <dimension ref="A1:W173"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E158" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D127" sqref="D127:D141"/>
+      <selection pane="bottomRight" activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -7666,19 +7823,19 @@
         <v>27</v>
       </c>
       <c r="O2" s="54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P2" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q2" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="R2" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="R2" s="54" t="s">
+      <c r="S2" s="54" t="s">
         <v>233</v>
-      </c>
-      <c r="S2" s="54" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -8098,7 +8255,7 @@
       </c>
       <c r="C15" s="118"/>
       <c r="D15" s="115" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E15" s="118"/>
       <c r="F15" s="46">
@@ -8172,7 +8329,7 @@
       </c>
       <c r="C17" s="45"/>
       <c r="D17" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E17" s="45"/>
       <c r="F17" s="43"/>
@@ -8191,7 +8348,7 @@
         <v>64</v>
       </c>
       <c r="M17" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N17" s="45"/>
       <c r="O17" s="55" t="s">
@@ -8217,7 +8374,7 @@
       </c>
       <c r="C18" s="45"/>
       <c r="D18" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E18" s="45"/>
       <c r="F18" s="43"/>
@@ -8236,7 +8393,7 @@
         <v>64</v>
       </c>
       <c r="M18" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N18" s="45"/>
       <c r="O18" s="55" t="s">
@@ -8266,7 +8423,7 @@
       </c>
       <c r="C19" s="63"/>
       <c r="D19" s="67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E19" s="63"/>
       <c r="F19" s="62"/>
@@ -8285,7 +8442,7 @@
         <v>64</v>
       </c>
       <c r="M19" s="63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N19" s="63"/>
       <c r="O19" s="55" t="s">
@@ -8311,16 +8468,16 @@
       </c>
       <c r="C20" s="118"/>
       <c r="D20" s="115" t="s">
+        <v>241</v>
+      </c>
+      <c r="E20" s="115" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" s="69">
+        <v>1</v>
+      </c>
+      <c r="G20" s="69" t="s">
         <v>242</v>
-      </c>
-      <c r="E20" s="115" t="s">
-        <v>265</v>
-      </c>
-      <c r="F20" s="69">
-        <v>1</v>
-      </c>
-      <c r="G20" s="69" t="s">
-        <v>243</v>
       </c>
       <c r="H20" s="109"/>
       <c r="I20" s="109">
@@ -8363,7 +8520,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="69" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H21" s="110"/>
       <c r="I21" s="110"/>
@@ -8424,14 +8581,14 @@
       </c>
       <c r="C23" s="118"/>
       <c r="D23" s="115" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E23" s="121"/>
       <c r="F23" s="46">
         <v>1</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H23" s="127"/>
       <c r="I23" s="109">
@@ -9181,7 +9338,7 @@
         <v>4</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H42" s="111"/>
       <c r="I42" s="111"/>
@@ -9581,7 +9738,7 @@
         <v>154</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F52" s="17"/>
       <c r="G52" s="17"/>
@@ -9634,7 +9791,7 @@
         <v>155</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F53" s="17"/>
       <c r="G53" s="17"/>
@@ -9689,7 +9846,7 @@
         <v>156</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F54" s="17"/>
       <c r="G54" s="17"/>
@@ -9744,7 +9901,7 @@
         <v>79</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -9793,7 +9950,7 @@
         <v>151</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="13"/>
@@ -9816,7 +9973,7 @@
         <v>38</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O56" s="55" t="s">
         <v>169</v>
@@ -9848,7 +10005,7 @@
         <v>153</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
@@ -9903,7 +10060,7 @@
         <v>80</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F58" s="22"/>
       <c r="G58" s="1"/>
@@ -9952,7 +10109,7 @@
         <v>163</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
@@ -9975,7 +10132,7 @@
         <v>38</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O59" s="55" t="s">
         <v>169</v>
@@ -10007,7 +10164,7 @@
         <v>164</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F60" s="22"/>
       <c r="G60" s="22"/>
@@ -10329,7 +10486,7 @@
         <v>85</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -10378,7 +10535,7 @@
         <v>86</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -10427,7 +10584,7 @@
         <v>87</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -10476,7 +10633,7 @@
         <v>157</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -10529,7 +10686,7 @@
         <v>158</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -13111,7 +13268,7 @@
       <c r="L140" s="125"/>
       <c r="M140" s="125"/>
       <c r="N140" s="74" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O140" s="55" t="s">
         <v>51</v>
@@ -13139,7 +13296,7 @@
         <v>15</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H141" s="125"/>
       <c r="I141" s="125"/>
@@ -13777,23 +13934,23 @@
     </row>
     <row r="157" spans="1:19">
       <c r="A157" s="115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B157" s="109" t="s">
         <v>51</v>
       </c>
       <c r="C157" s="109"/>
       <c r="D157" s="109" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E157" s="109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F157" s="69">
         <v>1</v>
       </c>
       <c r="G157" s="69" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H157" s="109"/>
       <c r="I157" s="109">
@@ -13836,7 +13993,7 @@
         <v>2</v>
       </c>
       <c r="G158" s="69" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H158" s="111"/>
       <c r="I158" s="111"/>
@@ -13858,10 +14015,10 @@
       </c>
       <c r="C159" s="69"/>
       <c r="D159" s="64" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E159" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F159" s="69"/>
       <c r="G159" s="69"/>
@@ -13905,10 +14062,10 @@
       </c>
       <c r="C160" s="69"/>
       <c r="D160" s="64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E160" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F160" s="69"/>
       <c r="G160" s="69"/>
@@ -13952,10 +14109,10 @@
       </c>
       <c r="C161" s="69"/>
       <c r="D161" s="64" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E161" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F161" s="69"/>
       <c r="G161" s="69"/>
@@ -13999,10 +14156,10 @@
       </c>
       <c r="C162" s="69"/>
       <c r="D162" s="64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E162" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F162" s="69"/>
       <c r="G162" s="69"/>
@@ -14046,10 +14203,10 @@
       </c>
       <c r="C163" s="69"/>
       <c r="D163" s="64" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E163" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F163" s="69"/>
       <c r="G163" s="69"/>
@@ -14093,10 +14250,10 @@
       </c>
       <c r="C164" s="69"/>
       <c r="D164" s="64" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E164" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F164" s="69"/>
       <c r="G164" s="69"/>
@@ -14142,10 +14299,10 @@
       </c>
       <c r="C165" s="69"/>
       <c r="D165" s="64" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E165" s="69" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F165" s="69"/>
       <c r="G165" s="69"/>
@@ -14191,10 +14348,10 @@
       </c>
       <c r="C166" s="109"/>
       <c r="D166" s="109" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E166" s="109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F166" s="69">
         <v>1</v>
@@ -14265,10 +14422,10 @@
       </c>
       <c r="C168" s="69"/>
       <c r="D168" s="64" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E168" s="69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F168" s="69"/>
       <c r="G168" s="69"/>
@@ -14314,10 +14471,10 @@
       </c>
       <c r="C169" s="69"/>
       <c r="D169" s="64" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E169" s="69" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F169" s="69"/>
       <c r="G169" s="69"/>
@@ -14363,10 +14520,10 @@
       </c>
       <c r="C170" s="109"/>
       <c r="D170" s="109" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E170" s="109" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F170" s="69">
         <v>1</v>
@@ -14437,10 +14594,10 @@
       </c>
       <c r="C172" s="69"/>
       <c r="D172" s="64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E172" s="69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F172" s="69"/>
       <c r="G172" s="69"/>
@@ -14484,10 +14641,10 @@
       </c>
       <c r="C173" s="69"/>
       <c r="D173" s="70" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E173" s="69" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F173" s="69"/>
       <c r="G173" s="69"/>
@@ -14822,10 +14979,10 @@
   <dimension ref="A1:S101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -14893,19 +15050,19 @@
         <v>27</v>
       </c>
       <c r="N2" s="54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O2" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="P2" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="P2" s="54" t="s">
+      <c r="Q2" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="Q2" s="54" t="s">
+      <c r="R2" s="54" t="s">
         <v>233</v>
-      </c>
-      <c r="R2" s="54" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -15153,7 +15310,7 @@
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E8" s="34"/>
       <c r="F8" s="35" t="s">
@@ -15201,7 +15358,7 @@
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" s="34"/>
       <c r="F9" s="35"/>
@@ -15247,7 +15404,7 @@
       </c>
       <c r="C10" s="43"/>
       <c r="D10" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="35"/>
@@ -15293,7 +15450,7 @@
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E11" s="34"/>
       <c r="F11" s="35"/>
@@ -15339,13 +15496,13 @@
       </c>
       <c r="C12" s="62"/>
       <c r="D12" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F12" s="62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G12" s="36"/>
       <c r="H12" s="62">
@@ -15425,11 +15582,11 @@
       </c>
       <c r="C14" s="43"/>
       <c r="D14" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E14" s="43"/>
       <c r="F14" s="43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G14" s="43"/>
       <c r="H14" s="43">
@@ -15935,7 +16092,7 @@
       </c>
       <c r="E25" s="36"/>
       <c r="F25" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G25" s="36">
         <v>1</v>
@@ -16310,7 +16467,7 @@
         <v>154</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35">
@@ -16360,7 +16517,7 @@
         <v>155</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35">
@@ -16412,7 +16569,7 @@
         <v>156</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35">
@@ -16464,7 +16621,7 @@
         <v>79</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35">
@@ -16514,7 +16671,7 @@
         <v>151</v>
       </c>
       <c r="E37" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F37" s="35"/>
       <c r="G37" s="35">
@@ -16566,7 +16723,7 @@
         <v>153</v>
       </c>
       <c r="E38" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F38" s="35"/>
       <c r="G38" s="35">
@@ -16618,7 +16775,7 @@
         <v>80</v>
       </c>
       <c r="E39" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F39" s="35"/>
       <c r="G39" s="35">
@@ -16668,7 +16825,7 @@
         <v>163</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F40" s="35"/>
       <c r="G40" s="35">
@@ -16720,7 +16877,7 @@
         <v>164</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F41" s="35"/>
       <c r="G41" s="35">
@@ -17002,7 +17159,7 @@
         <v>85</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
@@ -17050,7 +17207,7 @@
         <v>86</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
@@ -17098,7 +17255,7 @@
         <v>87</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
@@ -17146,7 +17303,7 @@
         <v>157</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
@@ -17196,7 +17353,7 @@
         <v>158</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F51" s="35"/>
       <c r="G51" s="35"/>
@@ -18523,7 +18680,7 @@
         <v>145</v>
       </c>
       <c r="F79" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G79" s="35">
         <v>2</v>
@@ -18926,20 +19083,20 @@
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B88" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C88" s="62"/>
       <c r="D88" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E88" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F88" s="62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G88" s="36"/>
       <c r="H88" s="62">
@@ -18974,17 +19131,17 @@
     </row>
     <row r="89" spans="1:18" ht="19.5">
       <c r="A89" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B89" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C89" s="62"/>
       <c r="D89" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E89" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
@@ -19022,17 +19179,17 @@
     </row>
     <row r="90" spans="1:18" ht="19.5">
       <c r="A90" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B90" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C90" s="62"/>
       <c r="D90" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E90" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
@@ -19070,17 +19227,17 @@
     </row>
     <row r="91" spans="1:18" ht="19.5">
       <c r="A91" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B91" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C91" s="62"/>
       <c r="D91" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E91" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
@@ -19118,17 +19275,17 @@
     </row>
     <row r="92" spans="1:18" ht="19.5">
       <c r="A92" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B92" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C92" s="62"/>
       <c r="D92" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E92" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
@@ -19166,17 +19323,17 @@
     </row>
     <row r="93" spans="1:18" ht="19.5">
       <c r="A93" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B93" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C93" s="62"/>
       <c r="D93" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E93" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
@@ -19214,17 +19371,17 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B94" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C94" s="62"/>
       <c r="D94" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E94" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
@@ -19264,17 +19421,17 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B95" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C95" s="62"/>
       <c r="D95" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E95" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
@@ -19314,17 +19471,17 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B96" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C96" s="62"/>
       <c r="D96" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E96" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F96" s="35" t="s">
         <v>167</v>
@@ -19362,17 +19519,17 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B97" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C97" s="62"/>
       <c r="D97" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E97" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F97" s="35"/>
       <c r="G97" s="35"/>
@@ -19412,17 +19569,17 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B98" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C98" s="62"/>
       <c r="D98" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E98" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F98" s="35"/>
       <c r="G98" s="35"/>
@@ -19462,17 +19619,17 @@
     </row>
     <row r="99" spans="1:18">
       <c r="A99" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B99" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C99" s="62"/>
       <c r="D99" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E99" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F99" s="35" t="s">
         <v>167</v>
@@ -19510,17 +19667,17 @@
     </row>
     <row r="100" spans="1:18">
       <c r="A100" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B100" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C100" s="62"/>
       <c r="D100" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E100" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F100" s="35"/>
       <c r="G100" s="35"/>
@@ -19558,17 +19715,17 @@
     </row>
     <row r="101" spans="1:18">
       <c r="A101" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B101" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C101" s="62"/>
       <c r="D101" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E101" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F101" s="35"/>
       <c r="G101" s="35"/>
@@ -19621,7 +19778,7 @@
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -19648,7 +19805,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>166</v>
@@ -19683,10 +19840,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="79" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="80" t="s">
         <v>282</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>283</v>
       </c>
       <c r="E3" s="29">
         <v>6</v>
@@ -19710,10 +19867,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="36"/>
@@ -19740,10 +19897,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -19770,10 +19927,10 @@
         <v>28</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -19797,16 +19954,16 @@
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1">
       <c r="A7" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="62">
@@ -19827,13 +19984,13 @@
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A8" s="68" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>249</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>250</v>
-      </c>
       <c r="C8" s="78" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -19857,13 +20014,13 @@
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A9" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -19887,13 +20044,13 @@
     </row>
     <row r="10" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A10" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -19917,13 +20074,13 @@
     </row>
     <row r="11" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A11" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -19947,13 +20104,13 @@
     </row>
     <row r="12" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A12" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
@@ -19977,13 +20134,13 @@
     </row>
     <row r="13" spans="1:13" s="19" customFormat="1">
       <c r="A13" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -20003,19 +20160,19 @@
         <v>38</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13" s="19" customFormat="1">
       <c r="A14" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -20035,22 +20192,22 @@
         <v>38</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13" s="19" customFormat="1">
       <c r="A15" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E15" s="36"/>
       <c r="F15" s="62">
@@ -20071,13 +20228,13 @@
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1">
       <c r="A16" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -20097,19 +20254,19 @@
         <v>38</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13" s="19" customFormat="1">
       <c r="A17" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -20129,22 +20286,22 @@
         <v>38</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M17" s="38"/>
     </row>
     <row r="18" spans="1:13" s="19" customFormat="1">
       <c r="A18" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E18" s="36"/>
       <c r="F18" s="62">
@@ -20165,13 +20322,13 @@
     </row>
     <row r="19" spans="1:13" s="19" customFormat="1">
       <c r="A19" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
@@ -20191,19 +20348,19 @@
         <v>203</v>
       </c>
       <c r="K19" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M19" s="38"/>
     </row>
     <row r="20" spans="1:13" s="19" customFormat="1">
       <c r="A20" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B20" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -20223,7 +20380,7 @@
         <v>203</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M20" s="38"/>
     </row>
@@ -20237,14 +20394,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D522F8-64CF-4EEA-A5EC-3F34B1E07BF7}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:Q77"/>
+  <dimension ref="A2:Q78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
+      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -20271,7 +20428,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D2" s="87" t="s">
         <v>166</v>
@@ -20306,10 +20463,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="87" t="s">
         <v>282</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>283</v>
       </c>
       <c r="E3" s="85">
         <v>6</v>
@@ -20326,7 +20483,7 @@
       <c r="I3" s="85"/>
       <c r="J3" s="85"/>
       <c r="K3" s="85" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="19" customFormat="1">
@@ -20334,13 +20491,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="84" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" s="84" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>284</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>285</v>
       </c>
       <c r="E4" s="36">
         <v>2</v>
@@ -20359,7 +20516,7 @@
         <v>38</v>
       </c>
       <c r="K4" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="19" customFormat="1" ht="19.5">
@@ -20367,10 +20524,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -20390,7 +20547,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17" s="19" customFormat="1" ht="19.5">
@@ -20398,10 +20555,10 @@
         <v>28</v>
       </c>
       <c r="B6" s="84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -20421,7 +20578,7 @@
         <v>26</v>
       </c>
       <c r="K6" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:17" s="19" customFormat="1" ht="19.5">
@@ -20429,10 +20586,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="84" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" s="84" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -20452,18 +20609,18 @@
         <v>26</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B8" s="87" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
@@ -20475,21 +20632,21 @@
       <c r="I8" s="87"/>
       <c r="J8" s="87"/>
       <c r="K8" s="87" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D9" s="87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E9" s="87"/>
       <c r="F9" s="87">
@@ -20506,7 +20663,7 @@
         <v>38</v>
       </c>
       <c r="K9" s="87" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M9" s="38"/>
       <c r="N9" s="19"/>
@@ -20516,16 +20673,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>207</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E10" s="36">
         <v>1</v>
@@ -20544,21 +20701,21 @@
         <v>38</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E11" s="35">
         <v>1</v>
@@ -20577,21 +20734,21 @@
         <v>38</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="92" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B12" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>453</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>454</v>
       </c>
       <c r="E12" s="35">
         <v>1</v>
@@ -20610,21 +20767,21 @@
         <v>38</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="92" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>456</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>457</v>
       </c>
       <c r="E13" s="35">
         <v>1</v>
@@ -20643,21 +20800,21 @@
         <v>38</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>186</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E14" s="35">
         <v>2</v>
@@ -20676,18 +20833,18 @@
         <v>38</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="19.5">
       <c r="A15" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B15" s="87" t="s">
         <v>129</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D15" s="87"/>
       <c r="E15" s="87"/>
@@ -20707,18 +20864,18 @@
         <v>26</v>
       </c>
       <c r="K15" s="87" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="19.5">
       <c r="A16" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -20738,21 +20895,21 @@
         <v>76</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="87">
@@ -20769,21 +20926,21 @@
         <v>38</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="87">
@@ -20800,21 +20957,21 @@
         <v>38</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="87">
@@ -20831,21 +20988,21 @@
         <v>38</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="87">
@@ -20862,18 +21019,18 @@
         <v>38</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="19.5">
       <c r="A21" s="90" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
@@ -20893,18 +21050,18 @@
         <v>76</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="19.5">
       <c r="A22" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -20924,18 +21081,18 @@
         <v>76</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="85" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="40"/>
@@ -20955,21 +21112,21 @@
         <v>38</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="85" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="87">
@@ -20984,21 +21141,21 @@
       <c r="I24" s="37"/>
       <c r="J24" s="36"/>
       <c r="K24" s="35" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="90" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="91">
@@ -21013,21 +21170,21 @@
       <c r="I25" s="37"/>
       <c r="J25" s="36"/>
       <c r="K25" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="90" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="91">
@@ -21042,21 +21199,21 @@
       <c r="I26" s="37"/>
       <c r="J26" s="36"/>
       <c r="K26" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="90" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="91">
@@ -21071,18 +21228,18 @@
       <c r="I27" s="37"/>
       <c r="J27" s="36"/>
       <c r="K27" s="35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B28" s="87" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D28" s="87"/>
       <c r="E28" s="87"/>
@@ -21097,13 +21254,13 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B29" s="87" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C29" s="93" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -21126,13 +21283,13 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B30" s="87" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C30" s="93" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D30" s="87"/>
       <c r="E30" s="87"/>
@@ -21155,13 +21312,13 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B31" s="87" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C31" s="93" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D31" s="87"/>
       <c r="E31" s="87"/>
@@ -21182,16 +21339,16 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="94" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E32" s="95"/>
       <c r="F32" s="95">
@@ -21208,18 +21365,18 @@
         <v>38</v>
       </c>
       <c r="K32" s="35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="19" customFormat="1">
       <c r="A33" s="94" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B33" s="35" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -21239,18 +21396,18 @@
         <v>45</v>
       </c>
       <c r="K33" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="19" customFormat="1">
       <c r="A34" s="94" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B34" s="35" t="s">
         <v>86</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -21270,18 +21427,18 @@
         <v>45</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="19" customFormat="1">
       <c r="A35" s="94" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B35" s="35" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -21301,18 +21458,18 @@
         <v>45</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>78</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -21324,21 +21481,21 @@
       <c r="I36" s="35"/>
       <c r="J36" s="35"/>
       <c r="K36" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B37" s="35" t="s">
         <v>186</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E37" s="35">
         <v>2</v>
@@ -21357,18 +21514,18 @@
         <v>38</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="19.5">
       <c r="A38" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B38" s="87" t="s">
         <v>129</v>
       </c>
       <c r="C38" s="87" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
@@ -21388,21 +21545,21 @@
         <v>26</v>
       </c>
       <c r="K38" s="87" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B39" s="87" t="s">
+        <v>389</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>491</v>
+      </c>
+      <c r="D39" s="87" t="s">
         <v>390</v>
-      </c>
-      <c r="C39" s="87" t="s">
-        <v>492</v>
-      </c>
-      <c r="D39" s="87" t="s">
-        <v>391</v>
       </c>
       <c r="E39" s="87"/>
       <c r="F39" s="87">
@@ -21420,16 +21577,16 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C40" s="87" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D40" s="87" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E40" s="87"/>
       <c r="F40" s="87">
@@ -21446,18 +21603,18 @@
         <v>38</v>
       </c>
       <c r="K40" s="86" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B41" s="35" t="s">
         <v>155</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35">
@@ -21479,18 +21636,18 @@
         <v>38</v>
       </c>
       <c r="K41" s="40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B42" s="35" t="s">
         <v>156</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35">
@@ -21512,18 +21669,18 @@
         <v>38</v>
       </c>
       <c r="K42" s="40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B43" s="35" t="s">
         <v>154</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35">
@@ -21545,21 +21702,21 @@
         <v>38</v>
       </c>
       <c r="K43" s="40" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B44" s="87" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C44" s="87" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D44" s="89" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E44" s="87"/>
       <c r="F44" s="87">
@@ -21576,21 +21733,21 @@
         <v>38</v>
       </c>
       <c r="K44" s="86" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B45" s="87" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C45" s="87" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D45" s="89" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E45" s="87"/>
       <c r="F45" s="87">
@@ -21607,21 +21764,21 @@
         <v>38</v>
       </c>
       <c r="K45" s="86" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B46" s="87" t="s">
+        <v>376</v>
+      </c>
+      <c r="C46" s="87" t="s">
+        <v>495</v>
+      </c>
+      <c r="D46" s="87" t="s">
         <v>377</v>
-      </c>
-      <c r="C46" s="87" t="s">
-        <v>496</v>
-      </c>
-      <c r="D46" s="87" t="s">
-        <v>378</v>
       </c>
       <c r="E46" s="87"/>
       <c r="F46" s="87">
@@ -21636,18 +21793,18 @@
       <c r="I46" s="87"/>
       <c r="J46" s="85"/>
       <c r="K46" s="86" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35">
@@ -21669,21 +21826,21 @@
         <v>38</v>
       </c>
       <c r="K47" s="40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B48" s="87" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C48" s="87" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D48" s="87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E48" s="87"/>
       <c r="F48" s="87">
@@ -21700,21 +21857,21 @@
         <v>38</v>
       </c>
       <c r="K48" s="86" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B49" s="87" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C49" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D49" s="89" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E49" s="89"/>
       <c r="F49" s="89">
@@ -21731,21 +21888,21 @@
         <v>38</v>
       </c>
       <c r="K49" s="86" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B50" s="87" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C50" s="87" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D50" s="87" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E50" s="87"/>
       <c r="F50" s="87">
@@ -21760,18 +21917,18 @@
       <c r="I50" s="87"/>
       <c r="J50" s="85"/>
       <c r="K50" s="86" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35">
@@ -21793,21 +21950,21 @@
         <v>38</v>
       </c>
       <c r="K51" s="86" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B52" s="87" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C52" s="87" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D52" s="87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87">
@@ -21824,21 +21981,21 @@
         <v>38</v>
       </c>
       <c r="K52" s="86" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B53" s="87" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C53" s="87" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D53" s="89" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E53" s="89"/>
       <c r="F53" s="89">
@@ -21855,21 +22012,21 @@
         <v>38</v>
       </c>
       <c r="K53" s="86" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B54" s="87" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C54" s="87" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D54" s="87" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E54" s="87"/>
       <c r="F54" s="87">
@@ -21884,18 +22041,18 @@
       <c r="I54" s="87"/>
       <c r="J54" s="85"/>
       <c r="K54" s="86" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="19.5">
       <c r="A55" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35">
@@ -21917,21 +22074,21 @@
         <v>76</v>
       </c>
       <c r="K55" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="85" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E56" s="87"/>
       <c r="F56" s="87">
@@ -21948,18 +22105,18 @@
         <v>38</v>
       </c>
       <c r="K56" s="35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="19" customFormat="1">
       <c r="A57" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B57" s="35" t="s">
         <v>85</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -21979,18 +22136,18 @@
         <v>45</v>
       </c>
       <c r="K57" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="19" customFormat="1">
       <c r="A58" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>86</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
@@ -22010,18 +22167,18 @@
         <v>45</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="19" customFormat="1">
       <c r="A59" s="85" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>87</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -22041,18 +22198,18 @@
         <v>45</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>78</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -22064,21 +22221,21 @@
       <c r="I60" s="35"/>
       <c r="J60" s="35"/>
       <c r="K60" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B61" s="35" t="s">
         <v>186</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D61" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E61" s="35">
         <v>2</v>
@@ -22097,18 +22254,18 @@
         <v>38</v>
       </c>
       <c r="K61" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="19.5">
       <c r="A62" s="85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B62" s="87" t="s">
         <v>129</v>
       </c>
       <c r="C62" s="87" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D62" s="87"/>
       <c r="E62" s="87"/>
@@ -22128,18 +22285,18 @@
         <v>26</v>
       </c>
       <c r="K62" s="87" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="19.5">
       <c r="A63" s="85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B63" s="35" t="s">
         <v>81</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35">
@@ -22161,21 +22318,21 @@
         <v>76</v>
       </c>
       <c r="K63" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E64" s="87"/>
       <c r="F64" s="87">
@@ -22192,18 +22349,18 @@
         <v>38</v>
       </c>
       <c r="K64" s="35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="19" customFormat="1">
       <c r="A65" s="85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B65" s="35" t="s">
         <v>85</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -22223,18 +22380,18 @@
         <v>45</v>
       </c>
       <c r="K65" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="19" customFormat="1">
       <c r="A66" s="85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B66" s="35" t="s">
         <v>86</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -22254,18 +22411,18 @@
         <v>45</v>
       </c>
       <c r="K66" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="19" customFormat="1">
       <c r="A67" s="85" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B67" s="35" t="s">
         <v>87</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
@@ -22285,21 +22442,21 @@
         <v>45</v>
       </c>
       <c r="K67" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="19" customFormat="1">
       <c r="A68" s="88" t="s">
+        <v>406</v>
+      </c>
+      <c r="B68" s="35" t="s">
         <v>407</v>
       </c>
-      <c r="B68" s="35" t="s">
-        <v>408</v>
-      </c>
       <c r="C68" s="35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E68" s="35"/>
       <c r="F68" s="35">
@@ -22313,21 +22470,21 @@
       </c>
       <c r="I68" s="37"/>
       <c r="J68" s="35" t="s">
+        <v>410</v>
+      </c>
+      <c r="K68" s="35" t="s">
         <v>411</v>
-      </c>
-      <c r="K68" s="35" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" s="85" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B69" s="35" t="s">
         <v>198</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -22347,18 +22504,18 @@
         <v>201</v>
       </c>
       <c r="K69" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="85" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B70" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -22378,21 +22535,21 @@
         <v>203</v>
       </c>
       <c r="K70" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="B71" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="B71" s="35" t="s">
-        <v>291</v>
-      </c>
       <c r="C71" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E71" s="35">
         <v>2</v>
@@ -22411,21 +22568,21 @@
         <v>38</v>
       </c>
       <c r="K71" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="87" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E72" s="35">
         <v>2</v>
@@ -22444,18 +22601,18 @@
         <v>38</v>
       </c>
       <c r="K72" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="98" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -22467,128 +22624,151 @@
       <c r="I73" s="35"/>
       <c r="J73" s="35"/>
       <c r="K73" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="95" t="s">
-        <v>406</v>
+      <c r="A74" s="98" t="s">
+        <v>405</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>532</v>
-      </c>
-      <c r="C74" s="95" t="s">
-        <v>533</v>
+        <v>186</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>534</v>
       </c>
       <c r="D74" s="35" t="s">
-        <v>534</v>
-      </c>
-      <c r="E74" s="35"/>
+        <v>297</v>
+      </c>
+      <c r="E74" s="35">
+        <v>2</v>
+      </c>
       <c r="F74" s="35">
         <v>1</v>
       </c>
       <c r="G74" s="35">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H74" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I74" s="37"/>
+      <c r="I74" s="35"/>
       <c r="J74" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K74" s="35" t="s">
-        <v>280</v>
-      </c>
+      <c r="K74" s="35"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="98" t="s">
-        <v>406</v>
+      <c r="A75" s="89" t="s">
+        <v>405</v>
       </c>
       <c r="B75" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C75" s="35" t="s">
-        <v>538</v>
-      </c>
-      <c r="D75" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E75" s="35">
-        <v>2</v>
-      </c>
-      <c r="F75" s="35">
-        <v>1</v>
-      </c>
-      <c r="G75" s="35">
-        <v>14</v>
+        <v>198</v>
+      </c>
+      <c r="C75" s="89" t="s">
+        <v>522</v>
+      </c>
+      <c r="D75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G75" s="35" t="s">
+        <v>200</v>
       </c>
       <c r="H75" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I75" s="35"/>
+        <v>191</v>
+      </c>
+      <c r="I75" s="37">
+        <v>3</v>
+      </c>
       <c r="J75" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K75" s="35"/>
+        <v>201</v>
+      </c>
+      <c r="K75" s="89"/>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="89" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B76" s="35" t="s">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="C76" s="89" t="s">
         <v>523</v>
       </c>
       <c r="D76" s="89"/>
       <c r="E76" s="89"/>
-      <c r="F76" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="G76" s="35" t="s">
-        <v>200</v>
+      <c r="F76" s="35">
+        <v>0</v>
+      </c>
+      <c r="G76" s="35">
+        <v>10</v>
       </c>
       <c r="H76" s="35" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="I76" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J76" s="35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K76" s="89"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="89" t="s">
-        <v>406</v>
-      </c>
-      <c r="B77" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C77" s="89" t="s">
-        <v>524</v>
-      </c>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="35">
-        <v>0</v>
-      </c>
-      <c r="G77" s="35">
+      <c r="A77" s="107" t="s">
+        <v>558</v>
+      </c>
+      <c r="B77" s="107" t="s">
+        <v>564</v>
+      </c>
+      <c r="C77" s="107" t="s">
+        <v>559</v>
+      </c>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
+      <c r="H77" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="H77" s="35" t="s">
+      <c r="I77" s="35"/>
+      <c r="J77" s="35"/>
+      <c r="K77" s="35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="19.5">
+      <c r="A78" s="107" t="s">
+        <v>558</v>
+      </c>
+      <c r="B78" s="107" t="s">
+        <v>560</v>
+      </c>
+      <c r="C78" s="107" t="s">
+        <v>561</v>
+      </c>
+      <c r="D78" s="107"/>
+      <c r="E78" s="107"/>
+      <c r="F78" s="107">
+        <v>0</v>
+      </c>
+      <c r="G78" s="107">
+        <v>99</v>
+      </c>
+      <c r="H78" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="I77" s="37">
+      <c r="I78" s="5">
         <v>2</v>
       </c>
-      <c r="J77" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="K77" s="89"/>
+      <c r="J78" s="107" t="s">
+        <v>26</v>
+      </c>
+      <c r="K78" s="107" t="s">
+        <v>279</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -22600,13 +22780,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883AEBD5-B255-4B86-ABCF-F48DF2A77A1E}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:Q83"/>
+  <dimension ref="A2:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D57" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A63" sqref="A63:D71"/>
+      <selection pane="bottomRight" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -22633,7 +22813,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="98" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>166</v>
@@ -22668,10 +22848,10 @@
         <v>29</v>
       </c>
       <c r="C3" s="97" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="98" t="s">
         <v>282</v>
-      </c>
-      <c r="D3" s="98" t="s">
-        <v>283</v>
       </c>
       <c r="E3" s="29">
         <v>6</v>
@@ -22694,13 +22874,13 @@
         <v>28</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" s="99" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" s="35" t="s">
         <v>284</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>285</v>
       </c>
       <c r="E4" s="36">
         <v>2</v>
@@ -22725,10 +22905,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="99" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D5" s="35"/>
       <c r="E5" s="36"/>
@@ -22754,10 +22934,10 @@
         <v>28</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="99" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D6" s="35"/>
       <c r="E6" s="36"/>
@@ -22783,10 +22963,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C7" s="99" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D7" s="35"/>
       <c r="E7" s="36"/>
@@ -22809,13 +22989,13 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="100" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B8" s="101" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D8" s="101"/>
       <c r="E8" s="101"/>
@@ -22827,21 +23007,21 @@
       <c r="I8" s="101"/>
       <c r="J8" s="101"/>
       <c r="K8" s="101" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="49" customFormat="1">
       <c r="A9" s="100" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B9" s="101" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D9" s="101" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E9" s="101"/>
       <c r="F9" s="101">
@@ -22858,7 +23038,7 @@
         <v>38</v>
       </c>
       <c r="K9" s="101" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M9" s="38"/>
       <c r="N9" s="19"/>
@@ -22868,16 +23048,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="100" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>207</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E10" s="36">
         <v>1</v>
@@ -22896,21 +23076,21 @@
         <v>38</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="58" customFormat="1">
       <c r="A11" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E11" s="35">
         <v>1</v>
@@ -22929,21 +23109,21 @@
         <v>38</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="58" customFormat="1">
       <c r="A12" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B12" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>473</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>453</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>454</v>
       </c>
       <c r="E12" s="35">
         <v>1</v>
@@ -22962,21 +23142,21 @@
         <v>38</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1">
       <c r="A13" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B13" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>456</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>473</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>457</v>
       </c>
       <c r="E13" s="35">
         <v>1</v>
@@ -22995,21 +23175,21 @@
         <v>38</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="58" customFormat="1">
       <c r="A14" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>186</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E14" s="35">
         <v>2</v>
@@ -23028,18 +23208,18 @@
         <v>38</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="58" customFormat="1" ht="19.5">
       <c r="A15" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B15" s="104" t="s">
         <v>129</v>
       </c>
       <c r="C15" s="104" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D15" s="104"/>
       <c r="E15" s="104"/>
@@ -23059,21 +23239,21 @@
         <v>26</v>
       </c>
       <c r="K15" s="104" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:17" s="58" customFormat="1">
       <c r="A16" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="E16" s="36">
         <v>1</v>
@@ -23091,81 +23271,79 @@
       <c r="J16" s="36"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" s="58" customFormat="1">
-      <c r="A17" s="105" t="s">
-        <v>289</v>
+    <row r="17" spans="1:11" ht="19.5">
+      <c r="A17" s="100" t="s">
+        <v>288</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>553</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>222</v>
-      </c>
-      <c r="E17" s="35">
-        <v>4</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>469</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
       <c r="F17" s="35">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G17" s="35">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H17" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="37">
+        <v>2</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="58" customFormat="1">
+      <c r="A18" s="102" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>468</v>
+      </c>
+      <c r="D18" s="107" t="s">
+        <v>425</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="104">
+        <v>1</v>
+      </c>
+      <c r="G18" s="104">
+        <v>7</v>
+      </c>
+      <c r="H18" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="106" t="s">
+      <c r="I18" s="37"/>
+      <c r="J18" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="106" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="19.5">
-      <c r="A18" s="100" t="s">
-        <v>289</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>470</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35">
-        <v>0</v>
-      </c>
-      <c r="G18" s="35">
-        <v>10</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="37">
-        <v>2</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>76</v>
-      </c>
       <c r="K18" s="35" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="58" customFormat="1">
       <c r="A19" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>361</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>469</v>
-      </c>
-      <c r="D19" s="104" t="s">
+        <v>467</v>
+      </c>
+      <c r="D19" s="35" t="s">
         <v>426</v>
       </c>
       <c r="E19" s="40"/>
@@ -23173,7 +23351,7 @@
         <v>1</v>
       </c>
       <c r="G19" s="104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H19" s="36" t="s">
         <v>11</v>
@@ -23183,28 +23361,28 @@
         <v>38</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="58" customFormat="1">
       <c r="A20" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>362</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>427</v>
+        <v>385</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="104">
         <v>1</v>
       </c>
       <c r="G20" s="104">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H20" s="36" t="s">
         <v>11</v>
@@ -23219,23 +23397,23 @@
     </row>
     <row r="21" spans="1:11" s="58" customFormat="1">
       <c r="A21" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>363</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="104">
         <v>1</v>
       </c>
       <c r="G21" s="104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" s="36" t="s">
         <v>11</v>
@@ -23248,46 +23426,46 @@
         <v>447</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="58" customFormat="1">
+    <row r="22" spans="1:11" s="58" customFormat="1" ht="19.5">
       <c r="A22" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>364</v>
+        <v>428</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>466</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>428</v>
-      </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="104">
-        <v>1</v>
-      </c>
-      <c r="G22" s="104">
+        <v>464</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35">
+        <v>0</v>
+      </c>
+      <c r="G22" s="35">
+        <v>10</v>
+      </c>
+      <c r="H22" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="37">
         <v>2</v>
       </c>
-      <c r="H22" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="37"/>
-      <c r="J22" s="36" t="s">
-        <v>38</v>
+      <c r="J22" s="35" t="s">
+        <v>76</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="58" customFormat="1" ht="19.5">
       <c r="A23" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>429</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -23307,74 +23485,72 @@
         <v>76</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="58" customFormat="1" ht="19.5">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="58" customFormat="1">
       <c r="A24" s="102" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>430</v>
+        <v>336</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
+      <c r="E24" s="40"/>
       <c r="F24" s="35">
         <v>0</v>
       </c>
       <c r="G24" s="35">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H24" s="35" t="s">
         <v>22</v>
       </c>
       <c r="I24" s="37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>459</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="58" customFormat="1">
       <c r="A25" s="102" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>337</v>
+        <v>434</v>
       </c>
       <c r="C25" s="35" t="s">
         <v>477</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="35" t="s">
+        <v>438</v>
+      </c>
       <c r="E25" s="40"/>
-      <c r="F25" s="35">
-        <v>0</v>
-      </c>
-      <c r="G25" s="35">
-        <v>1</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="37">
-        <v>3</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>38</v>
-      </c>
+      <c r="F25" s="104">
+        <v>1</v>
+      </c>
+      <c r="G25" s="104">
+        <v>6</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="37"/>
+      <c r="J25" s="36"/>
       <c r="K25" s="35" t="s">
-        <v>557</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="58" customFormat="1">
       <c r="A26" s="102" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>435</v>
@@ -23390,7 +23566,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="104">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H26" s="36" t="s">
         <v>11</v>
@@ -23398,12 +23574,12 @@
       <c r="I26" s="37"/>
       <c r="J26" s="36"/>
       <c r="K26" s="35" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="58" customFormat="1">
       <c r="A27" s="102" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>436</v>
@@ -23419,7 +23595,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="104">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H27" s="36" t="s">
         <v>11</v>
@@ -23432,7 +23608,7 @@
     </row>
     <row r="28" spans="1:11" s="58" customFormat="1">
       <c r="A28" s="102" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B28" s="35" t="s">
         <v>437</v>
@@ -23448,7 +23624,7 @@
         <v>1</v>
       </c>
       <c r="G28" s="104">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>11</v>
@@ -23459,62 +23635,62 @@
         <v>447</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="58" customFormat="1">
-      <c r="A29" s="102" t="s">
-        <v>333</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>438</v>
-      </c>
-      <c r="C29" s="35" t="s">
+    <row r="29" spans="1:11">
+      <c r="A29" s="100" t="s">
+        <v>288</v>
+      </c>
+      <c r="B29" s="101" t="s">
+        <v>337</v>
+      </c>
+      <c r="C29" s="101" t="s">
         <v>481</v>
       </c>
-      <c r="D29" s="35" t="s">
-        <v>442</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="F29" s="104">
-        <v>1</v>
-      </c>
-      <c r="G29" s="104">
-        <v>6</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" s="37"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="35" t="s">
-        <v>448</v>
-      </c>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="35"/>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="100" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B30" s="101" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C30" s="101" t="s">
         <v>482</v>
       </c>
       <c r="D30" s="101"/>
       <c r="E30" s="101"/>
-      <c r="F30" s="101"/>
-      <c r="G30" s="101"/>
+      <c r="F30" s="101">
+        <v>0</v>
+      </c>
+      <c r="G30" s="101">
+        <v>9999</v>
+      </c>
       <c r="H30" s="101" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="101"/>
-      <c r="J30" s="101"/>
+        <v>22</v>
+      </c>
+      <c r="I30" s="5">
+        <v>2</v>
+      </c>
+      <c r="J30" s="101" t="s">
+        <v>70</v>
+      </c>
       <c r="K30" s="35"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="100" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B31" s="101" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C31" s="101" t="s">
         <v>483</v>
@@ -23522,25 +23698,25 @@
       <c r="D31" s="101"/>
       <c r="E31" s="101"/>
       <c r="F31" s="101">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G31" s="101">
-        <v>9999</v>
+        <v>370</v>
       </c>
       <c r="H31" s="101" t="s">
         <v>22</v>
       </c>
       <c r="I31" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" s="101" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K31" s="35"/>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="100" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B32" s="101" t="s">
         <v>334</v>
@@ -23551,86 +23727,88 @@
       <c r="D32" s="101"/>
       <c r="E32" s="101"/>
       <c r="F32" s="101">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G32" s="101">
-        <v>370</v>
+        <v>4000</v>
       </c>
       <c r="H32" s="101" t="s">
-        <v>22</v>
-      </c>
-      <c r="I32" s="5">
-        <v>3</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I32" s="101"/>
       <c r="J32" s="101" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K32" s="35"/>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="100" t="s">
-        <v>289</v>
-      </c>
-      <c r="B33" s="101" t="s">
-        <v>335</v>
-      </c>
-      <c r="C33" s="101" t="s">
-        <v>485</v>
-      </c>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101">
-        <v>0</v>
-      </c>
-      <c r="G33" s="101">
-        <v>4000</v>
-      </c>
-      <c r="H33" s="101" t="s">
+    <row r="33" spans="1:11" s="58" customFormat="1">
+      <c r="A33" s="102" t="s">
+        <v>288</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>526</v>
+      </c>
+      <c r="D33" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="E33" s="104"/>
+      <c r="F33" s="104">
+        <v>1</v>
+      </c>
+      <c r="G33" s="104">
+        <v>2</v>
+      </c>
+      <c r="H33" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101" t="s">
-        <v>68</v>
-      </c>
-      <c r="K33" s="35"/>
-    </row>
-    <row r="34" spans="1:11" s="58" customFormat="1">
+      <c r="I33" s="104"/>
+      <c r="J33" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="35" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="19" customFormat="1">
       <c r="A34" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B34" s="35" t="s">
-        <v>415</v>
+        <v>85</v>
       </c>
       <c r="C34" s="35" t="s">
         <v>527</v>
       </c>
-      <c r="D34" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104">
-        <v>1</v>
-      </c>
-      <c r="G34" s="104">
-        <v>2</v>
-      </c>
-      <c r="H34" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="I34" s="104"/>
-      <c r="J34" s="102" t="s">
-        <v>38</v>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35">
+        <v>0</v>
+      </c>
+      <c r="G34" s="35">
+        <v>15</v>
+      </c>
+      <c r="H34" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="37">
+        <v>3</v>
+      </c>
+      <c r="J34" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="19" customFormat="1">
       <c r="A35" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B35" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="35" t="s">
         <v>528</v>
@@ -23641,7 +23819,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="35">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H35" s="35" t="s">
         <v>22</v>
@@ -23653,15 +23831,15 @@
         <v>45</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="19" customFormat="1">
       <c r="A36" s="102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C36" s="35" t="s">
         <v>529</v>
@@ -23684,168 +23862,164 @@
         <v>45</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="19" customFormat="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="102" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>530</v>
+        <v>485</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
-      <c r="F37" s="35">
-        <v>0</v>
-      </c>
-      <c r="G37" s="35">
-        <v>2</v>
-      </c>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
       <c r="H37" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="37">
-        <v>3</v>
-      </c>
-      <c r="J37" s="35" t="s">
-        <v>45</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
       <c r="K37" s="35" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="58" customFormat="1">
       <c r="A38" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="C38" s="35" t="s">
         <v>486</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
+      <c r="D38" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E38" s="35">
+        <v>2</v>
+      </c>
+      <c r="F38" s="35">
+        <v>1</v>
+      </c>
+      <c r="G38" s="35">
+        <v>14</v>
+      </c>
       <c r="H38" s="35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
+      <c r="J38" s="35" t="s">
+        <v>38</v>
+      </c>
       <c r="K38" s="35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="58" customFormat="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="58" customFormat="1" ht="19.5">
       <c r="A39" s="102" t="s">
-        <v>299</v>
-      </c>
-      <c r="B39" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C39" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B39" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="104" t="s">
         <v>487</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="104"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="104">
+        <v>0</v>
+      </c>
+      <c r="G39" s="104">
+        <v>99</v>
+      </c>
+      <c r="H39" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="5">
+        <v>2</v>
+      </c>
+      <c r="J39" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="104" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="58" customFormat="1">
+      <c r="A40" s="102" t="s">
         <v>298</v>
       </c>
-      <c r="E39" s="35">
-        <v>2</v>
-      </c>
-      <c r="F39" s="35">
-        <v>1</v>
-      </c>
-      <c r="G39" s="35">
-        <v>14</v>
-      </c>
-      <c r="H39" s="35" t="s">
+      <c r="B40" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>547</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="E40" s="36">
+        <v>1</v>
+      </c>
+      <c r="F40" s="36">
+        <v>1</v>
+      </c>
+      <c r="G40" s="36">
+        <v>4</v>
+      </c>
+      <c r="H40" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K39" s="35" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="58" customFormat="1" ht="19.5">
-      <c r="A40" s="102" t="s">
-        <v>299</v>
-      </c>
-      <c r="B40" s="104" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="104" t="s">
-        <v>488</v>
-      </c>
-      <c r="D40" s="104"/>
-      <c r="E40" s="104"/>
-      <c r="F40" s="104">
-        <v>0</v>
-      </c>
-      <c r="G40" s="104">
-        <v>99</v>
-      </c>
-      <c r="H40" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="I40" s="5">
-        <v>2</v>
-      </c>
-      <c r="J40" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="K40" s="104" t="s">
-        <v>280</v>
-      </c>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="35"/>
     </row>
     <row r="41" spans="1:11" s="58" customFormat="1">
       <c r="A41" s="102" t="s">
-        <v>299</v>
-      </c>
-      <c r="B41" s="36" t="s">
-        <v>550</v>
-      </c>
-      <c r="C41" s="36" t="s">
-        <v>551</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>549</v>
-      </c>
-      <c r="E41" s="36">
-        <v>1</v>
-      </c>
-      <c r="F41" s="36">
-        <v>1</v>
-      </c>
-      <c r="G41" s="36">
-        <v>4</v>
-      </c>
-      <c r="H41" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="B41" s="104" t="s">
+        <v>389</v>
+      </c>
+      <c r="C41" s="104" t="s">
+        <v>491</v>
+      </c>
+      <c r="D41" s="104" t="s">
+        <v>390</v>
+      </c>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104">
+        <v>1</v>
+      </c>
+      <c r="G41" s="104">
+        <v>2</v>
+      </c>
+      <c r="H41" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="36"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="35"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="102"/>
+      <c r="K41" s="103"/>
     </row>
     <row r="42" spans="1:11" s="58" customFormat="1">
       <c r="A42" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B42" s="104" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="C42" s="104" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D42" s="104" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E42" s="104"/>
       <c r="F42" s="104">
@@ -23857,47 +24031,53 @@
       <c r="H42" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="5"/>
-      <c r="J42" s="102"/>
-      <c r="K42" s="103"/>
-    </row>
-    <row r="43" spans="1:11" s="58" customFormat="1">
+      <c r="I42" s="104"/>
+      <c r="J42" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" s="103" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="102" t="s">
-        <v>299</v>
-      </c>
-      <c r="B43" s="104" t="s">
-        <v>367</v>
-      </c>
-      <c r="C43" s="104" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="D43" s="104" t="s">
-        <v>376</v>
-      </c>
-      <c r="E43" s="104"/>
-      <c r="F43" s="104">
-        <v>1</v>
-      </c>
-      <c r="G43" s="104">
-        <v>2</v>
-      </c>
-      <c r="H43" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="I43" s="104"/>
-      <c r="J43" s="102" t="s">
+      <c r="D43" s="35"/>
+      <c r="E43" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F43" s="35">
+        <v>0</v>
+      </c>
+      <c r="G43" s="35">
+        <v>1</v>
+      </c>
+      <c r="H43" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="37">
+        <v>3</v>
+      </c>
+      <c r="J43" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="K43" s="103" t="s">
-        <v>368</v>
+      <c r="K43" s="40" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C44" s="35" t="s">
         <v>490</v>
@@ -23922,18 +24102,18 @@
         <v>38</v>
       </c>
       <c r="K44" s="40" t="s">
-        <v>349</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35">
@@ -23955,45 +24135,43 @@
         <v>38</v>
       </c>
       <c r="K45" s="40" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="58" customFormat="1">
       <c r="A46" s="102" t="s">
-        <v>299</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B46" s="104" t="s">
+        <v>368</v>
+      </c>
+      <c r="C46" s="104" t="s">
         <v>493</v>
       </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F46" s="35">
-        <v>0</v>
-      </c>
-      <c r="G46" s="35">
-        <v>1</v>
-      </c>
-      <c r="H46" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I46" s="37">
-        <v>3</v>
-      </c>
-      <c r="J46" s="35" t="s">
+      <c r="D46" s="104" t="s">
+        <v>374</v>
+      </c>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104">
+        <v>1</v>
+      </c>
+      <c r="G46" s="104">
+        <v>2</v>
+      </c>
+      <c r="H46" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="104"/>
+      <c r="J46" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="K46" s="40" t="s">
+      <c r="K46" s="103" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="58" customFormat="1">
       <c r="A47" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B47" s="104" t="s">
         <v>369</v>
@@ -24001,15 +24179,15 @@
       <c r="C47" s="104" t="s">
         <v>494</v>
       </c>
-      <c r="D47" s="104" t="s">
-        <v>375</v>
+      <c r="D47" s="107" t="s">
+        <v>417</v>
       </c>
       <c r="E47" s="104"/>
       <c r="F47" s="104">
         <v>1</v>
       </c>
       <c r="G47" s="104">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H47" s="104" t="s">
         <v>11</v>
@@ -24019,105 +24197,105 @@
         <v>38</v>
       </c>
       <c r="K47" s="103" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="58" customFormat="1">
       <c r="A48" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B48" s="104" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C48" s="104" t="s">
         <v>495</v>
       </c>
       <c r="D48" s="104" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="E48" s="104"/>
       <c r="F48" s="104">
         <v>1</v>
       </c>
       <c r="G48" s="104">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H48" s="104" t="s">
         <v>11</v>
       </c>
       <c r="I48" s="104"/>
-      <c r="J48" s="102" t="s">
-        <v>38</v>
-      </c>
+      <c r="J48" s="102"/>
       <c r="K48" s="103" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="58" customFormat="1">
       <c r="A49" s="102" t="s">
-        <v>299</v>
-      </c>
-      <c r="B49" s="104" t="s">
-        <v>377</v>
-      </c>
-      <c r="C49" s="104" t="s">
+        <v>298</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C49" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="D49" s="104" t="s">
-        <v>378</v>
-      </c>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104">
-        <v>1</v>
-      </c>
-      <c r="G49" s="104">
+      <c r="D49" s="35"/>
+      <c r="E49" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F49" s="35">
+        <v>0</v>
+      </c>
+      <c r="G49" s="35">
+        <v>1</v>
+      </c>
+      <c r="H49" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="37">
         <v>3</v>
       </c>
-      <c r="H49" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="I49" s="104"/>
-      <c r="J49" s="102"/>
-      <c r="K49" s="103" t="s">
-        <v>394</v>
+      <c r="J49" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" s="40" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="58" customFormat="1">
       <c r="A50" s="102" t="s">
-        <v>299</v>
-      </c>
-      <c r="B50" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B50" s="104" t="s">
         <v>395</v>
       </c>
-      <c r="C50" s="35" t="s">
+      <c r="C50" s="104" t="s">
         <v>497</v>
       </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F50" s="35">
-        <v>0</v>
-      </c>
-      <c r="G50" s="35">
-        <v>1</v>
-      </c>
-      <c r="H50" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I50" s="37">
-        <v>3</v>
-      </c>
-      <c r="J50" s="35" t="s">
+      <c r="D50" s="104" t="s">
+        <v>374</v>
+      </c>
+      <c r="E50" s="104"/>
+      <c r="F50" s="104">
+        <v>1</v>
+      </c>
+      <c r="G50" s="104">
+        <v>2</v>
+      </c>
+      <c r="H50" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I50" s="104"/>
+      <c r="J50" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="K50" s="40" t="s">
+      <c r="K50" s="103" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="58" customFormat="1">
       <c r="A51" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B51" s="104" t="s">
         <v>396</v>
@@ -24126,14 +24304,14 @@
         <v>498</v>
       </c>
       <c r="D51" s="104" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="E51" s="104"/>
       <c r="F51" s="104">
         <v>1</v>
       </c>
       <c r="G51" s="104">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H51" s="104" t="s">
         <v>11</v>
@@ -24143,12 +24321,12 @@
         <v>38</v>
       </c>
       <c r="K51" s="103" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="58" customFormat="1">
       <c r="A52" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B52" s="104" t="s">
         <v>397</v>
@@ -24157,107 +24335,107 @@
         <v>499</v>
       </c>
       <c r="D52" s="104" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="E52" s="104"/>
       <c r="F52" s="104">
         <v>1</v>
       </c>
       <c r="G52" s="104">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H52" s="104" t="s">
         <v>11</v>
       </c>
       <c r="I52" s="104"/>
-      <c r="J52" s="102" t="s">
-        <v>38</v>
-      </c>
+      <c r="J52" s="102"/>
       <c r="K52" s="103" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="58" customFormat="1">
       <c r="A53" s="102" t="s">
-        <v>299</v>
-      </c>
-      <c r="B53" s="104" t="s">
+        <v>298</v>
+      </c>
+      <c r="B53" s="35" t="s">
         <v>398</v>
       </c>
-      <c r="C53" s="104" t="s">
+      <c r="C53" s="35" t="s">
         <v>500</v>
       </c>
-      <c r="D53" s="104" t="s">
-        <v>378</v>
-      </c>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104">
-        <v>1</v>
-      </c>
-      <c r="G53" s="104">
+      <c r="D53" s="35"/>
+      <c r="E53" s="35">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="F53" s="35">
+        <v>0</v>
+      </c>
+      <c r="G53" s="35">
+        <v>1</v>
+      </c>
+      <c r="H53" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="37">
         <v>3</v>
       </c>
-      <c r="H53" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="I53" s="104"/>
-      <c r="J53" s="102"/>
+      <c r="J53" s="35" t="s">
+        <v>38</v>
+      </c>
       <c r="K53" s="103" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="58" customFormat="1">
       <c r="A54" s="102" t="s">
-        <v>299</v>
-      </c>
-      <c r="B54" s="35" t="s">
+        <v>298</v>
+      </c>
+      <c r="B54" s="104" t="s">
         <v>399</v>
       </c>
-      <c r="C54" s="35" t="s">
-        <v>501</v>
-      </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F54" s="35">
-        <v>0</v>
-      </c>
-      <c r="G54" s="35">
-        <v>1</v>
-      </c>
-      <c r="H54" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I54" s="37">
-        <v>3</v>
-      </c>
-      <c r="J54" s="35" t="s">
+      <c r="C54" s="104" t="s">
+        <v>502</v>
+      </c>
+      <c r="D54" s="104" t="s">
+        <v>374</v>
+      </c>
+      <c r="E54" s="104"/>
+      <c r="F54" s="104">
+        <v>1</v>
+      </c>
+      <c r="G54" s="104">
+        <v>2</v>
+      </c>
+      <c r="H54" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="104"/>
+      <c r="J54" s="102" t="s">
         <v>38</v>
       </c>
       <c r="K54" s="103" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="58" customFormat="1">
       <c r="A55" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B55" s="104" t="s">
         <v>400</v>
       </c>
       <c r="C55" s="104" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D55" s="104" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="E55" s="104"/>
       <c r="F55" s="104">
         <v>1</v>
       </c>
       <c r="G55" s="104">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="H55" s="104" t="s">
         <v>11</v>
@@ -24267,139 +24445,139 @@
         <v>38</v>
       </c>
       <c r="K55" s="103" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="58" customFormat="1">
       <c r="A56" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B56" s="104" t="s">
         <v>401</v>
       </c>
       <c r="C56" s="104" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D56" s="104" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="E56" s="104"/>
       <c r="F56" s="104">
         <v>1</v>
       </c>
       <c r="G56" s="104">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H56" s="104" t="s">
         <v>11</v>
       </c>
       <c r="I56" s="104"/>
-      <c r="J56" s="102" t="s">
-        <v>38</v>
-      </c>
+      <c r="J56" s="102"/>
       <c r="K56" s="103" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="58" customFormat="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="19.5">
       <c r="A57" s="102" t="s">
-        <v>299</v>
-      </c>
-      <c r="B57" s="104" t="s">
-        <v>402</v>
-      </c>
-      <c r="C57" s="104" t="s">
+        <v>298</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="C57" s="35" t="s">
         <v>504</v>
       </c>
-      <c r="D57" s="104" t="s">
-        <v>378</v>
-      </c>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104">
-        <v>1</v>
-      </c>
-      <c r="G57" s="104">
-        <v>3</v>
-      </c>
-      <c r="H57" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="104"/>
-      <c r="J57" s="102"/>
-      <c r="K57" s="103" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="19.5">
+      <c r="D57" s="35"/>
+      <c r="E57" s="35">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="F57" s="35">
+        <v>0</v>
+      </c>
+      <c r="G57" s="35">
+        <v>10</v>
+      </c>
+      <c r="H57" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="37">
+        <v>2</v>
+      </c>
+      <c r="J57" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K57" s="35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" s="58" customFormat="1">
       <c r="A58" s="102" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="C58" s="35" t="s">
         <v>505</v>
       </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="F58" s="35">
-        <v>0</v>
-      </c>
-      <c r="G58" s="35">
-        <v>10</v>
-      </c>
-      <c r="H58" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I58" s="37">
+      <c r="D58" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104">
+        <v>1</v>
+      </c>
+      <c r="G58" s="104">
         <v>2</v>
       </c>
-      <c r="J58" s="35" t="s">
-        <v>76</v>
+      <c r="H58" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I58" s="104"/>
+      <c r="J58" s="102" t="s">
+        <v>38</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="58" customFormat="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="19" customFormat="1">
       <c r="A59" s="102" t="s">
-        <v>339</v>
+        <v>298</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>415</v>
+        <v>85</v>
       </c>
       <c r="C59" s="35" t="s">
         <v>506</v>
       </c>
-      <c r="D59" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="E59" s="104"/>
-      <c r="F59" s="104">
-        <v>1</v>
-      </c>
-      <c r="G59" s="104">
-        <v>2</v>
-      </c>
-      <c r="H59" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="I59" s="104"/>
-      <c r="J59" s="102" t="s">
-        <v>38</v>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35">
+        <v>0</v>
+      </c>
+      <c r="G59" s="35">
+        <v>15</v>
+      </c>
+      <c r="H59" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="37">
+        <v>3</v>
+      </c>
+      <c r="J59" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="19" customFormat="1">
       <c r="A60" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B60" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" s="35" t="s">
         <v>507</v>
@@ -24410,7 +24588,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="35">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H60" s="35" t="s">
         <v>22</v>
@@ -24422,15 +24600,15 @@
         <v>45</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="19" customFormat="1">
       <c r="A61" s="102" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B61" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>508</v>
@@ -24453,226 +24631,226 @@
         <v>45</v>
       </c>
       <c r="K61" s="35" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="19" customFormat="1">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="58" customFormat="1">
       <c r="A62" s="102" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B62" s="35" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C62" s="35" t="s">
         <v>509</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
-      <c r="F62" s="35">
-        <v>0</v>
-      </c>
-      <c r="G62" s="35">
-        <v>2</v>
-      </c>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
       <c r="H62" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I62" s="37">
-        <v>3</v>
-      </c>
-      <c r="J62" s="35" t="s">
-        <v>45</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
       <c r="K62" s="35" t="s">
-        <v>422</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:11" s="58" customFormat="1">
       <c r="A63" s="102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B63" s="35" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="C63" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
+      <c r="D63" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E63" s="35">
+        <v>2</v>
+      </c>
+      <c r="F63" s="35">
+        <v>1</v>
+      </c>
+      <c r="G63" s="35">
+        <v>14</v>
+      </c>
       <c r="H63" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" s="35" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="58" customFormat="1" ht="19.5">
+      <c r="A64" s="102" t="s">
+        <v>300</v>
+      </c>
+      <c r="B64" s="104" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="104" t="s">
+        <v>511</v>
+      </c>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="104">
+        <v>0</v>
+      </c>
+      <c r="G64" s="104">
+        <v>99</v>
+      </c>
+      <c r="H64" s="104" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" s="5">
+        <v>2</v>
+      </c>
+      <c r="J64" s="104" t="s">
+        <v>26</v>
+      </c>
+      <c r="K64" s="104" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" s="58" customFormat="1">
+      <c r="A65" s="102" t="s">
+        <v>300</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>546</v>
+      </c>
+      <c r="C65" s="36" t="s">
+        <v>548</v>
+      </c>
+      <c r="D65" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="E65" s="36">
+        <v>1</v>
+      </c>
+      <c r="F65" s="36">
+        <v>1</v>
+      </c>
+      <c r="G65" s="36">
+        <v>4</v>
+      </c>
+      <c r="H65" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="35"/>
+    </row>
+    <row r="66" spans="1:11" s="58" customFormat="1" ht="19.5">
+      <c r="A66" s="102" t="s">
+        <v>300</v>
+      </c>
+      <c r="B66" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35">
+        <v>2.33</v>
+      </c>
+      <c r="F66" s="35">
+        <v>0</v>
+      </c>
+      <c r="G66" s="35">
         <v>10</v>
       </c>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="58" customFormat="1">
-      <c r="A64" s="102" t="s">
-        <v>301</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>511</v>
-      </c>
-      <c r="D64" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E64" s="35">
+      <c r="H66" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" s="37">
         <v>2</v>
       </c>
-      <c r="F64" s="35">
-        <v>1</v>
-      </c>
-      <c r="G64" s="35">
-        <v>14</v>
-      </c>
-      <c r="H64" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K64" s="35" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="58" customFormat="1" ht="19.5">
-      <c r="A65" s="102" t="s">
-        <v>301</v>
-      </c>
-      <c r="B65" s="104" t="s">
-        <v>129</v>
-      </c>
-      <c r="C65" s="104" t="s">
-        <v>512</v>
-      </c>
-      <c r="D65" s="104"/>
-      <c r="E65" s="104"/>
-      <c r="F65" s="104">
-        <v>0</v>
-      </c>
-      <c r="G65" s="104">
-        <v>99</v>
-      </c>
-      <c r="H65" s="104" t="s">
-        <v>22</v>
-      </c>
-      <c r="I65" s="5">
-        <v>2</v>
-      </c>
-      <c r="J65" s="104" t="s">
-        <v>26</v>
-      </c>
-      <c r="K65" s="104" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="58" customFormat="1">
-      <c r="A66" s="102" t="s">
-        <v>301</v>
-      </c>
-      <c r="B66" s="36" t="s">
-        <v>550</v>
-      </c>
-      <c r="C66" s="36" t="s">
-        <v>552</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>549</v>
-      </c>
-      <c r="E66" s="36">
-        <v>1</v>
-      </c>
-      <c r="F66" s="36">
-        <v>1</v>
-      </c>
-      <c r="G66" s="36">
-        <v>4</v>
-      </c>
-      <c r="H66" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="35"/>
-    </row>
-    <row r="67" spans="1:11" s="58" customFormat="1" ht="19.5">
+      <c r="J66" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="K66" s="35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" s="58" customFormat="1">
       <c r="A67" s="102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="C67" s="35" t="s">
         <v>513</v>
       </c>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35">
-        <v>2.33</v>
-      </c>
-      <c r="F67" s="35">
-        <v>0</v>
-      </c>
-      <c r="G67" s="35">
-        <v>10</v>
-      </c>
-      <c r="H67" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" s="37">
+      <c r="D67" s="35" t="s">
+        <v>408</v>
+      </c>
+      <c r="E67" s="104"/>
+      <c r="F67" s="104">
+        <v>1</v>
+      </c>
+      <c r="G67" s="104">
         <v>2</v>
       </c>
-      <c r="J67" s="35" t="s">
-        <v>76</v>
+      <c r="H67" s="104" t="s">
+        <v>11</v>
+      </c>
+      <c r="I67" s="104"/>
+      <c r="J67" s="102" t="s">
+        <v>38</v>
       </c>
       <c r="K67" s="35" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="58" customFormat="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="19" customFormat="1">
       <c r="A68" s="102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>415</v>
+        <v>85</v>
       </c>
       <c r="C68" s="35" t="s">
         <v>514</v>
       </c>
-      <c r="D68" s="35" t="s">
-        <v>409</v>
-      </c>
-      <c r="E68" s="104"/>
-      <c r="F68" s="104">
-        <v>1</v>
-      </c>
-      <c r="G68" s="104">
-        <v>2</v>
-      </c>
-      <c r="H68" s="104" t="s">
-        <v>11</v>
-      </c>
-      <c r="I68" s="104"/>
-      <c r="J68" s="102" t="s">
-        <v>38</v>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35">
+        <v>0</v>
+      </c>
+      <c r="G68" s="35">
+        <v>15</v>
+      </c>
+      <c r="H68" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" s="37">
+        <v>3</v>
+      </c>
+      <c r="J68" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="K68" s="35" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="19" customFormat="1">
       <c r="A69" s="102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B69" s="35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>515</v>
@@ -24683,7 +24861,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="35">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H69" s="35" t="s">
         <v>22</v>
@@ -24695,15 +24873,15 @@
         <v>45</v>
       </c>
       <c r="K69" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="19" customFormat="1">
       <c r="A70" s="102" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B70" s="35" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C70" s="35" t="s">
         <v>516</v>
@@ -24726,165 +24904,167 @@
         <v>45</v>
       </c>
       <c r="K70" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="19" customFormat="1">
       <c r="A71" s="102" t="s">
-        <v>301</v>
+        <v>406</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>87</v>
+        <v>407</v>
       </c>
       <c r="C71" s="35" t="s">
         <v>517</v>
       </c>
-      <c r="D71" s="35"/>
+      <c r="D71" s="35" t="s">
+        <v>409</v>
+      </c>
       <c r="E71" s="35"/>
       <c r="F71" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="35">
         <v>2</v>
       </c>
       <c r="H71" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I71" s="37">
+        <v>11</v>
+      </c>
+      <c r="I71" s="37"/>
+      <c r="J71" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K71" s="35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" s="19" customFormat="1">
+      <c r="A72" s="105" t="s">
+        <v>406</v>
+      </c>
+      <c r="B72" s="35" t="s">
+        <v>555</v>
+      </c>
+      <c r="C72" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="D72" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="E72" s="36">
+        <v>1</v>
+      </c>
+      <c r="F72" s="36">
+        <v>1</v>
+      </c>
+      <c r="G72" s="36">
+        <v>4</v>
+      </c>
+      <c r="H72" s="36" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="35"/>
+    </row>
+    <row r="73" spans="1:11" s="58" customFormat="1">
+      <c r="A73" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G73" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="H73" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="I73" s="37">
         <v>3</v>
       </c>
-      <c r="J71" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K71" s="35" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="19" customFormat="1">
-      <c r="A72" s="102" t="s">
-        <v>407</v>
-      </c>
-      <c r="B72" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>518</v>
-      </c>
-      <c r="D72" s="35" t="s">
-        <v>410</v>
-      </c>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35">
-        <v>1</v>
-      </c>
-      <c r="G72" s="35">
-        <v>2</v>
-      </c>
-      <c r="H72" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" s="37"/>
-      <c r="J72" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K72" s="35" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="19" customFormat="1">
-      <c r="A73" s="107" t="s">
-        <v>407</v>
-      </c>
-      <c r="B73" s="35" t="s">
-        <v>560</v>
-      </c>
-      <c r="C73" s="36" t="s">
-        <v>559</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>549</v>
-      </c>
-      <c r="E73" s="36">
-        <v>1</v>
-      </c>
-      <c r="F73" s="36">
-        <v>1</v>
-      </c>
-      <c r="G73" s="36">
-        <v>4</v>
-      </c>
-      <c r="H73" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I73" s="36"/>
-      <c r="J73" s="36"/>
-      <c r="K73" s="35"/>
+      <c r="J73" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="K73" s="35" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="74" spans="1:11" s="58" customFormat="1">
       <c r="A74" s="102" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B74" s="35" t="s">
-        <v>198</v>
+        <v>46</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
-      <c r="F74" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="G74" s="35" t="s">
-        <v>200</v>
+      <c r="F74" s="35">
+        <v>0</v>
+      </c>
+      <c r="G74" s="35">
+        <v>10</v>
       </c>
       <c r="H74" s="35" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="I74" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J74" s="35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K74" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="58" customFormat="1">
       <c r="A75" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="B75" s="35" t="s">
         <v>290</v>
       </c>
-      <c r="B75" s="35" t="s">
-        <v>46</v>
-      </c>
       <c r="C75" s="35" t="s">
-        <v>519</v>
-      </c>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
+        <v>520</v>
+      </c>
+      <c r="D75" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E75" s="35">
+        <v>2</v>
+      </c>
       <c r="F75" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" s="35">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H75" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I75" s="37">
-        <v>2</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="I75" s="35"/>
       <c r="J75" s="35" t="s">
-        <v>203</v>
+        <v>38</v>
       </c>
       <c r="K75" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="58" customFormat="1">
-      <c r="A76" s="102" t="s">
-        <v>290</v>
+      <c r="A76" s="104" t="s">
+        <v>289</v>
       </c>
       <c r="B76" s="35" t="s">
         <v>291</v>
@@ -24893,7 +25073,7 @@
         <v>521</v>
       </c>
       <c r="D76" s="35" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E76" s="35">
         <v>2</v>
@@ -24912,213 +25092,232 @@
         <v>38</v>
       </c>
       <c r="K76" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="58" customFormat="1">
       <c r="A77" s="104" t="s">
-        <v>290</v>
+        <v>405</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>292</v>
+        <v>532</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>522</v>
-      </c>
-      <c r="D77" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E77" s="35">
-        <v>2</v>
-      </c>
-      <c r="F77" s="35">
-        <v>1</v>
-      </c>
-      <c r="G77" s="35">
-        <v>14</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
       <c r="H77" s="35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I77" s="35"/>
-      <c r="J77" s="35" t="s">
-        <v>38</v>
-      </c>
+      <c r="J77" s="35"/>
       <c r="K77" s="35" t="s">
-        <v>412</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:11" s="58" customFormat="1">
       <c r="A78" s="104" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B78" s="35" t="s">
-        <v>536</v>
+        <v>186</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>537</v>
-      </c>
-      <c r="D78" s="35"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="35"/>
-      <c r="G78" s="35"/>
+        <v>534</v>
+      </c>
+      <c r="D78" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E78" s="35">
+        <v>2</v>
+      </c>
+      <c r="F78" s="35">
+        <v>1</v>
+      </c>
+      <c r="G78" s="35">
+        <v>14</v>
+      </c>
       <c r="H78" s="35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="35" t="s">
-        <v>280</v>
-      </c>
+      <c r="J78" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K78" s="35"/>
     </row>
     <row r="79" spans="1:11" s="58" customFormat="1">
-      <c r="A79" s="104" t="s">
-        <v>406</v>
+      <c r="A79" s="106" t="s">
+        <v>405</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>561</v>
-      </c>
-      <c r="C79" s="104" t="s">
-        <v>533</v>
+        <v>568</v>
+      </c>
+      <c r="C79" s="36" t="s">
+        <v>556</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>534</v>
-      </c>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35">
-        <v>1</v>
-      </c>
-      <c r="G79" s="35">
-        <v>2</v>
-      </c>
-      <c r="H79" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="E79" s="36">
+        <v>1</v>
+      </c>
+      <c r="F79" s="36">
+        <v>1</v>
+      </c>
+      <c r="G79" s="36">
+        <v>4</v>
+      </c>
+      <c r="H79" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I79" s="37"/>
-      <c r="J79" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K79" s="35" t="s">
-        <v>280</v>
-      </c>
+      <c r="I79" s="36"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="35"/>
     </row>
     <row r="80" spans="1:11" s="58" customFormat="1">
       <c r="A80" s="104" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B80" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>538</v>
-      </c>
-      <c r="D80" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="E80" s="35">
+        <v>198</v>
+      </c>
+      <c r="C80" s="104" t="s">
+        <v>522</v>
+      </c>
+      <c r="D80" s="104"/>
+      <c r="E80" s="104"/>
+      <c r="F80" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="G80" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="H80" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="I80" s="37">
+        <v>3</v>
+      </c>
+      <c r="J80" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="K80" s="104"/>
+    </row>
+    <row r="81" spans="1:11" s="58" customFormat="1">
+      <c r="A81" s="104" t="s">
+        <v>405</v>
+      </c>
+      <c r="B81" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81" s="104" t="s">
+        <v>523</v>
+      </c>
+      <c r="D81" s="104"/>
+      <c r="E81" s="104"/>
+      <c r="F81" s="35">
+        <v>0</v>
+      </c>
+      <c r="G81" s="35">
+        <v>10</v>
+      </c>
+      <c r="H81" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" s="37">
         <v>2</v>
       </c>
-      <c r="F80" s="35">
-        <v>1</v>
-      </c>
-      <c r="G80" s="35">
-        <v>14</v>
-      </c>
-      <c r="H80" s="35" t="s">
+      <c r="J81" s="35" t="s">
+        <v>203</v>
+      </c>
+      <c r="K81" s="104"/>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82" s="108" t="s">
+        <v>558</v>
+      </c>
+      <c r="B82" s="108" t="s">
+        <v>564</v>
+      </c>
+      <c r="C82" s="108" t="s">
+        <v>569</v>
+      </c>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="19.5">
+      <c r="A83" s="108" t="s">
+        <v>558</v>
+      </c>
+      <c r="B83" s="108" t="s">
+        <v>560</v>
+      </c>
+      <c r="C83" s="108" t="s">
+        <v>570</v>
+      </c>
+      <c r="D83" s="108"/>
+      <c r="E83" s="108"/>
+      <c r="F83" s="108">
+        <v>0</v>
+      </c>
+      <c r="G83" s="108">
+        <v>99</v>
+      </c>
+      <c r="H83" s="108" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="5">
+        <v>2</v>
+      </c>
+      <c r="J83" s="108" t="s">
+        <v>26</v>
+      </c>
+      <c r="K83" s="108" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="108" t="s">
+        <v>558</v>
+      </c>
+      <c r="B84" s="35" t="s">
+        <v>562</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>571</v>
+      </c>
+      <c r="D84" s="35" t="s">
+        <v>545</v>
+      </c>
+      <c r="E84" s="35">
+        <v>1</v>
+      </c>
+      <c r="F84" s="35">
+        <v>1</v>
+      </c>
+      <c r="G84" s="35">
+        <v>4</v>
+      </c>
+      <c r="H84" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K80" s="35"/>
-    </row>
-    <row r="81" spans="1:11" s="58" customFormat="1">
-      <c r="A81" s="108" t="s">
-        <v>406</v>
-      </c>
-      <c r="B81" s="35" t="s">
-        <v>562</v>
-      </c>
-      <c r="C81" s="36" t="s">
-        <v>563</v>
-      </c>
-      <c r="D81" s="35" t="s">
-        <v>549</v>
-      </c>
-      <c r="E81" s="36">
-        <v>1</v>
-      </c>
-      <c r="F81" s="36">
-        <v>1</v>
-      </c>
-      <c r="G81" s="36">
-        <v>4</v>
-      </c>
-      <c r="H81" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="35"/>
-    </row>
-    <row r="82" spans="1:11" s="58" customFormat="1">
-      <c r="A82" s="104" t="s">
-        <v>406</v>
-      </c>
-      <c r="B82" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="C82" s="104" t="s">
-        <v>523</v>
-      </c>
-      <c r="D82" s="104"/>
-      <c r="E82" s="104"/>
-      <c r="F82" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="G82" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="H82" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="I82" s="37">
-        <v>3</v>
-      </c>
-      <c r="J82" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="K82" s="104"/>
-    </row>
-    <row r="83" spans="1:11" s="58" customFormat="1">
-      <c r="A83" s="104" t="s">
-        <v>406</v>
-      </c>
-      <c r="B83" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C83" s="104" t="s">
-        <v>524</v>
-      </c>
-      <c r="D83" s="104"/>
-      <c r="E83" s="104"/>
-      <c r="F83" s="35">
-        <v>0</v>
-      </c>
-      <c r="G83" s="35">
-        <v>10</v>
-      </c>
-      <c r="H83" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="I83" s="37">
-        <v>2</v>
-      </c>
-      <c r="J83" s="35" t="s">
-        <v>203</v>
-      </c>
-      <c r="K83" s="104"/>
+      <c r="I84" s="35"/>
+      <c r="J84" s="35"/>
+      <c r="K84" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -25133,10 +25332,10 @@
   <dimension ref="A2:S56"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -25237,7 +25436,7 @@
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="35" t="s">
@@ -25270,7 +25469,7 @@
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
@@ -25301,7 +25500,7 @@
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="35"/>
@@ -25332,7 +25531,7 @@
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="35"/>
@@ -25386,11 +25585,11 @@
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G9" s="48"/>
       <c r="H9" s="48">
@@ -25602,7 +25801,7 @@
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G16" s="36">
         <v>1</v>
@@ -25857,7 +26056,7 @@
         <v>154</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="35">
@@ -25892,7 +26091,7 @@
         <v>155</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="35">
@@ -25929,7 +26128,7 @@
         <v>156</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="35">
@@ -25999,7 +26198,7 @@
         <v>85</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
@@ -26032,7 +26231,7 @@
         <v>86</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35"/>
@@ -26065,7 +26264,7 @@
         <v>87</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F30" s="35"/>
       <c r="G30" s="35"/>
@@ -26098,7 +26297,7 @@
         <v>157</v>
       </c>
       <c r="E31" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F31" s="35"/>
       <c r="G31" s="35"/>
@@ -26133,7 +26332,7 @@
         <v>158</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
@@ -26303,7 +26502,7 @@
         <v>145</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G37" s="35">
         <v>2</v>
@@ -26470,20 +26669,20 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B43" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="62"/>
       <c r="D43" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F43" s="62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G43" s="36"/>
       <c r="H43" s="62">
@@ -26503,17 +26702,17 @@
     </row>
     <row r="44" spans="1:13" ht="19.5">
       <c r="A44" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B44" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="62"/>
       <c r="D44" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F44" s="35"/>
       <c r="G44" s="35"/>
@@ -26536,17 +26735,17 @@
     </row>
     <row r="45" spans="1:13" ht="19.5">
       <c r="A45" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B45" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C45" s="62"/>
       <c r="D45" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
@@ -26569,17 +26768,17 @@
     </row>
     <row r="46" spans="1:13" ht="19.5">
       <c r="A46" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B46" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C46" s="62"/>
       <c r="D46" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F46" s="35"/>
       <c r="G46" s="35"/>
@@ -26602,17 +26801,17 @@
     </row>
     <row r="47" spans="1:13" ht="19.5">
       <c r="A47" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B47" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C47" s="62"/>
       <c r="D47" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E47" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F47" s="35"/>
       <c r="G47" s="35"/>
@@ -26635,17 +26834,17 @@
     </row>
     <row r="48" spans="1:13" ht="19.5">
       <c r="A48" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B48" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C48" s="62"/>
       <c r="D48" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E48" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F48" s="35"/>
       <c r="G48" s="35"/>
@@ -26668,17 +26867,17 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B49" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="62"/>
       <c r="D49" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E49" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F49" s="35"/>
       <c r="G49" s="35"/>
@@ -26703,17 +26902,17 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B50" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="62"/>
       <c r="D50" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E50" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F50" s="35"/>
       <c r="G50" s="35"/>
@@ -26738,17 +26937,17 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B51" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="62"/>
       <c r="D51" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E51" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F51" s="35" t="s">
         <v>167</v>
@@ -26771,17 +26970,17 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B52" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C52" s="62"/>
       <c r="D52" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E52" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F52" s="35"/>
       <c r="G52" s="35"/>
@@ -26806,17 +27005,17 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B53" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="62"/>
       <c r="D53" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E53" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F53" s="35"/>
       <c r="G53" s="35"/>
@@ -26841,17 +27040,17 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B54" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C54" s="62"/>
       <c r="D54" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E54" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F54" s="35" t="s">
         <v>167</v>
@@ -26874,17 +27073,17 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B55" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C55" s="62"/>
       <c r="D55" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E55" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F55" s="35"/>
       <c r="G55" s="35"/>
@@ -26907,17 +27106,17 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B56" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="62"/>
       <c r="D56" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E56" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F56" s="35"/>
       <c r="G56" s="35"/>
@@ -26951,10 +27150,10 @@
   <dimension ref="A2:S71"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -27055,7 +27254,7 @@
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E4" s="34"/>
       <c r="F4" s="35" t="s">
@@ -27088,7 +27287,7 @@
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="35"/>
@@ -27119,7 +27318,7 @@
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E6" s="34"/>
       <c r="F6" s="35"/>
@@ -27150,7 +27349,7 @@
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E7" s="34"/>
       <c r="F7" s="35"/>
@@ -27204,11 +27403,11 @@
       </c>
       <c r="C9" s="48"/>
       <c r="D9" s="48" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E9" s="48"/>
       <c r="F9" s="48" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G9" s="48"/>
       <c r="H9" s="48">
@@ -27420,7 +27619,7 @@
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G16" s="36">
         <v>1</v>
@@ -27675,7 +27874,7 @@
         <v>79</v>
       </c>
       <c r="E24" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F24" s="35"/>
       <c r="G24" s="35">
@@ -27710,7 +27909,7 @@
         <v>151</v>
       </c>
       <c r="E25" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F25" s="35"/>
       <c r="G25" s="35">
@@ -27747,7 +27946,7 @@
         <v>153</v>
       </c>
       <c r="E26" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F26" s="35"/>
       <c r="G26" s="35">
@@ -27784,7 +27983,7 @@
         <v>80</v>
       </c>
       <c r="E27" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F27" s="35"/>
       <c r="G27" s="35">
@@ -27819,7 +28018,7 @@
         <v>163</v>
       </c>
       <c r="E28" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F28" s="35"/>
       <c r="G28" s="35">
@@ -27856,7 +28055,7 @@
         <v>164</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F29" s="35"/>
       <c r="G29" s="35">
@@ -27949,7 +28148,7 @@
         <v>85</v>
       </c>
       <c r="E32" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="35"/>
@@ -27982,7 +28181,7 @@
         <v>86</v>
       </c>
       <c r="E33" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="35"/>
@@ -28015,7 +28214,7 @@
         <v>87</v>
       </c>
       <c r="E34" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -28048,7 +28247,7 @@
         <v>157</v>
       </c>
       <c r="E35" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F35" s="35"/>
       <c r="G35" s="35"/>
@@ -28083,7 +28282,7 @@
         <v>158</v>
       </c>
       <c r="E36" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
@@ -28577,7 +28776,7 @@
         <v>145</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G51" s="35">
         <v>2</v>
@@ -28779,20 +28978,20 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B58" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C58" s="62"/>
       <c r="D58" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E58" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F58" s="62" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G58" s="36"/>
       <c r="H58" s="62">
@@ -28812,17 +29011,17 @@
     </row>
     <row r="59" spans="1:13" ht="19.5">
       <c r="A59" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B59" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C59" s="62"/>
       <c r="D59" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E59" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F59" s="35"/>
       <c r="G59" s="35"/>
@@ -28845,17 +29044,17 @@
     </row>
     <row r="60" spans="1:13" ht="19.5">
       <c r="A60" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B60" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="62"/>
       <c r="D60" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E60" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F60" s="35"/>
       <c r="G60" s="35"/>
@@ -28878,17 +29077,17 @@
     </row>
     <row r="61" spans="1:13" ht="19.5">
       <c r="A61" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B61" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C61" s="62"/>
       <c r="D61" s="34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E61" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F61" s="35"/>
       <c r="G61" s="35"/>
@@ -28911,17 +29110,17 @@
     </row>
     <row r="62" spans="1:13" ht="19.5">
       <c r="A62" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B62" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C62" s="62"/>
       <c r="D62" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E62" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F62" s="35"/>
       <c r="G62" s="35"/>
@@ -28944,17 +29143,17 @@
     </row>
     <row r="63" spans="1:13" ht="19.5">
       <c r="A63" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B63" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C63" s="62"/>
       <c r="D63" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
@@ -28977,17 +29176,17 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B64" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C64" s="62"/>
       <c r="D64" s="34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="35"/>
@@ -29012,17 +29211,17 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B65" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C65" s="62"/>
       <c r="D65" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="35"/>
@@ -29047,17 +29246,17 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B66" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C66" s="62"/>
       <c r="D66" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E66" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F66" s="35" t="s">
         <v>167</v>
@@ -29080,17 +29279,17 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B67" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C67" s="62"/>
       <c r="D67" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E67" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F67" s="35"/>
       <c r="G67" s="35"/>
@@ -29115,17 +29314,17 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B68" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C68" s="62"/>
       <c r="D68" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E68" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F68" s="35"/>
       <c r="G68" s="35"/>
@@ -29150,17 +29349,17 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B69" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C69" s="62"/>
       <c r="D69" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E69" s="35" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F69" s="35" t="s">
         <v>167</v>
@@ -29183,17 +29382,17 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="68" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B70" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C70" s="62"/>
       <c r="D70" s="34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E70" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F70" s="35"/>
       <c r="G70" s="35"/>
@@ -29216,17 +29415,17 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B71" s="62" t="s">
         <v>51</v>
       </c>
       <c r="C71" s="62"/>
       <c r="D71" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E71" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F71" s="35"/>
       <c r="G71" s="35"/>

--- a/入力情報定義表.xlsx
+++ b/入力情報定義表.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB07BE0-E66A-40C8-A93F-961803A48430}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DDBD63B5-46D7-40CD-8008-F1BC5618D338}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8330" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8333" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
     <sheet name="メモ" sheetId="9" r:id="rId2"/>
     <sheet name="熱負荷計算" sheetId="2" r:id="rId3"/>
     <sheet name="熱負荷計算csv" sheetId="3" r:id="rId4"/>
-    <sheet name="熱負荷計算LV1csv" sheetId="4" r:id="rId5"/>
-    <sheet name="熱負荷計算LV2csv" sheetId="5" r:id="rId6"/>
+    <sheet name="LV1" sheetId="4" r:id="rId5"/>
+    <sheet name="LV2" sheetId="5" r:id="rId6"/>
     <sheet name="熱負荷計算LV3csv" sheetId="6" r:id="rId7"/>
     <sheet name="熱負荷計算V4csv" sheetId="7" r:id="rId8"/>
     <sheet name="熱負荷計算V5csv" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="573">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -5877,6 +5877,10 @@
   </si>
   <si>
     <t>Earthfloors[i] Space</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>－</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6036,7 +6040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6356,23 +6360,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6389,22 +6399,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6419,14 +6417,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6437,11 +6432,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6736,11 +6746,11 @@
       <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="131.08203125" customWidth="1"/>
+    <col min="3" max="3" width="131.0625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7683,7 +7693,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="9" style="72"/>
   </cols>
@@ -7748,21 +7758,21 @@
       <selection pane="bottomRight" activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.0625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.8125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.9140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.3125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.9375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.8125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.8125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.9375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.0625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.5625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="19" width="9" style="33"/>
     <col min="20" max="23" width="9" style="27"/>
     <col min="24" max="16384" width="9" style="2"/>
@@ -7839,7 +7849,7 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="120" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -7886,36 +7896,36 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="119"/>
-      <c r="B4" s="124" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="124"/>
-      <c r="D4" s="109" t="s">
+      <c r="A4" s="121"/>
+      <c r="B4" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="123"/>
+      <c r="D4" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="124"/>
+      <c r="E4" s="123"/>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="124">
+      <c r="H4" s="123">
         <v>6</v>
       </c>
-      <c r="I4" s="124">
-        <v>1</v>
-      </c>
-      <c r="J4" s="124">
+      <c r="I4" s="123">
+        <v>1</v>
+      </c>
+      <c r="J4" s="123">
         <v>8</v>
       </c>
-      <c r="K4" s="124" t="s">
+      <c r="K4" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="124"/>
-      <c r="M4" s="124"/>
-      <c r="N4" s="124"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
       <c r="O4" s="51" t="s">
         <v>51</v>
       </c>
@@ -7933,24 +7943,24 @@
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="119"/>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="125"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="129"/>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="125"/>
-      <c r="M5" s="125"/>
-      <c r="N5" s="125"/>
+      <c r="H5" s="129"/>
+      <c r="I5" s="129"/>
+      <c r="J5" s="129"/>
+      <c r="K5" s="129"/>
+      <c r="L5" s="129"/>
+      <c r="M5" s="129"/>
+      <c r="N5" s="129"/>
       <c r="O5" s="52"/>
       <c r="P5" s="52"/>
       <c r="Q5" s="52"/>
@@ -7958,24 +7968,24 @@
       <c r="S5" s="52"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="119"/>
-      <c r="B6" s="125"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="125"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="114"/>
+      <c r="E6" s="129"/>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="125"/>
-      <c r="I6" s="125"/>
-      <c r="J6" s="125"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="125"/>
-      <c r="N6" s="125"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
       <c r="O6" s="52"/>
       <c r="P6" s="52"/>
       <c r="Q6" s="52"/>
@@ -7983,24 +7993,24 @@
       <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="119"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="125"/>
+      <c r="A7" s="121"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="129"/>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="125"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="125"/>
-      <c r="M7" s="125"/>
-      <c r="N7" s="125"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="129"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
@@ -8008,24 +8018,24 @@
       <c r="S7" s="52"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="119"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="125"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="129"/>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="125"/>
-      <c r="N8" s="125"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="129"/>
+      <c r="J8" s="129"/>
+      <c r="K8" s="129"/>
+      <c r="L8" s="129"/>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="52"/>
@@ -8033,24 +8043,24 @@
       <c r="S8" s="52"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="119"/>
-      <c r="B9" s="125"/>
-      <c r="C9" s="125"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="125"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="129"/>
       <c r="F9" s="1">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="125"/>
-      <c r="I9" s="125"/>
-      <c r="J9" s="125"/>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="129"/>
+      <c r="K9" s="129"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="129"/>
       <c r="O9" s="52"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="52"/>
@@ -8058,24 +8068,24 @@
       <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="119"/>
-      <c r="B10" s="125"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="125"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="129"/>
       <c r="F10" s="1">
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="125"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="129"/>
+      <c r="K10" s="129"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52"/>
@@ -8083,24 +8093,24 @@
       <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="119"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="126"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="124"/>
       <c r="F11" s="1">
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="126"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="126"/>
-      <c r="K11" s="126"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="126"/>
-      <c r="N11" s="126"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="124"/>
+      <c r="N11" s="124"/>
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
@@ -8108,7 +8118,7 @@
       <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="119"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
@@ -8155,7 +8165,7 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="119"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
@@ -8202,7 +8212,7 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="119"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
@@ -8249,38 +8259,38 @@
       </c>
     </row>
     <row r="15" spans="1:23" s="44" customFormat="1">
-      <c r="A15" s="119"/>
-      <c r="B15" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="118"/>
-      <c r="D15" s="115" t="s">
+      <c r="A15" s="121"/>
+      <c r="B15" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="120"/>
+      <c r="D15" s="117" t="s">
         <v>235</v>
       </c>
-      <c r="E15" s="118"/>
+      <c r="E15" s="120"/>
       <c r="F15" s="46">
         <v>1</v>
       </c>
       <c r="G15" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="109">
+      <c r="H15" s="112">
         <v>2</v>
       </c>
-      <c r="I15" s="109">
-        <v>1</v>
-      </c>
-      <c r="J15" s="109">
+      <c r="I15" s="112">
+        <v>1</v>
+      </c>
+      <c r="J15" s="112">
         <v>2</v>
       </c>
-      <c r="K15" s="109" t="s">
+      <c r="K15" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="124"/>
-      <c r="M15" s="109" t="s">
+      <c r="L15" s="123"/>
+      <c r="M15" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="124"/>
+      <c r="N15" s="123"/>
       <c r="O15" s="51" t="s">
         <v>51</v>
       </c>
@@ -8298,24 +8308,24 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="44" customFormat="1">
-      <c r="A16" s="119"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="120"/>
+      <c r="A16" s="121"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="128"/>
       <c r="F16" s="46">
         <v>2</v>
       </c>
       <c r="G16" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="111"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="111"/>
-      <c r="N16" s="126"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="113"/>
+      <c r="J16" s="113"/>
+      <c r="K16" s="113"/>
+      <c r="L16" s="124"/>
+      <c r="M16" s="113"/>
+      <c r="N16" s="124"/>
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="53"/>
@@ -8323,7 +8333,7 @@
       <c r="S16" s="53"/>
     </row>
     <row r="17" spans="1:23" s="44" customFormat="1">
-      <c r="A17" s="119"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="43" t="s">
         <v>51</v>
       </c>
@@ -8368,7 +8378,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" s="23" customFormat="1">
-      <c r="A18" s="119"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="43" t="s">
         <v>51</v>
       </c>
@@ -8417,7 +8427,7 @@
       <c r="W18" s="27"/>
     </row>
     <row r="19" spans="1:23" s="58" customFormat="1">
-      <c r="A19" s="119"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="62" t="s">
         <v>51</v>
       </c>
@@ -8462,15 +8472,15 @@
       </c>
     </row>
     <row r="20" spans="1:23" s="58" customFormat="1">
-      <c r="A20" s="119"/>
-      <c r="B20" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="118"/>
-      <c r="D20" s="115" t="s">
+      <c r="A20" s="121"/>
+      <c r="B20" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="120"/>
+      <c r="D20" s="117" t="s">
         <v>241</v>
       </c>
-      <c r="E20" s="115" t="s">
+      <c r="E20" s="117" t="s">
         <v>264</v>
       </c>
       <c r="F20" s="69">
@@ -8479,64 +8489,64 @@
       <c r="G20" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109">
-        <v>1</v>
-      </c>
-      <c r="J20" s="109">
+      <c r="H20" s="112"/>
+      <c r="I20" s="112">
+        <v>1</v>
+      </c>
+      <c r="J20" s="112">
         <v>2</v>
       </c>
-      <c r="K20" s="109" t="s">
+      <c r="K20" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="112"/>
-      <c r="M20" s="109" t="s">
+      <c r="L20" s="110"/>
+      <c r="M20" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="109"/>
-      <c r="O20" s="136" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="136" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="136" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="136" t="s">
-        <v>51</v>
-      </c>
-      <c r="S20" s="136" t="s">
+      <c r="N20" s="112"/>
+      <c r="O20" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="115" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="115" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="58" customFormat="1">
-      <c r="A21" s="119"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="121"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="118"/>
       <c r="F21" s="69">
         <v>2</v>
       </c>
       <c r="G21" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="137"/>
-      <c r="P21" s="137"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="137"/>
-      <c r="S21" s="137"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="114"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="116"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="116"/>
+      <c r="R21" s="116"/>
+      <c r="S21" s="116"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="124" t="s">
+      <c r="A22" s="123" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -8575,36 +8585,36 @@
       </c>
     </row>
     <row r="23" spans="1:23" s="44" customFormat="1">
-      <c r="A23" s="125"/>
-      <c r="B23" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="118"/>
-      <c r="D23" s="115" t="s">
+      <c r="A23" s="129"/>
+      <c r="B23" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="120"/>
+      <c r="D23" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="E23" s="121"/>
+      <c r="E23" s="136"/>
       <c r="F23" s="46">
         <v>1</v>
       </c>
       <c r="G23" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="H23" s="127"/>
-      <c r="I23" s="109">
-        <v>1</v>
-      </c>
-      <c r="J23" s="109">
+      <c r="H23" s="125"/>
+      <c r="I23" s="112">
+        <v>1</v>
+      </c>
+      <c r="J23" s="112">
         <v>6</v>
       </c>
-      <c r="K23" s="115" t="s">
+      <c r="K23" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="127"/>
-      <c r="M23" s="115" t="s">
+      <c r="L23" s="125"/>
+      <c r="M23" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="118"/>
+      <c r="N23" s="120"/>
       <c r="O23" s="51" t="s">
         <v>51</v>
       </c>
@@ -8623,24 +8633,24 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:23" s="44" customFormat="1">
-      <c r="A24" s="125"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="122"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="121"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="137"/>
       <c r="F24" s="46">
         <v>2</v>
       </c>
       <c r="G24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="128"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="110"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="128"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="119"/>
+      <c r="H24" s="126"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="118"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="118"/>
+      <c r="N24" s="121"/>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="52"/>
@@ -8649,24 +8659,24 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:23" s="44" customFormat="1">
-      <c r="A25" s="125"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="122"/>
+      <c r="A25" s="129"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="137"/>
       <c r="F25" s="46">
         <v>3</v>
       </c>
       <c r="G25" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="128"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="128"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="119"/>
+      <c r="H25" s="126"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="121"/>
       <c r="O25" s="52"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="52"/>
@@ -8675,24 +8685,24 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="1:23" s="44" customFormat="1">
-      <c r="A26" s="125"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="122"/>
+      <c r="A26" s="129"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="121"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="137"/>
       <c r="F26" s="46">
         <v>4</v>
       </c>
       <c r="G26" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="128"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="128"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="119"/>
+      <c r="H26" s="126"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="118"/>
+      <c r="N26" s="121"/>
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="52"/>
@@ -8703,24 +8713,24 @@
       <c r="V26" s="49"/>
     </row>
     <row r="27" spans="1:23" s="44" customFormat="1">
-      <c r="A27" s="125"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="122"/>
+      <c r="A27" s="129"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="121"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="137"/>
       <c r="F27" s="46">
         <v>5</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="128"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="119"/>
+      <c r="H27" s="126"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="114"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="118"/>
+      <c r="N27" s="121"/>
       <c r="O27" s="52"/>
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
@@ -8731,24 +8741,24 @@
       <c r="V27" s="49"/>
     </row>
     <row r="28" spans="1:23" s="44" customFormat="1">
-      <c r="A28" s="125"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="123"/>
+      <c r="A28" s="129"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="138"/>
       <c r="F28" s="46">
         <v>6</v>
       </c>
       <c r="G28" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="129"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="120"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="113"/>
+      <c r="J28" s="113"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="128"/>
       <c r="O28" s="53"/>
       <c r="P28" s="53"/>
       <c r="Q28" s="53"/>
@@ -8759,7 +8769,7 @@
       <c r="V28" s="49"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="125"/>
+      <c r="A29" s="129"/>
       <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
@@ -8799,7 +8809,7 @@
       <c r="V29" s="49"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="125"/>
+      <c r="A30" s="129"/>
       <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
@@ -8847,7 +8857,7 @@
       <c r="V30" s="49"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="125"/>
+      <c r="A31" s="129"/>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
@@ -8895,7 +8905,7 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="125"/>
+      <c r="A32" s="129"/>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
@@ -8941,7 +8951,7 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="125"/>
+      <c r="A33" s="129"/>
       <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
@@ -8991,7 +9001,7 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="125"/>
+      <c r="A34" s="129"/>
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
@@ -9041,7 +9051,7 @@
       <c r="V34" s="49"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="125"/>
+      <c r="A35" s="129"/>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
@@ -9089,8 +9099,8 @@
       <c r="T35" s="19"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A36" s="125"/>
+    <row r="36" spans="1:22" s="27" customFormat="1" ht="18.75">
+      <c r="A36" s="129"/>
       <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
@@ -9137,8 +9147,8 @@
       </c>
       <c r="T36" s="19"/>
     </row>
-    <row r="37" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A37" s="125"/>
+    <row r="37" spans="1:22" s="27" customFormat="1" ht="18.75">
+      <c r="A37" s="129"/>
       <c r="B37" s="10" t="s">
         <v>51</v>
       </c>
@@ -9183,8 +9193,8 @@
       </c>
       <c r="T37" s="19"/>
     </row>
-    <row r="38" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A38" s="125"/>
+    <row r="38" spans="1:22" s="27" customFormat="1" ht="18.75">
+      <c r="A38" s="129"/>
       <c r="B38" s="10" t="s">
         <v>51</v>
       </c>
@@ -9230,38 +9240,38 @@
       <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:22" s="27" customFormat="1">
-      <c r="A39" s="125"/>
-      <c r="B39" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="109"/>
-      <c r="D39" s="109" t="s">
+      <c r="A39" s="129"/>
+      <c r="B39" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="112"/>
+      <c r="D39" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="109"/>
+      <c r="E39" s="112"/>
       <c r="F39" s="10">
         <v>1</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H39" s="109">
-        <v>1</v>
-      </c>
-      <c r="I39" s="109">
-        <v>1</v>
-      </c>
-      <c r="J39" s="109">
+      <c r="H39" s="112">
+        <v>1</v>
+      </c>
+      <c r="I39" s="112">
+        <v>1</v>
+      </c>
+      <c r="J39" s="112">
         <v>3</v>
       </c>
-      <c r="K39" s="109" t="s">
+      <c r="K39" s="112" t="s">
         <v>208</v>
       </c>
-      <c r="L39" s="112"/>
-      <c r="M39" s="109" t="s">
+      <c r="L39" s="110"/>
+      <c r="M39" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="N39" s="109"/>
+      <c r="N39" s="112"/>
       <c r="O39" s="51" t="s">
         <v>169</v>
       </c>
@@ -9279,24 +9289,24 @@
       </c>
     </row>
     <row r="40" spans="1:22" s="27" customFormat="1">
-      <c r="A40" s="125"/>
-      <c r="B40" s="110"/>
-      <c r="C40" s="110"/>
-      <c r="D40" s="110"/>
-      <c r="E40" s="110"/>
+      <c r="A40" s="129"/>
+      <c r="B40" s="114"/>
+      <c r="C40" s="114"/>
+      <c r="D40" s="114"/>
+      <c r="E40" s="114"/>
       <c r="F40" s="10">
         <v>2</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H40" s="110"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="110"/>
-      <c r="K40" s="110"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="110"/>
+      <c r="H40" s="114"/>
+      <c r="I40" s="114"/>
+      <c r="J40" s="114"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="122"/>
+      <c r="M40" s="114"/>
+      <c r="N40" s="114"/>
       <c r="O40" s="52"/>
       <c r="P40" s="52"/>
       <c r="Q40" s="52"/>
@@ -9304,24 +9314,24 @@
       <c r="S40" s="52"/>
     </row>
     <row r="41" spans="1:22" s="58" customFormat="1">
-      <c r="A41" s="125"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="110"/>
-      <c r="D41" s="110"/>
-      <c r="E41" s="110"/>
+      <c r="A41" s="129"/>
+      <c r="B41" s="114"/>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
       <c r="F41" s="61">
         <v>3</v>
       </c>
       <c r="G41" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="H41" s="110"/>
-      <c r="I41" s="110"/>
-      <c r="J41" s="110"/>
-      <c r="K41" s="110"/>
-      <c r="L41" s="113"/>
-      <c r="M41" s="110"/>
-      <c r="N41" s="110"/>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="114"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="122"/>
+      <c r="M41" s="114"/>
+      <c r="N41" s="114"/>
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
@@ -9329,24 +9339,24 @@
       <c r="S41" s="59"/>
     </row>
     <row r="42" spans="1:22" s="27" customFormat="1">
-      <c r="A42" s="125"/>
-      <c r="B42" s="111"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
+      <c r="A42" s="129"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
       <c r="F42" s="10">
         <v>4</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="H42" s="111"/>
-      <c r="I42" s="111"/>
-      <c r="J42" s="111"/>
-      <c r="K42" s="111"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="111"/>
-      <c r="N42" s="111"/>
+      <c r="H42" s="113"/>
+      <c r="I42" s="113"/>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113"/>
+      <c r="L42" s="111"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
       <c r="Q42" s="53"/>
@@ -9354,15 +9364,15 @@
       <c r="S42" s="53"/>
     </row>
     <row r="43" spans="1:22" s="27" customFormat="1">
-      <c r="A43" s="125"/>
-      <c r="B43" s="109"/>
-      <c r="C43" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="109" t="s">
+      <c r="A43" s="129"/>
+      <c r="B43" s="112"/>
+      <c r="C43" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="112" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="109" t="s">
+      <c r="E43" s="112" t="s">
         <v>215</v>
       </c>
       <c r="F43" s="10">
@@ -9371,23 +9381,23 @@
       <c r="G43" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H43" s="109">
-        <v>1</v>
-      </c>
-      <c r="I43" s="109">
-        <v>1</v>
-      </c>
-      <c r="J43" s="109">
+      <c r="H43" s="112">
+        <v>1</v>
+      </c>
+      <c r="I43" s="112">
+        <v>1</v>
+      </c>
+      <c r="J43" s="112">
         <v>3</v>
       </c>
-      <c r="K43" s="109" t="s">
+      <c r="K43" s="112" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="112"/>
-      <c r="M43" s="109" t="s">
+      <c r="L43" s="110"/>
+      <c r="M43" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="N43" s="109"/>
+      <c r="N43" s="112"/>
       <c r="O43" s="51" t="s">
         <v>169</v>
       </c>
@@ -9405,24 +9415,24 @@
       </c>
     </row>
     <row r="44" spans="1:22" s="27" customFormat="1">
-      <c r="A44" s="125"/>
-      <c r="B44" s="110"/>
-      <c r="C44" s="110"/>
-      <c r="D44" s="110"/>
-      <c r="E44" s="110"/>
+      <c r="A44" s="129"/>
+      <c r="B44" s="114"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="114"/>
+      <c r="E44" s="114"/>
       <c r="F44" s="10">
         <v>2</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H44" s="110"/>
-      <c r="I44" s="110"/>
-      <c r="J44" s="110"/>
-      <c r="K44" s="110"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="110"/>
-      <c r="N44" s="110"/>
+      <c r="H44" s="114"/>
+      <c r="I44" s="114"/>
+      <c r="J44" s="114"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="122"/>
+      <c r="M44" s="114"/>
+      <c r="N44" s="114"/>
       <c r="O44" s="52"/>
       <c r="P44" s="52"/>
       <c r="Q44" s="52"/>
@@ -9430,24 +9440,24 @@
       <c r="S44" s="52"/>
     </row>
     <row r="45" spans="1:22" s="27" customFormat="1">
-      <c r="A45" s="125"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
+      <c r="A45" s="129"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
       <c r="F45" s="10">
         <v>3</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H45" s="111"/>
-      <c r="I45" s="111"/>
-      <c r="J45" s="111"/>
-      <c r="K45" s="111"/>
-      <c r="L45" s="114"/>
-      <c r="M45" s="111"/>
-      <c r="N45" s="111"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113"/>
+      <c r="L45" s="111"/>
+      <c r="M45" s="113"/>
+      <c r="N45" s="113"/>
       <c r="O45" s="53"/>
       <c r="P45" s="53"/>
       <c r="Q45" s="53"/>
@@ -9455,7 +9465,7 @@
       <c r="S45" s="53"/>
     </row>
     <row r="46" spans="1:22" s="27" customFormat="1">
-      <c r="A46" s="125"/>
+      <c r="A46" s="129"/>
       <c r="B46" s="10" t="s">
         <v>51</v>
       </c>
@@ -9501,8 +9511,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="27" customFormat="1" ht="19.5">
-      <c r="A47" s="125"/>
+    <row r="47" spans="1:22" s="27" customFormat="1" ht="18.75">
+      <c r="A47" s="129"/>
       <c r="B47" s="10" t="s">
         <v>51</v>
       </c>
@@ -9549,7 +9559,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" s="27" customFormat="1">
-      <c r="A48" s="125"/>
+      <c r="A48" s="129"/>
       <c r="B48" s="10" t="s">
         <v>51</v>
       </c>
@@ -9596,7 +9606,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" s="27" customFormat="1">
-      <c r="A49" s="125"/>
+      <c r="A49" s="129"/>
       <c r="B49" s="10" t="s">
         <v>51</v>
       </c>
@@ -9642,8 +9652,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="27" customFormat="1" ht="19.5">
-      <c r="A50" s="125"/>
+    <row r="50" spans="1:23" s="27" customFormat="1" ht="18.75">
+      <c r="A50" s="129"/>
       <c r="B50" s="10" t="s">
         <v>51</v>
       </c>
@@ -9690,7 +9700,7 @@
       </c>
     </row>
     <row r="51" spans="1:23">
-      <c r="A51" s="124" t="s">
+      <c r="A51" s="123" t="s">
         <v>77</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -9729,7 +9739,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" s="16" customFormat="1">
-      <c r="A52" s="125"/>
+      <c r="A52" s="129"/>
       <c r="B52" s="17" t="s">
         <v>51</v>
       </c>
@@ -9782,7 +9792,7 @@
       <c r="W52" s="27"/>
     </row>
     <row r="53" spans="1:23" s="16" customFormat="1">
-      <c r="A53" s="125"/>
+      <c r="A53" s="129"/>
       <c r="B53" s="17" t="s">
         <v>51</v>
       </c>
@@ -9837,7 +9847,7 @@
       <c r="W53" s="27"/>
     </row>
     <row r="54" spans="1:23" s="16" customFormat="1">
-      <c r="A54" s="125"/>
+      <c r="A54" s="129"/>
       <c r="B54" s="17" t="s">
         <v>51</v>
       </c>
@@ -9892,7 +9902,7 @@
       <c r="W54" s="27"/>
     </row>
     <row r="55" spans="1:23">
-      <c r="A55" s="125"/>
+      <c r="A55" s="129"/>
       <c r="B55" s="1" t="s">
         <v>61</v>
       </c>
@@ -9941,7 +9951,7 @@
       </c>
     </row>
     <row r="56" spans="1:23" s="14" customFormat="1">
-      <c r="A56" s="125"/>
+      <c r="A56" s="129"/>
       <c r="B56" s="10" t="s">
         <v>51</v>
       </c>
@@ -9996,7 +10006,7 @@
       <c r="W56" s="27"/>
     </row>
     <row r="57" spans="1:23" s="14" customFormat="1">
-      <c r="A57" s="125"/>
+      <c r="A57" s="129"/>
       <c r="B57" s="10" t="s">
         <v>51</v>
       </c>
@@ -10051,7 +10061,7 @@
       <c r="W57" s="27"/>
     </row>
     <row r="58" spans="1:23">
-      <c r="A58" s="125"/>
+      <c r="A58" s="129"/>
       <c r="B58" s="1" t="s">
         <v>61</v>
       </c>
@@ -10100,7 +10110,7 @@
       </c>
     </row>
     <row r="59" spans="1:23" s="23" customFormat="1">
-      <c r="A59" s="125"/>
+      <c r="A59" s="129"/>
       <c r="B59" s="10" t="s">
         <v>51</v>
       </c>
@@ -10155,7 +10165,7 @@
       <c r="W59" s="27"/>
     </row>
     <row r="60" spans="1:23" s="23" customFormat="1">
-      <c r="A60" s="125"/>
+      <c r="A60" s="129"/>
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -10209,8 +10219,8 @@
       <c r="V60" s="27"/>
       <c r="W60" s="27"/>
     </row>
-    <row r="61" spans="1:23" ht="19.5">
-      <c r="A61" s="125"/>
+    <row r="61" spans="1:23" ht="18.75">
+      <c r="A61" s="129"/>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
@@ -10257,7 +10267,7 @@
       </c>
     </row>
     <row r="62" spans="1:23">
-      <c r="A62" s="125"/>
+      <c r="A62" s="129"/>
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
@@ -10304,7 +10314,7 @@
       </c>
     </row>
     <row r="63" spans="1:23">
-      <c r="A63" s="125"/>
+      <c r="A63" s="129"/>
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
@@ -10350,8 +10360,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="19.5">
-      <c r="A64" s="126"/>
+    <row r="64" spans="1:23" ht="18.75">
+      <c r="A64" s="124"/>
       <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
@@ -10398,7 +10408,7 @@
       </c>
     </row>
     <row r="65" spans="1:23">
-      <c r="A65" s="124" t="s">
+      <c r="A65" s="123" t="s">
         <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -10437,7 +10447,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" s="19" customFormat="1">
-      <c r="A66" s="125"/>
+      <c r="A66" s="129"/>
       <c r="B66" s="20" t="s">
         <v>51</v>
       </c>
@@ -10477,7 +10487,7 @@
       <c r="T66" s="27"/>
     </row>
     <row r="67" spans="1:23">
-      <c r="A67" s="125"/>
+      <c r="A67" s="129"/>
       <c r="B67" s="1" t="s">
         <v>51</v>
       </c>
@@ -10526,7 +10536,7 @@
       </c>
     </row>
     <row r="68" spans="1:23">
-      <c r="A68" s="125"/>
+      <c r="A68" s="129"/>
       <c r="B68" s="1" t="s">
         <v>51</v>
       </c>
@@ -10575,7 +10585,7 @@
       </c>
     </row>
     <row r="69" spans="1:23">
-      <c r="A69" s="125"/>
+      <c r="A69" s="129"/>
       <c r="B69" s="1" t="s">
         <v>51</v>
       </c>
@@ -10624,7 +10634,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" s="16" customFormat="1">
-      <c r="A70" s="125"/>
+      <c r="A70" s="129"/>
       <c r="B70" s="10" t="s">
         <v>51</v>
       </c>
@@ -10677,7 +10687,7 @@
       <c r="W70" s="27"/>
     </row>
     <row r="71" spans="1:23" s="16" customFormat="1">
-      <c r="A71" s="125"/>
+      <c r="A71" s="129"/>
       <c r="B71" s="10" t="s">
         <v>51</v>
       </c>
@@ -10730,7 +10740,7 @@
       <c r="W71" s="27"/>
     </row>
     <row r="72" spans="1:23" s="19" customFormat="1">
-      <c r="A72" s="125"/>
+      <c r="A72" s="129"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
       </c>
@@ -10770,7 +10780,7 @@
       <c r="T72" s="27"/>
     </row>
     <row r="73" spans="1:23" s="19" customFormat="1">
-      <c r="A73" s="126"/>
+      <c r="A73" s="124"/>
       <c r="B73" s="20" t="s">
         <v>51</v>
       </c>
@@ -10810,40 +10820,40 @@
       <c r="T73" s="27"/>
     </row>
     <row r="74" spans="1:23">
-      <c r="A74" s="130" t="s">
+      <c r="A74" s="133" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="124" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="124"/>
-      <c r="D74" s="109" t="s">
+      <c r="B74" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="123"/>
+      <c r="D74" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="124"/>
+      <c r="E74" s="123"/>
       <c r="F74" s="1">
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H74" s="124">
-        <v>1</v>
-      </c>
-      <c r="I74" s="109">
-        <v>1</v>
-      </c>
-      <c r="J74" s="109">
+      <c r="H74" s="123">
+        <v>1</v>
+      </c>
+      <c r="I74" s="112">
+        <v>1</v>
+      </c>
+      <c r="J74" s="112">
         <v>4</v>
       </c>
-      <c r="K74" s="124" t="s">
+      <c r="K74" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="L74" s="124"/>
-      <c r="M74" s="109" t="s">
+      <c r="L74" s="123"/>
+      <c r="M74" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="124"/>
+      <c r="N74" s="123"/>
       <c r="O74" s="51" t="s">
         <v>169</v>
       </c>
@@ -10861,24 +10871,24 @@
       </c>
     </row>
     <row r="75" spans="1:23">
-      <c r="A75" s="125"/>
-      <c r="B75" s="125"/>
-      <c r="C75" s="125"/>
-      <c r="D75" s="110"/>
-      <c r="E75" s="125"/>
+      <c r="A75" s="129"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="129"/>
       <c r="F75" s="1">
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H75" s="125"/>
-      <c r="I75" s="110"/>
-      <c r="J75" s="110"/>
-      <c r="K75" s="125"/>
-      <c r="L75" s="125"/>
-      <c r="M75" s="110"/>
-      <c r="N75" s="125"/>
+      <c r="H75" s="129"/>
+      <c r="I75" s="114"/>
+      <c r="J75" s="114"/>
+      <c r="K75" s="129"/>
+      <c r="L75" s="129"/>
+      <c r="M75" s="114"/>
+      <c r="N75" s="129"/>
       <c r="O75" s="52"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="52"/>
@@ -10886,24 +10896,24 @@
       <c r="S75" s="52"/>
     </row>
     <row r="76" spans="1:23" s="4" customFormat="1">
-      <c r="A76" s="125"/>
-      <c r="B76" s="125"/>
-      <c r="C76" s="125"/>
-      <c r="D76" s="110"/>
-      <c r="E76" s="125"/>
+      <c r="A76" s="129"/>
+      <c r="B76" s="129"/>
+      <c r="C76" s="129"/>
+      <c r="D76" s="114"/>
+      <c r="E76" s="129"/>
       <c r="F76" s="3">
         <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H76" s="125"/>
-      <c r="I76" s="110"/>
-      <c r="J76" s="110"/>
-      <c r="K76" s="125"/>
-      <c r="L76" s="125"/>
-      <c r="M76" s="110"/>
-      <c r="N76" s="125"/>
+      <c r="H76" s="129"/>
+      <c r="I76" s="114"/>
+      <c r="J76" s="114"/>
+      <c r="K76" s="129"/>
+      <c r="L76" s="129"/>
+      <c r="M76" s="114"/>
+      <c r="N76" s="129"/>
       <c r="O76" s="52"/>
       <c r="P76" s="52"/>
       <c r="Q76" s="52"/>
@@ -10915,24 +10925,24 @@
       <c r="W76" s="27"/>
     </row>
     <row r="77" spans="1:23">
-      <c r="A77" s="125"/>
-      <c r="B77" s="126"/>
-      <c r="C77" s="126"/>
-      <c r="D77" s="111"/>
-      <c r="E77" s="126"/>
+      <c r="A77" s="129"/>
+      <c r="B77" s="124"/>
+      <c r="C77" s="124"/>
+      <c r="D77" s="113"/>
+      <c r="E77" s="124"/>
       <c r="F77" s="10">
         <v>4</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H77" s="126"/>
-      <c r="I77" s="111"/>
-      <c r="J77" s="111"/>
-      <c r="K77" s="126"/>
-      <c r="L77" s="126"/>
-      <c r="M77" s="111"/>
-      <c r="N77" s="126"/>
+      <c r="H77" s="124"/>
+      <c r="I77" s="113"/>
+      <c r="J77" s="113"/>
+      <c r="K77" s="124"/>
+      <c r="L77" s="124"/>
+      <c r="M77" s="113"/>
+      <c r="N77" s="124"/>
       <c r="O77" s="53"/>
       <c r="P77" s="53"/>
       <c r="Q77" s="53"/>
@@ -10940,15 +10950,15 @@
       <c r="S77" s="53"/>
     </row>
     <row r="78" spans="1:23">
-      <c r="A78" s="125"/>
-      <c r="B78" s="124"/>
-      <c r="C78" s="124" t="s">
+      <c r="A78" s="129"/>
+      <c r="B78" s="123"/>
+      <c r="C78" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="109" t="s">
+      <c r="D78" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="E78" s="109" t="s">
+      <c r="E78" s="112" t="s">
         <v>147</v>
       </c>
       <c r="F78" s="1">
@@ -10957,23 +10967,23 @@
       <c r="G78" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H78" s="124">
-        <v>1</v>
-      </c>
-      <c r="I78" s="109">
-        <v>1</v>
-      </c>
-      <c r="J78" s="109">
+      <c r="H78" s="123">
+        <v>1</v>
+      </c>
+      <c r="I78" s="112">
+        <v>1</v>
+      </c>
+      <c r="J78" s="112">
         <v>4</v>
       </c>
-      <c r="K78" s="124" t="s">
+      <c r="K78" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="L78" s="124"/>
-      <c r="M78" s="109" t="s">
+      <c r="L78" s="123"/>
+      <c r="M78" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="124"/>
+      <c r="N78" s="123"/>
       <c r="O78" s="51" t="s">
         <v>169</v>
       </c>
@@ -10991,24 +11001,24 @@
       </c>
     </row>
     <row r="79" spans="1:23">
-      <c r="A79" s="125"/>
-      <c r="B79" s="125"/>
-      <c r="C79" s="125"/>
-      <c r="D79" s="110"/>
-      <c r="E79" s="110"/>
+      <c r="A79" s="129"/>
+      <c r="B79" s="129"/>
+      <c r="C79" s="129"/>
+      <c r="D79" s="114"/>
+      <c r="E79" s="114"/>
       <c r="F79" s="1">
         <v>2</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H79" s="125"/>
-      <c r="I79" s="110"/>
-      <c r="J79" s="110"/>
-      <c r="K79" s="125"/>
-      <c r="L79" s="125"/>
-      <c r="M79" s="110"/>
-      <c r="N79" s="125"/>
+      <c r="H79" s="129"/>
+      <c r="I79" s="114"/>
+      <c r="J79" s="114"/>
+      <c r="K79" s="129"/>
+      <c r="L79" s="129"/>
+      <c r="M79" s="114"/>
+      <c r="N79" s="129"/>
       <c r="O79" s="52"/>
       <c r="P79" s="52"/>
       <c r="Q79" s="52"/>
@@ -11016,24 +11026,24 @@
       <c r="S79" s="52"/>
     </row>
     <row r="80" spans="1:23">
-      <c r="A80" s="125"/>
-      <c r="B80" s="125"/>
-      <c r="C80" s="125"/>
-      <c r="D80" s="110"/>
-      <c r="E80" s="110"/>
+      <c r="A80" s="129"/>
+      <c r="B80" s="129"/>
+      <c r="C80" s="129"/>
+      <c r="D80" s="114"/>
+      <c r="E80" s="114"/>
       <c r="F80" s="1">
         <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H80" s="125"/>
-      <c r="I80" s="110"/>
-      <c r="J80" s="110"/>
-      <c r="K80" s="125"/>
-      <c r="L80" s="125"/>
-      <c r="M80" s="110"/>
-      <c r="N80" s="125"/>
+      <c r="H80" s="129"/>
+      <c r="I80" s="114"/>
+      <c r="J80" s="114"/>
+      <c r="K80" s="129"/>
+      <c r="L80" s="129"/>
+      <c r="M80" s="114"/>
+      <c r="N80" s="129"/>
       <c r="O80" s="52"/>
       <c r="P80" s="52"/>
       <c r="Q80" s="52"/>
@@ -11041,24 +11051,24 @@
       <c r="S80" s="52"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="125"/>
-      <c r="B81" s="126"/>
-      <c r="C81" s="126"/>
-      <c r="D81" s="111"/>
-      <c r="E81" s="111"/>
+      <c r="A81" s="129"/>
+      <c r="B81" s="124"/>
+      <c r="C81" s="124"/>
+      <c r="D81" s="113"/>
+      <c r="E81" s="113"/>
       <c r="F81" s="1">
         <v>4</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H81" s="126"/>
-      <c r="I81" s="111"/>
-      <c r="J81" s="111"/>
-      <c r="K81" s="126"/>
-      <c r="L81" s="126"/>
-      <c r="M81" s="111"/>
-      <c r="N81" s="126"/>
+      <c r="H81" s="124"/>
+      <c r="I81" s="113"/>
+      <c r="J81" s="113"/>
+      <c r="K81" s="124"/>
+      <c r="L81" s="124"/>
+      <c r="M81" s="113"/>
+      <c r="N81" s="124"/>
       <c r="O81" s="53"/>
       <c r="P81" s="53"/>
       <c r="Q81" s="53"/>
@@ -11066,7 +11076,7 @@
       <c r="S81" s="53"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="125"/>
+      <c r="A82" s="129"/>
       <c r="B82" s="1" t="s">
         <v>61</v>
       </c>
@@ -11111,7 +11121,7 @@
       </c>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="125"/>
+      <c r="A83" s="129"/>
       <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
@@ -11156,7 +11166,7 @@
       </c>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="125"/>
+      <c r="A84" s="129"/>
       <c r="B84" s="1" t="s">
         <v>61</v>
       </c>
@@ -11200,8 +11210,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="19.5">
-      <c r="A85" s="125"/>
+    <row r="85" spans="1:19" ht="18.75">
+      <c r="A85" s="129"/>
       <c r="B85" s="1" t="s">
         <v>61</v>
       </c>
@@ -11247,8 +11257,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="19.5">
-      <c r="A86" s="125"/>
+    <row r="86" spans="1:19" ht="18.75">
+      <c r="A86" s="129"/>
       <c r="B86" s="1" t="s">
         <v>61</v>
       </c>
@@ -11294,8 +11304,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="19.5">
-      <c r="A87" s="125"/>
+    <row r="87" spans="1:19" ht="18.75">
+      <c r="A87" s="129"/>
       <c r="B87" s="1" t="s">
         <v>61</v>
       </c>
@@ -11339,8 +11349,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="19.5">
-      <c r="A88" s="125"/>
+    <row r="88" spans="1:19" ht="18.75">
+      <c r="A88" s="129"/>
       <c r="B88" s="1" t="s">
         <v>61</v>
       </c>
@@ -11384,8 +11394,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="19.5">
-      <c r="A89" s="125"/>
+    <row r="89" spans="1:19" ht="18.75">
+      <c r="A89" s="129"/>
       <c r="B89" s="1" t="s">
         <v>61</v>
       </c>
@@ -11429,8 +11439,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="19.5">
-      <c r="A90" s="125"/>
+    <row r="90" spans="1:19" ht="18.75">
+      <c r="A90" s="129"/>
       <c r="B90" s="1" t="s">
         <v>61</v>
       </c>
@@ -11474,8 +11484,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="19.5">
-      <c r="A91" s="125"/>
+    <row r="91" spans="1:19" ht="18.75">
+      <c r="A91" s="129"/>
       <c r="B91" s="1" t="s">
         <v>61</v>
       </c>
@@ -11519,8 +11529,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="19.5">
-      <c r="A92" s="125"/>
+    <row r="92" spans="1:19" ht="18.75">
+      <c r="A92" s="129"/>
       <c r="B92" s="1" t="s">
         <v>61</v>
       </c>
@@ -11565,38 +11575,38 @@
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="125"/>
-      <c r="B93" s="124" t="s">
+      <c r="A93" s="129"/>
+      <c r="B93" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C93" s="124"/>
-      <c r="D93" s="124" t="s">
+      <c r="C93" s="123"/>
+      <c r="D93" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="E93" s="124"/>
+      <c r="E93" s="123"/>
       <c r="F93" s="1">
         <v>1</v>
       </c>
       <c r="G93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H93" s="124">
-        <v>1</v>
-      </c>
-      <c r="I93" s="124">
-        <v>1</v>
-      </c>
-      <c r="J93" s="124">
+      <c r="H93" s="123">
+        <v>1</v>
+      </c>
+      <c r="I93" s="123">
+        <v>1</v>
+      </c>
+      <c r="J93" s="123">
         <v>2</v>
       </c>
-      <c r="K93" s="124" t="s">
+      <c r="K93" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="L93" s="124"/>
-      <c r="M93" s="124" t="s">
+      <c r="L93" s="123"/>
+      <c r="M93" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="N93" s="124"/>
+      <c r="N93" s="123"/>
       <c r="O93" s="56" t="s">
         <v>174</v>
       </c>
@@ -11606,24 +11616,24 @@
       <c r="S93" s="56"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="125"/>
-      <c r="B94" s="126"/>
-      <c r="C94" s="126"/>
-      <c r="D94" s="126"/>
-      <c r="E94" s="126"/>
+      <c r="A94" s="129"/>
+      <c r="B94" s="124"/>
+      <c r="C94" s="124"/>
+      <c r="D94" s="124"/>
+      <c r="E94" s="124"/>
       <c r="F94" s="1">
         <v>2</v>
       </c>
       <c r="G94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H94" s="126"/>
-      <c r="I94" s="126"/>
-      <c r="J94" s="126"/>
-      <c r="K94" s="126"/>
-      <c r="L94" s="126"/>
-      <c r="M94" s="126"/>
-      <c r="N94" s="126"/>
+      <c r="H94" s="124"/>
+      <c r="I94" s="124"/>
+      <c r="J94" s="124"/>
+      <c r="K94" s="124"/>
+      <c r="L94" s="124"/>
+      <c r="M94" s="124"/>
+      <c r="N94" s="124"/>
       <c r="O94" s="55"/>
       <c r="P94" s="55"/>
       <c r="Q94" s="55"/>
@@ -11631,38 +11641,38 @@
       <c r="S94" s="55"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="125"/>
-      <c r="B95" s="124" t="s">
+      <c r="A95" s="129"/>
+      <c r="B95" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="124"/>
-      <c r="D95" s="124" t="s">
+      <c r="C95" s="123"/>
+      <c r="D95" s="123" t="s">
         <v>114</v>
       </c>
-      <c r="E95" s="124"/>
+      <c r="E95" s="123"/>
       <c r="F95" s="1">
         <v>1</v>
       </c>
       <c r="G95" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H95" s="124">
+      <c r="H95" s="123">
         <v>2</v>
       </c>
-      <c r="I95" s="124">
-        <v>1</v>
-      </c>
-      <c r="J95" s="124">
+      <c r="I95" s="123">
+        <v>1</v>
+      </c>
+      <c r="J95" s="123">
         <v>2</v>
       </c>
-      <c r="K95" s="124" t="s">
+      <c r="K95" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="L95" s="124"/>
-      <c r="M95" s="124" t="s">
+      <c r="L95" s="123"/>
+      <c r="M95" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="N95" s="124"/>
+      <c r="N95" s="123"/>
       <c r="O95" s="56" t="s">
         <v>174</v>
       </c>
@@ -11672,24 +11682,24 @@
       <c r="S95" s="56"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="125"/>
-      <c r="B96" s="126"/>
-      <c r="C96" s="126"/>
-      <c r="D96" s="126"/>
-      <c r="E96" s="126"/>
+      <c r="A96" s="129"/>
+      <c r="B96" s="124"/>
+      <c r="C96" s="124"/>
+      <c r="D96" s="124"/>
+      <c r="E96" s="124"/>
       <c r="F96" s="1">
         <v>2</v>
       </c>
       <c r="G96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H96" s="126"/>
-      <c r="I96" s="126"/>
-      <c r="J96" s="126"/>
-      <c r="K96" s="126"/>
-      <c r="L96" s="126"/>
-      <c r="M96" s="126"/>
-      <c r="N96" s="126"/>
+      <c r="H96" s="124"/>
+      <c r="I96" s="124"/>
+      <c r="J96" s="124"/>
+      <c r="K96" s="124"/>
+      <c r="L96" s="124"/>
+      <c r="M96" s="124"/>
+      <c r="N96" s="124"/>
       <c r="O96" s="55"/>
       <c r="P96" s="55"/>
       <c r="Q96" s="55"/>
@@ -11697,7 +11707,7 @@
       <c r="S96" s="55"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="126"/>
+      <c r="A97" s="124"/>
       <c r="B97" s="1" t="s">
         <v>61</v>
       </c>
@@ -11746,40 +11756,40 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="17.649999999999999" customHeight="1">
-      <c r="A98" s="130" t="s">
+      <c r="A98" s="133" t="s">
         <v>134</v>
       </c>
-      <c r="B98" s="124" t="s">
+      <c r="B98" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C98" s="124"/>
-      <c r="D98" s="124" t="s">
+      <c r="C98" s="123"/>
+      <c r="D98" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="E98" s="124"/>
+      <c r="E98" s="123"/>
       <c r="F98" s="1">
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H98" s="124">
-        <v>1</v>
-      </c>
-      <c r="I98" s="124">
-        <v>1</v>
-      </c>
-      <c r="J98" s="124">
+      <c r="H98" s="123">
+        <v>1</v>
+      </c>
+      <c r="I98" s="123">
+        <v>1</v>
+      </c>
+      <c r="J98" s="123">
         <v>3</v>
       </c>
-      <c r="K98" s="124" t="s">
+      <c r="K98" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="L98" s="124"/>
-      <c r="M98" s="124" t="s">
+      <c r="L98" s="123"/>
+      <c r="M98" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="N98" s="124"/>
+      <c r="N98" s="123"/>
       <c r="O98" s="51" t="s">
         <v>168</v>
       </c>
@@ -11797,24 +11807,24 @@
       </c>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="131"/>
-      <c r="B99" s="125"/>
-      <c r="C99" s="125"/>
-      <c r="D99" s="125"/>
-      <c r="E99" s="125"/>
+      <c r="A99" s="134"/>
+      <c r="B99" s="129"/>
+      <c r="C99" s="129"/>
+      <c r="D99" s="129"/>
+      <c r="E99" s="129"/>
       <c r="F99" s="1">
         <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H99" s="125"/>
-      <c r="I99" s="125"/>
-      <c r="J99" s="125"/>
-      <c r="K99" s="125"/>
-      <c r="L99" s="125"/>
-      <c r="M99" s="125"/>
-      <c r="N99" s="125"/>
+      <c r="H99" s="129"/>
+      <c r="I99" s="129"/>
+      <c r="J99" s="129"/>
+      <c r="K99" s="129"/>
+      <c r="L99" s="129"/>
+      <c r="M99" s="129"/>
+      <c r="N99" s="129"/>
       <c r="O99" s="52"/>
       <c r="P99" s="52"/>
       <c r="Q99" s="52"/>
@@ -11822,24 +11832,24 @@
       <c r="S99" s="52"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="131"/>
-      <c r="B100" s="126"/>
-      <c r="C100" s="126"/>
-      <c r="D100" s="126"/>
-      <c r="E100" s="126"/>
+      <c r="A100" s="134"/>
+      <c r="B100" s="124"/>
+      <c r="C100" s="124"/>
+      <c r="D100" s="124"/>
+      <c r="E100" s="124"/>
       <c r="F100" s="1">
         <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H100" s="126"/>
-      <c r="I100" s="126"/>
-      <c r="J100" s="126"/>
-      <c r="K100" s="126"/>
-      <c r="L100" s="126"/>
-      <c r="M100" s="126"/>
-      <c r="N100" s="126"/>
+      <c r="H100" s="124"/>
+      <c r="I100" s="124"/>
+      <c r="J100" s="124"/>
+      <c r="K100" s="124"/>
+      <c r="L100" s="124"/>
+      <c r="M100" s="124"/>
+      <c r="N100" s="124"/>
       <c r="O100" s="53"/>
       <c r="P100" s="53"/>
       <c r="Q100" s="53"/>
@@ -11847,15 +11857,15 @@
       <c r="S100" s="53"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="131"/>
-      <c r="B101" s="124"/>
-      <c r="C101" s="124" t="s">
+      <c r="A101" s="134"/>
+      <c r="B101" s="123"/>
+      <c r="C101" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="124" t="s">
+      <c r="D101" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="124" t="s">
+      <c r="E101" s="123" t="s">
         <v>119</v>
       </c>
       <c r="F101" s="1">
@@ -11864,21 +11874,21 @@
       <c r="G101" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H101" s="124"/>
-      <c r="I101" s="124">
-        <v>1</v>
-      </c>
-      <c r="J101" s="124">
+      <c r="H101" s="123"/>
+      <c r="I101" s="123">
+        <v>1</v>
+      </c>
+      <c r="J101" s="123">
         <v>4</v>
       </c>
-      <c r="K101" s="124" t="s">
+      <c r="K101" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="L101" s="124"/>
-      <c r="M101" s="124" t="s">
+      <c r="L101" s="123"/>
+      <c r="M101" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="N101" s="124"/>
+      <c r="N101" s="123"/>
       <c r="O101" s="51" t="s">
         <v>168</v>
       </c>
@@ -11896,24 +11906,24 @@
       </c>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="131"/>
-      <c r="B102" s="125"/>
-      <c r="C102" s="125"/>
-      <c r="D102" s="125"/>
-      <c r="E102" s="125"/>
+      <c r="A102" s="134"/>
+      <c r="B102" s="129"/>
+      <c r="C102" s="129"/>
+      <c r="D102" s="129"/>
+      <c r="E102" s="129"/>
       <c r="F102" s="1">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H102" s="125"/>
-      <c r="I102" s="125"/>
-      <c r="J102" s="125"/>
-      <c r="K102" s="125"/>
-      <c r="L102" s="125"/>
-      <c r="M102" s="125"/>
-      <c r="N102" s="125"/>
+      <c r="H102" s="129"/>
+      <c r="I102" s="129"/>
+      <c r="J102" s="129"/>
+      <c r="K102" s="129"/>
+      <c r="L102" s="129"/>
+      <c r="M102" s="129"/>
+      <c r="N102" s="129"/>
       <c r="O102" s="52"/>
       <c r="P102" s="52"/>
       <c r="Q102" s="52"/>
@@ -11921,24 +11931,24 @@
       <c r="S102" s="52"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="131"/>
-      <c r="B103" s="125"/>
-      <c r="C103" s="125"/>
-      <c r="D103" s="125"/>
-      <c r="E103" s="125"/>
+      <c r="A103" s="134"/>
+      <c r="B103" s="129"/>
+      <c r="C103" s="129"/>
+      <c r="D103" s="129"/>
+      <c r="E103" s="129"/>
       <c r="F103" s="1">
         <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H103" s="125"/>
-      <c r="I103" s="125"/>
-      <c r="J103" s="125"/>
-      <c r="K103" s="125"/>
-      <c r="L103" s="125"/>
-      <c r="M103" s="125"/>
-      <c r="N103" s="125"/>
+      <c r="H103" s="129"/>
+      <c r="I103" s="129"/>
+      <c r="J103" s="129"/>
+      <c r="K103" s="129"/>
+      <c r="L103" s="129"/>
+      <c r="M103" s="129"/>
+      <c r="N103" s="129"/>
       <c r="O103" s="52"/>
       <c r="P103" s="52"/>
       <c r="Q103" s="52"/>
@@ -11946,24 +11956,24 @@
       <c r="S103" s="52"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="131"/>
-      <c r="B104" s="126"/>
-      <c r="C104" s="126"/>
-      <c r="D104" s="126"/>
-      <c r="E104" s="126"/>
+      <c r="A104" s="134"/>
+      <c r="B104" s="124"/>
+      <c r="C104" s="124"/>
+      <c r="D104" s="124"/>
+      <c r="E104" s="124"/>
       <c r="F104" s="1">
         <v>4</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H104" s="126"/>
-      <c r="I104" s="126"/>
-      <c r="J104" s="126"/>
-      <c r="K104" s="126"/>
-      <c r="L104" s="126"/>
-      <c r="M104" s="126"/>
-      <c r="N104" s="126"/>
+      <c r="H104" s="124"/>
+      <c r="I104" s="124"/>
+      <c r="J104" s="124"/>
+      <c r="K104" s="124"/>
+      <c r="L104" s="124"/>
+      <c r="M104" s="124"/>
+      <c r="N104" s="124"/>
       <c r="O104" s="53"/>
       <c r="P104" s="53"/>
       <c r="Q104" s="53"/>
@@ -11971,38 +11981,38 @@
       <c r="S104" s="53"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="131"/>
-      <c r="B105" s="124" t="s">
+      <c r="A105" s="134"/>
+      <c r="B105" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="124"/>
-      <c r="D105" s="124" t="s">
+      <c r="C105" s="123"/>
+      <c r="D105" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="E105" s="124"/>
+      <c r="E105" s="123"/>
       <c r="F105" s="1">
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H105" s="124">
+      <c r="H105" s="123">
         <v>3</v>
       </c>
-      <c r="I105" s="124">
-        <v>1</v>
-      </c>
-      <c r="J105" s="124">
+      <c r="I105" s="123">
+        <v>1</v>
+      </c>
+      <c r="J105" s="123">
         <v>3</v>
       </c>
-      <c r="K105" s="124" t="s">
+      <c r="K105" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="L105" s="124"/>
-      <c r="M105" s="124" t="s">
+      <c r="L105" s="123"/>
+      <c r="M105" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="N105" s="124"/>
+      <c r="N105" s="123"/>
       <c r="O105" s="51" t="s">
         <v>168</v>
       </c>
@@ -12020,24 +12030,24 @@
       </c>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="131"/>
-      <c r="B106" s="125"/>
-      <c r="C106" s="125"/>
-      <c r="D106" s="125"/>
-      <c r="E106" s="125"/>
+      <c r="A106" s="134"/>
+      <c r="B106" s="129"/>
+      <c r="C106" s="129"/>
+      <c r="D106" s="129"/>
+      <c r="E106" s="129"/>
       <c r="F106" s="1">
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H106" s="125"/>
-      <c r="I106" s="125"/>
-      <c r="J106" s="125"/>
-      <c r="K106" s="125"/>
-      <c r="L106" s="125"/>
-      <c r="M106" s="125"/>
-      <c r="N106" s="125"/>
+      <c r="H106" s="129"/>
+      <c r="I106" s="129"/>
+      <c r="J106" s="129"/>
+      <c r="K106" s="129"/>
+      <c r="L106" s="129"/>
+      <c r="M106" s="129"/>
+      <c r="N106" s="129"/>
       <c r="O106" s="52"/>
       <c r="P106" s="52"/>
       <c r="Q106" s="52"/>
@@ -12045,24 +12055,24 @@
       <c r="S106" s="52"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="131"/>
-      <c r="B107" s="126"/>
-      <c r="C107" s="126"/>
-      <c r="D107" s="126"/>
-      <c r="E107" s="126"/>
+      <c r="A107" s="134"/>
+      <c r="B107" s="124"/>
+      <c r="C107" s="124"/>
+      <c r="D107" s="124"/>
+      <c r="E107" s="124"/>
       <c r="F107" s="1">
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H107" s="126"/>
-      <c r="I107" s="126"/>
-      <c r="J107" s="126"/>
-      <c r="K107" s="126"/>
-      <c r="L107" s="126"/>
-      <c r="M107" s="126"/>
-      <c r="N107" s="126"/>
+      <c r="H107" s="124"/>
+      <c r="I107" s="124"/>
+      <c r="J107" s="124"/>
+      <c r="K107" s="124"/>
+      <c r="L107" s="124"/>
+      <c r="M107" s="124"/>
+      <c r="N107" s="124"/>
       <c r="O107" s="53"/>
       <c r="P107" s="53"/>
       <c r="Q107" s="53"/>
@@ -12070,15 +12080,15 @@
       <c r="S107" s="53"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="131"/>
-      <c r="B108" s="124"/>
-      <c r="C108" s="124" t="s">
+      <c r="A108" s="134"/>
+      <c r="B108" s="123"/>
+      <c r="C108" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="D108" s="124" t="s">
+      <c r="D108" s="123" t="s">
         <v>121</v>
       </c>
-      <c r="E108" s="124" t="s">
+      <c r="E108" s="123" t="s">
         <v>122</v>
       </c>
       <c r="F108" s="1">
@@ -12087,21 +12097,21 @@
       <c r="G108" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H108" s="124"/>
-      <c r="I108" s="124">
-        <v>1</v>
-      </c>
-      <c r="J108" s="124">
+      <c r="H108" s="123"/>
+      <c r="I108" s="123">
+        <v>1</v>
+      </c>
+      <c r="J108" s="123">
         <v>4</v>
       </c>
-      <c r="K108" s="124" t="s">
+      <c r="K108" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="L108" s="124"/>
-      <c r="M108" s="124" t="s">
+      <c r="L108" s="123"/>
+      <c r="M108" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="N108" s="124"/>
+      <c r="N108" s="123"/>
       <c r="O108" s="51" t="s">
         <v>168</v>
       </c>
@@ -12119,24 +12129,24 @@
       </c>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="131"/>
-      <c r="B109" s="125"/>
-      <c r="C109" s="125"/>
-      <c r="D109" s="125"/>
-      <c r="E109" s="125"/>
+      <c r="A109" s="134"/>
+      <c r="B109" s="129"/>
+      <c r="C109" s="129"/>
+      <c r="D109" s="129"/>
+      <c r="E109" s="129"/>
       <c r="F109" s="1">
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H109" s="125"/>
-      <c r="I109" s="125"/>
-      <c r="J109" s="125"/>
-      <c r="K109" s="125"/>
-      <c r="L109" s="125"/>
-      <c r="M109" s="125"/>
-      <c r="N109" s="125"/>
+      <c r="H109" s="129"/>
+      <c r="I109" s="129"/>
+      <c r="J109" s="129"/>
+      <c r="K109" s="129"/>
+      <c r="L109" s="129"/>
+      <c r="M109" s="129"/>
+      <c r="N109" s="129"/>
       <c r="O109" s="52"/>
       <c r="P109" s="52"/>
       <c r="Q109" s="52"/>
@@ -12144,24 +12154,24 @@
       <c r="S109" s="52"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="131"/>
-      <c r="B110" s="125"/>
-      <c r="C110" s="125"/>
-      <c r="D110" s="125"/>
-      <c r="E110" s="125"/>
+      <c r="A110" s="134"/>
+      <c r="B110" s="129"/>
+      <c r="C110" s="129"/>
+      <c r="D110" s="129"/>
+      <c r="E110" s="129"/>
       <c r="F110" s="1">
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H110" s="125"/>
-      <c r="I110" s="125"/>
-      <c r="J110" s="125"/>
-      <c r="K110" s="125"/>
-      <c r="L110" s="125"/>
-      <c r="M110" s="125"/>
-      <c r="N110" s="125"/>
+      <c r="H110" s="129"/>
+      <c r="I110" s="129"/>
+      <c r="J110" s="129"/>
+      <c r="K110" s="129"/>
+      <c r="L110" s="129"/>
+      <c r="M110" s="129"/>
+      <c r="N110" s="129"/>
       <c r="O110" s="52"/>
       <c r="P110" s="52"/>
       <c r="Q110" s="52"/>
@@ -12169,32 +12179,32 @@
       <c r="S110" s="52"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="131"/>
-      <c r="B111" s="126"/>
-      <c r="C111" s="126"/>
-      <c r="D111" s="126"/>
-      <c r="E111" s="126"/>
+      <c r="A111" s="134"/>
+      <c r="B111" s="124"/>
+      <c r="C111" s="124"/>
+      <c r="D111" s="124"/>
+      <c r="E111" s="124"/>
       <c r="F111" s="1">
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H111" s="126"/>
-      <c r="I111" s="126"/>
-      <c r="J111" s="126"/>
-      <c r="K111" s="126"/>
-      <c r="L111" s="126"/>
-      <c r="M111" s="126"/>
-      <c r="N111" s="126"/>
+      <c r="H111" s="124"/>
+      <c r="I111" s="124"/>
+      <c r="J111" s="124"/>
+      <c r="K111" s="124"/>
+      <c r="L111" s="124"/>
+      <c r="M111" s="124"/>
+      <c r="N111" s="124"/>
       <c r="O111" s="53"/>
       <c r="P111" s="53"/>
       <c r="Q111" s="53"/>
       <c r="R111" s="53"/>
       <c r="S111" s="53"/>
     </row>
-    <row r="112" spans="1:19" ht="19.5">
-      <c r="A112" s="131"/>
+    <row r="112" spans="1:19" ht="18.75">
+      <c r="A112" s="134"/>
       <c r="B112" s="1" t="s">
         <v>61</v>
       </c>
@@ -12238,8 +12248,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="19.5">
-      <c r="A113" s="131"/>
+    <row r="113" spans="1:23" ht="18.75">
+      <c r="A113" s="134"/>
       <c r="B113" s="1" t="s">
         <v>61</v>
       </c>
@@ -12283,8 +12293,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="19.5">
-      <c r="A114" s="132"/>
+    <row r="114" spans="1:23" ht="18.75">
+      <c r="A114" s="135"/>
       <c r="B114" s="1" t="s">
         <v>61</v>
       </c>
@@ -12329,40 +12339,40 @@
       </c>
     </row>
     <row r="115" spans="1:23">
-      <c r="A115" s="130" t="s">
+      <c r="A115" s="133" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="124" t="s">
-        <v>51</v>
-      </c>
-      <c r="C115" s="124"/>
-      <c r="D115" s="109" t="s">
+      <c r="B115" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="123"/>
+      <c r="D115" s="112" t="s">
         <v>137</v>
       </c>
-      <c r="E115" s="124"/>
+      <c r="E115" s="123"/>
       <c r="F115" s="1">
         <v>1</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H115" s="124">
-        <v>1</v>
-      </c>
-      <c r="I115" s="109">
-        <v>1</v>
-      </c>
-      <c r="J115" s="109">
+      <c r="H115" s="123">
+        <v>1</v>
+      </c>
+      <c r="I115" s="112">
+        <v>1</v>
+      </c>
+      <c r="J115" s="112">
         <v>4</v>
       </c>
-      <c r="K115" s="124" t="s">
+      <c r="K115" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="L115" s="124"/>
-      <c r="M115" s="109" t="s">
+      <c r="L115" s="123"/>
+      <c r="M115" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="N115" s="124"/>
+      <c r="N115" s="123"/>
       <c r="O115" s="51" t="s">
         <v>169</v>
       </c>
@@ -12380,24 +12390,24 @@
       </c>
     </row>
     <row r="116" spans="1:23">
-      <c r="A116" s="125"/>
-      <c r="B116" s="125"/>
-      <c r="C116" s="125"/>
-      <c r="D116" s="110"/>
-      <c r="E116" s="125"/>
+      <c r="A116" s="129"/>
+      <c r="B116" s="129"/>
+      <c r="C116" s="129"/>
+      <c r="D116" s="114"/>
+      <c r="E116" s="129"/>
       <c r="F116" s="1">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H116" s="125"/>
-      <c r="I116" s="110"/>
-      <c r="J116" s="110"/>
-      <c r="K116" s="125"/>
-      <c r="L116" s="125"/>
-      <c r="M116" s="110"/>
-      <c r="N116" s="125"/>
+      <c r="H116" s="129"/>
+      <c r="I116" s="114"/>
+      <c r="J116" s="114"/>
+      <c r="K116" s="129"/>
+      <c r="L116" s="129"/>
+      <c r="M116" s="114"/>
+      <c r="N116" s="129"/>
       <c r="O116" s="52"/>
       <c r="P116" s="52"/>
       <c r="Q116" s="52"/>
@@ -12405,24 +12415,24 @@
       <c r="S116" s="52"/>
     </row>
     <row r="117" spans="1:23" s="7" customFormat="1">
-      <c r="A117" s="125"/>
-      <c r="B117" s="125"/>
-      <c r="C117" s="125"/>
-      <c r="D117" s="110"/>
-      <c r="E117" s="125"/>
+      <c r="A117" s="129"/>
+      <c r="B117" s="129"/>
+      <c r="C117" s="129"/>
+      <c r="D117" s="114"/>
+      <c r="E117" s="129"/>
       <c r="F117" s="6">
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H117" s="125"/>
-      <c r="I117" s="110"/>
-      <c r="J117" s="110"/>
-      <c r="K117" s="125"/>
-      <c r="L117" s="125"/>
-      <c r="M117" s="110"/>
-      <c r="N117" s="125"/>
+      <c r="H117" s="129"/>
+      <c r="I117" s="114"/>
+      <c r="J117" s="114"/>
+      <c r="K117" s="129"/>
+      <c r="L117" s="129"/>
+      <c r="M117" s="114"/>
+      <c r="N117" s="129"/>
       <c r="O117" s="52"/>
       <c r="P117" s="52"/>
       <c r="Q117" s="52"/>
@@ -12434,24 +12444,24 @@
       <c r="W117" s="27"/>
     </row>
     <row r="118" spans="1:23">
-      <c r="A118" s="125"/>
-      <c r="B118" s="126"/>
-      <c r="C118" s="126"/>
-      <c r="D118" s="111"/>
-      <c r="E118" s="126"/>
+      <c r="A118" s="129"/>
+      <c r="B118" s="124"/>
+      <c r="C118" s="124"/>
+      <c r="D118" s="113"/>
+      <c r="E118" s="124"/>
       <c r="F118" s="10">
         <v>4</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H118" s="126"/>
-      <c r="I118" s="111"/>
-      <c r="J118" s="111"/>
-      <c r="K118" s="126"/>
-      <c r="L118" s="126"/>
-      <c r="M118" s="111"/>
-      <c r="N118" s="126"/>
+      <c r="H118" s="124"/>
+      <c r="I118" s="113"/>
+      <c r="J118" s="113"/>
+      <c r="K118" s="124"/>
+      <c r="L118" s="124"/>
+      <c r="M118" s="113"/>
+      <c r="N118" s="124"/>
       <c r="O118" s="53"/>
       <c r="P118" s="53"/>
       <c r="Q118" s="53"/>
@@ -12459,15 +12469,15 @@
       <c r="S118" s="53"/>
     </row>
     <row r="119" spans="1:23">
-      <c r="A119" s="125"/>
-      <c r="B119" s="124"/>
-      <c r="C119" s="124" t="s">
+      <c r="A119" s="129"/>
+      <c r="B119" s="123"/>
+      <c r="C119" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="D119" s="109" t="s">
+      <c r="D119" s="112" t="s">
         <v>148</v>
       </c>
-      <c r="E119" s="109" t="s">
+      <c r="E119" s="112" t="s">
         <v>147</v>
       </c>
       <c r="F119" s="1">
@@ -12476,23 +12486,23 @@
       <c r="G119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H119" s="124">
-        <v>1</v>
-      </c>
-      <c r="I119" s="109">
-        <v>1</v>
-      </c>
-      <c r="J119" s="109">
+      <c r="H119" s="123">
+        <v>1</v>
+      </c>
+      <c r="I119" s="112">
+        <v>1</v>
+      </c>
+      <c r="J119" s="112">
         <v>4</v>
       </c>
-      <c r="K119" s="124" t="s">
+      <c r="K119" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="L119" s="124"/>
-      <c r="M119" s="109" t="s">
+      <c r="L119" s="123"/>
+      <c r="M119" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="N119" s="124"/>
+      <c r="N119" s="123"/>
       <c r="O119" s="51" t="s">
         <v>169</v>
       </c>
@@ -12510,24 +12520,24 @@
       </c>
     </row>
     <row r="120" spans="1:23">
-      <c r="A120" s="125"/>
-      <c r="B120" s="125"/>
-      <c r="C120" s="125"/>
-      <c r="D120" s="110"/>
-      <c r="E120" s="110"/>
+      <c r="A120" s="129"/>
+      <c r="B120" s="129"/>
+      <c r="C120" s="129"/>
+      <c r="D120" s="114"/>
+      <c r="E120" s="114"/>
       <c r="F120" s="1">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H120" s="125"/>
-      <c r="I120" s="110"/>
-      <c r="J120" s="110"/>
-      <c r="K120" s="125"/>
-      <c r="L120" s="125"/>
-      <c r="M120" s="110"/>
-      <c r="N120" s="125"/>
+      <c r="H120" s="129"/>
+      <c r="I120" s="114"/>
+      <c r="J120" s="114"/>
+      <c r="K120" s="129"/>
+      <c r="L120" s="129"/>
+      <c r="M120" s="114"/>
+      <c r="N120" s="129"/>
       <c r="O120" s="52"/>
       <c r="P120" s="52"/>
       <c r="Q120" s="52"/>
@@ -12535,24 +12545,24 @@
       <c r="S120" s="52"/>
     </row>
     <row r="121" spans="1:23">
-      <c r="A121" s="125"/>
-      <c r="B121" s="125"/>
-      <c r="C121" s="125"/>
-      <c r="D121" s="110"/>
-      <c r="E121" s="110"/>
+      <c r="A121" s="129"/>
+      <c r="B121" s="129"/>
+      <c r="C121" s="129"/>
+      <c r="D121" s="114"/>
+      <c r="E121" s="114"/>
       <c r="F121" s="1">
         <v>3</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H121" s="125"/>
-      <c r="I121" s="110"/>
-      <c r="J121" s="110"/>
-      <c r="K121" s="125"/>
-      <c r="L121" s="125"/>
-      <c r="M121" s="110"/>
-      <c r="N121" s="125"/>
+      <c r="H121" s="129"/>
+      <c r="I121" s="114"/>
+      <c r="J121" s="114"/>
+      <c r="K121" s="129"/>
+      <c r="L121" s="129"/>
+      <c r="M121" s="114"/>
+      <c r="N121" s="129"/>
       <c r="O121" s="52"/>
       <c r="P121" s="52"/>
       <c r="Q121" s="52"/>
@@ -12560,24 +12570,24 @@
       <c r="S121" s="52"/>
     </row>
     <row r="122" spans="1:23">
-      <c r="A122" s="125"/>
-      <c r="B122" s="126"/>
-      <c r="C122" s="126"/>
-      <c r="D122" s="111"/>
-      <c r="E122" s="111"/>
+      <c r="A122" s="129"/>
+      <c r="B122" s="124"/>
+      <c r="C122" s="124"/>
+      <c r="D122" s="113"/>
+      <c r="E122" s="113"/>
       <c r="F122" s="1">
         <v>4</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H122" s="126"/>
-      <c r="I122" s="111"/>
-      <c r="J122" s="111"/>
-      <c r="K122" s="126"/>
-      <c r="L122" s="126"/>
-      <c r="M122" s="111"/>
-      <c r="N122" s="126"/>
+      <c r="H122" s="124"/>
+      <c r="I122" s="113"/>
+      <c r="J122" s="113"/>
+      <c r="K122" s="124"/>
+      <c r="L122" s="124"/>
+      <c r="M122" s="113"/>
+      <c r="N122" s="124"/>
       <c r="O122" s="53"/>
       <c r="P122" s="53"/>
       <c r="Q122" s="53"/>
@@ -12585,38 +12595,38 @@
       <c r="S122" s="53"/>
     </row>
     <row r="123" spans="1:23">
-      <c r="A123" s="125"/>
-      <c r="B123" s="124" t="s">
+      <c r="A123" s="129"/>
+      <c r="B123" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C123" s="124"/>
-      <c r="D123" s="124" t="s">
+      <c r="C123" s="123"/>
+      <c r="D123" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="E123" s="124"/>
+      <c r="E123" s="123"/>
       <c r="F123" s="1">
         <v>1</v>
       </c>
       <c r="G123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H123" s="124">
-        <v>1</v>
-      </c>
-      <c r="I123" s="124">
-        <v>1</v>
-      </c>
-      <c r="J123" s="124">
+      <c r="H123" s="123">
+        <v>1</v>
+      </c>
+      <c r="I123" s="123">
+        <v>1</v>
+      </c>
+      <c r="J123" s="123">
         <v>2</v>
       </c>
-      <c r="K123" s="124" t="s">
+      <c r="K123" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="L123" s="124"/>
-      <c r="M123" s="124" t="s">
+      <c r="L123" s="123"/>
+      <c r="M123" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="N123" s="124"/>
+      <c r="N123" s="123"/>
       <c r="O123" s="51" t="s">
         <v>51</v>
       </c>
@@ -12634,24 +12644,24 @@
       </c>
     </row>
     <row r="124" spans="1:23">
-      <c r="A124" s="125"/>
-      <c r="B124" s="126"/>
-      <c r="C124" s="126"/>
-      <c r="D124" s="126"/>
-      <c r="E124" s="126"/>
+      <c r="A124" s="129"/>
+      <c r="B124" s="124"/>
+      <c r="C124" s="124"/>
+      <c r="D124" s="124"/>
+      <c r="E124" s="124"/>
       <c r="F124" s="1">
         <v>2</v>
       </c>
       <c r="G124" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H124" s="126"/>
-      <c r="I124" s="126"/>
-      <c r="J124" s="126"/>
-      <c r="K124" s="126"/>
-      <c r="L124" s="126"/>
-      <c r="M124" s="126"/>
-      <c r="N124" s="126"/>
+      <c r="H124" s="124"/>
+      <c r="I124" s="124"/>
+      <c r="J124" s="124"/>
+      <c r="K124" s="124"/>
+      <c r="L124" s="124"/>
+      <c r="M124" s="124"/>
+      <c r="N124" s="124"/>
       <c r="O124" s="53"/>
       <c r="P124" s="53"/>
       <c r="Q124" s="53"/>
@@ -12659,12 +12669,12 @@
       <c r="S124" s="53"/>
     </row>
     <row r="125" spans="1:23" s="11" customFormat="1">
-      <c r="A125" s="125"/>
-      <c r="B125" s="118" t="s">
+      <c r="A125" s="129"/>
+      <c r="B125" s="120" t="s">
         <v>51</v>
       </c>
       <c r="C125" s="12"/>
-      <c r="D125" s="115" t="s">
+      <c r="D125" s="117" t="s">
         <v>150</v>
       </c>
       <c r="E125" s="12"/>
@@ -12674,20 +12684,20 @@
       <c r="G125" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H125" s="109">
-        <v>1</v>
-      </c>
-      <c r="I125" s="109">
-        <v>1</v>
-      </c>
-      <c r="J125" s="109">
+      <c r="H125" s="112">
+        <v>1</v>
+      </c>
+      <c r="I125" s="112">
+        <v>1</v>
+      </c>
+      <c r="J125" s="112">
         <v>2</v>
       </c>
-      <c r="K125" s="109" t="s">
+      <c r="K125" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="L125" s="124"/>
-      <c r="M125" s="124" t="s">
+      <c r="L125" s="123"/>
+      <c r="M125" s="123" t="s">
         <v>38</v>
       </c>
       <c r="N125" s="12"/>
@@ -12712,10 +12722,10 @@
       <c r="W125" s="27"/>
     </row>
     <row r="126" spans="1:23" s="11" customFormat="1">
-      <c r="A126" s="125"/>
-      <c r="B126" s="120"/>
+      <c r="A126" s="129"/>
+      <c r="B126" s="128"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="117"/>
+      <c r="D126" s="119"/>
       <c r="E126" s="12"/>
       <c r="F126" s="10">
         <v>2</v>
@@ -12723,12 +12733,12 @@
       <c r="G126" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H126" s="111"/>
-      <c r="I126" s="111"/>
-      <c r="J126" s="111"/>
-      <c r="K126" s="111"/>
-      <c r="L126" s="126"/>
-      <c r="M126" s="126"/>
+      <c r="H126" s="113"/>
+      <c r="I126" s="113"/>
+      <c r="J126" s="113"/>
+      <c r="K126" s="113"/>
+      <c r="L126" s="124"/>
+      <c r="M126" s="124"/>
       <c r="N126" s="12"/>
       <c r="O126" s="53"/>
       <c r="P126" s="53"/>
@@ -12741,15 +12751,15 @@
       <c r="W126" s="27"/>
     </row>
     <row r="127" spans="1:23">
-      <c r="A127" s="125"/>
-      <c r="B127" s="124" t="s">
+      <c r="A127" s="129"/>
+      <c r="B127" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C127" s="124"/>
-      <c r="D127" s="134" t="s">
+      <c r="C127" s="123"/>
+      <c r="D127" s="131" t="s">
         <v>186</v>
       </c>
-      <c r="E127" s="133" t="s">
+      <c r="E127" s="130" t="s">
         <v>145</v>
       </c>
       <c r="F127" s="1">
@@ -12758,20 +12768,20 @@
       <c r="G127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="124">
+      <c r="H127" s="123">
         <v>2</v>
       </c>
-      <c r="I127" s="124">
-        <v>1</v>
-      </c>
-      <c r="J127" s="109">
+      <c r="I127" s="123">
+        <v>1</v>
+      </c>
+      <c r="J127" s="112">
         <v>15</v>
       </c>
-      <c r="K127" s="124" t="s">
+      <c r="K127" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="L127" s="124"/>
-      <c r="M127" s="124" t="s">
+      <c r="L127" s="123"/>
+      <c r="M127" s="123" t="s">
         <v>74</v>
       </c>
       <c r="N127" s="8" t="s">
@@ -12794,23 +12804,23 @@
       </c>
     </row>
     <row r="128" spans="1:23">
-      <c r="A128" s="125"/>
-      <c r="B128" s="125"/>
-      <c r="C128" s="125"/>
-      <c r="D128" s="134"/>
-      <c r="E128" s="133"/>
+      <c r="A128" s="129"/>
+      <c r="B128" s="129"/>
+      <c r="C128" s="129"/>
+      <c r="D128" s="131"/>
+      <c r="E128" s="130"/>
       <c r="F128" s="1">
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H128" s="125"/>
-      <c r="I128" s="125"/>
-      <c r="J128" s="110"/>
-      <c r="K128" s="125"/>
-      <c r="L128" s="125"/>
-      <c r="M128" s="125"/>
+      <c r="H128" s="129"/>
+      <c r="I128" s="129"/>
+      <c r="J128" s="114"/>
+      <c r="K128" s="129"/>
+      <c r="L128" s="129"/>
+      <c r="M128" s="129"/>
       <c r="N128" s="9" t="s">
         <v>142</v>
       </c>
@@ -12831,23 +12841,23 @@
       </c>
     </row>
     <row r="129" spans="1:23">
-      <c r="A129" s="125"/>
-      <c r="B129" s="125"/>
-      <c r="C129" s="125"/>
-      <c r="D129" s="134"/>
-      <c r="E129" s="133"/>
+      <c r="A129" s="129"/>
+      <c r="B129" s="129"/>
+      <c r="C129" s="129"/>
+      <c r="D129" s="131"/>
+      <c r="E129" s="130"/>
       <c r="F129" s="1">
         <v>3</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H129" s="125"/>
-      <c r="I129" s="125"/>
-      <c r="J129" s="110"/>
-      <c r="K129" s="125"/>
-      <c r="L129" s="125"/>
-      <c r="M129" s="125"/>
+      <c r="H129" s="129"/>
+      <c r="I129" s="129"/>
+      <c r="J129" s="114"/>
+      <c r="K129" s="129"/>
+      <c r="L129" s="129"/>
+      <c r="M129" s="129"/>
       <c r="N129" s="9" t="s">
         <v>142</v>
       </c>
@@ -12868,23 +12878,23 @@
       </c>
     </row>
     <row r="130" spans="1:23">
-      <c r="A130" s="125"/>
-      <c r="B130" s="125"/>
-      <c r="C130" s="125"/>
-      <c r="D130" s="134"/>
-      <c r="E130" s="133"/>
+      <c r="A130" s="129"/>
+      <c r="B130" s="129"/>
+      <c r="C130" s="129"/>
+      <c r="D130" s="131"/>
+      <c r="E130" s="130"/>
       <c r="F130" s="1">
         <v>4</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="125"/>
-      <c r="I130" s="125"/>
-      <c r="J130" s="110"/>
-      <c r="K130" s="125"/>
-      <c r="L130" s="125"/>
-      <c r="M130" s="125"/>
+      <c r="H130" s="129"/>
+      <c r="I130" s="129"/>
+      <c r="J130" s="114"/>
+      <c r="K130" s="129"/>
+      <c r="L130" s="129"/>
+      <c r="M130" s="129"/>
       <c r="N130" s="9" t="s">
         <v>142</v>
       </c>
@@ -12905,23 +12915,23 @@
       </c>
     </row>
     <row r="131" spans="1:23">
-      <c r="A131" s="125"/>
-      <c r="B131" s="125"/>
-      <c r="C131" s="125"/>
-      <c r="D131" s="134"/>
-      <c r="E131" s="133"/>
+      <c r="A131" s="129"/>
+      <c r="B131" s="129"/>
+      <c r="C131" s="129"/>
+      <c r="D131" s="131"/>
+      <c r="E131" s="130"/>
       <c r="F131" s="1">
         <v>5</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H131" s="125"/>
-      <c r="I131" s="125"/>
-      <c r="J131" s="110"/>
-      <c r="K131" s="125"/>
-      <c r="L131" s="125"/>
-      <c r="M131" s="125"/>
+      <c r="H131" s="129"/>
+      <c r="I131" s="129"/>
+      <c r="J131" s="114"/>
+      <c r="K131" s="129"/>
+      <c r="L131" s="129"/>
+      <c r="M131" s="129"/>
       <c r="N131" s="9" t="s">
         <v>142</v>
       </c>
@@ -12942,23 +12952,23 @@
       </c>
     </row>
     <row r="132" spans="1:23">
-      <c r="A132" s="125"/>
-      <c r="B132" s="125"/>
-      <c r="C132" s="125"/>
-      <c r="D132" s="134"/>
-      <c r="E132" s="133"/>
+      <c r="A132" s="129"/>
+      <c r="B132" s="129"/>
+      <c r="C132" s="129"/>
+      <c r="D132" s="131"/>
+      <c r="E132" s="130"/>
       <c r="F132" s="1">
         <v>6</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H132" s="125"/>
-      <c r="I132" s="125"/>
-      <c r="J132" s="110"/>
-      <c r="K132" s="125"/>
-      <c r="L132" s="125"/>
-      <c r="M132" s="125"/>
+      <c r="H132" s="129"/>
+      <c r="I132" s="129"/>
+      <c r="J132" s="114"/>
+      <c r="K132" s="129"/>
+      <c r="L132" s="129"/>
+      <c r="M132" s="129"/>
       <c r="N132" s="9" t="s">
         <v>142</v>
       </c>
@@ -12979,23 +12989,23 @@
       </c>
     </row>
     <row r="133" spans="1:23">
-      <c r="A133" s="125"/>
-      <c r="B133" s="125"/>
-      <c r="C133" s="125"/>
-      <c r="D133" s="134"/>
-      <c r="E133" s="133"/>
+      <c r="A133" s="129"/>
+      <c r="B133" s="129"/>
+      <c r="C133" s="129"/>
+      <c r="D133" s="131"/>
+      <c r="E133" s="130"/>
       <c r="F133" s="1">
         <v>7</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="125"/>
-      <c r="I133" s="125"/>
-      <c r="J133" s="110"/>
-      <c r="K133" s="125"/>
-      <c r="L133" s="125"/>
-      <c r="M133" s="125"/>
+      <c r="H133" s="129"/>
+      <c r="I133" s="129"/>
+      <c r="J133" s="114"/>
+      <c r="K133" s="129"/>
+      <c r="L133" s="129"/>
+      <c r="M133" s="129"/>
       <c r="N133" s="9" t="s">
         <v>142</v>
       </c>
@@ -13016,23 +13026,23 @@
       </c>
     </row>
     <row r="134" spans="1:23">
-      <c r="A134" s="125"/>
-      <c r="B134" s="125"/>
-      <c r="C134" s="125"/>
-      <c r="D134" s="134"/>
-      <c r="E134" s="133"/>
+      <c r="A134" s="129"/>
+      <c r="B134" s="129"/>
+      <c r="C134" s="129"/>
+      <c r="D134" s="131"/>
+      <c r="E134" s="130"/>
       <c r="F134" s="1">
         <v>8</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H134" s="125"/>
-      <c r="I134" s="125"/>
-      <c r="J134" s="110"/>
-      <c r="K134" s="125"/>
-      <c r="L134" s="125"/>
-      <c r="M134" s="125"/>
+      <c r="H134" s="129"/>
+      <c r="I134" s="129"/>
+      <c r="J134" s="114"/>
+      <c r="K134" s="129"/>
+      <c r="L134" s="129"/>
+      <c r="M134" s="129"/>
       <c r="N134" s="9" t="s">
         <v>142</v>
       </c>
@@ -13053,23 +13063,23 @@
       </c>
     </row>
     <row r="135" spans="1:23">
-      <c r="A135" s="125"/>
-      <c r="B135" s="125"/>
-      <c r="C135" s="125"/>
-      <c r="D135" s="134"/>
-      <c r="E135" s="133"/>
+      <c r="A135" s="129"/>
+      <c r="B135" s="129"/>
+      <c r="C135" s="129"/>
+      <c r="D135" s="131"/>
+      <c r="E135" s="130"/>
       <c r="F135" s="1">
         <v>9</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="125"/>
-      <c r="I135" s="125"/>
-      <c r="J135" s="110"/>
-      <c r="K135" s="125"/>
-      <c r="L135" s="125"/>
-      <c r="M135" s="125"/>
+      <c r="H135" s="129"/>
+      <c r="I135" s="129"/>
+      <c r="J135" s="114"/>
+      <c r="K135" s="129"/>
+      <c r="L135" s="129"/>
+      <c r="M135" s="129"/>
       <c r="N135" s="9" t="s">
         <v>142</v>
       </c>
@@ -13090,23 +13100,23 @@
       </c>
     </row>
     <row r="136" spans="1:23">
-      <c r="A136" s="125"/>
-      <c r="B136" s="125"/>
-      <c r="C136" s="125"/>
-      <c r="D136" s="134"/>
-      <c r="E136" s="133"/>
+      <c r="A136" s="129"/>
+      <c r="B136" s="129"/>
+      <c r="C136" s="129"/>
+      <c r="D136" s="131"/>
+      <c r="E136" s="130"/>
       <c r="F136" s="1">
         <v>10</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H136" s="125"/>
-      <c r="I136" s="125"/>
-      <c r="J136" s="110"/>
-      <c r="K136" s="125"/>
-      <c r="L136" s="125"/>
-      <c r="M136" s="125"/>
+      <c r="H136" s="129"/>
+      <c r="I136" s="129"/>
+      <c r="J136" s="114"/>
+      <c r="K136" s="129"/>
+      <c r="L136" s="129"/>
+      <c r="M136" s="129"/>
       <c r="N136" s="9" t="s">
         <v>142</v>
       </c>
@@ -13127,23 +13137,23 @@
       </c>
     </row>
     <row r="137" spans="1:23" s="7" customFormat="1">
-      <c r="A137" s="125"/>
-      <c r="B137" s="125"/>
-      <c r="C137" s="125"/>
-      <c r="D137" s="134"/>
-      <c r="E137" s="133"/>
+      <c r="A137" s="129"/>
+      <c r="B137" s="129"/>
+      <c r="C137" s="129"/>
+      <c r="D137" s="131"/>
+      <c r="E137" s="130"/>
       <c r="F137" s="10">
         <v>11</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H137" s="125"/>
-      <c r="I137" s="125"/>
-      <c r="J137" s="110"/>
-      <c r="K137" s="125"/>
-      <c r="L137" s="125"/>
-      <c r="M137" s="125"/>
+      <c r="H137" s="129"/>
+      <c r="I137" s="129"/>
+      <c r="J137" s="114"/>
+      <c r="K137" s="129"/>
+      <c r="L137" s="129"/>
+      <c r="M137" s="129"/>
       <c r="N137" s="9" t="s">
         <v>143</v>
       </c>
@@ -13168,23 +13178,23 @@
       <c r="W137" s="27"/>
     </row>
     <row r="138" spans="1:23" s="4" customFormat="1">
-      <c r="A138" s="125"/>
-      <c r="B138" s="125"/>
-      <c r="C138" s="125"/>
-      <c r="D138" s="134"/>
-      <c r="E138" s="133"/>
+      <c r="A138" s="129"/>
+      <c r="B138" s="129"/>
+      <c r="C138" s="129"/>
+      <c r="D138" s="131"/>
+      <c r="E138" s="130"/>
       <c r="F138" s="10">
         <v>12</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H138" s="125"/>
-      <c r="I138" s="125"/>
-      <c r="J138" s="110"/>
-      <c r="K138" s="125"/>
-      <c r="L138" s="125"/>
-      <c r="M138" s="125"/>
+      <c r="H138" s="129"/>
+      <c r="I138" s="129"/>
+      <c r="J138" s="114"/>
+      <c r="K138" s="129"/>
+      <c r="L138" s="129"/>
+      <c r="M138" s="129"/>
       <c r="N138" s="9" t="s">
         <v>143</v>
       </c>
@@ -13209,23 +13219,23 @@
       <c r="W138" s="27"/>
     </row>
     <row r="139" spans="1:23" s="4" customFormat="1">
-      <c r="A139" s="125"/>
-      <c r="B139" s="125"/>
-      <c r="C139" s="125"/>
-      <c r="D139" s="134"/>
-      <c r="E139" s="133"/>
+      <c r="A139" s="129"/>
+      <c r="B139" s="129"/>
+      <c r="C139" s="129"/>
+      <c r="D139" s="131"/>
+      <c r="E139" s="130"/>
       <c r="F139" s="10">
         <v>13</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H139" s="125"/>
-      <c r="I139" s="125"/>
-      <c r="J139" s="110"/>
-      <c r="K139" s="125"/>
-      <c r="L139" s="125"/>
-      <c r="M139" s="125"/>
+      <c r="H139" s="129"/>
+      <c r="I139" s="129"/>
+      <c r="J139" s="114"/>
+      <c r="K139" s="129"/>
+      <c r="L139" s="129"/>
+      <c r="M139" s="129"/>
       <c r="N139" s="9" t="s">
         <v>144</v>
       </c>
@@ -13250,23 +13260,23 @@
       <c r="W139" s="27"/>
     </row>
     <row r="140" spans="1:23" s="58" customFormat="1">
-      <c r="A140" s="125"/>
-      <c r="B140" s="125"/>
-      <c r="C140" s="125"/>
-      <c r="D140" s="134"/>
-      <c r="E140" s="133"/>
+      <c r="A140" s="129"/>
+      <c r="B140" s="129"/>
+      <c r="C140" s="129"/>
+      <c r="D140" s="131"/>
+      <c r="E140" s="130"/>
       <c r="F140" s="75">
         <v>14</v>
       </c>
       <c r="G140" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="H140" s="125"/>
-      <c r="I140" s="125"/>
-      <c r="J140" s="110"/>
-      <c r="K140" s="125"/>
-      <c r="L140" s="125"/>
-      <c r="M140" s="125"/>
+      <c r="H140" s="129"/>
+      <c r="I140" s="129"/>
+      <c r="J140" s="114"/>
+      <c r="K140" s="129"/>
+      <c r="L140" s="129"/>
+      <c r="M140" s="129"/>
       <c r="N140" s="74" t="s">
         <v>268</v>
       </c>
@@ -13287,23 +13297,23 @@
       </c>
     </row>
     <row r="141" spans="1:23" s="7" customFormat="1">
-      <c r="A141" s="125"/>
-      <c r="B141" s="125"/>
-      <c r="C141" s="125"/>
-      <c r="D141" s="134"/>
-      <c r="E141" s="133"/>
+      <c r="A141" s="129"/>
+      <c r="B141" s="129"/>
+      <c r="C141" s="129"/>
+      <c r="D141" s="131"/>
+      <c r="E141" s="130"/>
       <c r="F141" s="10">
         <v>15</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H141" s="125"/>
-      <c r="I141" s="125"/>
-      <c r="J141" s="110"/>
-      <c r="K141" s="125"/>
-      <c r="L141" s="125"/>
-      <c r="M141" s="125"/>
+      <c r="H141" s="129"/>
+      <c r="I141" s="129"/>
+      <c r="J141" s="114"/>
+      <c r="K141" s="129"/>
+      <c r="L141" s="129"/>
+      <c r="M141" s="129"/>
       <c r="N141" s="9"/>
       <c r="O141" s="55" t="s">
         <v>51</v>
@@ -13326,15 +13336,15 @@
       <c r="W141" s="27"/>
     </row>
     <row r="142" spans="1:23">
-      <c r="A142" s="125"/>
-      <c r="B142" s="124" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" s="124"/>
-      <c r="D142" s="134" t="s">
+      <c r="A142" s="129"/>
+      <c r="B142" s="123" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="123"/>
+      <c r="D142" s="131" t="s">
         <v>187</v>
       </c>
-      <c r="E142" s="133" t="s">
+      <c r="E142" s="130" t="s">
         <v>146</v>
       </c>
       <c r="F142" s="10">
@@ -13343,20 +13353,20 @@
       <c r="G142" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H142" s="135">
-        <v>1</v>
-      </c>
-      <c r="I142" s="135">
-        <v>1</v>
-      </c>
-      <c r="J142" s="133">
+      <c r="H142" s="132">
+        <v>1</v>
+      </c>
+      <c r="I142" s="132">
+        <v>1</v>
+      </c>
+      <c r="J142" s="130">
         <v>4</v>
       </c>
-      <c r="K142" s="124" t="s">
+      <c r="K142" s="123" t="s">
         <v>11</v>
       </c>
-      <c r="L142" s="124"/>
-      <c r="M142" s="124" t="s">
+      <c r="L142" s="123"/>
+      <c r="M142" s="123" t="s">
         <v>38</v>
       </c>
       <c r="N142" s="29"/>
@@ -13377,23 +13387,23 @@
       </c>
     </row>
     <row r="143" spans="1:23">
-      <c r="A143" s="125"/>
-      <c r="B143" s="125"/>
-      <c r="C143" s="125"/>
-      <c r="D143" s="134"/>
-      <c r="E143" s="133"/>
+      <c r="A143" s="129"/>
+      <c r="B143" s="129"/>
+      <c r="C143" s="129"/>
+      <c r="D143" s="131"/>
+      <c r="E143" s="130"/>
       <c r="F143" s="10">
         <v>2</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H143" s="135"/>
-      <c r="I143" s="135"/>
-      <c r="J143" s="133"/>
-      <c r="K143" s="125"/>
-      <c r="L143" s="125"/>
-      <c r="M143" s="125"/>
+      <c r="H143" s="132"/>
+      <c r="I143" s="132"/>
+      <c r="J143" s="130"/>
+      <c r="K143" s="129"/>
+      <c r="L143" s="129"/>
+      <c r="M143" s="129"/>
       <c r="N143" s="32"/>
       <c r="O143" s="55" t="s">
         <v>169</v>
@@ -13412,23 +13422,23 @@
       </c>
     </row>
     <row r="144" spans="1:23" s="7" customFormat="1">
-      <c r="A144" s="125"/>
-      <c r="B144" s="125"/>
-      <c r="C144" s="125"/>
-      <c r="D144" s="134"/>
-      <c r="E144" s="133"/>
+      <c r="A144" s="129"/>
+      <c r="B144" s="129"/>
+      <c r="C144" s="129"/>
+      <c r="D144" s="131"/>
+      <c r="E144" s="130"/>
       <c r="F144" s="10">
         <v>3</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H144" s="135"/>
-      <c r="I144" s="135"/>
-      <c r="J144" s="133"/>
-      <c r="K144" s="125"/>
-      <c r="L144" s="125"/>
-      <c r="M144" s="125"/>
+      <c r="H144" s="132"/>
+      <c r="I144" s="132"/>
+      <c r="J144" s="130"/>
+      <c r="K144" s="129"/>
+      <c r="L144" s="129"/>
+      <c r="M144" s="129"/>
       <c r="N144" s="32"/>
       <c r="O144" s="55" t="s">
         <v>169</v>
@@ -13451,23 +13461,23 @@
       <c r="W144" s="27"/>
     </row>
     <row r="145" spans="1:19">
-      <c r="A145" s="125"/>
-      <c r="B145" s="126"/>
-      <c r="C145" s="126"/>
-      <c r="D145" s="134"/>
-      <c r="E145" s="133"/>
+      <c r="A145" s="129"/>
+      <c r="B145" s="124"/>
+      <c r="C145" s="124"/>
+      <c r="D145" s="131"/>
+      <c r="E145" s="130"/>
       <c r="F145" s="10">
         <v>4</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H145" s="135"/>
-      <c r="I145" s="135"/>
-      <c r="J145" s="133"/>
-      <c r="K145" s="126"/>
-      <c r="L145" s="126"/>
-      <c r="M145" s="126"/>
+      <c r="H145" s="132"/>
+      <c r="I145" s="132"/>
+      <c r="J145" s="130"/>
+      <c r="K145" s="124"/>
+      <c r="L145" s="124"/>
+      <c r="M145" s="124"/>
       <c r="N145" s="30"/>
       <c r="O145" s="55" t="s">
         <v>169</v>
@@ -13486,15 +13496,15 @@
       </c>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="125"/>
-      <c r="B146" s="124"/>
-      <c r="C146" s="124" t="s">
+      <c r="A146" s="129"/>
+      <c r="B146" s="123"/>
+      <c r="C146" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="D146" s="109" t="s">
+      <c r="D146" s="112" t="s">
         <v>149</v>
       </c>
-      <c r="E146" s="109" t="s">
+      <c r="E146" s="112" t="s">
         <v>189</v>
       </c>
       <c r="F146" s="1">
@@ -13503,23 +13513,23 @@
       <c r="G146" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H146" s="124">
-        <v>1</v>
-      </c>
-      <c r="I146" s="124">
-        <v>1</v>
-      </c>
-      <c r="J146" s="124">
+      <c r="H146" s="123">
+        <v>1</v>
+      </c>
+      <c r="I146" s="123">
+        <v>1</v>
+      </c>
+      <c r="J146" s="123">
         <v>4</v>
       </c>
-      <c r="K146" s="124" t="s">
+      <c r="K146" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="L146" s="124"/>
-      <c r="M146" s="124" t="s">
+      <c r="L146" s="123"/>
+      <c r="M146" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="N146" s="124"/>
+      <c r="N146" s="123"/>
       <c r="O146" s="55" t="s">
         <v>169</v>
       </c>
@@ -13537,24 +13547,24 @@
       </c>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="125"/>
-      <c r="B147" s="125"/>
-      <c r="C147" s="125"/>
-      <c r="D147" s="110"/>
-      <c r="E147" s="110"/>
+      <c r="A147" s="129"/>
+      <c r="B147" s="129"/>
+      <c r="C147" s="129"/>
+      <c r="D147" s="114"/>
+      <c r="E147" s="114"/>
       <c r="F147" s="1">
         <v>2</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H147" s="125"/>
-      <c r="I147" s="125"/>
-      <c r="J147" s="125"/>
-      <c r="K147" s="125"/>
-      <c r="L147" s="125"/>
-      <c r="M147" s="125"/>
-      <c r="N147" s="125"/>
+      <c r="H147" s="129"/>
+      <c r="I147" s="129"/>
+      <c r="J147" s="129"/>
+      <c r="K147" s="129"/>
+      <c r="L147" s="129"/>
+      <c r="M147" s="129"/>
+      <c r="N147" s="129"/>
       <c r="O147" s="55" t="s">
         <v>169</v>
       </c>
@@ -13572,24 +13582,24 @@
       </c>
     </row>
     <row r="148" spans="1:19">
-      <c r="A148" s="125"/>
-      <c r="B148" s="125"/>
-      <c r="C148" s="125"/>
-      <c r="D148" s="110"/>
-      <c r="E148" s="110"/>
+      <c r="A148" s="129"/>
+      <c r="B148" s="129"/>
+      <c r="C148" s="129"/>
+      <c r="D148" s="114"/>
+      <c r="E148" s="114"/>
       <c r="F148" s="1">
         <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H148" s="125"/>
-      <c r="I148" s="125"/>
-      <c r="J148" s="125"/>
-      <c r="K148" s="125"/>
-      <c r="L148" s="125"/>
-      <c r="M148" s="125"/>
-      <c r="N148" s="125"/>
+      <c r="H148" s="129"/>
+      <c r="I148" s="129"/>
+      <c r="J148" s="129"/>
+      <c r="K148" s="129"/>
+      <c r="L148" s="129"/>
+      <c r="M148" s="129"/>
+      <c r="N148" s="129"/>
       <c r="O148" s="55" t="s">
         <v>169</v>
       </c>
@@ -13607,24 +13617,24 @@
       </c>
     </row>
     <row r="149" spans="1:19">
-      <c r="A149" s="125"/>
-      <c r="B149" s="126"/>
-      <c r="C149" s="126"/>
-      <c r="D149" s="111"/>
-      <c r="E149" s="111"/>
+      <c r="A149" s="129"/>
+      <c r="B149" s="124"/>
+      <c r="C149" s="124"/>
+      <c r="D149" s="113"/>
+      <c r="E149" s="113"/>
       <c r="F149" s="1">
         <v>4</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H149" s="126"/>
-      <c r="I149" s="126"/>
-      <c r="J149" s="126"/>
-      <c r="K149" s="126"/>
-      <c r="L149" s="126"/>
-      <c r="M149" s="126"/>
-      <c r="N149" s="126"/>
+      <c r="H149" s="124"/>
+      <c r="I149" s="124"/>
+      <c r="J149" s="124"/>
+      <c r="K149" s="124"/>
+      <c r="L149" s="124"/>
+      <c r="M149" s="124"/>
+      <c r="N149" s="124"/>
       <c r="O149" s="55" t="s">
         <v>169</v>
       </c>
@@ -13642,38 +13652,38 @@
       </c>
     </row>
     <row r="150" spans="1:19">
-      <c r="A150" s="125"/>
-      <c r="B150" s="124" t="s">
+      <c r="A150" s="129"/>
+      <c r="B150" s="123" t="s">
         <v>61</v>
       </c>
-      <c r="C150" s="124"/>
-      <c r="D150" s="124" t="s">
+      <c r="C150" s="123"/>
+      <c r="D150" s="123" t="s">
         <v>127</v>
       </c>
-      <c r="E150" s="124"/>
+      <c r="E150" s="123"/>
       <c r="F150" s="1">
         <v>1</v>
       </c>
       <c r="G150" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H150" s="124">
-        <v>1</v>
-      </c>
-      <c r="I150" s="124">
-        <v>1</v>
-      </c>
-      <c r="J150" s="124">
+      <c r="H150" s="123">
+        <v>1</v>
+      </c>
+      <c r="I150" s="123">
+        <v>1</v>
+      </c>
+      <c r="J150" s="123">
         <v>2</v>
       </c>
-      <c r="K150" s="124" t="s">
+      <c r="K150" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="L150" s="124"/>
-      <c r="M150" s="124" t="s">
+      <c r="L150" s="123"/>
+      <c r="M150" s="123" t="s">
         <v>74</v>
       </c>
-      <c r="N150" s="124"/>
+      <c r="N150" s="123"/>
       <c r="O150" s="51" t="s">
         <v>168</v>
       </c>
@@ -13691,24 +13701,24 @@
       </c>
     </row>
     <row r="151" spans="1:19">
-      <c r="A151" s="125"/>
-      <c r="B151" s="126"/>
-      <c r="C151" s="126"/>
-      <c r="D151" s="126"/>
-      <c r="E151" s="126"/>
+      <c r="A151" s="129"/>
+      <c r="B151" s="124"/>
+      <c r="C151" s="124"/>
+      <c r="D151" s="124"/>
+      <c r="E151" s="124"/>
       <c r="F151" s="1">
         <v>2</v>
       </c>
       <c r="G151" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H151" s="126"/>
-      <c r="I151" s="126"/>
-      <c r="J151" s="126"/>
-      <c r="K151" s="126"/>
-      <c r="L151" s="126"/>
-      <c r="M151" s="126"/>
-      <c r="N151" s="126"/>
+      <c r="H151" s="124"/>
+      <c r="I151" s="124"/>
+      <c r="J151" s="124"/>
+      <c r="K151" s="124"/>
+      <c r="L151" s="124"/>
+      <c r="M151" s="124"/>
+      <c r="N151" s="124"/>
       <c r="O151" s="53"/>
       <c r="P151" s="53"/>
       <c r="Q151" s="53"/>
@@ -13716,7 +13726,7 @@
       <c r="S151" s="53"/>
     </row>
     <row r="152" spans="1:19">
-      <c r="A152" s="125"/>
+      <c r="A152" s="129"/>
       <c r="B152" s="1" t="s">
         <v>61</v>
       </c>
@@ -13752,8 +13762,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="19.5">
-      <c r="A153" s="125"/>
+    <row r="153" spans="1:19" ht="18.75">
+      <c r="A153" s="129"/>
       <c r="B153" s="1" t="s">
         <v>61</v>
       </c>
@@ -13800,7 +13810,7 @@
       </c>
     </row>
     <row r="154" spans="1:19">
-      <c r="A154" s="125"/>
+      <c r="A154" s="129"/>
       <c r="B154" s="1" t="s">
         <v>61</v>
       </c>
@@ -13837,7 +13847,7 @@
       </c>
     </row>
     <row r="155" spans="1:19">
-      <c r="A155" s="125"/>
+      <c r="A155" s="129"/>
       <c r="B155" s="1" t="s">
         <v>61</v>
       </c>
@@ -13886,7 +13896,7 @@
       </c>
     </row>
     <row r="156" spans="1:19">
-      <c r="A156" s="126"/>
+      <c r="A156" s="124"/>
       <c r="B156" s="1" t="s">
         <v>61</v>
       </c>
@@ -13933,17 +13943,17 @@
       </c>
     </row>
     <row r="157" spans="1:19">
-      <c r="A157" s="115" t="s">
+      <c r="A157" s="117" t="s">
         <v>248</v>
       </c>
-      <c r="B157" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="C157" s="109"/>
-      <c r="D157" s="109" t="s">
+      <c r="B157" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C157" s="112"/>
+      <c r="D157" s="112" t="s">
         <v>240</v>
       </c>
-      <c r="E157" s="109" t="s">
+      <c r="E157" s="112" t="s">
         <v>264</v>
       </c>
       <c r="F157" s="69">
@@ -13952,21 +13962,21 @@
       <c r="G157" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="H157" s="109"/>
-      <c r="I157" s="109">
-        <v>1</v>
-      </c>
-      <c r="J157" s="109">
+      <c r="H157" s="112"/>
+      <c r="I157" s="112">
+        <v>1</v>
+      </c>
+      <c r="J157" s="112">
         <v>2</v>
       </c>
-      <c r="K157" s="109" t="s">
+      <c r="K157" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="L157" s="112"/>
-      <c r="M157" s="109" t="s">
+      <c r="L157" s="110"/>
+      <c r="M157" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="N157" s="109"/>
+      <c r="N157" s="112"/>
       <c r="O157" s="65" t="s">
         <v>51</v>
       </c>
@@ -13984,32 +13994,32 @@
       </c>
     </row>
     <row r="158" spans="1:19" s="58" customFormat="1">
-      <c r="A158" s="116"/>
-      <c r="B158" s="111"/>
-      <c r="C158" s="111"/>
-      <c r="D158" s="111"/>
-      <c r="E158" s="111"/>
+      <c r="A158" s="118"/>
+      <c r="B158" s="113"/>
+      <c r="C158" s="113"/>
+      <c r="D158" s="113"/>
+      <c r="E158" s="113"/>
       <c r="F158" s="69">
         <v>2</v>
       </c>
       <c r="G158" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="H158" s="111"/>
-      <c r="I158" s="111"/>
-      <c r="J158" s="111"/>
-      <c r="K158" s="111"/>
-      <c r="L158" s="114"/>
-      <c r="M158" s="111"/>
-      <c r="N158" s="111"/>
+      <c r="H158" s="113"/>
+      <c r="I158" s="113"/>
+      <c r="J158" s="113"/>
+      <c r="K158" s="113"/>
+      <c r="L158" s="111"/>
+      <c r="M158" s="113"/>
+      <c r="N158" s="113"/>
       <c r="O158" s="66"/>
       <c r="P158" s="66"/>
       <c r="Q158" s="66"/>
       <c r="R158" s="66"/>
       <c r="S158" s="66"/>
     </row>
-    <row r="159" spans="1:19" ht="19.5">
-      <c r="A159" s="116"/>
+    <row r="159" spans="1:19" ht="18.75">
+      <c r="A159" s="118"/>
       <c r="B159" s="69" t="s">
         <v>51</v>
       </c>
@@ -14055,8 +14065,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="19.5">
-      <c r="A160" s="116"/>
+    <row r="160" spans="1:19" ht="18.75">
+      <c r="A160" s="118"/>
       <c r="B160" s="69" t="s">
         <v>51</v>
       </c>
@@ -14102,8 +14112,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="19.5">
-      <c r="A161" s="116"/>
+    <row r="161" spans="1:19" ht="18.75">
+      <c r="A161" s="118"/>
       <c r="B161" s="69" t="s">
         <v>51</v>
       </c>
@@ -14149,8 +14159,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="19.5">
-      <c r="A162" s="116"/>
+    <row r="162" spans="1:19" ht="18.75">
+      <c r="A162" s="118"/>
       <c r="B162" s="69" t="s">
         <v>51</v>
       </c>
@@ -14196,8 +14206,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="19.5">
-      <c r="A163" s="116"/>
+    <row r="163" spans="1:19" ht="18.75">
+      <c r="A163" s="118"/>
       <c r="B163" s="69" t="s">
         <v>51</v>
       </c>
@@ -14244,7 +14254,7 @@
       </c>
     </row>
     <row r="164" spans="1:19">
-      <c r="A164" s="116"/>
+      <c r="A164" s="118"/>
       <c r="B164" s="69" t="s">
         <v>51</v>
       </c>
@@ -14293,7 +14303,7 @@
       </c>
     </row>
     <row r="165" spans="1:19">
-      <c r="A165" s="116"/>
+      <c r="A165" s="118"/>
       <c r="B165" s="69" t="s">
         <v>51</v>
       </c>
@@ -14342,15 +14352,15 @@
       </c>
     </row>
     <row r="166" spans="1:19">
-      <c r="A166" s="116"/>
-      <c r="B166" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="C166" s="109"/>
-      <c r="D166" s="109" t="s">
+      <c r="A166" s="118"/>
+      <c r="B166" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C166" s="112"/>
+      <c r="D166" s="112" t="s">
         <v>253</v>
       </c>
-      <c r="E166" s="109" t="s">
+      <c r="E166" s="112" t="s">
         <v>264</v>
       </c>
       <c r="F166" s="69">
@@ -14359,21 +14369,21 @@
       <c r="G166" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H166" s="109"/>
-      <c r="I166" s="109">
-        <v>1</v>
-      </c>
-      <c r="J166" s="109">
+      <c r="H166" s="112"/>
+      <c r="I166" s="112">
+        <v>1</v>
+      </c>
+      <c r="J166" s="112">
         <v>2</v>
       </c>
-      <c r="K166" s="109" t="s">
+      <c r="K166" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="L166" s="112"/>
-      <c r="M166" s="109" t="s">
+      <c r="L166" s="110"/>
+      <c r="M166" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="N166" s="109"/>
+      <c r="N166" s="112"/>
       <c r="O166" s="65" t="s">
         <v>51</v>
       </c>
@@ -14391,24 +14401,24 @@
       </c>
     </row>
     <row r="167" spans="1:19" s="58" customFormat="1">
-      <c r="A167" s="116"/>
-      <c r="B167" s="111"/>
-      <c r="C167" s="111"/>
-      <c r="D167" s="111"/>
-      <c r="E167" s="111"/>
+      <c r="A167" s="118"/>
+      <c r="B167" s="113"/>
+      <c r="C167" s="113"/>
+      <c r="D167" s="113"/>
+      <c r="E167" s="113"/>
       <c r="F167" s="69">
         <v>2</v>
       </c>
       <c r="G167" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H167" s="111"/>
-      <c r="I167" s="111"/>
-      <c r="J167" s="111"/>
-      <c r="K167" s="111"/>
-      <c r="L167" s="114"/>
-      <c r="M167" s="111"/>
-      <c r="N167" s="111"/>
+      <c r="H167" s="113"/>
+      <c r="I167" s="113"/>
+      <c r="J167" s="113"/>
+      <c r="K167" s="113"/>
+      <c r="L167" s="111"/>
+      <c r="M167" s="113"/>
+      <c r="N167" s="113"/>
       <c r="O167" s="66"/>
       <c r="P167" s="66"/>
       <c r="Q167" s="66"/>
@@ -14416,7 +14426,7 @@
       <c r="S167" s="66"/>
     </row>
     <row r="168" spans="1:19">
-      <c r="A168" s="116"/>
+      <c r="A168" s="118"/>
       <c r="B168" s="69" t="s">
         <v>51</v>
       </c>
@@ -14465,7 +14475,7 @@
       </c>
     </row>
     <row r="169" spans="1:19">
-      <c r="A169" s="116"/>
+      <c r="A169" s="118"/>
       <c r="B169" s="69" t="s">
         <v>51</v>
       </c>
@@ -14514,15 +14524,15 @@
       </c>
     </row>
     <row r="170" spans="1:19">
-      <c r="A170" s="116"/>
-      <c r="B170" s="109" t="s">
-        <v>51</v>
-      </c>
-      <c r="C170" s="109"/>
-      <c r="D170" s="109" t="s">
+      <c r="A170" s="118"/>
+      <c r="B170" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" s="112"/>
+      <c r="D170" s="112" t="s">
         <v>259</v>
       </c>
-      <c r="E170" s="109" t="s">
+      <c r="E170" s="112" t="s">
         <v>264</v>
       </c>
       <c r="F170" s="69">
@@ -14531,21 +14541,21 @@
       <c r="G170" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H170" s="109"/>
-      <c r="I170" s="109">
-        <v>1</v>
-      </c>
-      <c r="J170" s="109">
+      <c r="H170" s="112"/>
+      <c r="I170" s="112">
+        <v>1</v>
+      </c>
+      <c r="J170" s="112">
         <v>2</v>
       </c>
-      <c r="K170" s="109" t="s">
+      <c r="K170" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="L170" s="112"/>
-      <c r="M170" s="109" t="s">
+      <c r="L170" s="110"/>
+      <c r="M170" s="112" t="s">
         <v>38</v>
       </c>
-      <c r="N170" s="109"/>
+      <c r="N170" s="112"/>
       <c r="O170" s="65" t="s">
         <v>51</v>
       </c>
@@ -14563,24 +14573,24 @@
       </c>
     </row>
     <row r="171" spans="1:19" s="58" customFormat="1">
-      <c r="A171" s="116"/>
-      <c r="B171" s="111"/>
-      <c r="C171" s="111"/>
-      <c r="D171" s="111"/>
-      <c r="E171" s="111"/>
+      <c r="A171" s="118"/>
+      <c r="B171" s="113"/>
+      <c r="C171" s="113"/>
+      <c r="D171" s="113"/>
+      <c r="E171" s="113"/>
       <c r="F171" s="69">
         <v>2</v>
       </c>
       <c r="G171" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H171" s="111"/>
-      <c r="I171" s="111"/>
-      <c r="J171" s="111"/>
-      <c r="K171" s="111"/>
-      <c r="L171" s="114"/>
-      <c r="M171" s="111"/>
-      <c r="N171" s="111"/>
+      <c r="H171" s="113"/>
+      <c r="I171" s="113"/>
+      <c r="J171" s="113"/>
+      <c r="K171" s="113"/>
+      <c r="L171" s="111"/>
+      <c r="M171" s="113"/>
+      <c r="N171" s="113"/>
       <c r="O171" s="66"/>
       <c r="P171" s="66"/>
       <c r="Q171" s="66"/>
@@ -14588,7 +14598,7 @@
       <c r="S171" s="66"/>
     </row>
     <row r="172" spans="1:19">
-      <c r="A172" s="116"/>
+      <c r="A172" s="118"/>
       <c r="B172" s="69" t="s">
         <v>51</v>
       </c>
@@ -14635,7 +14645,7 @@
       </c>
     </row>
     <row r="173" spans="1:19">
-      <c r="A173" s="117"/>
+      <c r="A173" s="119"/>
       <c r="B173" s="69" t="s">
         <v>51</v>
       </c>
@@ -14683,23 +14693,248 @@
     </row>
   </sheetData>
   <mergeCells count="283">
-    <mergeCell ref="L170:L171"/>
-    <mergeCell ref="M170:M171"/>
-    <mergeCell ref="N170:N171"/>
-    <mergeCell ref="N166:N167"/>
-    <mergeCell ref="M166:M167"/>
-    <mergeCell ref="L166:L167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="J166:J167"/>
-    <mergeCell ref="K166:K167"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="J170:J171"/>
-    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="H105:H107"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="L74:L77"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="L78:L81"/>
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="I4:I11"/>
+    <mergeCell ref="J4:J11"/>
+    <mergeCell ref="K4:K11"/>
+    <mergeCell ref="L4:L11"/>
+    <mergeCell ref="M4:M11"/>
+    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="J78:J81"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="H23:H28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="N4:N11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A115:A156"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="E4:E11"/>
+    <mergeCell ref="H4:H11"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="A22:A50"/>
+    <mergeCell ref="A51:A64"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A74:A97"/>
+    <mergeCell ref="A98:A114"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="N101:N104"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="K98:K100"/>
+    <mergeCell ref="L98:L100"/>
+    <mergeCell ref="M98:M100"/>
+    <mergeCell ref="N98:N100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="J101:J104"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="I108:I111"/>
+    <mergeCell ref="J108:J111"/>
+    <mergeCell ref="K108:K111"/>
+    <mergeCell ref="L108:L111"/>
+    <mergeCell ref="M108:M111"/>
+    <mergeCell ref="N108:N111"/>
+    <mergeCell ref="J105:J107"/>
+    <mergeCell ref="K105:K107"/>
+    <mergeCell ref="L105:L107"/>
+    <mergeCell ref="M105:M107"/>
+    <mergeCell ref="N105:N107"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="D119:D122"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="H119:H122"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="D115:D118"/>
+    <mergeCell ref="E115:E118"/>
+    <mergeCell ref="H115:H118"/>
+    <mergeCell ref="I119:I122"/>
+    <mergeCell ref="J119:J122"/>
+    <mergeCell ref="K119:K122"/>
+    <mergeCell ref="L119:L122"/>
+    <mergeCell ref="M119:M122"/>
+    <mergeCell ref="N119:N122"/>
+    <mergeCell ref="J115:J118"/>
+    <mergeCell ref="K115:K118"/>
+    <mergeCell ref="L115:L118"/>
+    <mergeCell ref="M115:M118"/>
+    <mergeCell ref="N115:N118"/>
+    <mergeCell ref="I115:I118"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="E127:E141"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="C127:C141"/>
+    <mergeCell ref="D127:D141"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="H127:H141"/>
+    <mergeCell ref="I127:I141"/>
+    <mergeCell ref="H142:H145"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="H146:H149"/>
+    <mergeCell ref="I146:I149"/>
+    <mergeCell ref="K127:K141"/>
+    <mergeCell ref="M127:M141"/>
+    <mergeCell ref="M142:M145"/>
+    <mergeCell ref="K142:K145"/>
+    <mergeCell ref="L127:L141"/>
+    <mergeCell ref="L142:L145"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="L150:L151"/>
+    <mergeCell ref="M150:M151"/>
+    <mergeCell ref="J127:J141"/>
+    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="M23:M28"/>
+    <mergeCell ref="L23:L28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="N23:N28"/>
+    <mergeCell ref="N150:N151"/>
+    <mergeCell ref="J146:J149"/>
+    <mergeCell ref="K146:K149"/>
+    <mergeCell ref="L146:L149"/>
+    <mergeCell ref="M146:M149"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="N123:N124"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="O20:O21"/>
@@ -14724,248 +14959,23 @@
     <mergeCell ref="C170:C171"/>
     <mergeCell ref="D170:D171"/>
     <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K23:K28"/>
-    <mergeCell ref="M23:M28"/>
-    <mergeCell ref="L23:L28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="N23:N28"/>
-    <mergeCell ref="N150:N151"/>
-    <mergeCell ref="J146:J149"/>
-    <mergeCell ref="K146:K149"/>
-    <mergeCell ref="L146:L149"/>
-    <mergeCell ref="M146:M149"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="N123:N124"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="M125:M126"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="M123:M124"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="K74:K77"/>
-    <mergeCell ref="I146:I149"/>
-    <mergeCell ref="K127:K141"/>
-    <mergeCell ref="M127:M141"/>
-    <mergeCell ref="M142:M145"/>
-    <mergeCell ref="K142:K145"/>
-    <mergeCell ref="L127:L141"/>
-    <mergeCell ref="L142:L145"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="L150:L151"/>
-    <mergeCell ref="M150:M151"/>
-    <mergeCell ref="J127:J141"/>
-    <mergeCell ref="J142:J145"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="H150:H151"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="H146:H149"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="E127:E141"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B141"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="C127:C141"/>
-    <mergeCell ref="D127:D141"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="H127:H141"/>
-    <mergeCell ref="I127:I141"/>
-    <mergeCell ref="H142:H145"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="I119:I122"/>
-    <mergeCell ref="J119:J122"/>
-    <mergeCell ref="K119:K122"/>
-    <mergeCell ref="L119:L122"/>
-    <mergeCell ref="M119:M122"/>
-    <mergeCell ref="N119:N122"/>
-    <mergeCell ref="J115:J118"/>
-    <mergeCell ref="K115:K118"/>
-    <mergeCell ref="L115:L118"/>
-    <mergeCell ref="M115:M118"/>
-    <mergeCell ref="N115:N118"/>
-    <mergeCell ref="I115:I118"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="D119:D122"/>
-    <mergeCell ref="E119:E122"/>
-    <mergeCell ref="H119:H122"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="C115:C118"/>
-    <mergeCell ref="D115:D118"/>
-    <mergeCell ref="E115:E118"/>
-    <mergeCell ref="H115:H118"/>
-    <mergeCell ref="I108:I111"/>
-    <mergeCell ref="J108:J111"/>
-    <mergeCell ref="K108:K111"/>
-    <mergeCell ref="L108:L111"/>
-    <mergeCell ref="M108:M111"/>
-    <mergeCell ref="N108:N111"/>
-    <mergeCell ref="J105:J107"/>
-    <mergeCell ref="K105:K107"/>
-    <mergeCell ref="L105:L107"/>
-    <mergeCell ref="M105:M107"/>
-    <mergeCell ref="N105:N107"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="N101:N104"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="K98:K100"/>
-    <mergeCell ref="L98:L100"/>
-    <mergeCell ref="M98:M100"/>
-    <mergeCell ref="N98:N100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="H101:H104"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="J101:J104"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="E108:E111"/>
-    <mergeCell ref="H108:H111"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="N93:N94"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="N4:N11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A115:A156"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="E4:E11"/>
-    <mergeCell ref="H4:H11"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="A22:A50"/>
-    <mergeCell ref="A51:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A97"/>
-    <mergeCell ref="A98:A114"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="L74:L77"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="K78:K81"/>
-    <mergeCell ref="L78:L81"/>
-    <mergeCell ref="A3:A21"/>
-    <mergeCell ref="I4:I11"/>
-    <mergeCell ref="J4:J11"/>
-    <mergeCell ref="K4:K11"/>
-    <mergeCell ref="L4:L11"/>
-    <mergeCell ref="M4:M11"/>
-    <mergeCell ref="I78:I81"/>
-    <mergeCell ref="J78:J81"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I23:I28"/>
-    <mergeCell ref="H23:H28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="H105:H107"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="L170:L171"/>
+    <mergeCell ref="M170:M171"/>
+    <mergeCell ref="N170:N171"/>
+    <mergeCell ref="N166:N167"/>
+    <mergeCell ref="M166:M167"/>
+    <mergeCell ref="L166:L167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="J166:J167"/>
+    <mergeCell ref="K166:K167"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="J170:J171"/>
+    <mergeCell ref="K170:K171"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14985,20 +14995,20 @@
       <selection pane="bottomRight" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.0625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.8125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.58203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.9140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.9375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.9375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.0625" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.5625" style="27" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -15349,7 +15359,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="19" customFormat="1" ht="19.5">
+    <row r="9" spans="1:18" s="19" customFormat="1" ht="18.75">
       <c r="A9" s="47" t="s">
         <v>28</v>
       </c>
@@ -15395,7 +15405,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="19" customFormat="1" ht="19.5">
+    <row r="10" spans="1:18" s="19" customFormat="1" ht="18.75">
       <c r="A10" s="47" t="s">
         <v>28</v>
       </c>
@@ -15441,7 +15451,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="19" customFormat="1" ht="19.5">
+    <row r="11" spans="1:18" s="19" customFormat="1" ht="18.75">
       <c r="A11" s="47" t="s">
         <v>28</v>
       </c>
@@ -15939,7 +15949,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="19.5">
+    <row r="22" spans="1:18" ht="18.75">
       <c r="A22" s="29" t="s">
         <v>58</v>
       </c>
@@ -15987,7 +15997,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="19.5">
+    <row r="23" spans="1:18" ht="18.75">
       <c r="A23" s="36" t="s">
         <v>58</v>
       </c>
@@ -16033,7 +16043,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="19.5">
+    <row r="24" spans="1:18" ht="18.75">
       <c r="A24" s="36" t="s">
         <v>58</v>
       </c>
@@ -16225,7 +16235,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="19.5">
+    <row r="28" spans="1:18" ht="18.75">
       <c r="A28" s="36" t="s">
         <v>58</v>
       </c>
@@ -16369,7 +16379,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="19.5">
+    <row r="31" spans="1:18" ht="18.75">
       <c r="A31" s="36" t="s">
         <v>58</v>
       </c>
@@ -16917,7 +16927,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="19.5">
+    <row r="42" spans="1:18" ht="18.75">
       <c r="A42" s="29" t="s">
         <v>77</v>
       </c>
@@ -17061,7 +17071,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="19.5">
+    <row r="45" spans="1:18" ht="18.75">
       <c r="A45" s="29" t="s">
         <v>77</v>
       </c>
@@ -17621,7 +17631,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="19.5">
+    <row r="57" spans="1:18" ht="18.75">
       <c r="A57" s="36" t="s">
         <v>133</v>
       </c>
@@ -17667,7 +17677,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="19.5">
+    <row r="58" spans="1:18" ht="18.75">
       <c r="A58" s="36" t="s">
         <v>133</v>
       </c>
@@ -17715,7 +17725,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="19.5">
+    <row r="59" spans="1:18" ht="18.75">
       <c r="A59" s="36" t="s">
         <v>133</v>
       </c>
@@ -17761,7 +17771,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="19.5">
+    <row r="60" spans="1:18" ht="18.75">
       <c r="A60" s="36" t="s">
         <v>133</v>
       </c>
@@ -17807,7 +17817,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="19.5">
+    <row r="61" spans="1:18" ht="18.75">
       <c r="A61" s="36" t="s">
         <v>133</v>
       </c>
@@ -17853,7 +17863,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="19.5">
+    <row r="62" spans="1:18" ht="18.75">
       <c r="A62" s="36" t="s">
         <v>133</v>
       </c>
@@ -17899,7 +17909,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="19.5">
+    <row r="63" spans="1:18" ht="18.75">
       <c r="A63" s="36" t="s">
         <v>133</v>
       </c>
@@ -17945,7 +17955,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="19.5">
+    <row r="64" spans="1:18" ht="18.75">
       <c r="A64" s="36" t="s">
         <v>133</v>
       </c>
@@ -18901,7 +18911,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="19.5">
+    <row r="84" spans="1:18" ht="18.75">
       <c r="A84" s="29" t="s">
         <v>135</v>
       </c>
@@ -19129,7 +19139,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="19.5">
+    <row r="89" spans="1:18" ht="18.75">
       <c r="A89" s="68" t="s">
         <v>248</v>
       </c>
@@ -19177,7 +19187,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="19.5">
+    <row r="90" spans="1:18" ht="18.75">
       <c r="A90" s="68" t="s">
         <v>248</v>
       </c>
@@ -19225,7 +19235,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="19.5">
+    <row r="91" spans="1:18" ht="18.75">
       <c r="A91" s="68" t="s">
         <v>248</v>
       </c>
@@ -19273,7 +19283,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="19.5">
+    <row r="92" spans="1:18" ht="18.75">
       <c r="A92" s="68" t="s">
         <v>248</v>
       </c>
@@ -19321,7 +19331,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="19.5">
+    <row r="93" spans="1:18" ht="18.75">
       <c r="A93" s="68" t="s">
         <v>248</v>
       </c>
@@ -19778,22 +19788,22 @@
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.9140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.1875" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.9375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.9375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.0625" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.5625" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -19832,9 +19842,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="31" t="s">
-        <v>28</v>
+    <row r="3" spans="1:13" ht="141">
+      <c r="A3" s="109" t="s">
+        <v>572</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>29</v>
@@ -19842,7 +19852,7 @@
       <c r="C3" s="79" t="s">
         <v>281</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="139" t="s">
         <v>282</v>
       </c>
       <c r="E3" s="29">
@@ -19862,9 +19872,9 @@
       <c r="K3" s="29"/>
       <c r="M3" s="33"/>
     </row>
-    <row r="4" spans="1:13" s="19" customFormat="1" ht="19.5">
+    <row r="4" spans="1:13" s="19" customFormat="1" ht="18.75">
       <c r="A4" s="47" t="s">
-        <v>28</v>
+        <v>572</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>222</v>
@@ -19892,9 +19902,9 @@
       <c r="K4" s="36"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="1:13" s="19" customFormat="1" ht="19.5">
-      <c r="A5" s="47" t="s">
-        <v>28</v>
+    <row r="5" spans="1:13" s="19" customFormat="1" ht="18.75">
+      <c r="A5" s="109" t="s">
+        <v>572</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>223</v>
@@ -19922,9 +19932,9 @@
       <c r="K5" s="36"/>
       <c r="M5" s="38"/>
     </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="19.5">
-      <c r="A6" s="47" t="s">
-        <v>28</v>
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="18.75">
+      <c r="A6" s="109" t="s">
+        <v>572</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>236</v>
@@ -19953,8 +19963,8 @@
       <c r="M6" s="38"/>
     </row>
     <row r="7" spans="1:13" s="19" customFormat="1">
-      <c r="A7" s="68" t="s">
-        <v>248</v>
+      <c r="A7" s="109" t="s">
+        <v>572</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>240</v>
@@ -19982,9 +19992,9 @@
       <c r="K7" s="36"/>
       <c r="M7" s="38"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="19.5">
-      <c r="A8" s="68" t="s">
-        <v>248</v>
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="18.75">
+      <c r="A8" s="109" t="s">
+        <v>572</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>249</v>
@@ -20012,9 +20022,9 @@
       <c r="K8" s="36"/>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="19.5">
-      <c r="A9" s="68" t="s">
-        <v>248</v>
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="18.75">
+      <c r="A9" s="109" t="s">
+        <v>572</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>250</v>
@@ -20042,9 +20052,9 @@
       <c r="K9" s="36"/>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="1:13" s="19" customFormat="1" ht="19.5">
-      <c r="A10" s="68" t="s">
-        <v>248</v>
+    <row r="10" spans="1:13" s="19" customFormat="1" ht="18.75">
+      <c r="A10" s="109" t="s">
+        <v>572</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>251</v>
@@ -20072,9 +20082,9 @@
       <c r="K10" s="36"/>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="1:13" s="19" customFormat="1" ht="19.5">
-      <c r="A11" s="68" t="s">
-        <v>248</v>
+    <row r="11" spans="1:13" s="19" customFormat="1" ht="18.75">
+      <c r="A11" s="109" t="s">
+        <v>572</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>252</v>
@@ -20102,9 +20112,9 @@
       <c r="K11" s="36"/>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="1:13" s="19" customFormat="1" ht="19.5">
-      <c r="A12" s="68" t="s">
-        <v>248</v>
+    <row r="12" spans="1:13" s="19" customFormat="1" ht="18.75">
+      <c r="A12" s="109" t="s">
+        <v>572</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>256</v>
@@ -20133,8 +20143,8 @@
       <c r="M12" s="38"/>
     </row>
     <row r="13" spans="1:13" s="19" customFormat="1">
-      <c r="A13" s="68" t="s">
-        <v>248</v>
+      <c r="A13" s="109" t="s">
+        <v>572</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>257</v>
@@ -20165,8 +20175,8 @@
       <c r="M13" s="38"/>
     </row>
     <row r="14" spans="1:13" s="19" customFormat="1">
-      <c r="A14" s="68" t="s">
-        <v>248</v>
+      <c r="A14" s="109" t="s">
+        <v>572</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>258</v>
@@ -20197,8 +20207,8 @@
       <c r="M14" s="38"/>
     </row>
     <row r="15" spans="1:13" s="19" customFormat="1">
-      <c r="A15" s="68" t="s">
-        <v>248</v>
+      <c r="A15" s="109" t="s">
+        <v>572</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>253</v>
@@ -20227,8 +20237,8 @@
       <c r="M15" s="38"/>
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1">
-      <c r="A16" s="68" t="s">
-        <v>248</v>
+      <c r="A16" s="109" t="s">
+        <v>572</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>254</v>
@@ -20259,8 +20269,8 @@
       <c r="M16" s="38"/>
     </row>
     <row r="17" spans="1:13" s="19" customFormat="1">
-      <c r="A17" s="68" t="s">
-        <v>248</v>
+      <c r="A17" s="109" t="s">
+        <v>572</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>255</v>
@@ -20291,8 +20301,8 @@
       <c r="M17" s="38"/>
     </row>
     <row r="18" spans="1:13" s="19" customFormat="1">
-      <c r="A18" s="68" t="s">
-        <v>248</v>
+      <c r="A18" s="109" t="s">
+        <v>572</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>259</v>
@@ -20321,8 +20331,8 @@
       <c r="M18" s="38"/>
     </row>
     <row r="19" spans="1:13" s="19" customFormat="1">
-      <c r="A19" s="68" t="s">
-        <v>248</v>
+      <c r="A19" s="109" t="s">
+        <v>572</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>260</v>
@@ -20354,7 +20364,7 @@
     </row>
     <row r="20" spans="1:13" s="19" customFormat="1">
       <c r="A20" s="54" t="s">
-        <v>248</v>
+        <v>572</v>
       </c>
       <c r="B20" s="41" t="s">
         <v>261</v>
@@ -20396,25 +20406,25 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:Q78"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="26.33203125" style="58" customWidth="1"/>
+    <col min="1" max="1" width="26.3125" style="58" customWidth="1"/>
     <col min="2" max="2" width="26.25" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.6640625" style="58" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.58203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.9140625" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.08203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6875" style="58" customWidth="1"/>
+    <col min="4" max="4" width="40.8125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="7.8125" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5625" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.8125" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.9375" style="58" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.0625" style="58" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="58" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="60.25" style="58" customWidth="1"/>
     <col min="12" max="16384" width="9" style="58"/>
@@ -20519,7 +20529,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="19" customFormat="1" ht="19.5">
+    <row r="5" spans="1:17" s="19" customFormat="1" ht="18.75">
       <c r="A5" s="83" t="s">
         <v>28</v>
       </c>
@@ -20550,7 +20560,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="19" customFormat="1" ht="19.5">
+    <row r="6" spans="1:17" s="19" customFormat="1" ht="18.75">
       <c r="A6" s="83" t="s">
         <v>28</v>
       </c>
@@ -20581,7 +20591,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="19" customFormat="1" ht="19.5">
+    <row r="7" spans="1:17" s="19" customFormat="1" ht="18.75">
       <c r="A7" s="83" t="s">
         <v>28</v>
       </c>
@@ -20836,7 +20846,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="19.5">
+    <row r="15" spans="1:17" ht="18.75">
       <c r="A15" s="85" t="s">
         <v>288</v>
       </c>
@@ -20867,7 +20877,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="19.5">
+    <row r="16" spans="1:17" ht="18.75">
       <c r="A16" s="85" t="s">
         <v>288</v>
       </c>
@@ -21022,7 +21032,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="19.5">
+    <row r="21" spans="1:11" ht="18.75">
       <c r="A21" s="90" t="s">
         <v>288</v>
       </c>
@@ -21053,7 +21063,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="19.5">
+    <row r="22" spans="1:11" ht="18.75">
       <c r="A22" s="85" t="s">
         <v>288</v>
       </c>
@@ -21517,7 +21527,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="19.5">
+    <row r="38" spans="1:11" ht="18.75">
       <c r="A38" s="85" t="s">
         <v>298</v>
       </c>
@@ -22044,7 +22054,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="19.5">
+    <row r="55" spans="1:11" ht="18.75">
       <c r="A55" s="85" t="s">
         <v>298</v>
       </c>
@@ -22257,7 +22267,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="19.5">
+    <row r="62" spans="1:11" ht="18.75">
       <c r="A62" s="85" t="s">
         <v>300</v>
       </c>
@@ -22288,7 +22298,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="19.5">
+    <row r="63" spans="1:11" ht="18.75">
       <c r="A63" s="85" t="s">
         <v>300</v>
       </c>
@@ -22739,7 +22749,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="19.5">
+    <row r="78" spans="1:11" ht="18.75">
       <c r="A78" s="107" t="s">
         <v>558</v>
       </c>
@@ -22782,26 +22792,26 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.08203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.83203125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.3125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.0625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.8125" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.8125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="7.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.9375" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.0625" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.5625" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -22900,7 +22910,7 @@
       </c>
       <c r="K4" s="36"/>
     </row>
-    <row r="5" spans="1:17" s="19" customFormat="1" ht="19.5">
+    <row r="5" spans="1:17" s="19" customFormat="1" ht="18.75">
       <c r="A5" s="96" t="s">
         <v>28</v>
       </c>
@@ -22929,7 +22939,7 @@
       </c>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:17" s="19" customFormat="1" ht="19.5">
+    <row r="6" spans="1:17" s="19" customFormat="1" ht="18.75">
       <c r="A6" s="96" t="s">
         <v>28</v>
       </c>
@@ -22958,7 +22968,7 @@
       </c>
       <c r="K6" s="36"/>
     </row>
-    <row r="7" spans="1:17" s="19" customFormat="1" ht="19.5">
+    <row r="7" spans="1:17" s="19" customFormat="1" ht="18.75">
       <c r="A7" s="96" t="s">
         <v>28</v>
       </c>
@@ -23211,7 +23221,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="58" customFormat="1" ht="19.5">
+    <row r="15" spans="1:17" s="58" customFormat="1" ht="18.75">
       <c r="A15" s="102" t="s">
         <v>288</v>
       </c>
@@ -23271,7 +23281,7 @@
       <c r="J16" s="36"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="19.5">
+    <row r="17" spans="1:11" ht="18.75">
       <c r="A17" s="100" t="s">
         <v>288</v>
       </c>
@@ -23426,7 +23436,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="58" customFormat="1" ht="19.5">
+    <row r="22" spans="1:11" s="58" customFormat="1" ht="18.75">
       <c r="A22" s="102" t="s">
         <v>288</v>
       </c>
@@ -23457,7 +23467,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="58" customFormat="1" ht="19.5">
+    <row r="23" spans="1:11" s="58" customFormat="1" ht="18.75">
       <c r="A23" s="102" t="s">
         <v>288</v>
       </c>
@@ -23921,7 +23931,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="58" customFormat="1" ht="19.5">
+    <row r="39" spans="1:11" s="58" customFormat="1" ht="18.75">
       <c r="A39" s="102" t="s">
         <v>298</v>
       </c>
@@ -24477,7 +24487,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="19.5">
+    <row r="57" spans="1:11" ht="18.75">
       <c r="A57" s="102" t="s">
         <v>298</v>
       </c>
@@ -24690,7 +24700,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="58" customFormat="1" ht="19.5">
+    <row r="64" spans="1:11" s="58" customFormat="1" ht="18.75">
       <c r="A64" s="102" t="s">
         <v>300</v>
       </c>
@@ -24750,7 +24760,7 @@
       <c r="J65" s="36"/>
       <c r="K65" s="35"/>
     </row>
-    <row r="66" spans="1:11" s="58" customFormat="1" ht="19.5">
+    <row r="66" spans="1:11" s="58" customFormat="1" ht="18.75">
       <c r="A66" s="102" t="s">
         <v>300</v>
       </c>
@@ -25259,7 +25269,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="19.5">
+    <row r="83" spans="1:11" ht="18.75">
       <c r="A83" s="108" t="s">
         <v>558</v>
       </c>
@@ -25338,20 +25348,20 @@
       <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.0625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.8125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.58203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.9140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.9375" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.9375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.0625" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.5625" style="27" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -25460,7 +25470,7 @@
       </c>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:19" s="19" customFormat="1" ht="19.5">
+    <row r="5" spans="1:19" s="19" customFormat="1" ht="18.75">
       <c r="A5" s="47" t="s">
         <v>28</v>
       </c>
@@ -25491,7 +25501,7 @@
       </c>
       <c r="M5" s="36"/>
     </row>
-    <row r="6" spans="1:19" s="19" customFormat="1" ht="19.5">
+    <row r="6" spans="1:19" s="19" customFormat="1" ht="18.75">
       <c r="A6" s="47" t="s">
         <v>28</v>
       </c>
@@ -25522,7 +25532,7 @@
       </c>
       <c r="M6" s="36"/>
     </row>
-    <row r="7" spans="1:19" s="19" customFormat="1" ht="19.5">
+    <row r="7" spans="1:19" s="19" customFormat="1" ht="18.75">
       <c r="A7" s="47" t="s">
         <v>28</v>
       </c>
@@ -25726,7 +25736,7 @@
       </c>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:19" ht="19.5">
+    <row r="14" spans="1:19" ht="18.75">
       <c r="A14" s="36" t="s">
         <v>58</v>
       </c>
@@ -25757,7 +25767,7 @@
       </c>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:19" ht="19.5">
+    <row r="15" spans="1:19" ht="18.75">
       <c r="A15" s="36" t="s">
         <v>58</v>
       </c>
@@ -25889,7 +25899,7 @@
       </c>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" ht="19.5">
+    <row r="19" spans="1:13" ht="18.75">
       <c r="A19" s="36" t="s">
         <v>58</v>
       </c>
@@ -25988,7 +25998,7 @@
       </c>
       <c r="M21" s="35"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5">
+    <row r="22" spans="1:13" ht="18.75">
       <c r="A22" s="36" t="s">
         <v>58</v>
       </c>
@@ -26153,7 +26163,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="19.5">
+    <row r="27" spans="1:13" ht="18.75">
       <c r="A27" s="29" t="s">
         <v>77</v>
       </c>
@@ -26613,7 +26623,7 @@
       <c r="L40" s="26"/>
       <c r="M40" s="26"/>
     </row>
-    <row r="41" spans="1:13" ht="19.5">
+    <row r="41" spans="1:13" ht="18.75">
       <c r="A41" s="26" t="s">
         <v>135</v>
       </c>
@@ -26700,7 +26710,7 @@
       </c>
       <c r="M43" s="36"/>
     </row>
-    <row r="44" spans="1:13" ht="19.5">
+    <row r="44" spans="1:13" ht="18.75">
       <c r="A44" s="68" t="s">
         <v>248</v>
       </c>
@@ -26733,7 +26743,7 @@
       </c>
       <c r="M44" s="36"/>
     </row>
-    <row r="45" spans="1:13" ht="19.5">
+    <row r="45" spans="1:13" ht="18.75">
       <c r="A45" s="68" t="s">
         <v>248</v>
       </c>
@@ -26766,7 +26776,7 @@
       </c>
       <c r="M45" s="36"/>
     </row>
-    <row r="46" spans="1:13" ht="19.5">
+    <row r="46" spans="1:13" ht="18.75">
       <c r="A46" s="68" t="s">
         <v>248</v>
       </c>
@@ -26799,7 +26809,7 @@
       </c>
       <c r="M46" s="36"/>
     </row>
-    <row r="47" spans="1:13" ht="19.5">
+    <row r="47" spans="1:13" ht="18.75">
       <c r="A47" s="68" t="s">
         <v>248</v>
       </c>
@@ -26832,7 +26842,7 @@
       </c>
       <c r="M47" s="36"/>
     </row>
-    <row r="48" spans="1:13" ht="19.5">
+    <row r="48" spans="1:13" ht="18.75">
       <c r="A48" s="68" t="s">
         <v>248</v>
       </c>
@@ -27156,20 +27166,20 @@
       <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.8125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5625" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.25" style="27" customWidth="1"/>
-    <col min="7" max="7" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.9375" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.0625" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.5625" style="27" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -27278,7 +27288,7 @@
       </c>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:19" s="19" customFormat="1" ht="19.5">
+    <row r="5" spans="1:19" s="19" customFormat="1" ht="18.75">
       <c r="A5" s="47" t="s">
         <v>28</v>
       </c>
@@ -27309,7 +27319,7 @@
       </c>
       <c r="M5" s="36"/>
     </row>
-    <row r="6" spans="1:19" s="19" customFormat="1" ht="19.5">
+    <row r="6" spans="1:19" s="19" customFormat="1" ht="18.75">
       <c r="A6" s="47" t="s">
         <v>28</v>
       </c>
@@ -27340,7 +27350,7 @@
       </c>
       <c r="M6" s="36"/>
     </row>
-    <row r="7" spans="1:19" s="19" customFormat="1" ht="19.5">
+    <row r="7" spans="1:19" s="19" customFormat="1" ht="18.75">
       <c r="A7" s="47" t="s">
         <v>28</v>
       </c>
@@ -27544,7 +27554,7 @@
       </c>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:19" ht="19.5">
+    <row r="14" spans="1:19" ht="18.75">
       <c r="A14" s="36" t="s">
         <v>58</v>
       </c>
@@ -27575,7 +27585,7 @@
       </c>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:19" ht="19.5">
+    <row r="15" spans="1:19" ht="18.75">
       <c r="A15" s="36" t="s">
         <v>58</v>
       </c>
@@ -27707,7 +27717,7 @@
       </c>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" ht="19.5">
+    <row r="19" spans="1:13" ht="18.75">
       <c r="A19" s="36" t="s">
         <v>58</v>
       </c>
@@ -27806,7 +27816,7 @@
       </c>
       <c r="M21" s="35"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5">
+    <row r="22" spans="1:13" ht="18.75">
       <c r="A22" s="36" t="s">
         <v>58</v>
       </c>
@@ -28080,7 +28090,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="19.5">
+    <row r="30" spans="1:13" ht="18.75">
       <c r="A30" s="29" t="s">
         <v>77</v>
       </c>
@@ -28373,7 +28383,7 @@
       </c>
       <c r="M38" s="36"/>
     </row>
-    <row r="39" spans="1:13" ht="19.5">
+    <row r="39" spans="1:13" ht="18.75">
       <c r="A39" s="36" t="s">
         <v>133</v>
       </c>
@@ -28404,7 +28414,7 @@
       </c>
       <c r="M39" s="35"/>
     </row>
-    <row r="40" spans="1:13" ht="19.5">
+    <row r="40" spans="1:13" ht="18.75">
       <c r="A40" s="36" t="s">
         <v>133</v>
       </c>
@@ -28435,7 +28445,7 @@
       </c>
       <c r="M40" s="35"/>
     </row>
-    <row r="41" spans="1:13" ht="19.5">
+    <row r="41" spans="1:13" ht="18.75">
       <c r="A41" s="36" t="s">
         <v>133</v>
       </c>
@@ -28466,7 +28476,7 @@
       </c>
       <c r="M41" s="35"/>
     </row>
-    <row r="42" spans="1:13" ht="19.5">
+    <row r="42" spans="1:13" ht="18.75">
       <c r="A42" s="36" t="s">
         <v>133</v>
       </c>
@@ -28922,7 +28932,7 @@
       <c r="L55" s="26"/>
       <c r="M55" s="26"/>
     </row>
-    <row r="56" spans="1:13" ht="19.5">
+    <row r="56" spans="1:13" ht="18.75">
       <c r="A56" s="26" t="s">
         <v>135</v>
       </c>
@@ -29009,7 +29019,7 @@
       </c>
       <c r="M58" s="36"/>
     </row>
-    <row r="59" spans="1:13" ht="19.5">
+    <row r="59" spans="1:13" ht="18.75">
       <c r="A59" s="68" t="s">
         <v>248</v>
       </c>
@@ -29042,7 +29052,7 @@
       </c>
       <c r="M59" s="36"/>
     </row>
-    <row r="60" spans="1:13" ht="19.5">
+    <row r="60" spans="1:13" ht="18.75">
       <c r="A60" s="68" t="s">
         <v>248</v>
       </c>
@@ -29075,7 +29085,7 @@
       </c>
       <c r="M60" s="36"/>
     </row>
-    <row r="61" spans="1:13" ht="19.5">
+    <row r="61" spans="1:13" ht="18.75">
       <c r="A61" s="68" t="s">
         <v>248</v>
       </c>
@@ -29108,7 +29118,7 @@
       </c>
       <c r="M61" s="36"/>
     </row>
-    <row r="62" spans="1:13" ht="19.5">
+    <row r="62" spans="1:13" ht="18.75">
       <c r="A62" s="68" t="s">
         <v>248</v>
       </c>
@@ -29141,7 +29151,7 @@
       </c>
       <c r="M62" s="36"/>
     </row>
-    <row r="63" spans="1:13" ht="19.5">
+    <row r="63" spans="1:13" ht="18.75">
       <c r="A63" s="68" t="s">
         <v>248</v>
       </c>

--- a/入力情報定義表.xlsx
+++ b/入力情報定義表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DDBD63B5-46D7-40CD-8008-F1BC5618D338}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5DDF6193-1453-412C-8AA5-0F13A2EC7A78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8333" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="604">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -3507,55 +3507,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>U_roof</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>U_wall</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>U_floor</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>U_door</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IsInputEarthFloorPerimeterPsi</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Psi_base_others</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Psi_base_entrance</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>U_wnd</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>eta_d_C</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>eta_d_H</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>IsInputFValue</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>f_value_C</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>f_value_H</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -5881,6 +5833,178 @@
   </si>
   <si>
     <t>－</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>URoof</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UWall</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UFloor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UDoor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UWnd</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EtaDC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>EtaDH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FValueC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FValueH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PsiBaseOthers</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PsiBaseEntrance</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IsInputPsiBase</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] InputMethodWood</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] InputMethodRC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] InputMethodSteel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] UA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] URWood</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] URSteel</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] Parts[j] TypeFloor</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] Parts[j] TypeWall</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] Parts[j] TypeCeiling</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] Parts[j] TypeRoof</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] Parts[j] Layers[k] SpecH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] Y2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Walls[i] Y1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] TypeWindow</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] TypeFrame</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] TypeGlass</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] TypeShade</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] EtaInside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] TypeFrameInside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] TypeGlassInside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] TypeShadeInside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] EtaOutside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] TypeFrameOutside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] TypeGlassOutside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] TypeShadeOutside</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Y2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Z</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] Y1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] IsInputEtaValue</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Windows[i] UW</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6040,7 +6164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6363,26 +6487,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6399,10 +6523,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6417,11 +6553,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6432,25 +6571,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6816,7 +6943,7 @@
         <v>275</v>
       </c>
       <c r="C6" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6849,7 +6976,7 @@
         <v>275</v>
       </c>
       <c r="C9" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6882,7 +7009,7 @@
         <v>275</v>
       </c>
       <c r="C12" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6901,10 +7028,10 @@
         <v>43185</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C14" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6912,10 +7039,10 @@
         <v>43185</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C15" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6923,10 +7050,10 @@
         <v>43185</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C16" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6934,10 +7061,10 @@
         <v>43185</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C17" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6948,7 +7075,7 @@
         <v>275</v>
       </c>
       <c r="C18" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -6959,7 +7086,7 @@
         <v>275</v>
       </c>
       <c r="C19" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -6970,7 +7097,7 @@
         <v>275</v>
       </c>
       <c r="C20" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -6981,7 +7108,7 @@
         <v>275</v>
       </c>
       <c r="C21" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -6992,7 +7119,7 @@
         <v>275</v>
       </c>
       <c r="C22" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7003,7 +7130,7 @@
         <v>275</v>
       </c>
       <c r="C23" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7014,7 +7141,7 @@
         <v>275</v>
       </c>
       <c r="C24" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7025,7 +7152,7 @@
         <v>275</v>
       </c>
       <c r="C25" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7036,7 +7163,7 @@
         <v>275</v>
       </c>
       <c r="C26" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7047,7 +7174,7 @@
         <v>275</v>
       </c>
       <c r="C27" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7058,7 +7185,7 @@
         <v>275</v>
       </c>
       <c r="C28" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7069,7 +7196,7 @@
         <v>275</v>
       </c>
       <c r="C29" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7080,7 +7207,7 @@
         <v>275</v>
       </c>
       <c r="C30" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7091,7 +7218,7 @@
         <v>275</v>
       </c>
       <c r="C31" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7102,7 +7229,7 @@
         <v>275</v>
       </c>
       <c r="C32" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7113,7 +7240,7 @@
         <v>275</v>
       </c>
       <c r="C33" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7124,7 +7251,7 @@
         <v>275</v>
       </c>
       <c r="C34" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7135,7 +7262,7 @@
         <v>275</v>
       </c>
       <c r="C35" s="81" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7146,7 +7273,7 @@
         <v>275</v>
       </c>
       <c r="C36" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7157,7 +7284,7 @@
         <v>275</v>
       </c>
       <c r="C37" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7168,7 +7295,7 @@
         <v>275</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7179,7 +7306,7 @@
         <v>275</v>
       </c>
       <c r="C39" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -7190,7 +7317,7 @@
         <v>275</v>
       </c>
       <c r="C40" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -7201,7 +7328,7 @@
         <v>275</v>
       </c>
       <c r="C41" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7212,7 +7339,7 @@
         <v>275</v>
       </c>
       <c r="C42" s="82" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7223,7 +7350,7 @@
         <v>275</v>
       </c>
       <c r="C43" s="82" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7234,7 +7361,7 @@
         <v>275</v>
       </c>
       <c r="C44" s="81" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7245,7 +7372,7 @@
         <v>275</v>
       </c>
       <c r="C45" s="82" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7256,7 +7383,7 @@
         <v>275</v>
       </c>
       <c r="C46" s="82" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7267,7 +7394,7 @@
         <v>275</v>
       </c>
       <c r="C47" s="82" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7278,7 +7405,7 @@
         <v>275</v>
       </c>
       <c r="C48" s="82" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7289,7 +7416,7 @@
         <v>275</v>
       </c>
       <c r="C49" s="82" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7297,7 +7424,7 @@
         <v>43203</v>
       </c>
       <c r="B50" s="76" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C50" s="82" t="s">
         <v>276</v>
@@ -7322,7 +7449,7 @@
         <v>275</v>
       </c>
       <c r="C52" s="82" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7333,7 +7460,7 @@
         <v>275</v>
       </c>
       <c r="C53" s="82" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7344,7 +7471,7 @@
         <v>275</v>
       </c>
       <c r="C54" s="82" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7355,7 +7482,7 @@
         <v>275</v>
       </c>
       <c r="C55" s="82" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7366,7 +7493,7 @@
         <v>275</v>
       </c>
       <c r="C56" s="82" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7377,7 +7504,7 @@
         <v>275</v>
       </c>
       <c r="C57" s="82" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7388,7 +7515,7 @@
         <v>275</v>
       </c>
       <c r="C58" s="82" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7399,7 +7526,7 @@
         <v>275</v>
       </c>
       <c r="C59" s="82" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7410,7 +7537,7 @@
         <v>275</v>
       </c>
       <c r="C60" s="82" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7421,7 +7548,7 @@
         <v>275</v>
       </c>
       <c r="C61" s="82" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -7432,7 +7559,7 @@
         <v>275</v>
       </c>
       <c r="C62" s="82" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -7443,7 +7570,7 @@
         <v>275</v>
       </c>
       <c r="C63" s="82" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -7454,7 +7581,7 @@
         <v>275</v>
       </c>
       <c r="C64" s="81" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -7462,10 +7589,10 @@
         <v>43257</v>
       </c>
       <c r="B65" s="76" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C65" s="82" t="s">
-        <v>525</v>
+        <v>513</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7473,10 +7600,10 @@
         <v>43257</v>
       </c>
       <c r="B66" s="76" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C66" s="82" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7484,10 +7611,10 @@
         <v>43257</v>
       </c>
       <c r="B67" s="76" t="s">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="C67" s="82" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7498,7 +7625,7 @@
         <v>275</v>
       </c>
       <c r="C68" s="82" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7509,7 +7636,7 @@
         <v>275</v>
       </c>
       <c r="C69" s="82" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7517,10 +7644,10 @@
         <v>43265</v>
       </c>
       <c r="B70" s="76" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C70" s="82" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7528,10 +7655,10 @@
         <v>43265</v>
       </c>
       <c r="B71" s="76" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C71" s="82" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7539,10 +7666,10 @@
         <v>43266</v>
       </c>
       <c r="B72" s="76" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C72" s="82" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7550,10 +7677,10 @@
         <v>43266</v>
       </c>
       <c r="B73" s="76" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C73" s="82" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7561,10 +7688,10 @@
         <v>43266</v>
       </c>
       <c r="B74" s="76" t="s">
+        <v>526</v>
+      </c>
+      <c r="C74" s="82" t="s">
         <v>538</v>
-      </c>
-      <c r="C74" s="82" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7572,10 +7699,10 @@
         <v>43266</v>
       </c>
       <c r="B75" s="76" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C75" s="82" t="s">
-        <v>551</v>
+        <v>539</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -7583,10 +7710,10 @@
         <v>43269</v>
       </c>
       <c r="B76" s="76" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C76" s="82" t="s">
-        <v>549</v>
+        <v>537</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -7597,7 +7724,7 @@
         <v>275</v>
       </c>
       <c r="C77" s="82" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7605,10 +7732,10 @@
         <v>43279</v>
       </c>
       <c r="B78" s="76" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C78" s="82" t="s">
-        <v>553</v>
+        <v>541</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7616,10 +7743,10 @@
         <v>43279</v>
       </c>
       <c r="B79" s="76" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C79" s="82" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7630,7 +7757,7 @@
         <v>275</v>
       </c>
       <c r="C80" s="82" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -7641,7 +7768,7 @@
         <v>275</v>
       </c>
       <c r="C81" s="82" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -7649,10 +7776,10 @@
         <v>43283</v>
       </c>
       <c r="B82" s="76" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C82" s="82" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -7660,10 +7787,10 @@
         <v>43283</v>
       </c>
       <c r="B83" s="76" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C83" s="82" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -7671,10 +7798,10 @@
         <v>43283</v>
       </c>
       <c r="B84" s="76" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="C84" s="82" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -7897,35 +8024,35 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="121"/>
-      <c r="B4" s="123" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="123"/>
-      <c r="D4" s="112" t="s">
+      <c r="B4" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="126"/>
+      <c r="D4" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="123"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="123">
+      <c r="H4" s="126">
         <v>6</v>
       </c>
-      <c r="I4" s="123">
-        <v>1</v>
-      </c>
-      <c r="J4" s="123">
+      <c r="I4" s="126">
+        <v>1</v>
+      </c>
+      <c r="J4" s="126">
         <v>8</v>
       </c>
-      <c r="K4" s="123" t="s">
+      <c r="K4" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="126"/>
+      <c r="N4" s="126"/>
       <c r="O4" s="51" t="s">
         <v>51</v>
       </c>
@@ -7944,23 +8071,23 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" s="121"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="129"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="127"/>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
+      <c r="H5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
       <c r="O5" s="52"/>
       <c r="P5" s="52"/>
       <c r="Q5" s="52"/>
@@ -7969,23 +8096,23 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" s="121"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="114"/>
-      <c r="E6" s="129"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="127"/>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
+      <c r="H6" s="127"/>
+      <c r="I6" s="127"/>
+      <c r="J6" s="127"/>
+      <c r="K6" s="127"/>
+      <c r="L6" s="127"/>
+      <c r="M6" s="127"/>
+      <c r="N6" s="127"/>
       <c r="O6" s="52"/>
       <c r="P6" s="52"/>
       <c r="Q6" s="52"/>
@@ -7994,23 +8121,23 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" s="121"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="114"/>
-      <c r="E7" s="129"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="127"/>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="127"/>
+      <c r="L7" s="127"/>
+      <c r="M7" s="127"/>
+      <c r="N7" s="127"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
@@ -8019,23 +8146,23 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="121"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="129"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="127"/>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="127"/>
+      <c r="K8" s="127"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="127"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="52"/>
@@ -8044,23 +8171,23 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="121"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="129"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="1">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="127"/>
+      <c r="M9" s="127"/>
+      <c r="N9" s="127"/>
       <c r="O9" s="52"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="52"/>
@@ -8069,23 +8196,23 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="121"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="129"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="127"/>
       <c r="F10" s="1">
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="127"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52"/>
@@ -8094,23 +8221,23 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="121"/>
-      <c r="B11" s="124"/>
-      <c r="C11" s="124"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
       <c r="D11" s="113"/>
-      <c r="E11" s="124"/>
+      <c r="E11" s="128"/>
       <c r="F11" s="1">
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
-      <c r="L11" s="124"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="124"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="128"/>
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
@@ -8274,23 +8401,23 @@
       <c r="G15" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="112">
+      <c r="H15" s="111">
         <v>2</v>
       </c>
-      <c r="I15" s="112">
-        <v>1</v>
-      </c>
-      <c r="J15" s="112">
+      <c r="I15" s="111">
+        <v>1</v>
+      </c>
+      <c r="J15" s="111">
         <v>2</v>
       </c>
-      <c r="K15" s="112" t="s">
+      <c r="K15" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="123"/>
-      <c r="M15" s="112" t="s">
+      <c r="L15" s="126"/>
+      <c r="M15" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="123"/>
+      <c r="N15" s="126"/>
       <c r="O15" s="51" t="s">
         <v>51</v>
       </c>
@@ -8310,9 +8437,9 @@
     <row r="16" spans="1:23" s="44" customFormat="1">
       <c r="A16" s="121"/>
       <c r="B16" s="119"/>
-      <c r="C16" s="128"/>
+      <c r="C16" s="122"/>
       <c r="D16" s="119"/>
-      <c r="E16" s="128"/>
+      <c r="E16" s="122"/>
       <c r="F16" s="46">
         <v>2</v>
       </c>
@@ -8323,9 +8450,9 @@
       <c r="I16" s="113"/>
       <c r="J16" s="113"/>
       <c r="K16" s="113"/>
-      <c r="L16" s="124"/>
+      <c r="L16" s="128"/>
       <c r="M16" s="113"/>
-      <c r="N16" s="124"/>
+      <c r="N16" s="128"/>
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="53"/>
@@ -8489,34 +8616,34 @@
       <c r="G20" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112">
-        <v>1</v>
-      </c>
-      <c r="J20" s="112">
+      <c r="H20" s="111"/>
+      <c r="I20" s="111">
+        <v>1</v>
+      </c>
+      <c r="J20" s="111">
         <v>2</v>
       </c>
-      <c r="K20" s="112" t="s">
+      <c r="K20" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="110"/>
-      <c r="M20" s="112" t="s">
+      <c r="L20" s="114"/>
+      <c r="M20" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="112"/>
-      <c r="O20" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="S20" s="115" t="s">
+      <c r="N20" s="111"/>
+      <c r="O20" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="138" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="138" t="s">
         <v>51</v>
       </c>
     </row>
@@ -8532,21 +8659,21 @@
       <c r="G21" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="114"/>
-      <c r="N21" s="114"/>
-      <c r="O21" s="116"/>
-      <c r="P21" s="116"/>
-      <c r="Q21" s="116"/>
-      <c r="R21" s="116"/>
-      <c r="S21" s="116"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="112"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="112"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="112"/>
+      <c r="N21" s="112"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="139"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="123" t="s">
+      <c r="A22" s="126" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -8585,7 +8712,7 @@
       </c>
     </row>
     <row r="23" spans="1:23" s="44" customFormat="1">
-      <c r="A23" s="129"/>
+      <c r="A23" s="127"/>
       <c r="B23" s="117" t="s">
         <v>51</v>
       </c>
@@ -8593,24 +8720,24 @@
       <c r="D23" s="117" t="s">
         <v>225</v>
       </c>
-      <c r="E23" s="136"/>
+      <c r="E23" s="123"/>
       <c r="F23" s="46">
         <v>1</v>
       </c>
       <c r="G23" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="H23" s="125"/>
-      <c r="I23" s="112">
-        <v>1</v>
-      </c>
-      <c r="J23" s="112">
+      <c r="H23" s="129"/>
+      <c r="I23" s="111">
+        <v>1</v>
+      </c>
+      <c r="J23" s="111">
         <v>6</v>
       </c>
       <c r="K23" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="125"/>
+      <c r="L23" s="129"/>
       <c r="M23" s="117" t="s">
         <v>38</v>
       </c>
@@ -8633,22 +8760,22 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:23" s="44" customFormat="1">
-      <c r="A24" s="129"/>
+      <c r="A24" s="127"/>
       <c r="B24" s="118"/>
       <c r="C24" s="121"/>
       <c r="D24" s="118"/>
-      <c r="E24" s="137"/>
+      <c r="E24" s="124"/>
       <c r="F24" s="46">
         <v>2</v>
       </c>
       <c r="G24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="126"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
+      <c r="H24" s="130"/>
+      <c r="I24" s="112"/>
+      <c r="J24" s="112"/>
       <c r="K24" s="118"/>
-      <c r="L24" s="126"/>
+      <c r="L24" s="130"/>
       <c r="M24" s="118"/>
       <c r="N24" s="121"/>
       <c r="O24" s="52"/>
@@ -8659,22 +8786,22 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:23" s="44" customFormat="1">
-      <c r="A25" s="129"/>
+      <c r="A25" s="127"/>
       <c r="B25" s="118"/>
       <c r="C25" s="121"/>
       <c r="D25" s="118"/>
-      <c r="E25" s="137"/>
+      <c r="E25" s="124"/>
       <c r="F25" s="46">
         <v>3</v>
       </c>
       <c r="G25" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="126"/>
-      <c r="I25" s="114"/>
-      <c r="J25" s="114"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="112"/>
+      <c r="J25" s="112"/>
       <c r="K25" s="118"/>
-      <c r="L25" s="126"/>
+      <c r="L25" s="130"/>
       <c r="M25" s="118"/>
       <c r="N25" s="121"/>
       <c r="O25" s="52"/>
@@ -8685,22 +8812,22 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="1:23" s="44" customFormat="1">
-      <c r="A26" s="129"/>
+      <c r="A26" s="127"/>
       <c r="B26" s="118"/>
       <c r="C26" s="121"/>
       <c r="D26" s="118"/>
-      <c r="E26" s="137"/>
+      <c r="E26" s="124"/>
       <c r="F26" s="46">
         <v>4</v>
       </c>
       <c r="G26" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="126"/>
-      <c r="I26" s="114"/>
-      <c r="J26" s="114"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="112"/>
       <c r="K26" s="118"/>
-      <c r="L26" s="126"/>
+      <c r="L26" s="130"/>
       <c r="M26" s="118"/>
       <c r="N26" s="121"/>
       <c r="O26" s="52"/>
@@ -8713,22 +8840,22 @@
       <c r="V26" s="49"/>
     </row>
     <row r="27" spans="1:23" s="44" customFormat="1">
-      <c r="A27" s="129"/>
+      <c r="A27" s="127"/>
       <c r="B27" s="118"/>
       <c r="C27" s="121"/>
       <c r="D27" s="118"/>
-      <c r="E27" s="137"/>
+      <c r="E27" s="124"/>
       <c r="F27" s="46">
         <v>5</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="126"/>
-      <c r="I27" s="114"/>
-      <c r="J27" s="114"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="112"/>
+      <c r="J27" s="112"/>
       <c r="K27" s="118"/>
-      <c r="L27" s="126"/>
+      <c r="L27" s="130"/>
       <c r="M27" s="118"/>
       <c r="N27" s="121"/>
       <c r="O27" s="52"/>
@@ -8741,24 +8868,24 @@
       <c r="V27" s="49"/>
     </row>
     <row r="28" spans="1:23" s="44" customFormat="1">
-      <c r="A28" s="129"/>
+      <c r="A28" s="127"/>
       <c r="B28" s="119"/>
-      <c r="C28" s="128"/>
+      <c r="C28" s="122"/>
       <c r="D28" s="119"/>
-      <c r="E28" s="138"/>
+      <c r="E28" s="125"/>
       <c r="F28" s="46">
         <v>6</v>
       </c>
       <c r="G28" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="127"/>
+      <c r="H28" s="131"/>
       <c r="I28" s="113"/>
       <c r="J28" s="113"/>
       <c r="K28" s="119"/>
-      <c r="L28" s="127"/>
+      <c r="L28" s="131"/>
       <c r="M28" s="119"/>
-      <c r="N28" s="128"/>
+      <c r="N28" s="122"/>
       <c r="O28" s="53"/>
       <c r="P28" s="53"/>
       <c r="Q28" s="53"/>
@@ -8769,7 +8896,7 @@
       <c r="V28" s="49"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="129"/>
+      <c r="A29" s="127"/>
       <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
@@ -8809,7 +8936,7 @@
       <c r="V29" s="49"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="129"/>
+      <c r="A30" s="127"/>
       <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
@@ -8857,7 +8984,7 @@
       <c r="V30" s="49"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="129"/>
+      <c r="A31" s="127"/>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
@@ -8905,7 +9032,7 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="129"/>
+      <c r="A32" s="127"/>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
@@ -8951,7 +9078,7 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="129"/>
+      <c r="A33" s="127"/>
       <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
@@ -9001,7 +9128,7 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="129"/>
+      <c r="A34" s="127"/>
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
@@ -9051,7 +9178,7 @@
       <c r="V34" s="49"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="129"/>
+      <c r="A35" s="127"/>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
@@ -9100,7 +9227,7 @@
       <c r="U35" s="2"/>
     </row>
     <row r="36" spans="1:22" s="27" customFormat="1" ht="18.75">
-      <c r="A36" s="129"/>
+      <c r="A36" s="127"/>
       <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
@@ -9148,7 +9275,7 @@
       <c r="T36" s="19"/>
     </row>
     <row r="37" spans="1:22" s="27" customFormat="1" ht="18.75">
-      <c r="A37" s="129"/>
+      <c r="A37" s="127"/>
       <c r="B37" s="10" t="s">
         <v>51</v>
       </c>
@@ -9194,7 +9321,7 @@
       <c r="T37" s="19"/>
     </row>
     <row r="38" spans="1:22" s="27" customFormat="1" ht="18.75">
-      <c r="A38" s="129"/>
+      <c r="A38" s="127"/>
       <c r="B38" s="10" t="s">
         <v>51</v>
       </c>
@@ -9240,38 +9367,38 @@
       <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:22" s="27" customFormat="1">
-      <c r="A39" s="129"/>
-      <c r="B39" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112" t="s">
+      <c r="A39" s="127"/>
+      <c r="B39" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="111"/>
+      <c r="D39" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="112"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="10">
         <v>1</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H39" s="112">
-        <v>1</v>
-      </c>
-      <c r="I39" s="112">
-        <v>1</v>
-      </c>
-      <c r="J39" s="112">
+      <c r="H39" s="111">
+        <v>1</v>
+      </c>
+      <c r="I39" s="111">
+        <v>1</v>
+      </c>
+      <c r="J39" s="111">
         <v>3</v>
       </c>
-      <c r="K39" s="112" t="s">
+      <c r="K39" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="L39" s="110"/>
-      <c r="M39" s="112" t="s">
+      <c r="L39" s="114"/>
+      <c r="M39" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="N39" s="112"/>
+      <c r="N39" s="111"/>
       <c r="O39" s="51" t="s">
         <v>169</v>
       </c>
@@ -9289,24 +9416,24 @@
       </c>
     </row>
     <row r="40" spans="1:22" s="27" customFormat="1">
-      <c r="A40" s="129"/>
-      <c r="B40" s="114"/>
-      <c r="C40" s="114"/>
-      <c r="D40" s="114"/>
-      <c r="E40" s="114"/>
+      <c r="A40" s="127"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
       <c r="F40" s="10">
         <v>2</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H40" s="114"/>
-      <c r="I40" s="114"/>
-      <c r="J40" s="114"/>
-      <c r="K40" s="114"/>
-      <c r="L40" s="122"/>
-      <c r="M40" s="114"/>
-      <c r="N40" s="114"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+      <c r="K40" s="112"/>
+      <c r="L40" s="115"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
       <c r="O40" s="52"/>
       <c r="P40" s="52"/>
       <c r="Q40" s="52"/>
@@ -9314,24 +9441,24 @@
       <c r="S40" s="52"/>
     </row>
     <row r="41" spans="1:22" s="58" customFormat="1">
-      <c r="A41" s="129"/>
-      <c r="B41" s="114"/>
-      <c r="C41" s="114"/>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
+      <c r="A41" s="127"/>
+      <c r="B41" s="112"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
       <c r="F41" s="61">
         <v>3</v>
       </c>
       <c r="G41" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="H41" s="114"/>
-      <c r="I41" s="114"/>
-      <c r="J41" s="114"/>
-      <c r="K41" s="114"/>
-      <c r="L41" s="122"/>
-      <c r="M41" s="114"/>
-      <c r="N41" s="114"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="115"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
@@ -9339,7 +9466,7 @@
       <c r="S41" s="59"/>
     </row>
     <row r="42" spans="1:22" s="27" customFormat="1">
-      <c r="A42" s="129"/>
+      <c r="A42" s="127"/>
       <c r="B42" s="113"/>
       <c r="C42" s="113"/>
       <c r="D42" s="113"/>
@@ -9354,7 +9481,7 @@
       <c r="I42" s="113"/>
       <c r="J42" s="113"/>
       <c r="K42" s="113"/>
-      <c r="L42" s="111"/>
+      <c r="L42" s="116"/>
       <c r="M42" s="113"/>
       <c r="N42" s="113"/>
       <c r="O42" s="53"/>
@@ -9364,15 +9491,15 @@
       <c r="S42" s="53"/>
     </row>
     <row r="43" spans="1:22" s="27" customFormat="1">
-      <c r="A43" s="129"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="112" t="s">
+      <c r="A43" s="127"/>
+      <c r="B43" s="111"/>
+      <c r="C43" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="111" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="112" t="s">
+      <c r="E43" s="111" t="s">
         <v>215</v>
       </c>
       <c r="F43" s="10">
@@ -9381,23 +9508,23 @@
       <c r="G43" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H43" s="112">
-        <v>1</v>
-      </c>
-      <c r="I43" s="112">
-        <v>1</v>
-      </c>
-      <c r="J43" s="112">
+      <c r="H43" s="111">
+        <v>1</v>
+      </c>
+      <c r="I43" s="111">
+        <v>1</v>
+      </c>
+      <c r="J43" s="111">
         <v>3</v>
       </c>
-      <c r="K43" s="112" t="s">
+      <c r="K43" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="110"/>
-      <c r="M43" s="112" t="s">
+      <c r="L43" s="114"/>
+      <c r="M43" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="N43" s="112"/>
+      <c r="N43" s="111"/>
       <c r="O43" s="51" t="s">
         <v>169</v>
       </c>
@@ -9415,24 +9542,24 @@
       </c>
     </row>
     <row r="44" spans="1:22" s="27" customFormat="1">
-      <c r="A44" s="129"/>
-      <c r="B44" s="114"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="114"/>
-      <c r="E44" s="114"/>
+      <c r="A44" s="127"/>
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="112"/>
+      <c r="E44" s="112"/>
       <c r="F44" s="10">
         <v>2</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H44" s="114"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="114"/>
-      <c r="K44" s="114"/>
-      <c r="L44" s="122"/>
-      <c r="M44" s="114"/>
-      <c r="N44" s="114"/>
+      <c r="H44" s="112"/>
+      <c r="I44" s="112"/>
+      <c r="J44" s="112"/>
+      <c r="K44" s="112"/>
+      <c r="L44" s="115"/>
+      <c r="M44" s="112"/>
+      <c r="N44" s="112"/>
       <c r="O44" s="52"/>
       <c r="P44" s="52"/>
       <c r="Q44" s="52"/>
@@ -9440,7 +9567,7 @@
       <c r="S44" s="52"/>
     </row>
     <row r="45" spans="1:22" s="27" customFormat="1">
-      <c r="A45" s="129"/>
+      <c r="A45" s="127"/>
       <c r="B45" s="113"/>
       <c r="C45" s="113"/>
       <c r="D45" s="113"/>
@@ -9455,7 +9582,7 @@
       <c r="I45" s="113"/>
       <c r="J45" s="113"/>
       <c r="K45" s="113"/>
-      <c r="L45" s="111"/>
+      <c r="L45" s="116"/>
       <c r="M45" s="113"/>
       <c r="N45" s="113"/>
       <c r="O45" s="53"/>
@@ -9465,7 +9592,7 @@
       <c r="S45" s="53"/>
     </row>
     <row r="46" spans="1:22" s="27" customFormat="1">
-      <c r="A46" s="129"/>
+      <c r="A46" s="127"/>
       <c r="B46" s="10" t="s">
         <v>51</v>
       </c>
@@ -9512,7 +9639,7 @@
       </c>
     </row>
     <row r="47" spans="1:22" s="27" customFormat="1" ht="18.75">
-      <c r="A47" s="129"/>
+      <c r="A47" s="127"/>
       <c r="B47" s="10" t="s">
         <v>51</v>
       </c>
@@ -9559,7 +9686,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" s="27" customFormat="1">
-      <c r="A48" s="129"/>
+      <c r="A48" s="127"/>
       <c r="B48" s="10" t="s">
         <v>51</v>
       </c>
@@ -9606,7 +9733,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" s="27" customFormat="1">
-      <c r="A49" s="129"/>
+      <c r="A49" s="127"/>
       <c r="B49" s="10" t="s">
         <v>51</v>
       </c>
@@ -9653,7 +9780,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" s="27" customFormat="1" ht="18.75">
-      <c r="A50" s="129"/>
+      <c r="A50" s="127"/>
       <c r="B50" s="10" t="s">
         <v>51</v>
       </c>
@@ -9700,7 +9827,7 @@
       </c>
     </row>
     <row r="51" spans="1:23">
-      <c r="A51" s="123" t="s">
+      <c r="A51" s="126" t="s">
         <v>77</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -9739,7 +9866,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" s="16" customFormat="1">
-      <c r="A52" s="129"/>
+      <c r="A52" s="127"/>
       <c r="B52" s="17" t="s">
         <v>51</v>
       </c>
@@ -9792,7 +9919,7 @@
       <c r="W52" s="27"/>
     </row>
     <row r="53" spans="1:23" s="16" customFormat="1">
-      <c r="A53" s="129"/>
+      <c r="A53" s="127"/>
       <c r="B53" s="17" t="s">
         <v>51</v>
       </c>
@@ -9847,7 +9974,7 @@
       <c r="W53" s="27"/>
     </row>
     <row r="54" spans="1:23" s="16" customFormat="1">
-      <c r="A54" s="129"/>
+      <c r="A54" s="127"/>
       <c r="B54" s="17" t="s">
         <v>51</v>
       </c>
@@ -9902,7 +10029,7 @@
       <c r="W54" s="27"/>
     </row>
     <row r="55" spans="1:23">
-      <c r="A55" s="129"/>
+      <c r="A55" s="127"/>
       <c r="B55" s="1" t="s">
         <v>61</v>
       </c>
@@ -9951,7 +10078,7 @@
       </c>
     </row>
     <row r="56" spans="1:23" s="14" customFormat="1">
-      <c r="A56" s="129"/>
+      <c r="A56" s="127"/>
       <c r="B56" s="10" t="s">
         <v>51</v>
       </c>
@@ -10006,7 +10133,7 @@
       <c r="W56" s="27"/>
     </row>
     <row r="57" spans="1:23" s="14" customFormat="1">
-      <c r="A57" s="129"/>
+      <c r="A57" s="127"/>
       <c r="B57" s="10" t="s">
         <v>51</v>
       </c>
@@ -10061,7 +10188,7 @@
       <c r="W57" s="27"/>
     </row>
     <row r="58" spans="1:23">
-      <c r="A58" s="129"/>
+      <c r="A58" s="127"/>
       <c r="B58" s="1" t="s">
         <v>61</v>
       </c>
@@ -10110,7 +10237,7 @@
       </c>
     </row>
     <row r="59" spans="1:23" s="23" customFormat="1">
-      <c r="A59" s="129"/>
+      <c r="A59" s="127"/>
       <c r="B59" s="10" t="s">
         <v>51</v>
       </c>
@@ -10165,7 +10292,7 @@
       <c r="W59" s="27"/>
     </row>
     <row r="60" spans="1:23" s="23" customFormat="1">
-      <c r="A60" s="129"/>
+      <c r="A60" s="127"/>
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -10220,7 +10347,7 @@
       <c r="W60" s="27"/>
     </row>
     <row r="61" spans="1:23" ht="18.75">
-      <c r="A61" s="129"/>
+      <c r="A61" s="127"/>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
@@ -10267,7 +10394,7 @@
       </c>
     </row>
     <row r="62" spans="1:23">
-      <c r="A62" s="129"/>
+      <c r="A62" s="127"/>
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
@@ -10314,7 +10441,7 @@
       </c>
     </row>
     <row r="63" spans="1:23">
-      <c r="A63" s="129"/>
+      <c r="A63" s="127"/>
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
@@ -10361,7 +10488,7 @@
       </c>
     </row>
     <row r="64" spans="1:23" ht="18.75">
-      <c r="A64" s="124"/>
+      <c r="A64" s="128"/>
       <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
@@ -10408,7 +10535,7 @@
       </c>
     </row>
     <row r="65" spans="1:23">
-      <c r="A65" s="123" t="s">
+      <c r="A65" s="126" t="s">
         <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -10447,7 +10574,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" s="19" customFormat="1">
-      <c r="A66" s="129"/>
+      <c r="A66" s="127"/>
       <c r="B66" s="20" t="s">
         <v>51</v>
       </c>
@@ -10487,7 +10614,7 @@
       <c r="T66" s="27"/>
     </row>
     <row r="67" spans="1:23">
-      <c r="A67" s="129"/>
+      <c r="A67" s="127"/>
       <c r="B67" s="1" t="s">
         <v>51</v>
       </c>
@@ -10536,7 +10663,7 @@
       </c>
     </row>
     <row r="68" spans="1:23">
-      <c r="A68" s="129"/>
+      <c r="A68" s="127"/>
       <c r="B68" s="1" t="s">
         <v>51</v>
       </c>
@@ -10585,7 +10712,7 @@
       </c>
     </row>
     <row r="69" spans="1:23">
-      <c r="A69" s="129"/>
+      <c r="A69" s="127"/>
       <c r="B69" s="1" t="s">
         <v>51</v>
       </c>
@@ -10634,7 +10761,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" s="16" customFormat="1">
-      <c r="A70" s="129"/>
+      <c r="A70" s="127"/>
       <c r="B70" s="10" t="s">
         <v>51</v>
       </c>
@@ -10687,7 +10814,7 @@
       <c r="W70" s="27"/>
     </row>
     <row r="71" spans="1:23" s="16" customFormat="1">
-      <c r="A71" s="129"/>
+      <c r="A71" s="127"/>
       <c r="B71" s="10" t="s">
         <v>51</v>
       </c>
@@ -10740,7 +10867,7 @@
       <c r="W71" s="27"/>
     </row>
     <row r="72" spans="1:23" s="19" customFormat="1">
-      <c r="A72" s="129"/>
+      <c r="A72" s="127"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
       </c>
@@ -10780,7 +10907,7 @@
       <c r="T72" s="27"/>
     </row>
     <row r="73" spans="1:23" s="19" customFormat="1">
-      <c r="A73" s="124"/>
+      <c r="A73" s="128"/>
       <c r="B73" s="20" t="s">
         <v>51</v>
       </c>
@@ -10820,40 +10947,40 @@
       <c r="T73" s="27"/>
     </row>
     <row r="74" spans="1:23">
-      <c r="A74" s="133" t="s">
+      <c r="A74" s="132" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="123" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="123"/>
-      <c r="D74" s="112" t="s">
+      <c r="B74" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="126"/>
+      <c r="D74" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="123"/>
+      <c r="E74" s="126"/>
       <c r="F74" s="1">
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H74" s="123">
-        <v>1</v>
-      </c>
-      <c r="I74" s="112">
-        <v>1</v>
-      </c>
-      <c r="J74" s="112">
+      <c r="H74" s="126">
+        <v>1</v>
+      </c>
+      <c r="I74" s="111">
+        <v>1</v>
+      </c>
+      <c r="J74" s="111">
         <v>4</v>
       </c>
-      <c r="K74" s="123" t="s">
+      <c r="K74" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="L74" s="123"/>
-      <c r="M74" s="112" t="s">
+      <c r="L74" s="126"/>
+      <c r="M74" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="123"/>
+      <c r="N74" s="126"/>
       <c r="O74" s="51" t="s">
         <v>169</v>
       </c>
@@ -10871,24 +10998,24 @@
       </c>
     </row>
     <row r="75" spans="1:23">
-      <c r="A75" s="129"/>
-      <c r="B75" s="129"/>
-      <c r="C75" s="129"/>
-      <c r="D75" s="114"/>
-      <c r="E75" s="129"/>
+      <c r="A75" s="127"/>
+      <c r="B75" s="127"/>
+      <c r="C75" s="127"/>
+      <c r="D75" s="112"/>
+      <c r="E75" s="127"/>
       <c r="F75" s="1">
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H75" s="129"/>
-      <c r="I75" s="114"/>
-      <c r="J75" s="114"/>
-      <c r="K75" s="129"/>
-      <c r="L75" s="129"/>
-      <c r="M75" s="114"/>
-      <c r="N75" s="129"/>
+      <c r="H75" s="127"/>
+      <c r="I75" s="112"/>
+      <c r="J75" s="112"/>
+      <c r="K75" s="127"/>
+      <c r="L75" s="127"/>
+      <c r="M75" s="112"/>
+      <c r="N75" s="127"/>
       <c r="O75" s="52"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="52"/>
@@ -10896,24 +11023,24 @@
       <c r="S75" s="52"/>
     </row>
     <row r="76" spans="1:23" s="4" customFormat="1">
-      <c r="A76" s="129"/>
-      <c r="B76" s="129"/>
-      <c r="C76" s="129"/>
-      <c r="D76" s="114"/>
-      <c r="E76" s="129"/>
+      <c r="A76" s="127"/>
+      <c r="B76" s="127"/>
+      <c r="C76" s="127"/>
+      <c r="D76" s="112"/>
+      <c r="E76" s="127"/>
       <c r="F76" s="3">
         <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H76" s="129"/>
-      <c r="I76" s="114"/>
-      <c r="J76" s="114"/>
-      <c r="K76" s="129"/>
-      <c r="L76" s="129"/>
-      <c r="M76" s="114"/>
-      <c r="N76" s="129"/>
+      <c r="H76" s="127"/>
+      <c r="I76" s="112"/>
+      <c r="J76" s="112"/>
+      <c r="K76" s="127"/>
+      <c r="L76" s="127"/>
+      <c r="M76" s="112"/>
+      <c r="N76" s="127"/>
       <c r="O76" s="52"/>
       <c r="P76" s="52"/>
       <c r="Q76" s="52"/>
@@ -10925,24 +11052,24 @@
       <c r="W76" s="27"/>
     </row>
     <row r="77" spans="1:23">
-      <c r="A77" s="129"/>
-      <c r="B77" s="124"/>
-      <c r="C77" s="124"/>
+      <c r="A77" s="127"/>
+      <c r="B77" s="128"/>
+      <c r="C77" s="128"/>
       <c r="D77" s="113"/>
-      <c r="E77" s="124"/>
+      <c r="E77" s="128"/>
       <c r="F77" s="10">
         <v>4</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H77" s="124"/>
+      <c r="H77" s="128"/>
       <c r="I77" s="113"/>
       <c r="J77" s="113"/>
-      <c r="K77" s="124"/>
-      <c r="L77" s="124"/>
+      <c r="K77" s="128"/>
+      <c r="L77" s="128"/>
       <c r="M77" s="113"/>
-      <c r="N77" s="124"/>
+      <c r="N77" s="128"/>
       <c r="O77" s="53"/>
       <c r="P77" s="53"/>
       <c r="Q77" s="53"/>
@@ -10950,15 +11077,15 @@
       <c r="S77" s="53"/>
     </row>
     <row r="78" spans="1:23">
-      <c r="A78" s="129"/>
-      <c r="B78" s="123"/>
-      <c r="C78" s="123" t="s">
+      <c r="A78" s="127"/>
+      <c r="B78" s="126"/>
+      <c r="C78" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="112" t="s">
+      <c r="D78" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="E78" s="112" t="s">
+      <c r="E78" s="111" t="s">
         <v>147</v>
       </c>
       <c r="F78" s="1">
@@ -10967,23 +11094,23 @@
       <c r="G78" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H78" s="123">
-        <v>1</v>
-      </c>
-      <c r="I78" s="112">
-        <v>1</v>
-      </c>
-      <c r="J78" s="112">
+      <c r="H78" s="126">
+        <v>1</v>
+      </c>
+      <c r="I78" s="111">
+        <v>1</v>
+      </c>
+      <c r="J78" s="111">
         <v>4</v>
       </c>
-      <c r="K78" s="123" t="s">
+      <c r="K78" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="L78" s="123"/>
-      <c r="M78" s="112" t="s">
+      <c r="L78" s="126"/>
+      <c r="M78" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="123"/>
+      <c r="N78" s="126"/>
       <c r="O78" s="51" t="s">
         <v>169</v>
       </c>
@@ -11001,24 +11128,24 @@
       </c>
     </row>
     <row r="79" spans="1:23">
-      <c r="A79" s="129"/>
-      <c r="B79" s="129"/>
-      <c r="C79" s="129"/>
-      <c r="D79" s="114"/>
-      <c r="E79" s="114"/>
+      <c r="A79" s="127"/>
+      <c r="B79" s="127"/>
+      <c r="C79" s="127"/>
+      <c r="D79" s="112"/>
+      <c r="E79" s="112"/>
       <c r="F79" s="1">
         <v>2</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H79" s="129"/>
-      <c r="I79" s="114"/>
-      <c r="J79" s="114"/>
-      <c r="K79" s="129"/>
-      <c r="L79" s="129"/>
-      <c r="M79" s="114"/>
-      <c r="N79" s="129"/>
+      <c r="H79" s="127"/>
+      <c r="I79" s="112"/>
+      <c r="J79" s="112"/>
+      <c r="K79" s="127"/>
+      <c r="L79" s="127"/>
+      <c r="M79" s="112"/>
+      <c r="N79" s="127"/>
       <c r="O79" s="52"/>
       <c r="P79" s="52"/>
       <c r="Q79" s="52"/>
@@ -11026,24 +11153,24 @@
       <c r="S79" s="52"/>
     </row>
     <row r="80" spans="1:23">
-      <c r="A80" s="129"/>
-      <c r="B80" s="129"/>
-      <c r="C80" s="129"/>
-      <c r="D80" s="114"/>
-      <c r="E80" s="114"/>
+      <c r="A80" s="127"/>
+      <c r="B80" s="127"/>
+      <c r="C80" s="127"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="112"/>
       <c r="F80" s="1">
         <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H80" s="129"/>
-      <c r="I80" s="114"/>
-      <c r="J80" s="114"/>
-      <c r="K80" s="129"/>
-      <c r="L80" s="129"/>
-      <c r="M80" s="114"/>
-      <c r="N80" s="129"/>
+      <c r="H80" s="127"/>
+      <c r="I80" s="112"/>
+      <c r="J80" s="112"/>
+      <c r="K80" s="127"/>
+      <c r="L80" s="127"/>
+      <c r="M80" s="112"/>
+      <c r="N80" s="127"/>
       <c r="O80" s="52"/>
       <c r="P80" s="52"/>
       <c r="Q80" s="52"/>
@@ -11051,9 +11178,9 @@
       <c r="S80" s="52"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="129"/>
-      <c r="B81" s="124"/>
-      <c r="C81" s="124"/>
+      <c r="A81" s="127"/>
+      <c r="B81" s="128"/>
+      <c r="C81" s="128"/>
       <c r="D81" s="113"/>
       <c r="E81" s="113"/>
       <c r="F81" s="1">
@@ -11062,13 +11189,13 @@
       <c r="G81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H81" s="124"/>
+      <c r="H81" s="128"/>
       <c r="I81" s="113"/>
       <c r="J81" s="113"/>
-      <c r="K81" s="124"/>
-      <c r="L81" s="124"/>
+      <c r="K81" s="128"/>
+      <c r="L81" s="128"/>
       <c r="M81" s="113"/>
-      <c r="N81" s="124"/>
+      <c r="N81" s="128"/>
       <c r="O81" s="53"/>
       <c r="P81" s="53"/>
       <c r="Q81" s="53"/>
@@ -11076,7 +11203,7 @@
       <c r="S81" s="53"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="129"/>
+      <c r="A82" s="127"/>
       <c r="B82" s="1" t="s">
         <v>61</v>
       </c>
@@ -11121,7 +11248,7 @@
       </c>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="129"/>
+      <c r="A83" s="127"/>
       <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
@@ -11166,7 +11293,7 @@
       </c>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="129"/>
+      <c r="A84" s="127"/>
       <c r="B84" s="1" t="s">
         <v>61</v>
       </c>
@@ -11211,7 +11338,7 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="18.75">
-      <c r="A85" s="129"/>
+      <c r="A85" s="127"/>
       <c r="B85" s="1" t="s">
         <v>61</v>
       </c>
@@ -11258,7 +11385,7 @@
       </c>
     </row>
     <row r="86" spans="1:19" ht="18.75">
-      <c r="A86" s="129"/>
+      <c r="A86" s="127"/>
       <c r="B86" s="1" t="s">
         <v>61</v>
       </c>
@@ -11305,7 +11432,7 @@
       </c>
     </row>
     <row r="87" spans="1:19" ht="18.75">
-      <c r="A87" s="129"/>
+      <c r="A87" s="127"/>
       <c r="B87" s="1" t="s">
         <v>61</v>
       </c>
@@ -11350,7 +11477,7 @@
       </c>
     </row>
     <row r="88" spans="1:19" ht="18.75">
-      <c r="A88" s="129"/>
+      <c r="A88" s="127"/>
       <c r="B88" s="1" t="s">
         <v>61</v>
       </c>
@@ -11395,7 +11522,7 @@
       </c>
     </row>
     <row r="89" spans="1:19" ht="18.75">
-      <c r="A89" s="129"/>
+      <c r="A89" s="127"/>
       <c r="B89" s="1" t="s">
         <v>61</v>
       </c>
@@ -11440,7 +11567,7 @@
       </c>
     </row>
     <row r="90" spans="1:19" ht="18.75">
-      <c r="A90" s="129"/>
+      <c r="A90" s="127"/>
       <c r="B90" s="1" t="s">
         <v>61</v>
       </c>
@@ -11485,7 +11612,7 @@
       </c>
     </row>
     <row r="91" spans="1:19" ht="18.75">
-      <c r="A91" s="129"/>
+      <c r="A91" s="127"/>
       <c r="B91" s="1" t="s">
         <v>61</v>
       </c>
@@ -11530,7 +11657,7 @@
       </c>
     </row>
     <row r="92" spans="1:19" ht="18.75">
-      <c r="A92" s="129"/>
+      <c r="A92" s="127"/>
       <c r="B92" s="1" t="s">
         <v>61</v>
       </c>
@@ -11575,38 +11702,38 @@
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="129"/>
-      <c r="B93" s="123" t="s">
+      <c r="A93" s="127"/>
+      <c r="B93" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C93" s="123"/>
-      <c r="D93" s="123" t="s">
+      <c r="C93" s="126"/>
+      <c r="D93" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="E93" s="123"/>
+      <c r="E93" s="126"/>
       <c r="F93" s="1">
         <v>1</v>
       </c>
       <c r="G93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H93" s="123">
-        <v>1</v>
-      </c>
-      <c r="I93" s="123">
-        <v>1</v>
-      </c>
-      <c r="J93" s="123">
+      <c r="H93" s="126">
+        <v>1</v>
+      </c>
+      <c r="I93" s="126">
+        <v>1</v>
+      </c>
+      <c r="J93" s="126">
         <v>2</v>
       </c>
-      <c r="K93" s="123" t="s">
+      <c r="K93" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="L93" s="123"/>
-      <c r="M93" s="123" t="s">
+      <c r="L93" s="126"/>
+      <c r="M93" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="N93" s="123"/>
+      <c r="N93" s="126"/>
       <c r="O93" s="56" t="s">
         <v>174</v>
       </c>
@@ -11616,24 +11743,24 @@
       <c r="S93" s="56"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="129"/>
-      <c r="B94" s="124"/>
-      <c r="C94" s="124"/>
-      <c r="D94" s="124"/>
-      <c r="E94" s="124"/>
+      <c r="A94" s="127"/>
+      <c r="B94" s="128"/>
+      <c r="C94" s="128"/>
+      <c r="D94" s="128"/>
+      <c r="E94" s="128"/>
       <c r="F94" s="1">
         <v>2</v>
       </c>
       <c r="G94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H94" s="124"/>
-      <c r="I94" s="124"/>
-      <c r="J94" s="124"/>
-      <c r="K94" s="124"/>
-      <c r="L94" s="124"/>
-      <c r="M94" s="124"/>
-      <c r="N94" s="124"/>
+      <c r="H94" s="128"/>
+      <c r="I94" s="128"/>
+      <c r="J94" s="128"/>
+      <c r="K94" s="128"/>
+      <c r="L94" s="128"/>
+      <c r="M94" s="128"/>
+      <c r="N94" s="128"/>
       <c r="O94" s="55"/>
       <c r="P94" s="55"/>
       <c r="Q94" s="55"/>
@@ -11641,38 +11768,38 @@
       <c r="S94" s="55"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="129"/>
-      <c r="B95" s="123" t="s">
+      <c r="A95" s="127"/>
+      <c r="B95" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="123"/>
-      <c r="D95" s="123" t="s">
+      <c r="C95" s="126"/>
+      <c r="D95" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="E95" s="123"/>
+      <c r="E95" s="126"/>
       <c r="F95" s="1">
         <v>1</v>
       </c>
       <c r="G95" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H95" s="123">
+      <c r="H95" s="126">
         <v>2</v>
       </c>
-      <c r="I95" s="123">
-        <v>1</v>
-      </c>
-      <c r="J95" s="123">
+      <c r="I95" s="126">
+        <v>1</v>
+      </c>
+      <c r="J95" s="126">
         <v>2</v>
       </c>
-      <c r="K95" s="123" t="s">
+      <c r="K95" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="L95" s="123"/>
-      <c r="M95" s="123" t="s">
+      <c r="L95" s="126"/>
+      <c r="M95" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="N95" s="123"/>
+      <c r="N95" s="126"/>
       <c r="O95" s="56" t="s">
         <v>174</v>
       </c>
@@ -11682,24 +11809,24 @@
       <c r="S95" s="56"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="129"/>
-      <c r="B96" s="124"/>
-      <c r="C96" s="124"/>
-      <c r="D96" s="124"/>
-      <c r="E96" s="124"/>
+      <c r="A96" s="127"/>
+      <c r="B96" s="128"/>
+      <c r="C96" s="128"/>
+      <c r="D96" s="128"/>
+      <c r="E96" s="128"/>
       <c r="F96" s="1">
         <v>2</v>
       </c>
       <c r="G96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H96" s="124"/>
-      <c r="I96" s="124"/>
-      <c r="J96" s="124"/>
-      <c r="K96" s="124"/>
-      <c r="L96" s="124"/>
-      <c r="M96" s="124"/>
-      <c r="N96" s="124"/>
+      <c r="H96" s="128"/>
+      <c r="I96" s="128"/>
+      <c r="J96" s="128"/>
+      <c r="K96" s="128"/>
+      <c r="L96" s="128"/>
+      <c r="M96" s="128"/>
+      <c r="N96" s="128"/>
       <c r="O96" s="55"/>
       <c r="P96" s="55"/>
       <c r="Q96" s="55"/>
@@ -11707,7 +11834,7 @@
       <c r="S96" s="55"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="124"/>
+      <c r="A97" s="128"/>
       <c r="B97" s="1" t="s">
         <v>61</v>
       </c>
@@ -11756,40 +11883,40 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="17.649999999999999" customHeight="1">
-      <c r="A98" s="133" t="s">
+      <c r="A98" s="132" t="s">
         <v>134</v>
       </c>
-      <c r="B98" s="123" t="s">
+      <c r="B98" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C98" s="123"/>
-      <c r="D98" s="123" t="s">
+      <c r="C98" s="126"/>
+      <c r="D98" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="E98" s="123"/>
+      <c r="E98" s="126"/>
       <c r="F98" s="1">
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H98" s="123">
-        <v>1</v>
-      </c>
-      <c r="I98" s="123">
-        <v>1</v>
-      </c>
-      <c r="J98" s="123">
+      <c r="H98" s="126">
+        <v>1</v>
+      </c>
+      <c r="I98" s="126">
+        <v>1</v>
+      </c>
+      <c r="J98" s="126">
         <v>3</v>
       </c>
-      <c r="K98" s="123" t="s">
+      <c r="K98" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="L98" s="123"/>
-      <c r="M98" s="123" t="s">
+      <c r="L98" s="126"/>
+      <c r="M98" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="N98" s="123"/>
+      <c r="N98" s="126"/>
       <c r="O98" s="51" t="s">
         <v>168</v>
       </c>
@@ -11807,24 +11934,24 @@
       </c>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="134"/>
-      <c r="B99" s="129"/>
-      <c r="C99" s="129"/>
-      <c r="D99" s="129"/>
-      <c r="E99" s="129"/>
+      <c r="A99" s="133"/>
+      <c r="B99" s="127"/>
+      <c r="C99" s="127"/>
+      <c r="D99" s="127"/>
+      <c r="E99" s="127"/>
       <c r="F99" s="1">
         <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H99" s="129"/>
-      <c r="I99" s="129"/>
-      <c r="J99" s="129"/>
-      <c r="K99" s="129"/>
-      <c r="L99" s="129"/>
-      <c r="M99" s="129"/>
-      <c r="N99" s="129"/>
+      <c r="H99" s="127"/>
+      <c r="I99" s="127"/>
+      <c r="J99" s="127"/>
+      <c r="K99" s="127"/>
+      <c r="L99" s="127"/>
+      <c r="M99" s="127"/>
+      <c r="N99" s="127"/>
       <c r="O99" s="52"/>
       <c r="P99" s="52"/>
       <c r="Q99" s="52"/>
@@ -11832,24 +11959,24 @@
       <c r="S99" s="52"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="134"/>
-      <c r="B100" s="124"/>
-      <c r="C100" s="124"/>
-      <c r="D100" s="124"/>
-      <c r="E100" s="124"/>
+      <c r="A100" s="133"/>
+      <c r="B100" s="128"/>
+      <c r="C100" s="128"/>
+      <c r="D100" s="128"/>
+      <c r="E100" s="128"/>
       <c r="F100" s="1">
         <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H100" s="124"/>
-      <c r="I100" s="124"/>
-      <c r="J100" s="124"/>
-      <c r="K100" s="124"/>
-      <c r="L100" s="124"/>
-      <c r="M100" s="124"/>
-      <c r="N100" s="124"/>
+      <c r="H100" s="128"/>
+      <c r="I100" s="128"/>
+      <c r="J100" s="128"/>
+      <c r="K100" s="128"/>
+      <c r="L100" s="128"/>
+      <c r="M100" s="128"/>
+      <c r="N100" s="128"/>
       <c r="O100" s="53"/>
       <c r="P100" s="53"/>
       <c r="Q100" s="53"/>
@@ -11857,15 +11984,15 @@
       <c r="S100" s="53"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="134"/>
-      <c r="B101" s="123"/>
-      <c r="C101" s="123" t="s">
+      <c r="A101" s="133"/>
+      <c r="B101" s="126"/>
+      <c r="C101" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="123" t="s">
+      <c r="D101" s="126" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="123" t="s">
+      <c r="E101" s="126" t="s">
         <v>119</v>
       </c>
       <c r="F101" s="1">
@@ -11874,21 +12001,21 @@
       <c r="G101" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H101" s="123"/>
-      <c r="I101" s="123">
-        <v>1</v>
-      </c>
-      <c r="J101" s="123">
+      <c r="H101" s="126"/>
+      <c r="I101" s="126">
+        <v>1</v>
+      </c>
+      <c r="J101" s="126">
         <v>4</v>
       </c>
-      <c r="K101" s="123" t="s">
+      <c r="K101" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="L101" s="123"/>
-      <c r="M101" s="123" t="s">
+      <c r="L101" s="126"/>
+      <c r="M101" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="N101" s="123"/>
+      <c r="N101" s="126"/>
       <c r="O101" s="51" t="s">
         <v>168</v>
       </c>
@@ -11906,24 +12033,24 @@
       </c>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="134"/>
-      <c r="B102" s="129"/>
-      <c r="C102" s="129"/>
-      <c r="D102" s="129"/>
-      <c r="E102" s="129"/>
+      <c r="A102" s="133"/>
+      <c r="B102" s="127"/>
+      <c r="C102" s="127"/>
+      <c r="D102" s="127"/>
+      <c r="E102" s="127"/>
       <c r="F102" s="1">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H102" s="129"/>
-      <c r="I102" s="129"/>
-      <c r="J102" s="129"/>
-      <c r="K102" s="129"/>
-      <c r="L102" s="129"/>
-      <c r="M102" s="129"/>
-      <c r="N102" s="129"/>
+      <c r="H102" s="127"/>
+      <c r="I102" s="127"/>
+      <c r="J102" s="127"/>
+      <c r="K102" s="127"/>
+      <c r="L102" s="127"/>
+      <c r="M102" s="127"/>
+      <c r="N102" s="127"/>
       <c r="O102" s="52"/>
       <c r="P102" s="52"/>
       <c r="Q102" s="52"/>
@@ -11931,24 +12058,24 @@
       <c r="S102" s="52"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="134"/>
-      <c r="B103" s="129"/>
-      <c r="C103" s="129"/>
-      <c r="D103" s="129"/>
-      <c r="E103" s="129"/>
+      <c r="A103" s="133"/>
+      <c r="B103" s="127"/>
+      <c r="C103" s="127"/>
+      <c r="D103" s="127"/>
+      <c r="E103" s="127"/>
       <c r="F103" s="1">
         <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H103" s="129"/>
-      <c r="I103" s="129"/>
-      <c r="J103" s="129"/>
-      <c r="K103" s="129"/>
-      <c r="L103" s="129"/>
-      <c r="M103" s="129"/>
-      <c r="N103" s="129"/>
+      <c r="H103" s="127"/>
+      <c r="I103" s="127"/>
+      <c r="J103" s="127"/>
+      <c r="K103" s="127"/>
+      <c r="L103" s="127"/>
+      <c r="M103" s="127"/>
+      <c r="N103" s="127"/>
       <c r="O103" s="52"/>
       <c r="P103" s="52"/>
       <c r="Q103" s="52"/>
@@ -11956,24 +12083,24 @@
       <c r="S103" s="52"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="134"/>
-      <c r="B104" s="124"/>
-      <c r="C104" s="124"/>
-      <c r="D104" s="124"/>
-      <c r="E104" s="124"/>
+      <c r="A104" s="133"/>
+      <c r="B104" s="128"/>
+      <c r="C104" s="128"/>
+      <c r="D104" s="128"/>
+      <c r="E104" s="128"/>
       <c r="F104" s="1">
         <v>4</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H104" s="124"/>
-      <c r="I104" s="124"/>
-      <c r="J104" s="124"/>
-      <c r="K104" s="124"/>
-      <c r="L104" s="124"/>
-      <c r="M104" s="124"/>
-      <c r="N104" s="124"/>
+      <c r="H104" s="128"/>
+      <c r="I104" s="128"/>
+      <c r="J104" s="128"/>
+      <c r="K104" s="128"/>
+      <c r="L104" s="128"/>
+      <c r="M104" s="128"/>
+      <c r="N104" s="128"/>
       <c r="O104" s="53"/>
       <c r="P104" s="53"/>
       <c r="Q104" s="53"/>
@@ -11981,38 +12108,38 @@
       <c r="S104" s="53"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="134"/>
-      <c r="B105" s="123" t="s">
+      <c r="A105" s="133"/>
+      <c r="B105" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="123"/>
-      <c r="D105" s="123" t="s">
+      <c r="C105" s="126"/>
+      <c r="D105" s="126" t="s">
         <v>120</v>
       </c>
-      <c r="E105" s="123"/>
+      <c r="E105" s="126"/>
       <c r="F105" s="1">
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H105" s="123">
+      <c r="H105" s="126">
         <v>3</v>
       </c>
-      <c r="I105" s="123">
-        <v>1</v>
-      </c>
-      <c r="J105" s="123">
+      <c r="I105" s="126">
+        <v>1</v>
+      </c>
+      <c r="J105" s="126">
         <v>3</v>
       </c>
-      <c r="K105" s="123" t="s">
+      <c r="K105" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="L105" s="123"/>
-      <c r="M105" s="123" t="s">
+      <c r="L105" s="126"/>
+      <c r="M105" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="N105" s="123"/>
+      <c r="N105" s="126"/>
       <c r="O105" s="51" t="s">
         <v>168</v>
       </c>
@@ -12030,24 +12157,24 @@
       </c>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="134"/>
-      <c r="B106" s="129"/>
-      <c r="C106" s="129"/>
-      <c r="D106" s="129"/>
-      <c r="E106" s="129"/>
+      <c r="A106" s="133"/>
+      <c r="B106" s="127"/>
+      <c r="C106" s="127"/>
+      <c r="D106" s="127"/>
+      <c r="E106" s="127"/>
       <c r="F106" s="1">
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H106" s="129"/>
-      <c r="I106" s="129"/>
-      <c r="J106" s="129"/>
-      <c r="K106" s="129"/>
-      <c r="L106" s="129"/>
-      <c r="M106" s="129"/>
-      <c r="N106" s="129"/>
+      <c r="H106" s="127"/>
+      <c r="I106" s="127"/>
+      <c r="J106" s="127"/>
+      <c r="K106" s="127"/>
+      <c r="L106" s="127"/>
+      <c r="M106" s="127"/>
+      <c r="N106" s="127"/>
       <c r="O106" s="52"/>
       <c r="P106" s="52"/>
       <c r="Q106" s="52"/>
@@ -12055,24 +12182,24 @@
       <c r="S106" s="52"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="134"/>
-      <c r="B107" s="124"/>
-      <c r="C107" s="124"/>
-      <c r="D107" s="124"/>
-      <c r="E107" s="124"/>
+      <c r="A107" s="133"/>
+      <c r="B107" s="128"/>
+      <c r="C107" s="128"/>
+      <c r="D107" s="128"/>
+      <c r="E107" s="128"/>
       <c r="F107" s="1">
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H107" s="124"/>
-      <c r="I107" s="124"/>
-      <c r="J107" s="124"/>
-      <c r="K107" s="124"/>
-      <c r="L107" s="124"/>
-      <c r="M107" s="124"/>
-      <c r="N107" s="124"/>
+      <c r="H107" s="128"/>
+      <c r="I107" s="128"/>
+      <c r="J107" s="128"/>
+      <c r="K107" s="128"/>
+      <c r="L107" s="128"/>
+      <c r="M107" s="128"/>
+      <c r="N107" s="128"/>
       <c r="O107" s="53"/>
       <c r="P107" s="53"/>
       <c r="Q107" s="53"/>
@@ -12080,15 +12207,15 @@
       <c r="S107" s="53"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="134"/>
-      <c r="B108" s="123"/>
-      <c r="C108" s="123" t="s">
+      <c r="A108" s="133"/>
+      <c r="B108" s="126"/>
+      <c r="C108" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="D108" s="123" t="s">
+      <c r="D108" s="126" t="s">
         <v>121</v>
       </c>
-      <c r="E108" s="123" t="s">
+      <c r="E108" s="126" t="s">
         <v>122</v>
       </c>
       <c r="F108" s="1">
@@ -12097,21 +12224,21 @@
       <c r="G108" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H108" s="123"/>
-      <c r="I108" s="123">
-        <v>1</v>
-      </c>
-      <c r="J108" s="123">
+      <c r="H108" s="126"/>
+      <c r="I108" s="126">
+        <v>1</v>
+      </c>
+      <c r="J108" s="126">
         <v>4</v>
       </c>
-      <c r="K108" s="123" t="s">
+      <c r="K108" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="L108" s="123"/>
-      <c r="M108" s="123" t="s">
+      <c r="L108" s="126"/>
+      <c r="M108" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="N108" s="123"/>
+      <c r="N108" s="126"/>
       <c r="O108" s="51" t="s">
         <v>168</v>
       </c>
@@ -12129,24 +12256,24 @@
       </c>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="134"/>
-      <c r="B109" s="129"/>
-      <c r="C109" s="129"/>
-      <c r="D109" s="129"/>
-      <c r="E109" s="129"/>
+      <c r="A109" s="133"/>
+      <c r="B109" s="127"/>
+      <c r="C109" s="127"/>
+      <c r="D109" s="127"/>
+      <c r="E109" s="127"/>
       <c r="F109" s="1">
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H109" s="129"/>
-      <c r="I109" s="129"/>
-      <c r="J109" s="129"/>
-      <c r="K109" s="129"/>
-      <c r="L109" s="129"/>
-      <c r="M109" s="129"/>
-      <c r="N109" s="129"/>
+      <c r="H109" s="127"/>
+      <c r="I109" s="127"/>
+      <c r="J109" s="127"/>
+      <c r="K109" s="127"/>
+      <c r="L109" s="127"/>
+      <c r="M109" s="127"/>
+      <c r="N109" s="127"/>
       <c r="O109" s="52"/>
       <c r="P109" s="52"/>
       <c r="Q109" s="52"/>
@@ -12154,24 +12281,24 @@
       <c r="S109" s="52"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="134"/>
-      <c r="B110" s="129"/>
-      <c r="C110" s="129"/>
-      <c r="D110" s="129"/>
-      <c r="E110" s="129"/>
+      <c r="A110" s="133"/>
+      <c r="B110" s="127"/>
+      <c r="C110" s="127"/>
+      <c r="D110" s="127"/>
+      <c r="E110" s="127"/>
       <c r="F110" s="1">
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H110" s="129"/>
-      <c r="I110" s="129"/>
-      <c r="J110" s="129"/>
-      <c r="K110" s="129"/>
-      <c r="L110" s="129"/>
-      <c r="M110" s="129"/>
-      <c r="N110" s="129"/>
+      <c r="H110" s="127"/>
+      <c r="I110" s="127"/>
+      <c r="J110" s="127"/>
+      <c r="K110" s="127"/>
+      <c r="L110" s="127"/>
+      <c r="M110" s="127"/>
+      <c r="N110" s="127"/>
       <c r="O110" s="52"/>
       <c r="P110" s="52"/>
       <c r="Q110" s="52"/>
@@ -12179,24 +12306,24 @@
       <c r="S110" s="52"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="134"/>
-      <c r="B111" s="124"/>
-      <c r="C111" s="124"/>
-      <c r="D111" s="124"/>
-      <c r="E111" s="124"/>
+      <c r="A111" s="133"/>
+      <c r="B111" s="128"/>
+      <c r="C111" s="128"/>
+      <c r="D111" s="128"/>
+      <c r="E111" s="128"/>
       <c r="F111" s="1">
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H111" s="124"/>
-      <c r="I111" s="124"/>
-      <c r="J111" s="124"/>
-      <c r="K111" s="124"/>
-      <c r="L111" s="124"/>
-      <c r="M111" s="124"/>
-      <c r="N111" s="124"/>
+      <c r="H111" s="128"/>
+      <c r="I111" s="128"/>
+      <c r="J111" s="128"/>
+      <c r="K111" s="128"/>
+      <c r="L111" s="128"/>
+      <c r="M111" s="128"/>
+      <c r="N111" s="128"/>
       <c r="O111" s="53"/>
       <c r="P111" s="53"/>
       <c r="Q111" s="53"/>
@@ -12204,7 +12331,7 @@
       <c r="S111" s="53"/>
     </row>
     <row r="112" spans="1:19" ht="18.75">
-      <c r="A112" s="134"/>
+      <c r="A112" s="133"/>
       <c r="B112" s="1" t="s">
         <v>61</v>
       </c>
@@ -12249,7 +12376,7 @@
       </c>
     </row>
     <row r="113" spans="1:23" ht="18.75">
-      <c r="A113" s="134"/>
+      <c r="A113" s="133"/>
       <c r="B113" s="1" t="s">
         <v>61</v>
       </c>
@@ -12294,7 +12421,7 @@
       </c>
     </row>
     <row r="114" spans="1:23" ht="18.75">
-      <c r="A114" s="135"/>
+      <c r="A114" s="134"/>
       <c r="B114" s="1" t="s">
         <v>61</v>
       </c>
@@ -12339,40 +12466,40 @@
       </c>
     </row>
     <row r="115" spans="1:23">
-      <c r="A115" s="133" t="s">
+      <c r="A115" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="123" t="s">
-        <v>51</v>
-      </c>
-      <c r="C115" s="123"/>
-      <c r="D115" s="112" t="s">
+      <c r="B115" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="126"/>
+      <c r="D115" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="E115" s="123"/>
+      <c r="E115" s="126"/>
       <c r="F115" s="1">
         <v>1</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H115" s="123">
-        <v>1</v>
-      </c>
-      <c r="I115" s="112">
-        <v>1</v>
-      </c>
-      <c r="J115" s="112">
+      <c r="H115" s="126">
+        <v>1</v>
+      </c>
+      <c r="I115" s="111">
+        <v>1</v>
+      </c>
+      <c r="J115" s="111">
         <v>4</v>
       </c>
-      <c r="K115" s="123" t="s">
+      <c r="K115" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="L115" s="123"/>
-      <c r="M115" s="112" t="s">
+      <c r="L115" s="126"/>
+      <c r="M115" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="N115" s="123"/>
+      <c r="N115" s="126"/>
       <c r="O115" s="51" t="s">
         <v>169</v>
       </c>
@@ -12390,24 +12517,24 @@
       </c>
     </row>
     <row r="116" spans="1:23">
-      <c r="A116" s="129"/>
-      <c r="B116" s="129"/>
-      <c r="C116" s="129"/>
-      <c r="D116" s="114"/>
-      <c r="E116" s="129"/>
+      <c r="A116" s="127"/>
+      <c r="B116" s="127"/>
+      <c r="C116" s="127"/>
+      <c r="D116" s="112"/>
+      <c r="E116" s="127"/>
       <c r="F116" s="1">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H116" s="129"/>
-      <c r="I116" s="114"/>
-      <c r="J116" s="114"/>
-      <c r="K116" s="129"/>
-      <c r="L116" s="129"/>
-      <c r="M116" s="114"/>
-      <c r="N116" s="129"/>
+      <c r="H116" s="127"/>
+      <c r="I116" s="112"/>
+      <c r="J116" s="112"/>
+      <c r="K116" s="127"/>
+      <c r="L116" s="127"/>
+      <c r="M116" s="112"/>
+      <c r="N116" s="127"/>
       <c r="O116" s="52"/>
       <c r="P116" s="52"/>
       <c r="Q116" s="52"/>
@@ -12415,24 +12542,24 @@
       <c r="S116" s="52"/>
     </row>
     <row r="117" spans="1:23" s="7" customFormat="1">
-      <c r="A117" s="129"/>
-      <c r="B117" s="129"/>
-      <c r="C117" s="129"/>
-      <c r="D117" s="114"/>
-      <c r="E117" s="129"/>
+      <c r="A117" s="127"/>
+      <c r="B117" s="127"/>
+      <c r="C117" s="127"/>
+      <c r="D117" s="112"/>
+      <c r="E117" s="127"/>
       <c r="F117" s="6">
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H117" s="129"/>
-      <c r="I117" s="114"/>
-      <c r="J117" s="114"/>
-      <c r="K117" s="129"/>
-      <c r="L117" s="129"/>
-      <c r="M117" s="114"/>
-      <c r="N117" s="129"/>
+      <c r="H117" s="127"/>
+      <c r="I117" s="112"/>
+      <c r="J117" s="112"/>
+      <c r="K117" s="127"/>
+      <c r="L117" s="127"/>
+      <c r="M117" s="112"/>
+      <c r="N117" s="127"/>
       <c r="O117" s="52"/>
       <c r="P117" s="52"/>
       <c r="Q117" s="52"/>
@@ -12444,24 +12571,24 @@
       <c r="W117" s="27"/>
     </row>
     <row r="118" spans="1:23">
-      <c r="A118" s="129"/>
-      <c r="B118" s="124"/>
-      <c r="C118" s="124"/>
+      <c r="A118" s="127"/>
+      <c r="B118" s="128"/>
+      <c r="C118" s="128"/>
       <c r="D118" s="113"/>
-      <c r="E118" s="124"/>
+      <c r="E118" s="128"/>
       <c r="F118" s="10">
         <v>4</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H118" s="124"/>
+      <c r="H118" s="128"/>
       <c r="I118" s="113"/>
       <c r="J118" s="113"/>
-      <c r="K118" s="124"/>
-      <c r="L118" s="124"/>
+      <c r="K118" s="128"/>
+      <c r="L118" s="128"/>
       <c r="M118" s="113"/>
-      <c r="N118" s="124"/>
+      <c r="N118" s="128"/>
       <c r="O118" s="53"/>
       <c r="P118" s="53"/>
       <c r="Q118" s="53"/>
@@ -12469,15 +12596,15 @@
       <c r="S118" s="53"/>
     </row>
     <row r="119" spans="1:23">
-      <c r="A119" s="129"/>
-      <c r="B119" s="123"/>
-      <c r="C119" s="123" t="s">
+      <c r="A119" s="127"/>
+      <c r="B119" s="126"/>
+      <c r="C119" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="D119" s="112" t="s">
+      <c r="D119" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="E119" s="112" t="s">
+      <c r="E119" s="111" t="s">
         <v>147</v>
       </c>
       <c r="F119" s="1">
@@ -12486,23 +12613,23 @@
       <c r="G119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H119" s="123">
-        <v>1</v>
-      </c>
-      <c r="I119" s="112">
-        <v>1</v>
-      </c>
-      <c r="J119" s="112">
+      <c r="H119" s="126">
+        <v>1</v>
+      </c>
+      <c r="I119" s="111">
+        <v>1</v>
+      </c>
+      <c r="J119" s="111">
         <v>4</v>
       </c>
-      <c r="K119" s="123" t="s">
+      <c r="K119" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="L119" s="123"/>
-      <c r="M119" s="112" t="s">
+      <c r="L119" s="126"/>
+      <c r="M119" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="N119" s="123"/>
+      <c r="N119" s="126"/>
       <c r="O119" s="51" t="s">
         <v>169</v>
       </c>
@@ -12520,24 +12647,24 @@
       </c>
     </row>
     <row r="120" spans="1:23">
-      <c r="A120" s="129"/>
-      <c r="B120" s="129"/>
-      <c r="C120" s="129"/>
-      <c r="D120" s="114"/>
-      <c r="E120" s="114"/>
+      <c r="A120" s="127"/>
+      <c r="B120" s="127"/>
+      <c r="C120" s="127"/>
+      <c r="D120" s="112"/>
+      <c r="E120" s="112"/>
       <c r="F120" s="1">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H120" s="129"/>
-      <c r="I120" s="114"/>
-      <c r="J120" s="114"/>
-      <c r="K120" s="129"/>
-      <c r="L120" s="129"/>
-      <c r="M120" s="114"/>
-      <c r="N120" s="129"/>
+      <c r="H120" s="127"/>
+      <c r="I120" s="112"/>
+      <c r="J120" s="112"/>
+      <c r="K120" s="127"/>
+      <c r="L120" s="127"/>
+      <c r="M120" s="112"/>
+      <c r="N120" s="127"/>
       <c r="O120" s="52"/>
       <c r="P120" s="52"/>
       <c r="Q120" s="52"/>
@@ -12545,24 +12672,24 @@
       <c r="S120" s="52"/>
     </row>
     <row r="121" spans="1:23">
-      <c r="A121" s="129"/>
-      <c r="B121" s="129"/>
-      <c r="C121" s="129"/>
-      <c r="D121" s="114"/>
-      <c r="E121" s="114"/>
+      <c r="A121" s="127"/>
+      <c r="B121" s="127"/>
+      <c r="C121" s="127"/>
+      <c r="D121" s="112"/>
+      <c r="E121" s="112"/>
       <c r="F121" s="1">
         <v>3</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H121" s="129"/>
-      <c r="I121" s="114"/>
-      <c r="J121" s="114"/>
-      <c r="K121" s="129"/>
-      <c r="L121" s="129"/>
-      <c r="M121" s="114"/>
-      <c r="N121" s="129"/>
+      <c r="H121" s="127"/>
+      <c r="I121" s="112"/>
+      <c r="J121" s="112"/>
+      <c r="K121" s="127"/>
+      <c r="L121" s="127"/>
+      <c r="M121" s="112"/>
+      <c r="N121" s="127"/>
       <c r="O121" s="52"/>
       <c r="P121" s="52"/>
       <c r="Q121" s="52"/>
@@ -12570,9 +12697,9 @@
       <c r="S121" s="52"/>
     </row>
     <row r="122" spans="1:23">
-      <c r="A122" s="129"/>
-      <c r="B122" s="124"/>
-      <c r="C122" s="124"/>
+      <c r="A122" s="127"/>
+      <c r="B122" s="128"/>
+      <c r="C122" s="128"/>
       <c r="D122" s="113"/>
       <c r="E122" s="113"/>
       <c r="F122" s="1">
@@ -12581,13 +12708,13 @@
       <c r="G122" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H122" s="124"/>
+      <c r="H122" s="128"/>
       <c r="I122" s="113"/>
       <c r="J122" s="113"/>
-      <c r="K122" s="124"/>
-      <c r="L122" s="124"/>
+      <c r="K122" s="128"/>
+      <c r="L122" s="128"/>
       <c r="M122" s="113"/>
-      <c r="N122" s="124"/>
+      <c r="N122" s="128"/>
       <c r="O122" s="53"/>
       <c r="P122" s="53"/>
       <c r="Q122" s="53"/>
@@ -12595,38 +12722,38 @@
       <c r="S122" s="53"/>
     </row>
     <row r="123" spans="1:23">
-      <c r="A123" s="129"/>
-      <c r="B123" s="123" t="s">
+      <c r="A123" s="127"/>
+      <c r="B123" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C123" s="123"/>
-      <c r="D123" s="123" t="s">
+      <c r="C123" s="126"/>
+      <c r="D123" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="E123" s="123"/>
+      <c r="E123" s="126"/>
       <c r="F123" s="1">
         <v>1</v>
       </c>
       <c r="G123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H123" s="123">
-        <v>1</v>
-      </c>
-      <c r="I123" s="123">
-        <v>1</v>
-      </c>
-      <c r="J123" s="123">
+      <c r="H123" s="126">
+        <v>1</v>
+      </c>
+      <c r="I123" s="126">
+        <v>1</v>
+      </c>
+      <c r="J123" s="126">
         <v>2</v>
       </c>
-      <c r="K123" s="123" t="s">
+      <c r="K123" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="L123" s="123"/>
-      <c r="M123" s="123" t="s">
+      <c r="L123" s="126"/>
+      <c r="M123" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="N123" s="123"/>
+      <c r="N123" s="126"/>
       <c r="O123" s="51" t="s">
         <v>51</v>
       </c>
@@ -12644,24 +12771,24 @@
       </c>
     </row>
     <row r="124" spans="1:23">
-      <c r="A124" s="129"/>
-      <c r="B124" s="124"/>
-      <c r="C124" s="124"/>
-      <c r="D124" s="124"/>
-      <c r="E124" s="124"/>
+      <c r="A124" s="127"/>
+      <c r="B124" s="128"/>
+      <c r="C124" s="128"/>
+      <c r="D124" s="128"/>
+      <c r="E124" s="128"/>
       <c r="F124" s="1">
         <v>2</v>
       </c>
       <c r="G124" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H124" s="124"/>
-      <c r="I124" s="124"/>
-      <c r="J124" s="124"/>
-      <c r="K124" s="124"/>
-      <c r="L124" s="124"/>
-      <c r="M124" s="124"/>
-      <c r="N124" s="124"/>
+      <c r="H124" s="128"/>
+      <c r="I124" s="128"/>
+      <c r="J124" s="128"/>
+      <c r="K124" s="128"/>
+      <c r="L124" s="128"/>
+      <c r="M124" s="128"/>
+      <c r="N124" s="128"/>
       <c r="O124" s="53"/>
       <c r="P124" s="53"/>
       <c r="Q124" s="53"/>
@@ -12669,7 +12796,7 @@
       <c r="S124" s="53"/>
     </row>
     <row r="125" spans="1:23" s="11" customFormat="1">
-      <c r="A125" s="129"/>
+      <c r="A125" s="127"/>
       <c r="B125" s="120" t="s">
         <v>51</v>
       </c>
@@ -12684,20 +12811,20 @@
       <c r="G125" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H125" s="112">
-        <v>1</v>
-      </c>
-      <c r="I125" s="112">
-        <v>1</v>
-      </c>
-      <c r="J125" s="112">
+      <c r="H125" s="111">
+        <v>1</v>
+      </c>
+      <c r="I125" s="111">
+        <v>1</v>
+      </c>
+      <c r="J125" s="111">
         <v>2</v>
       </c>
-      <c r="K125" s="112" t="s">
+      <c r="K125" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="L125" s="123"/>
-      <c r="M125" s="123" t="s">
+      <c r="L125" s="126"/>
+      <c r="M125" s="126" t="s">
         <v>38</v>
       </c>
       <c r="N125" s="12"/>
@@ -12722,8 +12849,8 @@
       <c r="W125" s="27"/>
     </row>
     <row r="126" spans="1:23" s="11" customFormat="1">
-      <c r="A126" s="129"/>
-      <c r="B126" s="128"/>
+      <c r="A126" s="127"/>
+      <c r="B126" s="122"/>
       <c r="C126" s="12"/>
       <c r="D126" s="119"/>
       <c r="E126" s="12"/>
@@ -12737,8 +12864,8 @@
       <c r="I126" s="113"/>
       <c r="J126" s="113"/>
       <c r="K126" s="113"/>
-      <c r="L126" s="124"/>
-      <c r="M126" s="124"/>
+      <c r="L126" s="128"/>
+      <c r="M126" s="128"/>
       <c r="N126" s="12"/>
       <c r="O126" s="53"/>
       <c r="P126" s="53"/>
@@ -12751,15 +12878,15 @@
       <c r="W126" s="27"/>
     </row>
     <row r="127" spans="1:23">
-      <c r="A127" s="129"/>
-      <c r="B127" s="123" t="s">
+      <c r="A127" s="127"/>
+      <c r="B127" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C127" s="123"/>
-      <c r="D127" s="131" t="s">
+      <c r="C127" s="126"/>
+      <c r="D127" s="136" t="s">
         <v>186</v>
       </c>
-      <c r="E127" s="130" t="s">
+      <c r="E127" s="135" t="s">
         <v>145</v>
       </c>
       <c r="F127" s="1">
@@ -12768,20 +12895,20 @@
       <c r="G127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="123">
+      <c r="H127" s="126">
         <v>2</v>
       </c>
-      <c r="I127" s="123">
-        <v>1</v>
-      </c>
-      <c r="J127" s="112">
+      <c r="I127" s="126">
+        <v>1</v>
+      </c>
+      <c r="J127" s="111">
         <v>15</v>
       </c>
-      <c r="K127" s="123" t="s">
+      <c r="K127" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="L127" s="123"/>
-      <c r="M127" s="123" t="s">
+      <c r="L127" s="126"/>
+      <c r="M127" s="126" t="s">
         <v>74</v>
       </c>
       <c r="N127" s="8" t="s">
@@ -12804,23 +12931,23 @@
       </c>
     </row>
     <row r="128" spans="1:23">
-      <c r="A128" s="129"/>
-      <c r="B128" s="129"/>
-      <c r="C128" s="129"/>
-      <c r="D128" s="131"/>
-      <c r="E128" s="130"/>
+      <c r="A128" s="127"/>
+      <c r="B128" s="127"/>
+      <c r="C128" s="127"/>
+      <c r="D128" s="136"/>
+      <c r="E128" s="135"/>
       <c r="F128" s="1">
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H128" s="129"/>
-      <c r="I128" s="129"/>
-      <c r="J128" s="114"/>
-      <c r="K128" s="129"/>
-      <c r="L128" s="129"/>
-      <c r="M128" s="129"/>
+      <c r="H128" s="127"/>
+      <c r="I128" s="127"/>
+      <c r="J128" s="112"/>
+      <c r="K128" s="127"/>
+      <c r="L128" s="127"/>
+      <c r="M128" s="127"/>
       <c r="N128" s="9" t="s">
         <v>142</v>
       </c>
@@ -12841,23 +12968,23 @@
       </c>
     </row>
     <row r="129" spans="1:23">
-      <c r="A129" s="129"/>
-      <c r="B129" s="129"/>
-      <c r="C129" s="129"/>
-      <c r="D129" s="131"/>
-      <c r="E129" s="130"/>
+      <c r="A129" s="127"/>
+      <c r="B129" s="127"/>
+      <c r="C129" s="127"/>
+      <c r="D129" s="136"/>
+      <c r="E129" s="135"/>
       <c r="F129" s="1">
         <v>3</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H129" s="129"/>
-      <c r="I129" s="129"/>
-      <c r="J129" s="114"/>
-      <c r="K129" s="129"/>
-      <c r="L129" s="129"/>
-      <c r="M129" s="129"/>
+      <c r="H129" s="127"/>
+      <c r="I129" s="127"/>
+      <c r="J129" s="112"/>
+      <c r="K129" s="127"/>
+      <c r="L129" s="127"/>
+      <c r="M129" s="127"/>
       <c r="N129" s="9" t="s">
         <v>142</v>
       </c>
@@ -12878,23 +13005,23 @@
       </c>
     </row>
     <row r="130" spans="1:23">
-      <c r="A130" s="129"/>
-      <c r="B130" s="129"/>
-      <c r="C130" s="129"/>
-      <c r="D130" s="131"/>
-      <c r="E130" s="130"/>
+      <c r="A130" s="127"/>
+      <c r="B130" s="127"/>
+      <c r="C130" s="127"/>
+      <c r="D130" s="136"/>
+      <c r="E130" s="135"/>
       <c r="F130" s="1">
         <v>4</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="129"/>
-      <c r="I130" s="129"/>
-      <c r="J130" s="114"/>
-      <c r="K130" s="129"/>
-      <c r="L130" s="129"/>
-      <c r="M130" s="129"/>
+      <c r="H130" s="127"/>
+      <c r="I130" s="127"/>
+      <c r="J130" s="112"/>
+      <c r="K130" s="127"/>
+      <c r="L130" s="127"/>
+      <c r="M130" s="127"/>
       <c r="N130" s="9" t="s">
         <v>142</v>
       </c>
@@ -12915,23 +13042,23 @@
       </c>
     </row>
     <row r="131" spans="1:23">
-      <c r="A131" s="129"/>
-      <c r="B131" s="129"/>
-      <c r="C131" s="129"/>
-      <c r="D131" s="131"/>
-      <c r="E131" s="130"/>
+      <c r="A131" s="127"/>
+      <c r="B131" s="127"/>
+      <c r="C131" s="127"/>
+      <c r="D131" s="136"/>
+      <c r="E131" s="135"/>
       <c r="F131" s="1">
         <v>5</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H131" s="129"/>
-      <c r="I131" s="129"/>
-      <c r="J131" s="114"/>
-      <c r="K131" s="129"/>
-      <c r="L131" s="129"/>
-      <c r="M131" s="129"/>
+      <c r="H131" s="127"/>
+      <c r="I131" s="127"/>
+      <c r="J131" s="112"/>
+      <c r="K131" s="127"/>
+      <c r="L131" s="127"/>
+      <c r="M131" s="127"/>
       <c r="N131" s="9" t="s">
         <v>142</v>
       </c>
@@ -12952,23 +13079,23 @@
       </c>
     </row>
     <row r="132" spans="1:23">
-      <c r="A132" s="129"/>
-      <c r="B132" s="129"/>
-      <c r="C132" s="129"/>
-      <c r="D132" s="131"/>
-      <c r="E132" s="130"/>
+      <c r="A132" s="127"/>
+      <c r="B132" s="127"/>
+      <c r="C132" s="127"/>
+      <c r="D132" s="136"/>
+      <c r="E132" s="135"/>
       <c r="F132" s="1">
         <v>6</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H132" s="129"/>
-      <c r="I132" s="129"/>
-      <c r="J132" s="114"/>
-      <c r="K132" s="129"/>
-      <c r="L132" s="129"/>
-      <c r="M132" s="129"/>
+      <c r="H132" s="127"/>
+      <c r="I132" s="127"/>
+      <c r="J132" s="112"/>
+      <c r="K132" s="127"/>
+      <c r="L132" s="127"/>
+      <c r="M132" s="127"/>
       <c r="N132" s="9" t="s">
         <v>142</v>
       </c>
@@ -12989,23 +13116,23 @@
       </c>
     </row>
     <row r="133" spans="1:23">
-      <c r="A133" s="129"/>
-      <c r="B133" s="129"/>
-      <c r="C133" s="129"/>
-      <c r="D133" s="131"/>
-      <c r="E133" s="130"/>
+      <c r="A133" s="127"/>
+      <c r="B133" s="127"/>
+      <c r="C133" s="127"/>
+      <c r="D133" s="136"/>
+      <c r="E133" s="135"/>
       <c r="F133" s="1">
         <v>7</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="129"/>
-      <c r="I133" s="129"/>
-      <c r="J133" s="114"/>
-      <c r="K133" s="129"/>
-      <c r="L133" s="129"/>
-      <c r="M133" s="129"/>
+      <c r="H133" s="127"/>
+      <c r="I133" s="127"/>
+      <c r="J133" s="112"/>
+      <c r="K133" s="127"/>
+      <c r="L133" s="127"/>
+      <c r="M133" s="127"/>
       <c r="N133" s="9" t="s">
         <v>142</v>
       </c>
@@ -13026,23 +13153,23 @@
       </c>
     </row>
     <row r="134" spans="1:23">
-      <c r="A134" s="129"/>
-      <c r="B134" s="129"/>
-      <c r="C134" s="129"/>
-      <c r="D134" s="131"/>
-      <c r="E134" s="130"/>
+      <c r="A134" s="127"/>
+      <c r="B134" s="127"/>
+      <c r="C134" s="127"/>
+      <c r="D134" s="136"/>
+      <c r="E134" s="135"/>
       <c r="F134" s="1">
         <v>8</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H134" s="129"/>
-      <c r="I134" s="129"/>
-      <c r="J134" s="114"/>
-      <c r="K134" s="129"/>
-      <c r="L134" s="129"/>
-      <c r="M134" s="129"/>
+      <c r="H134" s="127"/>
+      <c r="I134" s="127"/>
+      <c r="J134" s="112"/>
+      <c r="K134" s="127"/>
+      <c r="L134" s="127"/>
+      <c r="M134" s="127"/>
       <c r="N134" s="9" t="s">
         <v>142</v>
       </c>
@@ -13063,23 +13190,23 @@
       </c>
     </row>
     <row r="135" spans="1:23">
-      <c r="A135" s="129"/>
-      <c r="B135" s="129"/>
-      <c r="C135" s="129"/>
-      <c r="D135" s="131"/>
-      <c r="E135" s="130"/>
+      <c r="A135" s="127"/>
+      <c r="B135" s="127"/>
+      <c r="C135" s="127"/>
+      <c r="D135" s="136"/>
+      <c r="E135" s="135"/>
       <c r="F135" s="1">
         <v>9</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="129"/>
-      <c r="I135" s="129"/>
-      <c r="J135" s="114"/>
-      <c r="K135" s="129"/>
-      <c r="L135" s="129"/>
-      <c r="M135" s="129"/>
+      <c r="H135" s="127"/>
+      <c r="I135" s="127"/>
+      <c r="J135" s="112"/>
+      <c r="K135" s="127"/>
+      <c r="L135" s="127"/>
+      <c r="M135" s="127"/>
       <c r="N135" s="9" t="s">
         <v>142</v>
       </c>
@@ -13100,23 +13227,23 @@
       </c>
     </row>
     <row r="136" spans="1:23">
-      <c r="A136" s="129"/>
-      <c r="B136" s="129"/>
-      <c r="C136" s="129"/>
-      <c r="D136" s="131"/>
-      <c r="E136" s="130"/>
+      <c r="A136" s="127"/>
+      <c r="B136" s="127"/>
+      <c r="C136" s="127"/>
+      <c r="D136" s="136"/>
+      <c r="E136" s="135"/>
       <c r="F136" s="1">
         <v>10</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H136" s="129"/>
-      <c r="I136" s="129"/>
-      <c r="J136" s="114"/>
-      <c r="K136" s="129"/>
-      <c r="L136" s="129"/>
-      <c r="M136" s="129"/>
+      <c r="H136" s="127"/>
+      <c r="I136" s="127"/>
+      <c r="J136" s="112"/>
+      <c r="K136" s="127"/>
+      <c r="L136" s="127"/>
+      <c r="M136" s="127"/>
       <c r="N136" s="9" t="s">
         <v>142</v>
       </c>
@@ -13137,23 +13264,23 @@
       </c>
     </row>
     <row r="137" spans="1:23" s="7" customFormat="1">
-      <c r="A137" s="129"/>
-      <c r="B137" s="129"/>
-      <c r="C137" s="129"/>
-      <c r="D137" s="131"/>
-      <c r="E137" s="130"/>
+      <c r="A137" s="127"/>
+      <c r="B137" s="127"/>
+      <c r="C137" s="127"/>
+      <c r="D137" s="136"/>
+      <c r="E137" s="135"/>
       <c r="F137" s="10">
         <v>11</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H137" s="129"/>
-      <c r="I137" s="129"/>
-      <c r="J137" s="114"/>
-      <c r="K137" s="129"/>
-      <c r="L137" s="129"/>
-      <c r="M137" s="129"/>
+      <c r="H137" s="127"/>
+      <c r="I137" s="127"/>
+      <c r="J137" s="112"/>
+      <c r="K137" s="127"/>
+      <c r="L137" s="127"/>
+      <c r="M137" s="127"/>
       <c r="N137" s="9" t="s">
         <v>143</v>
       </c>
@@ -13178,23 +13305,23 @@
       <c r="W137" s="27"/>
     </row>
     <row r="138" spans="1:23" s="4" customFormat="1">
-      <c r="A138" s="129"/>
-      <c r="B138" s="129"/>
-      <c r="C138" s="129"/>
-      <c r="D138" s="131"/>
-      <c r="E138" s="130"/>
+      <c r="A138" s="127"/>
+      <c r="B138" s="127"/>
+      <c r="C138" s="127"/>
+      <c r="D138" s="136"/>
+      <c r="E138" s="135"/>
       <c r="F138" s="10">
         <v>12</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H138" s="129"/>
-      <c r="I138" s="129"/>
-      <c r="J138" s="114"/>
-      <c r="K138" s="129"/>
-      <c r="L138" s="129"/>
-      <c r="M138" s="129"/>
+      <c r="H138" s="127"/>
+      <c r="I138" s="127"/>
+      <c r="J138" s="112"/>
+      <c r="K138" s="127"/>
+      <c r="L138" s="127"/>
+      <c r="M138" s="127"/>
       <c r="N138" s="9" t="s">
         <v>143</v>
       </c>
@@ -13219,23 +13346,23 @@
       <c r="W138" s="27"/>
     </row>
     <row r="139" spans="1:23" s="4" customFormat="1">
-      <c r="A139" s="129"/>
-      <c r="B139" s="129"/>
-      <c r="C139" s="129"/>
-      <c r="D139" s="131"/>
-      <c r="E139" s="130"/>
+      <c r="A139" s="127"/>
+      <c r="B139" s="127"/>
+      <c r="C139" s="127"/>
+      <c r="D139" s="136"/>
+      <c r="E139" s="135"/>
       <c r="F139" s="10">
         <v>13</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H139" s="129"/>
-      <c r="I139" s="129"/>
-      <c r="J139" s="114"/>
-      <c r="K139" s="129"/>
-      <c r="L139" s="129"/>
-      <c r="M139" s="129"/>
+      <c r="H139" s="127"/>
+      <c r="I139" s="127"/>
+      <c r="J139" s="112"/>
+      <c r="K139" s="127"/>
+      <c r="L139" s="127"/>
+      <c r="M139" s="127"/>
       <c r="N139" s="9" t="s">
         <v>144</v>
       </c>
@@ -13260,23 +13387,23 @@
       <c r="W139" s="27"/>
     </row>
     <row r="140" spans="1:23" s="58" customFormat="1">
-      <c r="A140" s="129"/>
-      <c r="B140" s="129"/>
-      <c r="C140" s="129"/>
-      <c r="D140" s="131"/>
-      <c r="E140" s="130"/>
+      <c r="A140" s="127"/>
+      <c r="B140" s="127"/>
+      <c r="C140" s="127"/>
+      <c r="D140" s="136"/>
+      <c r="E140" s="135"/>
       <c r="F140" s="75">
         <v>14</v>
       </c>
       <c r="G140" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="H140" s="129"/>
-      <c r="I140" s="129"/>
-      <c r="J140" s="114"/>
-      <c r="K140" s="129"/>
-      <c r="L140" s="129"/>
-      <c r="M140" s="129"/>
+      <c r="H140" s="127"/>
+      <c r="I140" s="127"/>
+      <c r="J140" s="112"/>
+      <c r="K140" s="127"/>
+      <c r="L140" s="127"/>
+      <c r="M140" s="127"/>
       <c r="N140" s="74" t="s">
         <v>268</v>
       </c>
@@ -13297,23 +13424,23 @@
       </c>
     </row>
     <row r="141" spans="1:23" s="7" customFormat="1">
-      <c r="A141" s="129"/>
-      <c r="B141" s="129"/>
-      <c r="C141" s="129"/>
-      <c r="D141" s="131"/>
-      <c r="E141" s="130"/>
+      <c r="A141" s="127"/>
+      <c r="B141" s="127"/>
+      <c r="C141" s="127"/>
+      <c r="D141" s="136"/>
+      <c r="E141" s="135"/>
       <c r="F141" s="10">
         <v>15</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H141" s="129"/>
-      <c r="I141" s="129"/>
-      <c r="J141" s="114"/>
-      <c r="K141" s="129"/>
-      <c r="L141" s="129"/>
-      <c r="M141" s="129"/>
+      <c r="H141" s="127"/>
+      <c r="I141" s="127"/>
+      <c r="J141" s="112"/>
+      <c r="K141" s="127"/>
+      <c r="L141" s="127"/>
+      <c r="M141" s="127"/>
       <c r="N141" s="9"/>
       <c r="O141" s="55" t="s">
         <v>51</v>
@@ -13336,15 +13463,15 @@
       <c r="W141" s="27"/>
     </row>
     <row r="142" spans="1:23">
-      <c r="A142" s="129"/>
-      <c r="B142" s="123" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" s="123"/>
-      <c r="D142" s="131" t="s">
+      <c r="A142" s="127"/>
+      <c r="B142" s="126" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="126"/>
+      <c r="D142" s="136" t="s">
         <v>187</v>
       </c>
-      <c r="E142" s="130" t="s">
+      <c r="E142" s="135" t="s">
         <v>146</v>
       </c>
       <c r="F142" s="10">
@@ -13353,20 +13480,20 @@
       <c r="G142" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H142" s="132">
-        <v>1</v>
-      </c>
-      <c r="I142" s="132">
-        <v>1</v>
-      </c>
-      <c r="J142" s="130">
+      <c r="H142" s="137">
+        <v>1</v>
+      </c>
+      <c r="I142" s="137">
+        <v>1</v>
+      </c>
+      <c r="J142" s="135">
         <v>4</v>
       </c>
-      <c r="K142" s="123" t="s">
+      <c r="K142" s="126" t="s">
         <v>11</v>
       </c>
-      <c r="L142" s="123"/>
-      <c r="M142" s="123" t="s">
+      <c r="L142" s="126"/>
+      <c r="M142" s="126" t="s">
         <v>38</v>
       </c>
       <c r="N142" s="29"/>
@@ -13387,23 +13514,23 @@
       </c>
     </row>
     <row r="143" spans="1:23">
-      <c r="A143" s="129"/>
-      <c r="B143" s="129"/>
-      <c r="C143" s="129"/>
-      <c r="D143" s="131"/>
-      <c r="E143" s="130"/>
+      <c r="A143" s="127"/>
+      <c r="B143" s="127"/>
+      <c r="C143" s="127"/>
+      <c r="D143" s="136"/>
+      <c r="E143" s="135"/>
       <c r="F143" s="10">
         <v>2</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H143" s="132"/>
-      <c r="I143" s="132"/>
-      <c r="J143" s="130"/>
-      <c r="K143" s="129"/>
-      <c r="L143" s="129"/>
-      <c r="M143" s="129"/>
+      <c r="H143" s="137"/>
+      <c r="I143" s="137"/>
+      <c r="J143" s="135"/>
+      <c r="K143" s="127"/>
+      <c r="L143" s="127"/>
+      <c r="M143" s="127"/>
       <c r="N143" s="32"/>
       <c r="O143" s="55" t="s">
         <v>169</v>
@@ -13422,23 +13549,23 @@
       </c>
     </row>
     <row r="144" spans="1:23" s="7" customFormat="1">
-      <c r="A144" s="129"/>
-      <c r="B144" s="129"/>
-      <c r="C144" s="129"/>
-      <c r="D144" s="131"/>
-      <c r="E144" s="130"/>
+      <c r="A144" s="127"/>
+      <c r="B144" s="127"/>
+      <c r="C144" s="127"/>
+      <c r="D144" s="136"/>
+      <c r="E144" s="135"/>
       <c r="F144" s="10">
         <v>3</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H144" s="132"/>
-      <c r="I144" s="132"/>
-      <c r="J144" s="130"/>
-      <c r="K144" s="129"/>
-      <c r="L144" s="129"/>
-      <c r="M144" s="129"/>
+      <c r="H144" s="137"/>
+      <c r="I144" s="137"/>
+      <c r="J144" s="135"/>
+      <c r="K144" s="127"/>
+      <c r="L144" s="127"/>
+      <c r="M144" s="127"/>
       <c r="N144" s="32"/>
       <c r="O144" s="55" t="s">
         <v>169</v>
@@ -13461,23 +13588,23 @@
       <c r="W144" s="27"/>
     </row>
     <row r="145" spans="1:19">
-      <c r="A145" s="129"/>
-      <c r="B145" s="124"/>
-      <c r="C145" s="124"/>
-      <c r="D145" s="131"/>
-      <c r="E145" s="130"/>
+      <c r="A145" s="127"/>
+      <c r="B145" s="128"/>
+      <c r="C145" s="128"/>
+      <c r="D145" s="136"/>
+      <c r="E145" s="135"/>
       <c r="F145" s="10">
         <v>4</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H145" s="132"/>
-      <c r="I145" s="132"/>
-      <c r="J145" s="130"/>
-      <c r="K145" s="124"/>
-      <c r="L145" s="124"/>
-      <c r="M145" s="124"/>
+      <c r="H145" s="137"/>
+      <c r="I145" s="137"/>
+      <c r="J145" s="135"/>
+      <c r="K145" s="128"/>
+      <c r="L145" s="128"/>
+      <c r="M145" s="128"/>
       <c r="N145" s="30"/>
       <c r="O145" s="55" t="s">
         <v>169</v>
@@ -13496,15 +13623,15 @@
       </c>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="129"/>
-      <c r="B146" s="123"/>
-      <c r="C146" s="123" t="s">
+      <c r="A146" s="127"/>
+      <c r="B146" s="126"/>
+      <c r="C146" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="D146" s="112" t="s">
+      <c r="D146" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="E146" s="112" t="s">
+      <c r="E146" s="111" t="s">
         <v>189</v>
       </c>
       <c r="F146" s="1">
@@ -13513,23 +13640,23 @@
       <c r="G146" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H146" s="123">
-        <v>1</v>
-      </c>
-      <c r="I146" s="123">
-        <v>1</v>
-      </c>
-      <c r="J146" s="123">
+      <c r="H146" s="126">
+        <v>1</v>
+      </c>
+      <c r="I146" s="126">
+        <v>1</v>
+      </c>
+      <c r="J146" s="126">
         <v>4</v>
       </c>
-      <c r="K146" s="123" t="s">
+      <c r="K146" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="L146" s="123"/>
-      <c r="M146" s="123" t="s">
+      <c r="L146" s="126"/>
+      <c r="M146" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="N146" s="123"/>
+      <c r="N146" s="126"/>
       <c r="O146" s="55" t="s">
         <v>169</v>
       </c>
@@ -13547,24 +13674,24 @@
       </c>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="129"/>
-      <c r="B147" s="129"/>
-      <c r="C147" s="129"/>
-      <c r="D147" s="114"/>
-      <c r="E147" s="114"/>
+      <c r="A147" s="127"/>
+      <c r="B147" s="127"/>
+      <c r="C147" s="127"/>
+      <c r="D147" s="112"/>
+      <c r="E147" s="112"/>
       <c r="F147" s="1">
         <v>2</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H147" s="129"/>
-      <c r="I147" s="129"/>
-      <c r="J147" s="129"/>
-      <c r="K147" s="129"/>
-      <c r="L147" s="129"/>
-      <c r="M147" s="129"/>
-      <c r="N147" s="129"/>
+      <c r="H147" s="127"/>
+      <c r="I147" s="127"/>
+      <c r="J147" s="127"/>
+      <c r="K147" s="127"/>
+      <c r="L147" s="127"/>
+      <c r="M147" s="127"/>
+      <c r="N147" s="127"/>
       <c r="O147" s="55" t="s">
         <v>169</v>
       </c>
@@ -13582,24 +13709,24 @@
       </c>
     </row>
     <row r="148" spans="1:19">
-      <c r="A148" s="129"/>
-      <c r="B148" s="129"/>
-      <c r="C148" s="129"/>
-      <c r="D148" s="114"/>
-      <c r="E148" s="114"/>
+      <c r="A148" s="127"/>
+      <c r="B148" s="127"/>
+      <c r="C148" s="127"/>
+      <c r="D148" s="112"/>
+      <c r="E148" s="112"/>
       <c r="F148" s="1">
         <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H148" s="129"/>
-      <c r="I148" s="129"/>
-      <c r="J148" s="129"/>
-      <c r="K148" s="129"/>
-      <c r="L148" s="129"/>
-      <c r="M148" s="129"/>
-      <c r="N148" s="129"/>
+      <c r="H148" s="127"/>
+      <c r="I148" s="127"/>
+      <c r="J148" s="127"/>
+      <c r="K148" s="127"/>
+      <c r="L148" s="127"/>
+      <c r="M148" s="127"/>
+      <c r="N148" s="127"/>
       <c r="O148" s="55" t="s">
         <v>169</v>
       </c>
@@ -13617,9 +13744,9 @@
       </c>
     </row>
     <row r="149" spans="1:19">
-      <c r="A149" s="129"/>
-      <c r="B149" s="124"/>
-      <c r="C149" s="124"/>
+      <c r="A149" s="127"/>
+      <c r="B149" s="128"/>
+      <c r="C149" s="128"/>
       <c r="D149" s="113"/>
       <c r="E149" s="113"/>
       <c r="F149" s="1">
@@ -13628,13 +13755,13 @@
       <c r="G149" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H149" s="124"/>
-      <c r="I149" s="124"/>
-      <c r="J149" s="124"/>
-      <c r="K149" s="124"/>
-      <c r="L149" s="124"/>
-      <c r="M149" s="124"/>
-      <c r="N149" s="124"/>
+      <c r="H149" s="128"/>
+      <c r="I149" s="128"/>
+      <c r="J149" s="128"/>
+      <c r="K149" s="128"/>
+      <c r="L149" s="128"/>
+      <c r="M149" s="128"/>
+      <c r="N149" s="128"/>
       <c r="O149" s="55" t="s">
         <v>169</v>
       </c>
@@ -13652,38 +13779,38 @@
       </c>
     </row>
     <row r="150" spans="1:19">
-      <c r="A150" s="129"/>
-      <c r="B150" s="123" t="s">
+      <c r="A150" s="127"/>
+      <c r="B150" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C150" s="123"/>
-      <c r="D150" s="123" t="s">
+      <c r="C150" s="126"/>
+      <c r="D150" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="E150" s="123"/>
+      <c r="E150" s="126"/>
       <c r="F150" s="1">
         <v>1</v>
       </c>
       <c r="G150" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H150" s="123">
-        <v>1</v>
-      </c>
-      <c r="I150" s="123">
-        <v>1</v>
-      </c>
-      <c r="J150" s="123">
+      <c r="H150" s="126">
+        <v>1</v>
+      </c>
+      <c r="I150" s="126">
+        <v>1</v>
+      </c>
+      <c r="J150" s="126">
         <v>2</v>
       </c>
-      <c r="K150" s="123" t="s">
+      <c r="K150" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="L150" s="123"/>
-      <c r="M150" s="123" t="s">
+      <c r="L150" s="126"/>
+      <c r="M150" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="N150" s="123"/>
+      <c r="N150" s="126"/>
       <c r="O150" s="51" t="s">
         <v>168</v>
       </c>
@@ -13701,24 +13828,24 @@
       </c>
     </row>
     <row r="151" spans="1:19">
-      <c r="A151" s="129"/>
-      <c r="B151" s="124"/>
-      <c r="C151" s="124"/>
-      <c r="D151" s="124"/>
-      <c r="E151" s="124"/>
+      <c r="A151" s="127"/>
+      <c r="B151" s="128"/>
+      <c r="C151" s="128"/>
+      <c r="D151" s="128"/>
+      <c r="E151" s="128"/>
       <c r="F151" s="1">
         <v>2</v>
       </c>
       <c r="G151" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H151" s="124"/>
-      <c r="I151" s="124"/>
-      <c r="J151" s="124"/>
-      <c r="K151" s="124"/>
-      <c r="L151" s="124"/>
-      <c r="M151" s="124"/>
-      <c r="N151" s="124"/>
+      <c r="H151" s="128"/>
+      <c r="I151" s="128"/>
+      <c r="J151" s="128"/>
+      <c r="K151" s="128"/>
+      <c r="L151" s="128"/>
+      <c r="M151" s="128"/>
+      <c r="N151" s="128"/>
       <c r="O151" s="53"/>
       <c r="P151" s="53"/>
       <c r="Q151" s="53"/>
@@ -13726,7 +13853,7 @@
       <c r="S151" s="53"/>
     </row>
     <row r="152" spans="1:19">
-      <c r="A152" s="129"/>
+      <c r="A152" s="127"/>
       <c r="B152" s="1" t="s">
         <v>61</v>
       </c>
@@ -13763,7 +13890,7 @@
       </c>
     </row>
     <row r="153" spans="1:19" ht="18.75">
-      <c r="A153" s="129"/>
+      <c r="A153" s="127"/>
       <c r="B153" s="1" t="s">
         <v>61</v>
       </c>
@@ -13810,7 +13937,7 @@
       </c>
     </row>
     <row r="154" spans="1:19">
-      <c r="A154" s="129"/>
+      <c r="A154" s="127"/>
       <c r="B154" s="1" t="s">
         <v>61</v>
       </c>
@@ -13847,7 +13974,7 @@
       </c>
     </row>
     <row r="155" spans="1:19">
-      <c r="A155" s="129"/>
+      <c r="A155" s="127"/>
       <c r="B155" s="1" t="s">
         <v>61</v>
       </c>
@@ -13896,7 +14023,7 @@
       </c>
     </row>
     <row r="156" spans="1:19">
-      <c r="A156" s="124"/>
+      <c r="A156" s="128"/>
       <c r="B156" s="1" t="s">
         <v>61</v>
       </c>
@@ -13946,14 +14073,14 @@
       <c r="A157" s="117" t="s">
         <v>248</v>
       </c>
-      <c r="B157" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="C157" s="112"/>
-      <c r="D157" s="112" t="s">
+      <c r="B157" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C157" s="111"/>
+      <c r="D157" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="E157" s="112" t="s">
+      <c r="E157" s="111" t="s">
         <v>264</v>
       </c>
       <c r="F157" s="69">
@@ -13962,21 +14089,21 @@
       <c r="G157" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="H157" s="112"/>
-      <c r="I157" s="112">
-        <v>1</v>
-      </c>
-      <c r="J157" s="112">
+      <c r="H157" s="111"/>
+      <c r="I157" s="111">
+        <v>1</v>
+      </c>
+      <c r="J157" s="111">
         <v>2</v>
       </c>
-      <c r="K157" s="112" t="s">
+      <c r="K157" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="L157" s="110"/>
-      <c r="M157" s="112" t="s">
+      <c r="L157" s="114"/>
+      <c r="M157" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="N157" s="112"/>
+      <c r="N157" s="111"/>
       <c r="O157" s="65" t="s">
         <v>51</v>
       </c>
@@ -14009,7 +14136,7 @@
       <c r="I158" s="113"/>
       <c r="J158" s="113"/>
       <c r="K158" s="113"/>
-      <c r="L158" s="111"/>
+      <c r="L158" s="116"/>
       <c r="M158" s="113"/>
       <c r="N158" s="113"/>
       <c r="O158" s="66"/>
@@ -14353,14 +14480,14 @@
     </row>
     <row r="166" spans="1:19">
       <c r="A166" s="118"/>
-      <c r="B166" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="C166" s="112"/>
-      <c r="D166" s="112" t="s">
+      <c r="B166" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C166" s="111"/>
+      <c r="D166" s="111" t="s">
         <v>253</v>
       </c>
-      <c r="E166" s="112" t="s">
+      <c r="E166" s="111" t="s">
         <v>264</v>
       </c>
       <c r="F166" s="69">
@@ -14369,21 +14496,21 @@
       <c r="G166" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H166" s="112"/>
-      <c r="I166" s="112">
-        <v>1</v>
-      </c>
-      <c r="J166" s="112">
+      <c r="H166" s="111"/>
+      <c r="I166" s="111">
+        <v>1</v>
+      </c>
+      <c r="J166" s="111">
         <v>2</v>
       </c>
-      <c r="K166" s="112" t="s">
+      <c r="K166" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="L166" s="110"/>
-      <c r="M166" s="112" t="s">
+      <c r="L166" s="114"/>
+      <c r="M166" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="N166" s="112"/>
+      <c r="N166" s="111"/>
       <c r="O166" s="65" t="s">
         <v>51</v>
       </c>
@@ -14416,7 +14543,7 @@
       <c r="I167" s="113"/>
       <c r="J167" s="113"/>
       <c r="K167" s="113"/>
-      <c r="L167" s="111"/>
+      <c r="L167" s="116"/>
       <c r="M167" s="113"/>
       <c r="N167" s="113"/>
       <c r="O167" s="66"/>
@@ -14525,14 +14652,14 @@
     </row>
     <row r="170" spans="1:19">
       <c r="A170" s="118"/>
-      <c r="B170" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="C170" s="112"/>
-      <c r="D170" s="112" t="s">
+      <c r="B170" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" s="111"/>
+      <c r="D170" s="111" t="s">
         <v>259</v>
       </c>
-      <c r="E170" s="112" t="s">
+      <c r="E170" s="111" t="s">
         <v>264</v>
       </c>
       <c r="F170" s="69">
@@ -14541,21 +14668,21 @@
       <c r="G170" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H170" s="112"/>
-      <c r="I170" s="112">
-        <v>1</v>
-      </c>
-      <c r="J170" s="112">
+      <c r="H170" s="111"/>
+      <c r="I170" s="111">
+        <v>1</v>
+      </c>
+      <c r="J170" s="111">
         <v>2</v>
       </c>
-      <c r="K170" s="112" t="s">
+      <c r="K170" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="L170" s="110"/>
-      <c r="M170" s="112" t="s">
+      <c r="L170" s="114"/>
+      <c r="M170" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="N170" s="112"/>
+      <c r="N170" s="111"/>
       <c r="O170" s="65" t="s">
         <v>51</v>
       </c>
@@ -14588,7 +14715,7 @@
       <c r="I171" s="113"/>
       <c r="J171" s="113"/>
       <c r="K171" s="113"/>
-      <c r="L171" s="111"/>
+      <c r="L171" s="116"/>
       <c r="M171" s="113"/>
       <c r="N171" s="113"/>
       <c r="O171" s="66"/>
@@ -14693,46 +14820,225 @@
     </row>
   </sheetData>
   <mergeCells count="283">
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="H105:H107"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="L170:L171"/>
+    <mergeCell ref="M170:M171"/>
+    <mergeCell ref="N170:N171"/>
+    <mergeCell ref="N166:N167"/>
+    <mergeCell ref="M166:M167"/>
+    <mergeCell ref="L166:L167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="J166:J167"/>
+    <mergeCell ref="K166:K167"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="J170:J171"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="S20:S21"/>
+    <mergeCell ref="A157:A173"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="L157:L158"/>
+    <mergeCell ref="M157:M158"/>
+    <mergeCell ref="N157:N158"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="D170:D171"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="M23:M28"/>
+    <mergeCell ref="L23:L28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="N23:N28"/>
+    <mergeCell ref="N150:N151"/>
+    <mergeCell ref="J146:J149"/>
+    <mergeCell ref="K146:K149"/>
+    <mergeCell ref="L146:L149"/>
+    <mergeCell ref="M146:M149"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="N123:N124"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="I146:I149"/>
+    <mergeCell ref="K127:K141"/>
+    <mergeCell ref="M127:M141"/>
+    <mergeCell ref="M142:M145"/>
+    <mergeCell ref="K142:K145"/>
+    <mergeCell ref="L127:L141"/>
+    <mergeCell ref="L142:L145"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="L150:L151"/>
+    <mergeCell ref="M150:M151"/>
+    <mergeCell ref="J127:J141"/>
+    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="H146:H149"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="E127:E141"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="C127:C141"/>
+    <mergeCell ref="D127:D141"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="H127:H141"/>
+    <mergeCell ref="I127:I141"/>
+    <mergeCell ref="H142:H145"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="I119:I122"/>
+    <mergeCell ref="J119:J122"/>
+    <mergeCell ref="K119:K122"/>
+    <mergeCell ref="L119:L122"/>
+    <mergeCell ref="M119:M122"/>
+    <mergeCell ref="N119:N122"/>
+    <mergeCell ref="J115:J118"/>
+    <mergeCell ref="K115:K118"/>
+    <mergeCell ref="L115:L118"/>
+    <mergeCell ref="M115:M118"/>
+    <mergeCell ref="N115:N118"/>
+    <mergeCell ref="I115:I118"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="D119:D122"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="H119:H122"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="D115:D118"/>
+    <mergeCell ref="E115:E118"/>
+    <mergeCell ref="H115:H118"/>
+    <mergeCell ref="I108:I111"/>
+    <mergeCell ref="J108:J111"/>
+    <mergeCell ref="K108:K111"/>
+    <mergeCell ref="L108:L111"/>
+    <mergeCell ref="M108:M111"/>
+    <mergeCell ref="N108:N111"/>
+    <mergeCell ref="J105:J107"/>
+    <mergeCell ref="K105:K107"/>
+    <mergeCell ref="L105:L107"/>
+    <mergeCell ref="M105:M107"/>
+    <mergeCell ref="N105:N107"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="N101:N104"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="K98:K100"/>
+    <mergeCell ref="L98:L100"/>
+    <mergeCell ref="M98:M100"/>
+    <mergeCell ref="N98:N100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="J101:J104"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="N4:N11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A115:A156"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="E4:E11"/>
+    <mergeCell ref="H4:H11"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="A22:A50"/>
+    <mergeCell ref="A51:A64"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A74:A97"/>
+    <mergeCell ref="A98:A114"/>
+    <mergeCell ref="H98:H100"/>
     <mergeCell ref="L74:L77"/>
     <mergeCell ref="K95:K96"/>
     <mergeCell ref="L95:L96"/>
@@ -14757,225 +15063,46 @@
     <mergeCell ref="I23:I28"/>
     <mergeCell ref="H23:H28"/>
     <mergeCell ref="D23:D28"/>
-    <mergeCell ref="N4:N11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A115:A156"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="E4:E11"/>
-    <mergeCell ref="H4:H11"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="A22:A50"/>
-    <mergeCell ref="A51:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A97"/>
-    <mergeCell ref="A98:A114"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="E108:E111"/>
-    <mergeCell ref="H108:H111"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="N93:N94"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="N101:N104"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="K98:K100"/>
-    <mergeCell ref="L98:L100"/>
-    <mergeCell ref="M98:M100"/>
-    <mergeCell ref="N98:N100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="H101:H104"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="J101:J104"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="I108:I111"/>
-    <mergeCell ref="J108:J111"/>
-    <mergeCell ref="K108:K111"/>
-    <mergeCell ref="L108:L111"/>
-    <mergeCell ref="M108:M111"/>
-    <mergeCell ref="N108:N111"/>
-    <mergeCell ref="J105:J107"/>
-    <mergeCell ref="K105:K107"/>
-    <mergeCell ref="L105:L107"/>
-    <mergeCell ref="M105:M107"/>
-    <mergeCell ref="N105:N107"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="D119:D122"/>
-    <mergeCell ref="E119:E122"/>
-    <mergeCell ref="H119:H122"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="C115:C118"/>
-    <mergeCell ref="D115:D118"/>
-    <mergeCell ref="E115:E118"/>
-    <mergeCell ref="H115:H118"/>
-    <mergeCell ref="I119:I122"/>
-    <mergeCell ref="J119:J122"/>
-    <mergeCell ref="K119:K122"/>
-    <mergeCell ref="L119:L122"/>
-    <mergeCell ref="M119:M122"/>
-    <mergeCell ref="N119:N122"/>
-    <mergeCell ref="J115:J118"/>
-    <mergeCell ref="K115:K118"/>
-    <mergeCell ref="L115:L118"/>
-    <mergeCell ref="M115:M118"/>
-    <mergeCell ref="N115:N118"/>
-    <mergeCell ref="I115:I118"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="E127:E141"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B141"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="C127:C141"/>
-    <mergeCell ref="D127:D141"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="H127:H141"/>
-    <mergeCell ref="I127:I141"/>
-    <mergeCell ref="H142:H145"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="H150:H151"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="H146:H149"/>
-    <mergeCell ref="I146:I149"/>
-    <mergeCell ref="K127:K141"/>
-    <mergeCell ref="M127:M141"/>
-    <mergeCell ref="M142:M145"/>
-    <mergeCell ref="K142:K145"/>
-    <mergeCell ref="L127:L141"/>
-    <mergeCell ref="L142:L145"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="L150:L151"/>
-    <mergeCell ref="M150:M151"/>
-    <mergeCell ref="J127:J141"/>
-    <mergeCell ref="J142:J145"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K23:K28"/>
-    <mergeCell ref="M23:M28"/>
-    <mergeCell ref="L23:L28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="N23:N28"/>
-    <mergeCell ref="N150:N151"/>
-    <mergeCell ref="J146:J149"/>
-    <mergeCell ref="K146:K149"/>
-    <mergeCell ref="L146:L149"/>
-    <mergeCell ref="M146:M149"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="N123:N124"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="M125:M126"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="M123:M124"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="K74:K77"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="S20:S21"/>
-    <mergeCell ref="A157:A173"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="L157:L158"/>
-    <mergeCell ref="M157:M158"/>
-    <mergeCell ref="N157:N158"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="B170:B171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="D170:D171"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="L170:L171"/>
-    <mergeCell ref="M170:M171"/>
-    <mergeCell ref="N170:N171"/>
-    <mergeCell ref="N166:N167"/>
-    <mergeCell ref="M166:M167"/>
-    <mergeCell ref="L166:L167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="J166:J167"/>
-    <mergeCell ref="K166:K167"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="J170:J171"/>
-    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="H105:H107"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19783,27 +19910,26 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1875" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.125" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.9375" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.0625" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.5625" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -19815,7 +19941,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="80" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>166</v>
@@ -19844,7 +19970,7 @@
     </row>
     <row r="3" spans="1:13" ht="141">
       <c r="A3" s="109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>29</v>
@@ -19852,7 +19978,7 @@
       <c r="C3" s="79" t="s">
         <v>281</v>
       </c>
-      <c r="D3" s="139" t="s">
+      <c r="D3" s="110" t="s">
         <v>282</v>
       </c>
       <c r="E3" s="29">
@@ -19874,7 +20000,7 @@
     </row>
     <row r="4" spans="1:13" s="19" customFormat="1" ht="18.75">
       <c r="A4" s="47" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B4" s="34" t="s">
         <v>222</v>
@@ -19904,7 +20030,7 @@
     </row>
     <row r="5" spans="1:13" s="19" customFormat="1" ht="18.75">
       <c r="A5" s="109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B5" s="34" t="s">
         <v>223</v>
@@ -19934,7 +20060,7 @@
     </row>
     <row r="6" spans="1:13" s="19" customFormat="1" ht="18.75">
       <c r="A6" s="109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B6" s="34" t="s">
         <v>236</v>
@@ -19962,9 +20088,9 @@
       <c r="K6" s="36"/>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="1:13" s="19" customFormat="1">
+    <row r="7" spans="1:13" s="19" customFormat="1" ht="35.25">
       <c r="A7" s="109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>240</v>
@@ -19972,7 +20098,7 @@
       <c r="C7" s="78" t="s">
         <v>312</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="110" t="s">
         <v>308</v>
       </c>
       <c r="E7" s="36"/>
@@ -19994,13 +20120,13 @@
     </row>
     <row r="8" spans="1:13" s="19" customFormat="1" ht="18.75">
       <c r="A8" s="109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>249</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>313</v>
+        <v>561</v>
       </c>
       <c r="D8" s="35"/>
       <c r="E8" s="35"/>
@@ -20024,13 +20150,13 @@
     </row>
     <row r="9" spans="1:13" s="19" customFormat="1" ht="18.75">
       <c r="A9" s="109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>250</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>314</v>
+        <v>562</v>
       </c>
       <c r="D9" s="35"/>
       <c r="E9" s="35"/>
@@ -20054,13 +20180,13 @@
     </row>
     <row r="10" spans="1:13" s="19" customFormat="1" ht="18.75">
       <c r="A10" s="109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>251</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>315</v>
+        <v>563</v>
       </c>
       <c r="D10" s="35"/>
       <c r="E10" s="35"/>
@@ -20084,13 +20210,13 @@
     </row>
     <row r="11" spans="1:13" s="19" customFormat="1" ht="18.75">
       <c r="A11" s="109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>252</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>316</v>
+        <v>564</v>
       </c>
       <c r="D11" s="35"/>
       <c r="E11" s="35"/>
@@ -20114,13 +20240,13 @@
     </row>
     <row r="12" spans="1:13" s="19" customFormat="1" ht="18.75">
       <c r="A12" s="109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B12" s="34" t="s">
         <v>256</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>320</v>
+        <v>565</v>
       </c>
       <c r="D12" s="35"/>
       <c r="E12" s="35"/>
@@ -20144,13 +20270,13 @@
     </row>
     <row r="13" spans="1:13" s="19" customFormat="1">
       <c r="A13" s="109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>257</v>
       </c>
       <c r="C13" s="78" t="s">
-        <v>321</v>
+        <v>566</v>
       </c>
       <c r="D13" s="35"/>
       <c r="E13" s="35"/>
@@ -20176,13 +20302,13 @@
     </row>
     <row r="14" spans="1:13" s="19" customFormat="1">
       <c r="A14" s="109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>258</v>
       </c>
       <c r="C14" s="78" t="s">
-        <v>322</v>
+        <v>567</v>
       </c>
       <c r="D14" s="35"/>
       <c r="E14" s="35"/>
@@ -20206,17 +20332,17 @@
       </c>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="1:13" s="19" customFormat="1">
+    <row r="15" spans="1:13" s="19" customFormat="1" ht="35.25">
       <c r="A15" s="109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B15" s="34" t="s">
         <v>253</v>
       </c>
       <c r="C15" s="78" t="s">
-        <v>323</v>
-      </c>
-      <c r="D15" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="D15" s="140" t="s">
         <v>284</v>
       </c>
       <c r="E15" s="36"/>
@@ -20238,13 +20364,13 @@
     </row>
     <row r="16" spans="1:13" s="19" customFormat="1">
       <c r="A16" s="109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B16" s="34" t="s">
         <v>254</v>
       </c>
       <c r="C16" s="78" t="s">
-        <v>324</v>
+        <v>568</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -20270,13 +20396,13 @@
     </row>
     <row r="17" spans="1:13" s="19" customFormat="1">
       <c r="A17" s="109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B17" s="34" t="s">
         <v>255</v>
       </c>
       <c r="C17" s="78" t="s">
-        <v>325</v>
+        <v>569</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -20300,17 +20426,17 @@
       </c>
       <c r="M17" s="38"/>
     </row>
-    <row r="18" spans="1:13" s="19" customFormat="1">
+    <row r="18" spans="1:13" s="19" customFormat="1" ht="35.25">
       <c r="A18" s="109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B18" s="34" t="s">
         <v>259</v>
       </c>
       <c r="C18" s="78" t="s">
-        <v>317</v>
-      </c>
-      <c r="D18" s="35" t="s">
+        <v>572</v>
+      </c>
+      <c r="D18" s="140" t="s">
         <v>284</v>
       </c>
       <c r="E18" s="36"/>
@@ -20332,13 +20458,13 @@
     </row>
     <row r="19" spans="1:13" s="19" customFormat="1">
       <c r="A19" s="109" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B19" s="34" t="s">
         <v>260</v>
       </c>
       <c r="C19" s="78" t="s">
-        <v>318</v>
+        <v>570</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
@@ -20364,13 +20490,13 @@
     </row>
     <row r="20" spans="1:13" s="19" customFormat="1">
       <c r="A20" s="54" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="B20" s="41" t="s">
         <v>261</v>
       </c>
       <c r="C20" s="41" t="s">
-        <v>319</v>
+        <v>571</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -20406,12 +20532,12 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:Q78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
@@ -20426,7 +20552,7 @@
     <col min="8" max="8" width="7.9375" style="58" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.0625" style="58" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="58" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="60.25" style="58" customWidth="1"/>
+    <col min="11" max="11" width="176.0625" style="58" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
@@ -20438,7 +20564,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="87" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D2" s="87" t="s">
         <v>166</v>
@@ -20465,7 +20591,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" ht="141">
       <c r="A3" s="83" t="s">
         <v>28</v>
       </c>
@@ -20475,7 +20601,7 @@
       <c r="C3" s="85" t="s">
         <v>281</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="110" t="s">
         <v>282</v>
       </c>
       <c r="E3" s="85">
@@ -20496,7 +20622,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="19" customFormat="1">
+    <row r="4" spans="1:17" s="19" customFormat="1" ht="35.25">
       <c r="A4" s="84" t="s">
         <v>28</v>
       </c>
@@ -20506,7 +20632,7 @@
       <c r="C4" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="140" t="s">
         <v>284</v>
       </c>
       <c r="E4" s="36">
@@ -20630,7 +20756,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
@@ -20645,7 +20771,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="105.75">
       <c r="A9" s="85" t="s">
         <v>288</v>
       </c>
@@ -20653,9 +20779,9 @@
         <v>226</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>462</v>
-      </c>
-      <c r="D9" s="87" t="s">
+        <v>450</v>
+      </c>
+      <c r="D9" s="110" t="s">
         <v>292</v>
       </c>
       <c r="E9" s="87"/>
@@ -20681,7 +20807,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" ht="70.5">
       <c r="A10" s="85" t="s">
         <v>288</v>
       </c>
@@ -20689,9 +20815,9 @@
         <v>207</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>475</v>
-      </c>
-      <c r="D10" s="35" t="s">
+        <v>463</v>
+      </c>
+      <c r="D10" s="140" t="s">
         <v>293</v>
       </c>
       <c r="E10" s="36">
@@ -20714,18 +20840,18 @@
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" ht="105.75">
       <c r="A11" s="85" t="s">
         <v>288</v>
       </c>
       <c r="B11" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="D11" s="140" t="s">
         <v>442</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>454</v>
       </c>
       <c r="E11" s="35">
         <v>1</v>
@@ -20744,7 +20870,7 @@
         <v>38</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -20752,13 +20878,13 @@
         <v>288</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>473</v>
+        <v>574</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E12" s="35">
         <v>1</v>
@@ -20777,7 +20903,7 @@
         <v>38</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -20785,13 +20911,13 @@
         <v>288</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>472</v>
+        <v>575</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E13" s="35">
         <v>1</v>
@@ -20810,7 +20936,7 @@
         <v>38</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -20821,7 +20947,7 @@
         <v>186</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>297</v>
@@ -20843,7 +20969,7 @@
         <v>38</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75">
@@ -20854,7 +20980,7 @@
         <v>129</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D15" s="87"/>
       <c r="E15" s="87"/>
@@ -20885,7 +21011,7 @@
         <v>202</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>469</v>
+        <v>576</v>
       </c>
       <c r="D16" s="35"/>
       <c r="E16" s="35"/>
@@ -20905,7 +21031,7 @@
         <v>76</v>
       </c>
       <c r="K16" s="35" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -20913,13 +21039,13 @@
         <v>288</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E17" s="40"/>
       <c r="F17" s="87">
@@ -20936,7 +21062,7 @@
         <v>38</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -20944,13 +21070,13 @@
         <v>288</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="87">
@@ -20967,7 +21093,7 @@
         <v>38</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -20975,13 +21101,13 @@
         <v>288</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="87">
@@ -20998,7 +21124,7 @@
         <v>38</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -21006,13 +21132,13 @@
         <v>288</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="87">
@@ -21029,7 +21155,7 @@
         <v>38</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="18.75">
@@ -21037,10 +21163,10 @@
         <v>288</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>464</v>
+        <v>577</v>
       </c>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
@@ -21060,7 +21186,7 @@
         <v>76</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75">
@@ -21068,10 +21194,10 @@
         <v>288</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>463</v>
+        <v>578</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -21091,18 +21217,18 @@
         <v>76</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="85" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="40"/>
@@ -21122,21 +21248,21 @@
         <v>38</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="85" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>477</v>
+        <v>579</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="87">
@@ -21151,21 +21277,21 @@
       <c r="I24" s="37"/>
       <c r="J24" s="36"/>
       <c r="K24" s="35" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="90" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>478</v>
+        <v>580</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="91">
@@ -21180,21 +21306,21 @@
       <c r="I25" s="37"/>
       <c r="J25" s="36"/>
       <c r="K25" s="35" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="90" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>479</v>
+        <v>581</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="91">
@@ -21209,21 +21335,21 @@
       <c r="I26" s="37"/>
       <c r="J26" s="36"/>
       <c r="K26" s="35" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="90" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>480</v>
+        <v>582</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="91">
@@ -21238,7 +21364,7 @@
       <c r="I27" s="37"/>
       <c r="J27" s="36"/>
       <c r="K27" s="35" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -21246,10 +21372,10 @@
         <v>288</v>
       </c>
       <c r="B28" s="87" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C28" s="87" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D28" s="87"/>
       <c r="E28" s="87"/>
@@ -21267,10 +21393,10 @@
         <v>288</v>
       </c>
       <c r="B29" s="87" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C29" s="93" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -21296,10 +21422,10 @@
         <v>288</v>
       </c>
       <c r="B30" s="87" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C30" s="93" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D30" s="87"/>
       <c r="E30" s="87"/>
@@ -21325,10 +21451,10 @@
         <v>288</v>
       </c>
       <c r="B31" s="87" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C31" s="93" t="s">
-        <v>484</v>
+        <v>583</v>
       </c>
       <c r="D31" s="87"/>
       <c r="E31" s="87"/>
@@ -21352,13 +21478,13 @@
         <v>288</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E32" s="95"/>
       <c r="F32" s="95">
@@ -21375,7 +21501,7 @@
         <v>38</v>
       </c>
       <c r="K32" s="35" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:11" s="19" customFormat="1">
@@ -21386,7 +21512,7 @@
         <v>85</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -21406,7 +21532,7 @@
         <v>45</v>
       </c>
       <c r="K33" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="19" customFormat="1">
@@ -21417,7 +21543,7 @@
         <v>86</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>528</v>
+        <v>585</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -21437,7 +21563,7 @@
         <v>45</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="19" customFormat="1">
@@ -21448,7 +21574,7 @@
         <v>87</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -21468,7 +21594,7 @@
         <v>45</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -21479,7 +21605,7 @@
         <v>78</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -21502,7 +21628,7 @@
         <v>186</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>297</v>
@@ -21524,7 +21650,7 @@
         <v>38</v>
       </c>
       <c r="K37" s="35" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="18.75">
@@ -21535,7 +21661,7 @@
         <v>129</v>
       </c>
       <c r="C38" s="87" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="D38" s="87"/>
       <c r="E38" s="87"/>
@@ -21563,13 +21689,13 @@
         <v>298</v>
       </c>
       <c r="B39" s="87" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>491</v>
+        <v>587</v>
       </c>
       <c r="D39" s="87" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E39" s="87"/>
       <c r="F39" s="87">
@@ -21590,13 +21716,13 @@
         <v>298</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C40" s="87" t="s">
-        <v>488</v>
+        <v>602</v>
       </c>
       <c r="D40" s="87" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E40" s="87"/>
       <c r="F40" s="87">
@@ -21613,7 +21739,7 @@
         <v>38</v>
       </c>
       <c r="K40" s="86" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -21624,7 +21750,7 @@
         <v>155</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35">
@@ -21646,7 +21772,7 @@
         <v>38</v>
       </c>
       <c r="K41" s="40" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -21657,7 +21783,7 @@
         <v>156</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35">
@@ -21690,7 +21816,7 @@
         <v>154</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35">
@@ -21712,7 +21838,7 @@
         <v>38</v>
       </c>
       <c r="K43" s="40" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -21720,13 +21846,13 @@
         <v>298</v>
       </c>
       <c r="B44" s="87" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C44" s="87" t="s">
-        <v>493</v>
+        <v>588</v>
       </c>
       <c r="D44" s="89" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E44" s="87"/>
       <c r="F44" s="87">
@@ -21743,7 +21869,7 @@
         <v>38</v>
       </c>
       <c r="K44" s="86" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -21751,13 +21877,13 @@
         <v>298</v>
       </c>
       <c r="B45" s="87" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C45" s="87" t="s">
-        <v>494</v>
+        <v>589</v>
       </c>
       <c r="D45" s="89" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E45" s="87"/>
       <c r="F45" s="87">
@@ -21774,7 +21900,7 @@
         <v>38</v>
       </c>
       <c r="K45" s="86" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -21782,13 +21908,13 @@
         <v>298</v>
       </c>
       <c r="B46" s="87" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C46" s="87" t="s">
-        <v>495</v>
+        <v>590</v>
       </c>
       <c r="D46" s="87" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E46" s="87"/>
       <c r="F46" s="87">
@@ -21803,7 +21929,7 @@
       <c r="I46" s="87"/>
       <c r="J46" s="85"/>
       <c r="K46" s="86" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -21811,10 +21937,10 @@
         <v>298</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>496</v>
+        <v>591</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35">
@@ -21836,7 +21962,7 @@
         <v>38</v>
       </c>
       <c r="K47" s="40" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -21844,13 +21970,13 @@
         <v>298</v>
       </c>
       <c r="B48" s="87" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C48" s="87" t="s">
-        <v>497</v>
+        <v>592</v>
       </c>
       <c r="D48" s="87" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E48" s="87"/>
       <c r="F48" s="87">
@@ -21867,7 +21993,7 @@
         <v>38</v>
       </c>
       <c r="K48" s="86" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -21875,13 +22001,13 @@
         <v>298</v>
       </c>
       <c r="B49" s="87" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C49" s="87" t="s">
-        <v>498</v>
+        <v>593</v>
       </c>
       <c r="D49" s="89" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E49" s="89"/>
       <c r="F49" s="89">
@@ -21898,7 +22024,7 @@
         <v>38</v>
       </c>
       <c r="K49" s="86" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -21906,13 +22032,13 @@
         <v>298</v>
       </c>
       <c r="B50" s="87" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C50" s="87" t="s">
-        <v>499</v>
+        <v>594</v>
       </c>
       <c r="D50" s="87" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E50" s="87"/>
       <c r="F50" s="87">
@@ -21927,7 +22053,7 @@
       <c r="I50" s="87"/>
       <c r="J50" s="85"/>
       <c r="K50" s="86" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -21935,10 +22061,10 @@
         <v>298</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>500</v>
+        <v>595</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35">
@@ -21960,7 +22086,7 @@
         <v>38</v>
       </c>
       <c r="K51" s="86" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -21968,13 +22094,13 @@
         <v>298</v>
       </c>
       <c r="B52" s="87" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C52" s="87" t="s">
-        <v>502</v>
+        <v>596</v>
       </c>
       <c r="D52" s="87" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87">
@@ -21991,7 +22117,7 @@
         <v>38</v>
       </c>
       <c r="K52" s="86" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -21999,13 +22125,13 @@
         <v>298</v>
       </c>
       <c r="B53" s="87" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C53" s="87" t="s">
-        <v>501</v>
+        <v>597</v>
       </c>
       <c r="D53" s="89" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E53" s="89"/>
       <c r="F53" s="89">
@@ -22022,7 +22148,7 @@
         <v>38</v>
       </c>
       <c r="K53" s="86" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -22030,13 +22156,13 @@
         <v>298</v>
       </c>
       <c r="B54" s="87" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C54" s="87" t="s">
-        <v>503</v>
+        <v>598</v>
       </c>
       <c r="D54" s="87" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E54" s="87"/>
       <c r="F54" s="87">
@@ -22051,7 +22177,7 @@
       <c r="I54" s="87"/>
       <c r="J54" s="85"/>
       <c r="K54" s="86" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="18.75">
@@ -22059,10 +22185,10 @@
         <v>298</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>504</v>
+        <v>603</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35">
@@ -22089,16 +22215,16 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="85" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E56" s="87"/>
       <c r="F56" s="87">
@@ -22115,7 +22241,7 @@
         <v>38</v>
       </c>
       <c r="K56" s="35" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="19" customFormat="1">
@@ -22126,7 +22252,7 @@
         <v>85</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>506</v>
+        <v>599</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -22146,7 +22272,7 @@
         <v>45</v>
       </c>
       <c r="K57" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="19" customFormat="1">
@@ -22157,7 +22283,7 @@
         <v>86</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>507</v>
+        <v>600</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
@@ -22177,7 +22303,7 @@
         <v>45</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="19" customFormat="1">
@@ -22188,7 +22314,7 @@
         <v>87</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>508</v>
+        <v>601</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -22208,7 +22334,7 @@
         <v>45</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -22219,7 +22345,7 @@
         <v>78</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -22242,7 +22368,7 @@
         <v>186</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D61" s="35" t="s">
         <v>297</v>
@@ -22264,7 +22390,7 @@
         <v>38</v>
       </c>
       <c r="K61" s="35" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="18.75">
@@ -22275,7 +22401,7 @@
         <v>129</v>
       </c>
       <c r="C62" s="87" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D62" s="87"/>
       <c r="E62" s="87"/>
@@ -22306,7 +22432,7 @@
         <v>81</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35">
@@ -22336,13 +22462,13 @@
         <v>300</v>
       </c>
       <c r="B64" s="35" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="D64" s="35" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E64" s="87"/>
       <c r="F64" s="87">
@@ -22359,7 +22485,7 @@
         <v>38</v>
       </c>
       <c r="K64" s="35" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:11" s="19" customFormat="1">
@@ -22370,7 +22496,7 @@
         <v>85</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -22390,7 +22516,7 @@
         <v>45</v>
       </c>
       <c r="K65" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:11" s="19" customFormat="1">
@@ -22401,7 +22527,7 @@
         <v>86</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -22421,7 +22547,7 @@
         <v>45</v>
       </c>
       <c r="K66" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:11" s="19" customFormat="1">
@@ -22432,7 +22558,7 @@
         <v>87</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
@@ -22452,21 +22578,21 @@
         <v>45</v>
       </c>
       <c r="K67" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="19" customFormat="1">
       <c r="A68" s="88" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D68" s="35" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E68" s="35"/>
       <c r="F68" s="35">
@@ -22480,10 +22606,10 @@
       </c>
       <c r="I68" s="37"/>
       <c r="J68" s="35" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="K68" s="35" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -22494,7 +22620,7 @@
         <v>198</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -22514,7 +22640,7 @@
         <v>201</v>
       </c>
       <c r="K69" s="35" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -22525,7 +22651,7 @@
         <v>46</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -22545,7 +22671,7 @@
         <v>203</v>
       </c>
       <c r="K70" s="35" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -22556,7 +22682,7 @@
         <v>290</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="D71" s="35" t="s">
         <v>297</v>
@@ -22578,7 +22704,7 @@
         <v>38</v>
       </c>
       <c r="K71" s="35" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -22589,7 +22715,7 @@
         <v>291</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D72" s="35" t="s">
         <v>297</v>
@@ -22611,18 +22737,18 @@
         <v>38</v>
       </c>
       <c r="K72" s="35" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="98" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B73" s="35" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -22639,13 +22765,13 @@
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="98" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B74" s="35" t="s">
         <v>186</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="D74" s="35" t="s">
         <v>297</v>
@@ -22670,13 +22796,13 @@
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="89" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B75" s="35" t="s">
         <v>198</v>
       </c>
       <c r="C75" s="89" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="D75" s="89"/>
       <c r="E75" s="89"/>
@@ -22699,13 +22825,13 @@
     </row>
     <row r="76" spans="1:11">
       <c r="A76" s="89" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B76" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C76" s="89" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D76" s="89"/>
       <c r="E76" s="89"/>
@@ -22728,13 +22854,13 @@
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="107" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B77" s="107" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C77" s="107" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -22751,13 +22877,13 @@
     </row>
     <row r="78" spans="1:11" ht="18.75">
       <c r="A78" s="107" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B78" s="107" t="s">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C78" s="107" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="D78" s="107"/>
       <c r="E78" s="107"/>
@@ -22823,7 +22949,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="98" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="D2" s="26" t="s">
         <v>166</v>
@@ -23005,7 +23131,7 @@
         <v>59</v>
       </c>
       <c r="C8" s="101" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D8" s="101"/>
       <c r="E8" s="101"/>
@@ -23028,7 +23154,7 @@
         <v>226</v>
       </c>
       <c r="C9" s="101" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="D9" s="101" t="s">
         <v>292</v>
@@ -23064,7 +23190,7 @@
         <v>207</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>293</v>
@@ -23094,13 +23220,13 @@
         <v>288</v>
       </c>
       <c r="B11" s="35" t="s">
+        <v>430</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>462</v>
+      </c>
+      <c r="D11" s="35" t="s">
         <v>442</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>474</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>454</v>
       </c>
       <c r="E11" s="35">
         <v>1</v>
@@ -23119,7 +23245,7 @@
         <v>38</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="58" customFormat="1">
@@ -23127,13 +23253,13 @@
         <v>288</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E12" s="35">
         <v>1</v>
@@ -23152,7 +23278,7 @@
         <v>38</v>
       </c>
       <c r="K12" s="35" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="58" customFormat="1">
@@ -23160,13 +23286,13 @@
         <v>288</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E13" s="35">
         <v>1</v>
@@ -23185,7 +23311,7 @@
         <v>38</v>
       </c>
       <c r="K13" s="35" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="58" customFormat="1">
@@ -23196,7 +23322,7 @@
         <v>186</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>297</v>
@@ -23218,7 +23344,7 @@
         <v>38</v>
       </c>
       <c r="K14" s="35" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="58" customFormat="1" ht="18.75">
@@ -23229,7 +23355,7 @@
         <v>129</v>
       </c>
       <c r="C15" s="104" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="D15" s="104"/>
       <c r="E15" s="104"/>
@@ -23257,13 +23383,13 @@
         <v>288</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E16" s="36">
         <v>1</v>
@@ -23289,7 +23415,7 @@
         <v>202</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -23309,7 +23435,7 @@
         <v>76</v>
       </c>
       <c r="K17" s="35" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="58" customFormat="1">
@@ -23317,13 +23443,13 @@
         <v>288</v>
       </c>
       <c r="B18" s="35" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="D18" s="107" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="E18" s="40"/>
       <c r="F18" s="104">
@@ -23340,7 +23466,7 @@
         <v>38</v>
       </c>
       <c r="K18" s="35" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="58" customFormat="1">
@@ -23348,13 +23474,13 @@
         <v>288</v>
       </c>
       <c r="B19" s="35" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="104">
@@ -23371,7 +23497,7 @@
         <v>38</v>
       </c>
       <c r="K19" s="35" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="58" customFormat="1">
@@ -23379,13 +23505,13 @@
         <v>288</v>
       </c>
       <c r="B20" s="35" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="104">
@@ -23402,7 +23528,7 @@
         <v>38</v>
       </c>
       <c r="K20" s="35" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="58" customFormat="1">
@@ -23410,13 +23536,13 @@
         <v>288</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="104">
@@ -23433,7 +23559,7 @@
         <v>38</v>
       </c>
       <c r="K21" s="35" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="58" customFormat="1" ht="18.75">
@@ -23441,10 +23567,10 @@
         <v>288</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -23464,7 +23590,7 @@
         <v>76</v>
       </c>
       <c r="K22" s="35" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="58" customFormat="1" ht="18.75">
@@ -23472,10 +23598,10 @@
         <v>288</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -23495,18 +23621,18 @@
         <v>76</v>
       </c>
       <c r="K23" s="35" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="58" customFormat="1">
       <c r="A24" s="102" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B24" s="35" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="40"/>
@@ -23526,21 +23652,21 @@
         <v>38</v>
       </c>
       <c r="K24" s="35" t="s">
-        <v>552</v>
+        <v>540</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="58" customFormat="1">
       <c r="A25" s="102" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="104">
@@ -23555,21 +23681,21 @@
       <c r="I25" s="37"/>
       <c r="J25" s="36"/>
       <c r="K25" s="35" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="58" customFormat="1">
       <c r="A26" s="102" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="104">
@@ -23584,21 +23710,21 @@
       <c r="I26" s="37"/>
       <c r="J26" s="36"/>
       <c r="K26" s="35" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="58" customFormat="1">
       <c r="A27" s="102" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="E27" s="40"/>
       <c r="F27" s="104">
@@ -23613,21 +23739,21 @@
       <c r="I27" s="37"/>
       <c r="J27" s="36"/>
       <c r="K27" s="35" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="58" customFormat="1">
       <c r="A28" s="102" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="E28" s="40"/>
       <c r="F28" s="104">
@@ -23642,7 +23768,7 @@
       <c r="I28" s="37"/>
       <c r="J28" s="36"/>
       <c r="K28" s="35" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -23650,10 +23776,10 @@
         <v>288</v>
       </c>
       <c r="B29" s="101" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C29" s="101" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="D29" s="101"/>
       <c r="E29" s="101"/>
@@ -23671,10 +23797,10 @@
         <v>288</v>
       </c>
       <c r="B30" s="101" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="C30" s="101" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="D30" s="101"/>
       <c r="E30" s="101"/>
@@ -23700,10 +23826,10 @@
         <v>288</v>
       </c>
       <c r="B31" s="101" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C31" s="101" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="D31" s="101"/>
       <c r="E31" s="101"/>
@@ -23729,10 +23855,10 @@
         <v>288</v>
       </c>
       <c r="B32" s="101" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="C32" s="101" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="D32" s="101"/>
       <c r="E32" s="101"/>
@@ -23756,13 +23882,13 @@
         <v>288</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E33" s="104"/>
       <c r="F33" s="104">
@@ -23779,7 +23905,7 @@
         <v>38</v>
       </c>
       <c r="K33" s="35" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="19" customFormat="1">
@@ -23790,7 +23916,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -23810,7 +23936,7 @@
         <v>45</v>
       </c>
       <c r="K34" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="19" customFormat="1">
@@ -23821,7 +23947,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -23841,7 +23967,7 @@
         <v>45</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="19" customFormat="1">
@@ -23852,7 +23978,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -23872,7 +23998,7 @@
         <v>45</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -23883,7 +24009,7 @@
         <v>78</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -23906,7 +24032,7 @@
         <v>186</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>297</v>
@@ -23928,7 +24054,7 @@
         <v>38</v>
       </c>
       <c r="K38" s="35" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="58" customFormat="1" ht="18.75">
@@ -23939,7 +24065,7 @@
         <v>129</v>
       </c>
       <c r="C39" s="104" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="D39" s="104"/>
       <c r="E39" s="104"/>
@@ -23967,13 +24093,13 @@
         <v>298</v>
       </c>
       <c r="B40" s="36" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E40" s="36">
         <v>1</v>
@@ -23996,13 +24122,13 @@
         <v>298</v>
       </c>
       <c r="B41" s="104" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C41" s="104" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D41" s="104" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="E41" s="104"/>
       <c r="F41" s="104">
@@ -24023,13 +24149,13 @@
         <v>298</v>
       </c>
       <c r="B42" s="104" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="C42" s="104" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="D42" s="104" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="E42" s="104"/>
       <c r="F42" s="104">
@@ -24046,7 +24172,7 @@
         <v>38</v>
       </c>
       <c r="K42" s="103" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -24057,7 +24183,7 @@
         <v>155</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35">
@@ -24079,7 +24205,7 @@
         <v>38</v>
       </c>
       <c r="K43" s="40" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -24090,7 +24216,7 @@
         <v>156</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35">
@@ -24123,7 +24249,7 @@
         <v>154</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35">
@@ -24145,7 +24271,7 @@
         <v>38</v>
       </c>
       <c r="K45" s="40" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="58" customFormat="1">
@@ -24153,13 +24279,13 @@
         <v>298</v>
       </c>
       <c r="B46" s="104" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="C46" s="104" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D46" s="104" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E46" s="104"/>
       <c r="F46" s="104">
@@ -24176,7 +24302,7 @@
         <v>38</v>
       </c>
       <c r="K46" s="103" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="58" customFormat="1">
@@ -24184,13 +24310,13 @@
         <v>298</v>
       </c>
       <c r="B47" s="104" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C47" s="104" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="D47" s="107" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E47" s="104"/>
       <c r="F47" s="104">
@@ -24207,7 +24333,7 @@
         <v>38</v>
       </c>
       <c r="K47" s="103" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="58" customFormat="1">
@@ -24215,13 +24341,13 @@
         <v>298</v>
       </c>
       <c r="B48" s="104" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="C48" s="104" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="D48" s="104" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E48" s="104"/>
       <c r="F48" s="104">
@@ -24236,7 +24362,7 @@
       <c r="I48" s="104"/>
       <c r="J48" s="102"/>
       <c r="K48" s="103" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="58" customFormat="1">
@@ -24244,10 +24370,10 @@
         <v>298</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35">
@@ -24269,7 +24395,7 @@
         <v>38</v>
       </c>
       <c r="K49" s="40" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="58" customFormat="1">
@@ -24277,13 +24403,13 @@
         <v>298</v>
       </c>
       <c r="B50" s="104" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="C50" s="104" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="D50" s="104" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E50" s="104"/>
       <c r="F50" s="104">
@@ -24300,7 +24426,7 @@
         <v>38</v>
       </c>
       <c r="K50" s="103" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="58" customFormat="1">
@@ -24308,13 +24434,13 @@
         <v>298</v>
       </c>
       <c r="B51" s="104" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="C51" s="104" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="D51" s="104" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E51" s="104"/>
       <c r="F51" s="104">
@@ -24331,7 +24457,7 @@
         <v>38</v>
       </c>
       <c r="K51" s="103" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="58" customFormat="1">
@@ -24339,13 +24465,13 @@
         <v>298</v>
       </c>
       <c r="B52" s="104" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="C52" s="104" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="D52" s="104" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E52" s="104"/>
       <c r="F52" s="104">
@@ -24360,7 +24486,7 @@
       <c r="I52" s="104"/>
       <c r="J52" s="102"/>
       <c r="K52" s="103" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="58" customFormat="1">
@@ -24368,10 +24494,10 @@
         <v>298</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35">
@@ -24393,7 +24519,7 @@
         <v>38</v>
       </c>
       <c r="K53" s="103" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="58" customFormat="1">
@@ -24401,13 +24527,13 @@
         <v>298</v>
       </c>
       <c r="B54" s="104" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C54" s="104" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="D54" s="104" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="E54" s="104"/>
       <c r="F54" s="104">
@@ -24424,7 +24550,7 @@
         <v>38</v>
       </c>
       <c r="K54" s="103" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="58" customFormat="1">
@@ -24432,13 +24558,13 @@
         <v>298</v>
       </c>
       <c r="B55" s="104" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="C55" s="104" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="D55" s="104" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="E55" s="104"/>
       <c r="F55" s="104">
@@ -24455,7 +24581,7 @@
         <v>38</v>
       </c>
       <c r="K55" s="103" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="58" customFormat="1">
@@ -24463,13 +24589,13 @@
         <v>298</v>
       </c>
       <c r="B56" s="104" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="C56" s="104" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="D56" s="104" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="E56" s="104"/>
       <c r="F56" s="104">
@@ -24484,7 +24610,7 @@
       <c r="I56" s="104"/>
       <c r="J56" s="102"/>
       <c r="K56" s="103" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="18.75">
@@ -24492,10 +24618,10 @@
         <v>298</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35">
@@ -24522,16 +24648,16 @@
     </row>
     <row r="58" spans="1:11" s="58" customFormat="1">
       <c r="A58" s="102" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="B58" s="35" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E58" s="104"/>
       <c r="F58" s="104">
@@ -24548,7 +24674,7 @@
         <v>38</v>
       </c>
       <c r="K58" s="35" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="19" customFormat="1">
@@ -24559,7 +24685,7 @@
         <v>85</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -24579,7 +24705,7 @@
         <v>45</v>
       </c>
       <c r="K59" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="19" customFormat="1">
@@ -24590,7 +24716,7 @@
         <v>86</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -24610,7 +24736,7 @@
         <v>45</v>
       </c>
       <c r="K60" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="19" customFormat="1">
@@ -24621,7 +24747,7 @@
         <v>87</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -24641,7 +24767,7 @@
         <v>45</v>
       </c>
       <c r="K61" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="58" customFormat="1">
@@ -24652,7 +24778,7 @@
         <v>78</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -24675,7 +24801,7 @@
         <v>186</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="D63" s="35" t="s">
         <v>297</v>
@@ -24697,7 +24823,7 @@
         <v>38</v>
       </c>
       <c r="K63" s="35" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="58" customFormat="1" ht="18.75">
@@ -24708,7 +24834,7 @@
         <v>129</v>
       </c>
       <c r="C64" s="104" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="D64" s="104"/>
       <c r="E64" s="104"/>
@@ -24736,13 +24862,13 @@
         <v>300</v>
       </c>
       <c r="B65" s="36" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="C65" s="36" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E65" s="36">
         <v>1</v>
@@ -24768,7 +24894,7 @@
         <v>81</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35">
@@ -24798,13 +24924,13 @@
         <v>300</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="D67" s="35" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="E67" s="104"/>
       <c r="F67" s="104">
@@ -24821,7 +24947,7 @@
         <v>38</v>
       </c>
       <c r="K67" s="35" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="19" customFormat="1">
@@ -24832,7 +24958,7 @@
         <v>85</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -24852,7 +24978,7 @@
         <v>45</v>
       </c>
       <c r="K68" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="19" customFormat="1">
@@ -24863,7 +24989,7 @@
         <v>86</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -24883,7 +25009,7 @@
         <v>45</v>
       </c>
       <c r="K69" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="19" customFormat="1">
@@ -24894,7 +25020,7 @@
         <v>87</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -24914,21 +25040,21 @@
         <v>45</v>
       </c>
       <c r="K70" s="35" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="19" customFormat="1">
       <c r="A71" s="102" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B71" s="35" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="D71" s="35" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="E71" s="35"/>
       <c r="F71" s="35">
@@ -24945,21 +25071,21 @@
         <v>38</v>
       </c>
       <c r="K71" s="35" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="19" customFormat="1">
       <c r="A72" s="105" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="D72" s="35" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E72" s="36">
         <v>1</v>
@@ -24985,7 +25111,7 @@
         <v>198</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -25005,7 +25131,7 @@
         <v>201</v>
       </c>
       <c r="K73" s="35" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="58" customFormat="1">
@@ -25016,7 +25142,7 @@
         <v>46</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -25036,7 +25162,7 @@
         <v>203</v>
       </c>
       <c r="K74" s="35" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="58" customFormat="1">
@@ -25047,7 +25173,7 @@
         <v>290</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="D75" s="35" t="s">
         <v>297</v>
@@ -25069,7 +25195,7 @@
         <v>38</v>
       </c>
       <c r="K75" s="35" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="58" customFormat="1">
@@ -25080,7 +25206,7 @@
         <v>291</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="D76" s="35" t="s">
         <v>297</v>
@@ -25102,18 +25228,18 @@
         <v>38</v>
       </c>
       <c r="K76" s="35" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="58" customFormat="1">
       <c r="A77" s="104" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B77" s="35" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -25130,13 +25256,13 @@
     </row>
     <row r="78" spans="1:11" s="58" customFormat="1">
       <c r="A78" s="104" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B78" s="35" t="s">
         <v>186</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="D78" s="35" t="s">
         <v>297</v>
@@ -25161,16 +25287,16 @@
     </row>
     <row r="79" spans="1:11" s="58" customFormat="1">
       <c r="A79" s="106" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B79" s="35" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="C79" s="36" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="D79" s="35" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E79" s="36">
         <v>1</v>
@@ -25190,13 +25316,13 @@
     </row>
     <row r="80" spans="1:11" s="58" customFormat="1">
       <c r="A80" s="104" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B80" s="35" t="s">
         <v>198</v>
       </c>
       <c r="C80" s="104" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="D80" s="104"/>
       <c r="E80" s="104"/>
@@ -25219,13 +25345,13 @@
     </row>
     <row r="81" spans="1:11" s="58" customFormat="1">
       <c r="A81" s="104" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B81" s="35" t="s">
         <v>46</v>
       </c>
       <c r="C81" s="104" t="s">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="D81" s="104"/>
       <c r="E81" s="104"/>
@@ -25248,13 +25374,13 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="108" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B82" s="108" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="C82" s="108" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="D82" s="35"/>
       <c r="E82" s="35"/>
@@ -25271,13 +25397,13 @@
     </row>
     <row r="83" spans="1:11" ht="18.75">
       <c r="A83" s="108" t="s">
+        <v>546</v>
+      </c>
+      <c r="B83" s="108" t="s">
+        <v>548</v>
+      </c>
+      <c r="C83" s="108" t="s">
         <v>558</v>
-      </c>
-      <c r="B83" s="108" t="s">
-        <v>560</v>
-      </c>
-      <c r="C83" s="108" t="s">
-        <v>570</v>
       </c>
       <c r="D83" s="108"/>
       <c r="E83" s="108"/>
@@ -25302,16 +25428,16 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="108" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="D84" s="35" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="E84" s="35">
         <v>1</v>

--- a/入力情報定義表.xlsx
+++ b/入力情報定義表.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5DDF6193-1453-412C-8AA5-0F13A2EC7A78}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B638F2D4-269D-4C6D-933B-CFB9964FF1FB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8333" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8330" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4332" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4330" uniqueCount="605">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -6005,6 +6005,19 @@
   </si>
   <si>
     <t>Windows[i] UW</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>項目「日除けを入力する」の備考「[簡易外皮入力フラグ]=２の場合に表示。」を削除</t>
+    <rPh sb="0" eb="2">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ビコウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>サクジョ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -6490,23 +6503,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6523,22 +6542,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6553,14 +6560,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6571,14 +6575,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6866,18 +6879,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536BF8A1-E6C3-4235-B285-32136AE77F7C}">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="131.0625" customWidth="1"/>
+    <col min="3" max="3" width="131.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7802,6 +7815,28 @@
       </c>
       <c r="C84" s="82" t="s">
         <v>555</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="76">
+        <v>43291</v>
+      </c>
+      <c r="B85" s="76" t="s">
+        <v>275</v>
+      </c>
+      <c r="C85" s="82" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="76">
+        <v>43291</v>
+      </c>
+      <c r="B86" s="76" t="s">
+        <v>526</v>
+      </c>
+      <c r="C86" s="82" t="s">
+        <v>604</v>
       </c>
     </row>
   </sheetData>
@@ -7820,7 +7855,7 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="9" style="72"/>
   </cols>
@@ -7885,21 +7920,21 @@
       <selection pane="bottomRight" activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="14.0625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.8125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.3125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.9375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.8125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.8125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.9375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.0625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.9140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.08203125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.5625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="19" width="9" style="33"/>
     <col min="20" max="23" width="9" style="27"/>
     <col min="24" max="16384" width="9" style="2"/>
@@ -7976,7 +8011,7 @@
       </c>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="122" t="s">
         <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -8023,36 +8058,36 @@
       </c>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="121"/>
-      <c r="B4" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="111" t="s">
+      <c r="A4" s="123"/>
+      <c r="B4" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="125"/>
+      <c r="D4" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="126"/>
+      <c r="E4" s="125"/>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="126">
+      <c r="H4" s="125">
         <v>6</v>
       </c>
-      <c r="I4" s="126">
-        <v>1</v>
-      </c>
-      <c r="J4" s="126">
+      <c r="I4" s="125">
+        <v>1</v>
+      </c>
+      <c r="J4" s="125">
         <v>8</v>
       </c>
-      <c r="K4" s="126" t="s">
+      <c r="K4" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
+      <c r="L4" s="125"/>
+      <c r="M4" s="125"/>
+      <c r="N4" s="125"/>
       <c r="O4" s="51" t="s">
         <v>51</v>
       </c>
@@ -8070,24 +8105,24 @@
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="121"/>
-      <c r="B5" s="127"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="127"/>
+      <c r="A5" s="123"/>
+      <c r="B5" s="131"/>
+      <c r="C5" s="131"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="131"/>
       <c r="F5" s="1">
         <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
+      <c r="K5" s="131"/>
+      <c r="L5" s="131"/>
+      <c r="M5" s="131"/>
+      <c r="N5" s="131"/>
       <c r="O5" s="52"/>
       <c r="P5" s="52"/>
       <c r="Q5" s="52"/>
@@ -8095,24 +8130,24 @@
       <c r="S5" s="52"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="121"/>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="127"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="131"/>
+      <c r="D6" s="116"/>
+      <c r="E6" s="131"/>
       <c r="F6" s="1">
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H6" s="127"/>
-      <c r="I6" s="127"/>
-      <c r="J6" s="127"/>
-      <c r="K6" s="127"/>
-      <c r="L6" s="127"/>
-      <c r="M6" s="127"/>
-      <c r="N6" s="127"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
       <c r="O6" s="52"/>
       <c r="P6" s="52"/>
       <c r="Q6" s="52"/>
@@ -8120,24 +8155,24 @@
       <c r="S6" s="52"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="121"/>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="127"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="131"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="131"/>
       <c r="F7" s="1">
         <v>4</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="127"/>
-      <c r="L7" s="127"/>
-      <c r="M7" s="127"/>
-      <c r="N7" s="127"/>
+      <c r="H7" s="131"/>
+      <c r="I7" s="131"/>
+      <c r="J7" s="131"/>
+      <c r="K7" s="131"/>
+      <c r="L7" s="131"/>
+      <c r="M7" s="131"/>
+      <c r="N7" s="131"/>
       <c r="O7" s="52"/>
       <c r="P7" s="52"/>
       <c r="Q7" s="52"/>
@@ -8145,24 +8180,24 @@
       <c r="S7" s="52"/>
     </row>
     <row r="8" spans="1:23">
-      <c r="A8" s="121"/>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="127"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="131"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="131"/>
       <c r="F8" s="1">
         <v>5</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="I8" s="127"/>
-      <c r="J8" s="127"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="127"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="127"/>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="131"/>
+      <c r="N8" s="131"/>
       <c r="O8" s="52"/>
       <c r="P8" s="52"/>
       <c r="Q8" s="52"/>
@@ -8170,24 +8205,24 @@
       <c r="S8" s="52"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="121"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="127"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="131"/>
       <c r="F9" s="1">
         <v>6</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="127"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="127"/>
-      <c r="K9" s="127"/>
-      <c r="L9" s="127"/>
-      <c r="M9" s="127"/>
-      <c r="N9" s="127"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="131"/>
+      <c r="K9" s="131"/>
+      <c r="L9" s="131"/>
+      <c r="M9" s="131"/>
+      <c r="N9" s="131"/>
       <c r="O9" s="52"/>
       <c r="P9" s="52"/>
       <c r="Q9" s="52"/>
@@ -8195,24 +8230,24 @@
       <c r="S9" s="52"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="121"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="112"/>
-      <c r="E10" s="127"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="131"/>
       <c r="F10" s="1">
         <v>7</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="127"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="127"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="127"/>
+      <c r="H10" s="131"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="131"/>
+      <c r="L10" s="131"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
       <c r="O10" s="52"/>
       <c r="P10" s="52"/>
       <c r="Q10" s="52"/>
@@ -8220,24 +8255,24 @@
       <c r="S10" s="52"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="121"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="128"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="126"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="126"/>
       <c r="F11" s="1">
         <v>8</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="128"/>
-      <c r="I11" s="128"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="128"/>
-      <c r="N11" s="128"/>
+      <c r="H11" s="126"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="126"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="126"/>
+      <c r="N11" s="126"/>
       <c r="O11" s="53"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="53"/>
@@ -8245,7 +8280,7 @@
       <c r="S11" s="53"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="121"/>
+      <c r="A12" s="123"/>
       <c r="B12" s="1" t="s">
         <v>51</v>
       </c>
@@ -8292,7 +8327,7 @@
       </c>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="121"/>
+      <c r="A13" s="123"/>
       <c r="B13" s="1" t="s">
         <v>51</v>
       </c>
@@ -8339,7 +8374,7 @@
       </c>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="121"/>
+      <c r="A14" s="123"/>
       <c r="B14" s="1" t="s">
         <v>51</v>
       </c>
@@ -8386,38 +8421,38 @@
       </c>
     </row>
     <row r="15" spans="1:23" s="44" customFormat="1">
-      <c r="A15" s="121"/>
-      <c r="B15" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="117" t="s">
+      <c r="A15" s="123"/>
+      <c r="B15" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="122"/>
+      <c r="D15" s="119" t="s">
         <v>235</v>
       </c>
-      <c r="E15" s="120"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="46">
         <v>1</v>
       </c>
       <c r="G15" s="46" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="111">
+      <c r="H15" s="114">
         <v>2</v>
       </c>
-      <c r="I15" s="111">
-        <v>1</v>
-      </c>
-      <c r="J15" s="111">
+      <c r="I15" s="114">
+        <v>1</v>
+      </c>
+      <c r="J15" s="114">
         <v>2</v>
       </c>
-      <c r="K15" s="111" t="s">
+      <c r="K15" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="126"/>
-      <c r="M15" s="111" t="s">
+      <c r="L15" s="125"/>
+      <c r="M15" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="126"/>
+      <c r="N15" s="125"/>
       <c r="O15" s="51" t="s">
         <v>51</v>
       </c>
@@ -8435,24 +8470,24 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="44" customFormat="1">
-      <c r="A16" s="121"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="122"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="130"/>
       <c r="F16" s="46">
         <v>2</v>
       </c>
       <c r="G16" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="113"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="128"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="128"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="126"/>
       <c r="O16" s="53"/>
       <c r="P16" s="53"/>
       <c r="Q16" s="53"/>
@@ -8460,7 +8495,7 @@
       <c r="S16" s="53"/>
     </row>
     <row r="17" spans="1:23" s="44" customFormat="1">
-      <c r="A17" s="121"/>
+      <c r="A17" s="123"/>
       <c r="B17" s="43" t="s">
         <v>51</v>
       </c>
@@ -8505,7 +8540,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" s="23" customFormat="1">
-      <c r="A18" s="121"/>
+      <c r="A18" s="123"/>
       <c r="B18" s="43" t="s">
         <v>51</v>
       </c>
@@ -8554,7 +8589,7 @@
       <c r="W18" s="27"/>
     </row>
     <row r="19" spans="1:23" s="58" customFormat="1">
-      <c r="A19" s="121"/>
+      <c r="A19" s="123"/>
       <c r="B19" s="62" t="s">
         <v>51</v>
       </c>
@@ -8599,15 +8634,15 @@
       </c>
     </row>
     <row r="20" spans="1:23" s="58" customFormat="1">
-      <c r="A20" s="121"/>
-      <c r="B20" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="120"/>
-      <c r="D20" s="117" t="s">
+      <c r="A20" s="123"/>
+      <c r="B20" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="122"/>
+      <c r="D20" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="E20" s="117" t="s">
+      <c r="E20" s="119" t="s">
         <v>264</v>
       </c>
       <c r="F20" s="69">
@@ -8616,64 +8651,64 @@
       <c r="G20" s="69" t="s">
         <v>242</v>
       </c>
-      <c r="H20" s="111"/>
-      <c r="I20" s="111">
-        <v>1</v>
-      </c>
-      <c r="J20" s="111">
+      <c r="H20" s="114"/>
+      <c r="I20" s="114">
+        <v>1</v>
+      </c>
+      <c r="J20" s="114">
         <v>2</v>
       </c>
-      <c r="K20" s="111" t="s">
+      <c r="K20" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="114"/>
-      <c r="M20" s="111" t="s">
+      <c r="L20" s="112"/>
+      <c r="M20" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="N20" s="111"/>
-      <c r="O20" s="138" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="138" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q20" s="138" t="s">
-        <v>51</v>
-      </c>
-      <c r="R20" s="138" t="s">
-        <v>51</v>
-      </c>
-      <c r="S20" s="138" t="s">
+      <c r="N20" s="114"/>
+      <c r="O20" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="P20" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" s="117" t="s">
+        <v>51</v>
+      </c>
+      <c r="S20" s="117" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="58" customFormat="1">
-      <c r="A21" s="121"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="121"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="118"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="120"/>
       <c r="F21" s="69">
         <v>2</v>
       </c>
       <c r="G21" s="69" t="s">
         <v>243</v>
       </c>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="139"/>
-      <c r="P21" s="139"/>
-      <c r="Q21" s="139"/>
-      <c r="R21" s="139"/>
-      <c r="S21" s="139"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="124"/>
+      <c r="M21" s="116"/>
+      <c r="N21" s="116"/>
+      <c r="O21" s="118"/>
+      <c r="P21" s="118"/>
+      <c r="Q21" s="118"/>
+      <c r="R21" s="118"/>
+      <c r="S21" s="118"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="126" t="s">
+      <c r="A22" s="125" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -8712,36 +8747,36 @@
       </c>
     </row>
     <row r="23" spans="1:23" s="44" customFormat="1">
-      <c r="A23" s="127"/>
-      <c r="B23" s="117" t="s">
-        <v>51</v>
-      </c>
-      <c r="C23" s="120"/>
-      <c r="D23" s="117" t="s">
+      <c r="A23" s="131"/>
+      <c r="B23" s="119" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="122"/>
+      <c r="D23" s="119" t="s">
         <v>225</v>
       </c>
-      <c r="E23" s="123"/>
+      <c r="E23" s="138"/>
       <c r="F23" s="46">
         <v>1</v>
       </c>
       <c r="G23" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="H23" s="129"/>
-      <c r="I23" s="111">
-        <v>1</v>
-      </c>
-      <c r="J23" s="111">
+      <c r="H23" s="127"/>
+      <c r="I23" s="114">
+        <v>1</v>
+      </c>
+      <c r="J23" s="114">
         <v>6</v>
       </c>
-      <c r="K23" s="117" t="s">
+      <c r="K23" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="129"/>
-      <c r="M23" s="117" t="s">
+      <c r="L23" s="127"/>
+      <c r="M23" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="120"/>
+      <c r="N23" s="122"/>
       <c r="O23" s="51" t="s">
         <v>51</v>
       </c>
@@ -8760,24 +8795,24 @@
       <c r="T23" s="19"/>
     </row>
     <row r="24" spans="1:23" s="44" customFormat="1">
-      <c r="A24" s="127"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="121"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="124"/>
+      <c r="A24" s="131"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="123"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="139"/>
       <c r="F24" s="46">
         <v>2</v>
       </c>
       <c r="G24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="130"/>
-      <c r="I24" s="112"/>
-      <c r="J24" s="112"/>
-      <c r="K24" s="118"/>
-      <c r="L24" s="130"/>
-      <c r="M24" s="118"/>
-      <c r="N24" s="121"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="116"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="120"/>
+      <c r="N24" s="123"/>
       <c r="O24" s="52"/>
       <c r="P24" s="52"/>
       <c r="Q24" s="52"/>
@@ -8786,24 +8821,24 @@
       <c r="T24" s="19"/>
     </row>
     <row r="25" spans="1:23" s="44" customFormat="1">
-      <c r="A25" s="127"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="124"/>
+      <c r="A25" s="131"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="123"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="139"/>
       <c r="F25" s="46">
         <v>3</v>
       </c>
       <c r="G25" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="130"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="112"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="130"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="121"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="120"/>
+      <c r="N25" s="123"/>
       <c r="O25" s="52"/>
       <c r="P25" s="52"/>
       <c r="Q25" s="52"/>
@@ -8812,24 +8847,24 @@
       <c r="T25" s="19"/>
     </row>
     <row r="26" spans="1:23" s="44" customFormat="1">
-      <c r="A26" s="127"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="121"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="124"/>
+      <c r="A26" s="131"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="123"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="139"/>
       <c r="F26" s="46">
         <v>4</v>
       </c>
       <c r="G26" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="130"/>
-      <c r="I26" s="112"/>
-      <c r="J26" s="112"/>
-      <c r="K26" s="118"/>
-      <c r="L26" s="130"/>
-      <c r="M26" s="118"/>
-      <c r="N26" s="121"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="128"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="123"/>
       <c r="O26" s="52"/>
       <c r="P26" s="52"/>
       <c r="Q26" s="52"/>
@@ -8840,24 +8875,24 @@
       <c r="V26" s="49"/>
     </row>
     <row r="27" spans="1:23" s="44" customFormat="1">
-      <c r="A27" s="127"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="121"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="124"/>
+      <c r="A27" s="131"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="123"/>
+      <c r="D27" s="120"/>
+      <c r="E27" s="139"/>
       <c r="F27" s="46">
         <v>5</v>
       </c>
       <c r="G27" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="130"/>
-      <c r="I27" s="112"/>
-      <c r="J27" s="112"/>
-      <c r="K27" s="118"/>
-      <c r="L27" s="130"/>
-      <c r="M27" s="118"/>
-      <c r="N27" s="121"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="123"/>
       <c r="O27" s="52"/>
       <c r="P27" s="52"/>
       <c r="Q27" s="52"/>
@@ -8868,24 +8903,24 @@
       <c r="V27" s="49"/>
     </row>
     <row r="28" spans="1:23" s="44" customFormat="1">
-      <c r="A28" s="127"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="122"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="125"/>
+      <c r="A28" s="131"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="140"/>
       <c r="F28" s="46">
         <v>6</v>
       </c>
       <c r="G28" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="131"/>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="122"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="121"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="130"/>
       <c r="O28" s="53"/>
       <c r="P28" s="53"/>
       <c r="Q28" s="53"/>
@@ -8896,7 +8931,7 @@
       <c r="V28" s="49"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="127"/>
+      <c r="A29" s="131"/>
       <c r="B29" s="1" t="s">
         <v>61</v>
       </c>
@@ -8936,7 +8971,7 @@
       <c r="V29" s="49"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="127"/>
+      <c r="A30" s="131"/>
       <c r="B30" s="1" t="s">
         <v>61</v>
       </c>
@@ -8984,7 +9019,7 @@
       <c r="V30" s="49"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="127"/>
+      <c r="A31" s="131"/>
       <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
@@ -9032,7 +9067,7 @@
       <c r="V31" s="49"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="127"/>
+      <c r="A32" s="131"/>
       <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
@@ -9078,7 +9113,7 @@
       <c r="V32" s="49"/>
     </row>
     <row r="33" spans="1:22">
-      <c r="A33" s="127"/>
+      <c r="A33" s="131"/>
       <c r="B33" s="1" t="s">
         <v>61</v>
       </c>
@@ -9128,7 +9163,7 @@
       <c r="V33" s="49"/>
     </row>
     <row r="34" spans="1:22">
-      <c r="A34" s="127"/>
+      <c r="A34" s="131"/>
       <c r="B34" s="1" t="s">
         <v>61</v>
       </c>
@@ -9178,7 +9213,7 @@
       <c r="V34" s="49"/>
     </row>
     <row r="35" spans="1:22">
-      <c r="A35" s="127"/>
+      <c r="A35" s="131"/>
       <c r="B35" s="1" t="s">
         <v>61</v>
       </c>
@@ -9226,8 +9261,8 @@
       <c r="T35" s="19"/>
       <c r="U35" s="2"/>
     </row>
-    <row r="36" spans="1:22" s="27" customFormat="1" ht="18.75">
-      <c r="A36" s="127"/>
+    <row r="36" spans="1:22" s="27" customFormat="1" ht="19.5">
+      <c r="A36" s="131"/>
       <c r="B36" s="1" t="s">
         <v>61</v>
       </c>
@@ -9274,8 +9309,8 @@
       </c>
       <c r="T36" s="19"/>
     </row>
-    <row r="37" spans="1:22" s="27" customFormat="1" ht="18.75">
-      <c r="A37" s="127"/>
+    <row r="37" spans="1:22" s="27" customFormat="1" ht="19.5">
+      <c r="A37" s="131"/>
       <c r="B37" s="10" t="s">
         <v>51</v>
       </c>
@@ -9320,8 +9355,8 @@
       </c>
       <c r="T37" s="19"/>
     </row>
-    <row r="38" spans="1:22" s="27" customFormat="1" ht="18.75">
-      <c r="A38" s="127"/>
+    <row r="38" spans="1:22" s="27" customFormat="1" ht="19.5">
+      <c r="A38" s="131"/>
       <c r="B38" s="10" t="s">
         <v>51</v>
       </c>
@@ -9367,38 +9402,38 @@
       <c r="T38" s="19"/>
     </row>
     <row r="39" spans="1:22" s="27" customFormat="1">
-      <c r="A39" s="127"/>
-      <c r="B39" s="111" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="111"/>
-      <c r="D39" s="111" t="s">
+      <c r="A39" s="131"/>
+      <c r="B39" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="114"/>
+      <c r="D39" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="E39" s="111"/>
+      <c r="E39" s="114"/>
       <c r="F39" s="10">
         <v>1</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H39" s="111">
-        <v>1</v>
-      </c>
-      <c r="I39" s="111">
-        <v>1</v>
-      </c>
-      <c r="J39" s="111">
+      <c r="H39" s="114">
+        <v>1</v>
+      </c>
+      <c r="I39" s="114">
+        <v>1</v>
+      </c>
+      <c r="J39" s="114">
         <v>3</v>
       </c>
-      <c r="K39" s="111" t="s">
+      <c r="K39" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="L39" s="114"/>
-      <c r="M39" s="111" t="s">
+      <c r="L39" s="112"/>
+      <c r="M39" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="N39" s="111"/>
+      <c r="N39" s="114"/>
       <c r="O39" s="51" t="s">
         <v>169</v>
       </c>
@@ -9416,24 +9451,24 @@
       </c>
     </row>
     <row r="40" spans="1:22" s="27" customFormat="1">
-      <c r="A40" s="127"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
+      <c r="A40" s="131"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
       <c r="F40" s="10">
         <v>2</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="112"/>
-      <c r="N40" s="112"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="116"/>
+      <c r="N40" s="116"/>
       <c r="O40" s="52"/>
       <c r="P40" s="52"/>
       <c r="Q40" s="52"/>
@@ -9441,24 +9476,24 @@
       <c r="S40" s="52"/>
     </row>
     <row r="41" spans="1:22" s="58" customFormat="1">
-      <c r="A41" s="127"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
+      <c r="A41" s="131"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
       <c r="F41" s="61">
         <v>3</v>
       </c>
       <c r="G41" s="61" t="s">
         <v>206</v>
       </c>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="115"/>
-      <c r="M41" s="112"/>
-      <c r="N41" s="112"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="116"/>
+      <c r="L41" s="124"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="116"/>
       <c r="O41" s="59"/>
       <c r="P41" s="59"/>
       <c r="Q41" s="59"/>
@@ -9466,24 +9501,24 @@
       <c r="S41" s="59"/>
     </row>
     <row r="42" spans="1:22" s="27" customFormat="1">
-      <c r="A42" s="127"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
+      <c r="A42" s="131"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="115"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
       <c r="F42" s="10">
         <v>4</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
+      <c r="H42" s="115"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="115"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="115"/>
+      <c r="N42" s="115"/>
       <c r="O42" s="53"/>
       <c r="P42" s="53"/>
       <c r="Q42" s="53"/>
@@ -9491,15 +9526,15 @@
       <c r="S42" s="53"/>
     </row>
     <row r="43" spans="1:22" s="27" customFormat="1">
-      <c r="A43" s="127"/>
-      <c r="B43" s="111"/>
-      <c r="C43" s="111" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43" s="111" t="s">
+      <c r="A43" s="131"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="114" t="s">
         <v>214</v>
       </c>
-      <c r="E43" s="111" t="s">
+      <c r="E43" s="114" t="s">
         <v>215</v>
       </c>
       <c r="F43" s="10">
@@ -9508,23 +9543,23 @@
       <c r="G43" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H43" s="111">
-        <v>1</v>
-      </c>
-      <c r="I43" s="111">
-        <v>1</v>
-      </c>
-      <c r="J43" s="111">
+      <c r="H43" s="114">
+        <v>1</v>
+      </c>
+      <c r="I43" s="114">
+        <v>1</v>
+      </c>
+      <c r="J43" s="114">
         <v>3</v>
       </c>
-      <c r="K43" s="111" t="s">
+      <c r="K43" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="L43" s="114"/>
-      <c r="M43" s="111" t="s">
+      <c r="L43" s="112"/>
+      <c r="M43" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="N43" s="111"/>
+      <c r="N43" s="114"/>
       <c r="O43" s="51" t="s">
         <v>169</v>
       </c>
@@ -9542,24 +9577,24 @@
       </c>
     </row>
     <row r="44" spans="1:22" s="27" customFormat="1">
-      <c r="A44" s="127"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="112"/>
-      <c r="D44" s="112"/>
-      <c r="E44" s="112"/>
+      <c r="A44" s="131"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="116"/>
+      <c r="E44" s="116"/>
       <c r="F44" s="10">
         <v>2</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H44" s="112"/>
-      <c r="I44" s="112"/>
-      <c r="J44" s="112"/>
-      <c r="K44" s="112"/>
-      <c r="L44" s="115"/>
-      <c r="M44" s="112"/>
-      <c r="N44" s="112"/>
+      <c r="H44" s="116"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="124"/>
+      <c r="M44" s="116"/>
+      <c r="N44" s="116"/>
       <c r="O44" s="52"/>
       <c r="P44" s="52"/>
       <c r="Q44" s="52"/>
@@ -9567,24 +9602,24 @@
       <c r="S44" s="52"/>
     </row>
     <row r="45" spans="1:22" s="27" customFormat="1">
-      <c r="A45" s="127"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
+      <c r="A45" s="131"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
       <c r="F45" s="10">
         <v>3</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="116"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="115"/>
+      <c r="K45" s="115"/>
+      <c r="L45" s="113"/>
+      <c r="M45" s="115"/>
+      <c r="N45" s="115"/>
       <c r="O45" s="53"/>
       <c r="P45" s="53"/>
       <c r="Q45" s="53"/>
@@ -9592,7 +9627,7 @@
       <c r="S45" s="53"/>
     </row>
     <row r="46" spans="1:22" s="27" customFormat="1">
-      <c r="A46" s="127"/>
+      <c r="A46" s="131"/>
       <c r="B46" s="10" t="s">
         <v>51</v>
       </c>
@@ -9638,8 +9673,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:22" s="27" customFormat="1" ht="18.75">
-      <c r="A47" s="127"/>
+    <row r="47" spans="1:22" s="27" customFormat="1" ht="19.5">
+      <c r="A47" s="131"/>
       <c r="B47" s="10" t="s">
         <v>51</v>
       </c>
@@ -9686,7 +9721,7 @@
       </c>
     </row>
     <row r="48" spans="1:22" s="27" customFormat="1">
-      <c r="A48" s="127"/>
+      <c r="A48" s="131"/>
       <c r="B48" s="10" t="s">
         <v>51</v>
       </c>
@@ -9733,7 +9768,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" s="27" customFormat="1">
-      <c r="A49" s="127"/>
+      <c r="A49" s="131"/>
       <c r="B49" s="10" t="s">
         <v>51</v>
       </c>
@@ -9779,8 +9814,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:23" s="27" customFormat="1" ht="18.75">
-      <c r="A50" s="127"/>
+    <row r="50" spans="1:23" s="27" customFormat="1" ht="19.5">
+      <c r="A50" s="131"/>
       <c r="B50" s="10" t="s">
         <v>51</v>
       </c>
@@ -9827,7 +9862,7 @@
       </c>
     </row>
     <row r="51" spans="1:23">
-      <c r="A51" s="126" t="s">
+      <c r="A51" s="125" t="s">
         <v>77</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -9866,7 +9901,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" s="16" customFormat="1">
-      <c r="A52" s="127"/>
+      <c r="A52" s="131"/>
       <c r="B52" s="17" t="s">
         <v>51</v>
       </c>
@@ -9919,7 +9954,7 @@
       <c r="W52" s="27"/>
     </row>
     <row r="53" spans="1:23" s="16" customFormat="1">
-      <c r="A53" s="127"/>
+      <c r="A53" s="131"/>
       <c r="B53" s="17" t="s">
         <v>51</v>
       </c>
@@ -9974,7 +10009,7 @@
       <c r="W53" s="27"/>
     </row>
     <row r="54" spans="1:23" s="16" customFormat="1">
-      <c r="A54" s="127"/>
+      <c r="A54" s="131"/>
       <c r="B54" s="17" t="s">
         <v>51</v>
       </c>
@@ -10029,7 +10064,7 @@
       <c r="W54" s="27"/>
     </row>
     <row r="55" spans="1:23">
-      <c r="A55" s="127"/>
+      <c r="A55" s="131"/>
       <c r="B55" s="1" t="s">
         <v>61</v>
       </c>
@@ -10078,7 +10113,7 @@
       </c>
     </row>
     <row r="56" spans="1:23" s="14" customFormat="1">
-      <c r="A56" s="127"/>
+      <c r="A56" s="131"/>
       <c r="B56" s="10" t="s">
         <v>51</v>
       </c>
@@ -10133,7 +10168,7 @@
       <c r="W56" s="27"/>
     </row>
     <row r="57" spans="1:23" s="14" customFormat="1">
-      <c r="A57" s="127"/>
+      <c r="A57" s="131"/>
       <c r="B57" s="10" t="s">
         <v>51</v>
       </c>
@@ -10188,7 +10223,7 @@
       <c r="W57" s="27"/>
     </row>
     <row r="58" spans="1:23">
-      <c r="A58" s="127"/>
+      <c r="A58" s="131"/>
       <c r="B58" s="1" t="s">
         <v>61</v>
       </c>
@@ -10237,7 +10272,7 @@
       </c>
     </row>
     <row r="59" spans="1:23" s="23" customFormat="1">
-      <c r="A59" s="127"/>
+      <c r="A59" s="131"/>
       <c r="B59" s="10" t="s">
         <v>51</v>
       </c>
@@ -10292,7 +10327,7 @@
       <c r="W59" s="27"/>
     </row>
     <row r="60" spans="1:23" s="23" customFormat="1">
-      <c r="A60" s="127"/>
+      <c r="A60" s="131"/>
       <c r="B60" s="10" t="s">
         <v>51</v>
       </c>
@@ -10346,8 +10381,8 @@
       <c r="V60" s="27"/>
       <c r="W60" s="27"/>
     </row>
-    <row r="61" spans="1:23" ht="18.75">
-      <c r="A61" s="127"/>
+    <row r="61" spans="1:23" ht="19.5">
+      <c r="A61" s="131"/>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
@@ -10394,7 +10429,7 @@
       </c>
     </row>
     <row r="62" spans="1:23">
-      <c r="A62" s="127"/>
+      <c r="A62" s="131"/>
       <c r="B62" s="1" t="s">
         <v>61</v>
       </c>
@@ -10441,7 +10476,7 @@
       </c>
     </row>
     <row r="63" spans="1:23">
-      <c r="A63" s="127"/>
+      <c r="A63" s="131"/>
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
@@ -10487,8 +10522,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="64" spans="1:23" ht="18.75">
-      <c r="A64" s="128"/>
+    <row r="64" spans="1:23" ht="19.5">
+      <c r="A64" s="126"/>
       <c r="B64" s="1" t="s">
         <v>61</v>
       </c>
@@ -10535,7 +10570,7 @@
       </c>
     </row>
     <row r="65" spans="1:23">
-      <c r="A65" s="126" t="s">
+      <c r="A65" s="125" t="s">
         <v>82</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -10574,7 +10609,7 @@
       </c>
     </row>
     <row r="66" spans="1:23" s="19" customFormat="1">
-      <c r="A66" s="127"/>
+      <c r="A66" s="131"/>
       <c r="B66" s="20" t="s">
         <v>51</v>
       </c>
@@ -10614,7 +10649,7 @@
       <c r="T66" s="27"/>
     </row>
     <row r="67" spans="1:23">
-      <c r="A67" s="127"/>
+      <c r="A67" s="131"/>
       <c r="B67" s="1" t="s">
         <v>51</v>
       </c>
@@ -10663,7 +10698,7 @@
       </c>
     </row>
     <row r="68" spans="1:23">
-      <c r="A68" s="127"/>
+      <c r="A68" s="131"/>
       <c r="B68" s="1" t="s">
         <v>51</v>
       </c>
@@ -10712,7 +10747,7 @@
       </c>
     </row>
     <row r="69" spans="1:23">
-      <c r="A69" s="127"/>
+      <c r="A69" s="131"/>
       <c r="B69" s="1" t="s">
         <v>51</v>
       </c>
@@ -10761,7 +10796,7 @@
       </c>
     </row>
     <row r="70" spans="1:23" s="16" customFormat="1">
-      <c r="A70" s="127"/>
+      <c r="A70" s="131"/>
       <c r="B70" s="10" t="s">
         <v>51</v>
       </c>
@@ -10814,7 +10849,7 @@
       <c r="W70" s="27"/>
     </row>
     <row r="71" spans="1:23" s="16" customFormat="1">
-      <c r="A71" s="127"/>
+      <c r="A71" s="131"/>
       <c r="B71" s="10" t="s">
         <v>51</v>
       </c>
@@ -10867,7 +10902,7 @@
       <c r="W71" s="27"/>
     </row>
     <row r="72" spans="1:23" s="19" customFormat="1">
-      <c r="A72" s="127"/>
+      <c r="A72" s="131"/>
       <c r="B72" s="20" t="s">
         <v>51</v>
       </c>
@@ -10907,7 +10942,7 @@
       <c r="T72" s="27"/>
     </row>
     <row r="73" spans="1:23" s="19" customFormat="1">
-      <c r="A73" s="128"/>
+      <c r="A73" s="126"/>
       <c r="B73" s="20" t="s">
         <v>51</v>
       </c>
@@ -10947,40 +10982,40 @@
       <c r="T73" s="27"/>
     </row>
     <row r="74" spans="1:23">
-      <c r="A74" s="132" t="s">
+      <c r="A74" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="B74" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="126"/>
-      <c r="D74" s="111" t="s">
+      <c r="B74" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="125"/>
+      <c r="D74" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="E74" s="126"/>
+      <c r="E74" s="125"/>
       <c r="F74" s="1">
         <v>1</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H74" s="126">
-        <v>1</v>
-      </c>
-      <c r="I74" s="111">
-        <v>1</v>
-      </c>
-      <c r="J74" s="111">
+      <c r="H74" s="125">
+        <v>1</v>
+      </c>
+      <c r="I74" s="114">
+        <v>1</v>
+      </c>
+      <c r="J74" s="114">
         <v>4</v>
       </c>
-      <c r="K74" s="126" t="s">
+      <c r="K74" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="L74" s="126"/>
-      <c r="M74" s="111" t="s">
+      <c r="L74" s="125"/>
+      <c r="M74" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="N74" s="126"/>
+      <c r="N74" s="125"/>
       <c r="O74" s="51" t="s">
         <v>169</v>
       </c>
@@ -10998,24 +11033,24 @@
       </c>
     </row>
     <row r="75" spans="1:23">
-      <c r="A75" s="127"/>
-      <c r="B75" s="127"/>
-      <c r="C75" s="127"/>
-      <c r="D75" s="112"/>
-      <c r="E75" s="127"/>
+      <c r="A75" s="131"/>
+      <c r="B75" s="131"/>
+      <c r="C75" s="131"/>
+      <c r="D75" s="116"/>
+      <c r="E75" s="131"/>
       <c r="F75" s="1">
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H75" s="127"/>
-      <c r="I75" s="112"/>
-      <c r="J75" s="112"/>
-      <c r="K75" s="127"/>
-      <c r="L75" s="127"/>
-      <c r="M75" s="112"/>
-      <c r="N75" s="127"/>
+      <c r="H75" s="131"/>
+      <c r="I75" s="116"/>
+      <c r="J75" s="116"/>
+      <c r="K75" s="131"/>
+      <c r="L75" s="131"/>
+      <c r="M75" s="116"/>
+      <c r="N75" s="131"/>
       <c r="O75" s="52"/>
       <c r="P75" s="52"/>
       <c r="Q75" s="52"/>
@@ -11023,24 +11058,24 @@
       <c r="S75" s="52"/>
     </row>
     <row r="76" spans="1:23" s="4" customFormat="1">
-      <c r="A76" s="127"/>
-      <c r="B76" s="127"/>
-      <c r="C76" s="127"/>
-      <c r="D76" s="112"/>
-      <c r="E76" s="127"/>
+      <c r="A76" s="131"/>
+      <c r="B76" s="131"/>
+      <c r="C76" s="131"/>
+      <c r="D76" s="116"/>
+      <c r="E76" s="131"/>
       <c r="F76" s="3">
         <v>3</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H76" s="127"/>
-      <c r="I76" s="112"/>
-      <c r="J76" s="112"/>
-      <c r="K76" s="127"/>
-      <c r="L76" s="127"/>
-      <c r="M76" s="112"/>
-      <c r="N76" s="127"/>
+      <c r="H76" s="131"/>
+      <c r="I76" s="116"/>
+      <c r="J76" s="116"/>
+      <c r="K76" s="131"/>
+      <c r="L76" s="131"/>
+      <c r="M76" s="116"/>
+      <c r="N76" s="131"/>
       <c r="O76" s="52"/>
       <c r="P76" s="52"/>
       <c r="Q76" s="52"/>
@@ -11052,24 +11087,24 @@
       <c r="W76" s="27"/>
     </row>
     <row r="77" spans="1:23">
-      <c r="A77" s="127"/>
-      <c r="B77" s="128"/>
-      <c r="C77" s="128"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="128"/>
+      <c r="A77" s="131"/>
+      <c r="B77" s="126"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="115"/>
+      <c r="E77" s="126"/>
       <c r="F77" s="10">
         <v>4</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H77" s="128"/>
-      <c r="I77" s="113"/>
-      <c r="J77" s="113"/>
-      <c r="K77" s="128"/>
-      <c r="L77" s="128"/>
-      <c r="M77" s="113"/>
-      <c r="N77" s="128"/>
+      <c r="H77" s="126"/>
+      <c r="I77" s="115"/>
+      <c r="J77" s="115"/>
+      <c r="K77" s="126"/>
+      <c r="L77" s="126"/>
+      <c r="M77" s="115"/>
+      <c r="N77" s="126"/>
       <c r="O77" s="53"/>
       <c r="P77" s="53"/>
       <c r="Q77" s="53"/>
@@ -11077,15 +11112,15 @@
       <c r="S77" s="53"/>
     </row>
     <row r="78" spans="1:23">
-      <c r="A78" s="127"/>
-      <c r="B78" s="126"/>
-      <c r="C78" s="126" t="s">
+      <c r="A78" s="131"/>
+      <c r="B78" s="125"/>
+      <c r="C78" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="D78" s="111" t="s">
+      <c r="D78" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="E78" s="111" t="s">
+      <c r="E78" s="114" t="s">
         <v>147</v>
       </c>
       <c r="F78" s="1">
@@ -11094,23 +11129,23 @@
       <c r="G78" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H78" s="126">
-        <v>1</v>
-      </c>
-      <c r="I78" s="111">
-        <v>1</v>
-      </c>
-      <c r="J78" s="111">
+      <c r="H78" s="125">
+        <v>1</v>
+      </c>
+      <c r="I78" s="114">
+        <v>1</v>
+      </c>
+      <c r="J78" s="114">
         <v>4</v>
       </c>
-      <c r="K78" s="126" t="s">
+      <c r="K78" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="L78" s="126"/>
-      <c r="M78" s="111" t="s">
+      <c r="L78" s="125"/>
+      <c r="M78" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="N78" s="126"/>
+      <c r="N78" s="125"/>
       <c r="O78" s="51" t="s">
         <v>169</v>
       </c>
@@ -11128,24 +11163,24 @@
       </c>
     </row>
     <row r="79" spans="1:23">
-      <c r="A79" s="127"/>
-      <c r="B79" s="127"/>
-      <c r="C79" s="127"/>
-      <c r="D79" s="112"/>
-      <c r="E79" s="112"/>
+      <c r="A79" s="131"/>
+      <c r="B79" s="131"/>
+      <c r="C79" s="131"/>
+      <c r="D79" s="116"/>
+      <c r="E79" s="116"/>
       <c r="F79" s="1">
         <v>2</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H79" s="127"/>
-      <c r="I79" s="112"/>
-      <c r="J79" s="112"/>
-      <c r="K79" s="127"/>
-      <c r="L79" s="127"/>
-      <c r="M79" s="112"/>
-      <c r="N79" s="127"/>
+      <c r="H79" s="131"/>
+      <c r="I79" s="116"/>
+      <c r="J79" s="116"/>
+      <c r="K79" s="131"/>
+      <c r="L79" s="131"/>
+      <c r="M79" s="116"/>
+      <c r="N79" s="131"/>
       <c r="O79" s="52"/>
       <c r="P79" s="52"/>
       <c r="Q79" s="52"/>
@@ -11153,24 +11188,24 @@
       <c r="S79" s="52"/>
     </row>
     <row r="80" spans="1:23">
-      <c r="A80" s="127"/>
-      <c r="B80" s="127"/>
-      <c r="C80" s="127"/>
-      <c r="D80" s="112"/>
-      <c r="E80" s="112"/>
+      <c r="A80" s="131"/>
+      <c r="B80" s="131"/>
+      <c r="C80" s="131"/>
+      <c r="D80" s="116"/>
+      <c r="E80" s="116"/>
       <c r="F80" s="1">
         <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H80" s="127"/>
-      <c r="I80" s="112"/>
-      <c r="J80" s="112"/>
-      <c r="K80" s="127"/>
-      <c r="L80" s="127"/>
-      <c r="M80" s="112"/>
-      <c r="N80" s="127"/>
+      <c r="H80" s="131"/>
+      <c r="I80" s="116"/>
+      <c r="J80" s="116"/>
+      <c r="K80" s="131"/>
+      <c r="L80" s="131"/>
+      <c r="M80" s="116"/>
+      <c r="N80" s="131"/>
       <c r="O80" s="52"/>
       <c r="P80" s="52"/>
       <c r="Q80" s="52"/>
@@ -11178,24 +11213,24 @@
       <c r="S80" s="52"/>
     </row>
     <row r="81" spans="1:19">
-      <c r="A81" s="127"/>
-      <c r="B81" s="128"/>
-      <c r="C81" s="128"/>
-      <c r="D81" s="113"/>
-      <c r="E81" s="113"/>
+      <c r="A81" s="131"/>
+      <c r="B81" s="126"/>
+      <c r="C81" s="126"/>
+      <c r="D81" s="115"/>
+      <c r="E81" s="115"/>
       <c r="F81" s="1">
         <v>4</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H81" s="128"/>
-      <c r="I81" s="113"/>
-      <c r="J81" s="113"/>
-      <c r="K81" s="128"/>
-      <c r="L81" s="128"/>
-      <c r="M81" s="113"/>
-      <c r="N81" s="128"/>
+      <c r="H81" s="126"/>
+      <c r="I81" s="115"/>
+      <c r="J81" s="115"/>
+      <c r="K81" s="126"/>
+      <c r="L81" s="126"/>
+      <c r="M81" s="115"/>
+      <c r="N81" s="126"/>
       <c r="O81" s="53"/>
       <c r="P81" s="53"/>
       <c r="Q81" s="53"/>
@@ -11203,7 +11238,7 @@
       <c r="S81" s="53"/>
     </row>
     <row r="82" spans="1:19">
-      <c r="A82" s="127"/>
+      <c r="A82" s="131"/>
       <c r="B82" s="1" t="s">
         <v>61</v>
       </c>
@@ -11248,7 +11283,7 @@
       </c>
     </row>
     <row r="83" spans="1:19">
-      <c r="A83" s="127"/>
+      <c r="A83" s="131"/>
       <c r="B83" s="1" t="s">
         <v>61</v>
       </c>
@@ -11293,7 +11328,7 @@
       </c>
     </row>
     <row r="84" spans="1:19">
-      <c r="A84" s="127"/>
+      <c r="A84" s="131"/>
       <c r="B84" s="1" t="s">
         <v>61</v>
       </c>
@@ -11337,8 +11372,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="85" spans="1:19" ht="18.75">
-      <c r="A85" s="127"/>
+    <row r="85" spans="1:19" ht="19.5">
+      <c r="A85" s="131"/>
       <c r="B85" s="1" t="s">
         <v>61</v>
       </c>
@@ -11384,8 +11419,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="86" spans="1:19" ht="18.75">
-      <c r="A86" s="127"/>
+    <row r="86" spans="1:19" ht="19.5">
+      <c r="A86" s="131"/>
       <c r="B86" s="1" t="s">
         <v>61</v>
       </c>
@@ -11431,8 +11466,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="87" spans="1:19" ht="18.75">
-      <c r="A87" s="127"/>
+    <row r="87" spans="1:19" ht="19.5">
+      <c r="A87" s="131"/>
       <c r="B87" s="1" t="s">
         <v>61</v>
       </c>
@@ -11476,8 +11511,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:19" ht="18.75">
-      <c r="A88" s="127"/>
+    <row r="88" spans="1:19" ht="19.5">
+      <c r="A88" s="131"/>
       <c r="B88" s="1" t="s">
         <v>61</v>
       </c>
@@ -11521,8 +11556,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="18.75">
-      <c r="A89" s="127"/>
+    <row r="89" spans="1:19" ht="19.5">
+      <c r="A89" s="131"/>
       <c r="B89" s="1" t="s">
         <v>61</v>
       </c>
@@ -11566,8 +11601,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="18.75">
-      <c r="A90" s="127"/>
+    <row r="90" spans="1:19" ht="19.5">
+      <c r="A90" s="131"/>
       <c r="B90" s="1" t="s">
         <v>61</v>
       </c>
@@ -11611,8 +11646,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="18.75">
-      <c r="A91" s="127"/>
+    <row r="91" spans="1:19" ht="19.5">
+      <c r="A91" s="131"/>
       <c r="B91" s="1" t="s">
         <v>61</v>
       </c>
@@ -11656,8 +11691,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="18.75">
-      <c r="A92" s="127"/>
+    <row r="92" spans="1:19" ht="19.5">
+      <c r="A92" s="131"/>
       <c r="B92" s="1" t="s">
         <v>61</v>
       </c>
@@ -11702,38 +11737,38 @@
       </c>
     </row>
     <row r="93" spans="1:19">
-      <c r="A93" s="127"/>
-      <c r="B93" s="126" t="s">
+      <c r="A93" s="131"/>
+      <c r="B93" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="C93" s="126"/>
-      <c r="D93" s="126" t="s">
+      <c r="C93" s="125"/>
+      <c r="D93" s="125" t="s">
         <v>113</v>
       </c>
-      <c r="E93" s="126"/>
+      <c r="E93" s="125"/>
       <c r="F93" s="1">
         <v>1</v>
       </c>
       <c r="G93" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H93" s="126">
-        <v>1</v>
-      </c>
-      <c r="I93" s="126">
-        <v>1</v>
-      </c>
-      <c r="J93" s="126">
+      <c r="H93" s="125">
+        <v>1</v>
+      </c>
+      <c r="I93" s="125">
+        <v>1</v>
+      </c>
+      <c r="J93" s="125">
         <v>2</v>
       </c>
-      <c r="K93" s="126" t="s">
+      <c r="K93" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="L93" s="126"/>
-      <c r="M93" s="126" t="s">
+      <c r="L93" s="125"/>
+      <c r="M93" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="N93" s="126"/>
+      <c r="N93" s="125"/>
       <c r="O93" s="56" t="s">
         <v>174</v>
       </c>
@@ -11743,24 +11778,24 @@
       <c r="S93" s="56"/>
     </row>
     <row r="94" spans="1:19">
-      <c r="A94" s="127"/>
-      <c r="B94" s="128"/>
-      <c r="C94" s="128"/>
-      <c r="D94" s="128"/>
-      <c r="E94" s="128"/>
+      <c r="A94" s="131"/>
+      <c r="B94" s="126"/>
+      <c r="C94" s="126"/>
+      <c r="D94" s="126"/>
+      <c r="E94" s="126"/>
       <c r="F94" s="1">
         <v>2</v>
       </c>
       <c r="G94" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H94" s="128"/>
-      <c r="I94" s="128"/>
-      <c r="J94" s="128"/>
-      <c r="K94" s="128"/>
-      <c r="L94" s="128"/>
-      <c r="M94" s="128"/>
-      <c r="N94" s="128"/>
+      <c r="H94" s="126"/>
+      <c r="I94" s="126"/>
+      <c r="J94" s="126"/>
+      <c r="K94" s="126"/>
+      <c r="L94" s="126"/>
+      <c r="M94" s="126"/>
+      <c r="N94" s="126"/>
       <c r="O94" s="55"/>
       <c r="P94" s="55"/>
       <c r="Q94" s="55"/>
@@ -11768,38 +11803,38 @@
       <c r="S94" s="55"/>
     </row>
     <row r="95" spans="1:19">
-      <c r="A95" s="127"/>
-      <c r="B95" s="126" t="s">
+      <c r="A95" s="131"/>
+      <c r="B95" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="126"/>
-      <c r="D95" s="126" t="s">
+      <c r="C95" s="125"/>
+      <c r="D95" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="E95" s="126"/>
+      <c r="E95" s="125"/>
       <c r="F95" s="1">
         <v>1</v>
       </c>
       <c r="G95" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H95" s="126">
+      <c r="H95" s="125">
         <v>2</v>
       </c>
-      <c r="I95" s="126">
-        <v>1</v>
-      </c>
-      <c r="J95" s="126">
+      <c r="I95" s="125">
+        <v>1</v>
+      </c>
+      <c r="J95" s="125">
         <v>2</v>
       </c>
-      <c r="K95" s="126" t="s">
+      <c r="K95" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="L95" s="126"/>
-      <c r="M95" s="126" t="s">
+      <c r="L95" s="125"/>
+      <c r="M95" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="N95" s="126"/>
+      <c r="N95" s="125"/>
       <c r="O95" s="56" t="s">
         <v>174</v>
       </c>
@@ -11809,24 +11844,24 @@
       <c r="S95" s="56"/>
     </row>
     <row r="96" spans="1:19">
-      <c r="A96" s="127"/>
-      <c r="B96" s="128"/>
-      <c r="C96" s="128"/>
-      <c r="D96" s="128"/>
-      <c r="E96" s="128"/>
+      <c r="A96" s="131"/>
+      <c r="B96" s="126"/>
+      <c r="C96" s="126"/>
+      <c r="D96" s="126"/>
+      <c r="E96" s="126"/>
       <c r="F96" s="1">
         <v>2</v>
       </c>
       <c r="G96" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H96" s="128"/>
-      <c r="I96" s="128"/>
-      <c r="J96" s="128"/>
-      <c r="K96" s="128"/>
-      <c r="L96" s="128"/>
-      <c r="M96" s="128"/>
-      <c r="N96" s="128"/>
+      <c r="H96" s="126"/>
+      <c r="I96" s="126"/>
+      <c r="J96" s="126"/>
+      <c r="K96" s="126"/>
+      <c r="L96" s="126"/>
+      <c r="M96" s="126"/>
+      <c r="N96" s="126"/>
       <c r="O96" s="55"/>
       <c r="P96" s="55"/>
       <c r="Q96" s="55"/>
@@ -11834,7 +11869,7 @@
       <c r="S96" s="55"/>
     </row>
     <row r="97" spans="1:19">
-      <c r="A97" s="128"/>
+      <c r="A97" s="126"/>
       <c r="B97" s="1" t="s">
         <v>61</v>
       </c>
@@ -11883,40 +11918,40 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="17.649999999999999" customHeight="1">
-      <c r="A98" s="132" t="s">
+      <c r="A98" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="B98" s="126" t="s">
+      <c r="B98" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="C98" s="126"/>
-      <c r="D98" s="126" t="s">
+      <c r="C98" s="125"/>
+      <c r="D98" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="E98" s="126"/>
+      <c r="E98" s="125"/>
       <c r="F98" s="1">
         <v>1</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H98" s="126">
-        <v>1</v>
-      </c>
-      <c r="I98" s="126">
-        <v>1</v>
-      </c>
-      <c r="J98" s="126">
+      <c r="H98" s="125">
+        <v>1</v>
+      </c>
+      <c r="I98" s="125">
+        <v>1</v>
+      </c>
+      <c r="J98" s="125">
         <v>3</v>
       </c>
-      <c r="K98" s="126" t="s">
+      <c r="K98" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="L98" s="126"/>
-      <c r="M98" s="126" t="s">
+      <c r="L98" s="125"/>
+      <c r="M98" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="N98" s="126"/>
+      <c r="N98" s="125"/>
       <c r="O98" s="51" t="s">
         <v>168</v>
       </c>
@@ -11934,24 +11969,24 @@
       </c>
     </row>
     <row r="99" spans="1:19">
-      <c r="A99" s="133"/>
-      <c r="B99" s="127"/>
-      <c r="C99" s="127"/>
-      <c r="D99" s="127"/>
-      <c r="E99" s="127"/>
+      <c r="A99" s="136"/>
+      <c r="B99" s="131"/>
+      <c r="C99" s="131"/>
+      <c r="D99" s="131"/>
+      <c r="E99" s="131"/>
       <c r="F99" s="1">
         <v>2</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H99" s="127"/>
-      <c r="I99" s="127"/>
-      <c r="J99" s="127"/>
-      <c r="K99" s="127"/>
-      <c r="L99" s="127"/>
-      <c r="M99" s="127"/>
-      <c r="N99" s="127"/>
+      <c r="H99" s="131"/>
+      <c r="I99" s="131"/>
+      <c r="J99" s="131"/>
+      <c r="K99" s="131"/>
+      <c r="L99" s="131"/>
+      <c r="M99" s="131"/>
+      <c r="N99" s="131"/>
       <c r="O99" s="52"/>
       <c r="P99" s="52"/>
       <c r="Q99" s="52"/>
@@ -11959,24 +11994,24 @@
       <c r="S99" s="52"/>
     </row>
     <row r="100" spans="1:19">
-      <c r="A100" s="133"/>
-      <c r="B100" s="128"/>
-      <c r="C100" s="128"/>
-      <c r="D100" s="128"/>
-      <c r="E100" s="128"/>
+      <c r="A100" s="136"/>
+      <c r="B100" s="126"/>
+      <c r="C100" s="126"/>
+      <c r="D100" s="126"/>
+      <c r="E100" s="126"/>
       <c r="F100" s="1">
         <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H100" s="128"/>
-      <c r="I100" s="128"/>
-      <c r="J100" s="128"/>
-      <c r="K100" s="128"/>
-      <c r="L100" s="128"/>
-      <c r="M100" s="128"/>
-      <c r="N100" s="128"/>
+      <c r="H100" s="126"/>
+      <c r="I100" s="126"/>
+      <c r="J100" s="126"/>
+      <c r="K100" s="126"/>
+      <c r="L100" s="126"/>
+      <c r="M100" s="126"/>
+      <c r="N100" s="126"/>
       <c r="O100" s="53"/>
       <c r="P100" s="53"/>
       <c r="Q100" s="53"/>
@@ -11984,15 +12019,15 @@
       <c r="S100" s="53"/>
     </row>
     <row r="101" spans="1:19">
-      <c r="A101" s="133"/>
-      <c r="B101" s="126"/>
-      <c r="C101" s="126" t="s">
+      <c r="A101" s="136"/>
+      <c r="B101" s="125"/>
+      <c r="C101" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="D101" s="126" t="s">
+      <c r="D101" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="126" t="s">
+      <c r="E101" s="125" t="s">
         <v>119</v>
       </c>
       <c r="F101" s="1">
@@ -12001,21 +12036,21 @@
       <c r="G101" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H101" s="126"/>
-      <c r="I101" s="126">
-        <v>1</v>
-      </c>
-      <c r="J101" s="126">
+      <c r="H101" s="125"/>
+      <c r="I101" s="125">
+        <v>1</v>
+      </c>
+      <c r="J101" s="125">
         <v>4</v>
       </c>
-      <c r="K101" s="126" t="s">
+      <c r="K101" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="L101" s="126"/>
-      <c r="M101" s="126" t="s">
+      <c r="L101" s="125"/>
+      <c r="M101" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="N101" s="126"/>
+      <c r="N101" s="125"/>
       <c r="O101" s="51" t="s">
         <v>168</v>
       </c>
@@ -12033,24 +12068,24 @@
       </c>
     </row>
     <row r="102" spans="1:19">
-      <c r="A102" s="133"/>
-      <c r="B102" s="127"/>
-      <c r="C102" s="127"/>
-      <c r="D102" s="127"/>
-      <c r="E102" s="127"/>
+      <c r="A102" s="136"/>
+      <c r="B102" s="131"/>
+      <c r="C102" s="131"/>
+      <c r="D102" s="131"/>
+      <c r="E102" s="131"/>
       <c r="F102" s="1">
         <v>2</v>
       </c>
       <c r="G102" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H102" s="127"/>
-      <c r="I102" s="127"/>
-      <c r="J102" s="127"/>
-      <c r="K102" s="127"/>
-      <c r="L102" s="127"/>
-      <c r="M102" s="127"/>
-      <c r="N102" s="127"/>
+      <c r="H102" s="131"/>
+      <c r="I102" s="131"/>
+      <c r="J102" s="131"/>
+      <c r="K102" s="131"/>
+      <c r="L102" s="131"/>
+      <c r="M102" s="131"/>
+      <c r="N102" s="131"/>
       <c r="O102" s="52"/>
       <c r="P102" s="52"/>
       <c r="Q102" s="52"/>
@@ -12058,24 +12093,24 @@
       <c r="S102" s="52"/>
     </row>
     <row r="103" spans="1:19">
-      <c r="A103" s="133"/>
-      <c r="B103" s="127"/>
-      <c r="C103" s="127"/>
-      <c r="D103" s="127"/>
-      <c r="E103" s="127"/>
+      <c r="A103" s="136"/>
+      <c r="B103" s="131"/>
+      <c r="C103" s="131"/>
+      <c r="D103" s="131"/>
+      <c r="E103" s="131"/>
       <c r="F103" s="1">
         <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H103" s="127"/>
-      <c r="I103" s="127"/>
-      <c r="J103" s="127"/>
-      <c r="K103" s="127"/>
-      <c r="L103" s="127"/>
-      <c r="M103" s="127"/>
-      <c r="N103" s="127"/>
+      <c r="H103" s="131"/>
+      <c r="I103" s="131"/>
+      <c r="J103" s="131"/>
+      <c r="K103" s="131"/>
+      <c r="L103" s="131"/>
+      <c r="M103" s="131"/>
+      <c r="N103" s="131"/>
       <c r="O103" s="52"/>
       <c r="P103" s="52"/>
       <c r="Q103" s="52"/>
@@ -12083,24 +12118,24 @@
       <c r="S103" s="52"/>
     </row>
     <row r="104" spans="1:19">
-      <c r="A104" s="133"/>
-      <c r="B104" s="128"/>
-      <c r="C104" s="128"/>
-      <c r="D104" s="128"/>
-      <c r="E104" s="128"/>
+      <c r="A104" s="136"/>
+      <c r="B104" s="126"/>
+      <c r="C104" s="126"/>
+      <c r="D104" s="126"/>
+      <c r="E104" s="126"/>
       <c r="F104" s="1">
         <v>4</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H104" s="128"/>
-      <c r="I104" s="128"/>
-      <c r="J104" s="128"/>
-      <c r="K104" s="128"/>
-      <c r="L104" s="128"/>
-      <c r="M104" s="128"/>
-      <c r="N104" s="128"/>
+      <c r="H104" s="126"/>
+      <c r="I104" s="126"/>
+      <c r="J104" s="126"/>
+      <c r="K104" s="126"/>
+      <c r="L104" s="126"/>
+      <c r="M104" s="126"/>
+      <c r="N104" s="126"/>
       <c r="O104" s="53"/>
       <c r="P104" s="53"/>
       <c r="Q104" s="53"/>
@@ -12108,38 +12143,38 @@
       <c r="S104" s="53"/>
     </row>
     <row r="105" spans="1:19">
-      <c r="A105" s="133"/>
-      <c r="B105" s="126" t="s">
+      <c r="A105" s="136"/>
+      <c r="B105" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="C105" s="126"/>
-      <c r="D105" s="126" t="s">
+      <c r="C105" s="125"/>
+      <c r="D105" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="E105" s="126"/>
+      <c r="E105" s="125"/>
       <c r="F105" s="1">
         <v>1</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H105" s="126">
+      <c r="H105" s="125">
         <v>3</v>
       </c>
-      <c r="I105" s="126">
-        <v>1</v>
-      </c>
-      <c r="J105" s="126">
+      <c r="I105" s="125">
+        <v>1</v>
+      </c>
+      <c r="J105" s="125">
         <v>3</v>
       </c>
-      <c r="K105" s="126" t="s">
+      <c r="K105" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="L105" s="126"/>
-      <c r="M105" s="126" t="s">
+      <c r="L105" s="125"/>
+      <c r="M105" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="N105" s="126"/>
+      <c r="N105" s="125"/>
       <c r="O105" s="51" t="s">
         <v>168</v>
       </c>
@@ -12157,24 +12192,24 @@
       </c>
     </row>
     <row r="106" spans="1:19">
-      <c r="A106" s="133"/>
-      <c r="B106" s="127"/>
-      <c r="C106" s="127"/>
-      <c r="D106" s="127"/>
-      <c r="E106" s="127"/>
+      <c r="A106" s="136"/>
+      <c r="B106" s="131"/>
+      <c r="C106" s="131"/>
+      <c r="D106" s="131"/>
+      <c r="E106" s="131"/>
       <c r="F106" s="1">
         <v>2</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H106" s="127"/>
-      <c r="I106" s="127"/>
-      <c r="J106" s="127"/>
-      <c r="K106" s="127"/>
-      <c r="L106" s="127"/>
-      <c r="M106" s="127"/>
-      <c r="N106" s="127"/>
+      <c r="H106" s="131"/>
+      <c r="I106" s="131"/>
+      <c r="J106" s="131"/>
+      <c r="K106" s="131"/>
+      <c r="L106" s="131"/>
+      <c r="M106" s="131"/>
+      <c r="N106" s="131"/>
       <c r="O106" s="52"/>
       <c r="P106" s="52"/>
       <c r="Q106" s="52"/>
@@ -12182,24 +12217,24 @@
       <c r="S106" s="52"/>
     </row>
     <row r="107" spans="1:19">
-      <c r="A107" s="133"/>
-      <c r="B107" s="128"/>
-      <c r="C107" s="128"/>
-      <c r="D107" s="128"/>
-      <c r="E107" s="128"/>
+      <c r="A107" s="136"/>
+      <c r="B107" s="126"/>
+      <c r="C107" s="126"/>
+      <c r="D107" s="126"/>
+      <c r="E107" s="126"/>
       <c r="F107" s="1">
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H107" s="128"/>
-      <c r="I107" s="128"/>
-      <c r="J107" s="128"/>
-      <c r="K107" s="128"/>
-      <c r="L107" s="128"/>
-      <c r="M107" s="128"/>
-      <c r="N107" s="128"/>
+      <c r="H107" s="126"/>
+      <c r="I107" s="126"/>
+      <c r="J107" s="126"/>
+      <c r="K107" s="126"/>
+      <c r="L107" s="126"/>
+      <c r="M107" s="126"/>
+      <c r="N107" s="126"/>
       <c r="O107" s="53"/>
       <c r="P107" s="53"/>
       <c r="Q107" s="53"/>
@@ -12207,15 +12242,15 @@
       <c r="S107" s="53"/>
     </row>
     <row r="108" spans="1:19">
-      <c r="A108" s="133"/>
-      <c r="B108" s="126"/>
-      <c r="C108" s="126" t="s">
+      <c r="A108" s="136"/>
+      <c r="B108" s="125"/>
+      <c r="C108" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="D108" s="126" t="s">
+      <c r="D108" s="125" t="s">
         <v>121</v>
       </c>
-      <c r="E108" s="126" t="s">
+      <c r="E108" s="125" t="s">
         <v>122</v>
       </c>
       <c r="F108" s="1">
@@ -12224,21 +12259,21 @@
       <c r="G108" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H108" s="126"/>
-      <c r="I108" s="126">
-        <v>1</v>
-      </c>
-      <c r="J108" s="126">
+      <c r="H108" s="125"/>
+      <c r="I108" s="125">
+        <v>1</v>
+      </c>
+      <c r="J108" s="125">
         <v>4</v>
       </c>
-      <c r="K108" s="126" t="s">
+      <c r="K108" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="L108" s="126"/>
-      <c r="M108" s="126" t="s">
+      <c r="L108" s="125"/>
+      <c r="M108" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="N108" s="126"/>
+      <c r="N108" s="125"/>
       <c r="O108" s="51" t="s">
         <v>168</v>
       </c>
@@ -12256,24 +12291,24 @@
       </c>
     </row>
     <row r="109" spans="1:19">
-      <c r="A109" s="133"/>
-      <c r="B109" s="127"/>
-      <c r="C109" s="127"/>
-      <c r="D109" s="127"/>
-      <c r="E109" s="127"/>
+      <c r="A109" s="136"/>
+      <c r="B109" s="131"/>
+      <c r="C109" s="131"/>
+      <c r="D109" s="131"/>
+      <c r="E109" s="131"/>
       <c r="F109" s="1">
         <v>2</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H109" s="127"/>
-      <c r="I109" s="127"/>
-      <c r="J109" s="127"/>
-      <c r="K109" s="127"/>
-      <c r="L109" s="127"/>
-      <c r="M109" s="127"/>
-      <c r="N109" s="127"/>
+      <c r="H109" s="131"/>
+      <c r="I109" s="131"/>
+      <c r="J109" s="131"/>
+      <c r="K109" s="131"/>
+      <c r="L109" s="131"/>
+      <c r="M109" s="131"/>
+      <c r="N109" s="131"/>
       <c r="O109" s="52"/>
       <c r="P109" s="52"/>
       <c r="Q109" s="52"/>
@@ -12281,24 +12316,24 @@
       <c r="S109" s="52"/>
     </row>
     <row r="110" spans="1:19">
-      <c r="A110" s="133"/>
-      <c r="B110" s="127"/>
-      <c r="C110" s="127"/>
-      <c r="D110" s="127"/>
-      <c r="E110" s="127"/>
+      <c r="A110" s="136"/>
+      <c r="B110" s="131"/>
+      <c r="C110" s="131"/>
+      <c r="D110" s="131"/>
+      <c r="E110" s="131"/>
       <c r="F110" s="1">
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H110" s="127"/>
-      <c r="I110" s="127"/>
-      <c r="J110" s="127"/>
-      <c r="K110" s="127"/>
-      <c r="L110" s="127"/>
-      <c r="M110" s="127"/>
-      <c r="N110" s="127"/>
+      <c r="H110" s="131"/>
+      <c r="I110" s="131"/>
+      <c r="J110" s="131"/>
+      <c r="K110" s="131"/>
+      <c r="L110" s="131"/>
+      <c r="M110" s="131"/>
+      <c r="N110" s="131"/>
       <c r="O110" s="52"/>
       <c r="P110" s="52"/>
       <c r="Q110" s="52"/>
@@ -12306,32 +12341,32 @@
       <c r="S110" s="52"/>
     </row>
     <row r="111" spans="1:19">
-      <c r="A111" s="133"/>
-      <c r="B111" s="128"/>
-      <c r="C111" s="128"/>
-      <c r="D111" s="128"/>
-      <c r="E111" s="128"/>
+      <c r="A111" s="136"/>
+      <c r="B111" s="126"/>
+      <c r="C111" s="126"/>
+      <c r="D111" s="126"/>
+      <c r="E111" s="126"/>
       <c r="F111" s="1">
         <v>4</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H111" s="128"/>
-      <c r="I111" s="128"/>
-      <c r="J111" s="128"/>
-      <c r="K111" s="128"/>
-      <c r="L111" s="128"/>
-      <c r="M111" s="128"/>
-      <c r="N111" s="128"/>
+      <c r="H111" s="126"/>
+      <c r="I111" s="126"/>
+      <c r="J111" s="126"/>
+      <c r="K111" s="126"/>
+      <c r="L111" s="126"/>
+      <c r="M111" s="126"/>
+      <c r="N111" s="126"/>
       <c r="O111" s="53"/>
       <c r="P111" s="53"/>
       <c r="Q111" s="53"/>
       <c r="R111" s="53"/>
       <c r="S111" s="53"/>
     </row>
-    <row r="112" spans="1:19" ht="18.75">
-      <c r="A112" s="133"/>
+    <row r="112" spans="1:19" ht="19.5">
+      <c r="A112" s="136"/>
       <c r="B112" s="1" t="s">
         <v>61</v>
       </c>
@@ -12375,8 +12410,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="113" spans="1:23" ht="18.75">
-      <c r="A113" s="133"/>
+    <row r="113" spans="1:23" ht="19.5">
+      <c r="A113" s="136"/>
       <c r="B113" s="1" t="s">
         <v>61</v>
       </c>
@@ -12420,8 +12455,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:23" ht="18.75">
-      <c r="A114" s="134"/>
+    <row r="114" spans="1:23" ht="19.5">
+      <c r="A114" s="137"/>
       <c r="B114" s="1" t="s">
         <v>61</v>
       </c>
@@ -12466,40 +12501,40 @@
       </c>
     </row>
     <row r="115" spans="1:23">
-      <c r="A115" s="132" t="s">
+      <c r="A115" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="B115" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="C115" s="126"/>
-      <c r="D115" s="111" t="s">
+      <c r="B115" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="C115" s="125"/>
+      <c r="D115" s="114" t="s">
         <v>137</v>
       </c>
-      <c r="E115" s="126"/>
+      <c r="E115" s="125"/>
       <c r="F115" s="1">
         <v>1</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H115" s="126">
-        <v>1</v>
-      </c>
-      <c r="I115" s="111">
-        <v>1</v>
-      </c>
-      <c r="J115" s="111">
+      <c r="H115" s="125">
+        <v>1</v>
+      </c>
+      <c r="I115" s="114">
+        <v>1</v>
+      </c>
+      <c r="J115" s="114">
         <v>4</v>
       </c>
-      <c r="K115" s="126" t="s">
+      <c r="K115" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="L115" s="126"/>
-      <c r="M115" s="111" t="s">
+      <c r="L115" s="125"/>
+      <c r="M115" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="N115" s="126"/>
+      <c r="N115" s="125"/>
       <c r="O115" s="51" t="s">
         <v>169</v>
       </c>
@@ -12517,24 +12552,24 @@
       </c>
     </row>
     <row r="116" spans="1:23">
-      <c r="A116" s="127"/>
-      <c r="B116" s="127"/>
-      <c r="C116" s="127"/>
-      <c r="D116" s="112"/>
-      <c r="E116" s="127"/>
+      <c r="A116" s="131"/>
+      <c r="B116" s="131"/>
+      <c r="C116" s="131"/>
+      <c r="D116" s="116"/>
+      <c r="E116" s="131"/>
       <c r="F116" s="1">
         <v>2</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H116" s="127"/>
-      <c r="I116" s="112"/>
-      <c r="J116" s="112"/>
-      <c r="K116" s="127"/>
-      <c r="L116" s="127"/>
-      <c r="M116" s="112"/>
-      <c r="N116" s="127"/>
+      <c r="H116" s="131"/>
+      <c r="I116" s="116"/>
+      <c r="J116" s="116"/>
+      <c r="K116" s="131"/>
+      <c r="L116" s="131"/>
+      <c r="M116" s="116"/>
+      <c r="N116" s="131"/>
       <c r="O116" s="52"/>
       <c r="P116" s="52"/>
       <c r="Q116" s="52"/>
@@ -12542,24 +12577,24 @@
       <c r="S116" s="52"/>
     </row>
     <row r="117" spans="1:23" s="7" customFormat="1">
-      <c r="A117" s="127"/>
-      <c r="B117" s="127"/>
-      <c r="C117" s="127"/>
-      <c r="D117" s="112"/>
-      <c r="E117" s="127"/>
+      <c r="A117" s="131"/>
+      <c r="B117" s="131"/>
+      <c r="C117" s="131"/>
+      <c r="D117" s="116"/>
+      <c r="E117" s="131"/>
       <c r="F117" s="6">
         <v>3</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H117" s="127"/>
-      <c r="I117" s="112"/>
-      <c r="J117" s="112"/>
-      <c r="K117" s="127"/>
-      <c r="L117" s="127"/>
-      <c r="M117" s="112"/>
-      <c r="N117" s="127"/>
+      <c r="H117" s="131"/>
+      <c r="I117" s="116"/>
+      <c r="J117" s="116"/>
+      <c r="K117" s="131"/>
+      <c r="L117" s="131"/>
+      <c r="M117" s="116"/>
+      <c r="N117" s="131"/>
       <c r="O117" s="52"/>
       <c r="P117" s="52"/>
       <c r="Q117" s="52"/>
@@ -12571,24 +12606,24 @@
       <c r="W117" s="27"/>
     </row>
     <row r="118" spans="1:23">
-      <c r="A118" s="127"/>
-      <c r="B118" s="128"/>
-      <c r="C118" s="128"/>
-      <c r="D118" s="113"/>
-      <c r="E118" s="128"/>
+      <c r="A118" s="131"/>
+      <c r="B118" s="126"/>
+      <c r="C118" s="126"/>
+      <c r="D118" s="115"/>
+      <c r="E118" s="126"/>
       <c r="F118" s="10">
         <v>4</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H118" s="128"/>
-      <c r="I118" s="113"/>
-      <c r="J118" s="113"/>
-      <c r="K118" s="128"/>
-      <c r="L118" s="128"/>
-      <c r="M118" s="113"/>
-      <c r="N118" s="128"/>
+      <c r="H118" s="126"/>
+      <c r="I118" s="115"/>
+      <c r="J118" s="115"/>
+      <c r="K118" s="126"/>
+      <c r="L118" s="126"/>
+      <c r="M118" s="115"/>
+      <c r="N118" s="126"/>
       <c r="O118" s="53"/>
       <c r="P118" s="53"/>
       <c r="Q118" s="53"/>
@@ -12596,15 +12631,15 @@
       <c r="S118" s="53"/>
     </row>
     <row r="119" spans="1:23">
-      <c r="A119" s="127"/>
-      <c r="B119" s="126"/>
-      <c r="C119" s="126" t="s">
+      <c r="A119" s="131"/>
+      <c r="B119" s="125"/>
+      <c r="C119" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="D119" s="111" t="s">
+      <c r="D119" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="E119" s="111" t="s">
+      <c r="E119" s="114" t="s">
         <v>147</v>
       </c>
       <c r="F119" s="1">
@@ -12613,23 +12648,23 @@
       <c r="G119" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H119" s="126">
-        <v>1</v>
-      </c>
-      <c r="I119" s="111">
-        <v>1</v>
-      </c>
-      <c r="J119" s="111">
+      <c r="H119" s="125">
+        <v>1</v>
+      </c>
+      <c r="I119" s="114">
+        <v>1</v>
+      </c>
+      <c r="J119" s="114">
         <v>4</v>
       </c>
-      <c r="K119" s="126" t="s">
+      <c r="K119" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="L119" s="126"/>
-      <c r="M119" s="111" t="s">
+      <c r="L119" s="125"/>
+      <c r="M119" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="N119" s="126"/>
+      <c r="N119" s="125"/>
       <c r="O119" s="51" t="s">
         <v>169</v>
       </c>
@@ -12647,24 +12682,24 @@
       </c>
     </row>
     <row r="120" spans="1:23">
-      <c r="A120" s="127"/>
-      <c r="B120" s="127"/>
-      <c r="C120" s="127"/>
-      <c r="D120" s="112"/>
-      <c r="E120" s="112"/>
+      <c r="A120" s="131"/>
+      <c r="B120" s="131"/>
+      <c r="C120" s="131"/>
+      <c r="D120" s="116"/>
+      <c r="E120" s="116"/>
       <c r="F120" s="1">
         <v>2</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H120" s="127"/>
-      <c r="I120" s="112"/>
-      <c r="J120" s="112"/>
-      <c r="K120" s="127"/>
-      <c r="L120" s="127"/>
-      <c r="M120" s="112"/>
-      <c r="N120" s="127"/>
+      <c r="H120" s="131"/>
+      <c r="I120" s="116"/>
+      <c r="J120" s="116"/>
+      <c r="K120" s="131"/>
+      <c r="L120" s="131"/>
+      <c r="M120" s="116"/>
+      <c r="N120" s="131"/>
       <c r="O120" s="52"/>
       <c r="P120" s="52"/>
       <c r="Q120" s="52"/>
@@ -12672,24 +12707,24 @@
       <c r="S120" s="52"/>
     </row>
     <row r="121" spans="1:23">
-      <c r="A121" s="127"/>
-      <c r="B121" s="127"/>
-      <c r="C121" s="127"/>
-      <c r="D121" s="112"/>
-      <c r="E121" s="112"/>
+      <c r="A121" s="131"/>
+      <c r="B121" s="131"/>
+      <c r="C121" s="131"/>
+      <c r="D121" s="116"/>
+      <c r="E121" s="116"/>
       <c r="F121" s="1">
         <v>3</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H121" s="127"/>
-      <c r="I121" s="112"/>
-      <c r="J121" s="112"/>
-      <c r="K121" s="127"/>
-      <c r="L121" s="127"/>
-      <c r="M121" s="112"/>
-      <c r="N121" s="127"/>
+      <c r="H121" s="131"/>
+      <c r="I121" s="116"/>
+      <c r="J121" s="116"/>
+      <c r="K121" s="131"/>
+      <c r="L121" s="131"/>
+      <c r="M121" s="116"/>
+      <c r="N121" s="131"/>
       <c r="O121" s="52"/>
       <c r="P121" s="52"/>
       <c r="Q121" s="52"/>
@@ -12697,24 +12732,24 @@
       <c r="S121" s="52"/>
     </row>
     <row r="122" spans="1:23">
-      <c r="A122" s="127"/>
-      <c r="B122" s="128"/>
-      <c r="C122" s="128"/>
-      <c r="D122" s="113"/>
-      <c r="E122" s="113"/>
+      <c r="A122" s="131"/>
+      <c r="B122" s="126"/>
+      <c r="C122" s="126"/>
+      <c r="D122" s="115"/>
+      <c r="E122" s="115"/>
       <c r="F122" s="1">
         <v>4</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H122" s="128"/>
-      <c r="I122" s="113"/>
-      <c r="J122" s="113"/>
-      <c r="K122" s="128"/>
-      <c r="L122" s="128"/>
-      <c r="M122" s="113"/>
-      <c r="N122" s="128"/>
+      <c r="H122" s="126"/>
+      <c r="I122" s="115"/>
+      <c r="J122" s="115"/>
+      <c r="K122" s="126"/>
+      <c r="L122" s="126"/>
+      <c r="M122" s="115"/>
+      <c r="N122" s="126"/>
       <c r="O122" s="53"/>
       <c r="P122" s="53"/>
       <c r="Q122" s="53"/>
@@ -12722,38 +12757,38 @@
       <c r="S122" s="53"/>
     </row>
     <row r="123" spans="1:23">
-      <c r="A123" s="127"/>
-      <c r="B123" s="126" t="s">
+      <c r="A123" s="131"/>
+      <c r="B123" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="C123" s="126"/>
-      <c r="D123" s="126" t="s">
+      <c r="C123" s="125"/>
+      <c r="D123" s="125" t="s">
         <v>126</v>
       </c>
-      <c r="E123" s="126"/>
+      <c r="E123" s="125"/>
       <c r="F123" s="1">
         <v>1</v>
       </c>
       <c r="G123" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H123" s="126">
-        <v>1</v>
-      </c>
-      <c r="I123" s="126">
-        <v>1</v>
-      </c>
-      <c r="J123" s="126">
+      <c r="H123" s="125">
+        <v>1</v>
+      </c>
+      <c r="I123" s="125">
+        <v>1</v>
+      </c>
+      <c r="J123" s="125">
         <v>2</v>
       </c>
-      <c r="K123" s="126" t="s">
+      <c r="K123" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="L123" s="126"/>
-      <c r="M123" s="126" t="s">
+      <c r="L123" s="125"/>
+      <c r="M123" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="N123" s="126"/>
+      <c r="N123" s="125"/>
       <c r="O123" s="51" t="s">
         <v>51</v>
       </c>
@@ -12771,24 +12806,24 @@
       </c>
     </row>
     <row r="124" spans="1:23">
-      <c r="A124" s="127"/>
-      <c r="B124" s="128"/>
-      <c r="C124" s="128"/>
-      <c r="D124" s="128"/>
-      <c r="E124" s="128"/>
+      <c r="A124" s="131"/>
+      <c r="B124" s="126"/>
+      <c r="C124" s="126"/>
+      <c r="D124" s="126"/>
+      <c r="E124" s="126"/>
       <c r="F124" s="1">
         <v>2</v>
       </c>
       <c r="G124" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H124" s="128"/>
-      <c r="I124" s="128"/>
-      <c r="J124" s="128"/>
-      <c r="K124" s="128"/>
-      <c r="L124" s="128"/>
-      <c r="M124" s="128"/>
-      <c r="N124" s="128"/>
+      <c r="H124" s="126"/>
+      <c r="I124" s="126"/>
+      <c r="J124" s="126"/>
+      <c r="K124" s="126"/>
+      <c r="L124" s="126"/>
+      <c r="M124" s="126"/>
+      <c r="N124" s="126"/>
       <c r="O124" s="53"/>
       <c r="P124" s="53"/>
       <c r="Q124" s="53"/>
@@ -12796,12 +12831,12 @@
       <c r="S124" s="53"/>
     </row>
     <row r="125" spans="1:23" s="11" customFormat="1">
-      <c r="A125" s="127"/>
-      <c r="B125" s="120" t="s">
+      <c r="A125" s="131"/>
+      <c r="B125" s="122" t="s">
         <v>51</v>
       </c>
       <c r="C125" s="12"/>
-      <c r="D125" s="117" t="s">
+      <c r="D125" s="119" t="s">
         <v>150</v>
       </c>
       <c r="E125" s="12"/>
@@ -12811,20 +12846,20 @@
       <c r="G125" s="10" t="b">
         <v>1</v>
       </c>
-      <c r="H125" s="111">
-        <v>1</v>
-      </c>
-      <c r="I125" s="111">
-        <v>1</v>
-      </c>
-      <c r="J125" s="111">
+      <c r="H125" s="114">
+        <v>1</v>
+      </c>
+      <c r="I125" s="114">
+        <v>1</v>
+      </c>
+      <c r="J125" s="114">
         <v>2</v>
       </c>
-      <c r="K125" s="111" t="s">
+      <c r="K125" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="L125" s="126"/>
-      <c r="M125" s="126" t="s">
+      <c r="L125" s="125"/>
+      <c r="M125" s="125" t="s">
         <v>38</v>
       </c>
       <c r="N125" s="12"/>
@@ -12849,10 +12884,10 @@
       <c r="W125" s="27"/>
     </row>
     <row r="126" spans="1:23" s="11" customFormat="1">
-      <c r="A126" s="127"/>
-      <c r="B126" s="122"/>
+      <c r="A126" s="131"/>
+      <c r="B126" s="130"/>
       <c r="C126" s="12"/>
-      <c r="D126" s="119"/>
+      <c r="D126" s="121"/>
       <c r="E126" s="12"/>
       <c r="F126" s="10">
         <v>2</v>
@@ -12860,12 +12895,12 @@
       <c r="G126" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H126" s="113"/>
-      <c r="I126" s="113"/>
-      <c r="J126" s="113"/>
-      <c r="K126" s="113"/>
-      <c r="L126" s="128"/>
-      <c r="M126" s="128"/>
+      <c r="H126" s="115"/>
+      <c r="I126" s="115"/>
+      <c r="J126" s="115"/>
+      <c r="K126" s="115"/>
+      <c r="L126" s="126"/>
+      <c r="M126" s="126"/>
       <c r="N126" s="12"/>
       <c r="O126" s="53"/>
       <c r="P126" s="53"/>
@@ -12878,15 +12913,15 @@
       <c r="W126" s="27"/>
     </row>
     <row r="127" spans="1:23">
-      <c r="A127" s="127"/>
-      <c r="B127" s="126" t="s">
+      <c r="A127" s="131"/>
+      <c r="B127" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="C127" s="126"/>
-      <c r="D127" s="136" t="s">
+      <c r="C127" s="125"/>
+      <c r="D127" s="133" t="s">
         <v>186</v>
       </c>
-      <c r="E127" s="135" t="s">
+      <c r="E127" s="132" t="s">
         <v>145</v>
       </c>
       <c r="F127" s="1">
@@ -12895,20 +12930,20 @@
       <c r="G127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H127" s="126">
+      <c r="H127" s="125">
         <v>2</v>
       </c>
-      <c r="I127" s="126">
-        <v>1</v>
-      </c>
-      <c r="J127" s="111">
+      <c r="I127" s="125">
+        <v>1</v>
+      </c>
+      <c r="J127" s="114">
         <v>15</v>
       </c>
-      <c r="K127" s="126" t="s">
+      <c r="K127" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="L127" s="126"/>
-      <c r="M127" s="126" t="s">
+      <c r="L127" s="125"/>
+      <c r="M127" s="125" t="s">
         <v>74</v>
       </c>
       <c r="N127" s="8" t="s">
@@ -12931,23 +12966,23 @@
       </c>
     </row>
     <row r="128" spans="1:23">
-      <c r="A128" s="127"/>
-      <c r="B128" s="127"/>
-      <c r="C128" s="127"/>
-      <c r="D128" s="136"/>
-      <c r="E128" s="135"/>
+      <c r="A128" s="131"/>
+      <c r="B128" s="131"/>
+      <c r="C128" s="131"/>
+      <c r="D128" s="133"/>
+      <c r="E128" s="132"/>
       <c r="F128" s="1">
         <v>2</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H128" s="127"/>
-      <c r="I128" s="127"/>
-      <c r="J128" s="112"/>
-      <c r="K128" s="127"/>
-      <c r="L128" s="127"/>
-      <c r="M128" s="127"/>
+      <c r="H128" s="131"/>
+      <c r="I128" s="131"/>
+      <c r="J128" s="116"/>
+      <c r="K128" s="131"/>
+      <c r="L128" s="131"/>
+      <c r="M128" s="131"/>
       <c r="N128" s="9" t="s">
         <v>142</v>
       </c>
@@ -12968,23 +13003,23 @@
       </c>
     </row>
     <row r="129" spans="1:23">
-      <c r="A129" s="127"/>
-      <c r="B129" s="127"/>
-      <c r="C129" s="127"/>
-      <c r="D129" s="136"/>
-      <c r="E129" s="135"/>
+      <c r="A129" s="131"/>
+      <c r="B129" s="131"/>
+      <c r="C129" s="131"/>
+      <c r="D129" s="133"/>
+      <c r="E129" s="132"/>
       <c r="F129" s="1">
         <v>3</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H129" s="127"/>
-      <c r="I129" s="127"/>
-      <c r="J129" s="112"/>
-      <c r="K129" s="127"/>
-      <c r="L129" s="127"/>
-      <c r="M129" s="127"/>
+      <c r="H129" s="131"/>
+      <c r="I129" s="131"/>
+      <c r="J129" s="116"/>
+      <c r="K129" s="131"/>
+      <c r="L129" s="131"/>
+      <c r="M129" s="131"/>
       <c r="N129" s="9" t="s">
         <v>142</v>
       </c>
@@ -13005,23 +13040,23 @@
       </c>
     </row>
     <row r="130" spans="1:23">
-      <c r="A130" s="127"/>
-      <c r="B130" s="127"/>
-      <c r="C130" s="127"/>
-      <c r="D130" s="136"/>
-      <c r="E130" s="135"/>
+      <c r="A130" s="131"/>
+      <c r="B130" s="131"/>
+      <c r="C130" s="131"/>
+      <c r="D130" s="133"/>
+      <c r="E130" s="132"/>
       <c r="F130" s="1">
         <v>4</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H130" s="127"/>
-      <c r="I130" s="127"/>
-      <c r="J130" s="112"/>
-      <c r="K130" s="127"/>
-      <c r="L130" s="127"/>
-      <c r="M130" s="127"/>
+      <c r="H130" s="131"/>
+      <c r="I130" s="131"/>
+      <c r="J130" s="116"/>
+      <c r="K130" s="131"/>
+      <c r="L130" s="131"/>
+      <c r="M130" s="131"/>
       <c r="N130" s="9" t="s">
         <v>142</v>
       </c>
@@ -13042,23 +13077,23 @@
       </c>
     </row>
     <row r="131" spans="1:23">
-      <c r="A131" s="127"/>
-      <c r="B131" s="127"/>
-      <c r="C131" s="127"/>
-      <c r="D131" s="136"/>
-      <c r="E131" s="135"/>
+      <c r="A131" s="131"/>
+      <c r="B131" s="131"/>
+      <c r="C131" s="131"/>
+      <c r="D131" s="133"/>
+      <c r="E131" s="132"/>
       <c r="F131" s="1">
         <v>5</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H131" s="127"/>
-      <c r="I131" s="127"/>
-      <c r="J131" s="112"/>
-      <c r="K131" s="127"/>
-      <c r="L131" s="127"/>
-      <c r="M131" s="127"/>
+      <c r="H131" s="131"/>
+      <c r="I131" s="131"/>
+      <c r="J131" s="116"/>
+      <c r="K131" s="131"/>
+      <c r="L131" s="131"/>
+      <c r="M131" s="131"/>
       <c r="N131" s="9" t="s">
         <v>142</v>
       </c>
@@ -13079,23 +13114,23 @@
       </c>
     </row>
     <row r="132" spans="1:23">
-      <c r="A132" s="127"/>
-      <c r="B132" s="127"/>
-      <c r="C132" s="127"/>
-      <c r="D132" s="136"/>
-      <c r="E132" s="135"/>
+      <c r="A132" s="131"/>
+      <c r="B132" s="131"/>
+      <c r="C132" s="131"/>
+      <c r="D132" s="133"/>
+      <c r="E132" s="132"/>
       <c r="F132" s="1">
         <v>6</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H132" s="127"/>
-      <c r="I132" s="127"/>
-      <c r="J132" s="112"/>
-      <c r="K132" s="127"/>
-      <c r="L132" s="127"/>
-      <c r="M132" s="127"/>
+      <c r="H132" s="131"/>
+      <c r="I132" s="131"/>
+      <c r="J132" s="116"/>
+      <c r="K132" s="131"/>
+      <c r="L132" s="131"/>
+      <c r="M132" s="131"/>
       <c r="N132" s="9" t="s">
         <v>142</v>
       </c>
@@ -13116,23 +13151,23 @@
       </c>
     </row>
     <row r="133" spans="1:23">
-      <c r="A133" s="127"/>
-      <c r="B133" s="127"/>
-      <c r="C133" s="127"/>
-      <c r="D133" s="136"/>
-      <c r="E133" s="135"/>
+      <c r="A133" s="131"/>
+      <c r="B133" s="131"/>
+      <c r="C133" s="131"/>
+      <c r="D133" s="133"/>
+      <c r="E133" s="132"/>
       <c r="F133" s="1">
         <v>7</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H133" s="127"/>
-      <c r="I133" s="127"/>
-      <c r="J133" s="112"/>
-      <c r="K133" s="127"/>
-      <c r="L133" s="127"/>
-      <c r="M133" s="127"/>
+      <c r="H133" s="131"/>
+      <c r="I133" s="131"/>
+      <c r="J133" s="116"/>
+      <c r="K133" s="131"/>
+      <c r="L133" s="131"/>
+      <c r="M133" s="131"/>
       <c r="N133" s="9" t="s">
         <v>142</v>
       </c>
@@ -13153,23 +13188,23 @@
       </c>
     </row>
     <row r="134" spans="1:23">
-      <c r="A134" s="127"/>
-      <c r="B134" s="127"/>
-      <c r="C134" s="127"/>
-      <c r="D134" s="136"/>
-      <c r="E134" s="135"/>
+      <c r="A134" s="131"/>
+      <c r="B134" s="131"/>
+      <c r="C134" s="131"/>
+      <c r="D134" s="133"/>
+      <c r="E134" s="132"/>
       <c r="F134" s="1">
         <v>8</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H134" s="127"/>
-      <c r="I134" s="127"/>
-      <c r="J134" s="112"/>
-      <c r="K134" s="127"/>
-      <c r="L134" s="127"/>
-      <c r="M134" s="127"/>
+      <c r="H134" s="131"/>
+      <c r="I134" s="131"/>
+      <c r="J134" s="116"/>
+      <c r="K134" s="131"/>
+      <c r="L134" s="131"/>
+      <c r="M134" s="131"/>
       <c r="N134" s="9" t="s">
         <v>142</v>
       </c>
@@ -13190,23 +13225,23 @@
       </c>
     </row>
     <row r="135" spans="1:23">
-      <c r="A135" s="127"/>
-      <c r="B135" s="127"/>
-      <c r="C135" s="127"/>
-      <c r="D135" s="136"/>
-      <c r="E135" s="135"/>
+      <c r="A135" s="131"/>
+      <c r="B135" s="131"/>
+      <c r="C135" s="131"/>
+      <c r="D135" s="133"/>
+      <c r="E135" s="132"/>
       <c r="F135" s="1">
         <v>9</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H135" s="127"/>
-      <c r="I135" s="127"/>
-      <c r="J135" s="112"/>
-      <c r="K135" s="127"/>
-      <c r="L135" s="127"/>
-      <c r="M135" s="127"/>
+      <c r="H135" s="131"/>
+      <c r="I135" s="131"/>
+      <c r="J135" s="116"/>
+      <c r="K135" s="131"/>
+      <c r="L135" s="131"/>
+      <c r="M135" s="131"/>
       <c r="N135" s="9" t="s">
         <v>142</v>
       </c>
@@ -13227,23 +13262,23 @@
       </c>
     </row>
     <row r="136" spans="1:23">
-      <c r="A136" s="127"/>
-      <c r="B136" s="127"/>
-      <c r="C136" s="127"/>
-      <c r="D136" s="136"/>
-      <c r="E136" s="135"/>
+      <c r="A136" s="131"/>
+      <c r="B136" s="131"/>
+      <c r="C136" s="131"/>
+      <c r="D136" s="133"/>
+      <c r="E136" s="132"/>
       <c r="F136" s="1">
         <v>10</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H136" s="127"/>
-      <c r="I136" s="127"/>
-      <c r="J136" s="112"/>
-      <c r="K136" s="127"/>
-      <c r="L136" s="127"/>
-      <c r="M136" s="127"/>
+      <c r="H136" s="131"/>
+      <c r="I136" s="131"/>
+      <c r="J136" s="116"/>
+      <c r="K136" s="131"/>
+      <c r="L136" s="131"/>
+      <c r="M136" s="131"/>
       <c r="N136" s="9" t="s">
         <v>142</v>
       </c>
@@ -13264,23 +13299,23 @@
       </c>
     </row>
     <row r="137" spans="1:23" s="7" customFormat="1">
-      <c r="A137" s="127"/>
-      <c r="B137" s="127"/>
-      <c r="C137" s="127"/>
-      <c r="D137" s="136"/>
-      <c r="E137" s="135"/>
+      <c r="A137" s="131"/>
+      <c r="B137" s="131"/>
+      <c r="C137" s="131"/>
+      <c r="D137" s="133"/>
+      <c r="E137" s="132"/>
       <c r="F137" s="10">
         <v>11</v>
       </c>
       <c r="G137" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H137" s="127"/>
-      <c r="I137" s="127"/>
-      <c r="J137" s="112"/>
-      <c r="K137" s="127"/>
-      <c r="L137" s="127"/>
-      <c r="M137" s="127"/>
+      <c r="H137" s="131"/>
+      <c r="I137" s="131"/>
+      <c r="J137" s="116"/>
+      <c r="K137" s="131"/>
+      <c r="L137" s="131"/>
+      <c r="M137" s="131"/>
       <c r="N137" s="9" t="s">
         <v>143</v>
       </c>
@@ -13305,23 +13340,23 @@
       <c r="W137" s="27"/>
     </row>
     <row r="138" spans="1:23" s="4" customFormat="1">
-      <c r="A138" s="127"/>
-      <c r="B138" s="127"/>
-      <c r="C138" s="127"/>
-      <c r="D138" s="136"/>
-      <c r="E138" s="135"/>
+      <c r="A138" s="131"/>
+      <c r="B138" s="131"/>
+      <c r="C138" s="131"/>
+      <c r="D138" s="133"/>
+      <c r="E138" s="132"/>
       <c r="F138" s="10">
         <v>12</v>
       </c>
       <c r="G138" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H138" s="127"/>
-      <c r="I138" s="127"/>
-      <c r="J138" s="112"/>
-      <c r="K138" s="127"/>
-      <c r="L138" s="127"/>
-      <c r="M138" s="127"/>
+      <c r="H138" s="131"/>
+      <c r="I138" s="131"/>
+      <c r="J138" s="116"/>
+      <c r="K138" s="131"/>
+      <c r="L138" s="131"/>
+      <c r="M138" s="131"/>
       <c r="N138" s="9" t="s">
         <v>143</v>
       </c>
@@ -13346,23 +13381,23 @@
       <c r="W138" s="27"/>
     </row>
     <row r="139" spans="1:23" s="4" customFormat="1">
-      <c r="A139" s="127"/>
-      <c r="B139" s="127"/>
-      <c r="C139" s="127"/>
-      <c r="D139" s="136"/>
-      <c r="E139" s="135"/>
+      <c r="A139" s="131"/>
+      <c r="B139" s="131"/>
+      <c r="C139" s="131"/>
+      <c r="D139" s="133"/>
+      <c r="E139" s="132"/>
       <c r="F139" s="10">
         <v>13</v>
       </c>
       <c r="G139" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H139" s="127"/>
-      <c r="I139" s="127"/>
-      <c r="J139" s="112"/>
-      <c r="K139" s="127"/>
-      <c r="L139" s="127"/>
-      <c r="M139" s="127"/>
+      <c r="H139" s="131"/>
+      <c r="I139" s="131"/>
+      <c r="J139" s="116"/>
+      <c r="K139" s="131"/>
+      <c r="L139" s="131"/>
+      <c r="M139" s="131"/>
       <c r="N139" s="9" t="s">
         <v>144</v>
       </c>
@@ -13387,23 +13422,23 @@
       <c r="W139" s="27"/>
     </row>
     <row r="140" spans="1:23" s="58" customFormat="1">
-      <c r="A140" s="127"/>
-      <c r="B140" s="127"/>
-      <c r="C140" s="127"/>
-      <c r="D140" s="136"/>
-      <c r="E140" s="135"/>
+      <c r="A140" s="131"/>
+      <c r="B140" s="131"/>
+      <c r="C140" s="131"/>
+      <c r="D140" s="133"/>
+      <c r="E140" s="132"/>
       <c r="F140" s="75">
         <v>14</v>
       </c>
       <c r="G140" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="H140" s="127"/>
-      <c r="I140" s="127"/>
-      <c r="J140" s="112"/>
-      <c r="K140" s="127"/>
-      <c r="L140" s="127"/>
-      <c r="M140" s="127"/>
+      <c r="H140" s="131"/>
+      <c r="I140" s="131"/>
+      <c r="J140" s="116"/>
+      <c r="K140" s="131"/>
+      <c r="L140" s="131"/>
+      <c r="M140" s="131"/>
       <c r="N140" s="74" t="s">
         <v>268</v>
       </c>
@@ -13424,23 +13459,23 @@
       </c>
     </row>
     <row r="141" spans="1:23" s="7" customFormat="1">
-      <c r="A141" s="127"/>
-      <c r="B141" s="127"/>
-      <c r="C141" s="127"/>
-      <c r="D141" s="136"/>
-      <c r="E141" s="135"/>
+      <c r="A141" s="131"/>
+      <c r="B141" s="131"/>
+      <c r="C141" s="131"/>
+      <c r="D141" s="133"/>
+      <c r="E141" s="132"/>
       <c r="F141" s="10">
         <v>15</v>
       </c>
       <c r="G141" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="H141" s="127"/>
-      <c r="I141" s="127"/>
-      <c r="J141" s="112"/>
-      <c r="K141" s="127"/>
-      <c r="L141" s="127"/>
-      <c r="M141" s="127"/>
+      <c r="H141" s="131"/>
+      <c r="I141" s="131"/>
+      <c r="J141" s="116"/>
+      <c r="K141" s="131"/>
+      <c r="L141" s="131"/>
+      <c r="M141" s="131"/>
       <c r="N141" s="9"/>
       <c r="O141" s="55" t="s">
         <v>51</v>
@@ -13463,15 +13498,15 @@
       <c r="W141" s="27"/>
     </row>
     <row r="142" spans="1:23">
-      <c r="A142" s="127"/>
-      <c r="B142" s="126" t="s">
-        <v>51</v>
-      </c>
-      <c r="C142" s="126"/>
-      <c r="D142" s="136" t="s">
+      <c r="A142" s="131"/>
+      <c r="B142" s="125" t="s">
+        <v>51</v>
+      </c>
+      <c r="C142" s="125"/>
+      <c r="D142" s="133" t="s">
         <v>187</v>
       </c>
-      <c r="E142" s="135" t="s">
+      <c r="E142" s="132" t="s">
         <v>146</v>
       </c>
       <c r="F142" s="10">
@@ -13480,20 +13515,20 @@
       <c r="G142" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H142" s="137">
-        <v>1</v>
-      </c>
-      <c r="I142" s="137">
-        <v>1</v>
-      </c>
-      <c r="J142" s="135">
+      <c r="H142" s="134">
+        <v>1</v>
+      </c>
+      <c r="I142" s="134">
+        <v>1</v>
+      </c>
+      <c r="J142" s="132">
         <v>4</v>
       </c>
-      <c r="K142" s="126" t="s">
+      <c r="K142" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="L142" s="126"/>
-      <c r="M142" s="126" t="s">
+      <c r="L142" s="125"/>
+      <c r="M142" s="125" t="s">
         <v>38</v>
       </c>
       <c r="N142" s="29"/>
@@ -13514,23 +13549,23 @@
       </c>
     </row>
     <row r="143" spans="1:23">
-      <c r="A143" s="127"/>
-      <c r="B143" s="127"/>
-      <c r="C143" s="127"/>
-      <c r="D143" s="136"/>
-      <c r="E143" s="135"/>
+      <c r="A143" s="131"/>
+      <c r="B143" s="131"/>
+      <c r="C143" s="131"/>
+      <c r="D143" s="133"/>
+      <c r="E143" s="132"/>
       <c r="F143" s="10">
         <v>2</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H143" s="137"/>
-      <c r="I143" s="137"/>
-      <c r="J143" s="135"/>
-      <c r="K143" s="127"/>
-      <c r="L143" s="127"/>
-      <c r="M143" s="127"/>
+      <c r="H143" s="134"/>
+      <c r="I143" s="134"/>
+      <c r="J143" s="132"/>
+      <c r="K143" s="131"/>
+      <c r="L143" s="131"/>
+      <c r="M143" s="131"/>
       <c r="N143" s="32"/>
       <c r="O143" s="55" t="s">
         <v>169</v>
@@ -13549,23 +13584,23 @@
       </c>
     </row>
     <row r="144" spans="1:23" s="7" customFormat="1">
-      <c r="A144" s="127"/>
-      <c r="B144" s="127"/>
-      <c r="C144" s="127"/>
-      <c r="D144" s="136"/>
-      <c r="E144" s="135"/>
+      <c r="A144" s="131"/>
+      <c r="B144" s="131"/>
+      <c r="C144" s="131"/>
+      <c r="D144" s="133"/>
+      <c r="E144" s="132"/>
       <c r="F144" s="10">
         <v>3</v>
       </c>
       <c r="G144" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="H144" s="137"/>
-      <c r="I144" s="137"/>
-      <c r="J144" s="135"/>
-      <c r="K144" s="127"/>
-      <c r="L144" s="127"/>
-      <c r="M144" s="127"/>
+      <c r="H144" s="134"/>
+      <c r="I144" s="134"/>
+      <c r="J144" s="132"/>
+      <c r="K144" s="131"/>
+      <c r="L144" s="131"/>
+      <c r="M144" s="131"/>
       <c r="N144" s="32"/>
       <c r="O144" s="55" t="s">
         <v>169</v>
@@ -13588,23 +13623,23 @@
       <c r="W144" s="27"/>
     </row>
     <row r="145" spans="1:19">
-      <c r="A145" s="127"/>
-      <c r="B145" s="128"/>
-      <c r="C145" s="128"/>
-      <c r="D145" s="136"/>
-      <c r="E145" s="135"/>
+      <c r="A145" s="131"/>
+      <c r="B145" s="126"/>
+      <c r="C145" s="126"/>
+      <c r="D145" s="133"/>
+      <c r="E145" s="132"/>
       <c r="F145" s="10">
         <v>4</v>
       </c>
       <c r="G145" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="H145" s="137"/>
-      <c r="I145" s="137"/>
-      <c r="J145" s="135"/>
-      <c r="K145" s="128"/>
-      <c r="L145" s="128"/>
-      <c r="M145" s="128"/>
+      <c r="H145" s="134"/>
+      <c r="I145" s="134"/>
+      <c r="J145" s="132"/>
+      <c r="K145" s="126"/>
+      <c r="L145" s="126"/>
+      <c r="M145" s="126"/>
       <c r="N145" s="30"/>
       <c r="O145" s="55" t="s">
         <v>169</v>
@@ -13623,15 +13658,15 @@
       </c>
     </row>
     <row r="146" spans="1:19">
-      <c r="A146" s="127"/>
-      <c r="B146" s="126"/>
-      <c r="C146" s="126" t="s">
+      <c r="A146" s="131"/>
+      <c r="B146" s="125"/>
+      <c r="C146" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="D146" s="111" t="s">
+      <c r="D146" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="E146" s="111" t="s">
+      <c r="E146" s="114" t="s">
         <v>189</v>
       </c>
       <c r="F146" s="1">
@@ -13640,23 +13675,23 @@
       <c r="G146" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H146" s="126">
-        <v>1</v>
-      </c>
-      <c r="I146" s="126">
-        <v>1</v>
-      </c>
-      <c r="J146" s="126">
+      <c r="H146" s="125">
+        <v>1</v>
+      </c>
+      <c r="I146" s="125">
+        <v>1</v>
+      </c>
+      <c r="J146" s="125">
         <v>4</v>
       </c>
-      <c r="K146" s="126" t="s">
+      <c r="K146" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="L146" s="126"/>
-      <c r="M146" s="126" t="s">
+      <c r="L146" s="125"/>
+      <c r="M146" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="N146" s="126"/>
+      <c r="N146" s="125"/>
       <c r="O146" s="55" t="s">
         <v>169</v>
       </c>
@@ -13674,24 +13709,24 @@
       </c>
     </row>
     <row r="147" spans="1:19">
-      <c r="A147" s="127"/>
-      <c r="B147" s="127"/>
-      <c r="C147" s="127"/>
-      <c r="D147" s="112"/>
-      <c r="E147" s="112"/>
+      <c r="A147" s="131"/>
+      <c r="B147" s="131"/>
+      <c r="C147" s="131"/>
+      <c r="D147" s="116"/>
+      <c r="E147" s="116"/>
       <c r="F147" s="1">
         <v>2</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H147" s="127"/>
-      <c r="I147" s="127"/>
-      <c r="J147" s="127"/>
-      <c r="K147" s="127"/>
-      <c r="L147" s="127"/>
-      <c r="M147" s="127"/>
-      <c r="N147" s="127"/>
+      <c r="H147" s="131"/>
+      <c r="I147" s="131"/>
+      <c r="J147" s="131"/>
+      <c r="K147" s="131"/>
+      <c r="L147" s="131"/>
+      <c r="M147" s="131"/>
+      <c r="N147" s="131"/>
       <c r="O147" s="55" t="s">
         <v>169</v>
       </c>
@@ -13709,24 +13744,24 @@
       </c>
     </row>
     <row r="148" spans="1:19">
-      <c r="A148" s="127"/>
-      <c r="B148" s="127"/>
-      <c r="C148" s="127"/>
-      <c r="D148" s="112"/>
-      <c r="E148" s="112"/>
+      <c r="A148" s="131"/>
+      <c r="B148" s="131"/>
+      <c r="C148" s="131"/>
+      <c r="D148" s="116"/>
+      <c r="E148" s="116"/>
       <c r="F148" s="1">
         <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="H148" s="127"/>
-      <c r="I148" s="127"/>
-      <c r="J148" s="127"/>
-      <c r="K148" s="127"/>
-      <c r="L148" s="127"/>
-      <c r="M148" s="127"/>
-      <c r="N148" s="127"/>
+      <c r="H148" s="131"/>
+      <c r="I148" s="131"/>
+      <c r="J148" s="131"/>
+      <c r="K148" s="131"/>
+      <c r="L148" s="131"/>
+      <c r="M148" s="131"/>
+      <c r="N148" s="131"/>
       <c r="O148" s="55" t="s">
         <v>169</v>
       </c>
@@ -13744,24 +13779,24 @@
       </c>
     </row>
     <row r="149" spans="1:19">
-      <c r="A149" s="127"/>
-      <c r="B149" s="128"/>
-      <c r="C149" s="128"/>
-      <c r="D149" s="113"/>
-      <c r="E149" s="113"/>
+      <c r="A149" s="131"/>
+      <c r="B149" s="126"/>
+      <c r="C149" s="126"/>
+      <c r="D149" s="115"/>
+      <c r="E149" s="115"/>
       <c r="F149" s="1">
         <v>4</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H149" s="128"/>
-      <c r="I149" s="128"/>
-      <c r="J149" s="128"/>
-      <c r="K149" s="128"/>
-      <c r="L149" s="128"/>
-      <c r="M149" s="128"/>
-      <c r="N149" s="128"/>
+      <c r="H149" s="126"/>
+      <c r="I149" s="126"/>
+      <c r="J149" s="126"/>
+      <c r="K149" s="126"/>
+      <c r="L149" s="126"/>
+      <c r="M149" s="126"/>
+      <c r="N149" s="126"/>
       <c r="O149" s="55" t="s">
         <v>169</v>
       </c>
@@ -13779,38 +13814,38 @@
       </c>
     </row>
     <row r="150" spans="1:19">
-      <c r="A150" s="127"/>
-      <c r="B150" s="126" t="s">
+      <c r="A150" s="131"/>
+      <c r="B150" s="125" t="s">
         <v>61</v>
       </c>
-      <c r="C150" s="126"/>
-      <c r="D150" s="126" t="s">
+      <c r="C150" s="125"/>
+      <c r="D150" s="125" t="s">
         <v>127</v>
       </c>
-      <c r="E150" s="126"/>
+      <c r="E150" s="125"/>
       <c r="F150" s="1">
         <v>1</v>
       </c>
       <c r="G150" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="H150" s="126">
-        <v>1</v>
-      </c>
-      <c r="I150" s="126">
-        <v>1</v>
-      </c>
-      <c r="J150" s="126">
+      <c r="H150" s="125">
+        <v>1</v>
+      </c>
+      <c r="I150" s="125">
+        <v>1</v>
+      </c>
+      <c r="J150" s="125">
         <v>2</v>
       </c>
-      <c r="K150" s="126" t="s">
+      <c r="K150" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="L150" s="126"/>
-      <c r="M150" s="126" t="s">
+      <c r="L150" s="125"/>
+      <c r="M150" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="N150" s="126"/>
+      <c r="N150" s="125"/>
       <c r="O150" s="51" t="s">
         <v>168</v>
       </c>
@@ -13828,24 +13863,24 @@
       </c>
     </row>
     <row r="151" spans="1:19">
-      <c r="A151" s="127"/>
-      <c r="B151" s="128"/>
-      <c r="C151" s="128"/>
-      <c r="D151" s="128"/>
-      <c r="E151" s="128"/>
+      <c r="A151" s="131"/>
+      <c r="B151" s="126"/>
+      <c r="C151" s="126"/>
+      <c r="D151" s="126"/>
+      <c r="E151" s="126"/>
       <c r="F151" s="1">
         <v>2</v>
       </c>
       <c r="G151" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="H151" s="128"/>
-      <c r="I151" s="128"/>
-      <c r="J151" s="128"/>
-      <c r="K151" s="128"/>
-      <c r="L151" s="128"/>
-      <c r="M151" s="128"/>
-      <c r="N151" s="128"/>
+      <c r="H151" s="126"/>
+      <c r="I151" s="126"/>
+      <c r="J151" s="126"/>
+      <c r="K151" s="126"/>
+      <c r="L151" s="126"/>
+      <c r="M151" s="126"/>
+      <c r="N151" s="126"/>
       <c r="O151" s="53"/>
       <c r="P151" s="53"/>
       <c r="Q151" s="53"/>
@@ -13853,7 +13888,7 @@
       <c r="S151" s="53"/>
     </row>
     <row r="152" spans="1:19">
-      <c r="A152" s="127"/>
+      <c r="A152" s="131"/>
       <c r="B152" s="1" t="s">
         <v>61</v>
       </c>
@@ -13889,8 +13924,8 @@
         <v>168</v>
       </c>
     </row>
-    <row r="153" spans="1:19" ht="18.75">
-      <c r="A153" s="127"/>
+    <row r="153" spans="1:19" ht="19.5">
+      <c r="A153" s="131"/>
       <c r="B153" s="1" t="s">
         <v>61</v>
       </c>
@@ -13937,7 +13972,7 @@
       </c>
     </row>
     <row r="154" spans="1:19">
-      <c r="A154" s="127"/>
+      <c r="A154" s="131"/>
       <c r="B154" s="1" t="s">
         <v>61</v>
       </c>
@@ -13974,7 +14009,7 @@
       </c>
     </row>
     <row r="155" spans="1:19">
-      <c r="A155" s="127"/>
+      <c r="A155" s="131"/>
       <c r="B155" s="1" t="s">
         <v>61</v>
       </c>
@@ -14023,7 +14058,7 @@
       </c>
     </row>
     <row r="156" spans="1:19">
-      <c r="A156" s="128"/>
+      <c r="A156" s="126"/>
       <c r="B156" s="1" t="s">
         <v>61</v>
       </c>
@@ -14070,17 +14105,17 @@
       </c>
     </row>
     <row r="157" spans="1:19">
-      <c r="A157" s="117" t="s">
+      <c r="A157" s="119" t="s">
         <v>248</v>
       </c>
-      <c r="B157" s="111" t="s">
-        <v>51</v>
-      </c>
-      <c r="C157" s="111"/>
-      <c r="D157" s="111" t="s">
+      <c r="B157" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C157" s="114"/>
+      <c r="D157" s="114" t="s">
         <v>240</v>
       </c>
-      <c r="E157" s="111" t="s">
+      <c r="E157" s="114" t="s">
         <v>264</v>
       </c>
       <c r="F157" s="69">
@@ -14089,21 +14124,21 @@
       <c r="G157" s="69" t="s">
         <v>267</v>
       </c>
-      <c r="H157" s="111"/>
-      <c r="I157" s="111">
-        <v>1</v>
-      </c>
-      <c r="J157" s="111">
+      <c r="H157" s="114"/>
+      <c r="I157" s="114">
+        <v>1</v>
+      </c>
+      <c r="J157" s="114">
         <v>2</v>
       </c>
-      <c r="K157" s="111" t="s">
+      <c r="K157" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="L157" s="114"/>
-      <c r="M157" s="111" t="s">
+      <c r="L157" s="112"/>
+      <c r="M157" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="N157" s="111"/>
+      <c r="N157" s="114"/>
       <c r="O157" s="65" t="s">
         <v>51</v>
       </c>
@@ -14121,32 +14156,32 @@
       </c>
     </row>
     <row r="158" spans="1:19" s="58" customFormat="1">
-      <c r="A158" s="118"/>
-      <c r="B158" s="113"/>
-      <c r="C158" s="113"/>
-      <c r="D158" s="113"/>
-      <c r="E158" s="113"/>
+      <c r="A158" s="120"/>
+      <c r="B158" s="115"/>
+      <c r="C158" s="115"/>
+      <c r="D158" s="115"/>
+      <c r="E158" s="115"/>
       <c r="F158" s="69">
         <v>2</v>
       </c>
       <c r="G158" s="69" t="s">
         <v>266</v>
       </c>
-      <c r="H158" s="113"/>
-      <c r="I158" s="113"/>
-      <c r="J158" s="113"/>
-      <c r="K158" s="113"/>
-      <c r="L158" s="116"/>
-      <c r="M158" s="113"/>
-      <c r="N158" s="113"/>
+      <c r="H158" s="115"/>
+      <c r="I158" s="115"/>
+      <c r="J158" s="115"/>
+      <c r="K158" s="115"/>
+      <c r="L158" s="113"/>
+      <c r="M158" s="115"/>
+      <c r="N158" s="115"/>
       <c r="O158" s="66"/>
       <c r="P158" s="66"/>
       <c r="Q158" s="66"/>
       <c r="R158" s="66"/>
       <c r="S158" s="66"/>
     </row>
-    <row r="159" spans="1:19" ht="18.75">
-      <c r="A159" s="118"/>
+    <row r="159" spans="1:19" ht="19.5">
+      <c r="A159" s="120"/>
       <c r="B159" s="69" t="s">
         <v>51</v>
       </c>
@@ -14192,8 +14227,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="160" spans="1:19" ht="18.75">
-      <c r="A160" s="118"/>
+    <row r="160" spans="1:19" ht="19.5">
+      <c r="A160" s="120"/>
       <c r="B160" s="69" t="s">
         <v>51</v>
       </c>
@@ -14239,8 +14274,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="18.75">
-      <c r="A161" s="118"/>
+    <row r="161" spans="1:19" ht="19.5">
+      <c r="A161" s="120"/>
       <c r="B161" s="69" t="s">
         <v>51</v>
       </c>
@@ -14286,8 +14321,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="18.75">
-      <c r="A162" s="118"/>
+    <row r="162" spans="1:19" ht="19.5">
+      <c r="A162" s="120"/>
       <c r="B162" s="69" t="s">
         <v>51</v>
       </c>
@@ -14333,8 +14368,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="18.75">
-      <c r="A163" s="118"/>
+    <row r="163" spans="1:19" ht="19.5">
+      <c r="A163" s="120"/>
       <c r="B163" s="69" t="s">
         <v>51</v>
       </c>
@@ -14381,7 +14416,7 @@
       </c>
     </row>
     <row r="164" spans="1:19">
-      <c r="A164" s="118"/>
+      <c r="A164" s="120"/>
       <c r="B164" s="69" t="s">
         <v>51</v>
       </c>
@@ -14430,7 +14465,7 @@
       </c>
     </row>
     <row r="165" spans="1:19">
-      <c r="A165" s="118"/>
+      <c r="A165" s="120"/>
       <c r="B165" s="69" t="s">
         <v>51</v>
       </c>
@@ -14479,15 +14514,15 @@
       </c>
     </row>
     <row r="166" spans="1:19">
-      <c r="A166" s="118"/>
-      <c r="B166" s="111" t="s">
-        <v>51</v>
-      </c>
-      <c r="C166" s="111"/>
-      <c r="D166" s="111" t="s">
+      <c r="A166" s="120"/>
+      <c r="B166" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C166" s="114"/>
+      <c r="D166" s="114" t="s">
         <v>253</v>
       </c>
-      <c r="E166" s="111" t="s">
+      <c r="E166" s="114" t="s">
         <v>264</v>
       </c>
       <c r="F166" s="69">
@@ -14496,21 +14531,21 @@
       <c r="G166" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H166" s="111"/>
-      <c r="I166" s="111">
-        <v>1</v>
-      </c>
-      <c r="J166" s="111">
+      <c r="H166" s="114"/>
+      <c r="I166" s="114">
+        <v>1</v>
+      </c>
+      <c r="J166" s="114">
         <v>2</v>
       </c>
-      <c r="K166" s="111" t="s">
+      <c r="K166" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="L166" s="114"/>
-      <c r="M166" s="111" t="s">
+      <c r="L166" s="112"/>
+      <c r="M166" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="N166" s="111"/>
+      <c r="N166" s="114"/>
       <c r="O166" s="65" t="s">
         <v>51</v>
       </c>
@@ -14528,24 +14563,24 @@
       </c>
     </row>
     <row r="167" spans="1:19" s="58" customFormat="1">
-      <c r="A167" s="118"/>
-      <c r="B167" s="113"/>
-      <c r="C167" s="113"/>
-      <c r="D167" s="113"/>
-      <c r="E167" s="113"/>
+      <c r="A167" s="120"/>
+      <c r="B167" s="115"/>
+      <c r="C167" s="115"/>
+      <c r="D167" s="115"/>
+      <c r="E167" s="115"/>
       <c r="F167" s="69">
         <v>2</v>
       </c>
       <c r="G167" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H167" s="113"/>
-      <c r="I167" s="113"/>
-      <c r="J167" s="113"/>
-      <c r="K167" s="113"/>
-      <c r="L167" s="116"/>
-      <c r="M167" s="113"/>
-      <c r="N167" s="113"/>
+      <c r="H167" s="115"/>
+      <c r="I167" s="115"/>
+      <c r="J167" s="115"/>
+      <c r="K167" s="115"/>
+      <c r="L167" s="113"/>
+      <c r="M167" s="115"/>
+      <c r="N167" s="115"/>
       <c r="O167" s="66"/>
       <c r="P167" s="66"/>
       <c r="Q167" s="66"/>
@@ -14553,7 +14588,7 @@
       <c r="S167" s="66"/>
     </row>
     <row r="168" spans="1:19">
-      <c r="A168" s="118"/>
+      <c r="A168" s="120"/>
       <c r="B168" s="69" t="s">
         <v>51</v>
       </c>
@@ -14602,7 +14637,7 @@
       </c>
     </row>
     <row r="169" spans="1:19">
-      <c r="A169" s="118"/>
+      <c r="A169" s="120"/>
       <c r="B169" s="69" t="s">
         <v>51</v>
       </c>
@@ -14651,15 +14686,15 @@
       </c>
     </row>
     <row r="170" spans="1:19">
-      <c r="A170" s="118"/>
-      <c r="B170" s="111" t="s">
-        <v>51</v>
-      </c>
-      <c r="C170" s="111"/>
-      <c r="D170" s="111" t="s">
+      <c r="A170" s="120"/>
+      <c r="B170" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="C170" s="114"/>
+      <c r="D170" s="114" t="s">
         <v>259</v>
       </c>
-      <c r="E170" s="111" t="s">
+      <c r="E170" s="114" t="s">
         <v>264</v>
       </c>
       <c r="F170" s="69">
@@ -14668,21 +14703,21 @@
       <c r="G170" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="H170" s="111"/>
-      <c r="I170" s="111">
-        <v>1</v>
-      </c>
-      <c r="J170" s="111">
+      <c r="H170" s="114"/>
+      <c r="I170" s="114">
+        <v>1</v>
+      </c>
+      <c r="J170" s="114">
         <v>2</v>
       </c>
-      <c r="K170" s="111" t="s">
+      <c r="K170" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="L170" s="114"/>
-      <c r="M170" s="111" t="s">
+      <c r="L170" s="112"/>
+      <c r="M170" s="114" t="s">
         <v>38</v>
       </c>
-      <c r="N170" s="111"/>
+      <c r="N170" s="114"/>
       <c r="O170" s="65" t="s">
         <v>51</v>
       </c>
@@ -14700,24 +14735,24 @@
       </c>
     </row>
     <row r="171" spans="1:19" s="58" customFormat="1">
-      <c r="A171" s="118"/>
-      <c r="B171" s="113"/>
-      <c r="C171" s="113"/>
-      <c r="D171" s="113"/>
-      <c r="E171" s="113"/>
+      <c r="A171" s="120"/>
+      <c r="B171" s="115"/>
+      <c r="C171" s="115"/>
+      <c r="D171" s="115"/>
+      <c r="E171" s="115"/>
       <c r="F171" s="69">
         <v>2</v>
       </c>
       <c r="G171" s="69" t="b">
         <v>0</v>
       </c>
-      <c r="H171" s="113"/>
-      <c r="I171" s="113"/>
-      <c r="J171" s="113"/>
-      <c r="K171" s="113"/>
-      <c r="L171" s="116"/>
-      <c r="M171" s="113"/>
-      <c r="N171" s="113"/>
+      <c r="H171" s="115"/>
+      <c r="I171" s="115"/>
+      <c r="J171" s="115"/>
+      <c r="K171" s="115"/>
+      <c r="L171" s="113"/>
+      <c r="M171" s="115"/>
+      <c r="N171" s="115"/>
       <c r="O171" s="66"/>
       <c r="P171" s="66"/>
       <c r="Q171" s="66"/>
@@ -14725,7 +14760,7 @@
       <c r="S171" s="66"/>
     </row>
     <row r="172" spans="1:19">
-      <c r="A172" s="118"/>
+      <c r="A172" s="120"/>
       <c r="B172" s="69" t="s">
         <v>51</v>
       </c>
@@ -14772,7 +14807,7 @@
       </c>
     </row>
     <row r="173" spans="1:19">
-      <c r="A173" s="119"/>
+      <c r="A173" s="121"/>
       <c r="B173" s="69" t="s">
         <v>51</v>
       </c>
@@ -14820,23 +14855,248 @@
     </row>
   </sheetData>
   <mergeCells count="283">
-    <mergeCell ref="L170:L171"/>
-    <mergeCell ref="M170:M171"/>
-    <mergeCell ref="N170:N171"/>
-    <mergeCell ref="N166:N167"/>
-    <mergeCell ref="M166:M167"/>
-    <mergeCell ref="L166:L167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="J166:J167"/>
-    <mergeCell ref="K166:K167"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="J170:J171"/>
-    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="N39:N42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="D43:D45"/>
+    <mergeCell ref="E43:E45"/>
+    <mergeCell ref="H43:H45"/>
+    <mergeCell ref="I43:I45"/>
+    <mergeCell ref="J43:J45"/>
+    <mergeCell ref="K43:K45"/>
+    <mergeCell ref="L43:L45"/>
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="N43:N45"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="M39:M42"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="K39:K42"/>
+    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="B23:B28"/>
+    <mergeCell ref="C23:C28"/>
+    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="D105:D107"/>
+    <mergeCell ref="E105:E107"/>
+    <mergeCell ref="H105:H107"/>
+    <mergeCell ref="H39:H42"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="I98:I100"/>
+    <mergeCell ref="E98:E100"/>
+    <mergeCell ref="D98:D100"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="I95:I96"/>
+    <mergeCell ref="L74:L77"/>
+    <mergeCell ref="K95:K96"/>
+    <mergeCell ref="L95:L96"/>
+    <mergeCell ref="M95:M96"/>
+    <mergeCell ref="K78:K81"/>
+    <mergeCell ref="L78:L81"/>
+    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="I4:I11"/>
+    <mergeCell ref="J4:J11"/>
+    <mergeCell ref="K4:K11"/>
+    <mergeCell ref="L4:L11"/>
+    <mergeCell ref="M4:M11"/>
+    <mergeCell ref="I78:I81"/>
+    <mergeCell ref="J78:J81"/>
+    <mergeCell ref="M74:M77"/>
+    <mergeCell ref="M78:M81"/>
+    <mergeCell ref="H74:H77"/>
+    <mergeCell ref="I74:I77"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I23:I28"/>
+    <mergeCell ref="H23:H28"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="N4:N11"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="A115:A156"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="C4:C11"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="E4:E11"/>
+    <mergeCell ref="H4:H11"/>
+    <mergeCell ref="B74:B77"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="D74:D77"/>
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="A22:A50"/>
+    <mergeCell ref="A51:A64"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A74:A97"/>
+    <mergeCell ref="A98:A114"/>
+    <mergeCell ref="H98:H100"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="D108:D111"/>
+    <mergeCell ref="E108:E111"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="B105:B107"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="J93:J94"/>
+    <mergeCell ref="K93:K94"/>
+    <mergeCell ref="L93:L94"/>
+    <mergeCell ref="M93:M94"/>
+    <mergeCell ref="N93:N94"/>
+    <mergeCell ref="C78:C81"/>
+    <mergeCell ref="D78:D81"/>
+    <mergeCell ref="E78:E81"/>
+    <mergeCell ref="H78:H81"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="N101:N104"/>
+    <mergeCell ref="J98:J100"/>
+    <mergeCell ref="K98:K100"/>
+    <mergeCell ref="L98:L100"/>
+    <mergeCell ref="M98:M100"/>
+    <mergeCell ref="N98:N100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="D101:D104"/>
+    <mergeCell ref="E101:E104"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="J101:J104"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="I108:I111"/>
+    <mergeCell ref="J108:J111"/>
+    <mergeCell ref="K108:K111"/>
+    <mergeCell ref="L108:L111"/>
+    <mergeCell ref="M108:M111"/>
+    <mergeCell ref="N108:N111"/>
+    <mergeCell ref="J105:J107"/>
+    <mergeCell ref="K105:K107"/>
+    <mergeCell ref="L105:L107"/>
+    <mergeCell ref="M105:M107"/>
+    <mergeCell ref="N105:N107"/>
+    <mergeCell ref="I105:I107"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="C119:C122"/>
+    <mergeCell ref="D119:D122"/>
+    <mergeCell ref="E119:E122"/>
+    <mergeCell ref="H119:H122"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="D115:D118"/>
+    <mergeCell ref="E115:E118"/>
+    <mergeCell ref="H115:H118"/>
+    <mergeCell ref="I119:I122"/>
+    <mergeCell ref="J119:J122"/>
+    <mergeCell ref="K119:K122"/>
+    <mergeCell ref="L119:L122"/>
+    <mergeCell ref="M119:M122"/>
+    <mergeCell ref="N119:N122"/>
+    <mergeCell ref="J115:J118"/>
+    <mergeCell ref="K115:K118"/>
+    <mergeCell ref="L115:L118"/>
+    <mergeCell ref="M115:M118"/>
+    <mergeCell ref="N115:N118"/>
+    <mergeCell ref="I115:I118"/>
+    <mergeCell ref="I123:I124"/>
+    <mergeCell ref="B123:B124"/>
+    <mergeCell ref="C123:C124"/>
+    <mergeCell ref="D123:D124"/>
+    <mergeCell ref="E123:E124"/>
+    <mergeCell ref="H123:H124"/>
+    <mergeCell ref="E127:E141"/>
+    <mergeCell ref="E142:E145"/>
+    <mergeCell ref="H125:H126"/>
+    <mergeCell ref="I125:I126"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B141"/>
+    <mergeCell ref="B142:B145"/>
+    <mergeCell ref="C127:C141"/>
+    <mergeCell ref="D127:D141"/>
+    <mergeCell ref="D142:D145"/>
+    <mergeCell ref="H127:H141"/>
+    <mergeCell ref="I127:I141"/>
+    <mergeCell ref="H142:H145"/>
+    <mergeCell ref="I142:I145"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="B146:B149"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="D146:D149"/>
+    <mergeCell ref="E146:E149"/>
+    <mergeCell ref="H146:H149"/>
+    <mergeCell ref="I146:I149"/>
+    <mergeCell ref="K127:K141"/>
+    <mergeCell ref="M127:M141"/>
+    <mergeCell ref="M142:M145"/>
+    <mergeCell ref="K142:K145"/>
+    <mergeCell ref="L127:L141"/>
+    <mergeCell ref="L142:L145"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="L150:L151"/>
+    <mergeCell ref="M150:M151"/>
+    <mergeCell ref="J127:J141"/>
+    <mergeCell ref="J142:J145"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K23:K28"/>
+    <mergeCell ref="M23:M28"/>
+    <mergeCell ref="L23:L28"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="N23:N28"/>
+    <mergeCell ref="N150:N151"/>
+    <mergeCell ref="J146:J149"/>
+    <mergeCell ref="K146:K149"/>
+    <mergeCell ref="L146:L149"/>
+    <mergeCell ref="M146:M149"/>
+    <mergeCell ref="N146:N149"/>
+    <mergeCell ref="N123:N124"/>
+    <mergeCell ref="J125:J126"/>
+    <mergeCell ref="K125:K126"/>
+    <mergeCell ref="L125:L126"/>
+    <mergeCell ref="M125:M126"/>
+    <mergeCell ref="J123:J124"/>
+    <mergeCell ref="K123:K124"/>
+    <mergeCell ref="L123:L124"/>
+    <mergeCell ref="M123:M124"/>
+    <mergeCell ref="N95:N96"/>
+    <mergeCell ref="J74:J77"/>
+    <mergeCell ref="K74:K77"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
     <mergeCell ref="M20:M21"/>
     <mergeCell ref="N20:N21"/>
     <mergeCell ref="O20:O21"/>
@@ -14861,248 +15121,23 @@
     <mergeCell ref="C170:C171"/>
     <mergeCell ref="D170:D171"/>
     <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="K23:K28"/>
-    <mergeCell ref="M23:M28"/>
-    <mergeCell ref="L23:L28"/>
-    <mergeCell ref="J23:J28"/>
-    <mergeCell ref="N23:N28"/>
-    <mergeCell ref="N150:N151"/>
-    <mergeCell ref="J146:J149"/>
-    <mergeCell ref="K146:K149"/>
-    <mergeCell ref="L146:L149"/>
-    <mergeCell ref="M146:M149"/>
-    <mergeCell ref="N146:N149"/>
-    <mergeCell ref="N123:N124"/>
-    <mergeCell ref="J125:J126"/>
-    <mergeCell ref="K125:K126"/>
-    <mergeCell ref="L125:L126"/>
-    <mergeCell ref="M125:M126"/>
-    <mergeCell ref="J123:J124"/>
-    <mergeCell ref="K123:K124"/>
-    <mergeCell ref="L123:L124"/>
-    <mergeCell ref="M123:M124"/>
-    <mergeCell ref="N95:N96"/>
-    <mergeCell ref="J74:J77"/>
-    <mergeCell ref="K74:K77"/>
-    <mergeCell ref="I146:I149"/>
-    <mergeCell ref="K127:K141"/>
-    <mergeCell ref="M127:M141"/>
-    <mergeCell ref="M142:M145"/>
-    <mergeCell ref="K142:K145"/>
-    <mergeCell ref="L127:L141"/>
-    <mergeCell ref="L142:L145"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="L150:L151"/>
-    <mergeCell ref="M150:M151"/>
-    <mergeCell ref="J127:J141"/>
-    <mergeCell ref="J142:J145"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="H150:H151"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="D146:D149"/>
-    <mergeCell ref="E146:E149"/>
-    <mergeCell ref="H146:H149"/>
-    <mergeCell ref="I123:I124"/>
-    <mergeCell ref="B123:B124"/>
-    <mergeCell ref="C123:C124"/>
-    <mergeCell ref="D123:D124"/>
-    <mergeCell ref="E123:E124"/>
-    <mergeCell ref="H123:H124"/>
-    <mergeCell ref="E127:E141"/>
-    <mergeCell ref="E142:E145"/>
-    <mergeCell ref="H125:H126"/>
-    <mergeCell ref="I125:I126"/>
-    <mergeCell ref="D125:D126"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B141"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="C127:C141"/>
-    <mergeCell ref="D127:D141"/>
-    <mergeCell ref="D142:D145"/>
-    <mergeCell ref="H127:H141"/>
-    <mergeCell ref="I127:I141"/>
-    <mergeCell ref="H142:H145"/>
-    <mergeCell ref="I142:I145"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="I119:I122"/>
-    <mergeCell ref="J119:J122"/>
-    <mergeCell ref="K119:K122"/>
-    <mergeCell ref="L119:L122"/>
-    <mergeCell ref="M119:M122"/>
-    <mergeCell ref="N119:N122"/>
-    <mergeCell ref="J115:J118"/>
-    <mergeCell ref="K115:K118"/>
-    <mergeCell ref="L115:L118"/>
-    <mergeCell ref="M115:M118"/>
-    <mergeCell ref="N115:N118"/>
-    <mergeCell ref="I115:I118"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="C119:C122"/>
-    <mergeCell ref="D119:D122"/>
-    <mergeCell ref="E119:E122"/>
-    <mergeCell ref="H119:H122"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="C115:C118"/>
-    <mergeCell ref="D115:D118"/>
-    <mergeCell ref="E115:E118"/>
-    <mergeCell ref="H115:H118"/>
-    <mergeCell ref="I108:I111"/>
-    <mergeCell ref="J108:J111"/>
-    <mergeCell ref="K108:K111"/>
-    <mergeCell ref="L108:L111"/>
-    <mergeCell ref="M108:M111"/>
-    <mergeCell ref="N108:N111"/>
-    <mergeCell ref="J105:J107"/>
-    <mergeCell ref="K105:K107"/>
-    <mergeCell ref="L105:L107"/>
-    <mergeCell ref="M105:M107"/>
-    <mergeCell ref="N105:N107"/>
-    <mergeCell ref="I105:I107"/>
-    <mergeCell ref="J95:J96"/>
-    <mergeCell ref="N101:N104"/>
-    <mergeCell ref="J98:J100"/>
-    <mergeCell ref="K98:K100"/>
-    <mergeCell ref="L98:L100"/>
-    <mergeCell ref="M98:M100"/>
-    <mergeCell ref="N98:N100"/>
-    <mergeCell ref="B101:B104"/>
-    <mergeCell ref="C101:C104"/>
-    <mergeCell ref="D101:D104"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="H101:H104"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="J101:J104"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="D108:D111"/>
-    <mergeCell ref="E108:E111"/>
-    <mergeCell ref="H108:H111"/>
-    <mergeCell ref="B105:B107"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="J93:J94"/>
-    <mergeCell ref="K93:K94"/>
-    <mergeCell ref="L93:L94"/>
-    <mergeCell ref="M93:M94"/>
-    <mergeCell ref="N93:N94"/>
-    <mergeCell ref="C78:C81"/>
-    <mergeCell ref="D78:D81"/>
-    <mergeCell ref="E78:E81"/>
-    <mergeCell ref="H78:H81"/>
-    <mergeCell ref="N4:N11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="A115:A156"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="C4:C11"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="E4:E11"/>
-    <mergeCell ref="H4:H11"/>
-    <mergeCell ref="B74:B77"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="D74:D77"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="A22:A50"/>
-    <mergeCell ref="A51:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A97"/>
-    <mergeCell ref="A98:A114"/>
-    <mergeCell ref="H98:H100"/>
-    <mergeCell ref="L74:L77"/>
-    <mergeCell ref="K95:K96"/>
-    <mergeCell ref="L95:L96"/>
-    <mergeCell ref="M95:M96"/>
-    <mergeCell ref="K78:K81"/>
-    <mergeCell ref="L78:L81"/>
-    <mergeCell ref="A3:A21"/>
-    <mergeCell ref="I4:I11"/>
-    <mergeCell ref="J4:J11"/>
-    <mergeCell ref="K4:K11"/>
-    <mergeCell ref="L4:L11"/>
-    <mergeCell ref="M4:M11"/>
-    <mergeCell ref="I78:I81"/>
-    <mergeCell ref="J78:J81"/>
-    <mergeCell ref="M74:M77"/>
-    <mergeCell ref="M78:M81"/>
-    <mergeCell ref="H74:H77"/>
-    <mergeCell ref="I74:I77"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I23:I28"/>
-    <mergeCell ref="H23:H28"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="C23:C28"/>
-    <mergeCell ref="E23:E28"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="D105:D107"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="H105:H107"/>
-    <mergeCell ref="H39:H42"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="I98:I100"/>
-    <mergeCell ref="E98:E100"/>
-    <mergeCell ref="D98:D100"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="H95:H96"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="N39:N42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C43:C45"/>
-    <mergeCell ref="D43:D45"/>
-    <mergeCell ref="E43:E45"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="I43:I45"/>
-    <mergeCell ref="J43:J45"/>
-    <mergeCell ref="K43:K45"/>
-    <mergeCell ref="L43:L45"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="N43:N45"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="M39:M42"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="K39:K42"/>
-    <mergeCell ref="L39:L42"/>
+    <mergeCell ref="L170:L171"/>
+    <mergeCell ref="M170:M171"/>
+    <mergeCell ref="N170:N171"/>
+    <mergeCell ref="N166:N167"/>
+    <mergeCell ref="M166:M167"/>
+    <mergeCell ref="L166:L167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="J166:J167"/>
+    <mergeCell ref="K166:K167"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="J170:J171"/>
+    <mergeCell ref="K170:K171"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15122,20 +15157,20 @@
       <selection pane="bottomRight" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="14.0625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.0625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.58203125" style="27" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -15486,7 +15521,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="19" customFormat="1" ht="18.75">
+    <row r="9" spans="1:18" s="19" customFormat="1" ht="19.5">
       <c r="A9" s="47" t="s">
         <v>28</v>
       </c>
@@ -15532,7 +15567,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="19" customFormat="1" ht="18.75">
+    <row r="10" spans="1:18" s="19" customFormat="1" ht="19.5">
       <c r="A10" s="47" t="s">
         <v>28</v>
       </c>
@@ -15578,7 +15613,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="19" customFormat="1" ht="18.75">
+    <row r="11" spans="1:18" s="19" customFormat="1" ht="19.5">
       <c r="A11" s="47" t="s">
         <v>28</v>
       </c>
@@ -16076,7 +16111,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="18.75">
+    <row r="22" spans="1:18" ht="19.5">
       <c r="A22" s="29" t="s">
         <v>58</v>
       </c>
@@ -16124,7 +16159,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="18.75">
+    <row r="23" spans="1:18" ht="19.5">
       <c r="A23" s="36" t="s">
         <v>58</v>
       </c>
@@ -16170,7 +16205,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="18.75">
+    <row r="24" spans="1:18" ht="19.5">
       <c r="A24" s="36" t="s">
         <v>58</v>
       </c>
@@ -16362,7 +16397,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="18.75">
+    <row r="28" spans="1:18" ht="19.5">
       <c r="A28" s="36" t="s">
         <v>58</v>
       </c>
@@ -16506,7 +16541,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:18" ht="18.75">
+    <row r="31" spans="1:18" ht="19.5">
       <c r="A31" s="36" t="s">
         <v>58</v>
       </c>
@@ -17054,7 +17089,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="18.75">
+    <row r="42" spans="1:18" ht="19.5">
       <c r="A42" s="29" t="s">
         <v>77</v>
       </c>
@@ -17198,7 +17233,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="18.75">
+    <row r="45" spans="1:18" ht="19.5">
       <c r="A45" s="29" t="s">
         <v>77</v>
       </c>
@@ -17758,7 +17793,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="18.75">
+    <row r="57" spans="1:18" ht="19.5">
       <c r="A57" s="36" t="s">
         <v>133</v>
       </c>
@@ -17804,7 +17839,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="18.75">
+    <row r="58" spans="1:18" ht="19.5">
       <c r="A58" s="36" t="s">
         <v>133</v>
       </c>
@@ -17852,7 +17887,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="18.75">
+    <row r="59" spans="1:18" ht="19.5">
       <c r="A59" s="36" t="s">
         <v>133</v>
       </c>
@@ -17898,7 +17933,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="18.75">
+    <row r="60" spans="1:18" ht="19.5">
       <c r="A60" s="36" t="s">
         <v>133</v>
       </c>
@@ -17944,7 +17979,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="18.75">
+    <row r="61" spans="1:18" ht="19.5">
       <c r="A61" s="36" t="s">
         <v>133</v>
       </c>
@@ -17990,7 +18025,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="18.75">
+    <row r="62" spans="1:18" ht="19.5">
       <c r="A62" s="36" t="s">
         <v>133</v>
       </c>
@@ -18036,7 +18071,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="18.75">
+    <row r="63" spans="1:18" ht="19.5">
       <c r="A63" s="36" t="s">
         <v>133</v>
       </c>
@@ -18082,7 +18117,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="18.75">
+    <row r="64" spans="1:18" ht="19.5">
       <c r="A64" s="36" t="s">
         <v>133</v>
       </c>
@@ -19038,7 +19073,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="18.75">
+    <row r="84" spans="1:18" ht="19.5">
       <c r="A84" s="29" t="s">
         <v>135</v>
       </c>
@@ -19266,7 +19301,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="18.75">
+    <row r="89" spans="1:18" ht="19.5">
       <c r="A89" s="68" t="s">
         <v>248</v>
       </c>
@@ -19314,7 +19349,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:18" ht="18.75">
+    <row r="90" spans="1:18" ht="19.5">
       <c r="A90" s="68" t="s">
         <v>248</v>
       </c>
@@ -19362,7 +19397,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:18" ht="18.75">
+    <row r="91" spans="1:18" ht="19.5">
       <c r="A91" s="68" t="s">
         <v>248</v>
       </c>
@@ -19410,7 +19445,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:18" ht="18.75">
+    <row r="92" spans="1:18" ht="19.5">
       <c r="A92" s="68" t="s">
         <v>248</v>
       </c>
@@ -19458,7 +19493,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:18" ht="18.75">
+    <row r="93" spans="1:18" ht="19.5">
       <c r="A93" s="68" t="s">
         <v>248</v>
       </c>
@@ -19918,18 +19953,18 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
     <col min="1" max="1" width="4.75" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.125" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.08203125" style="58" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.5625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.0625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="255.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="255.58203125" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -19968,7 +20003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="141">
+    <row r="3" spans="1:13" ht="140">
       <c r="A3" s="109" t="s">
         <v>560</v>
       </c>
@@ -19998,7 +20033,7 @@
       <c r="K3" s="29"/>
       <c r="M3" s="33"/>
     </row>
-    <row r="4" spans="1:13" s="19" customFormat="1" ht="18.75">
+    <row r="4" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A4" s="47" t="s">
         <v>560</v>
       </c>
@@ -20028,7 +20063,7 @@
       <c r="K4" s="36"/>
       <c r="M4" s="38"/>
     </row>
-    <row r="5" spans="1:13" s="19" customFormat="1" ht="18.75">
+    <row r="5" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A5" s="109" t="s">
         <v>560</v>
       </c>
@@ -20058,7 +20093,7 @@
       <c r="K5" s="36"/>
       <c r="M5" s="38"/>
     </row>
-    <row r="6" spans="1:13" s="19" customFormat="1" ht="18.75">
+    <row r="6" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A6" s="109" t="s">
         <v>560</v>
       </c>
@@ -20088,7 +20123,7 @@
       <c r="K6" s="36"/>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="1:13" s="19" customFormat="1" ht="35.25">
+    <row r="7" spans="1:13" s="19" customFormat="1" ht="35">
       <c r="A7" s="109" t="s">
         <v>560</v>
       </c>
@@ -20118,7 +20153,7 @@
       <c r="K7" s="36"/>
       <c r="M7" s="38"/>
     </row>
-    <row r="8" spans="1:13" s="19" customFormat="1" ht="18.75">
+    <row r="8" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A8" s="109" t="s">
         <v>560</v>
       </c>
@@ -20148,7 +20183,7 @@
       <c r="K8" s="36"/>
       <c r="M8" s="38"/>
     </row>
-    <row r="9" spans="1:13" s="19" customFormat="1" ht="18.75">
+    <row r="9" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A9" s="109" t="s">
         <v>560</v>
       </c>
@@ -20178,7 +20213,7 @@
       <c r="K9" s="36"/>
       <c r="M9" s="38"/>
     </row>
-    <row r="10" spans="1:13" s="19" customFormat="1" ht="18.75">
+    <row r="10" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A10" s="109" t="s">
         <v>560</v>
       </c>
@@ -20208,7 +20243,7 @@
       <c r="K10" s="36"/>
       <c r="M10" s="38"/>
     </row>
-    <row r="11" spans="1:13" s="19" customFormat="1" ht="18.75">
+    <row r="11" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A11" s="109" t="s">
         <v>560</v>
       </c>
@@ -20238,7 +20273,7 @@
       <c r="K11" s="36"/>
       <c r="M11" s="38"/>
     </row>
-    <row r="12" spans="1:13" s="19" customFormat="1" ht="18.75">
+    <row r="12" spans="1:13" s="19" customFormat="1" ht="19.5">
       <c r="A12" s="109" t="s">
         <v>560</v>
       </c>
@@ -20332,7 +20367,7 @@
       </c>
       <c r="M14" s="38"/>
     </row>
-    <row r="15" spans="1:13" s="19" customFormat="1" ht="35.25">
+    <row r="15" spans="1:13" s="19" customFormat="1" ht="35">
       <c r="A15" s="109" t="s">
         <v>560</v>
       </c>
@@ -20342,7 +20377,7 @@
       <c r="C15" s="78" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="140" t="s">
+      <c r="D15" s="111" t="s">
         <v>284</v>
       </c>
       <c r="E15" s="36"/>
@@ -20426,7 +20461,7 @@
       </c>
       <c r="M17" s="38"/>
     </row>
-    <row r="18" spans="1:13" s="19" customFormat="1" ht="35.25">
+    <row r="18" spans="1:13" s="19" customFormat="1" ht="35">
       <c r="A18" s="109" t="s">
         <v>560</v>
       </c>
@@ -20436,7 +20471,7 @@
       <c r="C18" s="78" t="s">
         <v>572</v>
       </c>
-      <c r="D18" s="140" t="s">
+      <c r="D18" s="111" t="s">
         <v>284</v>
       </c>
       <c r="E18" s="36"/>
@@ -20532,27 +20567,27 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:Q78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="26.3125" style="58" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="58" customWidth="1"/>
     <col min="2" max="2" width="26.25" style="58" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.6875" style="58" customWidth="1"/>
-    <col min="4" max="4" width="40.8125" style="58" customWidth="1"/>
-    <col min="5" max="5" width="7.8125" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5625" style="58" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="58" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.9375" style="58" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.0625" style="58" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="58" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" style="58" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.58203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.9140625" style="58" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.08203125" style="58" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="58" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="176.0625" style="58" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="176.08203125" style="58" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
@@ -20591,7 +20626,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="141">
+    <row r="3" spans="1:17" ht="140">
       <c r="A3" s="83" t="s">
         <v>28</v>
       </c>
@@ -20622,7 +20657,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="19" customFormat="1" ht="35.25">
+    <row r="4" spans="1:17" s="19" customFormat="1" ht="35">
       <c r="A4" s="84" t="s">
         <v>28</v>
       </c>
@@ -20632,7 +20667,7 @@
       <c r="C4" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="111" t="s">
         <v>284</v>
       </c>
       <c r="E4" s="36">
@@ -20655,7 +20690,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="19" customFormat="1" ht="18.75">
+    <row r="5" spans="1:17" s="19" customFormat="1" ht="19.5">
       <c r="A5" s="83" t="s">
         <v>28</v>
       </c>
@@ -20686,7 +20721,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="19" customFormat="1" ht="18.75">
+    <row r="6" spans="1:17" s="19" customFormat="1" ht="19.5">
       <c r="A6" s="83" t="s">
         <v>28</v>
       </c>
@@ -20717,7 +20752,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="19" customFormat="1" ht="18.75">
+    <row r="7" spans="1:17" s="19" customFormat="1" ht="19.5">
       <c r="A7" s="83" t="s">
         <v>28</v>
       </c>
@@ -20771,7 +20806,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="105.75">
+    <row r="9" spans="1:17" ht="105">
       <c r="A9" s="85" t="s">
         <v>288</v>
       </c>
@@ -20807,7 +20842,7 @@
       <c r="P9" s="19"/>
       <c r="Q9" s="19"/>
     </row>
-    <row r="10" spans="1:17" ht="70.5">
+    <row r="10" spans="1:17" ht="70">
       <c r="A10" s="85" t="s">
         <v>288</v>
       </c>
@@ -20817,7 +20852,7 @@
       <c r="C10" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="D10" s="140" t="s">
+      <c r="D10" s="111" t="s">
         <v>293</v>
       </c>
       <c r="E10" s="36">
@@ -20840,7 +20875,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="105.75">
+    <row r="11" spans="1:17" ht="105">
       <c r="A11" s="85" t="s">
         <v>288</v>
       </c>
@@ -20850,7 +20885,7 @@
       <c r="C11" s="36" t="s">
         <v>573</v>
       </c>
-      <c r="D11" s="140" t="s">
+      <c r="D11" s="111" t="s">
         <v>442</v>
       </c>
       <c r="E11" s="35">
@@ -20972,7 +21007,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.75">
+    <row r="15" spans="1:17" ht="19.5">
       <c r="A15" s="85" t="s">
         <v>288</v>
       </c>
@@ -21003,7 +21038,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.75">
+    <row r="16" spans="1:17" ht="19.5">
       <c r="A16" s="85" t="s">
         <v>288</v>
       </c>
@@ -21158,7 +21193,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:11" ht="19.5">
       <c r="A21" s="90" t="s">
         <v>288</v>
       </c>
@@ -21189,7 +21224,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:11" ht="19.5">
       <c r="A22" s="85" t="s">
         <v>288</v>
       </c>
@@ -21500,9 +21535,7 @@
       <c r="J32" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="K32" s="35" t="s">
-        <v>355</v>
-      </c>
+      <c r="K32" s="35"/>
     </row>
     <row r="33" spans="1:11" s="19" customFormat="1">
       <c r="A33" s="94" t="s">
@@ -21653,7 +21686,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18.75">
+    <row r="38" spans="1:11" ht="19.5">
       <c r="A38" s="85" t="s">
         <v>298</v>
       </c>
@@ -22180,7 +22213,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="18.75">
+    <row r="55" spans="1:11" ht="19.5">
       <c r="A55" s="85" t="s">
         <v>298</v>
       </c>
@@ -22240,9 +22273,7 @@
       <c r="J56" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="K56" s="35" t="s">
-        <v>355</v>
-      </c>
+      <c r="K56" s="35"/>
     </row>
     <row r="57" spans="1:11" s="19" customFormat="1">
       <c r="A57" s="85" t="s">
@@ -22393,7 +22424,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="18.75">
+    <row r="62" spans="1:11" ht="19.5">
       <c r="A62" s="85" t="s">
         <v>300</v>
       </c>
@@ -22424,7 +22455,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="18.75">
+    <row r="63" spans="1:11" ht="19.5">
       <c r="A63" s="85" t="s">
         <v>300</v>
       </c>
@@ -22484,9 +22515,7 @@
       <c r="J64" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="K64" s="35" t="s">
-        <v>355</v>
-      </c>
+      <c r="K64" s="35"/>
     </row>
     <row r="65" spans="1:11" s="19" customFormat="1">
       <c r="A65" s="85" t="s">
@@ -22875,7 +22904,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="18.75">
+    <row r="78" spans="1:11" ht="19.5">
       <c r="A78" s="107" t="s">
         <v>546</v>
       </c>
@@ -22918,26 +22947,26 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A2:Q84"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C60" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomRight" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="24.3125" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.0625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.8125" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.8125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.0625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" style="27" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.58203125" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -23036,7 +23065,7 @@
       </c>
       <c r="K4" s="36"/>
     </row>
-    <row r="5" spans="1:17" s="19" customFormat="1" ht="18.75">
+    <row r="5" spans="1:17" s="19" customFormat="1" ht="19.5">
       <c r="A5" s="96" t="s">
         <v>28</v>
       </c>
@@ -23065,7 +23094,7 @@
       </c>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:17" s="19" customFormat="1" ht="18.75">
+    <row r="6" spans="1:17" s="19" customFormat="1" ht="19.5">
       <c r="A6" s="96" t="s">
         <v>28</v>
       </c>
@@ -23094,7 +23123,7 @@
       </c>
       <c r="K6" s="36"/>
     </row>
-    <row r="7" spans="1:17" s="19" customFormat="1" ht="18.75">
+    <row r="7" spans="1:17" s="19" customFormat="1" ht="19.5">
       <c r="A7" s="96" t="s">
         <v>28</v>
       </c>
@@ -23347,7 +23376,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="58" customFormat="1" ht="18.75">
+    <row r="15" spans="1:17" s="58" customFormat="1" ht="19.5">
       <c r="A15" s="102" t="s">
         <v>288</v>
       </c>
@@ -23407,7 +23436,7 @@
       <c r="J16" s="36"/>
       <c r="K16" s="35"/>
     </row>
-    <row r="17" spans="1:11" ht="18.75">
+    <row r="17" spans="1:11" ht="19.5">
       <c r="A17" s="100" t="s">
         <v>288</v>
       </c>
@@ -23562,7 +23591,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="58" customFormat="1" ht="18.75">
+    <row r="22" spans="1:11" s="58" customFormat="1" ht="19.5">
       <c r="A22" s="102" t="s">
         <v>288</v>
       </c>
@@ -23593,7 +23622,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="58" customFormat="1" ht="18.75">
+    <row r="23" spans="1:11" s="58" customFormat="1" ht="19.5">
       <c r="A23" s="102" t="s">
         <v>288</v>
       </c>
@@ -23904,9 +23933,7 @@
       <c r="J33" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="K33" s="35" t="s">
-        <v>355</v>
-      </c>
+      <c r="K33" s="35"/>
     </row>
     <row r="34" spans="1:11" s="19" customFormat="1">
       <c r="A34" s="102" t="s">
@@ -24057,7 +24084,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="58" customFormat="1" ht="18.75">
+    <row r="39" spans="1:11" s="58" customFormat="1" ht="19.5">
       <c r="A39" s="102" t="s">
         <v>298</v>
       </c>
@@ -24613,7 +24640,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="18.75">
+    <row r="57" spans="1:11" ht="19.5">
       <c r="A57" s="102" t="s">
         <v>298</v>
       </c>
@@ -24673,9 +24700,7 @@
       <c r="J58" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="K58" s="35" t="s">
-        <v>355</v>
-      </c>
+      <c r="K58" s="35"/>
     </row>
     <row r="59" spans="1:11" s="19" customFormat="1">
       <c r="A59" s="102" t="s">
@@ -24826,7 +24851,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="58" customFormat="1" ht="18.75">
+    <row r="64" spans="1:11" s="58" customFormat="1" ht="19.5">
       <c r="A64" s="102" t="s">
         <v>300</v>
       </c>
@@ -24886,7 +24911,7 @@
       <c r="J65" s="36"/>
       <c r="K65" s="35"/>
     </row>
-    <row r="66" spans="1:11" s="58" customFormat="1" ht="18.75">
+    <row r="66" spans="1:11" s="58" customFormat="1" ht="19.5">
       <c r="A66" s="102" t="s">
         <v>300</v>
       </c>
@@ -24946,9 +24971,7 @@
       <c r="J67" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="K67" s="35" t="s">
-        <v>355</v>
-      </c>
+      <c r="K67" s="35"/>
     </row>
     <row r="68" spans="1:11" s="19" customFormat="1">
       <c r="A68" s="102" t="s">
@@ -25395,7 +25418,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="18.75">
+    <row r="83" spans="1:11" ht="19.5">
       <c r="A83" s="108" t="s">
         <v>546</v>
       </c>
@@ -25474,20 +25497,20 @@
       <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="14.0625" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.0625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.58203125" style="27" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -25596,7 +25619,7 @@
       </c>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:19" s="19" customFormat="1" ht="18.75">
+    <row r="5" spans="1:19" s="19" customFormat="1" ht="19.5">
       <c r="A5" s="47" t="s">
         <v>28</v>
       </c>
@@ -25627,7 +25650,7 @@
       </c>
       <c r="M5" s="36"/>
     </row>
-    <row r="6" spans="1:19" s="19" customFormat="1" ht="18.75">
+    <row r="6" spans="1:19" s="19" customFormat="1" ht="19.5">
       <c r="A6" s="47" t="s">
         <v>28</v>
       </c>
@@ -25658,7 +25681,7 @@
       </c>
       <c r="M6" s="36"/>
     </row>
-    <row r="7" spans="1:19" s="19" customFormat="1" ht="18.75">
+    <row r="7" spans="1:19" s="19" customFormat="1" ht="19.5">
       <c r="A7" s="47" t="s">
         <v>28</v>
       </c>
@@ -25862,7 +25885,7 @@
       </c>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:19" ht="18.75">
+    <row r="14" spans="1:19" ht="19.5">
       <c r="A14" s="36" t="s">
         <v>58</v>
       </c>
@@ -25893,7 +25916,7 @@
       </c>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:19" ht="18.75">
+    <row r="15" spans="1:19" ht="19.5">
       <c r="A15" s="36" t="s">
         <v>58</v>
       </c>
@@ -26025,7 +26048,7 @@
       </c>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" ht="18.75">
+    <row r="19" spans="1:13" ht="19.5">
       <c r="A19" s="36" t="s">
         <v>58</v>
       </c>
@@ -26124,7 +26147,7 @@
       </c>
       <c r="M21" s="35"/>
     </row>
-    <row r="22" spans="1:13" ht="18.75">
+    <row r="22" spans="1:13" ht="19.5">
       <c r="A22" s="36" t="s">
         <v>58</v>
       </c>
@@ -26289,7 +26312,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="18.75">
+    <row r="27" spans="1:13" ht="19.5">
       <c r="A27" s="29" t="s">
         <v>77</v>
       </c>
@@ -26749,7 +26772,7 @@
       <c r="L40" s="26"/>
       <c r="M40" s="26"/>
     </row>
-    <row r="41" spans="1:13" ht="18.75">
+    <row r="41" spans="1:13" ht="19.5">
       <c r="A41" s="26" t="s">
         <v>135</v>
       </c>
@@ -26836,7 +26859,7 @@
       </c>
       <c r="M43" s="36"/>
     </row>
-    <row r="44" spans="1:13" ht="18.75">
+    <row r="44" spans="1:13" ht="19.5">
       <c r="A44" s="68" t="s">
         <v>248</v>
       </c>
@@ -26869,7 +26892,7 @@
       </c>
       <c r="M44" s="36"/>
     </row>
-    <row r="45" spans="1:13" ht="18.75">
+    <row r="45" spans="1:13" ht="19.5">
       <c r="A45" s="68" t="s">
         <v>248</v>
       </c>
@@ -26902,7 +26925,7 @@
       </c>
       <c r="M45" s="36"/>
     </row>
-    <row r="46" spans="1:13" ht="18.75">
+    <row r="46" spans="1:13" ht="19.5">
       <c r="A46" s="68" t="s">
         <v>248</v>
       </c>
@@ -26935,7 +26958,7 @@
       </c>
       <c r="M46" s="36"/>
     </row>
-    <row r="47" spans="1:13" ht="18.75">
+    <row r="47" spans="1:13" ht="19.5">
       <c r="A47" s="68" t="s">
         <v>248</v>
       </c>
@@ -26968,7 +26991,7 @@
       </c>
       <c r="M47" s="36"/>
     </row>
-    <row r="48" spans="1:13" ht="18.75">
+    <row r="48" spans="1:13" ht="19.5">
       <c r="A48" s="68" t="s">
         <v>248</v>
       </c>
@@ -27292,20 +27315,20 @@
       <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
   <cols>
-    <col min="1" max="1" width="21.6875" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.8125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.58203125" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.25" style="27" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5625" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.8125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.9375" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.0625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.58203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.9140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.08203125" style="27" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" style="27" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.5625" style="27" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.58203125" style="27" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
@@ -27414,7 +27437,7 @@
       </c>
       <c r="M4" s="36"/>
     </row>
-    <row r="5" spans="1:19" s="19" customFormat="1" ht="18.75">
+    <row r="5" spans="1:19" s="19" customFormat="1" ht="19.5">
       <c r="A5" s="47" t="s">
         <v>28</v>
       </c>
@@ -27445,7 +27468,7 @@
       </c>
       <c r="M5" s="36"/>
     </row>
-    <row r="6" spans="1:19" s="19" customFormat="1" ht="18.75">
+    <row r="6" spans="1:19" s="19" customFormat="1" ht="19.5">
       <c r="A6" s="47" t="s">
         <v>28</v>
       </c>
@@ -27476,7 +27499,7 @@
       </c>
       <c r="M6" s="36"/>
     </row>
-    <row r="7" spans="1:19" s="19" customFormat="1" ht="18.75">
+    <row r="7" spans="1:19" s="19" customFormat="1" ht="19.5">
       <c r="A7" s="47" t="s">
         <v>28</v>
       </c>
@@ -27680,7 +27703,7 @@
       </c>
       <c r="M13" s="26"/>
     </row>
-    <row r="14" spans="1:19" ht="18.75">
+    <row r="14" spans="1:19" ht="19.5">
       <c r="A14" s="36" t="s">
         <v>58</v>
       </c>
@@ -27711,7 +27734,7 @@
       </c>
       <c r="M14" s="35"/>
     </row>
-    <row r="15" spans="1:19" ht="18.75">
+    <row r="15" spans="1:19" ht="19.5">
       <c r="A15" s="36" t="s">
         <v>58</v>
       </c>
@@ -27843,7 +27866,7 @@
       </c>
       <c r="M18" s="35"/>
     </row>
-    <row r="19" spans="1:13" ht="18.75">
+    <row r="19" spans="1:13" ht="19.5">
       <c r="A19" s="36" t="s">
         <v>58</v>
       </c>
@@ -27942,7 +27965,7 @@
       </c>
       <c r="M21" s="35"/>
     </row>
-    <row r="22" spans="1:13" ht="18.75">
+    <row r="22" spans="1:13" ht="19.5">
       <c r="A22" s="36" t="s">
         <v>58</v>
       </c>
@@ -28216,7 +28239,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18.75">
+    <row r="30" spans="1:13" ht="19.5">
       <c r="A30" s="29" t="s">
         <v>77</v>
       </c>
@@ -28509,7 +28532,7 @@
       </c>
       <c r="M38" s="36"/>
     </row>
-    <row r="39" spans="1:13" ht="18.75">
+    <row r="39" spans="1:13" ht="19.5">
       <c r="A39" s="36" t="s">
         <v>133</v>
       </c>
@@ -28540,7 +28563,7 @@
       </c>
       <c r="M39" s="35"/>
     </row>
-    <row r="40" spans="1:13" ht="18.75">
+    <row r="40" spans="1:13" ht="19.5">
       <c r="A40" s="36" t="s">
         <v>133</v>
       </c>
@@ -28571,7 +28594,7 @@
       </c>
       <c r="M40" s="35"/>
     </row>
-    <row r="41" spans="1:13" ht="18.75">
+    <row r="41" spans="1:13" ht="19.5">
       <c r="A41" s="36" t="s">
         <v>133</v>
       </c>
@@ -28602,7 +28625,7 @@
       </c>
       <c r="M41" s="35"/>
     </row>
-    <row r="42" spans="1:13" ht="18.75">
+    <row r="42" spans="1:13" ht="19.5">
       <c r="A42" s="36" t="s">
         <v>133</v>
       </c>
@@ -29058,7 +29081,7 @@
       <c r="L55" s="26"/>
       <c r="M55" s="26"/>
     </row>
-    <row r="56" spans="1:13" ht="18.75">
+    <row r="56" spans="1:13" ht="19.5">
       <c r="A56" s="26" t="s">
         <v>135</v>
       </c>
@@ -29145,7 +29168,7 @@
       </c>
       <c r="M58" s="36"/>
     </row>
-    <row r="59" spans="1:13" ht="18.75">
+    <row r="59" spans="1:13" ht="19.5">
       <c r="A59" s="68" t="s">
         <v>248</v>
       </c>
@@ -29178,7 +29201,7 @@
       </c>
       <c r="M59" s="36"/>
     </row>
-    <row r="60" spans="1:13" ht="18.75">
+    <row r="60" spans="1:13" ht="19.5">
       <c r="A60" s="68" t="s">
         <v>248</v>
       </c>
@@ -29211,7 +29234,7 @@
       </c>
       <c r="M60" s="36"/>
     </row>
-    <row r="61" spans="1:13" ht="18.75">
+    <row r="61" spans="1:13" ht="19.5">
       <c r="A61" s="68" t="s">
         <v>248</v>
       </c>
@@ -29244,7 +29267,7 @@
       </c>
       <c r="M61" s="36"/>
     </row>
-    <row r="62" spans="1:13" ht="18.75">
+    <row r="62" spans="1:13" ht="19.5">
       <c r="A62" s="68" t="s">
         <v>248</v>
       </c>
@@ -29277,7 +29300,7 @@
       </c>
       <c r="M62" s="36"/>
     </row>
-    <row r="63" spans="1:13" ht="18.75">
+    <row r="63" spans="1:13" ht="19.5">
       <c r="A63" s="68" t="s">
         <v>248</v>
       </c>

--- a/入力情報定義表.xlsx
+++ b/入力情報定義表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\e7_inputdataconvert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C601DDC-A6C2-43CB-87BD-BE5D3201E41A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC700AD-42A3-49BA-9F19-30BA265BFBD4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8333" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8333" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="熱負荷計算csv" sheetId="12" r:id="rId3"/>
     <sheet name="LV1" sheetId="4" r:id="rId4"/>
     <sheet name="LV2" sheetId="5" r:id="rId5"/>
-    <sheet name="熱負荷計算LV3csv" sheetId="6" r:id="rId6"/>
-    <sheet name="熱負荷計算V4csv" sheetId="7" r:id="rId7"/>
-    <sheet name="熱負荷計算V5csv" sheetId="8" r:id="rId8"/>
+    <sheet name="LV3" sheetId="6" r:id="rId6"/>
+    <sheet name="LV4" sheetId="7" r:id="rId7"/>
+    <sheet name="LV5" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -7678,7 +7678,7 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A2:K125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -18526,7 +18526,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:S71"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/入力情報定義表.xlsx
+++ b/入力情報定義表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\e7_inputdataconvert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC700AD-42A3-49BA-9F19-30BA265BFBD4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B6F7C0-1A71-4325-9CE2-A9187EB8DD21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8333" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8333" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2681" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2741" uniqueCount="653">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -6019,6 +6019,24 @@
     <rPh sb="21" eb="23">
       <t>コウシン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力情報</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6138,7 +6156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6205,6 +6223,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6330,6 +6351,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6648,21 +6672,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="32" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="30">
+      <c r="A2" s="31">
         <v>43182</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C2" t="s">
@@ -6670,10 +6694,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="30">
+      <c r="A3" s="31">
         <v>43182</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
@@ -6681,10 +6705,10 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="30">
+      <c r="A4" s="31">
         <v>43182</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C4" t="s">
@@ -6692,10 +6716,10 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="30">
+      <c r="A5" s="31">
         <v>43182</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C5" t="s">
@@ -6703,10 +6727,10 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="30">
+      <c r="A6" s="31">
         <v>43182</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C6" t="s">
@@ -6714,10 +6738,10 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="30">
+      <c r="A7" s="31">
         <v>43182</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C7" t="s">
@@ -6725,10 +6749,10 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="30">
+      <c r="A8" s="31">
         <v>43182</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C8" t="s">
@@ -6736,10 +6760,10 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="30">
+      <c r="A9" s="31">
         <v>43182</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C9" t="s">
@@ -6747,10 +6771,10 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="30">
+      <c r="A10" s="31">
         <v>43182</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C10" t="s">
@@ -6758,10 +6782,10 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="30">
+      <c r="A11" s="31">
         <v>43182</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C11" t="s">
@@ -6769,10 +6793,10 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="30">
+      <c r="A12" s="31">
         <v>43182</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C12" t="s">
@@ -6780,10 +6804,10 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="30">
+      <c r="A13" s="31">
         <v>43182</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C13" t="s">
@@ -6791,10 +6815,10 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="30">
+      <c r="A14" s="31">
         <v>43185</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="31" t="s">
         <v>211</v>
       </c>
       <c r="C14" t="s">
@@ -6802,10 +6826,10 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="30">
+      <c r="A15" s="31">
         <v>43185</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="31" t="s">
         <v>209</v>
       </c>
       <c r="C15" t="s">
@@ -6813,10 +6837,10 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="30">
+      <c r="A16" s="31">
         <v>43185</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="31" t="s">
         <v>209</v>
       </c>
       <c r="C16" t="s">
@@ -6824,10 +6848,10 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="30">
+      <c r="A17" s="31">
         <v>43185</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="31" t="s">
         <v>209</v>
       </c>
       <c r="C17" t="s">
@@ -6835,10 +6859,10 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="30">
+      <c r="A18" s="31">
         <v>43185</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C18" t="s">
@@ -6846,10 +6870,10 @@
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="30">
+      <c r="A19" s="31">
         <v>43185</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C19" t="s">
@@ -6857,10 +6881,10 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="30">
+      <c r="A20" s="31">
         <v>43192</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C20" t="s">
@@ -6868,10 +6892,10 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="30">
+      <c r="A21" s="31">
         <v>43192</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C21" t="s">
@@ -6879,10 +6903,10 @@
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="30">
+      <c r="A22" s="31">
         <v>43192</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C22" t="s">
@@ -6890,10 +6914,10 @@
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="30">
+      <c r="A23" s="31">
         <v>43192</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C23" t="s">
@@ -6901,10 +6925,10 @@
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="30">
+      <c r="A24" s="31">
         <v>43192</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C24" t="s">
@@ -6912,10 +6936,10 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="30">
+      <c r="A25" s="31">
         <v>43192</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C25" t="s">
@@ -6923,10 +6947,10 @@
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="30">
+      <c r="A26" s="31">
         <v>43193</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C26" t="s">
@@ -6934,10 +6958,10 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="30">
+      <c r="A27" s="31">
         <v>43193</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C27" t="s">
@@ -6945,10 +6969,10 @@
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="30">
+      <c r="A28" s="31">
         <v>43193</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C28" t="s">
@@ -6956,10 +6980,10 @@
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="30">
+      <c r="A29" s="31">
         <v>43193</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C29" t="s">
@@ -6967,10 +6991,10 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="30">
+      <c r="A30" s="31">
         <v>43196</v>
       </c>
-      <c r="B30" s="30" t="s">
+      <c r="B30" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C30" t="s">
@@ -6978,10 +7002,10 @@
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="30">
+      <c r="A31" s="31">
         <v>43196</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C31" t="s">
@@ -6989,10 +7013,10 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="30">
+      <c r="A32" s="31">
         <v>43196</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B32" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C32" t="s">
@@ -7000,10 +7024,10 @@
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="30">
+      <c r="A33" s="31">
         <v>43196</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C33" t="s">
@@ -7011,10 +7035,10 @@
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="30">
+      <c r="A34" s="31">
         <v>43196</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C34" t="s">
@@ -7022,21 +7046,21 @@
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="30">
+      <c r="A35" s="31">
         <v>43196</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C35" s="35" t="s">
+      <c r="C35" s="36" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="30">
+      <c r="A36" s="31">
         <v>43196</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C36" t="s">
@@ -7044,10 +7068,10 @@
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="30">
+      <c r="A37" s="31">
         <v>43196</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C37" t="s">
@@ -7055,21 +7079,21 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="30">
+      <c r="A38" s="31">
         <v>43196</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="35" t="s">
+      <c r="C38" s="36" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="30">
+      <c r="A39" s="31">
         <v>43196</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C39" t="s">
@@ -7077,10 +7101,10 @@
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="30">
+      <c r="A40" s="31">
         <v>43196</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C40" t="s">
@@ -7088,10 +7112,10 @@
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="30">
+      <c r="A41" s="31">
         <v>43196</v>
       </c>
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="31" t="s">
         <v>169</v>
       </c>
       <c r="C41" t="s">
@@ -7099,508 +7123,508 @@
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="30">
+      <c r="A42" s="31">
         <v>43196</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C42" s="36" t="s">
+      <c r="C42" s="37" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="30">
+      <c r="A43" s="31">
         <v>43202</v>
       </c>
-      <c r="B43" s="30" t="s">
+      <c r="B43" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C43" s="36" t="s">
+      <c r="C43" s="37" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="30">
+      <c r="A44" s="31">
         <v>43202</v>
       </c>
-      <c r="B44" s="30" t="s">
+      <c r="B44" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="36" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="30">
+      <c r="A45" s="31">
         <v>43202</v>
       </c>
-      <c r="B45" s="30" t="s">
+      <c r="B45" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="36" t="s">
+      <c r="C45" s="37" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="30">
+      <c r="A46" s="31">
         <v>43202</v>
       </c>
-      <c r="B46" s="30" t="s">
+      <c r="B46" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="36" t="s">
+      <c r="C46" s="37" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="30">
+      <c r="A47" s="31">
         <v>43202</v>
       </c>
-      <c r="B47" s="30" t="s">
+      <c r="B47" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="36" t="s">
+      <c r="C47" s="37" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="30">
+      <c r="A48" s="31">
         <v>43202</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C48" s="36" t="s">
+      <c r="C48" s="37" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="30">
+      <c r="A49" s="31">
         <v>43202</v>
       </c>
-      <c r="B49" s="30" t="s">
+      <c r="B49" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C49" s="36" t="s">
+      <c r="C49" s="37" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="30">
+      <c r="A50" s="31">
         <v>43203</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="31" t="s">
         <v>211</v>
       </c>
-      <c r="C50" s="36" t="s">
+      <c r="C50" s="37" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="30">
+      <c r="A51" s="31">
         <v>43203</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="C51" s="36" t="s">
+      <c r="C51" s="37" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="30">
+      <c r="A52" s="31">
         <v>43203</v>
       </c>
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C52" s="36" t="s">
+      <c r="C52" s="37" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="30">
+      <c r="A53" s="31">
         <v>43203</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B53" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C53" s="36" t="s">
+      <c r="C53" s="37" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="30">
+      <c r="A54" s="31">
         <v>43203</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C54" s="36" t="s">
+      <c r="C54" s="37" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="30">
+      <c r="A55" s="31">
         <v>43203</v>
       </c>
-      <c r="B55" s="30" t="s">
+      <c r="B55" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C55" s="36" t="s">
+      <c r="C55" s="37" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="30">
+      <c r="A56" s="31">
         <v>43203</v>
       </c>
-      <c r="B56" s="30" t="s">
+      <c r="B56" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C56" s="36" t="s">
+      <c r="C56" s="37" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="30">
+      <c r="A57" s="31">
         <v>43203</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C57" s="36" t="s">
+      <c r="C57" s="37" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="30">
+      <c r="A58" s="31">
         <v>43203</v>
       </c>
-      <c r="B58" s="30" t="s">
+      <c r="B58" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="36" t="s">
+      <c r="C58" s="37" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="30">
+      <c r="A59" s="31">
         <v>43203</v>
       </c>
-      <c r="B59" s="30" t="s">
+      <c r="B59" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C59" s="36" t="s">
+      <c r="C59" s="37" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="30">
+      <c r="A60" s="31">
         <v>43203</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="B60" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="37" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="30">
+      <c r="A61" s="31">
         <v>43203</v>
       </c>
-      <c r="B61" s="30" t="s">
+      <c r="B61" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="36" t="s">
+      <c r="C61" s="37" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="30">
+      <c r="A62" s="31">
         <v>43203</v>
       </c>
-      <c r="B62" s="30" t="s">
+      <c r="B62" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C62" s="36" t="s">
+      <c r="C62" s="37" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="30">
+      <c r="A63" s="31">
         <v>43207</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C63" s="36" t="s">
+      <c r="C63" s="37" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="30">
+      <c r="A64" s="31">
         <v>43207</v>
       </c>
-      <c r="B64" s="30" t="s">
+      <c r="B64" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="36" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="30">
+      <c r="A65" s="31">
         <v>43257</v>
       </c>
-      <c r="B65" s="30" t="s">
+      <c r="B65" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="C65" s="36" t="s">
+      <c r="C65" s="37" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="30">
+      <c r="A66" s="31">
         <v>43257</v>
       </c>
-      <c r="B66" s="30" t="s">
+      <c r="B66" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="C66" s="36" t="s">
+      <c r="C66" s="37" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="30">
+      <c r="A67" s="31">
         <v>43257</v>
       </c>
-      <c r="B67" s="30" t="s">
+      <c r="B67" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="37" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="30">
+      <c r="A68" s="31">
         <v>43265</v>
       </c>
-      <c r="B68" s="30" t="s">
+      <c r="B68" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C68" s="36" t="s">
+      <c r="C68" s="37" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="30">
+      <c r="A69" s="31">
         <v>43265</v>
       </c>
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="37" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="30">
+      <c r="A70" s="31">
         <v>43265</v>
       </c>
-      <c r="B70" s="30" t="s">
+      <c r="B70" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="C70" s="36" t="s">
+      <c r="C70" s="37" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="30">
+      <c r="A71" s="31">
         <v>43265</v>
       </c>
-      <c r="B71" s="30" t="s">
+      <c r="B71" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="C71" s="36" t="s">
+      <c r="C71" s="37" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="30">
+      <c r="A72" s="31">
         <v>43266</v>
       </c>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="C72" s="36" t="s">
+      <c r="C72" s="37" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="30">
+      <c r="A73" s="31">
         <v>43266</v>
       </c>
-      <c r="B73" s="30" t="s">
+      <c r="B73" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="C73" s="36" t="s">
+      <c r="C73" s="37" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="30">
+      <c r="A74" s="31">
         <v>43266</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="37" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="30">
+      <c r="A75" s="31">
         <v>43266</v>
       </c>
-      <c r="B75" s="30" t="s">
+      <c r="B75" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="C75" s="36" t="s">
+      <c r="C75" s="37" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="30">
+      <c r="A76" s="31">
         <v>43269</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B76" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="37" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="30">
+      <c r="A77" s="31">
         <v>43279</v>
       </c>
-      <c r="B77" s="30" t="s">
+      <c r="B77" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C77" s="36" t="s">
+      <c r="C77" s="37" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="30">
+      <c r="A78" s="31">
         <v>43279</v>
       </c>
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="C78" s="36" t="s">
+      <c r="C78" s="37" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="30">
+      <c r="A79" s="31">
         <v>43279</v>
       </c>
-      <c r="B79" s="30" t="s">
+      <c r="B79" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="C79" s="36" t="s">
+      <c r="C79" s="37" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="30">
+      <c r="A80" s="31">
         <v>43283</v>
       </c>
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C80" s="36" t="s">
+      <c r="C80" s="37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="30">
+      <c r="A81" s="31">
         <v>43283</v>
       </c>
-      <c r="B81" s="30" t="s">
+      <c r="B81" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C81" s="36" t="s">
+      <c r="C81" s="37" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="30">
+      <c r="A82" s="31">
         <v>43283</v>
       </c>
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="C82" s="36" t="s">
+      <c r="C82" s="37" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="30">
+      <c r="A83" s="31">
         <v>43283</v>
       </c>
-      <c r="B83" s="30" t="s">
+      <c r="B83" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="C83" s="36" t="s">
+      <c r="C83" s="37" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="30">
+      <c r="A84" s="31">
         <v>43283</v>
       </c>
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="37" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="30">
+      <c r="A85" s="31">
         <v>43291</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="37" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="30">
+      <c r="A86" s="31">
         <v>43291</v>
       </c>
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="31" t="s">
         <v>420</v>
       </c>
-      <c r="C86" s="36" t="s">
+      <c r="C86" s="37" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="30">
+      <c r="A87" s="31">
         <v>43294</v>
       </c>
-      <c r="B87" s="30" t="s">
+      <c r="B87" s="31" t="s">
         <v>648</v>
       </c>
-      <c r="C87" s="36" t="s">
+      <c r="C87" s="37" t="s">
         <v>649</v>
       </c>
     </row>
@@ -7622,11 +7646,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="9" style="28"/>
+    <col min="1" max="1" width="9" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>144</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -7638,7 +7662,7 @@
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="28" t="s">
         <v>103</v>
       </c>
       <c r="B2" s="20"/>
@@ -7648,7 +7672,7 @@
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B3" s="20"/>
@@ -7658,7 +7682,7 @@
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>105</v>
       </c>
       <c r="B4" s="20"/>
@@ -7676,388 +7700,405 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA896C3-4572-4FC1-8481-87F5BF5E8D28}">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A2:K125"/>
+  <dimension ref="A2:L125"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="23.75" style="23" customWidth="1"/>
-    <col min="2" max="2" width="36.0625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.6875" style="23" customWidth="1"/>
-    <col min="5" max="5" width="7.8125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.9375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.0625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.5625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="23.75" style="24" customWidth="1"/>
+    <col min="2" max="2" width="36.0625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.5" style="24" customWidth="1"/>
+    <col min="4" max="4" width="19.6875" style="24" customWidth="1"/>
+    <col min="5" max="5" width="7.8125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.8125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.9375" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.0625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.5625" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
-      <c r="A2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="67" t="s">
+    <row r="2" spans="1:12">
+      <c r="A2" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="68" t="s">
         <v>419</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="68" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="68" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="73" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="68" t="s">
         <v>530</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67">
+      <c r="D3" s="68"/>
+      <c r="E3" s="68">
         <v>900</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="68">
         <v>300</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="68">
         <v>3600</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67" t="s">
+      <c r="I3" s="68"/>
+      <c r="J3" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="67"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="68"/>
+      <c r="L3" s="23"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="68" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="68">
         <v>6</v>
       </c>
-      <c r="F4" s="67">
-        <v>1</v>
-      </c>
-      <c r="G4" s="67">
+      <c r="F4" s="68">
+        <v>1</v>
+      </c>
+      <c r="G4" s="68">
         <v>8</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="68" t="s">
         <v>537</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67">
+      <c r="D5" s="68"/>
+      <c r="E5" s="68">
         <v>34.659999999999997</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="68">
         <v>-90</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="68">
         <v>90</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="67"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="68"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="65" t="s">
         <v>538</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67">
+      <c r="D6" s="68"/>
+      <c r="E6" s="68">
         <v>133.91999999999999</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="68">
         <v>-180</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="68">
         <v>180</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="67"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="68"/>
+      <c r="L6" s="23"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="68" t="s">
         <v>539</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67">
+      <c r="D7" s="68"/>
+      <c r="E7" s="68">
         <v>135</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="68">
         <v>-180</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="68">
         <v>180</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="67"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="68"/>
+      <c r="L7" s="23"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="68" t="s">
         <v>499</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="68" t="s">
         <v>540</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67">
+      <c r="D8" s="68"/>
+      <c r="E8" s="68">
         <v>20</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67" t="s">
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="68" t="s">
         <v>500</v>
       </c>
-      <c r="K8" s="67"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="68"/>
+      <c r="L8" s="23"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="68" t="s">
         <v>501</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="68" t="s">
         <v>541</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67">
-        <v>1</v>
-      </c>
-      <c r="F9" s="67">
-        <v>1</v>
-      </c>
-      <c r="G9" s="67">
+      <c r="D9" s="68"/>
+      <c r="E9" s="68">
+        <v>1</v>
+      </c>
+      <c r="F9" s="68">
+        <v>1</v>
+      </c>
+      <c r="G9" s="68">
         <v>12</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="68" t="s">
         <v>22</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="68" t="s">
         <v>503</v>
       </c>
-      <c r="K9" s="67"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="68"/>
+      <c r="L9" s="23"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="68" t="s">
         <v>502</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="68" t="s">
         <v>542</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67">
-        <v>1</v>
-      </c>
-      <c r="F10" s="67">
-        <v>1</v>
-      </c>
-      <c r="G10" s="67">
+      <c r="D10" s="68"/>
+      <c r="E10" s="68">
+        <v>1</v>
+      </c>
+      <c r="F10" s="68">
+        <v>1</v>
+      </c>
+      <c r="G10" s="68">
         <v>31</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="68" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="67" t="s">
+      <c r="J10" s="68" t="s">
         <v>500</v>
       </c>
-      <c r="K10" s="67"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="68"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="68" t="s">
         <v>504</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="68" t="s">
         <v>543</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67">
+      <c r="D11" s="68"/>
+      <c r="E11" s="68">
         <v>12</v>
       </c>
-      <c r="F11" s="67">
-        <v>1</v>
-      </c>
-      <c r="G11" s="67">
+      <c r="F11" s="68">
+        <v>1</v>
+      </c>
+      <c r="G11" s="68">
         <v>12</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="68" t="s">
         <v>22</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="67" t="s">
+      <c r="J11" s="68" t="s">
         <v>503</v>
       </c>
-      <c r="K11" s="67"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="K11" s="68"/>
+      <c r="L11" s="23"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="68" t="s">
         <v>505</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="68" t="s">
         <v>544</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67">
+      <c r="D12" s="68"/>
+      <c r="E12" s="68">
         <v>31</v>
       </c>
-      <c r="F12" s="67">
-        <v>1</v>
-      </c>
-      <c r="G12" s="67">
+      <c r="F12" s="68">
+        <v>1</v>
+      </c>
+      <c r="G12" s="68">
         <v>31</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="68" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="67" t="s">
+      <c r="J12" s="68" t="s">
         <v>500</v>
       </c>
-      <c r="K12" s="67"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="K12" s="68"/>
+      <c r="L12" s="23"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="68" t="s">
         <v>506</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="68" t="s">
         <v>531</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67">
+      <c r="D13" s="68"/>
+      <c r="E13" s="68">
         <v>50</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67" t="s">
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="67" t="s">
+      <c r="J13" s="68" t="s">
         <v>507</v>
       </c>
-      <c r="K13" s="67"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13" s="68"/>
+      <c r="L13" s="23"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="68" t="s">
         <v>508</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -8067,10 +8108,10 @@
         <v>178</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="67">
-        <v>1</v>
-      </c>
-      <c r="G14" s="67">
+      <c r="F14" s="68">
+        <v>1</v>
+      </c>
+      <c r="G14" s="68">
         <v>2</v>
       </c>
       <c r="H14" s="9" t="s">
@@ -8080,64 +8121,67 @@
       <c r="J14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="67"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14" s="68"/>
+      <c r="L14" s="23"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="68" t="s">
         <v>509</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="68" t="s">
         <v>546</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="68" t="s">
         <v>549</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="71">
-        <v>1</v>
-      </c>
-      <c r="G15" s="71">
+      <c r="E15" s="68"/>
+      <c r="F15" s="72">
+        <v>1</v>
+      </c>
+      <c r="G15" s="72">
         <v>3</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="72" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="23"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="68" t="s">
         <v>510</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="68" t="s">
         <v>547</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="71" t="s">
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="72" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="68" t="s">
         <v>511</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="68" t="s">
         <v>548</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -8159,9 +8203,10 @@
       <c r="J17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="67"/>
-    </row>
-    <row r="18" spans="1:11" s="2" customFormat="1">
+      <c r="K17" s="68"/>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="1:12" s="2" customFormat="1">
       <c r="A18" s="15" t="s">
         <v>16</v>
       </c>
@@ -8191,8 +8236,11 @@
         <v>18</v>
       </c>
       <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" ht="18.75">
+      <c r="L18" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="2" customFormat="1" ht="18.75">
       <c r="A19" s="22" t="s">
         <v>16</v>
       </c>
@@ -8204,24 +8252,27 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="67">
+      <c r="F19" s="68">
         <v>0</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="68">
         <v>999.99</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
       </c>
-      <c r="J19" s="67" t="s">
+      <c r="J19" s="68" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" ht="18.75">
+      <c r="L19" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="2" customFormat="1" ht="18.75">
       <c r="A20" s="22" t="s">
         <v>16</v>
       </c>
@@ -8233,24 +8284,27 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="67">
+      <c r="F20" s="68">
         <v>0</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="68">
         <v>999.99</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
       </c>
-      <c r="J20" s="67" t="s">
+      <c r="J20" s="68" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" s="2" customFormat="1" ht="18.75">
+      <c r="L20" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="2" customFormat="1" ht="18.75">
       <c r="A21" s="22" t="s">
         <v>16</v>
       </c>
@@ -8262,75 +8316,84 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="67">
+      <c r="F21" s="68">
         <v>0</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="68">
         <v>999.99</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
       </c>
-      <c r="J21" s="67" t="s">
+      <c r="J21" s="68" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="67" t="s">
+      <c r="L21" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="68" t="s">
         <v>343</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67" t="s">
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="67" t="s">
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="68" t="s">
         <v>344</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="68" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67">
-        <v>1</v>
-      </c>
-      <c r="G23" s="67">
+      <c r="E23" s="68"/>
+      <c r="F23" s="68">
+        <v>1</v>
+      </c>
+      <c r="G23" s="68">
         <v>6</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="67"/>
+      <c r="I23" s="68"/>
       <c r="J23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="67"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="67" t="s">
+      <c r="K23" s="68"/>
+      <c r="L23" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="68" t="s">
         <v>182</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -8358,39 +8421,45 @@
       <c r="J24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="67"/>
-    </row>
-    <row r="25" spans="1:11" ht="18.75">
-      <c r="A25" s="67" t="s">
+      <c r="K24" s="68"/>
+      <c r="L24" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="18.75">
+      <c r="A25" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="68" t="s">
         <v>352</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67">
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68">
         <v>0</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="68">
         <v>99</v>
       </c>
-      <c r="H25" s="67" t="s">
+      <c r="H25" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
       </c>
-      <c r="J25" s="67" t="s">
+      <c r="J25" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="67"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="67" t="s">
+      <c r="K25" s="68"/>
+      <c r="L25" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="68" t="s">
         <v>182</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -8416,265 +8485,285 @@
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="67"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="67" t="s">
+      <c r="K26" s="68"/>
+      <c r="L26" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="68" t="s">
         <v>512</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="68" t="s">
         <v>519</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67" t="s">
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="67" t="s">
+      <c r="I27" s="68"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="68" t="s">
         <v>513</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="68" t="s">
         <v>518</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67">
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68">
         <v>0</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="68">
         <v>9999</v>
       </c>
-      <c r="H28" s="67" t="s">
+      <c r="H28" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I28" s="1">
         <v>2</v>
       </c>
-      <c r="J28" s="67" t="s">
+      <c r="J28" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="67"/>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="67" t="s">
+      <c r="K28" s="68"/>
+      <c r="L28" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="68" t="s">
         <v>514</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="68" t="s">
         <v>517</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67">
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68">
         <v>0.02</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="68">
         <v>370</v>
       </c>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I29" s="1">
         <v>3</v>
       </c>
-      <c r="J29" s="67" t="s">
+      <c r="J29" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="67"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="67" t="s">
+      <c r="K29" s="68"/>
+      <c r="L29" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="68" t="s">
         <v>515</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="68" t="s">
         <v>516</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67">
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68">
         <v>0</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="68">
         <v>4000</v>
       </c>
-      <c r="H30" s="67" t="s">
+      <c r="H30" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67" t="s">
+      <c r="I30" s="68"/>
+      <c r="J30" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="K30" s="67"/>
-    </row>
-    <row r="31" spans="1:11" ht="18.75">
-      <c r="A31" s="67" t="s">
+      <c r="K30" s="68"/>
+      <c r="L30" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="18.75">
+      <c r="A31" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="68" t="s">
         <v>525</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="68" t="s">
         <v>532</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67" t="s">
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="1">
         <v>2</v>
       </c>
-      <c r="J31" s="67" t="s">
+      <c r="J31" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="K31" s="67"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="67" t="s">
+      <c r="K31" s="68"/>
+      <c r="L31" s="23"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="68" t="s">
         <v>533</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67">
+      <c r="D32" s="68"/>
+      <c r="E32" s="68">
         <v>0.9</v>
       </c>
-      <c r="F32" s="67">
+      <c r="F32" s="68">
         <v>0</v>
       </c>
-      <c r="G32" s="67">
-        <v>1</v>
-      </c>
-      <c r="H32" s="67" t="s">
+      <c r="G32" s="68">
+        <v>1</v>
+      </c>
+      <c r="H32" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I32" s="1">
         <v>3</v>
       </c>
-      <c r="J32" s="67" t="s">
+      <c r="J32" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="67"/>
-    </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="67" t="s">
+      <c r="K32" s="68"/>
+      <c r="L32" s="23"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="68" t="s">
         <v>534</v>
       </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67">
+      <c r="D33" s="68"/>
+      <c r="E33" s="68">
         <v>0.8</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F33" s="68">
         <v>0</v>
       </c>
-      <c r="G33" s="67">
-        <v>1</v>
-      </c>
-      <c r="H33" s="67" t="s">
+      <c r="G33" s="68">
+        <v>1</v>
+      </c>
+      <c r="H33" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I33" s="1">
         <v>3</v>
       </c>
-      <c r="J33" s="67" t="s">
+      <c r="J33" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="67"/>
-    </row>
-    <row r="34" spans="1:11" ht="18.75">
-      <c r="A34" s="67" t="s">
+      <c r="K33" s="68"/>
+      <c r="L33" s="23"/>
+    </row>
+    <row r="34" spans="1:12" ht="18.75">
+      <c r="A34" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="68" t="s">
         <v>535</v>
       </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67">
+      <c r="D34" s="68"/>
+      <c r="E34" s="68">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F34" s="67">
+      <c r="F34" s="68">
         <v>0</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="68">
         <v>999</v>
       </c>
-      <c r="H34" s="67" t="s">
+      <c r="H34" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I34" s="1">
         <v>2</v>
       </c>
-      <c r="J34" s="67" t="s">
+      <c r="J34" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="K34" s="67"/>
-    </row>
-    <row r="35" spans="1:11" ht="18.75">
-      <c r="A35" s="67" t="s">
+      <c r="K34" s="68"/>
+      <c r="L34" s="23"/>
+    </row>
+    <row r="35" spans="1:12" ht="18.75">
+      <c r="A35" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="68" t="s">
         <v>523</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="68" t="s">
         <v>536</v>
       </c>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67">
+      <c r="D35" s="68"/>
+      <c r="E35" s="68">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F35" s="67">
+      <c r="F35" s="68">
         <v>0</v>
       </c>
-      <c r="G35" s="67">
+      <c r="G35" s="68">
         <v>999</v>
       </c>
-      <c r="H35" s="67" t="s">
+      <c r="H35" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I35" s="1">
         <v>2</v>
       </c>
-      <c r="J35" s="67" t="s">
+      <c r="J35" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="67"/>
-    </row>
-    <row r="36" spans="1:11" ht="18.75">
-      <c r="A36" s="67" t="s">
+      <c r="K35" s="68"/>
+      <c r="L35" s="23"/>
+    </row>
+    <row r="36" spans="1:12" ht="18.75">
+      <c r="A36" s="68" t="s">
         <v>182</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -8701,9 +8790,12 @@
         <v>41</v>
       </c>
       <c r="K36" s="9"/>
-    </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="67" t="s">
+      <c r="L36" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="68" t="s">
         <v>182</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -8732,9 +8824,12 @@
       <c r="K37" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="67" t="s">
+      <c r="L37" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="68" t="s">
         <v>182</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -8763,9 +8858,12 @@
       <c r="K38" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="67" t="s">
+      <c r="L38" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="68" t="s">
         <v>182</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -8794,9 +8892,12 @@
       <c r="K39" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="67" t="s">
+      <c r="L39" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="68" t="s">
         <v>182</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -8821,9 +8922,10 @@
       <c r="K40" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="67" t="s">
+      <c r="L40" s="23"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="68" t="s">
         <v>182</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -8848,9 +8950,10 @@
       <c r="K41" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="67" t="s">
+      <c r="L41" s="23"/>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="68" t="s">
         <v>182</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -8875,9 +8978,10 @@
       <c r="K42" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="67" t="s">
+      <c r="L42" s="23"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="68" t="s">
         <v>182</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -8890,10 +8994,10 @@
         <v>178</v>
       </c>
       <c r="E43" s="9"/>
-      <c r="F43" s="67">
-        <v>1</v>
-      </c>
-      <c r="G43" s="67">
+      <c r="F43" s="68">
+        <v>1</v>
+      </c>
+      <c r="G43" s="68">
         <v>2</v>
       </c>
       <c r="H43" s="9" t="s">
@@ -8904,9 +9008,12 @@
         <v>18</v>
       </c>
       <c r="K43" s="9"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="67" t="s">
+      <c r="L43" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="68" t="s">
         <v>182</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -8919,10 +9026,10 @@
         <v>178</v>
       </c>
       <c r="E44" s="9"/>
-      <c r="F44" s="67">
-        <v>1</v>
-      </c>
-      <c r="G44" s="67">
+      <c r="F44" s="68">
+        <v>1</v>
+      </c>
+      <c r="G44" s="68">
         <v>2</v>
       </c>
       <c r="H44" s="9" t="s">
@@ -8933,9 +9040,12 @@
         <v>18</v>
       </c>
       <c r="K44" s="9"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="67" t="s">
+      <c r="L44" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="68" t="s">
         <v>182</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -8948,15 +9058,16 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="71" t="s">
+      <c r="H45" s="72" t="s">
         <v>10</v>
       </c>
       <c r="I45" s="11"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="67" t="s">
+      <c r="L45" s="23"/>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="68" t="s">
         <v>182</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -8969,15 +9080,16 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="71" t="s">
+      <c r="H46" s="72" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="11"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="67" t="s">
+      <c r="L46" s="23"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -8998,9 +9110,12 @@
       <c r="K47" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="67" t="s">
+      <c r="L47" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -9029,38 +9144,44 @@
         <v>18</v>
       </c>
       <c r="K48" s="9"/>
-    </row>
-    <row r="49" spans="1:11" ht="18.75">
-      <c r="A49" s="67" t="s">
+      <c r="L48" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="18.75">
+      <c r="A49" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="68" t="s">
         <v>369</v>
       </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67">
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68">
         <v>0</v>
       </c>
-      <c r="G49" s="67">
+      <c r="G49" s="68">
         <v>99</v>
       </c>
-      <c r="H49" s="67" t="s">
+      <c r="H49" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I49" s="1">
         <v>2</v>
       </c>
-      <c r="J49" s="67" t="s">
+      <c r="J49" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="K49" s="67"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="67" t="s">
+      <c r="K49" s="68"/>
+      <c r="L49" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -9087,9 +9208,12 @@
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="67" t="s">
+      <c r="L50" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -9118,9 +9242,12 @@
         <v>18</v>
       </c>
       <c r="K51" s="9"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="67" t="s">
+      <c r="L51" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -9149,9 +9276,12 @@
         <v>18</v>
       </c>
       <c r="K52" s="9"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="67" t="s">
+      <c r="L52" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -9180,9 +9310,12 @@
         <v>18</v>
       </c>
       <c r="K53" s="9"/>
-    </row>
-    <row r="54" spans="1:11" ht="18.75">
-      <c r="A54" s="67" t="s">
+      <c r="L53" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="18.75">
+      <c r="A54" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -9211,123 +9344,130 @@
         <v>41</v>
       </c>
       <c r="K54" s="9"/>
-    </row>
-    <row r="55" spans="1:11" ht="18.75">
-      <c r="A55" s="69" t="s">
+      <c r="L54" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="18.75">
+      <c r="A55" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="B55" s="69" t="s">
+      <c r="B55" s="70" t="s">
         <v>525</v>
       </c>
-      <c r="C55" s="69" t="s">
+      <c r="C55" s="70" t="s">
         <v>614</v>
       </c>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69" t="s">
+      <c r="D55" s="70"/>
+      <c r="E55" s="70"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="70"/>
+      <c r="H55" s="70" t="s">
         <v>10</v>
       </c>
       <c r="I55" s="1">
         <v>2</v>
       </c>
-      <c r="J55" s="69" t="s">
+      <c r="J55" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="K55" s="69"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="67" t="s">
+      <c r="K55" s="70"/>
+      <c r="L55" s="23"/>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="67" t="s">
+      <c r="C56" s="68" t="s">
         <v>594</v>
       </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67">
+      <c r="D56" s="68"/>
+      <c r="E56" s="68">
         <v>0.9</v>
       </c>
-      <c r="F56" s="67">
+      <c r="F56" s="68">
         <v>0</v>
       </c>
-      <c r="G56" s="67">
-        <v>1</v>
-      </c>
-      <c r="H56" s="67" t="s">
+      <c r="G56" s="68">
+        <v>1</v>
+      </c>
+      <c r="H56" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I56" s="1">
         <v>3</v>
       </c>
-      <c r="J56" s="67" t="s">
+      <c r="J56" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="67"/>
-    </row>
-    <row r="57" spans="1:11" ht="18.75">
-      <c r="A57" s="67" t="s">
+      <c r="K56" s="68"/>
+      <c r="L56" s="23"/>
+    </row>
+    <row r="57" spans="1:12" ht="18.75">
+      <c r="A57" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="68" t="s">
         <v>595</v>
       </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67">
+      <c r="D57" s="68"/>
+      <c r="E57" s="68"/>
+      <c r="F57" s="68">
         <v>0</v>
       </c>
-      <c r="G57" s="67">
+      <c r="G57" s="68">
         <v>999</v>
       </c>
-      <c r="H57" s="67" t="s">
+      <c r="H57" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I57" s="1">
         <v>2</v>
       </c>
-      <c r="J57" s="67" t="s">
+      <c r="J57" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="K57" s="67"/>
-    </row>
-    <row r="58" spans="1:11" ht="18.75">
-      <c r="A58" s="69" t="s">
+      <c r="K57" s="68"/>
+      <c r="L57" s="23"/>
+    </row>
+    <row r="58" spans="1:12" ht="18.75">
+      <c r="A58" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="B58" s="69" t="s">
+      <c r="B58" s="70" t="s">
         <v>612</v>
       </c>
-      <c r="C58" s="69" t="s">
+      <c r="C58" s="70" t="s">
         <v>613</v>
       </c>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69">
+      <c r="D58" s="70"/>
+      <c r="E58" s="70"/>
+      <c r="F58" s="70">
         <v>0</v>
       </c>
-      <c r="G58" s="69">
+      <c r="G58" s="70">
         <v>999</v>
       </c>
-      <c r="H58" s="69" t="s">
+      <c r="H58" s="70" t="s">
         <v>10</v>
       </c>
       <c r="I58" s="1">
         <v>2</v>
       </c>
-      <c r="J58" s="69" t="s">
+      <c r="J58" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="K58" s="69"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="67" t="s">
+      <c r="K58" s="70"/>
+      <c r="L58" s="23"/>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -9353,10 +9493,13 @@
       <c r="J59" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K59" s="67"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="67" t="s">
+      <c r="K59" s="68"/>
+      <c r="L59" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -9382,10 +9525,13 @@
       <c r="J60" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K60" s="67"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="67" t="s">
+      <c r="K60" s="68"/>
+      <c r="L60" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -9411,10 +9557,13 @@
       <c r="J61" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K61" s="67"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="67" t="s">
+      <c r="K61" s="68"/>
+      <c r="L61" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -9436,10 +9585,11 @@
       <c r="J62" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="67"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="67" t="s">
+      <c r="K62" s="68"/>
+      <c r="L62" s="23"/>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -9461,10 +9611,11 @@
       <c r="J63" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K63" s="67"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="67" t="s">
+      <c r="K63" s="68"/>
+      <c r="L63" s="23"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -9486,10 +9637,11 @@
       <c r="J64" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K64" s="67"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="67" t="s">
+      <c r="K64" s="68"/>
+      <c r="L64" s="23"/>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -9502,10 +9654,10 @@
         <v>178</v>
       </c>
       <c r="E65" s="9"/>
-      <c r="F65" s="67">
-        <v>1</v>
-      </c>
-      <c r="G65" s="67">
+      <c r="F65" s="68">
+        <v>1</v>
+      </c>
+      <c r="G65" s="68">
         <v>2</v>
       </c>
       <c r="H65" s="9" t="s">
@@ -9516,9 +9668,12 @@
         <v>18</v>
       </c>
       <c r="K65" s="9"/>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="67" t="s">
+      <c r="L65" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -9531,10 +9686,10 @@
         <v>178</v>
       </c>
       <c r="E66" s="9"/>
-      <c r="F66" s="67">
-        <v>1</v>
-      </c>
-      <c r="G66" s="67">
+      <c r="F66" s="68">
+        <v>1</v>
+      </c>
+      <c r="G66" s="68">
         <v>2</v>
       </c>
       <c r="H66" s="9" t="s">
@@ -9545,9 +9700,12 @@
         <v>18</v>
       </c>
       <c r="K66" s="9"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="67" t="s">
+      <c r="L66" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -9560,15 +9718,16 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="71" t="s">
+      <c r="H67" s="72" t="s">
         <v>10</v>
       </c>
       <c r="I67" s="11"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="67" t="s">
+      <c r="L67" s="23"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="68" t="s">
         <v>192</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -9581,15 +9740,16 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
-      <c r="H68" s="71" t="s">
+      <c r="H68" s="72" t="s">
         <v>10</v>
       </c>
       <c r="I68" s="11"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
-    </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="67" t="s">
+      <c r="L68" s="23"/>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" s="68" t="s">
         <v>194</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -9610,9 +9770,12 @@
       <c r="K69" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="67" t="s">
+      <c r="L69" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" s="68" t="s">
         <v>194</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -9641,38 +9804,44 @@
         <v>18</v>
       </c>
       <c r="K70" s="9"/>
-    </row>
-    <row r="71" spans="1:11" ht="18.75">
-      <c r="A71" s="67" t="s">
+      <c r="L70" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="18.75">
+      <c r="A71" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="B71" s="67" t="s">
+      <c r="B71" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="67" t="s">
+      <c r="C71" s="68" t="s">
         <v>393</v>
       </c>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67">
+      <c r="D71" s="68"/>
+      <c r="E71" s="68"/>
+      <c r="F71" s="68">
         <v>0</v>
       </c>
-      <c r="G71" s="67">
+      <c r="G71" s="68">
         <v>99</v>
       </c>
-      <c r="H71" s="67" t="s">
+      <c r="H71" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I71" s="1">
         <v>2</v>
       </c>
-      <c r="J71" s="67" t="s">
+      <c r="J71" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="K71" s="67"/>
-    </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="67" t="s">
+      <c r="K71" s="68"/>
+      <c r="L71" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" s="68" t="s">
         <v>194</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -9699,9 +9868,12 @@
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
-    </row>
-    <row r="73" spans="1:11" ht="18.75">
-      <c r="A73" s="67" t="s">
+      <c r="L72" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="18.75">
+      <c r="A73" s="68" t="s">
         <v>194</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -9730,9 +9902,12 @@
         <v>41</v>
       </c>
       <c r="K73" s="9"/>
-    </row>
-    <row r="74" spans="1:11" s="2" customFormat="1">
-      <c r="A74" s="67" t="s">
+      <c r="L73" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="2" customFormat="1">
+      <c r="A74" s="68" t="s">
         <v>194</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -9759,9 +9934,12 @@
         <v>19</v>
       </c>
       <c r="K74" s="9"/>
-    </row>
-    <row r="75" spans="1:11" s="2" customFormat="1">
-      <c r="A75" s="67" t="s">
+      <c r="L74" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" s="2" customFormat="1">
+      <c r="A75" s="68" t="s">
         <v>194</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -9788,9 +9966,12 @@
         <v>19</v>
       </c>
       <c r="K75" s="9"/>
-    </row>
-    <row r="76" spans="1:11" s="2" customFormat="1">
-      <c r="A76" s="67" t="s">
+      <c r="L75" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" s="2" customFormat="1">
+      <c r="A76" s="68" t="s">
         <v>194</v>
       </c>
       <c r="B76" s="9" t="s">
@@ -9817,9 +9998,12 @@
         <v>19</v>
       </c>
       <c r="K76" s="9"/>
-    </row>
-    <row r="77" spans="1:11">
-      <c r="A77" s="67" t="s">
+      <c r="L76" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" s="68" t="s">
         <v>194</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -9841,10 +10025,11 @@
       <c r="J77" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K77" s="67"/>
-    </row>
-    <row r="78" spans="1:11">
-      <c r="A78" s="67" t="s">
+      <c r="K77" s="68"/>
+      <c r="L77" s="23"/>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" s="68" t="s">
         <v>194</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -9866,10 +10051,11 @@
       <c r="J78" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K78" s="67"/>
-    </row>
-    <row r="79" spans="1:11">
-      <c r="A79" s="67" t="s">
+      <c r="K78" s="68"/>
+      <c r="L78" s="23"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="68" t="s">
         <v>194</v>
       </c>
       <c r="B79" s="9" t="s">
@@ -9882,10 +10068,10 @@
         <v>178</v>
       </c>
       <c r="E79" s="9"/>
-      <c r="F79" s="67">
-        <v>1</v>
-      </c>
-      <c r="G79" s="67">
+      <c r="F79" s="68">
+        <v>1</v>
+      </c>
+      <c r="G79" s="68">
         <v>2</v>
       </c>
       <c r="H79" s="9" t="s">
@@ -9896,9 +10082,12 @@
         <v>18</v>
       </c>
       <c r="K79" s="9"/>
-    </row>
-    <row r="80" spans="1:11">
-      <c r="A80" s="67" t="s">
+      <c r="L79" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="68" t="s">
         <v>194</v>
       </c>
       <c r="B80" s="9" t="s">
@@ -9911,10 +10100,10 @@
         <v>178</v>
       </c>
       <c r="E80" s="9"/>
-      <c r="F80" s="67">
-        <v>1</v>
-      </c>
-      <c r="G80" s="67">
+      <c r="F80" s="68">
+        <v>1</v>
+      </c>
+      <c r="G80" s="68">
         <v>2</v>
       </c>
       <c r="H80" s="9" t="s">
@@ -9925,9 +10114,10 @@
         <v>18</v>
       </c>
       <c r="K80" s="9"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="67" t="s">
+      <c r="L80" s="23"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="68" t="s">
         <v>194</v>
       </c>
       <c r="B81" s="9" t="s">
@@ -9946,9 +10136,10 @@
       <c r="I81" s="11"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="67" t="s">
+      <c r="L81" s="23"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="68" t="s">
         <v>194</v>
       </c>
       <c r="B82" s="9" t="s">
@@ -9967,9 +10158,10 @@
       <c r="I82" s="11"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="70" t="s">
+      <c r="L82" s="23"/>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" s="71" t="s">
         <v>287</v>
       </c>
       <c r="B83" s="9" t="s">
@@ -9990,9 +10182,12 @@
       <c r="K83" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="70" t="s">
+      <c r="L83" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" s="71" t="s">
         <v>287</v>
       </c>
       <c r="B84" s="9" t="s">
@@ -10023,9 +10218,12 @@
       <c r="K84" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
-      <c r="A85" s="70" t="s">
+      <c r="L84" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="71" t="s">
         <v>287</v>
       </c>
       <c r="B85" s="9" t="s">
@@ -10054,19 +10252,22 @@
       <c r="K85" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
-      <c r="A86" s="70" t="s">
+      <c r="L85" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" s="71" t="s">
         <v>287</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C86" s="70" t="s">
+      <c r="C86" s="71" t="s">
         <v>404</v>
       </c>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
+      <c r="D86" s="71"/>
+      <c r="E86" s="71"/>
       <c r="F86" s="9" t="s">
         <v>118</v>
       </c>
@@ -10085,19 +10286,22 @@
       <c r="K86" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
-      <c r="A87" s="70" t="s">
+      <c r="L86" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" s="71" t="s">
         <v>287</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="70" t="s">
+      <c r="C87" s="71" t="s">
         <v>405</v>
       </c>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
+      <c r="D87" s="71"/>
+      <c r="E87" s="71"/>
       <c r="F87" s="9">
         <v>0</v>
       </c>
@@ -10116,15 +10320,18 @@
       <c r="K87" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="70" t="s">
+      <c r="L87" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" s="71" t="s">
         <v>440</v>
       </c>
-      <c r="B88" s="70" t="s">
+      <c r="B88" s="71" t="s">
         <v>446</v>
       </c>
-      <c r="C88" s="70" t="s">
+      <c r="C88" s="71" t="s">
         <v>451</v>
       </c>
       <c r="D88" s="9"/>
@@ -10139,40 +10346,46 @@
       <c r="K88" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="18.75">
-      <c r="A89" s="70" t="s">
+      <c r="L88" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="18.75">
+      <c r="A89" s="71" t="s">
         <v>440</v>
       </c>
-      <c r="B89" s="70" t="s">
+      <c r="B89" s="71" t="s">
         <v>442</v>
       </c>
-      <c r="C89" s="70" t="s">
+      <c r="C89" s="71" t="s">
         <v>452</v>
       </c>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70">
+      <c r="D89" s="71"/>
+      <c r="E89" s="71"/>
+      <c r="F89" s="71">
         <v>0</v>
       </c>
-      <c r="G89" s="70">
+      <c r="G89" s="71">
         <v>99</v>
       </c>
-      <c r="H89" s="70" t="s">
+      <c r="H89" s="71" t="s">
         <v>10</v>
       </c>
       <c r="I89" s="1">
         <v>2</v>
       </c>
-      <c r="J89" s="70" t="s">
+      <c r="J89" s="71" t="s">
         <v>14</v>
       </c>
       <c r="K89" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="A90" s="70" t="s">
+      <c r="L89" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" s="71" t="s">
         <v>440</v>
       </c>
       <c r="B90" s="9" t="s">
@@ -10201,9 +10414,12 @@
       <c r="K90" s="9" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
-      <c r="A91" s="69" t="s">
+      <c r="L90" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" s="70" t="s">
         <v>615</v>
       </c>
       <c r="B91" s="9" t="s">
@@ -10222,9 +10438,10 @@
       <c r="I91" s="11"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
-    </row>
-    <row r="92" spans="1:11">
-      <c r="A92" s="69" t="s">
+      <c r="L91" s="23"/>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" s="70" t="s">
         <v>615</v>
       </c>
       <c r="B92" s="9" t="s">
@@ -10243,9 +10460,10 @@
       <c r="I92" s="11"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
-    </row>
-    <row r="93" spans="1:11">
-      <c r="A93" s="69" t="s">
+      <c r="L92" s="23"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" s="70" t="s">
         <v>615</v>
       </c>
       <c r="B93" s="9" t="s">
@@ -10264,9 +10482,10 @@
       <c r="I93" s="11"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
-    </row>
-    <row r="94" spans="1:11">
-      <c r="A94" s="69" t="s">
+      <c r="L93" s="23"/>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="70" t="s">
         <v>615</v>
       </c>
       <c r="B94" s="9" t="s">
@@ -10285,9 +10504,10 @@
       <c r="I94" s="11"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95" s="69" t="s">
+      <c r="L94" s="23"/>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="70" t="s">
         <v>615</v>
       </c>
       <c r="B95" s="9" t="s">
@@ -10306,9 +10526,10 @@
       <c r="I95" s="11"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
-    </row>
-    <row r="96" spans="1:11" ht="17.649999999999999" customHeight="1">
-      <c r="A96" s="65" t="s">
+      <c r="L95" s="23"/>
+    </row>
+    <row r="96" spans="1:12" ht="17.649999999999999" customHeight="1">
+      <c r="A96" s="66" t="s">
         <v>575</v>
       </c>
       <c r="B96" s="9" t="s">
@@ -10317,7 +10538,7 @@
       <c r="C96" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="D96" s="65" t="s">
+      <c r="D96" s="66" t="s">
         <v>427</v>
       </c>
       <c r="E96" s="9">
@@ -10337,9 +10558,12 @@
         <v>18</v>
       </c>
       <c r="K96" s="9"/>
-    </row>
-    <row r="97" spans="1:11">
-      <c r="A97" s="65" t="s">
+      <c r="L96" s="23" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" s="66" t="s">
         <v>575</v>
       </c>
       <c r="B97" s="9" t="s">
@@ -10364,9 +10588,10 @@
         <v>54</v>
       </c>
       <c r="K97" s="9"/>
-    </row>
-    <row r="98" spans="1:11">
-      <c r="A98" s="65" t="s">
+      <c r="L97" s="23"/>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" s="66" t="s">
         <v>575</v>
       </c>
       <c r="B98" s="9" t="s">
@@ -10391,9 +10616,10 @@
         <v>54</v>
       </c>
       <c r="K98" s="9"/>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="65" t="s">
+      <c r="L98" s="23"/>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" s="66" t="s">
         <v>575</v>
       </c>
       <c r="B99" s="9" t="s">
@@ -10418,9 +10644,10 @@
         <v>54</v>
       </c>
       <c r="K99" s="9"/>
-    </row>
-    <row r="100" spans="1:11" ht="18.75">
-      <c r="A100" s="65" t="s">
+      <c r="L99" s="23"/>
+    </row>
+    <row r="100" spans="1:12" ht="18.75">
+      <c r="A100" s="66" t="s">
         <v>575</v>
       </c>
       <c r="B100" s="9" t="s">
@@ -10447,9 +10674,10 @@
         <v>58</v>
       </c>
       <c r="K100" s="9"/>
-    </row>
-    <row r="101" spans="1:11" ht="18.75">
-      <c r="A101" s="65" t="s">
+      <c r="L100" s="23"/>
+    </row>
+    <row r="101" spans="1:12" ht="18.75">
+      <c r="A101" s="66" t="s">
         <v>575</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -10478,9 +10706,12 @@
         <v>60</v>
       </c>
       <c r="K101" s="9"/>
-    </row>
-    <row r="102" spans="1:11" ht="18.75">
-      <c r="A102" s="65" t="s">
+      <c r="L101" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="18.75">
+      <c r="A102" s="66" t="s">
         <v>575</v>
       </c>
       <c r="B102" s="9" t="s">
@@ -10507,9 +10738,12 @@
         <v>62</v>
       </c>
       <c r="K102" s="9"/>
-    </row>
-    <row r="103" spans="1:11" ht="18.75">
-      <c r="A103" s="65" t="s">
+      <c r="L102" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="18.75">
+      <c r="A103" s="66" t="s">
         <v>575</v>
       </c>
       <c r="B103" s="9" t="s">
@@ -10536,9 +10770,12 @@
         <v>62</v>
       </c>
       <c r="K103" s="9"/>
-    </row>
-    <row r="104" spans="1:11" ht="18.75">
-      <c r="A104" s="65" t="s">
+      <c r="L103" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="18.75">
+      <c r="A104" s="66" t="s">
         <v>575</v>
       </c>
       <c r="B104" s="9" t="s">
@@ -10565,9 +10802,12 @@
         <v>62</v>
       </c>
       <c r="K104" s="9"/>
-    </row>
-    <row r="105" spans="1:11" ht="18.75">
-      <c r="A105" s="65" t="s">
+      <c r="L104" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="18.75">
+      <c r="A105" s="66" t="s">
         <v>575</v>
       </c>
       <c r="B105" s="9" t="s">
@@ -10594,9 +10834,10 @@
         <v>62</v>
       </c>
       <c r="K105" s="9"/>
-    </row>
-    <row r="106" spans="1:11" ht="18.75">
-      <c r="A106" s="65" t="s">
+      <c r="L105" s="23"/>
+    </row>
+    <row r="106" spans="1:12" ht="18.75">
+      <c r="A106" s="66" t="s">
         <v>575</v>
       </c>
       <c r="B106" s="9" t="s">
@@ -10623,9 +10864,10 @@
         <v>62</v>
       </c>
       <c r="K106" s="9"/>
-    </row>
-    <row r="107" spans="1:11" ht="18.75">
-      <c r="A107" s="65" t="s">
+      <c r="L106" s="23"/>
+    </row>
+    <row r="107" spans="1:12" ht="18.75">
+      <c r="A107" s="66" t="s">
         <v>575</v>
       </c>
       <c r="B107" s="9" t="s">
@@ -10652,9 +10894,10 @@
         <v>62</v>
       </c>
       <c r="K107" s="9"/>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108" s="65" t="s">
+      <c r="L107" s="23"/>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" s="66" t="s">
         <v>575</v>
       </c>
       <c r="B108" s="9" t="s">
@@ -10683,12 +10926,13 @@
         <v>18</v>
       </c>
       <c r="K108" s="9"/>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109" s="65" t="s">
+      <c r="L108" s="23"/>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" s="66" t="s">
         <v>575</v>
       </c>
-      <c r="B109" s="67" t="s">
+      <c r="B109" s="68" t="s">
         <v>589</v>
       </c>
       <c r="C109" s="9" t="s">
@@ -10697,208 +10941,215 @@
       <c r="D109" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E109" s="67">
+      <c r="E109" s="68">
         <v>2</v>
       </c>
-      <c r="F109" s="67">
-        <v>1</v>
-      </c>
-      <c r="G109" s="67">
+      <c r="F109" s="68">
+        <v>1</v>
+      </c>
+      <c r="G109" s="68">
         <v>2</v>
       </c>
-      <c r="H109" s="67" t="s">
+      <c r="H109" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I109" s="67"/>
-      <c r="J109" s="67" t="s">
+      <c r="I109" s="68"/>
+      <c r="J109" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="K109" s="67"/>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" s="65" t="s">
+      <c r="K109" s="68"/>
+      <c r="L109" s="23"/>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" s="66" t="s">
         <v>575</v>
       </c>
-      <c r="B110" s="67" t="s">
+      <c r="B110" s="68" t="s">
         <v>69</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67">
+      <c r="D110" s="68"/>
+      <c r="E110" s="68">
         <v>0</v>
       </c>
-      <c r="F110" s="67">
+      <c r="F110" s="68">
         <v>0</v>
       </c>
-      <c r="G110" s="67">
-        <v>1</v>
-      </c>
-      <c r="H110" s="67" t="s">
+      <c r="G110" s="68">
+        <v>1</v>
+      </c>
+      <c r="H110" s="68" t="s">
         <v>10</v>
       </c>
       <c r="I110" s="1">
         <v>2</v>
       </c>
-      <c r="J110" s="67" t="s">
+      <c r="J110" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="K110" s="67" t="s">
+      <c r="K110" s="68" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" ht="17.649999999999999" customHeight="1">
-      <c r="A111" s="67" t="s">
+      <c r="L110" s="23"/>
+    </row>
+    <row r="111" spans="1:12" ht="17.649999999999999" customHeight="1">
+      <c r="A111" s="68" t="s">
         <v>576</v>
       </c>
-      <c r="B111" s="67" t="s">
+      <c r="B111" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="C111" s="67" t="s">
+      <c r="C111" s="68" t="s">
         <v>643</v>
       </c>
-      <c r="D111" s="65" t="s">
+      <c r="D111" s="66" t="s">
         <v>427</v>
       </c>
-      <c r="E111" s="67">
-        <v>1</v>
-      </c>
-      <c r="F111" s="67">
-        <v>1</v>
-      </c>
-      <c r="G111" s="67">
+      <c r="E111" s="68">
+        <v>1</v>
+      </c>
+      <c r="F111" s="68">
+        <v>1</v>
+      </c>
+      <c r="G111" s="68">
         <v>3</v>
       </c>
-      <c r="H111" s="67" t="s">
+      <c r="H111" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I111" s="67"/>
-      <c r="J111" s="67" t="s">
+      <c r="I111" s="68"/>
+      <c r="J111" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="K111" s="67"/>
-    </row>
-    <row r="112" spans="1:11" ht="17.649999999999999" customHeight="1">
-      <c r="A112" s="67" t="s">
+      <c r="K111" s="68"/>
+      <c r="L111" s="23"/>
+    </row>
+    <row r="112" spans="1:12" ht="17.649999999999999" customHeight="1">
+      <c r="A112" s="68" t="s">
         <v>576</v>
       </c>
-      <c r="B112" s="67" t="s">
+      <c r="B112" s="68" t="s">
         <v>73</v>
       </c>
-      <c r="C112" s="67" t="s">
+      <c r="C112" s="68" t="s">
         <v>644</v>
       </c>
-      <c r="D112" s="65" t="s">
+      <c r="D112" s="66" t="s">
         <v>427</v>
       </c>
-      <c r="E112" s="67">
+      <c r="E112" s="68">
         <v>3</v>
       </c>
-      <c r="F112" s="67">
-        <v>1</v>
-      </c>
-      <c r="G112" s="67">
+      <c r="F112" s="68">
+        <v>1</v>
+      </c>
+      <c r="G112" s="68">
         <v>3</v>
       </c>
-      <c r="H112" s="67" t="s">
+      <c r="H112" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I112" s="67"/>
-      <c r="J112" s="67" t="s">
+      <c r="I112" s="68"/>
+      <c r="J112" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="K112" s="67"/>
-    </row>
-    <row r="113" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A113" s="67" t="s">
+      <c r="K112" s="68"/>
+      <c r="L112" s="23"/>
+    </row>
+    <row r="113" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A113" s="68" t="s">
         <v>576</v>
       </c>
-      <c r="B113" s="67" t="s">
+      <c r="B113" s="68" t="s">
         <v>640</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67">
+      <c r="D113" s="68"/>
+      <c r="E113" s="68">
         <v>60</v>
       </c>
-      <c r="F113" s="67">
+      <c r="F113" s="68">
         <v>0</v>
       </c>
-      <c r="G113" s="67">
+      <c r="G113" s="68">
         <v>999</v>
       </c>
-      <c r="H113" s="67" t="s">
+      <c r="H113" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I113" s="67"/>
-      <c r="J113" s="67" t="s">
+      <c r="I113" s="68"/>
+      <c r="J113" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="K113" s="67"/>
-    </row>
-    <row r="114" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A114" s="67" t="s">
+      <c r="K113" s="68"/>
+      <c r="L113" s="23"/>
+    </row>
+    <row r="114" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A114" s="68" t="s">
         <v>576</v>
       </c>
-      <c r="B114" s="67" t="s">
+      <c r="B114" s="68" t="s">
         <v>641</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67">
+      <c r="D114" s="68"/>
+      <c r="E114" s="68">
         <v>60</v>
       </c>
-      <c r="F114" s="67">
+      <c r="F114" s="68">
         <v>0</v>
       </c>
-      <c r="G114" s="67">
+      <c r="G114" s="68">
         <v>999</v>
       </c>
-      <c r="H114" s="67" t="s">
+      <c r="H114" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="67"/>
-      <c r="J114" s="67" t="s">
+      <c r="I114" s="68"/>
+      <c r="J114" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="K114" s="67"/>
-    </row>
-    <row r="115" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A115" s="67" t="s">
+      <c r="K114" s="68"/>
+      <c r="L114" s="23"/>
+    </row>
+    <row r="115" spans="1:12" ht="18.75" customHeight="1">
+      <c r="A115" s="68" t="s">
         <v>576</v>
       </c>
-      <c r="B115" s="67" t="s">
+      <c r="B115" s="68" t="s">
         <v>642</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="D115" s="67"/>
-      <c r="E115" s="67">
+      <c r="D115" s="68"/>
+      <c r="E115" s="68">
         <v>60</v>
       </c>
-      <c r="F115" s="67">
+      <c r="F115" s="68">
         <v>0</v>
       </c>
-      <c r="G115" s="67">
+      <c r="G115" s="68">
         <v>999</v>
       </c>
-      <c r="H115" s="67" t="s">
+      <c r="H115" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="I115" s="67"/>
-      <c r="J115" s="67" t="s">
+      <c r="I115" s="68"/>
+      <c r="J115" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="K115" s="67"/>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116" s="67" t="s">
+      <c r="K115" s="68"/>
+      <c r="L115" s="23"/>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" s="68" t="s">
         <v>599</v>
       </c>
       <c r="B116" s="9" t="s">
@@ -10919,9 +11170,10 @@
       <c r="K116" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117" s="67" t="s">
+      <c r="L116" s="23"/>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" s="68" t="s">
         <v>599</v>
       </c>
       <c r="B117" s="9" t="s">
@@ -10942,9 +11194,10 @@
       <c r="K117" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118" s="67" t="s">
+      <c r="L117" s="23"/>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" s="68" t="s">
         <v>599</v>
       </c>
       <c r="B118" s="9" t="s">
@@ -10965,9 +11218,10 @@
       <c r="K118" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119" s="67" t="s">
+      <c r="L118" s="23"/>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" s="68" t="s">
         <v>599</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -10988,9 +11242,10 @@
       <c r="K119" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120" s="67" t="s">
+      <c r="L119" s="23"/>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" s="68" t="s">
         <v>599</v>
       </c>
       <c r="B120" s="9" t="s">
@@ -11011,9 +11266,10 @@
       <c r="K120" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121" s="67" t="s">
+      <c r="L120" s="23"/>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" s="68" t="s">
         <v>599</v>
       </c>
       <c r="B121" s="9" t="s">
@@ -11034,9 +11290,10 @@
       <c r="K121" s="9" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122" s="68" t="s">
+      <c r="L121" s="23"/>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" s="69" t="s">
         <v>606</v>
       </c>
       <c r="B122" s="9" t="s">
@@ -11049,10 +11306,10 @@
         <v>178</v>
       </c>
       <c r="E122" s="9"/>
-      <c r="F122" s="68">
-        <v>1</v>
-      </c>
-      <c r="G122" s="68">
+      <c r="F122" s="69">
+        <v>1</v>
+      </c>
+      <c r="G122" s="69">
         <v>2</v>
       </c>
       <c r="H122" s="9" t="s">
@@ -11063,9 +11320,12 @@
         <v>18</v>
       </c>
       <c r="K122" s="9"/>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123" s="68" t="s">
+      <c r="L122" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" s="69" t="s">
         <v>606</v>
       </c>
       <c r="B123" s="9" t="s">
@@ -11074,27 +11334,30 @@
       <c r="C123" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="D123" s="68"/>
-      <c r="E123" s="68">
+      <c r="D123" s="69"/>
+      <c r="E123" s="69">
         <v>5</v>
       </c>
-      <c r="F123" s="68">
+      <c r="F123" s="69">
         <v>0</v>
       </c>
-      <c r="G123" s="68">
+      <c r="G123" s="69">
         <v>999</v>
       </c>
-      <c r="H123" s="68" t="s">
+      <c r="H123" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="I123" s="68"/>
-      <c r="J123" s="68" t="s">
+      <c r="I123" s="69"/>
+      <c r="J123" s="69" t="s">
         <v>609</v>
       </c>
       <c r="K123" s="9"/>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124" s="68" t="s">
+      <c r="L123" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" s="69" t="s">
         <v>606</v>
       </c>
       <c r="B124" s="9" t="s">
@@ -11107,10 +11370,10 @@
         <v>178</v>
       </c>
       <c r="E124" s="9"/>
-      <c r="F124" s="68">
-        <v>1</v>
-      </c>
-      <c r="G124" s="68">
+      <c r="F124" s="69">
+        <v>1</v>
+      </c>
+      <c r="G124" s="69">
         <v>2</v>
       </c>
       <c r="H124" s="9" t="s">
@@ -11121,9 +11384,12 @@
         <v>18</v>
       </c>
       <c r="K124" s="9"/>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125" s="68" t="s">
+      <c r="L124" s="23" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" s="69" t="s">
         <v>606</v>
       </c>
       <c r="B125" s="9" t="s">
@@ -11136,10 +11402,10 @@
         <v>178</v>
       </c>
       <c r="E125" s="9"/>
-      <c r="F125" s="68">
-        <v>1</v>
-      </c>
-      <c r="G125" s="68">
+      <c r="F125" s="69">
+        <v>1</v>
+      </c>
+      <c r="G125" s="69">
         <v>2</v>
       </c>
       <c r="H125" s="9" t="s">
@@ -11150,6 +11416,9 @@
         <v>18</v>
       </c>
       <c r="K125" s="9"/>
+      <c r="L125" s="23" t="s">
+        <v>652</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -11175,7 +11444,7 @@
   <cols>
     <col min="1" max="1" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.0625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.0625" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="6.5625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.8125" style="4" bestFit="1" customWidth="1"/>
@@ -11193,7 +11462,7 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="35" t="s">
         <v>208</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -11222,16 +11491,16 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="141">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>454</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="65" t="s">
         <v>176</v>
       </c>
       <c r="E3" s="5">
@@ -11258,7 +11527,7 @@
       <c r="B4" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="33" t="s">
         <v>203</v>
       </c>
       <c r="D4" s="9"/>
@@ -11282,13 +11551,13 @@
       <c r="M4" s="12"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="18.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="33" t="s">
         <v>204</v>
       </c>
       <c r="D5" s="9"/>
@@ -11312,13 +11581,13 @@
       <c r="M5" s="12"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="18.75">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="33" t="s">
         <v>205</v>
       </c>
       <c r="D6" s="9"/>
@@ -11342,23 +11611,23 @@
       <c r="M6" s="12"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="35.25">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="65" t="s">
         <v>202</v>
       </c>
       <c r="E7" s="10"/>
-      <c r="F7" s="25">
-        <v>1</v>
-      </c>
-      <c r="G7" s="25">
+      <c r="F7" s="26">
+        <v>1</v>
+      </c>
+      <c r="G7" s="26">
         <v>2</v>
       </c>
       <c r="H7" s="10" t="s">
@@ -11372,13 +11641,13 @@
       <c r="M7" s="12"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="18.75">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="33" t="s">
         <v>455</v>
       </c>
       <c r="D8" s="9"/>
@@ -11402,13 +11671,13 @@
       <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="18.75">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="33" t="s">
         <v>456</v>
       </c>
       <c r="D9" s="9"/>
@@ -11432,13 +11701,13 @@
       <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="18.75">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="33" t="s">
         <v>457</v>
       </c>
       <c r="D10" s="9"/>
@@ -11462,13 +11731,13 @@
       <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="18.75">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="33" t="s">
         <v>458</v>
       </c>
       <c r="D11" s="9"/>
@@ -11492,13 +11761,13 @@
       <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="18.75">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="33" t="s">
         <v>459</v>
       </c>
       <c r="D12" s="9"/>
@@ -11522,13 +11791,13 @@
       <c r="M12" s="12"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="33" t="s">
         <v>460</v>
       </c>
       <c r="D13" s="9"/>
@@ -11554,13 +11823,13 @@
       <c r="M13" s="12"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="33" t="s">
         <v>461</v>
       </c>
       <c r="D14" s="9"/>
@@ -11586,23 +11855,23 @@
       <c r="M14" s="12"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="35.25">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="33" t="s">
         <v>207</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="66" t="s">
         <v>178</v>
       </c>
       <c r="E15" s="10"/>
-      <c r="F15" s="25">
-        <v>1</v>
-      </c>
-      <c r="G15" s="25">
+      <c r="F15" s="26">
+        <v>1</v>
+      </c>
+      <c r="G15" s="26">
         <v>2</v>
       </c>
       <c r="H15" s="10" t="s">
@@ -11616,13 +11885,13 @@
       <c r="M15" s="12"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="33" t="s">
         <v>462</v>
       </c>
       <c r="D16" s="9"/>
@@ -11648,13 +11917,13 @@
       <c r="M16" s="12"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="33" t="s">
         <v>463</v>
       </c>
       <c r="D17" s="9"/>
@@ -11680,23 +11949,23 @@
       <c r="M17" s="12"/>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="35.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="66" t="s">
         <v>178</v>
       </c>
       <c r="E18" s="10"/>
-      <c r="F18" s="25">
-        <v>1</v>
-      </c>
-      <c r="G18" s="25">
+      <c r="F18" s="26">
+        <v>1</v>
+      </c>
+      <c r="G18" s="26">
         <v>2</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -11710,13 +11979,13 @@
       <c r="M18" s="12"/>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="64" t="s">
         <v>454</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="33" t="s">
         <v>464</v>
       </c>
       <c r="D19" s="9"/>
@@ -11790,102 +12059,102 @@
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="A37" sqref="A37"/>
+      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="26.3125" style="23" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.6875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="40.8125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="7.8125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.9375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.0625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="176.0625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="26.3125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="40.8125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="7.8125" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.8125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.9375" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.0625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="176.0625" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17">
-      <c r="A2" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="41" t="s">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="H2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="K2" s="42" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="141">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="40">
         <v>6</v>
       </c>
-      <c r="F3" s="39">
-        <v>1</v>
-      </c>
-      <c r="G3" s="39">
+      <c r="F3" s="40">
+        <v>1</v>
+      </c>
+      <c r="G3" s="40">
         <v>8</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39" t="s">
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1" ht="35.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="66" t="s">
         <v>178</v>
       </c>
       <c r="E4" s="10">
@@ -11909,30 +12178,30 @@
       </c>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="18.75">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="39" t="s">
         <v>179</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="41">
+      <c r="F5" s="42">
         <v>0</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="42">
         <v>999.99</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="42" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="42" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="10" t="s">
@@ -11940,30 +12209,30 @@
       </c>
     </row>
     <row r="6" spans="1:17" s="2" customFormat="1" ht="18.75">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="39" t="s">
         <v>180</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="41">
+      <c r="F6" s="42">
         <v>0</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="42">
         <v>999.99</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="42" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="42" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="10" t="s">
@@ -11971,30 +12240,30 @@
       </c>
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="18.75">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="39" t="s">
         <v>181</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="41">
+      <c r="F7" s="42">
         <v>0</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="42">
         <v>999.99</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="42" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="42" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="10" t="s">
@@ -12002,56 +12271,56 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>343</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41" t="s">
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="105.75">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="42" t="s">
         <v>344</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41">
-        <v>1</v>
-      </c>
-      <c r="G9" s="41">
+      <c r="E9" s="42"/>
+      <c r="F9" s="42">
+        <v>1</v>
+      </c>
+      <c r="G9" s="42">
         <v>6</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="41"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="K9" s="42" t="s">
         <v>173</v>
       </c>
       <c r="M9" s="12"/>
@@ -12061,7 +12330,7 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17" ht="70.5">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="40" t="s">
         <v>182</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -12070,7 +12339,7 @@
       <c r="C10" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="66" t="s">
         <v>187</v>
       </c>
       <c r="E10" s="10">
@@ -12094,7 +12363,7 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="105.75">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>182</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -12103,7 +12372,7 @@
       <c r="C11" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="66" t="s">
         <v>336</v>
       </c>
       <c r="E11" s="9">
@@ -12127,7 +12396,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="47" t="s">
         <v>182</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -12160,7 +12429,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="47" t="s">
         <v>182</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -12193,7 +12462,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="40" t="s">
         <v>182</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -12226,38 +12495,38 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75">
-      <c r="A15" s="39" t="s">
+      <c r="A15" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="42" t="s">
         <v>352</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41">
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42">
         <v>0</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="42">
         <v>99</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="42" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="K15" s="42" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="18.75">
-      <c r="A16" s="39" t="s">
+      <c r="A16" s="40" t="s">
         <v>182</v>
       </c>
       <c r="B16" s="9" t="s">
@@ -12288,7 +12557,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="40" t="s">
         <v>182</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -12297,14 +12566,14 @@
       <c r="C17" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="46" t="s">
         <v>307</v>
       </c>
       <c r="E17" s="14"/>
-      <c r="F17" s="41">
-        <v>1</v>
-      </c>
-      <c r="G17" s="41">
+      <c r="F17" s="42">
+        <v>1</v>
+      </c>
+      <c r="G17" s="42">
         <v>7</v>
       </c>
       <c r="H17" s="10" t="s">
@@ -12319,7 +12588,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="40" t="s">
         <v>182</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -12332,10 +12601,10 @@
         <v>308</v>
       </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="41">
-        <v>1</v>
-      </c>
-      <c r="G18" s="41">
+      <c r="F18" s="42">
+        <v>1</v>
+      </c>
+      <c r="G18" s="42">
         <v>6</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -12350,7 +12619,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="40" t="s">
         <v>182</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -12363,10 +12632,10 @@
         <v>267</v>
       </c>
       <c r="E19" s="14"/>
-      <c r="F19" s="41">
-        <v>1</v>
-      </c>
-      <c r="G19" s="41">
+      <c r="F19" s="42">
+        <v>1</v>
+      </c>
+      <c r="G19" s="42">
         <v>1</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -12381,7 +12650,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="40" t="s">
         <v>182</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -12394,10 +12663,10 @@
         <v>309</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="41">
-        <v>1</v>
-      </c>
-      <c r="G20" s="41">
+      <c r="F20" s="42">
+        <v>1</v>
+      </c>
+      <c r="G20" s="42">
         <v>2</v>
       </c>
       <c r="H20" s="10" t="s">
@@ -12412,7 +12681,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="18.75">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="45" t="s">
         <v>182</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -12443,7 +12712,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75">
-      <c r="A22" s="39" t="s">
+      <c r="A22" s="40" t="s">
         <v>182</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -12474,7 +12743,7 @@
       </c>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="39" t="s">
+      <c r="A23" s="40" t="s">
         <v>214</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -12505,7 +12774,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="39" t="s">
+      <c r="A24" s="40" t="s">
         <v>214</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -12518,10 +12787,10 @@
         <v>320</v>
       </c>
       <c r="E24" s="14"/>
-      <c r="F24" s="41">
-        <v>1</v>
-      </c>
-      <c r="G24" s="41">
+      <c r="F24" s="42">
+        <v>1</v>
+      </c>
+      <c r="G24" s="42">
         <v>6</v>
       </c>
       <c r="H24" s="10" t="s">
@@ -12534,7 +12803,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="45" t="s">
         <v>214</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -12547,10 +12816,10 @@
         <v>321</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="F25" s="45">
-        <v>1</v>
-      </c>
-      <c r="G25" s="45">
+      <c r="F25" s="46">
+        <v>1</v>
+      </c>
+      <c r="G25" s="46">
         <v>12</v>
       </c>
       <c r="H25" s="10" t="s">
@@ -12563,7 +12832,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="45" t="s">
         <v>214</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -12576,10 +12845,10 @@
         <v>322</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="45">
-        <v>1</v>
-      </c>
-      <c r="G26" s="45">
+      <c r="F26" s="46">
+        <v>1</v>
+      </c>
+      <c r="G26" s="46">
         <v>2</v>
       </c>
       <c r="H26" s="10" t="s">
@@ -12592,7 +12861,7 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="45" t="s">
         <v>214</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -12605,10 +12874,10 @@
         <v>323</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="F27" s="45">
-        <v>1</v>
-      </c>
-      <c r="G27" s="45">
+      <c r="F27" s="46">
+        <v>1</v>
+      </c>
+      <c r="G27" s="46">
         <v>6</v>
       </c>
       <c r="H27" s="10" t="s">
@@ -12621,113 +12890,113 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="41" t="s">
+      <c r="B28" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="C28" s="41" t="s">
+      <c r="C28" s="42" t="s">
         <v>363</v>
       </c>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41" t="s">
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="9"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
         <v>217</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41">
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42">
         <v>0</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="42">
         <v>9999</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="42" t="s">
         <v>10</v>
       </c>
       <c r="I29" s="1">
         <v>2</v>
       </c>
-      <c r="J29" s="41" t="s">
+      <c r="J29" s="42" t="s">
         <v>37</v>
       </c>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="42" t="s">
         <v>215</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41">
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42">
         <v>0.02</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="42">
         <v>370</v>
       </c>
-      <c r="H30" s="41" t="s">
+      <c r="H30" s="42" t="s">
         <v>10</v>
       </c>
       <c r="I30" s="1">
         <v>3</v>
       </c>
-      <c r="J30" s="41" t="s">
+      <c r="J30" s="42" t="s">
         <v>33</v>
       </c>
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="48" t="s">
         <v>477</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41">
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42">
         <v>0</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="42">
         <v>4000</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41" t="s">
+      <c r="I31" s="42"/>
+      <c r="J31" s="42" t="s">
         <v>35</v>
       </c>
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="48" t="s">
+      <c r="A32" s="49" t="s">
         <v>182</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -12739,24 +13008,24 @@
       <c r="D32" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49">
-        <v>1</v>
-      </c>
-      <c r="G32" s="49">
+      <c r="E32" s="50"/>
+      <c r="F32" s="50">
+        <v>1</v>
+      </c>
+      <c r="G32" s="50">
         <v>2</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="H32" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="49"/>
-      <c r="J32" s="48" t="s">
+      <c r="I32" s="50"/>
+      <c r="J32" s="49" t="s">
         <v>18</v>
       </c>
       <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:11" s="2" customFormat="1">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="49" t="s">
         <v>182</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -12787,7 +13056,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1">
-      <c r="A34" s="48" t="s">
+      <c r="A34" s="49" t="s">
         <v>182</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -12818,7 +13087,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1">
-      <c r="A35" s="48" t="s">
+      <c r="A35" s="49" t="s">
         <v>182</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -12849,7 +13118,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="40" t="s">
         <v>192</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -12872,7 +13141,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="40" t="s">
         <v>192</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -12905,96 +13174,96 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="18.75">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="42" t="s">
         <v>369</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41">
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42">
         <v>0</v>
       </c>
-      <c r="G38" s="41">
+      <c r="G38" s="42">
         <v>99</v>
       </c>
-      <c r="H38" s="41" t="s">
+      <c r="H38" s="42" t="s">
         <v>10</v>
       </c>
       <c r="I38" s="1">
         <v>2</v>
       </c>
-      <c r="J38" s="41" t="s">
+      <c r="J38" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="41" t="s">
+      <c r="K38" s="42" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="42" t="s">
         <v>481</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="42" t="s">
         <v>272</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41">
-        <v>1</v>
-      </c>
-      <c r="G39" s="41">
+      <c r="E39" s="42"/>
+      <c r="F39" s="42">
+        <v>1</v>
+      </c>
+      <c r="G39" s="42">
         <v>2</v>
       </c>
-      <c r="H39" s="41" t="s">
+      <c r="H39" s="42" t="s">
         <v>9</v>
       </c>
       <c r="I39" s="1"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="41"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="42" t="s">
         <v>257</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41">
-        <v>1</v>
-      </c>
-      <c r="G40" s="41">
+      <c r="E40" s="42"/>
+      <c r="F40" s="42">
+        <v>1</v>
+      </c>
+      <c r="G40" s="42">
         <v>2</v>
       </c>
-      <c r="H40" s="41" t="s">
+      <c r="H40" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="39" t="s">
+      <c r="I40" s="42"/>
+      <c r="J40" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="K40" s="40" t="s">
+      <c r="K40" s="41" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="40" t="s">
         <v>192</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -13027,7 +13296,7 @@
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="40" t="s">
         <v>192</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -13060,7 +13329,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="40" t="s">
         <v>192</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -13093,98 +13362,98 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="42" t="s">
         <v>482</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="44" t="s">
         <v>256</v>
       </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41">
-        <v>1</v>
-      </c>
-      <c r="G44" s="41">
+      <c r="E44" s="42"/>
+      <c r="F44" s="42">
+        <v>1</v>
+      </c>
+      <c r="G44" s="42">
         <v>2</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="H44" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="41"/>
-      <c r="J44" s="39" t="s">
+      <c r="I44" s="42"/>
+      <c r="J44" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="K44" s="40" t="s">
+      <c r="K44" s="41" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="C45" s="41" t="s">
+      <c r="C45" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41">
-        <v>1</v>
-      </c>
-      <c r="G45" s="41">
+      <c r="E45" s="42"/>
+      <c r="F45" s="42">
+        <v>1</v>
+      </c>
+      <c r="G45" s="42">
         <v>17</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="H45" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="41"/>
-      <c r="J45" s="39" t="s">
+      <c r="I45" s="42"/>
+      <c r="J45" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="40" t="s">
+      <c r="K45" s="41" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C46" s="41" t="s">
+      <c r="C46" s="42" t="s">
         <v>484</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41">
-        <v>1</v>
-      </c>
-      <c r="G46" s="41">
+      <c r="E46" s="42"/>
+      <c r="F46" s="42">
+        <v>1</v>
+      </c>
+      <c r="G46" s="42">
         <v>3</v>
       </c>
-      <c r="H46" s="41" t="s">
+      <c r="H46" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="41"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="40" t="s">
+      <c r="I46" s="42"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="41" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="40" t="s">
         <v>192</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -13217,98 +13486,98 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="42" t="s">
         <v>486</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41">
-        <v>1</v>
-      </c>
-      <c r="G48" s="41">
+      <c r="E48" s="42"/>
+      <c r="F48" s="42">
+        <v>1</v>
+      </c>
+      <c r="G48" s="42">
         <v>2</v>
       </c>
-      <c r="H48" s="41" t="s">
+      <c r="H48" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="39" t="s">
+      <c r="I48" s="42"/>
+      <c r="J48" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="K48" s="40" t="s">
+      <c r="K48" s="41" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="C49" s="41" t="s">
+      <c r="C49" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43">
-        <v>1</v>
-      </c>
-      <c r="G49" s="43">
+      <c r="E49" s="44"/>
+      <c r="F49" s="44">
+        <v>1</v>
+      </c>
+      <c r="G49" s="44">
         <v>17</v>
       </c>
-      <c r="H49" s="41" t="s">
+      <c r="H49" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="39" t="s">
+      <c r="I49" s="42"/>
+      <c r="J49" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="40" t="s">
+      <c r="K49" s="41" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="C50" s="41" t="s">
+      <c r="C50" s="42" t="s">
         <v>488</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41">
-        <v>1</v>
-      </c>
-      <c r="G50" s="41">
+      <c r="E50" s="42"/>
+      <c r="F50" s="42">
+        <v>1</v>
+      </c>
+      <c r="G50" s="42">
         <v>3</v>
       </c>
-      <c r="H50" s="41" t="s">
+      <c r="H50" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="41"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="40" t="s">
+      <c r="I50" s="42"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="41" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="40" t="s">
         <v>192</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -13336,103 +13605,103 @@
       <c r="J51" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="40" t="s">
+      <c r="K51" s="41" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="42" t="s">
         <v>281</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="42" t="s">
         <v>490</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="42" t="s">
         <v>256</v>
       </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41">
-        <v>1</v>
-      </c>
-      <c r="G52" s="41">
+      <c r="E52" s="42"/>
+      <c r="F52" s="42">
+        <v>1</v>
+      </c>
+      <c r="G52" s="42">
         <v>2</v>
       </c>
-      <c r="H52" s="41" t="s">
+      <c r="H52" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I52" s="41"/>
-      <c r="J52" s="39" t="s">
+      <c r="I52" s="42"/>
+      <c r="J52" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="K52" s="40" t="s">
+      <c r="K52" s="41" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="42" t="s">
         <v>491</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="44" t="s">
         <v>299</v>
       </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43">
-        <v>1</v>
-      </c>
-      <c r="G53" s="43">
+      <c r="E53" s="44"/>
+      <c r="F53" s="44">
+        <v>1</v>
+      </c>
+      <c r="G53" s="44">
         <v>17</v>
       </c>
-      <c r="H53" s="41" t="s">
+      <c r="H53" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="41"/>
-      <c r="J53" s="39" t="s">
+      <c r="I53" s="42"/>
+      <c r="J53" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="K53" s="40" t="s">
+      <c r="K53" s="41" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="C54" s="41" t="s">
+      <c r="C54" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="42" t="s">
         <v>259</v>
       </c>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41">
-        <v>1</v>
-      </c>
-      <c r="G54" s="41">
+      <c r="E54" s="42"/>
+      <c r="F54" s="42">
+        <v>1</v>
+      </c>
+      <c r="G54" s="42">
         <v>3</v>
       </c>
-      <c r="H54" s="41" t="s">
+      <c r="H54" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I54" s="41"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="40" t="s">
+      <c r="I54" s="42"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="41" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="18.75">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="40" t="s">
         <v>192</v>
       </c>
       <c r="B55" s="9" t="s">
@@ -13465,7 +13734,7 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="40" t="s">
         <v>220</v>
       </c>
       <c r="B56" s="9" t="s">
@@ -13477,24 +13746,24 @@
       <c r="D56" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41">
-        <v>1</v>
-      </c>
-      <c r="G56" s="41">
+      <c r="E56" s="42"/>
+      <c r="F56" s="42">
+        <v>1</v>
+      </c>
+      <c r="G56" s="42">
         <v>2</v>
       </c>
-      <c r="H56" s="41" t="s">
+      <c r="H56" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I56" s="41"/>
-      <c r="J56" s="39" t="s">
+      <c r="I56" s="42"/>
+      <c r="J56" s="40" t="s">
         <v>18</v>
       </c>
       <c r="K56" s="9"/>
     </row>
     <row r="57" spans="1:11" s="2" customFormat="1">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="40" t="s">
         <v>192</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -13525,7 +13794,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" s="2" customFormat="1">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="40" t="s">
         <v>192</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -13556,7 +13825,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" s="2" customFormat="1">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="40" t="s">
         <v>192</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -13587,7 +13856,7 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="40" t="s">
         <v>194</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -13610,7 +13879,7 @@
       </c>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="40" t="s">
         <v>194</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -13643,38 +13912,38 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="18.75">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="42" t="s">
         <v>393</v>
       </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41">
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42">
         <v>0</v>
       </c>
-      <c r="G62" s="41">
+      <c r="G62" s="42">
         <v>99</v>
       </c>
-      <c r="H62" s="41" t="s">
+      <c r="H62" s="42" t="s">
         <v>10</v>
       </c>
       <c r="I62" s="1">
         <v>2</v>
       </c>
-      <c r="J62" s="41" t="s">
+      <c r="J62" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="K62" s="41" t="s">
+      <c r="K62" s="42" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="18.75">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="40" t="s">
         <v>194</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -13707,7 +13976,7 @@
       </c>
     </row>
     <row r="64" spans="1:11">
-      <c r="A64" s="39" t="s">
+      <c r="A64" s="40" t="s">
         <v>194</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -13719,24 +13988,24 @@
       <c r="D64" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41">
-        <v>1</v>
-      </c>
-      <c r="G64" s="41">
+      <c r="E64" s="42"/>
+      <c r="F64" s="42">
+        <v>1</v>
+      </c>
+      <c r="G64" s="42">
         <v>2</v>
       </c>
-      <c r="H64" s="41" t="s">
+      <c r="H64" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="I64" s="41"/>
-      <c r="J64" s="39" t="s">
+      <c r="I64" s="42"/>
+      <c r="J64" s="40" t="s">
         <v>18</v>
       </c>
       <c r="K64" s="9"/>
     </row>
     <row r="65" spans="1:11" s="2" customFormat="1">
-      <c r="A65" s="39" t="s">
+      <c r="A65" s="40" t="s">
         <v>194</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -13767,7 +14036,7 @@
       </c>
     </row>
     <row r="66" spans="1:11" s="2" customFormat="1">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="40" t="s">
         <v>194</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -13798,7 +14067,7 @@
       </c>
     </row>
     <row r="67" spans="1:11" s="2" customFormat="1">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="40" t="s">
         <v>194</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -13829,7 +14098,7 @@
       </c>
     </row>
     <row r="68" spans="1:11" s="2" customFormat="1">
-      <c r="A68" s="42" t="s">
+      <c r="A68" s="43" t="s">
         <v>288</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -13860,7 +14129,7 @@
       </c>
     </row>
     <row r="69" spans="1:11">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="40" t="s">
         <v>183</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -13891,7 +14160,7 @@
       </c>
     </row>
     <row r="70" spans="1:11">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="40" t="s">
         <v>183</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -13922,7 +14191,7 @@
       </c>
     </row>
     <row r="71" spans="1:11">
-      <c r="A71" s="39" t="s">
+      <c r="A71" s="40" t="s">
         <v>183</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -13955,7 +14224,7 @@
       </c>
     </row>
     <row r="72" spans="1:11">
-      <c r="A72" s="41" t="s">
+      <c r="A72" s="42" t="s">
         <v>183</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -13988,7 +14257,7 @@
       </c>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="52" t="s">
+      <c r="A73" s="53" t="s">
         <v>287</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -14011,7 +14280,7 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="52" t="s">
+      <c r="A74" s="53" t="s">
         <v>287</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -14042,17 +14311,17 @@
       <c r="K74" s="9"/>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="44" t="s">
         <v>287</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C75" s="43" t="s">
+      <c r="C75" s="44" t="s">
         <v>404</v>
       </c>
-      <c r="D75" s="43"/>
-      <c r="E75" s="43"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
       <c r="F75" s="9" t="s">
         <v>118</v>
       </c>
@@ -14068,20 +14337,20 @@
       <c r="J75" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="K75" s="43"/>
+      <c r="K75" s="44"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="43" t="s">
+      <c r="A76" s="44" t="s">
         <v>287</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="43" t="s">
+      <c r="C76" s="44" t="s">
         <v>405</v>
       </c>
-      <c r="D76" s="43"/>
-      <c r="E76" s="43"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
       <c r="F76" s="9">
         <v>0</v>
       </c>
@@ -14097,16 +14366,16 @@
       <c r="J76" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="K76" s="43"/>
+      <c r="K76" s="44"/>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="B77" s="61" t="s">
+      <c r="B77" s="62" t="s">
         <v>446</v>
       </c>
-      <c r="C77" s="61" t="s">
+      <c r="C77" s="62" t="s">
         <v>441</v>
       </c>
       <c r="D77" s="9"/>
@@ -14123,33 +14392,33 @@
       </c>
     </row>
     <row r="78" spans="1:11" ht="18.75">
-      <c r="A78" s="61" t="s">
+      <c r="A78" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="B78" s="61" t="s">
+      <c r="B78" s="62" t="s">
         <v>442</v>
       </c>
-      <c r="C78" s="61" t="s">
+      <c r="C78" s="62" t="s">
         <v>443</v>
       </c>
-      <c r="D78" s="61"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61">
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="62">
         <v>0</v>
       </c>
-      <c r="G78" s="61">
+      <c r="G78" s="62">
         <v>99</v>
       </c>
-      <c r="H78" s="61" t="s">
+      <c r="H78" s="62" t="s">
         <v>10</v>
       </c>
       <c r="I78" s="1">
         <v>2</v>
       </c>
-      <c r="J78" s="61" t="s">
+      <c r="J78" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="K78" s="61" t="s">
+      <c r="K78" s="62" t="s">
         <v>173</v>
       </c>
     </row>
@@ -14169,14 +14438,14 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A82" sqref="A82:XFD84"/>
+      <selection pane="bottomRight" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="24.3125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.0625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.8125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.8125" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.8125" style="4" customWidth="1"/>
     <col min="5" max="5" width="7.8125" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5625" style="4" bestFit="1" customWidth="1"/>
@@ -14195,7 +14464,7 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="53" t="s">
         <v>419</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -14224,16 +14493,16 @@
       </c>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="53" t="s">
         <v>176</v>
       </c>
       <c r="E3" s="5">
@@ -14253,13 +14522,13 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="54" t="s">
         <v>177</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -14284,13 +14553,13 @@
       <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="18.75">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>179</v>
       </c>
       <c r="D5" s="9"/>
@@ -14313,13 +14582,13 @@
       <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:17" s="2" customFormat="1" ht="18.75">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="54" t="s">
         <v>180</v>
       </c>
       <c r="D6" s="9"/>
@@ -14342,13 +14611,13 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" ht="18.75">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="54" t="s">
         <v>181</v>
       </c>
       <c r="D7" s="9"/>
@@ -14371,56 +14640,56 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="56" t="s">
         <v>343</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55" t="s">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55" t="s">
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="20" customFormat="1">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="56" t="s">
         <v>344</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="56" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55">
-        <v>1</v>
-      </c>
-      <c r="G9" s="55">
+      <c r="E9" s="56"/>
+      <c r="F9" s="56">
+        <v>1</v>
+      </c>
+      <c r="G9" s="56">
         <v>6</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="55"/>
+      <c r="I9" s="56"/>
       <c r="J9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="K9" s="56" t="s">
         <v>173</v>
       </c>
       <c r="M9" s="12"/>
@@ -14430,7 +14699,7 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="55" t="s">
         <v>182</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -14462,8 +14731,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="23" customFormat="1">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:17" s="24" customFormat="1">
+      <c r="A11" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -14495,8 +14764,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="23" customFormat="1">
-      <c r="A12" s="56" t="s">
+    <row r="12" spans="1:17" s="24" customFormat="1">
+      <c r="A12" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -14528,8 +14797,8 @@
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="23" customFormat="1">
-      <c r="A13" s="56" t="s">
+    <row r="13" spans="1:17" s="24" customFormat="1">
+      <c r="A13" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -14561,8 +14830,8 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="23" customFormat="1">
-      <c r="A14" s="66" t="s">
+    <row r="14" spans="1:17" s="24" customFormat="1">
+      <c r="A14" s="67" t="s">
         <v>182</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -14594,39 +14863,39 @@
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="23" customFormat="1" ht="18.75">
-      <c r="A15" s="56" t="s">
+    <row r="15" spans="1:17" s="24" customFormat="1" ht="18.75">
+      <c r="A15" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="59" t="s">
         <v>352</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58">
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59">
         <v>0</v>
       </c>
-      <c r="G15" s="58">
+      <c r="G15" s="59">
         <v>99</v>
       </c>
-      <c r="H15" s="58" t="s">
+      <c r="H15" s="59" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
       </c>
-      <c r="J15" s="58" t="s">
+      <c r="J15" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="58" t="s">
+      <c r="K15" s="59" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="23" customFormat="1">
-      <c r="A16" s="56" t="s">
+    <row r="16" spans="1:17" s="24" customFormat="1">
+      <c r="A16" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -14655,7 +14924,7 @@
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" ht="18.75">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="55" t="s">
         <v>182</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -14685,8 +14954,8 @@
         <v>341</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="23" customFormat="1">
-      <c r="A18" s="56" t="s">
+    <row r="18" spans="1:11" s="24" customFormat="1">
+      <c r="A18" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -14695,14 +14964,14 @@
       <c r="C18" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="62" t="s">
         <v>307</v>
       </c>
       <c r="E18" s="14"/>
-      <c r="F18" s="58">
-        <v>1</v>
-      </c>
-      <c r="G18" s="58">
+      <c r="F18" s="59">
+        <v>1</v>
+      </c>
+      <c r="G18" s="59">
         <v>7</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -14716,8 +14985,8 @@
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="23" customFormat="1">
-      <c r="A19" s="56" t="s">
+    <row r="19" spans="1:11" s="24" customFormat="1">
+      <c r="A19" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -14730,10 +14999,10 @@
         <v>308</v>
       </c>
       <c r="E19" s="14"/>
-      <c r="F19" s="58">
-        <v>1</v>
-      </c>
-      <c r="G19" s="58">
+      <c r="F19" s="59">
+        <v>1</v>
+      </c>
+      <c r="G19" s="59">
         <v>6</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -14747,8 +15016,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="23" customFormat="1">
-      <c r="A20" s="56" t="s">
+    <row r="20" spans="1:11" s="24" customFormat="1">
+      <c r="A20" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -14761,10 +15030,10 @@
         <v>267</v>
       </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="58">
-        <v>1</v>
-      </c>
-      <c r="G20" s="58">
+      <c r="F20" s="59">
+        <v>1</v>
+      </c>
+      <c r="G20" s="59">
         <v>1</v>
       </c>
       <c r="H20" s="10" t="s">
@@ -14778,8 +15047,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="23" customFormat="1">
-      <c r="A21" s="56" t="s">
+    <row r="21" spans="1:11" s="24" customFormat="1">
+      <c r="A21" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -14792,10 +15061,10 @@
         <v>309</v>
       </c>
       <c r="E21" s="14"/>
-      <c r="F21" s="58">
-        <v>1</v>
-      </c>
-      <c r="G21" s="58">
+      <c r="F21" s="59">
+        <v>1</v>
+      </c>
+      <c r="G21" s="59">
         <v>2</v>
       </c>
       <c r="H21" s="10" t="s">
@@ -14809,8 +15078,8 @@
         <v>329</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="23" customFormat="1" ht="18.75">
-      <c r="A22" s="56" t="s">
+    <row r="22" spans="1:11" s="24" customFormat="1" ht="18.75">
+      <c r="A22" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -14840,8 +15109,8 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="23" customFormat="1" ht="18.75">
-      <c r="A23" s="56" t="s">
+    <row r="23" spans="1:11" s="24" customFormat="1" ht="18.75">
+      <c r="A23" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -14871,8 +15140,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="23" customFormat="1">
-      <c r="A24" s="56" t="s">
+    <row r="24" spans="1:11" s="24" customFormat="1">
+      <c r="A24" s="57" t="s">
         <v>214</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -14902,8 +15171,8 @@
         <v>434</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="23" customFormat="1">
-      <c r="A25" s="56" t="s">
+    <row r="25" spans="1:11" s="24" customFormat="1">
+      <c r="A25" s="57" t="s">
         <v>214</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -14916,10 +15185,10 @@
         <v>320</v>
       </c>
       <c r="E25" s="14"/>
-      <c r="F25" s="58">
-        <v>1</v>
-      </c>
-      <c r="G25" s="58">
+      <c r="F25" s="59">
+        <v>1</v>
+      </c>
+      <c r="G25" s="59">
         <v>6</v>
       </c>
       <c r="H25" s="10" t="s">
@@ -14931,8 +15200,8 @@
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="23" customFormat="1">
-      <c r="A26" s="56" t="s">
+    <row r="26" spans="1:11" s="24" customFormat="1">
+      <c r="A26" s="57" t="s">
         <v>214</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -14945,10 +15214,10 @@
         <v>321</v>
       </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="58">
-        <v>1</v>
-      </c>
-      <c r="G26" s="58">
+      <c r="F26" s="59">
+        <v>1</v>
+      </c>
+      <c r="G26" s="59">
         <v>12</v>
       </c>
       <c r="H26" s="10" t="s">
@@ -14960,8 +15229,8 @@
         <v>327</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="23" customFormat="1">
-      <c r="A27" s="56" t="s">
+    <row r="27" spans="1:11" s="24" customFormat="1">
+      <c r="A27" s="57" t="s">
         <v>214</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -14974,10 +15243,10 @@
         <v>322</v>
       </c>
       <c r="E27" s="14"/>
-      <c r="F27" s="58">
-        <v>1</v>
-      </c>
-      <c r="G27" s="58">
+      <c r="F27" s="59">
+        <v>1</v>
+      </c>
+      <c r="G27" s="59">
         <v>2</v>
       </c>
       <c r="H27" s="10" t="s">
@@ -14989,8 +15258,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="23" customFormat="1">
-      <c r="A28" s="56" t="s">
+    <row r="28" spans="1:11" s="24" customFormat="1">
+      <c r="A28" s="57" t="s">
         <v>214</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -15003,10 +15272,10 @@
         <v>323</v>
       </c>
       <c r="E28" s="14"/>
-      <c r="F28" s="58">
-        <v>1</v>
-      </c>
-      <c r="G28" s="58">
+      <c r="F28" s="59">
+        <v>1</v>
+      </c>
+      <c r="G28" s="59">
         <v>6</v>
       </c>
       <c r="H28" s="10" t="s">
@@ -15019,113 +15288,113 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="56" t="s">
         <v>363</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55" t="s">
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="56" t="s">
         <v>364</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55">
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56">
         <v>0</v>
       </c>
-      <c r="G30" s="55">
+      <c r="G30" s="56">
         <v>9999</v>
       </c>
-      <c r="H30" s="55" t="s">
+      <c r="H30" s="56" t="s">
         <v>10</v>
       </c>
       <c r="I30" s="1">
         <v>2</v>
       </c>
-      <c r="J30" s="55" t="s">
+      <c r="J30" s="56" t="s">
         <v>37</v>
       </c>
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="56" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="56" t="s">
         <v>365</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55">
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56">
         <v>0.02</v>
       </c>
-      <c r="G31" s="55">
+      <c r="G31" s="56">
         <v>370</v>
       </c>
-      <c r="H31" s="55" t="s">
+      <c r="H31" s="56" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="1">
         <v>3</v>
       </c>
-      <c r="J31" s="55" t="s">
+      <c r="J31" s="56" t="s">
         <v>33</v>
       </c>
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="56" t="s">
         <v>366</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55">
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56">
         <v>0</v>
       </c>
-      <c r="G32" s="55">
+      <c r="G32" s="56">
         <v>4000</v>
       </c>
-      <c r="H32" s="55" t="s">
+      <c r="H32" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55" t="s">
+      <c r="I32" s="56"/>
+      <c r="J32" s="56" t="s">
         <v>35</v>
       </c>
       <c r="K32" s="9"/>
     </row>
-    <row r="33" spans="1:11" s="23" customFormat="1">
-      <c r="A33" s="56" t="s">
+    <row r="33" spans="1:11" s="24" customFormat="1">
+      <c r="A33" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -15137,24 +15406,24 @@
       <c r="D33" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58">
-        <v>1</v>
-      </c>
-      <c r="G33" s="58">
+      <c r="E33" s="59"/>
+      <c r="F33" s="59">
+        <v>1</v>
+      </c>
+      <c r="G33" s="59">
         <v>2</v>
       </c>
-      <c r="H33" s="58" t="s">
+      <c r="H33" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="58"/>
-      <c r="J33" s="56" t="s">
+      <c r="I33" s="59"/>
+      <c r="J33" s="57" t="s">
         <v>18</v>
       </c>
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -15185,7 +15454,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -15216,7 +15485,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -15247,7 +15516,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -15269,8 +15538,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="23" customFormat="1">
-      <c r="A38" s="56" t="s">
+    <row r="38" spans="1:11" s="24" customFormat="1">
+      <c r="A38" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -15302,39 +15571,39 @@
         <v>241</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="23" customFormat="1" ht="18.75">
-      <c r="A39" s="56" t="s">
+    <row r="39" spans="1:11" s="24" customFormat="1" ht="18.75">
+      <c r="A39" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="59" t="s">
         <v>369</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58">
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59">
         <v>0</v>
       </c>
-      <c r="G39" s="58">
+      <c r="G39" s="59">
         <v>99</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="59" t="s">
         <v>10</v>
       </c>
       <c r="I39" s="1">
         <v>2</v>
       </c>
-      <c r="J39" s="58" t="s">
+      <c r="J39" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="58" t="s">
+      <c r="K39" s="59" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="23" customFormat="1">
-      <c r="A40" s="56" t="s">
+    <row r="40" spans="1:11" s="24" customFormat="1">
+      <c r="A40" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -15362,66 +15631,66 @@
       <c r="J40" s="10"/>
       <c r="K40" s="9"/>
     </row>
-    <row r="41" spans="1:11" s="23" customFormat="1">
-      <c r="A41" s="56" t="s">
+    <row r="41" spans="1:11" s="24" customFormat="1">
+      <c r="A41" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="58" t="s">
+      <c r="B41" s="59" t="s">
         <v>271</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="59" t="s">
         <v>373</v>
       </c>
-      <c r="D41" s="58" t="s">
+      <c r="D41" s="59" t="s">
         <v>272</v>
       </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58">
-        <v>1</v>
-      </c>
-      <c r="G41" s="58">
+      <c r="E41" s="59"/>
+      <c r="F41" s="59">
+        <v>1</v>
+      </c>
+      <c r="G41" s="59">
         <v>2</v>
       </c>
-      <c r="H41" s="58" t="s">
+      <c r="H41" s="59" t="s">
         <v>9</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="57"/>
-    </row>
-    <row r="42" spans="1:11" s="23" customFormat="1">
-      <c r="A42" s="56" t="s">
+      <c r="J41" s="57"/>
+      <c r="K41" s="58"/>
+    </row>
+    <row r="42" spans="1:11" s="24" customFormat="1">
+      <c r="A42" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B42" s="58" t="s">
+      <c r="B42" s="59" t="s">
         <v>248</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="59" t="s">
         <v>370</v>
       </c>
-      <c r="D42" s="58" t="s">
+      <c r="D42" s="59" t="s">
         <v>257</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58">
-        <v>1</v>
-      </c>
-      <c r="G42" s="58">
+      <c r="E42" s="59"/>
+      <c r="F42" s="59">
+        <v>1</v>
+      </c>
+      <c r="G42" s="59">
         <v>2</v>
       </c>
-      <c r="H42" s="58" t="s">
+      <c r="H42" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="58"/>
-      <c r="J42" s="56" t="s">
+      <c r="I42" s="59"/>
+      <c r="J42" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K42" s="57" t="s">
+      <c r="K42" s="58" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="56" t="s">
+      <c r="A43" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -15454,7 +15723,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -15487,7 +15756,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="56" t="s">
+      <c r="A45" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -15519,99 +15788,99 @@
         <v>274</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="23" customFormat="1">
-      <c r="A46" s="56" t="s">
+    <row r="46" spans="1:11" s="24" customFormat="1">
+      <c r="A46" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B46" s="58" t="s">
+      <c r="B46" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="59" t="s">
         <v>375</v>
       </c>
-      <c r="D46" s="58" t="s">
+      <c r="D46" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58">
-        <v>1</v>
-      </c>
-      <c r="G46" s="58">
+      <c r="E46" s="59"/>
+      <c r="F46" s="59">
+        <v>1</v>
+      </c>
+      <c r="G46" s="59">
         <v>2</v>
       </c>
-      <c r="H46" s="58" t="s">
+      <c r="H46" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="58"/>
-      <c r="J46" s="56" t="s">
+      <c r="I46" s="59"/>
+      <c r="J46" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K46" s="57" t="s">
+      <c r="K46" s="58" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="23" customFormat="1">
-      <c r="A47" s="56" t="s">
+    <row r="47" spans="1:11" s="24" customFormat="1">
+      <c r="A47" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="58" t="s">
+      <c r="B47" s="59" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="59" t="s">
         <v>376</v>
       </c>
-      <c r="D47" s="61" t="s">
+      <c r="D47" s="62" t="s">
         <v>299</v>
       </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58">
-        <v>1</v>
-      </c>
-      <c r="G47" s="58">
+      <c r="E47" s="59"/>
+      <c r="F47" s="59">
+        <v>1</v>
+      </c>
+      <c r="G47" s="59">
         <v>17</v>
       </c>
-      <c r="H47" s="58" t="s">
+      <c r="H47" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="58"/>
-      <c r="J47" s="56" t="s">
+      <c r="I47" s="59"/>
+      <c r="J47" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="57" t="s">
+      <c r="K47" s="58" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="23" customFormat="1">
-      <c r="A48" s="56" t="s">
+    <row r="48" spans="1:11" s="24" customFormat="1">
+      <c r="A48" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="59" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="59" t="s">
         <v>377</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58">
-        <v>1</v>
-      </c>
-      <c r="G48" s="58">
+      <c r="E48" s="59"/>
+      <c r="F48" s="59">
+        <v>1</v>
+      </c>
+      <c r="G48" s="59">
         <v>3</v>
       </c>
-      <c r="H48" s="58" t="s">
+      <c r="H48" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I48" s="58"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="57" t="s">
+      <c r="I48" s="59"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="58" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="23" customFormat="1">
-      <c r="A49" s="56" t="s">
+    <row r="49" spans="1:11" s="24" customFormat="1">
+      <c r="A49" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -15643,99 +15912,99 @@
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="23" customFormat="1">
-      <c r="A50" s="56" t="s">
+    <row r="50" spans="1:11" s="24" customFormat="1">
+      <c r="A50" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B50" s="58" t="s">
+      <c r="B50" s="59" t="s">
         <v>277</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="59" t="s">
         <v>379</v>
       </c>
-      <c r="D50" s="58" t="s">
+      <c r="D50" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58">
-        <v>1</v>
-      </c>
-      <c r="G50" s="58">
+      <c r="E50" s="59"/>
+      <c r="F50" s="59">
+        <v>1</v>
+      </c>
+      <c r="G50" s="59">
         <v>2</v>
       </c>
-      <c r="H50" s="58" t="s">
+      <c r="H50" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="58"/>
-      <c r="J50" s="56" t="s">
+      <c r="I50" s="59"/>
+      <c r="J50" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K50" s="57" t="s">
+      <c r="K50" s="58" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="23" customFormat="1">
-      <c r="A51" s="56" t="s">
+    <row r="51" spans="1:11" s="24" customFormat="1">
+      <c r="A51" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B51" s="58" t="s">
+      <c r="B51" s="59" t="s">
         <v>278</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="59" t="s">
         <v>380</v>
       </c>
-      <c r="D51" s="58" t="s">
+      <c r="D51" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58">
-        <v>1</v>
-      </c>
-      <c r="G51" s="58">
+      <c r="E51" s="59"/>
+      <c r="F51" s="59">
+        <v>1</v>
+      </c>
+      <c r="G51" s="59">
         <v>17</v>
       </c>
-      <c r="H51" s="58" t="s">
+      <c r="H51" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="58"/>
-      <c r="J51" s="56" t="s">
+      <c r="I51" s="59"/>
+      <c r="J51" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="57" t="s">
+      <c r="K51" s="58" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="23" customFormat="1">
-      <c r="A52" s="56" t="s">
+    <row r="52" spans="1:11" s="24" customFormat="1">
+      <c r="A52" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B52" s="58" t="s">
+      <c r="B52" s="59" t="s">
         <v>279</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="59" t="s">
         <v>381</v>
       </c>
-      <c r="D52" s="58" t="s">
+      <c r="D52" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58">
-        <v>1</v>
-      </c>
-      <c r="G52" s="58">
+      <c r="E52" s="59"/>
+      <c r="F52" s="59">
+        <v>1</v>
+      </c>
+      <c r="G52" s="59">
         <v>3</v>
       </c>
-      <c r="H52" s="58" t="s">
+      <c r="H52" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I52" s="58"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="57" t="s">
+      <c r="I52" s="59"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="58" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="23" customFormat="1">
-      <c r="A53" s="56" t="s">
+    <row r="53" spans="1:11" s="24" customFormat="1">
+      <c r="A53" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -15763,103 +16032,103 @@
       <c r="J53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K53" s="57" t="s">
+      <c r="K53" s="58" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="23" customFormat="1">
-      <c r="A54" s="56" t="s">
+    <row r="54" spans="1:11" s="24" customFormat="1">
+      <c r="A54" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B54" s="58" t="s">
+      <c r="B54" s="59" t="s">
         <v>281</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="59" t="s">
         <v>384</v>
       </c>
-      <c r="D54" s="58" t="s">
+      <c r="D54" s="59" t="s">
         <v>256</v>
       </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58">
-        <v>1</v>
-      </c>
-      <c r="G54" s="58">
+      <c r="E54" s="59"/>
+      <c r="F54" s="59">
+        <v>1</v>
+      </c>
+      <c r="G54" s="59">
         <v>2</v>
       </c>
-      <c r="H54" s="58" t="s">
+      <c r="H54" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I54" s="58"/>
-      <c r="J54" s="56" t="s">
+      <c r="I54" s="59"/>
+      <c r="J54" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K54" s="57" t="s">
+      <c r="K54" s="58" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="23" customFormat="1">
-      <c r="A55" s="56" t="s">
+    <row r="55" spans="1:11" s="24" customFormat="1">
+      <c r="A55" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B55" s="58" t="s">
+      <c r="B55" s="59" t="s">
         <v>282</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="59" t="s">
         <v>383</v>
       </c>
-      <c r="D55" s="58" t="s">
+      <c r="D55" s="59" t="s">
         <v>299</v>
       </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58">
-        <v>1</v>
-      </c>
-      <c r="G55" s="58">
+      <c r="E55" s="59"/>
+      <c r="F55" s="59">
+        <v>1</v>
+      </c>
+      <c r="G55" s="59">
         <v>17</v>
       </c>
-      <c r="H55" s="58" t="s">
+      <c r="H55" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I55" s="58"/>
-      <c r="J55" s="56" t="s">
+      <c r="I55" s="59"/>
+      <c r="J55" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K55" s="57" t="s">
+      <c r="K55" s="58" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="23" customFormat="1">
-      <c r="A56" s="56" t="s">
+    <row r="56" spans="1:11" s="24" customFormat="1">
+      <c r="A56" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B56" s="58" t="s">
+      <c r="B56" s="59" t="s">
         <v>283</v>
       </c>
-      <c r="C56" s="58" t="s">
+      <c r="C56" s="59" t="s">
         <v>385</v>
       </c>
-      <c r="D56" s="58" t="s">
+      <c r="D56" s="59" t="s">
         <v>259</v>
       </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58">
-        <v>1</v>
-      </c>
-      <c r="G56" s="58">
+      <c r="E56" s="59"/>
+      <c r="F56" s="59">
+        <v>1</v>
+      </c>
+      <c r="G56" s="59">
         <v>3</v>
       </c>
-      <c r="H56" s="58" t="s">
+      <c r="H56" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I56" s="58"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="57" t="s">
+      <c r="I56" s="59"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="58" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="18.75">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -15891,8 +16160,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="23" customFormat="1">
-      <c r="A58" s="56" t="s">
+    <row r="58" spans="1:11" s="24" customFormat="1">
+      <c r="A58" s="57" t="s">
         <v>220</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -15904,24 +16173,24 @@
       <c r="D58" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58">
-        <v>1</v>
-      </c>
-      <c r="G58" s="58">
+      <c r="E58" s="59"/>
+      <c r="F58" s="59">
+        <v>1</v>
+      </c>
+      <c r="G58" s="59">
         <v>2</v>
       </c>
-      <c r="H58" s="58" t="s">
+      <c r="H58" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I58" s="58"/>
-      <c r="J58" s="56" t="s">
+      <c r="I58" s="59"/>
+      <c r="J58" s="57" t="s">
         <v>18</v>
       </c>
       <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11" s="2" customFormat="1">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -15952,7 +16221,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" s="2" customFormat="1">
-      <c r="A60" s="56" t="s">
+      <c r="A60" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -15983,7 +16252,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" s="2" customFormat="1">
-      <c r="A61" s="56" t="s">
+      <c r="A61" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -16013,8 +16282,8 @@
         <v>303</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="23" customFormat="1">
-      <c r="A62" s="56" t="s">
+    <row r="62" spans="1:11" s="24" customFormat="1">
+      <c r="A62" s="57" t="s">
         <v>194</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -16036,8 +16305,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="23" customFormat="1">
-      <c r="A63" s="56" t="s">
+    <row r="63" spans="1:11" s="24" customFormat="1">
+      <c r="A63" s="57" t="s">
         <v>194</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -16069,39 +16338,39 @@
         <v>241</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="23" customFormat="1" ht="18.75">
-      <c r="A64" s="56" t="s">
+    <row r="64" spans="1:11" s="24" customFormat="1" ht="18.75">
+      <c r="A64" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="59" t="s">
         <v>393</v>
       </c>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58">
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59">
         <v>0</v>
       </c>
-      <c r="G64" s="58">
+      <c r="G64" s="59">
         <v>99</v>
       </c>
-      <c r="H64" s="58" t="s">
+      <c r="H64" s="59" t="s">
         <v>10</v>
       </c>
       <c r="I64" s="1">
         <v>2</v>
       </c>
-      <c r="J64" s="58" t="s">
+      <c r="J64" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="K64" s="58" t="s">
+      <c r="K64" s="59" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="23" customFormat="1">
-      <c r="A65" s="56" t="s">
+    <row r="65" spans="1:11" s="24" customFormat="1">
+      <c r="A65" s="57" t="s">
         <v>194</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -16129,8 +16398,8 @@
       <c r="J65" s="10"/>
       <c r="K65" s="9"/>
     </row>
-    <row r="66" spans="1:11" s="23" customFormat="1" ht="18.75">
-      <c r="A66" s="56" t="s">
+    <row r="66" spans="1:11" s="24" customFormat="1" ht="18.75">
+      <c r="A66" s="57" t="s">
         <v>194</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -16162,8 +16431,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="23" customFormat="1">
-      <c r="A67" s="56" t="s">
+    <row r="67" spans="1:11" s="24" customFormat="1">
+      <c r="A67" s="57" t="s">
         <v>194</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -16175,24 +16444,24 @@
       <c r="D67" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58">
-        <v>1</v>
-      </c>
-      <c r="G67" s="58">
+      <c r="E67" s="59"/>
+      <c r="F67" s="59">
+        <v>1</v>
+      </c>
+      <c r="G67" s="59">
         <v>2</v>
       </c>
-      <c r="H67" s="58" t="s">
+      <c r="H67" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I67" s="58"/>
-      <c r="J67" s="56" t="s">
+      <c r="I67" s="59"/>
+      <c r="J67" s="57" t="s">
         <v>18</v>
       </c>
       <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11" s="2" customFormat="1">
-      <c r="A68" s="56" t="s">
+      <c r="A68" s="57" t="s">
         <v>194</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -16223,7 +16492,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" s="2" customFormat="1">
-      <c r="A69" s="56" t="s">
+      <c r="A69" s="57" t="s">
         <v>194</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -16254,7 +16523,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" s="2" customFormat="1">
-      <c r="A70" s="56" t="s">
+      <c r="A70" s="57" t="s">
         <v>194</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -16285,7 +16554,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" s="2" customFormat="1">
-      <c r="A71" s="56" t="s">
+      <c r="A71" s="57" t="s">
         <v>288</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -16316,7 +16585,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" s="2" customFormat="1">
-      <c r="A72" s="59" t="s">
+      <c r="A72" s="60" t="s">
         <v>288</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -16344,8 +16613,8 @@
       <c r="J72" s="10"/>
       <c r="K72" s="9"/>
     </row>
-    <row r="73" spans="1:11" s="23" customFormat="1">
-      <c r="A73" s="56" t="s">
+    <row r="73" spans="1:11" s="24" customFormat="1">
+      <c r="A73" s="57" t="s">
         <v>183</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -16375,8 +16644,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="23" customFormat="1">
-      <c r="A74" s="56" t="s">
+    <row r="74" spans="1:11" s="24" customFormat="1">
+      <c r="A74" s="57" t="s">
         <v>183</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -16406,8 +16675,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="23" customFormat="1">
-      <c r="A75" s="56" t="s">
+    <row r="75" spans="1:11" s="24" customFormat="1">
+      <c r="A75" s="57" t="s">
         <v>183</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -16439,8 +16708,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="23" customFormat="1">
-      <c r="A76" s="58" t="s">
+    <row r="76" spans="1:11" s="24" customFormat="1">
+      <c r="A76" s="59" t="s">
         <v>183</v>
       </c>
       <c r="B76" s="9" t="s">
@@ -16472,8 +16741,8 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="23" customFormat="1">
-      <c r="A77" s="58" t="s">
+    <row r="77" spans="1:11" s="24" customFormat="1">
+      <c r="A77" s="59" t="s">
         <v>287</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -16495,8 +16764,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="23" customFormat="1">
-      <c r="A78" s="58" t="s">
+    <row r="78" spans="1:11" s="24" customFormat="1">
+      <c r="A78" s="59" t="s">
         <v>287</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -16526,8 +16795,8 @@
       </c>
       <c r="K78" s="9"/>
     </row>
-    <row r="79" spans="1:11" s="23" customFormat="1">
-      <c r="A79" s="60" t="s">
+    <row r="79" spans="1:11" s="24" customFormat="1">
+      <c r="A79" s="61" t="s">
         <v>287</v>
       </c>
       <c r="B79" s="9" t="s">
@@ -16555,18 +16824,18 @@
       <c r="J79" s="10"/>
       <c r="K79" s="9"/>
     </row>
-    <row r="80" spans="1:11" s="23" customFormat="1">
-      <c r="A80" s="58" t="s">
+    <row r="80" spans="1:11" s="24" customFormat="1">
+      <c r="A80" s="59" t="s">
         <v>287</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C80" s="58" t="s">
+      <c r="C80" s="59" t="s">
         <v>404</v>
       </c>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
       <c r="F80" s="9" t="s">
         <v>118</v>
       </c>
@@ -16582,20 +16851,20 @@
       <c r="J80" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="K80" s="58"/>
-    </row>
-    <row r="81" spans="1:11" s="23" customFormat="1">
-      <c r="A81" s="58" t="s">
+      <c r="K80" s="59"/>
+    </row>
+    <row r="81" spans="1:11" s="24" customFormat="1">
+      <c r="A81" s="59" t="s">
         <v>287</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="59" t="s">
         <v>405</v>
       </c>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="59"/>
       <c r="F81" s="9">
         <v>0</v>
       </c>
@@ -16611,16 +16880,16 @@
       <c r="J81" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="K81" s="58"/>
+      <c r="K81" s="59"/>
     </row>
     <row r="82" spans="1:11">
-      <c r="A82" s="62" t="s">
+      <c r="A82" s="63" t="s">
         <v>440</v>
       </c>
-      <c r="B82" s="62" t="s">
+      <c r="B82" s="63" t="s">
         <v>446</v>
       </c>
-      <c r="C82" s="62" t="s">
+      <c r="C82" s="63" t="s">
         <v>451</v>
       </c>
       <c r="D82" s="9"/>
@@ -16637,38 +16906,38 @@
       </c>
     </row>
     <row r="83" spans="1:11" ht="18.75">
-      <c r="A83" s="62" t="s">
+      <c r="A83" s="63" t="s">
         <v>440</v>
       </c>
-      <c r="B83" s="62" t="s">
+      <c r="B83" s="63" t="s">
         <v>442</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="63" t="s">
         <v>452</v>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62">
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63">
         <v>0</v>
       </c>
-      <c r="G83" s="62">
+      <c r="G83" s="63">
         <v>99</v>
       </c>
-      <c r="H83" s="62" t="s">
+      <c r="H83" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I83" s="1">
         <v>2</v>
       </c>
-      <c r="J83" s="62" t="s">
+      <c r="J83" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K83" s="62" t="s">
+      <c r="K83" s="63" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:11">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="63" t="s">
         <v>440</v>
       </c>
       <c r="B84" s="9" t="s">
@@ -16781,7 +17050,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="5"/>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="25" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="5"/>
@@ -17865,7 +18134,7 @@
       <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="30" t="s">
         <v>81</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -18045,27 +18314,27 @@
       <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="8" t="s">
         <v>142</v>
       </c>
       <c r="E43" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F43" s="25" t="s">
+      <c r="F43" s="26" t="s">
         <v>143</v>
       </c>
       <c r="G43" s="10"/>
-      <c r="H43" s="25">
-        <v>1</v>
-      </c>
-      <c r="I43" s="25">
+      <c r="H43" s="26">
+        <v>1</v>
+      </c>
+      <c r="I43" s="26">
         <v>2</v>
       </c>
       <c r="J43" s="10" t="s">
@@ -18078,13 +18347,13 @@
       <c r="M43" s="10"/>
     </row>
     <row r="44" spans="1:13" ht="18.75">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="8" t="s">
         <v>147</v>
       </c>
@@ -18111,13 +18380,13 @@
       <c r="M44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="18.75">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="25"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="8" t="s">
         <v>148</v>
       </c>
@@ -18144,13 +18413,13 @@
       <c r="M45" s="10"/>
     </row>
     <row r="46" spans="1:13" ht="18.75">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B46" s="25" t="s">
+      <c r="B46" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="25"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="8" t="s">
         <v>149</v>
       </c>
@@ -18177,13 +18446,13 @@
       <c r="M46" s="10"/>
     </row>
     <row r="47" spans="1:13" ht="18.75">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="25" t="s">
+      <c r="B47" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C47" s="25"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="8" t="s">
         <v>150</v>
       </c>
@@ -18210,13 +18479,13 @@
       <c r="M47" s="10"/>
     </row>
     <row r="48" spans="1:13" ht="18.75">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="25" t="s">
+      <c r="B48" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="8" t="s">
         <v>154</v>
       </c>
@@ -18243,13 +18512,13 @@
       <c r="M48" s="10"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B49" s="25" t="s">
+      <c r="B49" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C49" s="25"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="8" t="s">
         <v>155</v>
       </c>
@@ -18278,13 +18547,13 @@
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="25"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="8" t="s">
         <v>156</v>
       </c>
@@ -18313,13 +18582,13 @@
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="25" t="s">
+      <c r="B51" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C51" s="25"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="8" t="s">
         <v>151</v>
       </c>
@@ -18330,10 +18599,10 @@
         <v>102</v>
       </c>
       <c r="G51" s="10"/>
-      <c r="H51" s="25">
-        <v>1</v>
-      </c>
-      <c r="I51" s="25">
+      <c r="H51" s="26">
+        <v>1</v>
+      </c>
+      <c r="I51" s="26">
         <v>2</v>
       </c>
       <c r="J51" s="10" t="s">
@@ -18346,13 +18615,13 @@
       <c r="M51" s="10"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="25" t="s">
+      <c r="B52" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="25"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="8" t="s">
         <v>152</v>
       </c>
@@ -18381,13 +18650,13 @@
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="25" t="s">
+      <c r="B53" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C53" s="25"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="8" t="s">
         <v>153</v>
       </c>
@@ -18416,13 +18685,13 @@
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C54" s="25"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="8" t="s">
         <v>157</v>
       </c>
@@ -18433,10 +18702,10 @@
         <v>102</v>
       </c>
       <c r="G54" s="10"/>
-      <c r="H54" s="25">
-        <v>1</v>
-      </c>
-      <c r="I54" s="25">
+      <c r="H54" s="26">
+        <v>1</v>
+      </c>
+      <c r="I54" s="26">
         <v>2</v>
       </c>
       <c r="J54" s="10" t="s">
@@ -18449,13 +18718,13 @@
       <c r="M54" s="10"/>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="25" t="s">
+      <c r="B55" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C55" s="25"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="8" t="s">
         <v>158</v>
       </c>
@@ -18485,10 +18754,10 @@
       <c r="A56" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C56" s="25"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="15" t="s">
         <v>159</v>
       </c>
@@ -18526,7 +18795,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:S71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -20139,7 +20408,7 @@
       <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="30" t="s">
         <v>81</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -20354,27 +20623,27 @@
       <c r="M57" s="3"/>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C58" s="25"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="8" t="s">
         <v>142</v>
       </c>
       <c r="E58" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F58" s="25" t="s">
+      <c r="F58" s="26" t="s">
         <v>143</v>
       </c>
       <c r="G58" s="10"/>
-      <c r="H58" s="25">
-        <v>1</v>
-      </c>
-      <c r="I58" s="25">
+      <c r="H58" s="26">
+        <v>1</v>
+      </c>
+      <c r="I58" s="26">
         <v>2</v>
       </c>
       <c r="J58" s="10" t="s">
@@ -20387,13 +20656,13 @@
       <c r="M58" s="10"/>
     </row>
     <row r="59" spans="1:13" ht="18.75">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B59" s="25" t="s">
+      <c r="B59" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C59" s="25"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="8" t="s">
         <v>147</v>
       </c>
@@ -20420,13 +20689,13 @@
       <c r="M59" s="10"/>
     </row>
     <row r="60" spans="1:13" ht="18.75">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B60" s="25" t="s">
+      <c r="B60" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="8" t="s">
         <v>148</v>
       </c>
@@ -20453,13 +20722,13 @@
       <c r="M60" s="10"/>
     </row>
     <row r="61" spans="1:13" ht="18.75">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B61" s="25" t="s">
+      <c r="B61" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C61" s="25"/>
+      <c r="C61" s="26"/>
       <c r="D61" s="8" t="s">
         <v>149</v>
       </c>
@@ -20486,13 +20755,13 @@
       <c r="M61" s="10"/>
     </row>
     <row r="62" spans="1:13" ht="18.75">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="25" t="s">
+      <c r="B62" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="25"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="8" t="s">
         <v>150</v>
       </c>
@@ -20519,13 +20788,13 @@
       <c r="M62" s="10"/>
     </row>
     <row r="63" spans="1:13" ht="18.75">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B63" s="25" t="s">
+      <c r="B63" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="25"/>
+      <c r="C63" s="26"/>
       <c r="D63" s="8" t="s">
         <v>154</v>
       </c>
@@ -20552,13 +20821,13 @@
       <c r="M63" s="10"/>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="25" t="s">
+      <c r="B64" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C64" s="25"/>
+      <c r="C64" s="26"/>
       <c r="D64" s="8" t="s">
         <v>155</v>
       </c>
@@ -20587,13 +20856,13 @@
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="26" t="s">
+      <c r="A65" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C65" s="25"/>
+      <c r="C65" s="26"/>
       <c r="D65" s="8" t="s">
         <v>156</v>
       </c>
@@ -20622,13 +20891,13 @@
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="26" t="s">
+      <c r="A66" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B66" s="25" t="s">
+      <c r="B66" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="25"/>
+      <c r="C66" s="26"/>
       <c r="D66" s="8" t="s">
         <v>151</v>
       </c>
@@ -20639,10 +20908,10 @@
         <v>102</v>
       </c>
       <c r="G66" s="10"/>
-      <c r="H66" s="25">
-        <v>1</v>
-      </c>
-      <c r="I66" s="25">
+      <c r="H66" s="26">
+        <v>1</v>
+      </c>
+      <c r="I66" s="26">
         <v>2</v>
       </c>
       <c r="J66" s="10" t="s">
@@ -20655,13 +20924,13 @@
       <c r="M66" s="10"/>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="26" t="s">
+      <c r="A67" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B67" s="25" t="s">
+      <c r="B67" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="25"/>
+      <c r="C67" s="26"/>
       <c r="D67" s="8" t="s">
         <v>152</v>
       </c>
@@ -20690,13 +20959,13 @@
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="26" t="s">
+      <c r="A68" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B68" s="25" t="s">
+      <c r="B68" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C68" s="25"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="8" t="s">
         <v>153</v>
       </c>
@@ -20725,13 +20994,13 @@
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="26" t="s">
+      <c r="A69" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C69" s="25"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="8" t="s">
         <v>157</v>
       </c>
@@ -20742,10 +21011,10 @@
         <v>102</v>
       </c>
       <c r="G69" s="10"/>
-      <c r="H69" s="25">
-        <v>1</v>
-      </c>
-      <c r="I69" s="25">
+      <c r="H69" s="26">
+        <v>1</v>
+      </c>
+      <c r="I69" s="26">
         <v>2</v>
       </c>
       <c r="J69" s="10" t="s">
@@ -20758,13 +21027,13 @@
       <c r="M69" s="10"/>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="26" t="s">
+      <c r="A70" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C70" s="25"/>
+      <c r="C70" s="26"/>
       <c r="D70" s="8" t="s">
         <v>158</v>
       </c>
@@ -20794,10 +21063,10 @@
       <c r="A71" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C71" s="25"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="15" t="s">
         <v>159</v>
       </c>

--- a/入力情報定義表.xlsx
+++ b/入力情報定義表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\e7_inputdataconvert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miura\Dropbox\☆進行中の会議\e7_inputdataconvert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BE2DBB-2959-47B8-A8C2-6C7D7ABE174D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7FDF2712-C1CE-4E4A-962B-BBAE7FAEDA31}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8333" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8333" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="LV4" sheetId="7" r:id="rId7"/>
     <sheet name="LV5" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="673">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -6125,6 +6125,42 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1
+2
+3
+4
+5
+6
+7
+8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FloorIns
+BaseIns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>True
+False</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:入力する
+2:入力しない</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6245,7 +6281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6456,6 +6492,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11516,14 +11558,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54DE5D5B-182C-4584-BE9C-7B2C820568AA}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A2:M20"/>
+  <dimension ref="A2:N20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
@@ -11531,17 +11573,18 @@
     <col min="1" max="1" width="4.75" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.0625" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.5625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.9375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.0625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="255.5625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="4" max="4" width="11" style="23" customWidth="1"/>
+    <col min="5" max="5" width="12.9375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.5625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.8125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.9375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.0625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="255.5625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -11551,32 +11594,35 @@
       <c r="C2" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="72" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="141">
+    <row r="3" spans="1:14" ht="141">
       <c r="A3" s="63" t="s">
         <v>454</v>
       </c>
@@ -11586,27 +11632,30 @@
       <c r="C3" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="73" t="s">
+        <v>669</v>
+      </c>
+      <c r="E3" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>6</v>
       </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
       <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="18.75">
+      <c r="L3" s="5"/>
+      <c r="N3" s="7"/>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="18.75">
       <c r="A4" s="17" t="s">
         <v>454</v>
       </c>
@@ -11616,27 +11665,28 @@
       <c r="C4" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="16">
+      <c r="D4" s="10"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="16">
         <v>0</v>
       </c>
-      <c r="G4" s="16">
+      <c r="H4" s="16">
         <v>999.99</v>
       </c>
-      <c r="H4" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="1">
+      <c r="I4" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="K4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="M4" s="12"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="18.75">
+      <c r="L4" s="10"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="18.75">
       <c r="A5" s="63" t="s">
         <v>454</v>
       </c>
@@ -11646,27 +11696,28 @@
       <c r="C5" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="16">
+      <c r="D5" s="10"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="16">
         <v>0</v>
       </c>
-      <c r="G5" s="16">
+      <c r="H5" s="16">
         <v>999.99</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="I5" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="K5" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="M5" s="12"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="18.75">
+      <c r="L5" s="10"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="63" t="s">
         <v>454</v>
       </c>
@@ -11676,27 +11727,28 @@
       <c r="C6" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="16">
+      <c r="D6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="16">
         <v>0</v>
       </c>
-      <c r="G6" s="16">
+      <c r="H6" s="16">
         <v>999.99</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="I6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="K6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="M6" s="12"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="35.25">
+      <c r="L6" s="10"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="35.25">
       <c r="A7" s="63" t="s">
         <v>454</v>
       </c>
@@ -11706,27 +11758,30 @@
       <c r="C7" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="73" t="s">
+        <v>670</v>
+      </c>
+      <c r="E7" s="64" t="s">
         <v>202</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="25">
-        <v>1</v>
-      </c>
+      <c r="F7" s="10"/>
       <c r="G7" s="25">
+        <v>1</v>
+      </c>
+      <c r="H7" s="25">
         <v>2</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="1"/>
+      <c r="K7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="M7" s="12"/>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="18.75">
+      <c r="L7" s="10"/>
+      <c r="N7" s="12"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="18.75">
       <c r="A8" s="63" t="s">
         <v>454</v>
       </c>
@@ -11738,25 +11793,26 @@
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="9">
+      <c r="F8" s="9"/>
+      <c r="G8" s="9">
         <v>0</v>
       </c>
-      <c r="G8" s="9">
-        <v>10</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="11">
+      <c r="H8" s="9">
+        <v>10</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="11">
         <v>2</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="K8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="M8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="18.75">
+      <c r="L8" s="10"/>
+      <c r="N8" s="12"/>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" ht="18.75">
       <c r="A9" s="63" t="s">
         <v>454</v>
       </c>
@@ -11768,25 +11824,26 @@
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
-      <c r="F9" s="9">
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
         <v>0</v>
       </c>
-      <c r="G9" s="9">
-        <v>10</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="11">
+      <c r="H9" s="9">
+        <v>10</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="11">
         <v>2</v>
       </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="M9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="18.75">
+      <c r="L9" s="10"/>
+      <c r="N9" s="12"/>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" ht="18.75">
       <c r="A10" s="63" t="s">
         <v>454</v>
       </c>
@@ -11798,25 +11855,26 @@
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="9">
+      <c r="F10" s="9"/>
+      <c r="G10" s="9">
         <v>0</v>
       </c>
-      <c r="G10" s="9">
-        <v>10</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="11">
+      <c r="H10" s="9">
+        <v>10</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="11">
         <v>2</v>
       </c>
-      <c r="J10" s="9" t="s">
+      <c r="K10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="M10" s="12"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="18.75">
+      <c r="L10" s="10"/>
+      <c r="N10" s="12"/>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" ht="18.75">
       <c r="A11" s="63" t="s">
         <v>454</v>
       </c>
@@ -11828,25 +11886,26 @@
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="9">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9">
         <v>0</v>
       </c>
-      <c r="G11" s="9">
-        <v>10</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="H11" s="9">
+        <v>10</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="11">
         <v>2</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="K11" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="M11" s="12"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="18.75">
+      <c r="L11" s="10"/>
+      <c r="N11" s="12"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="63" t="s">
         <v>454</v>
       </c>
@@ -11858,25 +11917,26 @@
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9">
         <v>0</v>
       </c>
-      <c r="G12" s="9">
-        <v>10</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="H12" s="9">
+        <v>10</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="11">
         <v>2</v>
       </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="M12" s="12"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1">
+      <c r="L12" s="10"/>
+      <c r="N12" s="12"/>
+    </row>
+    <row r="13" spans="1:14" s="2" customFormat="1">
       <c r="A13" s="63" t="s">
         <v>454</v>
       </c>
@@ -11888,27 +11948,28 @@
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="9">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9">
         <v>0</v>
       </c>
-      <c r="G13" s="9">
-        <v>1</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="11">
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="11">
         <v>3</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="K13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="M13" s="12"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1">
+      <c r="N13" s="12"/>
+    </row>
+    <row r="14" spans="1:14" s="2" customFormat="1">
       <c r="A14" s="63" t="s">
         <v>454</v>
       </c>
@@ -11920,27 +11981,28 @@
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="9">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9">
         <v>0</v>
       </c>
-      <c r="G14" s="9">
-        <v>1</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="11">
+      <c r="H14" s="9">
+        <v>1</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="11">
         <v>3</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="M14" s="12"/>
-    </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" ht="35.25">
+      <c r="N14" s="12"/>
+    </row>
+    <row r="15" spans="1:14" s="2" customFormat="1" ht="35.25">
       <c r="A15" s="63" t="s">
         <v>454</v>
       </c>
@@ -11950,27 +12012,30 @@
       <c r="C15" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="D15" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="25">
-        <v>1</v>
-      </c>
+      <c r="D15" s="74" t="s">
+        <v>671</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>672</v>
+      </c>
+      <c r="F15" s="10"/>
       <c r="G15" s="25">
+        <v>1</v>
+      </c>
+      <c r="H15" s="25">
         <v>2</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="10" t="s">
+      <c r="J15" s="1"/>
+      <c r="K15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="M15" s="12"/>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1">
+      <c r="L15" s="10"/>
+      <c r="N15" s="12"/>
+    </row>
+    <row r="16" spans="1:14" s="2" customFormat="1">
       <c r="A16" s="63" t="s">
         <v>454</v>
       </c>
@@ -11982,27 +12047,28 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="9">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
         <v>0</v>
       </c>
-      <c r="G16" s="9">
-        <v>1</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="11">
+      <c r="H16" s="9">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="11">
         <v>3</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="K16" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="L16" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="M16" s="12"/>
-    </row>
-    <row r="17" spans="1:13" s="2" customFormat="1">
+      <c r="N16" s="12"/>
+    </row>
+    <row r="17" spans="1:14" s="2" customFormat="1">
       <c r="A17" s="63" t="s">
         <v>454</v>
       </c>
@@ -12014,27 +12080,28 @@
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
         <v>0</v>
       </c>
-      <c r="G17" s="9">
-        <v>1</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="11">
+      <c r="H17" s="9">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="11">
         <v>3</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="K17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="L17" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="M17" s="12"/>
-    </row>
-    <row r="18" spans="1:13" s="2" customFormat="1" ht="35.25">
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="1:14" s="2" customFormat="1" ht="35.25">
       <c r="A18" s="63" t="s">
         <v>454</v>
       </c>
@@ -12044,27 +12111,30 @@
       <c r="C18" s="32" t="s">
         <v>466</v>
       </c>
-      <c r="D18" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="25">
-        <v>1</v>
-      </c>
+      <c r="D18" s="74" t="s">
+        <v>671</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>672</v>
+      </c>
+      <c r="F18" s="10"/>
       <c r="G18" s="25">
+        <v>1</v>
+      </c>
+      <c r="H18" s="25">
         <v>2</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="I18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="1"/>
+      <c r="K18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="M18" s="12"/>
-    </row>
-    <row r="19" spans="1:13" s="2" customFormat="1">
+      <c r="L18" s="10"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19" spans="1:14" s="2" customFormat="1">
       <c r="A19" s="63" t="s">
         <v>454</v>
       </c>
@@ -12076,27 +12146,28 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="9">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9">
         <v>0</v>
       </c>
-      <c r="G19" s="9">
-        <v>10</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="H19" s="9">
+        <v>10</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="11">
         <v>2</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="K19" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="L19" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="M19" s="12"/>
-    </row>
-    <row r="20" spans="1:13" s="2" customFormat="1">
+      <c r="N19" s="12"/>
+    </row>
+    <row r="20" spans="1:14" s="2" customFormat="1">
       <c r="A20" s="21" t="s">
         <v>454</v>
       </c>
@@ -12108,25 +12179,26 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="9">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9">
         <v>0</v>
       </c>
-      <c r="G20" s="9">
-        <v>10</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="11">
+      <c r="H20" s="9">
+        <v>10</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="11">
         <v>2</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="K20" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12138,33 +12210,33 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D522F8-64CF-4EEA-A5EC-3F34B1E07BF7}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A2:Q78"/>
+  <dimension ref="A2:R78"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H39" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
+      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="1" max="1" width="26.3125" style="23" customWidth="1"/>
     <col min="2" max="2" width="26.25" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.6875" style="23" customWidth="1"/>
-    <col min="4" max="4" width="40.8125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="7.8125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5625" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.9375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.0625" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="23" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="176.0625" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="23"/>
+    <col min="3" max="4" width="34.6875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="40.8125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="7.8125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.8125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.9375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.0625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="176.0625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="41" t="s">
         <v>1</v>
       </c>
@@ -12174,32 +12246,35 @@
       <c r="C2" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="72" t="s">
+        <v>668</v>
+      </c>
+      <c r="E2" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="F2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="G2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="41" t="s">
+      <c r="H2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="41" t="s">
+      <c r="I2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="J2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="41" t="s">
+      <c r="K2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="41" t="s">
+      <c r="L2" s="41" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="141">
+    <row r="3" spans="1:18" ht="141">
       <c r="A3" s="37" t="s">
         <v>16</v>
       </c>
@@ -12209,28 +12284,29 @@
       <c r="C3" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="73"/>
+      <c r="E3" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="39">
+      <c r="F3" s="39">
         <v>6</v>
       </c>
-      <c r="F3" s="39">
-        <v>1</v>
-      </c>
       <c r="G3" s="39">
+        <v>1</v>
+      </c>
+      <c r="H3" s="39">
         <v>8</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="I3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="39"/>
       <c r="J3" s="39"/>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="39"/>
+      <c r="L3" s="39" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="2" customFormat="1" ht="35.25">
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="35.25">
       <c r="A4" s="38" t="s">
         <v>16</v>
       </c>
@@ -12240,30 +12316,31 @@
       <c r="C4" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="53"/>
+      <c r="E4" s="65" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="10">
+      <c r="F4" s="10">
         <v>2</v>
       </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
       <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="L4" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" ht="18.75">
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="18.75">
       <c r="A5" s="37" t="s">
         <v>16</v>
       </c>
@@ -12273,28 +12350,29 @@
       <c r="C5" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="41">
+      <c r="D5" s="53"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="41">
         <v>0</v>
       </c>
-      <c r="G5" s="41">
+      <c r="H5" s="41">
         <v>999.99</v>
       </c>
-      <c r="H5" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="I5" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="K5" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="L5" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" ht="18.75">
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="37" t="s">
         <v>16</v>
       </c>
@@ -12304,28 +12382,29 @@
       <c r="C6" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="41">
+      <c r="D6" s="53"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="41">
         <v>0</v>
       </c>
-      <c r="G6" s="41">
+      <c r="H6" s="41">
         <v>999.99</v>
       </c>
-      <c r="H6" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="I6" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="K6" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" ht="18.75">
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="18.75">
       <c r="A7" s="37" t="s">
         <v>16</v>
       </c>
@@ -12335,28 +12414,29 @@
       <c r="C7" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="41">
+      <c r="D7" s="53"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="41">
         <v>0</v>
       </c>
-      <c r="G7" s="41">
+      <c r="H7" s="41">
         <v>999.99</v>
       </c>
-      <c r="H7" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="I7" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="K7" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="L7" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="39" t="s">
         <v>182</v>
       </c>
@@ -12366,20 +12446,21 @@
       <c r="C8" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="72"/>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
-      <c r="H8" s="41" t="s">
+      <c r="H8" s="41"/>
+      <c r="I8" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="41"/>
       <c r="J8" s="41"/>
-      <c r="K8" s="41" t="s">
+      <c r="K8" s="41"/>
+      <c r="L8" s="41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="105.75">
+    <row r="9" spans="1:18" ht="105.75">
       <c r="A9" s="39" t="s">
         <v>182</v>
       </c>
@@ -12389,33 +12470,34 @@
       <c r="C9" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="72"/>
+      <c r="E9" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41">
-        <v>1</v>
-      </c>
+      <c r="F9" s="41"/>
       <c r="G9" s="41">
+        <v>1</v>
+      </c>
+      <c r="H9" s="41">
         <v>6</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="41"/>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="41"/>
+      <c r="K9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="41" t="s">
+      <c r="L9" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="12"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" ht="70.5">
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="70.5">
       <c r="A10" s="39" t="s">
         <v>182</v>
       </c>
@@ -12425,30 +12507,31 @@
       <c r="C10" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
       <c r="F10" s="10">
         <v>1</v>
       </c>
       <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
         <v>3</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="L10" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="105.75">
+    <row r="11" spans="1:18" ht="105.75">
       <c r="A11" s="39" t="s">
         <v>182</v>
       </c>
@@ -12458,30 +12541,31 @@
       <c r="C11" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="10"/>
+      <c r="E11" s="65" t="s">
         <v>336</v>
       </c>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>1</v>
       </c>
       <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
         <v>4</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="I11" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="46" t="s">
         <v>182</v>
       </c>
@@ -12491,30 +12575,31 @@
       <c r="C12" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="10"/>
+      <c r="E12" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>1</v>
       </c>
       <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10">
         <v>4</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="I12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="15"/>
+      <c r="K12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" s="46" t="s">
         <v>182</v>
       </c>
@@ -12524,30 +12609,31 @@
       <c r="C13" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>1</v>
       </c>
       <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
         <v>4</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="15"/>
+      <c r="K13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="39" t="s">
         <v>182</v>
       </c>
@@ -12557,30 +12643,31 @@
       <c r="C14" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E14" s="9">
+      <c r="F14" s="9">
         <v>2</v>
       </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
       <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
         <v>14</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18.75">
+    <row r="15" spans="1:18" ht="18.75">
       <c r="A15" s="39" t="s">
         <v>182</v>
       </c>
@@ -12590,28 +12677,29 @@
       <c r="C15" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="41"/>
-      <c r="F15" s="41">
+      <c r="F15" s="41"/>
+      <c r="G15" s="41">
         <v>0</v>
       </c>
-      <c r="G15" s="41">
+      <c r="H15" s="41">
         <v>99</v>
       </c>
-      <c r="H15" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="I15" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
         <v>2</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="K15" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="41" t="s">
+      <c r="L15" s="41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="18.75">
+    <row r="16" spans="1:18" ht="18.75">
       <c r="A16" s="39" t="s">
         <v>182</v>
       </c>
@@ -12623,26 +12711,27 @@
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="9">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9">
         <v>0</v>
       </c>
-      <c r="G16" s="9">
-        <v>10</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I16" s="11">
+      <c r="H16" s="9">
+        <v>10</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="11">
         <v>2</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="K16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="L16" s="9" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17" s="39" t="s">
         <v>182</v>
       </c>
@@ -12652,28 +12741,29 @@
       <c r="C17" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="D17" s="45" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="45" t="s">
         <v>307</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="41">
-        <v>1</v>
-      </c>
+      <c r="F17" s="13"/>
       <c r="G17" s="41">
+        <v>1</v>
+      </c>
+      <c r="H17" s="41">
         <v>7</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="I17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="10" t="s">
+      <c r="J17" s="11"/>
+      <c r="K17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="L17" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18" s="39" t="s">
         <v>182</v>
       </c>
@@ -12683,28 +12773,29 @@
       <c r="C18" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="41">
-        <v>1</v>
-      </c>
+      <c r="F18" s="13"/>
       <c r="G18" s="41">
+        <v>1</v>
+      </c>
+      <c r="H18" s="41">
         <v>6</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="I18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="11"/>
+      <c r="K18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="L18" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19" s="39" t="s">
         <v>182</v>
       </c>
@@ -12714,28 +12805,29 @@
       <c r="C19" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="41">
-        <v>1</v>
-      </c>
+      <c r="F19" s="13"/>
       <c r="G19" s="41">
         <v>1</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="H19" s="41">
+        <v>1</v>
+      </c>
+      <c r="I19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="11"/>
+      <c r="K19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="L19" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20" s="39" t="s">
         <v>182</v>
       </c>
@@ -12745,28 +12837,29 @@
       <c r="C20" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="41">
-        <v>1</v>
-      </c>
+      <c r="F20" s="13"/>
       <c r="G20" s="41">
+        <v>1</v>
+      </c>
+      <c r="H20" s="41">
         <v>2</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="I20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="11"/>
+      <c r="K20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18.75">
+    <row r="21" spans="1:12" ht="18.75">
       <c r="A21" s="44" t="s">
         <v>182</v>
       </c>
@@ -12778,26 +12871,27 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9">
         <v>0</v>
       </c>
-      <c r="G21" s="9">
-        <v>10</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I21" s="11">
+      <c r="H21" s="9">
+        <v>10</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="11">
         <v>2</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="K21" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="L21" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18.75">
+    <row r="22" spans="1:12" ht="18.75">
       <c r="A22" s="39" t="s">
         <v>182</v>
       </c>
@@ -12809,26 +12903,27 @@
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="9">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9">
         <v>0</v>
       </c>
-      <c r="G22" s="9">
-        <v>10</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="H22" s="9">
+        <v>10</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="11">
         <v>2</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="K22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="L22" s="9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23" s="39" t="s">
         <v>214</v>
       </c>
@@ -12839,27 +12934,28 @@
         <v>358</v>
       </c>
       <c r="D23" s="9"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="9">
+      <c r="E23" s="9"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="9">
         <v>0</v>
       </c>
-      <c r="G23" s="9">
-        <v>1</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="H23" s="9">
+        <v>1</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="11">
         <v>3</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="K23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="L23" s="9" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24" s="39" t="s">
         <v>214</v>
       </c>
@@ -12869,26 +12965,27 @@
       <c r="C24" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="41">
-        <v>1</v>
-      </c>
+      <c r="F24" s="13"/>
       <c r="G24" s="41">
+        <v>1</v>
+      </c>
+      <c r="H24" s="41">
         <v>6</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="I24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I24" s="11"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="9" t="s">
+      <c r="J24" s="11"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25" s="44" t="s">
         <v>214</v>
       </c>
@@ -12898,26 +12995,27 @@
       <c r="C25" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="45">
-        <v>1</v>
-      </c>
+      <c r="F25" s="13"/>
       <c r="G25" s="45">
+        <v>1</v>
+      </c>
+      <c r="H25" s="45">
         <v>12</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="9" t="s">
+      <c r="J25" s="11"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26" s="44" t="s">
         <v>214</v>
       </c>
@@ -12927,26 +13025,27 @@
       <c r="C26" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="45">
-        <v>1</v>
-      </c>
+      <c r="F26" s="13"/>
       <c r="G26" s="45">
+        <v>1</v>
+      </c>
+      <c r="H26" s="45">
         <v>2</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="I26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="9" t="s">
+      <c r="J26" s="11"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27" s="44" t="s">
         <v>214</v>
       </c>
@@ -12956,26 +13055,27 @@
       <c r="C27" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="45">
-        <v>1</v>
-      </c>
+      <c r="F27" s="13"/>
       <c r="G27" s="45">
+        <v>1</v>
+      </c>
+      <c r="H27" s="45">
         <v>6</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="I27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="9" t="s">
+      <c r="J27" s="11"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28" s="39" t="s">
         <v>182</v>
       </c>
@@ -12985,18 +13085,19 @@
       <c r="C28" s="41" t="s">
         <v>363</v>
       </c>
-      <c r="D28" s="41"/>
+      <c r="D28" s="72"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
-      <c r="H28" s="41" t="s">
+      <c r="H28" s="41"/>
+      <c r="I28" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="I28" s="41"/>
       <c r="J28" s="41"/>
-      <c r="K28" s="9"/>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="K28" s="41"/>
+      <c r="L28" s="9"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="39" t="s">
         <v>182</v>
       </c>
@@ -13006,26 +13107,27 @@
       <c r="C29" s="47" t="s">
         <v>364</v>
       </c>
-      <c r="D29" s="41"/>
+      <c r="D29" s="72"/>
       <c r="E29" s="41"/>
-      <c r="F29" s="41">
+      <c r="F29" s="41"/>
+      <c r="G29" s="41">
         <v>0</v>
       </c>
-      <c r="G29" s="41">
+      <c r="H29" s="41">
         <v>9999</v>
       </c>
-      <c r="H29" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="1">
+      <c r="I29" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1">
         <v>2</v>
       </c>
-      <c r="J29" s="41" t="s">
+      <c r="K29" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="39" t="s">
         <v>182</v>
       </c>
@@ -13035,26 +13137,27 @@
       <c r="C30" s="47" t="s">
         <v>365</v>
       </c>
-      <c r="D30" s="41"/>
+      <c r="D30" s="72"/>
       <c r="E30" s="41"/>
-      <c r="F30" s="41">
+      <c r="F30" s="41"/>
+      <c r="G30" s="41">
         <v>0.02</v>
       </c>
-      <c r="G30" s="41">
+      <c r="H30" s="41">
         <v>370</v>
       </c>
-      <c r="H30" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="I30" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1">
         <v>3</v>
       </c>
-      <c r="J30" s="41" t="s">
+      <c r="K30" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="39" t="s">
         <v>182</v>
       </c>
@@ -13064,24 +13167,25 @@
       <c r="C31" s="47" t="s">
         <v>477</v>
       </c>
-      <c r="D31" s="41"/>
+      <c r="D31" s="72"/>
       <c r="E31" s="41"/>
-      <c r="F31" s="41">
+      <c r="F31" s="41"/>
+      <c r="G31" s="41">
         <v>0</v>
       </c>
-      <c r="G31" s="41">
+      <c r="H31" s="41">
         <v>4000</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="I31" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41" t="s">
+      <c r="J31" s="41"/>
+      <c r="K31" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="48" t="s">
         <v>182</v>
       </c>
@@ -13091,26 +13195,27 @@
       <c r="C32" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49">
-        <v>1</v>
-      </c>
+      <c r="F32" s="49"/>
       <c r="G32" s="49">
+        <v>1</v>
+      </c>
+      <c r="H32" s="49">
         <v>2</v>
       </c>
-      <c r="H32" s="49" t="s">
+      <c r="I32" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="49"/>
-      <c r="J32" s="48" t="s">
+      <c r="J32" s="49"/>
+      <c r="K32" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" spans="1:11" s="2" customFormat="1">
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="1:12" s="2" customFormat="1">
       <c r="A33" s="48" t="s">
         <v>182</v>
       </c>
@@ -13122,26 +13227,27 @@
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
-      <c r="F33" s="9">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9">
         <v>0</v>
       </c>
-      <c r="G33" s="9">
+      <c r="H33" s="9">
         <v>15</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="11">
+      <c r="I33" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="11">
         <v>3</v>
       </c>
-      <c r="J33" s="9" t="s">
+      <c r="K33" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K33" s="9" t="s">
+      <c r="L33" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="2" customFormat="1">
+    <row r="34" spans="1:12" s="2" customFormat="1">
       <c r="A34" s="48" t="s">
         <v>182</v>
       </c>
@@ -13153,26 +13259,27 @@
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="9">
+      <c r="F34" s="9"/>
+      <c r="G34" s="9">
         <v>0</v>
       </c>
-      <c r="G34" s="9">
+      <c r="H34" s="9">
         <v>2</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="11">
+      <c r="I34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="11">
         <v>3</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="K34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="L34" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="2" customFormat="1">
+    <row r="35" spans="1:12" s="2" customFormat="1">
       <c r="A35" s="48" t="s">
         <v>182</v>
       </c>
@@ -13184,26 +13291,27 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="9">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9">
         <v>0</v>
       </c>
-      <c r="G35" s="9">
+      <c r="H35" s="9">
         <v>2</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="11">
+      <c r="I35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="11">
         <v>3</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="K35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="L35" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:12">
       <c r="A36" s="39" t="s">
         <v>192</v>
       </c>
@@ -13217,16 +13325,17 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="9"/>
+      <c r="I36" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="9"/>
+      <c r="L36" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12">
       <c r="A37" s="39" t="s">
         <v>192</v>
       </c>
@@ -13236,30 +13345,31 @@
       <c r="C37" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E37" s="9">
+      <c r="F37" s="9">
         <v>2</v>
       </c>
-      <c r="F37" s="9">
-        <v>1</v>
-      </c>
       <c r="G37" s="9">
+        <v>1</v>
+      </c>
+      <c r="H37" s="9">
         <v>14</v>
       </c>
-      <c r="H37" s="9" t="s">
+      <c r="I37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9" t="s">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="L37" s="9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="18.75">
+    <row r="38" spans="1:12" ht="18.75">
       <c r="A38" s="39" t="s">
         <v>192</v>
       </c>
@@ -13269,28 +13379,29 @@
       <c r="C38" s="41" t="s">
         <v>369</v>
       </c>
-      <c r="D38" s="41"/>
+      <c r="D38" s="72"/>
       <c r="E38" s="41"/>
-      <c r="F38" s="41">
+      <c r="F38" s="41"/>
+      <c r="G38" s="41">
         <v>0</v>
       </c>
-      <c r="G38" s="41">
+      <c r="H38" s="41">
         <v>99</v>
       </c>
-      <c r="H38" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="1">
+      <c r="I38" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
         <v>2</v>
       </c>
-      <c r="J38" s="41" t="s">
+      <c r="K38" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="41" t="s">
+      <c r="L38" s="41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39" s="39" t="s">
         <v>192</v>
       </c>
@@ -13300,24 +13411,25 @@
       <c r="C39" s="41" t="s">
         <v>481</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D39" s="72"/>
+      <c r="E39" s="41" t="s">
         <v>272</v>
       </c>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41">
-        <v>1</v>
-      </c>
+      <c r="F39" s="41"/>
       <c r="G39" s="41">
+        <v>1</v>
+      </c>
+      <c r="H39" s="41">
         <v>2</v>
       </c>
-      <c r="H39" s="41" t="s">
+      <c r="I39" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="40"/>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="J39" s="1"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="40"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="39" t="s">
         <v>192</v>
       </c>
@@ -13327,28 +13439,29 @@
       <c r="C40" s="41" t="s">
         <v>496</v>
       </c>
-      <c r="D40" s="41" t="s">
+      <c r="D40" s="72"/>
+      <c r="E40" s="41" t="s">
         <v>257</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41">
-        <v>1</v>
-      </c>
+      <c r="F40" s="41"/>
       <c r="G40" s="41">
+        <v>1</v>
+      </c>
+      <c r="H40" s="41">
         <v>2</v>
       </c>
-      <c r="H40" s="41" t="s">
+      <c r="I40" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="41"/>
-      <c r="J40" s="39" t="s">
+      <c r="J40" s="41"/>
+      <c r="K40" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K40" s="40" t="s">
+      <c r="L40" s="40" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="A41" s="39" t="s">
         <v>192</v>
       </c>
@@ -13359,29 +13472,30 @@
         <v>371</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="E41" s="9">
+      <c r="E41" s="9"/>
+      <c r="F41" s="9">
         <v>0.73799999999999999</v>
       </c>
-      <c r="F41" s="9">
+      <c r="G41" s="9">
         <v>0</v>
       </c>
-      <c r="G41" s="9">
-        <v>1</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="11">
+      <c r="H41" s="9">
+        <v>1</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="11">
         <v>3</v>
       </c>
-      <c r="J41" s="9" t="s">
+      <c r="K41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="13" t="s">
+      <c r="L41" s="13" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12">
       <c r="A42" s="39" t="s">
         <v>192</v>
       </c>
@@ -13392,29 +13506,30 @@
         <v>372</v>
       </c>
       <c r="D42" s="9"/>
-      <c r="E42" s="9">
+      <c r="E42" s="9"/>
+      <c r="F42" s="9">
         <v>0.73799999999999999</v>
       </c>
-      <c r="F42" s="9">
+      <c r="G42" s="9">
         <v>0</v>
       </c>
-      <c r="G42" s="9">
-        <v>1</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="11">
+      <c r="H42" s="9">
+        <v>1</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J42" s="11">
         <v>3</v>
       </c>
-      <c r="J42" s="9" t="s">
+      <c r="K42" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K42" s="13" t="s">
+      <c r="L42" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12">
       <c r="A43" s="39" t="s">
         <v>192</v>
       </c>
@@ -13425,29 +13540,30 @@
         <v>374</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="9">
+      <c r="E43" s="9"/>
+      <c r="F43" s="9">
         <v>0.73799999999999999</v>
       </c>
-      <c r="F43" s="9">
+      <c r="G43" s="9">
         <v>0</v>
       </c>
-      <c r="G43" s="9">
-        <v>1</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="11">
+      <c r="H43" s="9">
+        <v>1</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="11">
         <v>3</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="K43" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K43" s="13" t="s">
+      <c r="L43" s="13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:12">
       <c r="A44" s="39" t="s">
         <v>192</v>
       </c>
@@ -13457,28 +13573,29 @@
       <c r="C44" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="72"/>
+      <c r="E44" s="43" t="s">
         <v>256</v>
       </c>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41">
-        <v>1</v>
-      </c>
+      <c r="F44" s="41"/>
       <c r="G44" s="41">
+        <v>1</v>
+      </c>
+      <c r="H44" s="41">
         <v>2</v>
       </c>
-      <c r="H44" s="41" t="s">
+      <c r="I44" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="41"/>
-      <c r="J44" s="39" t="s">
+      <c r="J44" s="41"/>
+      <c r="K44" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K44" s="40" t="s">
+      <c r="L44" s="40" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:12">
       <c r="A45" s="39" t="s">
         <v>192</v>
       </c>
@@ -13488,28 +13605,29 @@
       <c r="C45" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="72"/>
+      <c r="E45" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="E45" s="41"/>
-      <c r="F45" s="41">
-        <v>1</v>
-      </c>
+      <c r="F45" s="41"/>
       <c r="G45" s="41">
+        <v>1</v>
+      </c>
+      <c r="H45" s="41">
         <v>17</v>
       </c>
-      <c r="H45" s="41" t="s">
+      <c r="I45" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I45" s="41"/>
-      <c r="J45" s="39" t="s">
+      <c r="J45" s="41"/>
+      <c r="K45" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K45" s="40" t="s">
+      <c r="L45" s="40" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:12">
       <c r="A46" s="39" t="s">
         <v>192</v>
       </c>
@@ -13519,26 +13637,27 @@
       <c r="C46" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="D46" s="41" t="s">
+      <c r="D46" s="72"/>
+      <c r="E46" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41">
-        <v>1</v>
-      </c>
+      <c r="F46" s="41"/>
       <c r="G46" s="41">
+        <v>1</v>
+      </c>
+      <c r="H46" s="41">
         <v>3</v>
       </c>
-      <c r="H46" s="41" t="s">
+      <c r="I46" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="41"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="40" t="s">
+      <c r="J46" s="41"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="40" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12">
       <c r="A47" s="39" t="s">
         <v>192</v>
       </c>
@@ -13549,29 +13668,30 @@
         <v>485</v>
       </c>
       <c r="D47" s="9"/>
-      <c r="E47" s="9">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9">
         <v>0.73799999999999999</v>
       </c>
-      <c r="F47" s="9">
+      <c r="G47" s="9">
         <v>0</v>
       </c>
-      <c r="G47" s="9">
-        <v>1</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" s="11">
+      <c r="H47" s="9">
+        <v>1</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="11">
         <v>3</v>
       </c>
-      <c r="J47" s="9" t="s">
+      <c r="K47" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="13" t="s">
+      <c r="L47" s="13" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:12">
       <c r="A48" s="39" t="s">
         <v>192</v>
       </c>
@@ -13581,28 +13701,29 @@
       <c r="C48" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="D48" s="41" t="s">
+      <c r="D48" s="72"/>
+      <c r="E48" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41">
-        <v>1</v>
-      </c>
+      <c r="F48" s="41"/>
       <c r="G48" s="41">
+        <v>1</v>
+      </c>
+      <c r="H48" s="41">
         <v>2</v>
       </c>
-      <c r="H48" s="41" t="s">
+      <c r="I48" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I48" s="41"/>
-      <c r="J48" s="39" t="s">
+      <c r="J48" s="41"/>
+      <c r="K48" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K48" s="40" t="s">
+      <c r="L48" s="40" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="A49" s="39" t="s">
         <v>192</v>
       </c>
@@ -13612,28 +13733,29 @@
       <c r="C49" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="72"/>
+      <c r="E49" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43">
-        <v>1</v>
-      </c>
+      <c r="F49" s="43"/>
       <c r="G49" s="43">
+        <v>1</v>
+      </c>
+      <c r="H49" s="43">
         <v>17</v>
       </c>
-      <c r="H49" s="41" t="s">
+      <c r="I49" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I49" s="41"/>
-      <c r="J49" s="39" t="s">
+      <c r="J49" s="41"/>
+      <c r="K49" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="40" t="s">
+      <c r="L49" s="40" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:12">
       <c r="A50" s="39" t="s">
         <v>192</v>
       </c>
@@ -13643,26 +13765,27 @@
       <c r="C50" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="D50" s="41" t="s">
+      <c r="D50" s="72"/>
+      <c r="E50" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41">
-        <v>1</v>
-      </c>
+      <c r="F50" s="41"/>
       <c r="G50" s="41">
+        <v>1</v>
+      </c>
+      <c r="H50" s="41">
         <v>3</v>
       </c>
-      <c r="H50" s="41" t="s">
+      <c r="I50" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="41"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="40" t="s">
+      <c r="J50" s="41"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="40" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:12">
       <c r="A51" s="39" t="s">
         <v>192</v>
       </c>
@@ -13673,29 +13796,30 @@
         <v>489</v>
       </c>
       <c r="D51" s="9"/>
-      <c r="E51" s="9">
+      <c r="E51" s="9"/>
+      <c r="F51" s="9">
         <v>0.73799999999999999</v>
       </c>
-      <c r="F51" s="9">
+      <c r="G51" s="9">
         <v>0</v>
       </c>
-      <c r="G51" s="9">
-        <v>1</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I51" s="11">
+      <c r="H51" s="9">
+        <v>1</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="11">
         <v>3</v>
       </c>
-      <c r="J51" s="9" t="s">
+      <c r="K51" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="40" t="s">
+      <c r="L51" s="40" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:12">
       <c r="A52" s="39" t="s">
         <v>192</v>
       </c>
@@ -13705,28 +13829,29 @@
       <c r="C52" s="41" t="s">
         <v>490</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="72"/>
+      <c r="E52" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41">
-        <v>1</v>
-      </c>
+      <c r="F52" s="41"/>
       <c r="G52" s="41">
+        <v>1</v>
+      </c>
+      <c r="H52" s="41">
         <v>2</v>
       </c>
-      <c r="H52" s="41" t="s">
+      <c r="I52" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I52" s="41"/>
-      <c r="J52" s="39" t="s">
+      <c r="J52" s="41"/>
+      <c r="K52" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K52" s="40" t="s">
+      <c r="L52" s="40" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:12">
       <c r="A53" s="39" t="s">
         <v>192</v>
       </c>
@@ -13736,28 +13861,29 @@
       <c r="C53" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="72"/>
+      <c r="E53" s="43" t="s">
         <v>299</v>
       </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43">
-        <v>1</v>
-      </c>
+      <c r="F53" s="43"/>
       <c r="G53" s="43">
+        <v>1</v>
+      </c>
+      <c r="H53" s="43">
         <v>17</v>
       </c>
-      <c r="H53" s="41" t="s">
+      <c r="I53" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I53" s="41"/>
-      <c r="J53" s="39" t="s">
+      <c r="J53" s="41"/>
+      <c r="K53" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K53" s="40" t="s">
+      <c r="L53" s="40" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:12">
       <c r="A54" s="39" t="s">
         <v>192</v>
       </c>
@@ -13767,26 +13893,27 @@
       <c r="C54" s="41" t="s">
         <v>492</v>
       </c>
-      <c r="D54" s="41" t="s">
+      <c r="D54" s="72"/>
+      <c r="E54" s="41" t="s">
         <v>259</v>
       </c>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41">
-        <v>1</v>
-      </c>
+      <c r="F54" s="41"/>
       <c r="G54" s="41">
+        <v>1</v>
+      </c>
+      <c r="H54" s="41">
         <v>3</v>
       </c>
-      <c r="H54" s="41" t="s">
+      <c r="I54" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I54" s="41"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="40" t="s">
+      <c r="J54" s="41"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="40" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="18.75">
+    <row r="55" spans="1:12" ht="18.75">
       <c r="A55" s="39" t="s">
         <v>192</v>
       </c>
@@ -13797,29 +13924,30 @@
         <v>497</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="9">
+      <c r="E55" s="9"/>
+      <c r="F55" s="9">
         <v>4.6500000000000004</v>
       </c>
-      <c r="F55" s="9">
+      <c r="G55" s="9">
         <v>0</v>
       </c>
-      <c r="G55" s="9">
-        <v>10</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I55" s="11">
+      <c r="H55" s="9">
+        <v>10</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J55" s="11">
         <v>2</v>
       </c>
-      <c r="J55" s="9" t="s">
+      <c r="K55" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K55" s="9" t="s">
+      <c r="L55" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:12">
       <c r="A56" s="39" t="s">
         <v>220</v>
       </c>
@@ -13829,26 +13957,27 @@
       <c r="C56" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41">
-        <v>1</v>
-      </c>
+      <c r="F56" s="41"/>
       <c r="G56" s="41">
+        <v>1</v>
+      </c>
+      <c r="H56" s="41">
         <v>2</v>
       </c>
-      <c r="H56" s="41" t="s">
+      <c r="I56" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I56" s="41"/>
-      <c r="J56" s="39" t="s">
+      <c r="J56" s="41"/>
+      <c r="K56" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="9"/>
-    </row>
-    <row r="57" spans="1:11" s="2" customFormat="1">
+      <c r="L56" s="9"/>
+    </row>
+    <row r="57" spans="1:12" s="2" customFormat="1">
       <c r="A57" s="39" t="s">
         <v>192</v>
       </c>
@@ -13860,26 +13989,27 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="9">
+      <c r="F57" s="9"/>
+      <c r="G57" s="9">
         <v>0</v>
       </c>
-      <c r="G57" s="9">
+      <c r="H57" s="9">
         <v>15</v>
       </c>
-      <c r="H57" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="11">
+      <c r="I57" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="11">
         <v>3</v>
       </c>
-      <c r="J57" s="9" t="s">
+      <c r="K57" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K57" s="9" t="s">
+      <c r="L57" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="2" customFormat="1">
+    <row r="58" spans="1:12" s="2" customFormat="1">
       <c r="A58" s="39" t="s">
         <v>192</v>
       </c>
@@ -13891,26 +14021,27 @@
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="9">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9">
         <v>0</v>
       </c>
-      <c r="G58" s="9">
+      <c r="H58" s="9">
         <v>2</v>
       </c>
-      <c r="H58" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I58" s="11">
+      <c r="I58" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="11">
         <v>3</v>
       </c>
-      <c r="J58" s="9" t="s">
+      <c r="K58" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K58" s="9" t="s">
+      <c r="L58" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="2" customFormat="1">
+    <row r="59" spans="1:12" s="2" customFormat="1">
       <c r="A59" s="39" t="s">
         <v>192</v>
       </c>
@@ -13922,26 +14053,27 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="9">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9">
         <v>0</v>
       </c>
-      <c r="G59" s="9">
+      <c r="H59" s="9">
         <v>2</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="11">
+      <c r="I59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="11">
         <v>3</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="K59" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K59" s="9" t="s">
+      <c r="L59" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:12">
       <c r="A60" s="39" t="s">
         <v>194</v>
       </c>
@@ -13955,16 +14087,17 @@
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="H60" s="9" t="s">
+      <c r="H60" s="9"/>
+      <c r="I60" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="9" t="s">
+      <c r="K60" s="9"/>
+      <c r="L60" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:12">
       <c r="A61" s="39" t="s">
         <v>194</v>
       </c>
@@ -13974,30 +14107,31 @@
       <c r="C61" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="9"/>
+      <c r="E61" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E61" s="9">
+      <c r="F61" s="9">
         <v>2</v>
       </c>
-      <c r="F61" s="9">
-        <v>1</v>
-      </c>
       <c r="G61" s="9">
+        <v>1</v>
+      </c>
+      <c r="H61" s="9">
         <v>14</v>
       </c>
-      <c r="H61" s="9" t="s">
+      <c r="I61" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9" t="s">
+      <c r="J61" s="9"/>
+      <c r="K61" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K61" s="9" t="s">
+      <c r="L61" s="9" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="18.75">
+    <row r="62" spans="1:12" ht="18.75">
       <c r="A62" s="39" t="s">
         <v>194</v>
       </c>
@@ -14007,28 +14141,29 @@
       <c r="C62" s="41" t="s">
         <v>393</v>
       </c>
-      <c r="D62" s="41"/>
+      <c r="D62" s="72"/>
       <c r="E62" s="41"/>
-      <c r="F62" s="41">
+      <c r="F62" s="41"/>
+      <c r="G62" s="41">
         <v>0</v>
       </c>
-      <c r="G62" s="41">
+      <c r="H62" s="41">
         <v>99</v>
       </c>
-      <c r="H62" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I62" s="1">
+      <c r="I62" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="1">
         <v>2</v>
       </c>
-      <c r="J62" s="41" t="s">
+      <c r="K62" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="K62" s="41" t="s">
+      <c r="L62" s="41" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="18.75">
+    <row r="63" spans="1:12" ht="18.75">
       <c r="A63" s="39" t="s">
         <v>194</v>
       </c>
@@ -14039,29 +14174,30 @@
         <v>394</v>
       </c>
       <c r="D63" s="9"/>
-      <c r="E63" s="9">
+      <c r="E63" s="9"/>
+      <c r="F63" s="9">
         <v>2.33</v>
       </c>
-      <c r="F63" s="9">
+      <c r="G63" s="9">
         <v>0</v>
       </c>
-      <c r="G63" s="9">
-        <v>10</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" s="11">
+      <c r="H63" s="9">
+        <v>10</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J63" s="11">
         <v>2</v>
       </c>
-      <c r="J63" s="9" t="s">
+      <c r="K63" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="L63" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:12">
       <c r="A64" s="39" t="s">
         <v>194</v>
       </c>
@@ -14071,26 +14207,27 @@
       <c r="C64" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="9"/>
+      <c r="E64" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41">
-        <v>1</v>
-      </c>
+      <c r="F64" s="41"/>
       <c r="G64" s="41">
+        <v>1</v>
+      </c>
+      <c r="H64" s="41">
         <v>2</v>
       </c>
-      <c r="H64" s="41" t="s">
+      <c r="I64" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="I64" s="41"/>
-      <c r="J64" s="39" t="s">
+      <c r="J64" s="41"/>
+      <c r="K64" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="K64" s="9"/>
-    </row>
-    <row r="65" spans="1:11" s="2" customFormat="1">
+      <c r="L64" s="9"/>
+    </row>
+    <row r="65" spans="1:12" s="2" customFormat="1">
       <c r="A65" s="39" t="s">
         <v>194</v>
       </c>
@@ -14102,26 +14239,27 @@
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="9">
+      <c r="F65" s="9"/>
+      <c r="G65" s="9">
         <v>0</v>
       </c>
-      <c r="G65" s="9">
+      <c r="H65" s="9">
         <v>15</v>
       </c>
-      <c r="H65" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I65" s="11">
+      <c r="I65" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J65" s="11">
         <v>3</v>
       </c>
-      <c r="J65" s="9" t="s">
+      <c r="K65" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K65" s="9" t="s">
+      <c r="L65" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="66" spans="1:11" s="2" customFormat="1">
+    <row r="66" spans="1:12" s="2" customFormat="1">
       <c r="A66" s="39" t="s">
         <v>194</v>
       </c>
@@ -14133,26 +14271,27 @@
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="9">
+      <c r="F66" s="9"/>
+      <c r="G66" s="9">
         <v>0</v>
       </c>
-      <c r="G66" s="9">
+      <c r="H66" s="9">
         <v>2</v>
       </c>
-      <c r="H66" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="11">
+      <c r="I66" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" s="11">
         <v>3</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="K66" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K66" s="9" t="s">
+      <c r="L66" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="2" customFormat="1">
+    <row r="67" spans="1:12" s="2" customFormat="1">
       <c r="A67" s="39" t="s">
         <v>194</v>
       </c>
@@ -14164,26 +14303,27 @@
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="9">
+      <c r="F67" s="9"/>
+      <c r="G67" s="9">
         <v>0</v>
       </c>
-      <c r="G67" s="9">
+      <c r="H67" s="9">
         <v>2</v>
       </c>
-      <c r="H67" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I67" s="11">
+      <c r="I67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J67" s="11">
         <v>3</v>
       </c>
-      <c r="J67" s="9" t="s">
+      <c r="K67" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K67" s="9" t="s">
+      <c r="L67" s="9" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="2" customFormat="1">
+    <row r="68" spans="1:12" s="2" customFormat="1">
       <c r="A68" s="42" t="s">
         <v>288</v>
       </c>
@@ -14193,28 +14333,29 @@
       <c r="C68" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="9"/>
+      <c r="E68" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9">
-        <v>1</v>
-      </c>
+      <c r="F68" s="9"/>
       <c r="G68" s="9">
+        <v>1</v>
+      </c>
+      <c r="H68" s="9">
         <v>2</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="I68" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I68" s="11"/>
-      <c r="J68" s="9" t="s">
+      <c r="J68" s="11"/>
+      <c r="K68" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="K68" s="9" t="s">
+      <c r="L68" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:12">
       <c r="A69" s="39" t="s">
         <v>183</v>
       </c>
@@ -14226,26 +14367,27 @@
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="9" t="s">
+      <c r="F69" s="9"/>
+      <c r="G69" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="H69" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="I69" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I69" s="11">
+      <c r="J69" s="11">
         <v>3</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="K69" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="9" t="s">
+      <c r="L69" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:12">
       <c r="A70" s="39" t="s">
         <v>183</v>
       </c>
@@ -14257,26 +14399,27 @@
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="9">
+      <c r="F70" s="9"/>
+      <c r="G70" s="9">
         <v>0</v>
       </c>
-      <c r="G70" s="9">
-        <v>10</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70" s="11">
+      <c r="H70" s="9">
+        <v>10</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J70" s="11">
         <v>2</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="K70" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="K70" s="9" t="s">
+      <c r="L70" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:12">
       <c r="A71" s="39" t="s">
         <v>183</v>
       </c>
@@ -14286,30 +14429,31 @@
       <c r="C71" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="9"/>
+      <c r="E71" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E71" s="9">
+      <c r="F71" s="9">
         <v>2</v>
       </c>
-      <c r="F71" s="9">
-        <v>1</v>
-      </c>
       <c r="G71" s="9">
+        <v>1</v>
+      </c>
+      <c r="H71" s="9">
         <v>14</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="I71" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="9"/>
+      <c r="K71" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K71" s="9" t="s">
+      <c r="L71" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:12">
       <c r="A72" s="41" t="s">
         <v>183</v>
       </c>
@@ -14319,30 +14463,31 @@
       <c r="C72" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E72" s="9">
+      <c r="F72" s="9">
         <v>2</v>
       </c>
-      <c r="F72" s="9">
-        <v>1</v>
-      </c>
       <c r="G72" s="9">
+        <v>1</v>
+      </c>
+      <c r="H72" s="9">
         <v>14</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="I72" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9" t="s">
+      <c r="J72" s="9"/>
+      <c r="K72" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K72" s="9" t="s">
+      <c r="L72" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:12">
       <c r="A73" s="52" t="s">
         <v>287</v>
       </c>
@@ -14356,16 +14501,17 @@
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="9"/>
-      <c r="H73" s="9" t="s">
+      <c r="H73" s="9"/>
+      <c r="I73" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I73" s="9"/>
       <c r="J73" s="9"/>
-      <c r="K73" s="9" t="s">
+      <c r="K73" s="9"/>
+      <c r="L73" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:12">
       <c r="A74" s="52" t="s">
         <v>287</v>
       </c>
@@ -14375,28 +14521,29 @@
       <c r="C74" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="9"/>
+      <c r="E74" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E74" s="9">
+      <c r="F74" s="9">
         <v>2</v>
       </c>
-      <c r="F74" s="9">
-        <v>1</v>
-      </c>
       <c r="G74" s="9">
+        <v>1</v>
+      </c>
+      <c r="H74" s="9">
         <v>14</v>
       </c>
-      <c r="H74" s="9" t="s">
+      <c r="I74" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9" t="s">
+      <c r="J74" s="9"/>
+      <c r="K74" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K74" s="9"/>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74" s="9"/>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="43" t="s">
         <v>287</v>
       </c>
@@ -14406,26 +14553,27 @@
       <c r="C75" s="43" t="s">
         <v>404</v>
       </c>
-      <c r="D75" s="43"/>
+      <c r="D75" s="72"/>
       <c r="E75" s="43"/>
-      <c r="F75" s="9" t="s">
+      <c r="F75" s="43"/>
+      <c r="G75" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="H75" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="I75" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I75" s="11">
+      <c r="J75" s="11">
         <v>3</v>
       </c>
-      <c r="J75" s="9" t="s">
+      <c r="K75" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="K75" s="43"/>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75" s="43"/>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="43" t="s">
         <v>287</v>
       </c>
@@ -14435,26 +14583,27 @@
       <c r="C76" s="43" t="s">
         <v>405</v>
       </c>
-      <c r="D76" s="43"/>
+      <c r="D76" s="72"/>
       <c r="E76" s="43"/>
-      <c r="F76" s="9">
+      <c r="F76" s="43"/>
+      <c r="G76" s="9">
         <v>0</v>
       </c>
-      <c r="G76" s="9">
-        <v>10</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I76" s="11">
+      <c r="H76" s="9">
+        <v>10</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J76" s="11">
         <v>2</v>
       </c>
-      <c r="J76" s="9" t="s">
+      <c r="K76" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="K76" s="43"/>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76" s="43"/>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="61" t="s">
         <v>440</v>
       </c>
@@ -14464,20 +14613,21 @@
       <c r="C77" s="61" t="s">
         <v>441</v>
       </c>
-      <c r="D77" s="9"/>
+      <c r="D77" s="72"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
-      <c r="H77" s="9" t="s">
+      <c r="H77" s="9"/>
+      <c r="I77" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I77" s="9"/>
       <c r="J77" s="9"/>
-      <c r="K77" s="9" t="s">
+      <c r="K77" s="9"/>
+      <c r="L77" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="18.75">
+    <row r="78" spans="1:12" ht="18.75">
       <c r="A78" s="61" t="s">
         <v>440</v>
       </c>
@@ -14487,24 +14637,25 @@
       <c r="C78" s="61" t="s">
         <v>443</v>
       </c>
-      <c r="D78" s="61"/>
+      <c r="D78" s="72"/>
       <c r="E78" s="61"/>
-      <c r="F78" s="61">
+      <c r="F78" s="61"/>
+      <c r="G78" s="61">
         <v>0</v>
       </c>
-      <c r="G78" s="61">
+      <c r="H78" s="61">
         <v>99</v>
       </c>
-      <c r="H78" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="I78" s="1">
+      <c r="I78" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="J78" s="1">
         <v>2</v>
       </c>
-      <c r="J78" s="61" t="s">
+      <c r="K78" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="K78" s="61" t="s">
+      <c r="L78" s="61" t="s">
         <v>173</v>
       </c>
     </row>
@@ -17063,7 +17214,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>

--- a/入力情報定義表.xlsx
+++ b/入力情報定義表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miura\Dropbox\☆進行中の会議\e7_inputdataconvert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\e7_inputdataconvert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7FDF2712-C1CE-4E4A-962B-BBAE7FAEDA31}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE83161-8112-4718-9B26-B992ADE31A37}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8333" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <sheet name="LV4" sheetId="7" r:id="rId7"/>
     <sheet name="LV5" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2975" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="696">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2593,10 +2593,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IsInputFValue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>key</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -4749,10 +4745,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Earthfloor[i] Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>面積</t>
     <rPh sb="0" eb="2">
       <t>メンセキ</t>
@@ -4760,10 +4752,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Earthfloor[i] Area</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>土間床が属する空間種類</t>
     <rPh sb="4" eb="5">
       <t>ゾク</t>
@@ -4966,10 +4954,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IsInputPsiBase</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Walls[i] InputMethodWood</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -5083,10 +5067,6 @@
   </si>
   <si>
     <t>Windows[i] Y1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Windows[i] IsInputEtaValue</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -6133,27 +6113,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1
-2
-3
-4
-5
-6
-7
-8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FloorIns
-BaseIns</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>True
-False</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1:入力する
 2:入力しない</t>
     <rPh sb="2" eb="4">
@@ -6163,13 +6122,393 @@
       <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:該当する 
+2:該当しない</t>
+    <rPh sb="2" eb="4">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IsFValueInput</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IsPsiBaseInput</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows[i] IsEtaValueInput</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:数値入力
+2:窓仕様を選択</t>
+    <rPh sb="9" eb="10">
+      <t>マド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1:上面 
+2:北 
+3:北東 
+4:東 
+5:南東 
+6:南 
+7:南西 
+8:西 
+9:北西 
+10:下面 
+11:外気に通じていない空間 
+12:外気に通じる床裏 
+13:住戸及び住戸と同様の熱的環境の空間 
+14:外気に通じていない床裏 </t>
+    <rPh sb="2" eb="4">
+      <t>ウワツラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホクトウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナントウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナンセイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ホクセイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>メン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1:1
+2:2
+2:3
+4:4
+5:5
+6:6
+7:7
+8:8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:FloorIns
+2:BaseIns</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:True
+2:False</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:RC
+2:Steel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:WoodOrResin
+2:Steel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:InputUA
+2:InputAllDetails
+3:InputAllLayers
+4:InputUR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:InputUA
+2:InputLayers</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:InputUA
+2:InputUR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:Wood
+2:RC
+3:Steel
+4:Other</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:Ceiling
+2:Wall
+3:Floor
+4:BoundaryWal
+5:BoundaryFloor
+6:BoundaryCeiling</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:Top
+2:N
+3:NE
+4:E
+5:SE
+6:S
+7:SW
+8:W
+9:NW
+10:Bottom
+11:ClosedSpace
+12:OpenBackFloor
+13:ResidenceSpace
+14:ClosedBackFloor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:FrameBeamInsuljoist
+2:FrameFootingInsuljoist
+3:FrameFootingInsulsleeper
+4:FrameFootingInsuljoist_sleeper
+5:FrameRigidfloor
+6:FrameBeambaseInsuljoist
+7:WallInsuljoist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:FrameInsulcolumn
+2:FrameInsuladdBackhorizontal
+3:FrameInsuladdBackvertical
+4:WallInsuljamb
+5:WallInsuladdBackhorizontal
+6:WallInsuladdBackvertical</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:Insulbeam</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:Insulrafter
+2:InsuladdBackhorizontal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:Insulation
+2:Heatbridge
+3:InsulJoitandsleeper
+4:InsuljoistHeatbridgesleeper
+5:InsulsleeperHeatbridgejoist
+6:HeatbridgeJoistandsleeper</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:Insulation
+2:Heatbridge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:Single
+2:Double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:None
+2:Shoji
+3:ExtarnalBlind</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:Insulation
+2:Heatbridge
+3:InsulColumnandadd
+4:InsulcolumnHeatbridgeadd
+5:InsuladdHeatbridgemember
+6:HeatbridgeMemberandadd
+7:InsulFilledandadd
+8:InsulfilledHeatbridgeadd
+9:InsuladdHeatbridgemember
+10:InsuladdHeatbridgelintel
+11:HeatbridgeMemberandadd
+12:HeatbridgeLintelandadd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:Insulation
+2:Heatbridge
+3:InsulRafterandadd
+4:InsulrafterHeatbridgeadd
+5:InsuladdHeatbridgemember
+6:HeatbridgeMemberandadd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:3WgG
+2:3WsG
+3:3LgG
+4:3LsG
+5:2LgG
+6:2LsG
+7:2FAheatreflect1
+8:2FAheatreflect2
+9:2FAheatreflect3
+10:2FAheatabsorb2
+11:2FAmulti
+12:2FAsingle
+13:Theatreflect1
+14:Theatreflect2
+15:Theatreflect3
+16:Theatabsorb2
+17:Tsingle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1:Top
+2:N
+3:NE
+4:E
+5:SE
+6:S
+7:SW
+8:W
+9:NW
+10:Bottom
+11:ClosedSpace
+12:OpenUnderfloor
+13:ResidenceSpace
+14:ClosedUnderfloor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1:Top
+2:N
+3:NE
+4:E
+5:SE
+6:S
+7:SW
+8:W
+9:NW
+10:Bottom
+11:ClosedSpace
+12:OpenBackFloor
+13:ResidenceSpace
+14:ClosedBackFloor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>15:Earth</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1:上面 
+2:北 
+3:北東 
+4:東 
+5:南東 
+6:南 
+7:南西 
+8:西 
+9:北西 
+10:下面 
+11:外気に通じていない空間 
+12:外気に通じる床裏 
+13:住戸及び住戸と同様の熱的環境の空間 
+14:外気に通じていない床裏 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>15:土間床等</t>
+    </r>
+    <rPh sb="2" eb="4">
+      <t>ウワツラ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホクトウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ナントウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ナンセイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ホクセイ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ドマ</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>ユカ</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>トウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6218,6 +6557,14 @@
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6281,7 +6628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6497,6 +6844,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6862,7 +7215,7 @@
         <v>169</v>
       </c>
       <c r="C6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -6895,7 +7248,7 @@
         <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6928,7 +7281,7 @@
         <v>169</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6947,10 +7300,10 @@
         <v>43185</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -6958,10 +7311,10 @@
         <v>43185</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -6969,10 +7322,10 @@
         <v>43185</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -6980,10 +7333,10 @@
         <v>43185</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -6994,7 +7347,7 @@
         <v>169</v>
       </c>
       <c r="C18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -7005,7 +7358,7 @@
         <v>169</v>
       </c>
       <c r="C19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -7016,7 +7369,7 @@
         <v>169</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -7027,7 +7380,7 @@
         <v>169</v>
       </c>
       <c r="C21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -7038,7 +7391,7 @@
         <v>169</v>
       </c>
       <c r="C22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -7049,7 +7402,7 @@
         <v>169</v>
       </c>
       <c r="C23" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -7060,7 +7413,7 @@
         <v>169</v>
       </c>
       <c r="C24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -7071,7 +7424,7 @@
         <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -7082,7 +7435,7 @@
         <v>169</v>
       </c>
       <c r="C26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -7093,7 +7446,7 @@
         <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -7104,7 +7457,7 @@
         <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -7115,7 +7468,7 @@
         <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -7126,7 +7479,7 @@
         <v>169</v>
       </c>
       <c r="C30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -7137,7 +7490,7 @@
         <v>169</v>
       </c>
       <c r="C31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -7148,7 +7501,7 @@
         <v>169</v>
       </c>
       <c r="C32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -7159,7 +7512,7 @@
         <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -7170,7 +7523,7 @@
         <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -7181,7 +7534,7 @@
         <v>169</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -7192,7 +7545,7 @@
         <v>169</v>
       </c>
       <c r="C36" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -7203,7 +7556,7 @@
         <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -7214,7 +7567,7 @@
         <v>169</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -7225,7 +7578,7 @@
         <v>169</v>
       </c>
       <c r="C39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -7236,7 +7589,7 @@
         <v>169</v>
       </c>
       <c r="C40" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -7247,7 +7600,7 @@
         <v>169</v>
       </c>
       <c r="C41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -7258,7 +7611,7 @@
         <v>169</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -7269,7 +7622,7 @@
         <v>169</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -7280,7 +7633,7 @@
         <v>169</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -7291,7 +7644,7 @@
         <v>169</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -7302,7 +7655,7 @@
         <v>169</v>
       </c>
       <c r="C46" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -7313,7 +7666,7 @@
         <v>169</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -7324,7 +7677,7 @@
         <v>169</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -7335,7 +7688,7 @@
         <v>169</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -7343,7 +7696,7 @@
         <v>43203</v>
       </c>
       <c r="B50" s="30" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C50" s="36" t="s">
         <v>170</v>
@@ -7368,7 +7721,7 @@
         <v>169</v>
       </c>
       <c r="C52" s="36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -7379,7 +7732,7 @@
         <v>169</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -7390,7 +7743,7 @@
         <v>169</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -7401,7 +7754,7 @@
         <v>169</v>
       </c>
       <c r="C55" s="36" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -7412,7 +7765,7 @@
         <v>169</v>
       </c>
       <c r="C56" s="36" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -7423,7 +7776,7 @@
         <v>169</v>
       </c>
       <c r="C57" s="36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -7434,7 +7787,7 @@
         <v>169</v>
       </c>
       <c r="C58" s="36" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -7445,7 +7798,7 @@
         <v>169</v>
       </c>
       <c r="C59" s="36" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -7456,7 +7809,7 @@
         <v>169</v>
       </c>
       <c r="C60" s="36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -7467,7 +7820,7 @@
         <v>169</v>
       </c>
       <c r="C61" s="36" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -7478,7 +7831,7 @@
         <v>169</v>
       </c>
       <c r="C62" s="36" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -7489,7 +7842,7 @@
         <v>169</v>
       </c>
       <c r="C63" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -7500,7 +7853,7 @@
         <v>169</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -7508,10 +7861,10 @@
         <v>43257</v>
       </c>
       <c r="B65" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="C65" s="36" t="s">
         <v>406</v>
-      </c>
-      <c r="C65" s="36" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -7519,10 +7872,10 @@
         <v>43257</v>
       </c>
       <c r="B66" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C66" s="36" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -7530,10 +7883,10 @@
         <v>43257</v>
       </c>
       <c r="B67" s="30" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C67" s="36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -7544,7 +7897,7 @@
         <v>169</v>
       </c>
       <c r="C68" s="36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -7555,7 +7908,7 @@
         <v>169</v>
       </c>
       <c r="C69" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -7563,10 +7916,10 @@
         <v>43265</v>
       </c>
       <c r="B70" s="30" t="s">
+        <v>419</v>
+      </c>
+      <c r="C70" s="36" t="s">
         <v>420</v>
-      </c>
-      <c r="C70" s="36" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -7574,10 +7927,10 @@
         <v>43265</v>
       </c>
       <c r="B71" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C71" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -7585,10 +7938,10 @@
         <v>43266</v>
       </c>
       <c r="B72" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C72" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -7596,10 +7949,10 @@
         <v>43266</v>
       </c>
       <c r="B73" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C73" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -7607,10 +7960,10 @@
         <v>43266</v>
       </c>
       <c r="B74" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C74" s="36" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -7618,10 +7971,10 @@
         <v>43266</v>
       </c>
       <c r="B75" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C75" s="36" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -7629,10 +7982,10 @@
         <v>43269</v>
       </c>
       <c r="B76" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C76" s="36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -7643,7 +7996,7 @@
         <v>169</v>
       </c>
       <c r="C77" s="36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -7651,10 +8004,10 @@
         <v>43279</v>
       </c>
       <c r="B78" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C78" s="36" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -7662,10 +8015,10 @@
         <v>43279</v>
       </c>
       <c r="B79" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C79" s="36" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -7676,7 +8029,7 @@
         <v>169</v>
       </c>
       <c r="C80" s="36" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -7687,7 +8040,7 @@
         <v>169</v>
       </c>
       <c r="C81" s="36" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -7695,10 +8048,10 @@
         <v>43283</v>
       </c>
       <c r="B82" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C82" s="36" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -7706,10 +8059,10 @@
         <v>43283</v>
       </c>
       <c r="B83" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C83" s="36" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -7717,10 +8070,10 @@
         <v>43283</v>
       </c>
       <c r="B84" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C84" s="36" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -7731,7 +8084,7 @@
         <v>169</v>
       </c>
       <c r="C85" s="36" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -7739,10 +8092,10 @@
         <v>43291</v>
       </c>
       <c r="B86" s="30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C86" s="36" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -7750,10 +8103,10 @@
         <v>43294</v>
       </c>
       <c r="B87" s="30" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C87" s="36" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -7834,7 +8187,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
@@ -7862,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" s="67" t="s">
         <v>101</v>
@@ -7889,7 +8242,7 @@
         <v>15</v>
       </c>
       <c r="L2" s="72" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -7900,7 +8253,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="67" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D3" s="67"/>
       <c r="E3" s="67">
@@ -7951,7 +8304,7 @@
       <c r="J4" s="67"/>
       <c r="K4" s="67"/>
       <c r="L4" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -7962,7 +8315,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="67" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D5" s="67"/>
       <c r="E5" s="67">
@@ -7994,7 +8347,7 @@
         <v>26</v>
       </c>
       <c r="C6" s="64" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D6" s="67"/>
       <c r="E6" s="67">
@@ -8026,7 +8379,7 @@
         <v>27</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D7" s="67"/>
       <c r="E7" s="67">
@@ -8055,10 +8408,10 @@
         <v>16</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D8" s="67"/>
       <c r="E8" s="67">
@@ -8071,7 +8424,7 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="67" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="K8" s="67"/>
       <c r="L8" s="22"/>
@@ -8081,10 +8434,10 @@
         <v>16</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="67">
@@ -8101,7 +8454,7 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="67" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="K9" s="67"/>
       <c r="L9" s="22"/>
@@ -8111,10 +8464,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="67">
@@ -8131,7 +8484,7 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="67" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="K10" s="67"/>
       <c r="L10" s="22"/>
@@ -8141,10 +8494,10 @@
         <v>16</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="67">
@@ -8161,7 +8514,7 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="67" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="K11" s="67"/>
       <c r="L11" s="22"/>
@@ -8171,10 +8524,10 @@
         <v>16</v>
       </c>
       <c r="B12" s="67" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C12" s="67" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D12" s="67"/>
       <c r="E12" s="67">
@@ -8191,7 +8544,7 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="67" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="K12" s="67"/>
       <c r="L12" s="22"/>
@@ -8201,10 +8554,10 @@
         <v>16</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C13" s="67" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D13" s="67"/>
       <c r="E13" s="67">
@@ -8217,7 +8570,7 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="67" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K13" s="67"/>
       <c r="L13" s="22"/>
@@ -8227,10 +8580,10 @@
         <v>16</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>178</v>
@@ -8257,13 +8610,13 @@
         <v>16</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="E15" s="67"/>
       <c r="F15" s="71">
@@ -8285,10 +8638,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D16" s="67"/>
       <c r="E16" s="67"/>
@@ -8307,10 +8660,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>178</v>
@@ -8365,7 +8718,7 @@
       </c>
       <c r="K18" s="9"/>
       <c r="L18" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="2" customFormat="1" ht="18.75">
@@ -8397,7 +8750,7 @@
       </c>
       <c r="K19" s="9"/>
       <c r="L19" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="2" customFormat="1" ht="18.75">
@@ -8429,7 +8782,7 @@
       </c>
       <c r="K20" s="9"/>
       <c r="L20" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="21" spans="1:12" s="2" customFormat="1" ht="18.75">
@@ -8461,7 +8814,7 @@
       </c>
       <c r="K21" s="9"/>
       <c r="L21" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -8472,7 +8825,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D22" s="67"/>
       <c r="E22" s="67"/>
@@ -8485,7 +8838,7 @@
       <c r="J22" s="67"/>
       <c r="K22" s="67"/>
       <c r="L22" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -8496,7 +8849,7 @@
         <v>137</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D23" s="67" t="s">
         <v>186</v>
@@ -8517,7 +8870,7 @@
       </c>
       <c r="K23" s="67"/>
       <c r="L23" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -8528,7 +8881,7 @@
         <v>113</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>191</v>
@@ -8551,7 +8904,7 @@
       </c>
       <c r="K24" s="67"/>
       <c r="L24" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18.75">
@@ -8562,7 +8915,7 @@
         <v>79</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D25" s="67"/>
       <c r="E25" s="67"/>
@@ -8583,7 +8936,7 @@
       </c>
       <c r="K25" s="67"/>
       <c r="L25" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -8591,13 +8944,13 @@
         <v>182</v>
       </c>
       <c r="B26" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>426</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>427</v>
       </c>
       <c r="E26" s="9">
         <v>1</v>
@@ -8615,7 +8968,7 @@
       <c r="J26" s="9"/>
       <c r="K26" s="67"/>
       <c r="L26" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -8623,10 +8976,10 @@
         <v>182</v>
       </c>
       <c r="B27" s="67" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="D27" s="67"/>
       <c r="E27" s="67"/>
@@ -8639,7 +8992,7 @@
       <c r="J27" s="67"/>
       <c r="K27" s="67"/>
       <c r="L27" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -8647,10 +9000,10 @@
         <v>182</v>
       </c>
       <c r="B28" s="67" t="s">
+        <v>508</v>
+      </c>
+      <c r="C28" s="67" t="s">
         <v>513</v>
-      </c>
-      <c r="C28" s="67" t="s">
-        <v>518</v>
       </c>
       <c r="D28" s="67"/>
       <c r="E28" s="67"/>
@@ -8671,7 +9024,7 @@
       </c>
       <c r="K28" s="67"/>
       <c r="L28" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -8679,10 +9032,10 @@
         <v>182</v>
       </c>
       <c r="B29" s="67" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C29" s="67" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="D29" s="67"/>
       <c r="E29" s="67"/>
@@ -8703,7 +9056,7 @@
       </c>
       <c r="K29" s="67"/>
       <c r="L29" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -8711,10 +9064,10 @@
         <v>182</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="C30" s="67" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D30" s="67"/>
       <c r="E30" s="67"/>
@@ -8733,7 +9086,7 @@
       </c>
       <c r="K30" s="67"/>
       <c r="L30" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18.75">
@@ -8741,10 +9094,10 @@
         <v>182</v>
       </c>
       <c r="B31" s="67" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D31" s="67"/>
       <c r="E31" s="67"/>
@@ -8770,7 +9123,7 @@
         <v>38</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D32" s="67"/>
       <c r="E32" s="67">
@@ -8802,7 +9155,7 @@
         <v>39</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D33" s="67"/>
       <c r="E33" s="67">
@@ -8834,7 +9187,7 @@
         <v>40</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D34" s="67"/>
       <c r="E34" s="67">
@@ -8863,10 +9216,10 @@
         <v>182</v>
       </c>
       <c r="B35" s="67" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D35" s="67"/>
       <c r="E35" s="67">
@@ -8895,10 +9248,10 @@
         <v>182</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -8919,7 +9272,7 @@
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -8927,10 +9280,10 @@
         <v>182</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -8950,10 +9303,10 @@
         <v>19</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L37" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -8964,7 +9317,7 @@
         <v>50</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -8984,10 +9337,10 @@
         <v>19</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L38" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -8998,7 +9351,7 @@
         <v>51</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -9018,10 +9371,10 @@
         <v>19</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L39" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -9029,10 +9382,10 @@
         <v>182</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
@@ -9048,7 +9401,7 @@
         <v>19</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L40" s="22"/>
     </row>
@@ -9057,10 +9410,10 @@
         <v>182</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
@@ -9076,7 +9429,7 @@
         <v>19</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L41" s="22"/>
     </row>
@@ -9085,10 +9438,10 @@
         <v>182</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -9104,7 +9457,7 @@
         <v>19</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L42" s="22"/>
     </row>
@@ -9113,10 +9466,10 @@
         <v>182</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>178</v>
@@ -9137,7 +9490,7 @@
       </c>
       <c r="K43" s="9"/>
       <c r="L43" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -9145,10 +9498,10 @@
         <v>182</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="D44" s="9" t="s">
         <v>178</v>
@@ -9169,7 +9522,7 @@
       </c>
       <c r="K44" s="9"/>
       <c r="L44" s="22" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -9177,10 +9530,10 @@
         <v>182</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
@@ -9199,10 +9552,10 @@
         <v>182</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
@@ -9224,7 +9577,7 @@
         <v>43</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
@@ -9239,7 +9592,7 @@
         <v>173</v>
       </c>
       <c r="L47" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -9250,7 +9603,7 @@
         <v>113</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>191</v>
@@ -9273,7 +9626,7 @@
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="18.75">
@@ -9284,7 +9637,7 @@
         <v>79</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D49" s="67"/>
       <c r="E49" s="67"/>
@@ -9305,7 +9658,7 @@
       </c>
       <c r="K49" s="67"/>
       <c r="L49" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -9313,13 +9666,13 @@
         <v>192</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="C50" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>429</v>
-      </c>
       <c r="D50" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E50" s="9">
         <v>1</v>
@@ -9337,7 +9690,7 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c r="L50" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -9348,7 +9701,7 @@
         <v>91</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9">
@@ -9371,7 +9724,7 @@
       </c>
       <c r="K51" s="9"/>
       <c r="L51" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -9382,7 +9735,7 @@
         <v>44</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="9">
@@ -9405,7 +9758,7 @@
       </c>
       <c r="K52" s="9"/>
       <c r="L52" s="22" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -9416,7 +9769,7 @@
         <v>45</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
@@ -9439,7 +9792,7 @@
       </c>
       <c r="K53" s="9"/>
       <c r="L53" s="22" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="18.75">
@@ -9447,10 +9800,10 @@
         <v>192</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D54" s="9"/>
       <c r="E54" s="9">
@@ -9473,7 +9826,7 @@
       </c>
       <c r="K54" s="9"/>
       <c r="L54" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="18.75">
@@ -9481,10 +9834,10 @@
         <v>192</v>
       </c>
       <c r="B55" s="69" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C55" s="69" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="D55" s="69"/>
       <c r="E55" s="69"/>
@@ -9510,7 +9863,7 @@
         <v>38</v>
       </c>
       <c r="C56" s="67" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="D56" s="67"/>
       <c r="E56" s="67">
@@ -9542,7 +9895,7 @@
         <v>40</v>
       </c>
       <c r="C57" s="67" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D57" s="67"/>
       <c r="E57" s="67"/>
@@ -9569,10 +9922,10 @@
         <v>192</v>
       </c>
       <c r="B58" s="69" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C58" s="69" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="D58" s="69"/>
       <c r="E58" s="69"/>
@@ -9602,7 +9955,7 @@
         <v>49</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -9623,7 +9976,7 @@
       </c>
       <c r="K59" s="67"/>
       <c r="L59" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -9634,7 +9987,7 @@
         <v>50</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -9655,7 +10008,7 @@
       </c>
       <c r="K60" s="67"/>
       <c r="L60" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -9666,7 +10019,7 @@
         <v>51</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -9687,7 +10040,7 @@
       </c>
       <c r="K61" s="67"/>
       <c r="L61" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -9695,10 +10048,10 @@
         <v>192</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -9724,7 +10077,7 @@
         <v>52</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -9747,10 +10100,10 @@
         <v>192</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
@@ -9773,10 +10126,10 @@
         <v>192</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>178</v>
@@ -9797,7 +10150,7 @@
       </c>
       <c r="K65" s="9"/>
       <c r="L65" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -9805,10 +10158,10 @@
         <v>192</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>178</v>
@@ -9829,7 +10182,7 @@
       </c>
       <c r="K66" s="9"/>
       <c r="L66" s="22" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -9837,10 +10190,10 @@
         <v>192</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -9859,10 +10212,10 @@
         <v>192</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -9884,7 +10237,7 @@
         <v>43</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -9899,7 +10252,7 @@
         <v>173</v>
       </c>
       <c r="L69" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -9910,7 +10263,7 @@
         <v>113</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D70" s="9" t="s">
         <v>191</v>
@@ -9933,7 +10286,7 @@
       </c>
       <c r="K70" s="9"/>
       <c r="L70" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="18.75">
@@ -9944,7 +10297,7 @@
         <v>79</v>
       </c>
       <c r="C71" s="67" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D71" s="67"/>
       <c r="E71" s="67"/>
@@ -9965,7 +10318,7 @@
       </c>
       <c r="K71" s="67"/>
       <c r="L71" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -9973,13 +10326,13 @@
         <v>194</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E72" s="9">
         <v>1</v>
@@ -9997,7 +10350,7 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c r="L72" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="18.75">
@@ -10008,7 +10361,7 @@
         <v>46</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
@@ -10031,7 +10384,7 @@
       </c>
       <c r="K73" s="9"/>
       <c r="L73" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="2" customFormat="1">
@@ -10042,7 +10395,7 @@
         <v>49</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -10063,7 +10416,7 @@
       </c>
       <c r="K74" s="9"/>
       <c r="L74" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="75" spans="1:12" s="2" customFormat="1">
@@ -10074,7 +10427,7 @@
         <v>50</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
@@ -10095,7 +10448,7 @@
       </c>
       <c r="K75" s="9"/>
       <c r="L75" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="76" spans="1:12" s="2" customFormat="1">
@@ -10106,7 +10459,7 @@
         <v>51</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
@@ -10127,7 +10480,7 @@
       </c>
       <c r="K76" s="9"/>
       <c r="L76" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -10138,7 +10491,7 @@
         <v>52</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -10161,10 +10514,10 @@
         <v>194</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
@@ -10187,10 +10540,10 @@
         <v>194</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>178</v>
@@ -10211,7 +10564,7 @@
       </c>
       <c r="K79" s="9"/>
       <c r="L79" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -10219,10 +10572,10 @@
         <v>194</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C80" s="9" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>178</v>
@@ -10249,10 +10602,10 @@
         <v>194</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C81" s="9" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
@@ -10271,10 +10624,10 @@
         <v>194</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -10290,13 +10643,13 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B83" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="C83" s="9" t="s">
-        <v>415</v>
       </c>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
@@ -10308,21 +10661,21 @@
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L83" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B84" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>191</v>
@@ -10344,24 +10697,24 @@
         <v>18</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L84" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E85" s="10">
         <v>1</v>
@@ -10378,21 +10731,21 @@
       <c r="I85" s="10"/>
       <c r="J85" s="10"/>
       <c r="K85" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L85" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C86" s="70" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D86" s="70"/>
       <c r="E86" s="70"/>
@@ -10412,21 +10765,21 @@
         <v>120</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L86" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="70" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C87" s="70" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D87" s="70"/>
       <c r="E87" s="70"/>
@@ -10446,21 +10799,21 @@
         <v>122</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L87" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="70" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B88" s="70" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C88" s="70" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
@@ -10472,21 +10825,21 @@
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L88" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="18.75">
       <c r="A89" s="70" t="s">
+        <v>439</v>
+      </c>
+      <c r="B89" s="70" t="s">
         <v>440</v>
       </c>
-      <c r="B89" s="70" t="s">
-        <v>442</v>
-      </c>
       <c r="C89" s="70" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D89" s="70"/>
       <c r="E89" s="70"/>
@@ -10506,24 +10859,24 @@
         <v>14</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L89" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="70" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C90" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E90" s="9">
         <v>1</v>
@@ -10540,21 +10893,21 @@
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="L90" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="69" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B91" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="C91" s="9" t="s">
         <v>616</v>
-      </c>
-      <c r="C91" s="9" t="s">
-        <v>621</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
@@ -10570,13 +10923,13 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="69" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B92" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="C92" s="9" t="s">
         <v>617</v>
-      </c>
-      <c r="C92" s="9" t="s">
-        <v>622</v>
       </c>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
@@ -10592,13 +10945,13 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="69" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B93" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="C93" s="9" t="s">
         <v>618</v>
-      </c>
-      <c r="C93" s="9" t="s">
-        <v>623</v>
       </c>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
@@ -10614,13 +10967,13 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="69" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B94" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="C94" s="9" t="s">
         <v>619</v>
-      </c>
-      <c r="C94" s="9" t="s">
-        <v>624</v>
       </c>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
@@ -10636,13 +10989,13 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="69" t="s">
+        <v>610</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="C95" s="9" t="s">
         <v>620</v>
-      </c>
-      <c r="C95" s="9" t="s">
-        <v>625</v>
       </c>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
@@ -10658,16 +11011,16 @@
     </row>
     <row r="96" spans="1:12" ht="17.649999999999999" customHeight="1">
       <c r="A96" s="65" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B96" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D96" s="65" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E96" s="9">
         <v>1</v>
@@ -10687,18 +11040,18 @@
       </c>
       <c r="K96" s="9"/>
       <c r="L96" s="22" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="65" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C97" s="9" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
@@ -10720,13 +11073,13 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="65" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C98" s="9" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
@@ -10748,13 +11101,13 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="65" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B99" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
@@ -10776,13 +11129,13 @@
     </row>
     <row r="100" spans="1:12" ht="18.75">
       <c r="A100" s="65" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C100" s="9" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
@@ -10806,13 +11159,13 @@
     </row>
     <row r="101" spans="1:12" ht="18.75">
       <c r="A101" s="65" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
@@ -10835,18 +11188,18 @@
       </c>
       <c r="K101" s="9"/>
       <c r="L101" s="22" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="18.75">
       <c r="A102" s="65" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C102" s="9" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D102" s="9"/>
       <c r="E102" s="9">
@@ -10867,18 +11220,18 @@
       </c>
       <c r="K102" s="9"/>
       <c r="L102" s="22" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="18.75">
       <c r="A103" s="65" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
@@ -10899,18 +11252,18 @@
       </c>
       <c r="K103" s="9"/>
       <c r="L103" s="22" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="18.75">
       <c r="A104" s="65" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9">
@@ -10931,18 +11284,18 @@
       </c>
       <c r="K104" s="9"/>
       <c r="L104" s="22" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="18.75">
       <c r="A105" s="65" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B105" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
@@ -10966,13 +11319,13 @@
     </row>
     <row r="106" spans="1:12" ht="18.75">
       <c r="A106" s="65" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C106" s="9" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9">
@@ -10996,13 +11349,13 @@
     </row>
     <row r="107" spans="1:12" ht="18.75">
       <c r="A107" s="65" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C107" s="9" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="D107" s="9"/>
       <c r="E107" s="9">
@@ -11026,13 +11379,13 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" s="65" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C108" s="9" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D108" s="9" t="s">
         <v>102</v>
@@ -11058,13 +11411,13 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" s="65" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B109" s="67" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C109" s="9" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>102</v>
@@ -11090,13 +11443,13 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" s="65" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B110" s="67" t="s">
         <v>69</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D110" s="67"/>
       <c r="E110" s="67">
@@ -11118,22 +11471,22 @@
         <v>18</v>
       </c>
       <c r="K110" s="67" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="L110" s="22"/>
     </row>
     <row r="111" spans="1:12" ht="17.649999999999999" customHeight="1">
       <c r="A111" s="67" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B111" s="67" t="s">
         <v>70</v>
       </c>
       <c r="C111" s="67" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="D111" s="65" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E111" s="67">
         <v>1</v>
@@ -11156,16 +11509,16 @@
     </row>
     <row r="112" spans="1:12" ht="17.649999999999999" customHeight="1">
       <c r="A112" s="67" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B112" s="67" t="s">
         <v>73</v>
       </c>
       <c r="C112" s="67" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="D112" s="65" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E112" s="67">
         <v>3</v>
@@ -11188,13 +11541,13 @@
     </row>
     <row r="113" spans="1:12" ht="18.75" customHeight="1">
       <c r="A113" s="67" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B113" s="67" t="s">
+        <v>635</v>
+      </c>
+      <c r="C113" s="9" t="s">
         <v>640</v>
-      </c>
-      <c r="C113" s="9" t="s">
-        <v>645</v>
       </c>
       <c r="D113" s="67"/>
       <c r="E113" s="67">
@@ -11218,13 +11571,13 @@
     </row>
     <row r="114" spans="1:12" ht="18.75" customHeight="1">
       <c r="A114" s="67" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B114" s="67" t="s">
+        <v>636</v>
+      </c>
+      <c r="C114" s="9" t="s">
         <v>641</v>
-      </c>
-      <c r="C114" s="9" t="s">
-        <v>646</v>
       </c>
       <c r="D114" s="67"/>
       <c r="E114" s="67">
@@ -11248,13 +11601,13 @@
     </row>
     <row r="115" spans="1:12" ht="18.75" customHeight="1">
       <c r="A115" s="67" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B115" s="67" t="s">
+        <v>637</v>
+      </c>
+      <c r="C115" s="9" t="s">
         <v>642</v>
-      </c>
-      <c r="C115" s="9" t="s">
-        <v>647</v>
       </c>
       <c r="D115" s="67"/>
       <c r="E115" s="67">
@@ -11278,13 +11631,13 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" s="67" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
@@ -11302,13 +11655,13 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" s="67" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
@@ -11326,13 +11679,13 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" s="67" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C118" s="9" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
@@ -11350,13 +11703,13 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" s="67" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
@@ -11374,13 +11727,13 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" s="67" t="s">
+        <v>594</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="B120" s="9" t="s">
-        <v>604</v>
-      </c>
       <c r="C120" s="9" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
@@ -11398,13 +11751,13 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" s="67" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C121" s="9" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
@@ -11422,13 +11775,13 @@
     </row>
     <row r="122" spans="1:12">
       <c r="A122" s="68" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D122" s="9" t="s">
         <v>178</v>
@@ -11449,18 +11802,18 @@
       </c>
       <c r="K122" s="9"/>
       <c r="L122" s="22" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="A123" s="68" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="D123" s="68"/>
       <c r="E123" s="68">
@@ -11477,22 +11830,22 @@
       </c>
       <c r="I123" s="68"/>
       <c r="J123" s="68" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="K123" s="9"/>
       <c r="L123" s="22" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="A124" s="68" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C124" s="9" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="D124" s="9" t="s">
         <v>178</v>
@@ -11513,18 +11866,18 @@
       </c>
       <c r="K124" s="9"/>
       <c r="L124" s="22" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="A125" s="68" t="s">
+        <v>601</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="B125" s="9" t="s">
-        <v>611</v>
-      </c>
       <c r="C125" s="9" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>178</v>
@@ -11545,7 +11898,7 @@
       </c>
       <c r="K125" s="9"/>
       <c r="L125" s="22" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -11565,7 +11918,7 @@
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
@@ -11592,10 +11945,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D2" s="72" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>101</v>
@@ -11624,7 +11977,7 @@
     </row>
     <row r="3" spans="1:14" ht="141">
       <c r="A3" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B3" s="24" t="s">
         <v>17</v>
@@ -11633,7 +11986,7 @@
         <v>175</v>
       </c>
       <c r="D3" s="73" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="E3" s="64" t="s">
         <v>176</v>
@@ -11657,7 +12010,7 @@
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1" ht="18.75">
       <c r="A4" s="17" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>135</v>
@@ -11688,7 +12041,7 @@
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" ht="18.75">
       <c r="A5" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>136</v>
@@ -11719,7 +12072,7 @@
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" ht="18.75">
       <c r="A6" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>140</v>
@@ -11750,7 +12103,7 @@
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="35.25">
       <c r="A7" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>142</v>
@@ -11759,7 +12112,7 @@
         <v>206</v>
       </c>
       <c r="D7" s="73" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="E7" s="64" t="s">
         <v>202</v>
@@ -11783,13 +12136,13 @@
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" ht="18.75">
       <c r="A8" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>147</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -11814,13 +12167,13 @@
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" ht="18.75">
       <c r="A9" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>148</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
@@ -11845,13 +12198,13 @@
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" ht="18.75">
       <c r="A10" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -11876,13 +12229,13 @@
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" ht="18.75">
       <c r="A11" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>150</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
@@ -11907,13 +12260,13 @@
     </row>
     <row r="12" spans="1:14" s="2" customFormat="1" ht="18.75">
       <c r="A12" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>154</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -11938,13 +12291,13 @@
     </row>
     <row r="13" spans="1:14" s="2" customFormat="1">
       <c r="A13" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>155</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -11971,13 +12324,13 @@
     </row>
     <row r="14" spans="1:14" s="2" customFormat="1">
       <c r="A14" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>156</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -12004,19 +12357,19 @@
     </row>
     <row r="15" spans="1:14" s="2" customFormat="1" ht="35.25">
       <c r="A15" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>151</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>207</v>
+        <v>666</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="25">
@@ -12037,13 +12390,13 @@
     </row>
     <row r="16" spans="1:14" s="2" customFormat="1">
       <c r="A16" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>152</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -12070,13 +12423,13 @@
     </row>
     <row r="17" spans="1:14" s="2" customFormat="1">
       <c r="A17" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>153</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -12103,19 +12456,19 @@
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1" ht="35.25">
       <c r="A18" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>466</v>
+        <v>667</v>
       </c>
       <c r="D18" s="74" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="25">
@@ -12136,13 +12489,13 @@
     </row>
     <row r="19" spans="1:14" s="2" customFormat="1">
       <c r="A19" s="63" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>158</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
@@ -12169,13 +12522,13 @@
     </row>
     <row r="20" spans="1:14" s="2" customFormat="1">
       <c r="A20" s="21" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>159</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
@@ -12213,11 +12566,11 @@
   <dimension ref="A2:R78"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="D45" sqref="D45"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
@@ -12244,10 +12597,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D2" s="72" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>101</v>
@@ -12284,7 +12637,9 @@
       <c r="C3" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="73"/>
+      <c r="D3" s="73" t="s">
+        <v>671</v>
+      </c>
       <c r="E3" s="64" t="s">
         <v>176</v>
       </c>
@@ -12316,9 +12671,11 @@
       <c r="C4" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="74" t="s">
+        <v>673</v>
+      </c>
       <c r="E4" s="65" t="s">
-        <v>178</v>
+        <v>665</v>
       </c>
       <c r="F4" s="10">
         <v>2</v>
@@ -12444,7 +12801,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="41"/>
@@ -12468,9 +12825,11 @@
         <v>137</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="D9" s="72"/>
+        <v>343</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>680</v>
+      </c>
       <c r="E9" s="64" t="s">
         <v>186</v>
       </c>
@@ -12505,9 +12864,11 @@
         <v>123</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="D10" s="10"/>
+        <v>356</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>679</v>
+      </c>
       <c r="E10" s="65" t="s">
         <v>187</v>
       </c>
@@ -12536,14 +12897,16 @@
         <v>182</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="D11" s="10"/>
+        <v>463</v>
+      </c>
+      <c r="D11" s="74" t="s">
+        <v>676</v>
+      </c>
       <c r="E11" s="65" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F11" s="9">
         <v>1</v>
@@ -12562,22 +12925,24 @@
         <v>18</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="35.25">
       <c r="A12" s="46" t="s">
         <v>182</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="D12" s="74" t="s">
+        <v>677</v>
+      </c>
+      <c r="E12" s="65" t="s">
         <v>334</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="9" t="s">
-        <v>335</v>
       </c>
       <c r="F12" s="9">
         <v>1</v>
@@ -12596,22 +12961,24 @@
         <v>18</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="35.25">
       <c r="A13" s="46" t="s">
         <v>182</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>678</v>
+      </c>
+      <c r="E13" s="65" t="s">
         <v>337</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="9" t="s">
-        <v>338</v>
       </c>
       <c r="F13" s="9">
         <v>1</v>
@@ -12630,10 +12997,10 @@
         <v>18</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="264.39999999999998">
       <c r="A14" s="39" t="s">
         <v>182</v>
       </c>
@@ -12641,11 +13008,13 @@
         <v>113</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
-        <v>191</v>
+        <v>352</v>
+      </c>
+      <c r="D14" s="65" t="s">
+        <v>694</v>
+      </c>
+      <c r="E14" s="65" t="s">
+        <v>695</v>
       </c>
       <c r="F14" s="9">
         <v>2</v>
@@ -12664,7 +13033,7 @@
         <v>18</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="18.75">
@@ -12675,7 +13044,7 @@
         <v>79</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="41"/>
@@ -12707,7 +13076,7 @@
         <v>121</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
@@ -12728,22 +13097,24 @@
         <v>41</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="141">
       <c r="A17" s="39" t="s">
         <v>182</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="45" t="s">
-        <v>307</v>
+        <v>349</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>682</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>306</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="41">
@@ -12760,22 +13131,24 @@
         <v>18</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="176.25">
       <c r="A18" s="39" t="s">
         <v>182</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>308</v>
+        <v>348</v>
+      </c>
+      <c r="D18" s="65" t="s">
+        <v>683</v>
+      </c>
+      <c r="E18" s="65" t="s">
+        <v>307</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="41">
@@ -12792,7 +13165,7 @@
         <v>18</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -12800,14 +13173,16 @@
         <v>182</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D19" s="9"/>
+        <v>347</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>684</v>
+      </c>
       <c r="E19" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="41">
@@ -12824,22 +13199,24 @@
         <v>18</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="35.25">
       <c r="A20" s="39" t="s">
         <v>182</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
-        <v>309</v>
+        <v>346</v>
+      </c>
+      <c r="D20" s="65" t="s">
+        <v>685</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>308</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="41">
@@ -12856,7 +13233,7 @@
         <v>18</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="18.75">
@@ -12864,10 +13241,10 @@
         <v>182</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
@@ -12888,7 +13265,7 @@
         <v>41</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.75">
@@ -12896,10 +13273,10 @@
         <v>182</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -12920,18 +13297,18 @@
         <v>41</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -12952,22 +13329,24 @@
         <v>18</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="123.4">
       <c r="A24" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>473</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>320</v>
+        <v>469</v>
+      </c>
+      <c r="D24" s="65" t="s">
+        <v>686</v>
+      </c>
+      <c r="E24" s="65" t="s">
+        <v>319</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="41">
@@ -12982,22 +13361,24 @@
       <c r="J24" s="11"/>
       <c r="K24" s="10"/>
       <c r="L24" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="299.64999999999998">
       <c r="A25" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>321</v>
+        <v>470</v>
+      </c>
+      <c r="D25" s="65" t="s">
+        <v>690</v>
+      </c>
+      <c r="E25" s="65" t="s">
+        <v>320</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="45">
@@ -13012,22 +13393,24 @@
       <c r="J25" s="11"/>
       <c r="K25" s="10"/>
       <c r="L25" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="35.25">
       <c r="A26" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9" t="s">
-        <v>322</v>
+        <v>471</v>
+      </c>
+      <c r="D26" s="65" t="s">
+        <v>687</v>
+      </c>
+      <c r="E26" s="65" t="s">
+        <v>321</v>
       </c>
       <c r="F26" s="13"/>
       <c r="G26" s="45">
@@ -13042,22 +13425,24 @@
       <c r="J26" s="11"/>
       <c r="K26" s="10"/>
       <c r="L26" s="9" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="141">
       <c r="A27" s="44" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>323</v>
+        <v>472</v>
+      </c>
+      <c r="D27" s="65" t="s">
+        <v>691</v>
+      </c>
+      <c r="E27" s="65" t="s">
+        <v>322</v>
       </c>
       <c r="F27" s="13"/>
       <c r="G27" s="45">
@@ -13072,7 +13457,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="10"/>
       <c r="L27" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -13080,10 +13465,10 @@
         <v>182</v>
       </c>
       <c r="B28" s="41" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C28" s="41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D28" s="72"/>
       <c r="E28" s="41"/>
@@ -13102,10 +13487,10 @@
         <v>182</v>
       </c>
       <c r="B29" s="41" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D29" s="72"/>
       <c r="E29" s="41"/>
@@ -13132,10 +13517,10 @@
         <v>182</v>
       </c>
       <c r="B30" s="41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D30" s="72"/>
       <c r="E30" s="41"/>
@@ -13162,10 +13547,10 @@
         <v>182</v>
       </c>
       <c r="B31" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D31" s="72"/>
       <c r="E31" s="41"/>
@@ -13185,19 +13570,21 @@
       </c>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" ht="35.25">
       <c r="A32" s="48" t="s">
         <v>182</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="D32" s="9"/>
+        <v>407</v>
+      </c>
+      <c r="D32" s="74" t="s">
+        <v>673</v>
+      </c>
       <c r="E32" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F32" s="49"/>
       <c r="G32" s="49">
@@ -13223,7 +13610,7 @@
         <v>49</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
@@ -13244,7 +13631,7 @@
         <v>19</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34" spans="1:12" s="2" customFormat="1">
@@ -13255,7 +13642,7 @@
         <v>50</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -13276,7 +13663,7 @@
         <v>19</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:12" s="2" customFormat="1">
@@ -13287,7 +13674,7 @@
         <v>51</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -13308,7 +13695,7 @@
         <v>19</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -13319,7 +13706,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -13335,7 +13722,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" ht="246.75">
       <c r="A37" s="39" t="s">
         <v>192</v>
       </c>
@@ -13343,11 +13730,13 @@
         <v>113</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
-        <v>191</v>
+        <v>367</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>681</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>670</v>
       </c>
       <c r="F37" s="9">
         <v>2</v>
@@ -13366,7 +13755,7 @@
         <v>18</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75">
@@ -13377,7 +13766,7 @@
         <v>79</v>
       </c>
       <c r="C38" s="41" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D38" s="72"/>
       <c r="E38" s="41"/>
@@ -13401,47 +13790,55 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" ht="18.75">
       <c r="A39" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="41" t="s">
-        <v>271</v>
-      </c>
-      <c r="C39" s="41" t="s">
-        <v>481</v>
-      </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41">
-        <v>1</v>
-      </c>
-      <c r="H39" s="41">
+      <c r="B39" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="9">
+        <v>10</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="11">
         <v>2</v>
       </c>
-      <c r="I39" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="40"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="K39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="35.25">
       <c r="A40" s="39" t="s">
         <v>192</v>
       </c>
       <c r="B40" s="41" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>496</v>
-      </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="41" t="s">
-        <v>257</v>
+        <v>477</v>
+      </c>
+      <c r="D40" s="64" t="s">
+        <v>688</v>
+      </c>
+      <c r="E40" s="64" t="s">
+        <v>271</v>
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="41">
@@ -13453,46 +13850,42 @@
       <c r="I40" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J40" s="41"/>
-      <c r="K40" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="L40" s="40" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="J40" s="1"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="40"/>
+    </row>
+    <row r="41" spans="1:12" ht="35.25">
       <c r="A41" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="G41" s="9">
-        <v>0</v>
-      </c>
-      <c r="H41" s="9">
-        <v>1</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J41" s="11">
-        <v>3</v>
-      </c>
-      <c r="K41" s="9" t="s">
+      <c r="B41" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" s="41" t="s">
+        <v>668</v>
+      </c>
+      <c r="D41" s="74" t="s">
+        <v>673</v>
+      </c>
+      <c r="E41" s="64" t="s">
+        <v>669</v>
+      </c>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41">
+        <v>1</v>
+      </c>
+      <c r="H41" s="41">
+        <v>2</v>
+      </c>
+      <c r="I41" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="41"/>
+      <c r="K41" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="L41" s="13" t="s">
-        <v>230</v>
+      <c r="L41" s="40" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -13500,10 +13893,10 @@
         <v>192</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
@@ -13526,7 +13919,7 @@
         <v>18</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>174</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -13534,10 +13927,10 @@
         <v>192</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
@@ -13560,61 +13953,65 @@
         <v>18</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>274</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="B44" s="41" t="s">
-        <v>250</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="D44" s="72"/>
-      <c r="E44" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="F44" s="41"/>
-      <c r="G44" s="41">
-        <v>1</v>
-      </c>
-      <c r="H44" s="41">
-        <v>2</v>
-      </c>
-      <c r="I44" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="J44" s="41"/>
-      <c r="K44" s="39" t="s">
+      <c r="B44" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <v>1</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="11">
+        <v>3</v>
+      </c>
+      <c r="K44" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="40" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="L44" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="70.5">
       <c r="A45" s="39" t="s">
         <v>192</v>
       </c>
       <c r="B45" s="41" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C45" s="41" t="s">
-        <v>483</v>
-      </c>
-      <c r="D45" s="72"/>
-      <c r="E45" s="43" t="s">
-        <v>299</v>
+        <v>478</v>
+      </c>
+      <c r="D45" s="64" t="s">
+        <v>675</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>255</v>
       </c>
       <c r="F45" s="41"/>
       <c r="G45" s="41">
         <v>1</v>
       </c>
       <c r="H45" s="41">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I45" s="41" t="s">
         <v>9</v>
@@ -13624,125 +14021,131 @@
         <v>18</v>
       </c>
       <c r="L45" s="40" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="387.75">
       <c r="A46" s="39" t="s">
         <v>192</v>
       </c>
       <c r="B46" s="41" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C46" s="41" t="s">
-        <v>484</v>
-      </c>
-      <c r="D46" s="72"/>
-      <c r="E46" s="41" t="s">
-        <v>259</v>
+        <v>479</v>
+      </c>
+      <c r="D46" s="64" t="s">
+        <v>692</v>
+      </c>
+      <c r="E46" s="64" t="s">
+        <v>298</v>
       </c>
       <c r="F46" s="41"/>
       <c r="G46" s="41">
         <v>1</v>
       </c>
       <c r="H46" s="41">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I46" s="41" t="s">
         <v>9</v>
       </c>
       <c r="J46" s="41"/>
-      <c r="K46" s="39"/>
+      <c r="K46" s="39" t="s">
+        <v>18</v>
+      </c>
       <c r="L46" s="40" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="52.9">
       <c r="A47" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="G47" s="9">
-        <v>0</v>
-      </c>
-      <c r="H47" s="9">
-        <v>1</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="11">
+      <c r="B47" s="41" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" s="41" t="s">
+        <v>480</v>
+      </c>
+      <c r="D47" s="64" t="s">
+        <v>689</v>
+      </c>
+      <c r="E47" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41">
+        <v>1</v>
+      </c>
+      <c r="H47" s="41">
         <v>3</v>
       </c>
-      <c r="K47" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>284</v>
+      <c r="I47" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="41"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="40" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="B48" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>486</v>
-      </c>
-      <c r="D48" s="72"/>
-      <c r="E48" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41">
-        <v>1</v>
-      </c>
-      <c r="H48" s="41">
-        <v>2</v>
-      </c>
-      <c r="I48" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="J48" s="41"/>
-      <c r="K48" s="39" t="s">
+      <c r="B48" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" s="9">
+        <v>1</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="11">
+        <v>3</v>
+      </c>
+      <c r="K48" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="L48" s="40" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="L48" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="70.5">
       <c r="A49" s="39" t="s">
         <v>192</v>
       </c>
       <c r="B49" s="41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C49" s="41" t="s">
-        <v>487</v>
-      </c>
-      <c r="D49" s="72"/>
-      <c r="E49" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="F49" s="43"/>
-      <c r="G49" s="43">
-        <v>1</v>
-      </c>
-      <c r="H49" s="43">
-        <v>17</v>
+        <v>482</v>
+      </c>
+      <c r="D49" s="64" t="s">
+        <v>675</v>
+      </c>
+      <c r="E49" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41">
+        <v>1</v>
+      </c>
+      <c r="H49" s="41">
+        <v>2</v>
       </c>
       <c r="I49" s="41" t="s">
         <v>9</v>
@@ -13752,125 +14155,131 @@
         <v>18</v>
       </c>
       <c r="L49" s="40" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="387.75">
       <c r="A50" s="39" t="s">
         <v>192</v>
       </c>
       <c r="B50" s="41" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C50" s="41" t="s">
-        <v>488</v>
-      </c>
-      <c r="D50" s="72"/>
-      <c r="E50" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41">
-        <v>1</v>
-      </c>
-      <c r="H50" s="41">
-        <v>3</v>
+        <v>483</v>
+      </c>
+      <c r="D50" s="64" t="s">
+        <v>692</v>
+      </c>
+      <c r="E50" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43">
+        <v>1</v>
+      </c>
+      <c r="H50" s="43">
+        <v>17</v>
       </c>
       <c r="I50" s="41" t="s">
         <v>9</v>
       </c>
       <c r="J50" s="41"/>
-      <c r="K50" s="39"/>
+      <c r="K50" s="39" t="s">
+        <v>18</v>
+      </c>
       <c r="L50" s="40" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="52.9">
       <c r="A51" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="G51" s="9">
-        <v>0</v>
-      </c>
-      <c r="H51" s="9">
-        <v>1</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J51" s="11">
+      <c r="B51" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>484</v>
+      </c>
+      <c r="D51" s="64" t="s">
+        <v>689</v>
+      </c>
+      <c r="E51" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41">
+        <v>1</v>
+      </c>
+      <c r="H51" s="41">
         <v>3</v>
       </c>
-      <c r="K51" s="9" t="s">
-        <v>18</v>
-      </c>
+      <c r="I51" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="41"/>
+      <c r="K51" s="39"/>
       <c r="L51" s="40" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="B52" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="C52" s="41" t="s">
-        <v>490</v>
-      </c>
-      <c r="D52" s="72"/>
-      <c r="E52" s="41" t="s">
-        <v>256</v>
-      </c>
-      <c r="F52" s="41"/>
-      <c r="G52" s="41">
-        <v>1</v>
-      </c>
-      <c r="H52" s="41">
-        <v>2</v>
-      </c>
-      <c r="I52" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="J52" s="41"/>
-      <c r="K52" s="39" t="s">
+      <c r="B52" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9">
+        <v>1</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="11">
+        <v>3</v>
+      </c>
+      <c r="K52" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L52" s="40" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="70.5">
       <c r="A53" s="39" t="s">
         <v>192</v>
       </c>
       <c r="B53" s="41" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>491</v>
-      </c>
-      <c r="D53" s="72"/>
-      <c r="E53" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43">
-        <v>1</v>
-      </c>
-      <c r="H53" s="43">
-        <v>17</v>
+        <v>486</v>
+      </c>
+      <c r="D53" s="64" t="s">
+        <v>675</v>
+      </c>
+      <c r="E53" s="64" t="s">
+        <v>255</v>
+      </c>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41">
+        <v>1</v>
+      </c>
+      <c r="H53" s="41">
+        <v>2</v>
       </c>
       <c r="I53" s="41" t="s">
         <v>9</v>
@@ -13880,86 +14289,90 @@
         <v>18</v>
       </c>
       <c r="L53" s="40" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="387.75">
       <c r="A54" s="39" t="s">
         <v>192</v>
       </c>
       <c r="B54" s="41" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>492</v>
-      </c>
-      <c r="D54" s="72"/>
-      <c r="E54" s="41" t="s">
-        <v>259</v>
-      </c>
-      <c r="F54" s="41"/>
-      <c r="G54" s="41">
-        <v>1</v>
-      </c>
-      <c r="H54" s="41">
-        <v>3</v>
+        <v>487</v>
+      </c>
+      <c r="D54" s="64" t="s">
+        <v>692</v>
+      </c>
+      <c r="E54" s="64" t="s">
+        <v>298</v>
+      </c>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43">
+        <v>1</v>
+      </c>
+      <c r="H54" s="43">
+        <v>17</v>
       </c>
       <c r="I54" s="41" t="s">
         <v>9</v>
       </c>
       <c r="J54" s="41"/>
-      <c r="K54" s="39"/>
+      <c r="K54" s="39" t="s">
+        <v>18</v>
+      </c>
       <c r="L54" s="40" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="18.75">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="52.9">
       <c r="A55" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="G55" s="9">
-        <v>0</v>
-      </c>
-      <c r="H55" s="9">
-        <v>10</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="J55" s="11">
-        <v>2</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="L55" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="B55" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="C55" s="41" t="s">
+        <v>488</v>
+      </c>
+      <c r="D55" s="64" t="s">
+        <v>689</v>
+      </c>
+      <c r="E55" s="64" t="s">
+        <v>258</v>
+      </c>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41">
+        <v>1</v>
+      </c>
+      <c r="H55" s="41">
+        <v>3</v>
+      </c>
+      <c r="I55" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="41"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="35.25">
       <c r="A56" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
-        <v>290</v>
+        <v>386</v>
+      </c>
+      <c r="D56" s="74" t="s">
+        <v>673</v>
+      </c>
+      <c r="E56" s="65" t="s">
+        <v>289</v>
       </c>
       <c r="F56" s="41"/>
       <c r="G56" s="41">
@@ -13985,7 +14398,7 @@
         <v>49</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
@@ -14006,7 +14419,7 @@
         <v>19</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="58" spans="1:12" s="2" customFormat="1">
@@ -14017,7 +14430,7 @@
         <v>50</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
@@ -14038,7 +14451,7 @@
         <v>19</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="2" customFormat="1">
@@ -14049,7 +14462,7 @@
         <v>51</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -14070,7 +14483,7 @@
         <v>19</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -14081,7 +14494,7 @@
         <v>43</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -14097,7 +14510,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" ht="246.75">
       <c r="A61" s="39" t="s">
         <v>194</v>
       </c>
@@ -14105,11 +14518,13 @@
         <v>113</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9" t="s">
-        <v>191</v>
+        <v>391</v>
+      </c>
+      <c r="D61" s="65" t="s">
+        <v>693</v>
+      </c>
+      <c r="E61" s="65" t="s">
+        <v>670</v>
       </c>
       <c r="F61" s="9">
         <v>2</v>
@@ -14128,7 +14543,7 @@
         <v>18</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="18.75">
@@ -14139,7 +14554,7 @@
         <v>79</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D62" s="72"/>
       <c r="E62" s="41"/>
@@ -14171,7 +14586,7 @@
         <v>46</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
@@ -14197,19 +14612,21 @@
         <v>173</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" ht="35.25">
       <c r="A64" s="39" t="s">
         <v>194</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C64" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>290</v>
+        <v>394</v>
+      </c>
+      <c r="D64" s="74" t="s">
+        <v>673</v>
+      </c>
+      <c r="E64" s="65" t="s">
+        <v>289</v>
       </c>
       <c r="F64" s="41"/>
       <c r="G64" s="41">
@@ -14235,7 +14652,7 @@
         <v>49</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>396</v>
+        <v>563</v>
       </c>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
@@ -14256,7 +14673,7 @@
         <v>19</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="66" spans="1:12" s="2" customFormat="1">
@@ -14267,7 +14684,7 @@
         <v>50</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>397</v>
+        <v>564</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
@@ -14288,7 +14705,7 @@
         <v>19</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="2" customFormat="1">
@@ -14299,7 +14716,7 @@
         <v>51</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>398</v>
+        <v>565</v>
       </c>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
@@ -14320,22 +14737,24 @@
         <v>19</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" s="2" customFormat="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="2" customFormat="1" ht="35.25">
       <c r="A68" s="42" t="s">
+        <v>287</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B68" s="9" t="s">
-        <v>289</v>
-      </c>
       <c r="C68" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
-        <v>291</v>
+        <v>398</v>
+      </c>
+      <c r="D68" s="65" t="s">
+        <v>674</v>
+      </c>
+      <c r="E68" s="65" t="s">
+        <v>290</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9">
@@ -14349,10 +14768,10 @@
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="L68" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="L68" s="9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -14363,7 +14782,7 @@
         <v>117</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -14384,7 +14803,7 @@
         <v>120</v>
       </c>
       <c r="L69" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -14395,7 +14814,7 @@
         <v>20</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -14416,10 +14835,10 @@
         <v>122</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="246.75">
       <c r="A71" s="39" t="s">
         <v>183</v>
       </c>
@@ -14427,11 +14846,13 @@
         <v>184</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>191</v>
+        <v>401</v>
+      </c>
+      <c r="D71" s="65" t="s">
+        <v>693</v>
+      </c>
+      <c r="E71" s="65" t="s">
+        <v>670</v>
       </c>
       <c r="F71" s="9">
         <v>2</v>
@@ -14450,10 +14871,10 @@
         <v>18</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="246.75">
       <c r="A72" s="41" t="s">
         <v>183</v>
       </c>
@@ -14461,11 +14882,13 @@
         <v>185</v>
       </c>
       <c r="C72" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9" t="s">
-        <v>191</v>
+        <v>402</v>
+      </c>
+      <c r="D72" s="65" t="s">
+        <v>693</v>
+      </c>
+      <c r="E72" s="65" t="s">
+        <v>670</v>
       </c>
       <c r="F72" s="9">
         <v>2</v>
@@ -14484,18 +14907,18 @@
         <v>18</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B73" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C73" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>415</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -14511,19 +14934,21 @@
         <v>173</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" ht="246.75">
       <c r="A74" s="52" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
-        <v>191</v>
+        <v>415</v>
+      </c>
+      <c r="D74" s="65" t="s">
+        <v>693</v>
+      </c>
+      <c r="E74" s="65" t="s">
+        <v>670</v>
       </c>
       <c r="F74" s="9">
         <v>2</v>
@@ -14545,13 +14970,13 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C75" s="43" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D75" s="72"/>
       <c r="E75" s="43"/>
@@ -14575,13 +15000,13 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B76" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C76" s="43" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D76" s="72"/>
       <c r="E76" s="43"/>
@@ -14605,13 +15030,13 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="61" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B77" s="61" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C77" s="61" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="D77" s="72"/>
       <c r="E77" s="9"/>
@@ -14629,13 +15054,13 @@
     </row>
     <row r="78" spans="1:12" ht="18.75">
       <c r="A78" s="61" t="s">
+        <v>439</v>
+      </c>
+      <c r="B78" s="61" t="s">
         <v>440</v>
       </c>
-      <c r="B78" s="61" t="s">
-        <v>442</v>
-      </c>
       <c r="C78" s="61" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D78" s="72"/>
       <c r="E78" s="61"/>
@@ -14672,10 +15097,10 @@
   <dimension ref="A2:Q84"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C72" sqref="C72"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
@@ -14702,7 +15127,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>101</v>
@@ -14884,7 +15309,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D8" s="55"/>
       <c r="E8" s="55"/>
@@ -14907,7 +15332,7 @@
         <v>137</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D9" s="55" t="s">
         <v>186</v>
@@ -14943,7 +15368,7 @@
         <v>123</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>187</v>
@@ -14973,13 +15398,13 @@
         <v>182</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E11" s="9">
         <v>1</v>
@@ -14998,7 +15423,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="23" customFormat="1">
@@ -15006,13 +15431,13 @@
         <v>182</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>335</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
@@ -15031,7 +15456,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:17" s="23" customFormat="1">
@@ -15039,13 +15464,13 @@
         <v>182</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>337</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>338</v>
       </c>
       <c r="E13" s="9">
         <v>1</v>
@@ -15064,7 +15489,7 @@
         <v>18</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="23" customFormat="1">
@@ -15075,7 +15500,7 @@
         <v>113</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>191</v>
@@ -15097,7 +15522,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="23" customFormat="1" ht="18.75">
@@ -15108,7 +15533,7 @@
         <v>79</v>
       </c>
       <c r="C15" s="58" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D15" s="58"/>
       <c r="E15" s="58"/>
@@ -15136,13 +15561,13 @@
         <v>182</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>426</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>427</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -15168,7 +15593,7 @@
         <v>121</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -15188,7 +15613,7 @@
         <v>41</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="23" customFormat="1">
@@ -15196,13 +15621,13 @@
         <v>182</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D18" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="58">
@@ -15219,7 +15644,7 @@
         <v>18</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="23" customFormat="1">
@@ -15227,13 +15652,13 @@
         <v>182</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="58">
@@ -15250,7 +15675,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="23" customFormat="1">
@@ -15258,13 +15683,13 @@
         <v>182</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="58">
@@ -15281,7 +15706,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="23" customFormat="1">
@@ -15289,13 +15714,13 @@
         <v>182</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="58">
@@ -15312,7 +15737,7 @@
         <v>18</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="23" customFormat="1" ht="18.75">
@@ -15320,10 +15745,10 @@
         <v>182</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -15343,7 +15768,7 @@
         <v>41</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="23" customFormat="1" ht="18.75">
@@ -15351,10 +15776,10 @@
         <v>182</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -15374,18 +15799,18 @@
         <v>41</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="23" customFormat="1">
       <c r="A24" s="56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="13"/>
@@ -15405,21 +15830,21 @@
         <v>18</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="23" customFormat="1">
       <c r="A25" s="56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="58">
@@ -15434,21 +15859,21 @@
       <c r="I25" s="11"/>
       <c r="J25" s="10"/>
       <c r="K25" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="23" customFormat="1">
       <c r="A26" s="56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="58">
@@ -15463,21 +15888,21 @@
       <c r="I26" s="11"/>
       <c r="J26" s="10"/>
       <c r="K26" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="23" customFormat="1">
       <c r="A27" s="56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="58">
@@ -15492,21 +15917,21 @@
       <c r="I27" s="11"/>
       <c r="J27" s="10"/>
       <c r="K27" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="23" customFormat="1">
       <c r="A28" s="56" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="58">
@@ -15521,7 +15946,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="10"/>
       <c r="K28" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -15529,10 +15954,10 @@
         <v>182</v>
       </c>
       <c r="B29" s="55" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
@@ -15550,10 +15975,10 @@
         <v>182</v>
       </c>
       <c r="B30" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
@@ -15579,10 +16004,10 @@
         <v>182</v>
       </c>
       <c r="B31" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
@@ -15608,10 +16033,10 @@
         <v>182</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
@@ -15635,13 +16060,13 @@
         <v>182</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E33" s="58"/>
       <c r="F33" s="58">
@@ -15667,7 +16092,7 @@
         <v>49</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -15687,7 +16112,7 @@
         <v>19</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1">
@@ -15698,7 +16123,7 @@
         <v>50</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -15718,7 +16143,7 @@
         <v>19</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1">
@@ -15729,7 +16154,7 @@
         <v>51</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -15749,7 +16174,7 @@
         <v>19</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -15760,7 +16185,7 @@
         <v>43</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -15783,7 +16208,7 @@
         <v>113</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>191</v>
@@ -15805,7 +16230,7 @@
         <v>18</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="23" customFormat="1" ht="18.75">
@@ -15816,7 +16241,7 @@
         <v>79</v>
       </c>
       <c r="C39" s="58" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D39" s="58"/>
       <c r="E39" s="58"/>
@@ -15844,13 +16269,13 @@
         <v>192</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>429</v>
-      </c>
       <c r="D40" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E40" s="10">
         <v>1</v>
@@ -15873,13 +16298,13 @@
         <v>192</v>
       </c>
       <c r="B41" s="58" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" s="58" t="s">
+        <v>372</v>
+      </c>
+      <c r="D41" s="58" t="s">
         <v>271</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>373</v>
-      </c>
-      <c r="D41" s="58" t="s">
-        <v>272</v>
       </c>
       <c r="E41" s="58"/>
       <c r="F41" s="58">
@@ -15900,13 +16325,13 @@
         <v>192</v>
       </c>
       <c r="B42" s="58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" s="58" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D42" s="58" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E42" s="58"/>
       <c r="F42" s="58">
@@ -15923,7 +16348,7 @@
         <v>18</v>
       </c>
       <c r="K42" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -15934,7 +16359,7 @@
         <v>92</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
@@ -15956,7 +16381,7 @@
         <v>18</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -15967,7 +16392,7 @@
         <v>93</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
@@ -16000,7 +16425,7 @@
         <v>91</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
@@ -16022,7 +16447,7 @@
         <v>18</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:11" s="23" customFormat="1">
@@ -16030,13 +16455,13 @@
         <v>192</v>
       </c>
       <c r="B46" s="58" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C46" s="58" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D46" s="58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E46" s="58"/>
       <c r="F46" s="58">
@@ -16053,7 +16478,7 @@
         <v>18</v>
       </c>
       <c r="K46" s="57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="23" customFormat="1">
@@ -16061,13 +16486,13 @@
         <v>192</v>
       </c>
       <c r="B47" s="58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="58" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D47" s="61" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E47" s="58"/>
       <c r="F47" s="58">
@@ -16084,7 +16509,7 @@
         <v>18</v>
       </c>
       <c r="K47" s="57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="23" customFormat="1">
@@ -16092,13 +16517,13 @@
         <v>192</v>
       </c>
       <c r="B48" s="58" t="s">
+        <v>257</v>
+      </c>
+      <c r="C48" s="58" t="s">
+        <v>376</v>
+      </c>
+      <c r="D48" s="58" t="s">
         <v>258</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>377</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>259</v>
       </c>
       <c r="E48" s="58"/>
       <c r="F48" s="58">
@@ -16113,7 +16538,7 @@
       <c r="I48" s="58"/>
       <c r="J48" s="56"/>
       <c r="K48" s="57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="23" customFormat="1">
@@ -16121,10 +16546,10 @@
         <v>192</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
@@ -16146,7 +16571,7 @@
         <v>18</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="23" customFormat="1">
@@ -16154,13 +16579,13 @@
         <v>192</v>
       </c>
       <c r="B50" s="58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C50" s="58" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D50" s="58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E50" s="58"/>
       <c r="F50" s="58">
@@ -16177,7 +16602,7 @@
         <v>18</v>
       </c>
       <c r="K50" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="23" customFormat="1">
@@ -16185,13 +16610,13 @@
         <v>192</v>
       </c>
       <c r="B51" s="58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C51" s="58" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D51" s="58" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E51" s="58"/>
       <c r="F51" s="58">
@@ -16208,7 +16633,7 @@
         <v>18</v>
       </c>
       <c r="K51" s="57" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="23" customFormat="1">
@@ -16216,13 +16641,13 @@
         <v>192</v>
       </c>
       <c r="B52" s="58" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C52" s="58" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D52" s="58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E52" s="58"/>
       <c r="F52" s="58">
@@ -16237,7 +16662,7 @@
       <c r="I52" s="58"/>
       <c r="J52" s="56"/>
       <c r="K52" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="23" customFormat="1">
@@ -16245,10 +16670,10 @@
         <v>192</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
@@ -16270,7 +16695,7 @@
         <v>18</v>
       </c>
       <c r="K53" s="57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="23" customFormat="1">
@@ -16278,13 +16703,13 @@
         <v>192</v>
       </c>
       <c r="B54" s="58" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C54" s="58" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D54" s="58" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E54" s="58"/>
       <c r="F54" s="58">
@@ -16301,7 +16726,7 @@
         <v>18</v>
       </c>
       <c r="K54" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="23" customFormat="1">
@@ -16309,13 +16734,13 @@
         <v>192</v>
       </c>
       <c r="B55" s="58" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C55" s="58" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D55" s="58" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E55" s="58"/>
       <c r="F55" s="58">
@@ -16332,7 +16757,7 @@
         <v>18</v>
       </c>
       <c r="K55" s="57" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="23" customFormat="1">
@@ -16340,13 +16765,13 @@
         <v>192</v>
       </c>
       <c r="B56" s="58" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C56" s="58" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E56" s="58"/>
       <c r="F56" s="58">
@@ -16361,7 +16786,7 @@
       <c r="I56" s="58"/>
       <c r="J56" s="56"/>
       <c r="K56" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="18.75">
@@ -16369,10 +16794,10 @@
         <v>192</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
@@ -16399,16 +16824,16 @@
     </row>
     <row r="58" spans="1:11" s="23" customFormat="1">
       <c r="A58" s="56" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E58" s="58"/>
       <c r="F58" s="58">
@@ -16434,7 +16859,7 @@
         <v>49</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -16454,7 +16879,7 @@
         <v>19</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="2" customFormat="1">
@@ -16465,7 +16890,7 @@
         <v>50</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -16485,7 +16910,7 @@
         <v>19</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="2" customFormat="1">
@@ -16496,7 +16921,7 @@
         <v>51</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -16516,7 +16941,7 @@
         <v>19</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="23" customFormat="1">
@@ -16527,7 +16952,7 @@
         <v>43</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -16550,7 +16975,7 @@
         <v>113</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>191</v>
@@ -16572,7 +16997,7 @@
         <v>18</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="23" customFormat="1" ht="18.75">
@@ -16583,7 +17008,7 @@
         <v>79</v>
       </c>
       <c r="C64" s="58" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D64" s="58"/>
       <c r="E64" s="58"/>
@@ -16611,13 +17036,13 @@
         <v>194</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E65" s="10">
         <v>1</v>
@@ -16643,7 +17068,7 @@
         <v>46</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
@@ -16673,13 +17098,13 @@
         <v>194</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E67" s="58"/>
       <c r="F67" s="58">
@@ -16705,7 +17130,7 @@
         <v>49</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -16725,7 +17150,7 @@
         <v>19</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="2" customFormat="1">
@@ -16736,7 +17161,7 @@
         <v>50</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -16756,7 +17181,7 @@
         <v>19</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="2" customFormat="1">
@@ -16767,7 +17192,7 @@
         <v>51</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -16787,21 +17212,21 @@
         <v>19</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="2" customFormat="1">
       <c r="A71" s="56" t="s">
+        <v>287</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>289</v>
-      </c>
       <c r="C71" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9">
@@ -16818,21 +17243,21 @@
         <v>18</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="2" customFormat="1">
       <c r="A72" s="59" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E72" s="10">
         <v>1</v>
@@ -16858,7 +17283,7 @@
         <v>117</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -16878,7 +17303,7 @@
         <v>120</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="23" customFormat="1">
@@ -16889,7 +17314,7 @@
         <v>20</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -16909,7 +17334,7 @@
         <v>122</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:11" s="23" customFormat="1">
@@ -16920,7 +17345,7 @@
         <v>184</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>191</v>
@@ -16942,7 +17367,7 @@
         <v>18</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="23" customFormat="1">
@@ -16953,7 +17378,7 @@
         <v>185</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>191</v>
@@ -16975,18 +17400,18 @@
         <v>18</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:11" s="23" customFormat="1">
       <c r="A77" s="58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B77" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>415</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -17003,13 +17428,13 @@
     </row>
     <row r="78" spans="1:11" s="23" customFormat="1">
       <c r="A78" s="58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>191</v>
@@ -17034,16 +17459,16 @@
     </row>
     <row r="79" spans="1:11" s="23" customFormat="1">
       <c r="A79" s="60" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E79" s="10">
         <v>1</v>
@@ -17063,13 +17488,13 @@
     </row>
     <row r="80" spans="1:11" s="23" customFormat="1">
       <c r="A80" s="58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C80" s="58" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D80" s="58"/>
       <c r="E80" s="58"/>
@@ -17092,13 +17517,13 @@
     </row>
     <row r="81" spans="1:11" s="23" customFormat="1">
       <c r="A81" s="58" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C81" s="58" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D81" s="58"/>
       <c r="E81" s="58"/>
@@ -17121,13 +17546,13 @@
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="62" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B82" s="62" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C82" s="62" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -17144,13 +17569,13 @@
     </row>
     <row r="83" spans="1:11" ht="18.75">
       <c r="A83" s="62" t="s">
+        <v>439</v>
+      </c>
+      <c r="B83" s="62" t="s">
         <v>440</v>
       </c>
-      <c r="B83" s="62" t="s">
-        <v>442</v>
-      </c>
       <c r="C83" s="62" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D83" s="62"/>
       <c r="E83" s="62"/>
@@ -17175,16 +17600,16 @@
     </row>
     <row r="84" spans="1:11">
       <c r="A84" s="62" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E84" s="9">
         <v>1</v>
@@ -17215,7 +17640,7 @@
   <dimension ref="A2:Q94"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A85" sqref="A85:A94"/>
@@ -17245,7 +17670,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D2" s="72" t="s">
         <v>101</v>
@@ -17427,7 +17852,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D8" s="72"/>
       <c r="E8" s="72"/>
@@ -17450,7 +17875,7 @@
         <v>137</v>
       </c>
       <c r="C9" s="72" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D9" s="72" t="s">
         <v>186</v>
@@ -17486,7 +17911,7 @@
         <v>123</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>187</v>
@@ -17516,13 +17941,13 @@
         <v>182</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E11" s="9">
         <v>1</v>
@@ -17541,7 +17966,7 @@
         <v>18</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -17549,13 +17974,13 @@
         <v>182</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>334</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>335</v>
       </c>
       <c r="E12" s="9">
         <v>1</v>
@@ -17574,7 +17999,7 @@
         <v>18</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -17582,13 +18007,13 @@
         <v>182</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>337</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>338</v>
       </c>
       <c r="E13" s="9">
         <v>1</v>
@@ -17607,7 +18032,7 @@
         <v>18</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -17618,7 +18043,7 @@
         <v>113</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>191</v>
@@ -17640,7 +18065,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75">
@@ -17651,7 +18076,7 @@
         <v>79</v>
       </c>
       <c r="C15" s="72" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D15" s="72"/>
       <c r="E15" s="72"/>
@@ -17679,13 +18104,13 @@
         <v>182</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>426</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>427</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -17711,7 +18136,7 @@
         <v>121</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
@@ -17731,7 +18156,7 @@
         <v>41</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -17739,13 +18164,13 @@
         <v>182</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D18" s="72" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="72">
@@ -17762,7 +18187,7 @@
         <v>18</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -17770,13 +18195,13 @@
         <v>182</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="72">
@@ -17793,7 +18218,7 @@
         <v>18</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -17801,13 +18226,13 @@
         <v>182</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E20" s="13"/>
       <c r="F20" s="72">
@@ -17824,7 +18249,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -17832,13 +18257,13 @@
         <v>182</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E21" s="13"/>
       <c r="F21" s="72">
@@ -17855,7 +18280,7 @@
         <v>18</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75">
@@ -17863,10 +18288,10 @@
         <v>182</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -17886,7 +18311,7 @@
         <v>41</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="18.75">
@@ -17894,10 +18319,10 @@
         <v>182</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
@@ -17917,18 +18342,18 @@
         <v>41</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="13"/>
@@ -17948,21 +18373,21 @@
         <v>18</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E25" s="13"/>
       <c r="F25" s="72">
@@ -17977,21 +18402,21 @@
       <c r="I25" s="11"/>
       <c r="J25" s="10"/>
       <c r="K25" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E26" s="13"/>
       <c r="F26" s="72">
@@ -18006,21 +18431,21 @@
       <c r="I26" s="11"/>
       <c r="J26" s="10"/>
       <c r="K26" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="72">
@@ -18035,21 +18460,21 @@
       <c r="I27" s="11"/>
       <c r="J27" s="10"/>
       <c r="K27" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E28" s="13"/>
       <c r="F28" s="72">
@@ -18064,7 +18489,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="10"/>
       <c r="K28" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -18072,10 +18497,10 @@
         <v>182</v>
       </c>
       <c r="B29" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="72" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D29" s="72"/>
       <c r="E29" s="72"/>
@@ -18093,10 +18518,10 @@
         <v>182</v>
       </c>
       <c r="B30" s="72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="72" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D30" s="72"/>
       <c r="E30" s="72"/>
@@ -18122,10 +18547,10 @@
         <v>182</v>
       </c>
       <c r="B31" s="72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C31" s="72" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D31" s="72"/>
       <c r="E31" s="72"/>
@@ -18151,10 +18576,10 @@
         <v>182</v>
       </c>
       <c r="B32" s="72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C32" s="72" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D32" s="72"/>
       <c r="E32" s="72"/>
@@ -18178,13 +18603,13 @@
         <v>182</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E33" s="72"/>
       <c r="F33" s="72">
@@ -18210,7 +18635,7 @@
         <v>49</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
@@ -18230,7 +18655,7 @@
         <v>19</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1">
@@ -18241,7 +18666,7 @@
         <v>50</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
@@ -18261,7 +18686,7 @@
         <v>19</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1">
@@ -18272,7 +18697,7 @@
         <v>51</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
@@ -18292,7 +18717,7 @@
         <v>19</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -18303,7 +18728,7 @@
         <v>43</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
@@ -18326,7 +18751,7 @@
         <v>113</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>191</v>
@@ -18348,7 +18773,7 @@
         <v>18</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="18.75">
@@ -18359,7 +18784,7 @@
         <v>79</v>
       </c>
       <c r="C39" s="72" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D39" s="72"/>
       <c r="E39" s="72"/>
@@ -18387,13 +18812,13 @@
         <v>192</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C40" s="10" t="s">
-        <v>429</v>
-      </c>
       <c r="D40" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E40" s="10">
         <v>1</v>
@@ -18416,13 +18841,13 @@
         <v>192</v>
       </c>
       <c r="B41" s="72" t="s">
+        <v>270</v>
+      </c>
+      <c r="C41" s="72" t="s">
+        <v>372</v>
+      </c>
+      <c r="D41" s="72" t="s">
         <v>271</v>
-      </c>
-      <c r="C41" s="72" t="s">
-        <v>373</v>
-      </c>
-      <c r="D41" s="72" t="s">
-        <v>272</v>
       </c>
       <c r="E41" s="72"/>
       <c r="F41" s="72">
@@ -18443,13 +18868,13 @@
         <v>192</v>
       </c>
       <c r="B42" s="72" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C42" s="72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D42" s="72" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E42" s="72"/>
       <c r="F42" s="72">
@@ -18466,7 +18891,7 @@
         <v>18</v>
       </c>
       <c r="K42" s="57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -18477,7 +18902,7 @@
         <v>92</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
@@ -18499,7 +18924,7 @@
         <v>18</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -18510,7 +18935,7 @@
         <v>93</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="9">
@@ -18543,7 +18968,7 @@
         <v>91</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
@@ -18565,7 +18990,7 @@
         <v>18</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -18573,13 +18998,13 @@
         <v>192</v>
       </c>
       <c r="B46" s="72" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C46" s="72" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D46" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E46" s="72"/>
       <c r="F46" s="72">
@@ -18596,7 +19021,7 @@
         <v>18</v>
       </c>
       <c r="K46" s="57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -18604,13 +19029,13 @@
         <v>192</v>
       </c>
       <c r="B47" s="72" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C47" s="72" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D47" s="72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E47" s="72"/>
       <c r="F47" s="72">
@@ -18627,7 +19052,7 @@
         <v>18</v>
       </c>
       <c r="K47" s="57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -18635,13 +19060,13 @@
         <v>192</v>
       </c>
       <c r="B48" s="72" t="s">
+        <v>257</v>
+      </c>
+      <c r="C48" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="D48" s="72" t="s">
         <v>258</v>
-      </c>
-      <c r="C48" s="72" t="s">
-        <v>377</v>
-      </c>
-      <c r="D48" s="72" t="s">
-        <v>259</v>
       </c>
       <c r="E48" s="72"/>
       <c r="F48" s="72">
@@ -18656,7 +19081,7 @@
       <c r="I48" s="72"/>
       <c r="J48" s="66"/>
       <c r="K48" s="57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -18664,10 +19089,10 @@
         <v>192</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
@@ -18689,7 +19114,7 @@
         <v>18</v>
       </c>
       <c r="K49" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -18697,13 +19122,13 @@
         <v>192</v>
       </c>
       <c r="B50" s="72" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C50" s="72" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D50" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E50" s="72"/>
       <c r="F50" s="72">
@@ -18720,7 +19145,7 @@
         <v>18</v>
       </c>
       <c r="K50" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -18728,13 +19153,13 @@
         <v>192</v>
       </c>
       <c r="B51" s="72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C51" s="72" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D51" s="72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E51" s="72"/>
       <c r="F51" s="72">
@@ -18751,7 +19176,7 @@
         <v>18</v>
       </c>
       <c r="K51" s="57" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -18759,13 +19184,13 @@
         <v>192</v>
       </c>
       <c r="B52" s="72" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C52" s="72" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D52" s="72" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E52" s="72"/>
       <c r="F52" s="72">
@@ -18780,7 +19205,7 @@
       <c r="I52" s="72"/>
       <c r="J52" s="66"/>
       <c r="K52" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -18788,10 +19213,10 @@
         <v>192</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D53" s="9"/>
       <c r="E53" s="9">
@@ -18813,7 +19238,7 @@
         <v>18</v>
       </c>
       <c r="K53" s="57" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -18821,13 +19246,13 @@
         <v>192</v>
       </c>
       <c r="B54" s="72" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C54" s="72" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D54" s="72" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E54" s="72"/>
       <c r="F54" s="72">
@@ -18844,7 +19269,7 @@
         <v>18</v>
       </c>
       <c r="K54" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -18852,13 +19277,13 @@
         <v>192</v>
       </c>
       <c r="B55" s="72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C55" s="72" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D55" s="72" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E55" s="72"/>
       <c r="F55" s="72">
@@ -18875,7 +19300,7 @@
         <v>18</v>
       </c>
       <c r="K55" s="57" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -18883,13 +19308,13 @@
         <v>192</v>
       </c>
       <c r="B56" s="72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C56" s="72" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D56" s="72" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E56" s="72"/>
       <c r="F56" s="72">
@@ -18904,7 +19329,7 @@
       <c r="I56" s="72"/>
       <c r="J56" s="66"/>
       <c r="K56" s="57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="18.75">
@@ -18912,10 +19337,10 @@
         <v>192</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
@@ -18942,16 +19367,16 @@
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E58" s="72"/>
       <c r="F58" s="72">
@@ -18977,7 +19402,7 @@
         <v>49</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
@@ -18997,7 +19422,7 @@
         <v>19</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60" spans="1:11" s="2" customFormat="1">
@@ -19008,7 +19433,7 @@
         <v>50</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
@@ -19028,7 +19453,7 @@
         <v>19</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61" spans="1:11" s="2" customFormat="1">
@@ -19039,7 +19464,7 @@
         <v>51</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
@@ -19059,7 +19484,7 @@
         <v>19</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -19070,7 +19495,7 @@
         <v>43</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
@@ -19093,7 +19518,7 @@
         <v>113</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>191</v>
@@ -19115,7 +19540,7 @@
         <v>18</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="18.75">
@@ -19126,7 +19551,7 @@
         <v>79</v>
       </c>
       <c r="C64" s="72" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D64" s="72"/>
       <c r="E64" s="72"/>
@@ -19154,13 +19579,13 @@
         <v>194</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E65" s="10">
         <v>1</v>
@@ -19186,7 +19611,7 @@
         <v>46</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D66" s="9"/>
       <c r="E66" s="9">
@@ -19216,13 +19641,13 @@
         <v>194</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E67" s="72"/>
       <c r="F67" s="72">
@@ -19248,7 +19673,7 @@
         <v>49</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
@@ -19268,7 +19693,7 @@
         <v>19</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="2" customFormat="1">
@@ -19279,7 +19704,7 @@
         <v>50</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
@@ -19299,7 +19724,7 @@
         <v>19</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="2" customFormat="1">
@@ -19310,7 +19735,7 @@
         <v>51</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
@@ -19330,21 +19755,21 @@
         <v>19</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="2" customFormat="1">
       <c r="A71" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B71" s="9" t="s">
-        <v>289</v>
-      </c>
       <c r="C71" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9">
@@ -19361,21 +19786,21 @@
         <v>18</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="72" spans="1:11" s="2" customFormat="1">
       <c r="A72" s="72" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E72" s="10">
         <v>1</v>
@@ -19401,7 +19826,7 @@
         <v>117</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -19421,7 +19846,7 @@
         <v>120</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -19432,7 +19857,7 @@
         <v>20</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
@@ -19452,7 +19877,7 @@
         <v>122</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -19463,7 +19888,7 @@
         <v>184</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>191</v>
@@ -19485,7 +19910,7 @@
         <v>18</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -19496,7 +19921,7 @@
         <v>185</v>
       </c>
       <c r="C76" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>191</v>
@@ -19518,18 +19943,18 @@
         <v>18</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B77" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="C77" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>415</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
@@ -19546,13 +19971,13 @@
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B78" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C78" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>191</v>
@@ -19577,16 +20002,16 @@
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E79" s="10">
         <v>1</v>
@@ -19606,13 +20031,13 @@
     </row>
     <row r="80" spans="1:11">
       <c r="A80" s="72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C80" s="72" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D80" s="72"/>
       <c r="E80" s="72"/>
@@ -19635,13 +20060,13 @@
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="72" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C81" s="72" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D81" s="72"/>
       <c r="E81" s="72"/>
@@ -19664,13 +20089,13 @@
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="72" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B82" s="72" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C82" s="72" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
@@ -19687,13 +20112,13 @@
     </row>
     <row r="83" spans="1:17" ht="18.75">
       <c r="A83" s="72" t="s">
+        <v>439</v>
+      </c>
+      <c r="B83" s="72" t="s">
         <v>440</v>
       </c>
-      <c r="B83" s="72" t="s">
-        <v>442</v>
-      </c>
       <c r="C83" s="72" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D83" s="72"/>
       <c r="E83" s="72"/>
@@ -19718,16 +20143,16 @@
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="72" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C84" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E84" s="9">
         <v>1</v>
@@ -19747,13 +20172,13 @@
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="72" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B85" s="72" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C85" s="72" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="D85" s="72"/>
       <c r="E85" s="72"/>
@@ -19770,16 +20195,16 @@
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="72" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B86" s="72" t="s">
         <v>137</v>
       </c>
       <c r="C86" s="72" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E86" s="72"/>
       <c r="F86" s="72">
@@ -19806,16 +20231,16 @@
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="72" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E87" s="9">
         <v>2</v>
@@ -19834,18 +20259,18 @@
         <v>18</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="18.75">
       <c r="A88" s="72" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B88" s="72" t="s">
         <v>79</v>
       </c>
       <c r="C88" s="72" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D88" s="72"/>
       <c r="E88" s="72"/>
@@ -19870,16 +20295,16 @@
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="72" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9">
@@ -19897,16 +20322,16 @@
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="72" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E90" s="9"/>
       <c r="F90" s="9">
@@ -19924,13 +20349,13 @@
     </row>
     <row r="91" spans="1:17">
       <c r="A91" s="72" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B91" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C91" s="72" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="D91" s="72"/>
       <c r="E91" s="72"/>
@@ -19945,13 +20370,13 @@
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="72" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B92" s="72" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C92" s="72" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D92" s="72"/>
       <c r="E92" s="72"/>
@@ -19974,13 +20399,13 @@
     </row>
     <row r="93" spans="1:17">
       <c r="A93" s="72" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B93" s="72" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C93" s="72" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="D93" s="72"/>
       <c r="E93" s="72"/>
@@ -20003,13 +20428,13 @@
     </row>
     <row r="94" spans="1:17">
       <c r="A94" s="72" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="B94" s="72" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C94" s="72" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="D94" s="72"/>
       <c r="E94" s="72"/>
@@ -20044,7 +20469,7 @@
       <pane xSplit="4" ySplit="2" topLeftCell="E33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A56" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>

--- a/入力情報定義表.xlsx
+++ b/入力情報定義表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\serikawa\Documents\e7_inputdataconvert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE83161-8112-4718-9B26-B992ADE31A37}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AA3C29-9646-46C3-AF9B-5309E1EE160E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8333" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20520" windowHeight="8333" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="11" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="熱負荷計算csv" sheetId="12" r:id="rId3"/>
     <sheet name="LV1" sheetId="4" r:id="rId4"/>
     <sheet name="LV2" sheetId="5" r:id="rId5"/>
-    <sheet name="LV3" sheetId="6" r:id="rId6"/>
+    <sheet name="LV3" sheetId="13" r:id="rId6"/>
     <sheet name="LV4" sheetId="7" r:id="rId7"/>
     <sheet name="LV5" sheetId="8" r:id="rId8"/>
   </sheets>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3011" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="698">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -6502,6 +6502,16 @@
       <t>トウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Walls[i] Space</t>
+  </si>
+  <si>
+    <t>1:Main
+2:Other
+3:Nonliving
+4:Underfloor</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -6628,7 +6638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6771,40 +6781,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8208,40 +8191,40 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="A2" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="67" t="s">
+      <c r="A2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="58" t="s">
         <v>418</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="H2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="67" t="s">
+      <c r="I2" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="67" t="s">
+      <c r="J2" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="63" t="s">
         <v>645</v>
       </c>
     </row>
@@ -8249,60 +8232,60 @@
       <c r="A3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="58" t="s">
         <v>525</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58">
         <v>900</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="58">
         <v>300</v>
       </c>
-      <c r="G3" s="67">
+      <c r="G3" s="58">
         <v>3600</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67" t="s">
+      <c r="I3" s="58"/>
+      <c r="J3" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="67"/>
+      <c r="K3" s="58"/>
       <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="67" t="s">
+      <c r="C4" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="58">
         <v>6</v>
       </c>
-      <c r="F4" s="67">
-        <v>1</v>
-      </c>
-      <c r="G4" s="67">
+      <c r="F4" s="58">
+        <v>1</v>
+      </c>
+      <c r="G4" s="58">
         <v>8</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
       <c r="L4" s="22" t="s">
         <v>646</v>
       </c>
@@ -8311,275 +8294,275 @@
       <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="58" t="s">
         <v>532</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67">
+      <c r="D5" s="58"/>
+      <c r="E5" s="58">
         <v>34.659999999999997</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="58">
         <v>-90</v>
       </c>
-      <c r="G5" s="67">
+      <c r="G5" s="58">
         <v>90</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="67" t="s">
+      <c r="J5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="67"/>
+      <c r="K5" s="58"/>
       <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="55" t="s">
         <v>533</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67">
+      <c r="D6" s="58"/>
+      <c r="E6" s="58">
         <v>133.91999999999999</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="58">
         <v>-180</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="58">
         <v>180</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="67"/>
+      <c r="K6" s="58"/>
       <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="67" t="s">
+      <c r="B7" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="58" t="s">
         <v>534</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58">
         <v>135</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="58">
         <v>-180</v>
       </c>
-      <c r="G7" s="67">
+      <c r="G7" s="58">
         <v>180</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="67"/>
+      <c r="K7" s="58"/>
       <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="58" t="s">
         <v>494</v>
       </c>
-      <c r="C8" s="67" t="s">
+      <c r="C8" s="58" t="s">
         <v>535</v>
       </c>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67">
+      <c r="D8" s="58"/>
+      <c r="E8" s="58">
         <v>20</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67" t="s">
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58" t="s">
         <v>22</v>
       </c>
       <c r="I8" s="1"/>
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="58" t="s">
         <v>495</v>
       </c>
-      <c r="K8" s="67"/>
+      <c r="K8" s="58"/>
       <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="58" t="s">
         <v>496</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="58" t="s">
         <v>536</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67">
-        <v>1</v>
-      </c>
-      <c r="F9" s="67">
-        <v>1</v>
-      </c>
-      <c r="G9" s="67">
+      <c r="D9" s="58"/>
+      <c r="E9" s="58">
+        <v>1</v>
+      </c>
+      <c r="F9" s="58">
+        <v>1</v>
+      </c>
+      <c r="G9" s="58">
         <v>12</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="58" t="s">
         <v>22</v>
       </c>
       <c r="I9" s="1"/>
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="58" t="s">
         <v>498</v>
       </c>
-      <c r="K9" s="67"/>
+      <c r="K9" s="58"/>
       <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="58" t="s">
         <v>497</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="58" t="s">
         <v>537</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67">
-        <v>1</v>
-      </c>
-      <c r="F10" s="67">
-        <v>1</v>
-      </c>
-      <c r="G10" s="67">
+      <c r="D10" s="58"/>
+      <c r="E10" s="58">
+        <v>1</v>
+      </c>
+      <c r="F10" s="58">
+        <v>1</v>
+      </c>
+      <c r="G10" s="58">
         <v>31</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="58" t="s">
         <v>22</v>
       </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="67" t="s">
+      <c r="J10" s="58" t="s">
         <v>495</v>
       </c>
-      <c r="K10" s="67"/>
+      <c r="K10" s="58"/>
       <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="67" t="s">
+      <c r="B11" s="58" t="s">
         <v>499</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="58" t="s">
         <v>538</v>
       </c>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67">
+      <c r="D11" s="58"/>
+      <c r="E11" s="58">
         <v>12</v>
       </c>
-      <c r="F11" s="67">
-        <v>1</v>
-      </c>
-      <c r="G11" s="67">
+      <c r="F11" s="58">
+        <v>1</v>
+      </c>
+      <c r="G11" s="58">
         <v>12</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H11" s="58" t="s">
         <v>22</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="67" t="s">
+      <c r="J11" s="58" t="s">
         <v>498</v>
       </c>
-      <c r="K11" s="67"/>
+      <c r="K11" s="58"/>
       <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="58" t="s">
         <v>500</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="58" t="s">
         <v>539</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67">
+      <c r="D12" s="58"/>
+      <c r="E12" s="58">
         <v>31</v>
       </c>
-      <c r="F12" s="67">
-        <v>1</v>
-      </c>
-      <c r="G12" s="67">
+      <c r="F12" s="58">
+        <v>1</v>
+      </c>
+      <c r="G12" s="58">
         <v>31</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="58" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="67" t="s">
+      <c r="J12" s="58" t="s">
         <v>495</v>
       </c>
-      <c r="K12" s="67"/>
+      <c r="K12" s="58"/>
       <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="58" t="s">
         <v>501</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="58" t="s">
         <v>526</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67">
+      <c r="D13" s="58"/>
+      <c r="E13" s="58">
         <v>50</v>
       </c>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67" t="s">
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58" t="s">
         <v>22</v>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="67" t="s">
+      <c r="J13" s="58" t="s">
         <v>502</v>
       </c>
-      <c r="K13" s="67"/>
+      <c r="K13" s="58"/>
       <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="58" t="s">
         <v>503</v>
       </c>
       <c r="C14" s="14" t="s">
@@ -8589,10 +8572,10 @@
         <v>178</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="67">
-        <v>1</v>
-      </c>
-      <c r="G14" s="67">
+      <c r="F14" s="58">
+        <v>1</v>
+      </c>
+      <c r="G14" s="58">
         <v>2</v>
       </c>
       <c r="H14" s="9" t="s">
@@ -8602,67 +8585,67 @@
       <c r="J14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="67"/>
+      <c r="K14" s="58"/>
       <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="67" t="s">
+      <c r="B15" s="58" t="s">
         <v>504</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="58" t="s">
         <v>541</v>
       </c>
-      <c r="D15" s="67" t="s">
+      <c r="D15" s="58" t="s">
         <v>544</v>
       </c>
-      <c r="E15" s="67"/>
-      <c r="F15" s="71">
-        <v>1</v>
-      </c>
-      <c r="G15" s="71">
+      <c r="E15" s="58"/>
+      <c r="F15" s="62">
+        <v>1</v>
+      </c>
+      <c r="G15" s="62">
         <v>3</v>
       </c>
-      <c r="H15" s="71" t="s">
+      <c r="H15" s="62" t="s">
         <v>9</v>
       </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
       <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="67" t="s">
+      <c r="B16" s="58" t="s">
         <v>505</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="58" t="s">
         <v>542</v>
       </c>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="71" t="s">
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="58"/>
+      <c r="H16" s="62" t="s">
         <v>10</v>
       </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
       <c r="L16" s="22"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="67" t="s">
+      <c r="B17" s="58" t="s">
         <v>506</v>
       </c>
-      <c r="C17" s="67" t="s">
+      <c r="C17" s="58" t="s">
         <v>543</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -8684,7 +8667,7 @@
       <c r="J17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="67"/>
+      <c r="K17" s="58"/>
       <c r="L17" s="22"/>
     </row>
     <row r="18" spans="1:12" s="2" customFormat="1">
@@ -8733,19 +8716,19 @@
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9"/>
-      <c r="F19" s="67">
+      <c r="F19" s="58">
         <v>0</v>
       </c>
-      <c r="G19" s="67">
+      <c r="G19" s="58">
         <v>999.99</v>
       </c>
-      <c r="H19" s="67" t="s">
+      <c r="H19" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="1">
         <v>2</v>
       </c>
-      <c r="J19" s="67" t="s">
+      <c r="J19" s="58" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="9"/>
@@ -8765,19 +8748,19 @@
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="67">
+      <c r="F20" s="58">
         <v>0</v>
       </c>
-      <c r="G20" s="67">
+      <c r="G20" s="58">
         <v>999.99</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I20" s="1">
         <v>2</v>
       </c>
-      <c r="J20" s="67" t="s">
+      <c r="J20" s="58" t="s">
         <v>14</v>
       </c>
       <c r="K20" s="9"/>
@@ -8797,19 +8780,19 @@
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="67">
+      <c r="F21" s="58">
         <v>0</v>
       </c>
-      <c r="G21" s="67">
+      <c r="G21" s="58">
         <v>999.99</v>
       </c>
-      <c r="H21" s="67" t="s">
+      <c r="H21" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I21" s="1">
         <v>2</v>
       </c>
-      <c r="J21" s="67" t="s">
+      <c r="J21" s="58" t="s">
         <v>14</v>
       </c>
       <c r="K21" s="9"/>
@@ -8818,63 +8801,63 @@
       </c>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="67" t="s">
+      <c r="A22" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B22" s="67" t="s">
+      <c r="B22" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="67" t="s">
+      <c r="C22" s="58" t="s">
         <v>342</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67" t="s">
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="67"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
       <c r="L22" s="22" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="67" t="s">
+      <c r="A23" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="C23" s="67" t="s">
+      <c r="C23" s="58" t="s">
         <v>343</v>
       </c>
-      <c r="D23" s="67" t="s">
+      <c r="D23" s="58" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67">
-        <v>1</v>
-      </c>
-      <c r="G23" s="67">
+      <c r="E23" s="58"/>
+      <c r="F23" s="58">
+        <v>1</v>
+      </c>
+      <c r="G23" s="58">
         <v>6</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I23" s="67"/>
+      <c r="I23" s="58"/>
       <c r="J23" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K23" s="67"/>
+      <c r="K23" s="58"/>
       <c r="L23" s="22" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="58" t="s">
         <v>182</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -8902,45 +8885,45 @@
       <c r="J24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="67"/>
+      <c r="K24" s="58"/>
       <c r="L24" s="22" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="18.75">
-      <c r="A25" s="67" t="s">
+      <c r="A25" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B25" s="67" t="s">
+      <c r="B25" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="67" t="s">
+      <c r="C25" s="58" t="s">
         <v>351</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67">
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58">
         <v>0</v>
       </c>
-      <c r="G25" s="67">
+      <c r="G25" s="58">
         <v>99</v>
       </c>
-      <c r="H25" s="67" t="s">
+      <c r="H25" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
       </c>
-      <c r="J25" s="67" t="s">
+      <c r="J25" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="K25" s="67"/>
+      <c r="K25" s="58"/>
       <c r="L25" s="22" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="67" t="s">
+      <c r="A26" s="58" t="s">
         <v>182</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -8966,285 +8949,285 @@
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="67"/>
+      <c r="K26" s="58"/>
       <c r="L26" s="22" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="67" t="s">
+      <c r="A27" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B27" s="67" t="s">
+      <c r="B27" s="58" t="s">
         <v>507</v>
       </c>
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="58" t="s">
         <v>514</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67" t="s">
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
       <c r="L27" s="22" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="67" t="s">
+      <c r="A28" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B28" s="67" t="s">
+      <c r="B28" s="58" t="s">
         <v>508</v>
       </c>
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="58" t="s">
         <v>513</v>
       </c>
-      <c r="D28" s="67"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67">
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58">
         <v>0</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="58">
         <v>9999</v>
       </c>
-      <c r="H28" s="67" t="s">
+      <c r="H28" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I28" s="1">
         <v>2</v>
       </c>
-      <c r="J28" s="67" t="s">
+      <c r="J28" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="K28" s="67"/>
+      <c r="K28" s="58"/>
       <c r="L28" s="22" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="67" t="s">
+      <c r="A29" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="58" t="s">
         <v>509</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="58" t="s">
         <v>512</v>
       </c>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67">
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58">
         <v>0.02</v>
       </c>
-      <c r="G29" s="67">
+      <c r="G29" s="58">
         <v>370</v>
       </c>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I29" s="1">
         <v>3</v>
       </c>
-      <c r="J29" s="67" t="s">
+      <c r="J29" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="67"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="22" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="67" t="s">
+      <c r="A30" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="58" t="s">
         <v>510</v>
       </c>
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="58" t="s">
         <v>511</v>
       </c>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67">
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58">
         <v>0</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="58">
         <v>4000</v>
       </c>
-      <c r="H30" s="67" t="s">
+      <c r="H30" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67" t="s">
+      <c r="I30" s="58"/>
+      <c r="J30" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="K30" s="67"/>
+      <c r="K30" s="58"/>
       <c r="L30" s="22" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18.75">
-      <c r="A31" s="67" t="s">
+      <c r="A31" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="67" t="s">
+      <c r="B31" s="58" t="s">
         <v>520</v>
       </c>
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="58" t="s">
         <v>527</v>
       </c>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67" t="s">
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="1">
         <v>2</v>
       </c>
-      <c r="J31" s="67" t="s">
+      <c r="J31" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="K31" s="67"/>
+      <c r="K31" s="58"/>
       <c r="L31" s="22"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="67" t="s">
+      <c r="B32" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="58" t="s">
         <v>528</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67">
+      <c r="D32" s="58"/>
+      <c r="E32" s="58">
         <v>0.9</v>
       </c>
-      <c r="F32" s="67">
+      <c r="F32" s="58">
         <v>0</v>
       </c>
-      <c r="G32" s="67">
-        <v>1</v>
-      </c>
-      <c r="H32" s="67" t="s">
+      <c r="G32" s="58">
+        <v>1</v>
+      </c>
+      <c r="H32" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I32" s="1">
         <v>3</v>
       </c>
-      <c r="J32" s="67" t="s">
+      <c r="J32" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K32" s="67"/>
+      <c r="K32" s="58"/>
       <c r="L32" s="22"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="67" t="s">
+      <c r="A33" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B33" s="67" t="s">
+      <c r="B33" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="58" t="s">
         <v>529</v>
       </c>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67">
+      <c r="D33" s="58"/>
+      <c r="E33" s="58">
         <v>0.8</v>
       </c>
-      <c r="F33" s="67">
+      <c r="F33" s="58">
         <v>0</v>
       </c>
-      <c r="G33" s="67">
-        <v>1</v>
-      </c>
-      <c r="H33" s="67" t="s">
+      <c r="G33" s="58">
+        <v>1</v>
+      </c>
+      <c r="H33" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I33" s="1">
         <v>3</v>
       </c>
-      <c r="J33" s="67" t="s">
+      <c r="J33" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="67"/>
+      <c r="K33" s="58"/>
       <c r="L33" s="22"/>
     </row>
     <row r="34" spans="1:12" ht="18.75">
-      <c r="A34" s="67" t="s">
+      <c r="A34" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B34" s="67" t="s">
+      <c r="B34" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="58" t="s">
         <v>530</v>
       </c>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67">
+      <c r="D34" s="58"/>
+      <c r="E34" s="58">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F34" s="67">
+      <c r="F34" s="58">
         <v>0</v>
       </c>
-      <c r="G34" s="67">
+      <c r="G34" s="58">
         <v>999</v>
       </c>
-      <c r="H34" s="67" t="s">
+      <c r="H34" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I34" s="1">
         <v>2</v>
       </c>
-      <c r="J34" s="67" t="s">
+      <c r="J34" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="K34" s="67"/>
+      <c r="K34" s="58"/>
       <c r="L34" s="22"/>
     </row>
     <row r="35" spans="1:12" ht="18.75">
-      <c r="A35" s="67" t="s">
+      <c r="A35" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="67" t="s">
+      <c r="B35" s="58" t="s">
         <v>518</v>
       </c>
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="58" t="s">
         <v>531</v>
       </c>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67">
+      <c r="D35" s="58"/>
+      <c r="E35" s="58">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F35" s="67">
+      <c r="F35" s="58">
         <v>0</v>
       </c>
-      <c r="G35" s="67">
+      <c r="G35" s="58">
         <v>999</v>
       </c>
-      <c r="H35" s="67" t="s">
+      <c r="H35" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I35" s="1">
         <v>2</v>
       </c>
-      <c r="J35" s="67" t="s">
+      <c r="J35" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="K35" s="67"/>
+      <c r="K35" s="58"/>
       <c r="L35" s="22"/>
     </row>
     <row r="36" spans="1:12" ht="18.75">
-      <c r="A36" s="67" t="s">
+      <c r="A36" s="58" t="s">
         <v>182</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -9276,7 +9259,7 @@
       </c>
     </row>
     <row r="37" spans="1:12">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="58" t="s">
         <v>182</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -9310,7 +9293,7 @@
       </c>
     </row>
     <row r="38" spans="1:12">
-      <c r="A38" s="67" t="s">
+      <c r="A38" s="58" t="s">
         <v>182</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -9344,7 +9327,7 @@
       </c>
     </row>
     <row r="39" spans="1:12">
-      <c r="A39" s="67" t="s">
+      <c r="A39" s="58" t="s">
         <v>182</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -9378,7 +9361,7 @@
       </c>
     </row>
     <row r="40" spans="1:12">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="58" t="s">
         <v>182</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -9406,7 +9389,7 @@
       <c r="L40" s="22"/>
     </row>
     <row r="41" spans="1:12">
-      <c r="A41" s="67" t="s">
+      <c r="A41" s="58" t="s">
         <v>182</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -9434,7 +9417,7 @@
       <c r="L41" s="22"/>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="58" t="s">
         <v>182</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -9462,7 +9445,7 @@
       <c r="L42" s="22"/>
     </row>
     <row r="43" spans="1:12">
-      <c r="A43" s="67" t="s">
+      <c r="A43" s="58" t="s">
         <v>182</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -9475,10 +9458,10 @@
         <v>178</v>
       </c>
       <c r="E43" s="9"/>
-      <c r="F43" s="67">
-        <v>1</v>
-      </c>
-      <c r="G43" s="67">
+      <c r="F43" s="58">
+        <v>1</v>
+      </c>
+      <c r="G43" s="58">
         <v>2</v>
       </c>
       <c r="H43" s="9" t="s">
@@ -9494,7 +9477,7 @@
       </c>
     </row>
     <row r="44" spans="1:12">
-      <c r="A44" s="67" t="s">
+      <c r="A44" s="58" t="s">
         <v>182</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -9507,10 +9490,10 @@
         <v>178</v>
       </c>
       <c r="E44" s="9"/>
-      <c r="F44" s="67">
-        <v>1</v>
-      </c>
-      <c r="G44" s="67">
+      <c r="F44" s="58">
+        <v>1</v>
+      </c>
+      <c r="G44" s="58">
         <v>2</v>
       </c>
       <c r="H44" s="9" t="s">
@@ -9526,7 +9509,7 @@
       </c>
     </row>
     <row r="45" spans="1:12">
-      <c r="A45" s="67" t="s">
+      <c r="A45" s="58" t="s">
         <v>182</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -9539,7 +9522,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="71" t="s">
+      <c r="H45" s="62" t="s">
         <v>10</v>
       </c>
       <c r="I45" s="11"/>
@@ -9548,7 +9531,7 @@
       <c r="L45" s="22"/>
     </row>
     <row r="46" spans="1:12">
-      <c r="A46" s="67" t="s">
+      <c r="A46" s="58" t="s">
         <v>182</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -9561,7 +9544,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
-      <c r="H46" s="71" t="s">
+      <c r="H46" s="62" t="s">
         <v>10</v>
       </c>
       <c r="I46" s="11"/>
@@ -9570,7 +9553,7 @@
       <c r="L46" s="22"/>
     </row>
     <row r="47" spans="1:12">
-      <c r="A47" s="67" t="s">
+      <c r="A47" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -9596,7 +9579,7 @@
       </c>
     </row>
     <row r="48" spans="1:12">
-      <c r="A48" s="67" t="s">
+      <c r="A48" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -9630,39 +9613,39 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="18.75">
-      <c r="A49" s="67" t="s">
+      <c r="A49" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="B49" s="67" t="s">
+      <c r="B49" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="67" t="s">
+      <c r="C49" s="58" t="s">
         <v>368</v>
       </c>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67">
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="58">
         <v>0</v>
       </c>
-      <c r="G49" s="67">
+      <c r="G49" s="58">
         <v>99</v>
       </c>
-      <c r="H49" s="67" t="s">
+      <c r="H49" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I49" s="1">
         <v>2</v>
       </c>
-      <c r="J49" s="67" t="s">
+      <c r="J49" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="K49" s="67"/>
+      <c r="K49" s="58"/>
       <c r="L49" s="22" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="50" spans="1:12">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -9694,7 +9677,7 @@
       </c>
     </row>
     <row r="51" spans="1:12">
-      <c r="A51" s="67" t="s">
+      <c r="A51" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B51" s="9" t="s">
@@ -9728,7 +9711,7 @@
       </c>
     </row>
     <row r="52" spans="1:12">
-      <c r="A52" s="67" t="s">
+      <c r="A52" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B52" s="9" t="s">
@@ -9762,7 +9745,7 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -9796,7 +9779,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="18.75">
-      <c r="A54" s="67" t="s">
+      <c r="A54" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B54" s="9" t="s">
@@ -9830,125 +9813,125 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="18.75">
-      <c r="A55" s="69" t="s">
+      <c r="A55" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="B55" s="69" t="s">
+      <c r="B55" s="60" t="s">
         <v>520</v>
       </c>
-      <c r="C55" s="69" t="s">
+      <c r="C55" s="60" t="s">
         <v>609</v>
       </c>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69" t="s">
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="60"/>
+      <c r="H55" s="60" t="s">
         <v>10</v>
       </c>
       <c r="I55" s="1">
         <v>2</v>
       </c>
-      <c r="J55" s="69" t="s">
+      <c r="J55" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="K55" s="69"/>
+      <c r="K55" s="60"/>
       <c r="L55" s="22"/>
     </row>
     <row r="56" spans="1:12">
-      <c r="A56" s="67" t="s">
+      <c r="A56" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="B56" s="67" t="s">
+      <c r="B56" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C56" s="67" t="s">
+      <c r="C56" s="58" t="s">
         <v>589</v>
       </c>
-      <c r="D56" s="67"/>
-      <c r="E56" s="67">
+      <c r="D56" s="58"/>
+      <c r="E56" s="58">
         <v>0.9</v>
       </c>
-      <c r="F56" s="67">
+      <c r="F56" s="58">
         <v>0</v>
       </c>
-      <c r="G56" s="67">
-        <v>1</v>
-      </c>
-      <c r="H56" s="67" t="s">
+      <c r="G56" s="58">
+        <v>1</v>
+      </c>
+      <c r="H56" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I56" s="1">
         <v>3</v>
       </c>
-      <c r="J56" s="67" t="s">
+      <c r="J56" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K56" s="67"/>
+      <c r="K56" s="58"/>
       <c r="L56" s="22"/>
     </row>
     <row r="57" spans="1:12" ht="18.75">
-      <c r="A57" s="67" t="s">
+      <c r="A57" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="B57" s="67" t="s">
+      <c r="B57" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="67" t="s">
+      <c r="C57" s="58" t="s">
         <v>590</v>
       </c>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67">
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58">
         <v>0</v>
       </c>
-      <c r="G57" s="67">
+      <c r="G57" s="58">
         <v>999</v>
       </c>
-      <c r="H57" s="67" t="s">
+      <c r="H57" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I57" s="1">
         <v>2</v>
       </c>
-      <c r="J57" s="67" t="s">
+      <c r="J57" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="K57" s="67"/>
+      <c r="K57" s="58"/>
       <c r="L57" s="22"/>
     </row>
     <row r="58" spans="1:12" ht="18.75">
-      <c r="A58" s="69" t="s">
+      <c r="A58" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="B58" s="69" t="s">
+      <c r="B58" s="60" t="s">
         <v>607</v>
       </c>
-      <c r="C58" s="69" t="s">
+      <c r="C58" s="60" t="s">
         <v>608</v>
       </c>
-      <c r="D58" s="69"/>
-      <c r="E58" s="69"/>
-      <c r="F58" s="69">
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60">
         <v>0</v>
       </c>
-      <c r="G58" s="69">
+      <c r="G58" s="60">
         <v>999</v>
       </c>
-      <c r="H58" s="69" t="s">
+      <c r="H58" s="60" t="s">
         <v>10</v>
       </c>
       <c r="I58" s="1">
         <v>2</v>
       </c>
-      <c r="J58" s="69" t="s">
+      <c r="J58" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="K58" s="69"/>
+      <c r="K58" s="60"/>
       <c r="L58" s="22"/>
     </row>
     <row r="59" spans="1:12">
-      <c r="A59" s="67" t="s">
+      <c r="A59" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -9974,13 +9957,13 @@
       <c r="J59" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K59" s="67"/>
+      <c r="K59" s="58"/>
       <c r="L59" s="22" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="60" spans="1:12">
-      <c r="A60" s="67" t="s">
+      <c r="A60" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -10006,13 +9989,13 @@
       <c r="J60" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K60" s="67"/>
+      <c r="K60" s="58"/>
       <c r="L60" s="22" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="61" spans="1:12">
-      <c r="A61" s="67" t="s">
+      <c r="A61" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -10038,13 +10021,13 @@
       <c r="J61" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K61" s="67"/>
+      <c r="K61" s="58"/>
       <c r="L61" s="22" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="A62" s="67" t="s">
+      <c r="A62" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -10066,11 +10049,11 @@
       <c r="J62" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K62" s="67"/>
+      <c r="K62" s="58"/>
       <c r="L62" s="22"/>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="67" t="s">
+      <c r="A63" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -10092,11 +10075,11 @@
       <c r="J63" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K63" s="67"/>
+      <c r="K63" s="58"/>
       <c r="L63" s="22"/>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="67" t="s">
+      <c r="A64" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B64" s="9" t="s">
@@ -10118,11 +10101,11 @@
       <c r="J64" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K64" s="67"/>
+      <c r="K64" s="58"/>
       <c r="L64" s="22"/>
     </row>
     <row r="65" spans="1:12">
-      <c r="A65" s="67" t="s">
+      <c r="A65" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B65" s="9" t="s">
@@ -10135,10 +10118,10 @@
         <v>178</v>
       </c>
       <c r="E65" s="9"/>
-      <c r="F65" s="67">
-        <v>1</v>
-      </c>
-      <c r="G65" s="67">
+      <c r="F65" s="58">
+        <v>1</v>
+      </c>
+      <c r="G65" s="58">
         <v>2</v>
       </c>
       <c r="H65" s="9" t="s">
@@ -10154,7 +10137,7 @@
       </c>
     </row>
     <row r="66" spans="1:12">
-      <c r="A66" s="67" t="s">
+      <c r="A66" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -10167,10 +10150,10 @@
         <v>178</v>
       </c>
       <c r="E66" s="9"/>
-      <c r="F66" s="67">
-        <v>1</v>
-      </c>
-      <c r="G66" s="67">
+      <c r="F66" s="58">
+        <v>1</v>
+      </c>
+      <c r="G66" s="58">
         <v>2</v>
       </c>
       <c r="H66" s="9" t="s">
@@ -10186,7 +10169,7 @@
       </c>
     </row>
     <row r="67" spans="1:12">
-      <c r="A67" s="67" t="s">
+      <c r="A67" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -10199,7 +10182,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
-      <c r="H67" s="71" t="s">
+      <c r="H67" s="62" t="s">
         <v>10</v>
       </c>
       <c r="I67" s="11"/>
@@ -10208,7 +10191,7 @@
       <c r="L67" s="22"/>
     </row>
     <row r="68" spans="1:12">
-      <c r="A68" s="67" t="s">
+      <c r="A68" s="58" t="s">
         <v>192</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -10221,7 +10204,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
-      <c r="H68" s="71" t="s">
+      <c r="H68" s="62" t="s">
         <v>10</v>
       </c>
       <c r="I68" s="11"/>
@@ -10230,7 +10213,7 @@
       <c r="L68" s="22"/>
     </row>
     <row r="69" spans="1:12">
-      <c r="A69" s="67" t="s">
+      <c r="A69" s="58" t="s">
         <v>194</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -10256,7 +10239,7 @@
       </c>
     </row>
     <row r="70" spans="1:12">
-      <c r="A70" s="67" t="s">
+      <c r="A70" s="58" t="s">
         <v>194</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -10290,39 +10273,39 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="18.75">
-      <c r="A71" s="67" t="s">
+      <c r="A71" s="58" t="s">
         <v>194</v>
       </c>
-      <c r="B71" s="67" t="s">
+      <c r="B71" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="C71" s="67" t="s">
+      <c r="C71" s="58" t="s">
         <v>392</v>
       </c>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67">
+      <c r="D71" s="58"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="58">
         <v>0</v>
       </c>
-      <c r="G71" s="67">
+      <c r="G71" s="58">
         <v>99</v>
       </c>
-      <c r="H71" s="67" t="s">
+      <c r="H71" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I71" s="1">
         <v>2</v>
       </c>
-      <c r="J71" s="67" t="s">
+      <c r="J71" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="K71" s="67"/>
+      <c r="K71" s="58"/>
       <c r="L71" s="22" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="72" spans="1:12">
-      <c r="A72" s="67" t="s">
+      <c r="A72" s="58" t="s">
         <v>194</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -10354,7 +10337,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="18.75">
-      <c r="A73" s="67" t="s">
+      <c r="A73" s="58" t="s">
         <v>194</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -10388,7 +10371,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" s="2" customFormat="1">
-      <c r="A74" s="67" t="s">
+      <c r="A74" s="58" t="s">
         <v>194</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -10420,7 +10403,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" s="2" customFormat="1">
-      <c r="A75" s="67" t="s">
+      <c r="A75" s="58" t="s">
         <v>194</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -10452,7 +10435,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" s="2" customFormat="1">
-      <c r="A76" s="67" t="s">
+      <c r="A76" s="58" t="s">
         <v>194</v>
       </c>
       <c r="B76" s="9" t="s">
@@ -10484,7 +10467,7 @@
       </c>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="67" t="s">
+      <c r="A77" s="58" t="s">
         <v>194</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -10506,11 +10489,11 @@
       <c r="J77" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K77" s="67"/>
+      <c r="K77" s="58"/>
       <c r="L77" s="22"/>
     </row>
     <row r="78" spans="1:12">
-      <c r="A78" s="67" t="s">
+      <c r="A78" s="58" t="s">
         <v>194</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -10532,11 +10515,11 @@
       <c r="J78" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K78" s="67"/>
+      <c r="K78" s="58"/>
       <c r="L78" s="22"/>
     </row>
     <row r="79" spans="1:12">
-      <c r="A79" s="67" t="s">
+      <c r="A79" s="58" t="s">
         <v>194</v>
       </c>
       <c r="B79" s="9" t="s">
@@ -10549,10 +10532,10 @@
         <v>178</v>
       </c>
       <c r="E79" s="9"/>
-      <c r="F79" s="67">
-        <v>1</v>
-      </c>
-      <c r="G79" s="67">
+      <c r="F79" s="58">
+        <v>1</v>
+      </c>
+      <c r="G79" s="58">
         <v>2</v>
       </c>
       <c r="H79" s="9" t="s">
@@ -10568,7 +10551,7 @@
       </c>
     </row>
     <row r="80" spans="1:12">
-      <c r="A80" s="67" t="s">
+      <c r="A80" s="58" t="s">
         <v>194</v>
       </c>
       <c r="B80" s="9" t="s">
@@ -10581,10 +10564,10 @@
         <v>178</v>
       </c>
       <c r="E80" s="9"/>
-      <c r="F80" s="67">
-        <v>1</v>
-      </c>
-      <c r="G80" s="67">
+      <c r="F80" s="58">
+        <v>1</v>
+      </c>
+      <c r="G80" s="58">
         <v>2</v>
       </c>
       <c r="H80" s="9" t="s">
@@ -10598,7 +10581,7 @@
       <c r="L80" s="22"/>
     </row>
     <row r="81" spans="1:12">
-      <c r="A81" s="67" t="s">
+      <c r="A81" s="58" t="s">
         <v>194</v>
       </c>
       <c r="B81" s="9" t="s">
@@ -10620,7 +10603,7 @@
       <c r="L81" s="22"/>
     </row>
     <row r="82" spans="1:12">
-      <c r="A82" s="67" t="s">
+      <c r="A82" s="58" t="s">
         <v>194</v>
       </c>
       <c r="B82" s="9" t="s">
@@ -10642,7 +10625,7 @@
       <c r="L82" s="22"/>
     </row>
     <row r="83" spans="1:12">
-      <c r="A83" s="70" t="s">
+      <c r="A83" s="61" t="s">
         <v>286</v>
       </c>
       <c r="B83" s="9" t="s">
@@ -10668,7 +10651,7 @@
       </c>
     </row>
     <row r="84" spans="1:12">
-      <c r="A84" s="70" t="s">
+      <c r="A84" s="61" t="s">
         <v>286</v>
       </c>
       <c r="B84" s="9" t="s">
@@ -10704,7 +10687,7 @@
       </c>
     </row>
     <row r="85" spans="1:12">
-      <c r="A85" s="70" t="s">
+      <c r="A85" s="61" t="s">
         <v>286</v>
       </c>
       <c r="B85" s="9" t="s">
@@ -10738,17 +10721,17 @@
       </c>
     </row>
     <row r="86" spans="1:12">
-      <c r="A86" s="70" t="s">
+      <c r="A86" s="61" t="s">
         <v>286</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C86" s="70" t="s">
+      <c r="C86" s="61" t="s">
         <v>403</v>
       </c>
-      <c r="D86" s="70"/>
-      <c r="E86" s="70"/>
+      <c r="D86" s="61"/>
+      <c r="E86" s="61"/>
       <c r="F86" s="9" t="s">
         <v>118</v>
       </c>
@@ -10772,17 +10755,17 @@
       </c>
     </row>
     <row r="87" spans="1:12">
-      <c r="A87" s="70" t="s">
+      <c r="A87" s="61" t="s">
         <v>286</v>
       </c>
       <c r="B87" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="70" t="s">
+      <c r="C87" s="61" t="s">
         <v>404</v>
       </c>
-      <c r="D87" s="70"/>
-      <c r="E87" s="70"/>
+      <c r="D87" s="61"/>
+      <c r="E87" s="61"/>
       <c r="F87" s="9">
         <v>0</v>
       </c>
@@ -10806,13 +10789,13 @@
       </c>
     </row>
     <row r="88" spans="1:12">
-      <c r="A88" s="70" t="s">
+      <c r="A88" s="61" t="s">
         <v>439</v>
       </c>
-      <c r="B88" s="70" t="s">
+      <c r="B88" s="61" t="s">
         <v>443</v>
       </c>
-      <c r="C88" s="70" t="s">
+      <c r="C88" s="61" t="s">
         <v>448</v>
       </c>
       <c r="D88" s="9"/>
@@ -10832,30 +10815,30 @@
       </c>
     </row>
     <row r="89" spans="1:12" ht="18.75">
-      <c r="A89" s="70" t="s">
+      <c r="A89" s="61" t="s">
         <v>439</v>
       </c>
-      <c r="B89" s="70" t="s">
+      <c r="B89" s="61" t="s">
         <v>440</v>
       </c>
-      <c r="C89" s="70" t="s">
+      <c r="C89" s="61" t="s">
         <v>449</v>
       </c>
-      <c r="D89" s="70"/>
-      <c r="E89" s="70"/>
-      <c r="F89" s="70">
+      <c r="D89" s="61"/>
+      <c r="E89" s="61"/>
+      <c r="F89" s="61">
         <v>0</v>
       </c>
-      <c r="G89" s="70">
+      <c r="G89" s="61">
         <v>99</v>
       </c>
-      <c r="H89" s="70" t="s">
+      <c r="H89" s="61" t="s">
         <v>10</v>
       </c>
       <c r="I89" s="1">
         <v>2</v>
       </c>
-      <c r="J89" s="70" t="s">
+      <c r="J89" s="61" t="s">
         <v>14</v>
       </c>
       <c r="K89" s="9" t="s">
@@ -10866,7 +10849,7 @@
       </c>
     </row>
     <row r="90" spans="1:12">
-      <c r="A90" s="70" t="s">
+      <c r="A90" s="61" t="s">
         <v>439</v>
       </c>
       <c r="B90" s="9" t="s">
@@ -10900,7 +10883,7 @@
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="69" t="s">
+      <c r="A91" s="60" t="s">
         <v>610</v>
       </c>
       <c r="B91" s="9" t="s">
@@ -10922,7 +10905,7 @@
       <c r="L91" s="22"/>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="69" t="s">
+      <c r="A92" s="60" t="s">
         <v>610</v>
       </c>
       <c r="B92" s="9" t="s">
@@ -10944,7 +10927,7 @@
       <c r="L92" s="22"/>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="69" t="s">
+      <c r="A93" s="60" t="s">
         <v>610</v>
       </c>
       <c r="B93" s="9" t="s">
@@ -10966,7 +10949,7 @@
       <c r="L93" s="22"/>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="69" t="s">
+      <c r="A94" s="60" t="s">
         <v>610</v>
       </c>
       <c r="B94" s="9" t="s">
@@ -10988,7 +10971,7 @@
       <c r="L94" s="22"/>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="69" t="s">
+      <c r="A95" s="60" t="s">
         <v>610</v>
       </c>
       <c r="B95" s="9" t="s">
@@ -11010,7 +10993,7 @@
       <c r="L95" s="22"/>
     </row>
     <row r="96" spans="1:12" ht="17.649999999999999" customHeight="1">
-      <c r="A96" s="65" t="s">
+      <c r="A96" s="56" t="s">
         <v>570</v>
       </c>
       <c r="B96" s="9" t="s">
@@ -11019,7 +11002,7 @@
       <c r="C96" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="D96" s="65" t="s">
+      <c r="D96" s="56" t="s">
         <v>426</v>
       </c>
       <c r="E96" s="9">
@@ -11044,7 +11027,7 @@
       </c>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="65" t="s">
+      <c r="A97" s="56" t="s">
         <v>570</v>
       </c>
       <c r="B97" s="9" t="s">
@@ -11072,7 +11055,7 @@
       <c r="L97" s="22"/>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="65" t="s">
+      <c r="A98" s="56" t="s">
         <v>570</v>
       </c>
       <c r="B98" s="9" t="s">
@@ -11100,7 +11083,7 @@
       <c r="L98" s="22"/>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="65" t="s">
+      <c r="A99" s="56" t="s">
         <v>570</v>
       </c>
       <c r="B99" s="9" t="s">
@@ -11128,7 +11111,7 @@
       <c r="L99" s="22"/>
     </row>
     <row r="100" spans="1:12" ht="18.75">
-      <c r="A100" s="65" t="s">
+      <c r="A100" s="56" t="s">
         <v>570</v>
       </c>
       <c r="B100" s="9" t="s">
@@ -11158,7 +11141,7 @@
       <c r="L100" s="22"/>
     </row>
     <row r="101" spans="1:12" ht="18.75">
-      <c r="A101" s="65" t="s">
+      <c r="A101" s="56" t="s">
         <v>570</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -11192,7 +11175,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="18.75">
-      <c r="A102" s="65" t="s">
+      <c r="A102" s="56" t="s">
         <v>570</v>
       </c>
       <c r="B102" s="9" t="s">
@@ -11224,7 +11207,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="18.75">
-      <c r="A103" s="65" t="s">
+      <c r="A103" s="56" t="s">
         <v>570</v>
       </c>
       <c r="B103" s="9" t="s">
@@ -11256,7 +11239,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" ht="18.75">
-      <c r="A104" s="65" t="s">
+      <c r="A104" s="56" t="s">
         <v>570</v>
       </c>
       <c r="B104" s="9" t="s">
@@ -11288,7 +11271,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="18.75">
-      <c r="A105" s="65" t="s">
+      <c r="A105" s="56" t="s">
         <v>570</v>
       </c>
       <c r="B105" s="9" t="s">
@@ -11318,7 +11301,7 @@
       <c r="L105" s="22"/>
     </row>
     <row r="106" spans="1:12" ht="18.75">
-      <c r="A106" s="65" t="s">
+      <c r="A106" s="56" t="s">
         <v>570</v>
       </c>
       <c r="B106" s="9" t="s">
@@ -11348,7 +11331,7 @@
       <c r="L106" s="22"/>
     </row>
     <row r="107" spans="1:12" ht="18.75">
-      <c r="A107" s="65" t="s">
+      <c r="A107" s="56" t="s">
         <v>570</v>
       </c>
       <c r="B107" s="9" t="s">
@@ -11378,7 +11361,7 @@
       <c r="L107" s="22"/>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="65" t="s">
+      <c r="A108" s="56" t="s">
         <v>570</v>
       </c>
       <c r="B108" s="9" t="s">
@@ -11410,10 +11393,10 @@
       <c r="L108" s="22"/>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="65" t="s">
+      <c r="A109" s="56" t="s">
         <v>570</v>
       </c>
-      <c r="B109" s="67" t="s">
+      <c r="B109" s="58" t="s">
         <v>584</v>
       </c>
       <c r="C109" s="9" t="s">
@@ -11422,215 +11405,215 @@
       <c r="D109" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E109" s="67">
+      <c r="E109" s="58">
         <v>2</v>
       </c>
-      <c r="F109" s="67">
-        <v>1</v>
-      </c>
-      <c r="G109" s="67">
+      <c r="F109" s="58">
+        <v>1</v>
+      </c>
+      <c r="G109" s="58">
         <v>2</v>
       </c>
-      <c r="H109" s="67" t="s">
+      <c r="H109" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="I109" s="67"/>
-      <c r="J109" s="67" t="s">
+      <c r="I109" s="58"/>
+      <c r="J109" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K109" s="67"/>
+      <c r="K109" s="58"/>
       <c r="L109" s="22"/>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="65" t="s">
+      <c r="A110" s="56" t="s">
         <v>570</v>
       </c>
-      <c r="B110" s="67" t="s">
+      <c r="B110" s="58" t="s">
         <v>69</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="D110" s="67"/>
-      <c r="E110" s="67">
+      <c r="D110" s="58"/>
+      <c r="E110" s="58">
         <v>0</v>
       </c>
-      <c r="F110" s="67">
+      <c r="F110" s="58">
         <v>0</v>
       </c>
-      <c r="G110" s="67">
-        <v>1</v>
-      </c>
-      <c r="H110" s="67" t="s">
+      <c r="G110" s="58">
+        <v>1</v>
+      </c>
+      <c r="H110" s="58" t="s">
         <v>10</v>
       </c>
       <c r="I110" s="1">
         <v>2</v>
       </c>
-      <c r="J110" s="67" t="s">
+      <c r="J110" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K110" s="67" t="s">
+      <c r="K110" s="58" t="s">
         <v>593</v>
       </c>
       <c r="L110" s="22"/>
     </row>
     <row r="111" spans="1:12" ht="17.649999999999999" customHeight="1">
-      <c r="A111" s="67" t="s">
+      <c r="A111" s="58" t="s">
         <v>571</v>
       </c>
-      <c r="B111" s="67" t="s">
+      <c r="B111" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="C111" s="67" t="s">
+      <c r="C111" s="58" t="s">
         <v>638</v>
       </c>
-      <c r="D111" s="65" t="s">
+      <c r="D111" s="56" t="s">
         <v>426</v>
       </c>
-      <c r="E111" s="67">
-        <v>1</v>
-      </c>
-      <c r="F111" s="67">
-        <v>1</v>
-      </c>
-      <c r="G111" s="67">
+      <c r="E111" s="58">
+        <v>1</v>
+      </c>
+      <c r="F111" s="58">
+        <v>1</v>
+      </c>
+      <c r="G111" s="58">
         <v>3</v>
       </c>
-      <c r="H111" s="67" t="s">
+      <c r="H111" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="I111" s="67"/>
-      <c r="J111" s="67" t="s">
+      <c r="I111" s="58"/>
+      <c r="J111" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K111" s="67"/>
+      <c r="K111" s="58"/>
       <c r="L111" s="22"/>
     </row>
     <row r="112" spans="1:12" ht="17.649999999999999" customHeight="1">
-      <c r="A112" s="67" t="s">
+      <c r="A112" s="58" t="s">
         <v>571</v>
       </c>
-      <c r="B112" s="67" t="s">
+      <c r="B112" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="C112" s="67" t="s">
+      <c r="C112" s="58" t="s">
         <v>639</v>
       </c>
-      <c r="D112" s="65" t="s">
+      <c r="D112" s="56" t="s">
         <v>426</v>
       </c>
-      <c r="E112" s="67">
+      <c r="E112" s="58">
         <v>3</v>
       </c>
-      <c r="F112" s="67">
-        <v>1</v>
-      </c>
-      <c r="G112" s="67">
+      <c r="F112" s="58">
+        <v>1</v>
+      </c>
+      <c r="G112" s="58">
         <v>3</v>
       </c>
-      <c r="H112" s="67" t="s">
+      <c r="H112" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="I112" s="67"/>
-      <c r="J112" s="67" t="s">
+      <c r="I112" s="58"/>
+      <c r="J112" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="K112" s="67"/>
+      <c r="K112" s="58"/>
       <c r="L112" s="22"/>
     </row>
     <row r="113" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A113" s="67" t="s">
+      <c r="A113" s="58" t="s">
         <v>571</v>
       </c>
-      <c r="B113" s="67" t="s">
+      <c r="B113" s="58" t="s">
         <v>635</v>
       </c>
       <c r="C113" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67">
+      <c r="D113" s="58"/>
+      <c r="E113" s="58">
         <v>60</v>
       </c>
-      <c r="F113" s="67">
+      <c r="F113" s="58">
         <v>0</v>
       </c>
-      <c r="G113" s="67">
+      <c r="G113" s="58">
         <v>999</v>
       </c>
-      <c r="H113" s="67" t="s">
+      <c r="H113" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="I113" s="67"/>
-      <c r="J113" s="67" t="s">
+      <c r="I113" s="58"/>
+      <c r="J113" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="K113" s="67"/>
+      <c r="K113" s="58"/>
       <c r="L113" s="22"/>
     </row>
     <row r="114" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A114" s="67" t="s">
+      <c r="A114" s="58" t="s">
         <v>571</v>
       </c>
-      <c r="B114" s="67" t="s">
+      <c r="B114" s="58" t="s">
         <v>636</v>
       </c>
       <c r="C114" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="D114" s="67"/>
-      <c r="E114" s="67">
+      <c r="D114" s="58"/>
+      <c r="E114" s="58">
         <v>60</v>
       </c>
-      <c r="F114" s="67">
+      <c r="F114" s="58">
         <v>0</v>
       </c>
-      <c r="G114" s="67">
+      <c r="G114" s="58">
         <v>999</v>
       </c>
-      <c r="H114" s="67" t="s">
+      <c r="H114" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="I114" s="67"/>
-      <c r="J114" s="67" t="s">
+      <c r="I114" s="58"/>
+      <c r="J114" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="K114" s="67"/>
+      <c r="K114" s="58"/>
       <c r="L114" s="22"/>
     </row>
     <row r="115" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A115" s="67" t="s">
+      <c r="A115" s="58" t="s">
         <v>571</v>
       </c>
-      <c r="B115" s="67" t="s">
+      <c r="B115" s="58" t="s">
         <v>637</v>
       </c>
       <c r="C115" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="D115" s="67"/>
-      <c r="E115" s="67">
+      <c r="D115" s="58"/>
+      <c r="E115" s="58">
         <v>60</v>
       </c>
-      <c r="F115" s="67">
+      <c r="F115" s="58">
         <v>0</v>
       </c>
-      <c r="G115" s="67">
+      <c r="G115" s="58">
         <v>999</v>
       </c>
-      <c r="H115" s="67" t="s">
+      <c r="H115" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="I115" s="67"/>
-      <c r="J115" s="67" t="s">
+      <c r="I115" s="58"/>
+      <c r="J115" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="K115" s="67"/>
+      <c r="K115" s="58"/>
       <c r="L115" s="22"/>
     </row>
     <row r="116" spans="1:12">
-      <c r="A116" s="67" t="s">
+      <c r="A116" s="58" t="s">
         <v>594</v>
       </c>
       <c r="B116" s="9" t="s">
@@ -11654,7 +11637,7 @@
       <c r="L116" s="22"/>
     </row>
     <row r="117" spans="1:12">
-      <c r="A117" s="67" t="s">
+      <c r="A117" s="58" t="s">
         <v>594</v>
       </c>
       <c r="B117" s="9" t="s">
@@ -11678,7 +11661,7 @@
       <c r="L117" s="22"/>
     </row>
     <row r="118" spans="1:12">
-      <c r="A118" s="67" t="s">
+      <c r="A118" s="58" t="s">
         <v>594</v>
       </c>
       <c r="B118" s="9" t="s">
@@ -11702,7 +11685,7 @@
       <c r="L118" s="22"/>
     </row>
     <row r="119" spans="1:12">
-      <c r="A119" s="67" t="s">
+      <c r="A119" s="58" t="s">
         <v>594</v>
       </c>
       <c r="B119" s="9" t="s">
@@ -11726,7 +11709,7 @@
       <c r="L119" s="22"/>
     </row>
     <row r="120" spans="1:12">
-      <c r="A120" s="67" t="s">
+      <c r="A120" s="58" t="s">
         <v>594</v>
       </c>
       <c r="B120" s="9" t="s">
@@ -11750,7 +11733,7 @@
       <c r="L120" s="22"/>
     </row>
     <row r="121" spans="1:12">
-      <c r="A121" s="67" t="s">
+      <c r="A121" s="58" t="s">
         <v>594</v>
       </c>
       <c r="B121" s="9" t="s">
@@ -11774,7 +11757,7 @@
       <c r="L121" s="22"/>
     </row>
     <row r="122" spans="1:12">
-      <c r="A122" s="68" t="s">
+      <c r="A122" s="59" t="s">
         <v>601</v>
       </c>
       <c r="B122" s="9" t="s">
@@ -11787,10 +11770,10 @@
         <v>178</v>
       </c>
       <c r="E122" s="9"/>
-      <c r="F122" s="68">
-        <v>1</v>
-      </c>
-      <c r="G122" s="68">
+      <c r="F122" s="59">
+        <v>1</v>
+      </c>
+      <c r="G122" s="59">
         <v>2</v>
       </c>
       <c r="H122" s="9" t="s">
@@ -11806,7 +11789,7 @@
       </c>
     </row>
     <row r="123" spans="1:12">
-      <c r="A123" s="68" t="s">
+      <c r="A123" s="59" t="s">
         <v>601</v>
       </c>
       <c r="B123" s="9" t="s">
@@ -11815,21 +11798,21 @@
       <c r="C123" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="D123" s="68"/>
-      <c r="E123" s="68">
+      <c r="D123" s="59"/>
+      <c r="E123" s="59">
         <v>5</v>
       </c>
-      <c r="F123" s="68">
+      <c r="F123" s="59">
         <v>0</v>
       </c>
-      <c r="G123" s="68">
+      <c r="G123" s="59">
         <v>999</v>
       </c>
-      <c r="H123" s="68" t="s">
+      <c r="H123" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="I123" s="68"/>
-      <c r="J123" s="68" t="s">
+      <c r="I123" s="59"/>
+      <c r="J123" s="59" t="s">
         <v>604</v>
       </c>
       <c r="K123" s="9"/>
@@ -11838,7 +11821,7 @@
       </c>
     </row>
     <row r="124" spans="1:12">
-      <c r="A124" s="68" t="s">
+      <c r="A124" s="59" t="s">
         <v>601</v>
       </c>
       <c r="B124" s="9" t="s">
@@ -11851,10 +11834,10 @@
         <v>178</v>
       </c>
       <c r="E124" s="9"/>
-      <c r="F124" s="68">
-        <v>1</v>
-      </c>
-      <c r="G124" s="68">
+      <c r="F124" s="59">
+        <v>1</v>
+      </c>
+      <c r="G124" s="59">
         <v>2</v>
       </c>
       <c r="H124" s="9" t="s">
@@ -11870,7 +11853,7 @@
       </c>
     </row>
     <row r="125" spans="1:12">
-      <c r="A125" s="68" t="s">
+      <c r="A125" s="59" t="s">
         <v>601</v>
       </c>
       <c r="B125" s="9" t="s">
@@ -11883,10 +11866,10 @@
         <v>178</v>
       </c>
       <c r="E125" s="9"/>
-      <c r="F125" s="68">
-        <v>1</v>
-      </c>
-      <c r="G125" s="68">
+      <c r="F125" s="59">
+        <v>1</v>
+      </c>
+      <c r="G125" s="59">
         <v>2</v>
       </c>
       <c r="H125" s="9" t="s">
@@ -11947,7 +11930,7 @@
       <c r="C2" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="63" t="s">
         <v>663</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -11976,7 +11959,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="141">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="54" t="s">
         <v>451</v>
       </c>
       <c r="B3" s="24" t="s">
@@ -11985,10 +11968,10 @@
       <c r="C3" s="33" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="64" t="s">
         <v>671</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="55" t="s">
         <v>176</v>
       </c>
       <c r="F3" s="5">
@@ -12040,7 +12023,7 @@
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14" s="2" customFormat="1" ht="18.75">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="54" t="s">
         <v>451</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -12071,7 +12054,7 @@
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" ht="18.75">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="54" t="s">
         <v>451</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -12102,7 +12085,7 @@
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" s="2" customFormat="1" ht="35.25">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="54" t="s">
         <v>451</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -12111,10 +12094,10 @@
       <c r="C7" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="D7" s="73" t="s">
+      <c r="D7" s="64" t="s">
         <v>672</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="55" t="s">
         <v>202</v>
       </c>
       <c r="F7" s="10"/>
@@ -12135,7 +12118,7 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" s="2" customFormat="1" ht="18.75">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="54" t="s">
         <v>451</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -12166,7 +12149,7 @@
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" s="2" customFormat="1" ht="18.75">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="54" t="s">
         <v>451</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -12197,7 +12180,7 @@
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" s="2" customFormat="1" ht="18.75">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="54" t="s">
         <v>451</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -12228,7 +12211,7 @@
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" ht="18.75">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="54" t="s">
         <v>451</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -12259,7 +12242,7 @@
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14" s="2" customFormat="1" ht="18.75">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="54" t="s">
         <v>451</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -12290,7 +12273,7 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" s="2" customFormat="1">
-      <c r="A13" s="63" t="s">
+      <c r="A13" s="54" t="s">
         <v>451</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -12323,7 +12306,7 @@
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" s="2" customFormat="1">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="54" t="s">
         <v>451</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -12356,7 +12339,7 @@
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" s="2" customFormat="1" ht="35.25">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="54" t="s">
         <v>451</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -12365,10 +12348,10 @@
       <c r="C15" s="32" t="s">
         <v>666</v>
       </c>
-      <c r="D15" s="74" t="s">
+      <c r="D15" s="65" t="s">
         <v>673</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="56" t="s">
         <v>664</v>
       </c>
       <c r="F15" s="10"/>
@@ -12389,7 +12372,7 @@
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14" s="2" customFormat="1">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="54" t="s">
         <v>451</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -12422,7 +12405,7 @@
       <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14" s="2" customFormat="1">
-      <c r="A17" s="63" t="s">
+      <c r="A17" s="54" t="s">
         <v>451</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -12455,7 +12438,7 @@
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" s="2" customFormat="1" ht="35.25">
-      <c r="A18" s="63" t="s">
+      <c r="A18" s="54" t="s">
         <v>451</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -12464,10 +12447,10 @@
       <c r="C18" s="32" t="s">
         <v>667</v>
       </c>
-      <c r="D18" s="74" t="s">
+      <c r="D18" s="65" t="s">
         <v>673</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="56" t="s">
         <v>664</v>
       </c>
       <c r="F18" s="10"/>
@@ -12488,7 +12471,7 @@
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" s="2" customFormat="1">
-      <c r="A19" s="63" t="s">
+      <c r="A19" s="54" t="s">
         <v>451</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -12565,12 +12548,12 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A2:R78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection activeCell="D15" sqref="D15"/>
       <selection pane="topRight" activeCell="D15" sqref="D15"/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
@@ -12599,7 +12582,7 @@
       <c r="C2" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="63" t="s">
         <v>663</v>
       </c>
       <c r="E2" s="41" t="s">
@@ -12637,10 +12620,10 @@
       <c r="C3" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="64" t="s">
         <v>671</v>
       </c>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="55" t="s">
         <v>176</v>
       </c>
       <c r="F3" s="39">
@@ -12671,10 +12654,10 @@
       <c r="C4" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="74" t="s">
+      <c r="D4" s="65" t="s">
         <v>673</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="56" t="s">
         <v>665</v>
       </c>
       <c r="F4" s="10">
@@ -12707,7 +12690,7 @@
       <c r="C5" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="53"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
       <c r="G5" s="41">
@@ -12739,7 +12722,7 @@
       <c r="C6" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="53"/>
+      <c r="D6" s="51"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="41">
@@ -12771,7 +12754,7 @@
       <c r="C7" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="53"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="41">
@@ -12803,7 +12786,7 @@
       <c r="C8" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="D8" s="72"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="41"/>
       <c r="F8" s="41"/>
       <c r="G8" s="41"/>
@@ -12827,10 +12810,10 @@
       <c r="C9" s="41" t="s">
         <v>343</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="66" t="s">
         <v>680</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="55" t="s">
         <v>186</v>
       </c>
       <c r="F9" s="41"/>
@@ -12866,10 +12849,10 @@
       <c r="C10" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="65" t="s">
         <v>679</v>
       </c>
-      <c r="E10" s="65" t="s">
+      <c r="E10" s="56" t="s">
         <v>187</v>
       </c>
       <c r="F10" s="10">
@@ -12902,10 +12885,10 @@
       <c r="C11" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="D11" s="74" t="s">
+      <c r="D11" s="65" t="s">
         <v>676</v>
       </c>
-      <c r="E11" s="65" t="s">
+      <c r="E11" s="56" t="s">
         <v>335</v>
       </c>
       <c r="F11" s="9">
@@ -12938,10 +12921,10 @@
       <c r="C12" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="65" t="s">
         <v>677</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="E12" s="56" t="s">
         <v>334</v>
       </c>
       <c r="F12" s="9">
@@ -12974,10 +12957,10 @@
       <c r="C13" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="D13" s="74" t="s">
+      <c r="D13" s="65" t="s">
         <v>678</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="56" t="s">
         <v>337</v>
       </c>
       <c r="F13" s="9">
@@ -13010,10 +12993,10 @@
       <c r="C14" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="56" t="s">
         <v>694</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="56" t="s">
         <v>695</v>
       </c>
       <c r="F14" s="9">
@@ -13046,7 +13029,7 @@
       <c r="C15" s="41" t="s">
         <v>351</v>
       </c>
-      <c r="D15" s="72"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
       <c r="G15" s="41">
@@ -13110,10 +13093,10 @@
       <c r="C17" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="D17" s="67" t="s">
         <v>682</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="55" t="s">
         <v>306</v>
       </c>
       <c r="F17" s="13"/>
@@ -13144,10 +13127,10 @@
       <c r="C18" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="56" t="s">
         <v>683</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="56" t="s">
         <v>307</v>
       </c>
       <c r="F18" s="13"/>
@@ -13212,10 +13195,10 @@
       <c r="C20" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="56" t="s">
         <v>685</v>
       </c>
-      <c r="E20" s="65" t="s">
+      <c r="E20" s="56" t="s">
         <v>308</v>
       </c>
       <c r="F20" s="13"/>
@@ -13342,10 +13325,10 @@
       <c r="C24" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="56" t="s">
         <v>686</v>
       </c>
-      <c r="E24" s="65" t="s">
+      <c r="E24" s="56" t="s">
         <v>319</v>
       </c>
       <c r="F24" s="13"/>
@@ -13374,10 +13357,10 @@
       <c r="C25" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="56" t="s">
         <v>690</v>
       </c>
-      <c r="E25" s="65" t="s">
+      <c r="E25" s="56" t="s">
         <v>320</v>
       </c>
       <c r="F25" s="13"/>
@@ -13406,10 +13389,10 @@
       <c r="C26" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="56" t="s">
         <v>687</v>
       </c>
-      <c r="E26" s="65" t="s">
+      <c r="E26" s="56" t="s">
         <v>321</v>
       </c>
       <c r="F26" s="13"/>
@@ -13438,10 +13421,10 @@
       <c r="C27" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="56" t="s">
         <v>691</v>
       </c>
-      <c r="E27" s="65" t="s">
+      <c r="E27" s="56" t="s">
         <v>322</v>
       </c>
       <c r="F27" s="13"/>
@@ -13470,7 +13453,7 @@
       <c r="C28" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="D28" s="72"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
@@ -13492,7 +13475,7 @@
       <c r="C29" s="47" t="s">
         <v>363</v>
       </c>
-      <c r="D29" s="72"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="G29" s="41">
@@ -13522,7 +13505,7 @@
       <c r="C30" s="47" t="s">
         <v>364</v>
       </c>
-      <c r="D30" s="72"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="41"/>
       <c r="F30" s="41"/>
       <c r="G30" s="41">
@@ -13552,7 +13535,7 @@
       <c r="C31" s="47" t="s">
         <v>473</v>
       </c>
-      <c r="D31" s="72"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="41"/>
       <c r="F31" s="41"/>
       <c r="G31" s="41">
@@ -13580,7 +13563,7 @@
       <c r="C32" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="65" t="s">
         <v>673</v>
       </c>
       <c r="E32" s="9" t="s">
@@ -13732,10 +13715,10 @@
       <c r="C37" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D37" s="65" t="s">
+      <c r="D37" s="56" t="s">
         <v>681</v>
       </c>
-      <c r="E37" s="65" t="s">
+      <c r="E37" s="56" t="s">
         <v>670</v>
       </c>
       <c r="F37" s="9">
@@ -13768,7 +13751,7 @@
       <c r="C38" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="D38" s="72"/>
+      <c r="D38" s="63"/>
       <c r="E38" s="41"/>
       <c r="F38" s="41"/>
       <c r="G38" s="41">
@@ -13834,10 +13817,10 @@
       <c r="C40" s="41" t="s">
         <v>477</v>
       </c>
-      <c r="D40" s="64" t="s">
+      <c r="D40" s="55" t="s">
         <v>688</v>
       </c>
-      <c r="E40" s="64" t="s">
+      <c r="E40" s="55" t="s">
         <v>271</v>
       </c>
       <c r="F40" s="41"/>
@@ -13864,10 +13847,10 @@
       <c r="C41" s="41" t="s">
         <v>668</v>
       </c>
-      <c r="D41" s="74" t="s">
+      <c r="D41" s="65" t="s">
         <v>673</v>
       </c>
-      <c r="E41" s="64" t="s">
+      <c r="E41" s="55" t="s">
         <v>669</v>
       </c>
       <c r="F41" s="41"/>
@@ -14000,10 +13983,10 @@
       <c r="C45" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="D45" s="64" t="s">
+      <c r="D45" s="55" t="s">
         <v>675</v>
       </c>
-      <c r="E45" s="64" t="s">
+      <c r="E45" s="55" t="s">
         <v>255</v>
       </c>
       <c r="F45" s="41"/>
@@ -14034,10 +14017,10 @@
       <c r="C46" s="41" t="s">
         <v>479</v>
       </c>
-      <c r="D46" s="64" t="s">
+      <c r="D46" s="55" t="s">
         <v>692</v>
       </c>
-      <c r="E46" s="64" t="s">
+      <c r="E46" s="55" t="s">
         <v>298</v>
       </c>
       <c r="F46" s="41"/>
@@ -14068,10 +14051,10 @@
       <c r="C47" s="41" t="s">
         <v>480</v>
       </c>
-      <c r="D47" s="64" t="s">
+      <c r="D47" s="55" t="s">
         <v>689</v>
       </c>
-      <c r="E47" s="64" t="s">
+      <c r="E47" s="55" t="s">
         <v>258</v>
       </c>
       <c r="F47" s="41"/>
@@ -14134,10 +14117,10 @@
       <c r="C49" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="D49" s="64" t="s">
+      <c r="D49" s="55" t="s">
         <v>675</v>
       </c>
-      <c r="E49" s="64" t="s">
+      <c r="E49" s="55" t="s">
         <v>255</v>
       </c>
       <c r="F49" s="41"/>
@@ -14168,10 +14151,10 @@
       <c r="C50" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="D50" s="64" t="s">
+      <c r="D50" s="55" t="s">
         <v>692</v>
       </c>
-      <c r="E50" s="64" t="s">
+      <c r="E50" s="55" t="s">
         <v>298</v>
       </c>
       <c r="F50" s="43"/>
@@ -14202,10 +14185,10 @@
       <c r="C51" s="41" t="s">
         <v>484</v>
       </c>
-      <c r="D51" s="64" t="s">
+      <c r="D51" s="55" t="s">
         <v>689</v>
       </c>
-      <c r="E51" s="64" t="s">
+      <c r="E51" s="55" t="s">
         <v>258</v>
       </c>
       <c r="F51" s="41"/>
@@ -14268,10 +14251,10 @@
       <c r="C53" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="D53" s="64" t="s">
+      <c r="D53" s="55" t="s">
         <v>675</v>
       </c>
-      <c r="E53" s="64" t="s">
+      <c r="E53" s="55" t="s">
         <v>255</v>
       </c>
       <c r="F53" s="41"/>
@@ -14302,10 +14285,10 @@
       <c r="C54" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="D54" s="64" t="s">
+      <c r="D54" s="55" t="s">
         <v>692</v>
       </c>
-      <c r="E54" s="64" t="s">
+      <c r="E54" s="55" t="s">
         <v>298</v>
       </c>
       <c r="F54" s="43"/>
@@ -14336,10 +14319,10 @@
       <c r="C55" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="D55" s="64" t="s">
+      <c r="D55" s="55" t="s">
         <v>689</v>
       </c>
-      <c r="E55" s="64" t="s">
+      <c r="E55" s="55" t="s">
         <v>258</v>
       </c>
       <c r="F55" s="41"/>
@@ -14368,10 +14351,10 @@
       <c r="C56" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="D56" s="74" t="s">
+      <c r="D56" s="65" t="s">
         <v>673</v>
       </c>
-      <c r="E56" s="65" t="s">
+      <c r="E56" s="56" t="s">
         <v>289</v>
       </c>
       <c r="F56" s="41"/>
@@ -14520,10 +14503,10 @@
       <c r="C61" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="D61" s="65" t="s">
+      <c r="D61" s="56" t="s">
         <v>693</v>
       </c>
-      <c r="E61" s="65" t="s">
+      <c r="E61" s="56" t="s">
         <v>670</v>
       </c>
       <c r="F61" s="9">
@@ -14556,7 +14539,7 @@
       <c r="C62" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="D62" s="72"/>
+      <c r="D62" s="63"/>
       <c r="E62" s="41"/>
       <c r="F62" s="41"/>
       <c r="G62" s="41">
@@ -14622,10 +14605,10 @@
       <c r="C64" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="D64" s="74" t="s">
+      <c r="D64" s="65" t="s">
         <v>673</v>
       </c>
-      <c r="E64" s="65" t="s">
+      <c r="E64" s="56" t="s">
         <v>289</v>
       </c>
       <c r="F64" s="41"/>
@@ -14750,10 +14733,10 @@
       <c r="C68" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="D68" s="65" t="s">
+      <c r="D68" s="56" t="s">
         <v>674</v>
       </c>
-      <c r="E68" s="65" t="s">
+      <c r="E68" s="56" t="s">
         <v>290</v>
       </c>
       <c r="F68" s="9"/>
@@ -14848,10 +14831,10 @@
       <c r="C71" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="D71" s="65" t="s">
+      <c r="D71" s="56" t="s">
         <v>693</v>
       </c>
-      <c r="E71" s="65" t="s">
+      <c r="E71" s="56" t="s">
         <v>670</v>
       </c>
       <c r="F71" s="9">
@@ -14884,10 +14867,10 @@
       <c r="C72" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="D72" s="65" t="s">
+      <c r="D72" s="56" t="s">
         <v>693</v>
       </c>
-      <c r="E72" s="65" t="s">
+      <c r="E72" s="56" t="s">
         <v>670</v>
       </c>
       <c r="F72" s="9">
@@ -14911,7 +14894,7 @@
       </c>
     </row>
     <row r="73" spans="1:12">
-      <c r="A73" s="52" t="s">
+      <c r="A73" s="50" t="s">
         <v>286</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -14935,7 +14918,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" ht="246.75">
-      <c r="A74" s="52" t="s">
+      <c r="A74" s="50" t="s">
         <v>286</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -14944,10 +14927,10 @@
       <c r="C74" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="D74" s="65" t="s">
+      <c r="D74" s="56" t="s">
         <v>693</v>
       </c>
-      <c r="E74" s="65" t="s">
+      <c r="E74" s="56" t="s">
         <v>670</v>
       </c>
       <c r="F74" s="9">
@@ -14978,7 +14961,7 @@
       <c r="C75" s="43" t="s">
         <v>403</v>
       </c>
-      <c r="D75" s="72"/>
+      <c r="D75" s="63"/>
       <c r="E75" s="43"/>
       <c r="F75" s="43"/>
       <c r="G75" s="9" t="s">
@@ -15008,7 +14991,7 @@
       <c r="C76" s="43" t="s">
         <v>404</v>
       </c>
-      <c r="D76" s="72"/>
+      <c r="D76" s="63"/>
       <c r="E76" s="43"/>
       <c r="F76" s="43"/>
       <c r="G76" s="9">
@@ -15029,16 +15012,16 @@
       <c r="L76" s="43"/>
     </row>
     <row r="77" spans="1:12">
-      <c r="A77" s="61" t="s">
+      <c r="A77" s="53" t="s">
         <v>439</v>
       </c>
-      <c r="B77" s="61" t="s">
+      <c r="B77" s="53" t="s">
         <v>443</v>
       </c>
-      <c r="C77" s="61" t="s">
+      <c r="C77" s="53" t="s">
         <v>448</v>
       </c>
-      <c r="D77" s="72"/>
+      <c r="D77" s="63"/>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
@@ -15053,34 +15036,34 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="18.75">
-      <c r="A78" s="61" t="s">
+      <c r="A78" s="53" t="s">
         <v>439</v>
       </c>
-      <c r="B78" s="61" t="s">
+      <c r="B78" s="53" t="s">
         <v>440</v>
       </c>
-      <c r="C78" s="61" t="s">
+      <c r="C78" s="53" t="s">
         <v>449</v>
       </c>
-      <c r="D78" s="72"/>
-      <c r="E78" s="61"/>
-      <c r="F78" s="61"/>
-      <c r="G78" s="61">
+      <c r="D78" s="63"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="53"/>
+      <c r="G78" s="53">
         <v>0</v>
       </c>
-      <c r="H78" s="61">
+      <c r="H78" s="53">
         <v>99</v>
       </c>
-      <c r="I78" s="61" t="s">
+      <c r="I78" s="53" t="s">
         <v>10</v>
       </c>
       <c r="J78" s="1">
         <v>2</v>
       </c>
-      <c r="K78" s="61" t="s">
+      <c r="K78" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="L78" s="61" t="s">
+      <c r="L78" s="53" t="s">
         <v>173</v>
       </c>
     </row>
@@ -15092,276 +15075,302 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883AEBD5-B255-4B86-ABCF-F48DF2A77A1E}">
-  <sheetPr codeName="Sheet6"/>
-  <dimension ref="A2:Q84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F806C0-0207-4A1D-8BA3-91B15F61F643}">
+  <dimension ref="A2:R84"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection activeCell="D15" sqref="D15"/>
+      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.649999999999999"/>
   <cols>
-    <col min="1" max="1" width="24.3125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.0625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.8125" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.8125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.8125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.8125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.9375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.0625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.5625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="26.3125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="34.6875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="40.8125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="7.8125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.8125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.9375" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.0625" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="176.0625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:18">
+      <c r="A2" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="52" t="s">
-        <v>418</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>663</v>
+      </c>
+      <c r="E2" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="63" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:18" ht="141">
+      <c r="A3" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="64" t="s">
+        <v>671</v>
+      </c>
+      <c r="E3" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="57">
         <v>6</v>
       </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
+      <c r="G3" s="57">
+        <v>1</v>
+      </c>
+      <c r="H3" s="57">
         <v>8</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" s="2" customFormat="1">
-      <c r="A4" s="53" t="s">
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="35.25">
+      <c r="A4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="51" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="65" t="s">
+        <v>673</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>665</v>
+      </c>
+      <c r="F4" s="10">
         <v>2</v>
       </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
       <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
         <v>2</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="10"/>
+      <c r="K4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" s="2" customFormat="1" ht="18.75">
-      <c r="A5" s="50" t="s">
+      <c r="L4" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="2" customFormat="1" ht="18.75">
+      <c r="A5" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="16">
+      <c r="D5" s="51"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="63">
         <v>0</v>
       </c>
-      <c r="G5" s="16">
+      <c r="H5" s="63">
         <v>999.99</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1">
+      <c r="I5" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="K5" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" s="2" customFormat="1" ht="18.75">
-      <c r="A6" s="50" t="s">
+      <c r="L5" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="2" customFormat="1" ht="18.75">
+      <c r="A6" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="16">
+      <c r="D6" s="51"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="63">
         <v>0</v>
       </c>
-      <c r="G6" s="16">
+      <c r="H6" s="63">
         <v>999.99</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="I6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="K6" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:17" s="2" customFormat="1" ht="18.75">
-      <c r="A7" s="50" t="s">
+      <c r="L6" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="2" customFormat="1" ht="18.75">
+      <c r="A7" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="16">
+      <c r="D7" s="51"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="63">
         <v>0</v>
       </c>
-      <c r="G7" s="16">
+      <c r="H7" s="63">
         <v>999.99</v>
       </c>
-      <c r="H7" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="I7" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="K7" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="54" t="s">
+      <c r="L7" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55" t="s">
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55" t="s">
+      <c r="J8" s="63"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="63" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="19" customFormat="1">
-      <c r="A9" s="54" t="s">
+    <row r="9" spans="1:18" ht="105.75">
+      <c r="A9" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="E9" s="55" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55">
-        <v>1</v>
-      </c>
-      <c r="G9" s="55">
+      <c r="F9" s="63"/>
+      <c r="G9" s="63">
+        <v>1</v>
+      </c>
+      <c r="H9" s="63">
         <v>6</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="I9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="55"/>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="63"/>
+      <c r="K9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="55" t="s">
+      <c r="L9" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="2"/>
+      <c r="N9" s="12"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="54" t="s">
+      <c r="R9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" ht="70.5">
+      <c r="A10" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -15370,130 +15379,142 @@
       <c r="C10" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="65" t="s">
+        <v>679</v>
+      </c>
+      <c r="E10" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="10">
-        <v>1</v>
-      </c>
       <c r="F10" s="10">
         <v>1</v>
       </c>
       <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
         <v>3</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="I10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="15"/>
+      <c r="K10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="L10" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="23" customFormat="1">
-      <c r="A11" s="56" t="s">
+    <row r="11" spans="1:18" ht="105.75">
+      <c r="A11" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>323</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="D11" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="D11" s="65" t="s">
+        <v>676</v>
+      </c>
+      <c r="E11" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="E11" s="9">
-        <v>1</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>1</v>
       </c>
       <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
         <v>4</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="I11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="15"/>
+      <c r="K11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="L11" s="9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="23" customFormat="1">
-      <c r="A12" s="56" t="s">
+    <row r="12" spans="1:18" ht="35.25">
+      <c r="A12" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>333</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D12" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>677</v>
+      </c>
+      <c r="E12" s="56" t="s">
         <v>334</v>
       </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>1</v>
       </c>
       <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10">
         <v>4</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="I12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="15"/>
+      <c r="K12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="L12" s="9" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="23" customFormat="1">
-      <c r="A13" s="56" t="s">
+    <row r="13" spans="1:18" ht="35.25">
+      <c r="A13" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>336</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>353</v>
-      </c>
-      <c r="D13" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>678</v>
+      </c>
+      <c r="E13" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>1</v>
       </c>
       <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
         <v>4</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="I13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="15"/>
+      <c r="K13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="L13" s="9" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="23" customFormat="1">
-      <c r="A14" s="66" t="s">
+    <row r="14" spans="1:18" ht="264.39999999999998">
+      <c r="A14" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -15502,122 +15523,130 @@
       <c r="C14" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D14" s="56" t="s">
+        <v>694</v>
+      </c>
+      <c r="E14" s="56" t="s">
+        <v>695</v>
+      </c>
+      <c r="F14" s="9">
         <v>2</v>
       </c>
-      <c r="F14" s="9">
-        <v>1</v>
-      </c>
       <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
         <v>14</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="9"/>
+      <c r="K14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="L14" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="23" customFormat="1" ht="18.75">
-      <c r="A15" s="56" t="s">
+    <row r="15" spans="1:18" ht="18.75">
+      <c r="A15" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="63" t="s">
         <v>351</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58">
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63">
         <v>0</v>
       </c>
-      <c r="G15" s="58">
+      <c r="H15" s="63">
         <v>99</v>
       </c>
-      <c r="H15" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="I15" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="1">
         <v>2</v>
       </c>
-      <c r="J15" s="58" t="s">
+      <c r="K15" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="58" t="s">
+      <c r="L15" s="63" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="23" customFormat="1">
-      <c r="A16" s="56" t="s">
+    <row r="16" spans="1:18" ht="70.5">
+      <c r="A16" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="63" t="s">
         <v>424</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="63" t="s">
+        <v>696</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>697</v>
+      </c>
+      <c r="E16" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="F16" s="63">
+        <v>1</v>
+      </c>
+      <c r="G16" s="63">
+        <v>1</v>
+      </c>
+      <c r="H16" s="63">
         <v>4</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" ht="18.75">
-      <c r="A17" s="54" t="s">
+      <c r="I16" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+    </row>
+    <row r="17" spans="1:12" ht="18.75">
+      <c r="A17" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>350</v>
+        <v>466</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
-      <c r="F17" s="9">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9">
         <v>0</v>
       </c>
-      <c r="G17" s="9">
-        <v>10</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" s="11">
+      <c r="H17" s="9">
+        <v>10</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" s="11">
         <v>2</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="K17" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="L17" s="9" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="23" customFormat="1">
-      <c r="A18" s="56" t="s">
+    <row r="18" spans="1:12" ht="141">
+      <c r="A18" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -15626,29 +15655,32 @@
       <c r="C18" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D18" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="E18" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="58">
-        <v>1</v>
-      </c>
-      <c r="G18" s="58">
+      <c r="F18" s="13"/>
+      <c r="G18" s="63">
+        <v>1</v>
+      </c>
+      <c r="H18" s="63">
         <v>7</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="I18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="11"/>
-      <c r="J18" s="10" t="s">
+      <c r="J18" s="11"/>
+      <c r="K18" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="L18" s="9" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="23" customFormat="1">
-      <c r="A19" s="56" t="s">
+    <row r="19" spans="1:12" ht="176.25">
+      <c r="A19" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -15657,29 +15689,32 @@
       <c r="C19" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="56" t="s">
+        <v>683</v>
+      </c>
+      <c r="E19" s="56" t="s">
         <v>307</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="58">
-        <v>1</v>
-      </c>
-      <c r="G19" s="58">
+      <c r="F19" s="13"/>
+      <c r="G19" s="63">
+        <v>1</v>
+      </c>
+      <c r="H19" s="63">
         <v>6</v>
       </c>
-      <c r="H19" s="10" t="s">
+      <c r="I19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="10" t="s">
+      <c r="J19" s="11"/>
+      <c r="K19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="L19" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="23" customFormat="1">
-      <c r="A20" s="56" t="s">
+    <row r="20" spans="1:12">
+      <c r="A20" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -15689,28 +15724,31 @@
         <v>347</v>
       </c>
       <c r="D20" s="9" t="s">
+        <v>684</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="58">
-        <v>1</v>
-      </c>
-      <c r="G20" s="58">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="63">
+        <v>1</v>
+      </c>
+      <c r="H20" s="63">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="11"/>
+      <c r="K20" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="L20" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="23" customFormat="1">
-      <c r="A21" s="56" t="s">
+    <row r="21" spans="1:12" ht="35.25">
+      <c r="A21" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -15719,91 +15757,96 @@
       <c r="C21" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="56" t="s">
+        <v>685</v>
+      </c>
+      <c r="E21" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="58">
-        <v>1</v>
-      </c>
-      <c r="G21" s="58">
+      <c r="F21" s="13"/>
+      <c r="G21" s="63">
+        <v>1</v>
+      </c>
+      <c r="H21" s="63">
         <v>2</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="I21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="10" t="s">
+      <c r="J21" s="11"/>
+      <c r="K21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="L21" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="23" customFormat="1" ht="18.75">
-      <c r="A22" s="56" t="s">
+    <row r="22" spans="1:12" ht="18.75">
+      <c r="A22" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>309</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>345</v>
+        <v>467</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
-      <c r="F22" s="9">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9">
         <v>0</v>
       </c>
-      <c r="G22" s="9">
-        <v>10</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="H22" s="9">
+        <v>10</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="11">
         <v>2</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="K22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="L22" s="9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="23" customFormat="1" ht="18.75">
-      <c r="A23" s="56" t="s">
+    <row r="23" spans="1:12" ht="18.75">
+      <c r="A23" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>310</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>344</v>
+        <v>468</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="9">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9">
         <v>0</v>
       </c>
-      <c r="G23" s="9">
-        <v>10</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="11">
+      <c r="H23" s="9">
+        <v>10</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="11">
         <v>2</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="K23" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="L23" s="9" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="23" customFormat="1">
-      <c r="A24" s="56" t="s">
+    <row r="24" spans="1:12">
+      <c r="A24" s="57" t="s">
         <v>213</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -15813,250 +15856,267 @@
         <v>357</v>
       </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9">
+      <c r="E24" s="9"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="9">
         <v>0</v>
       </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" s="11">
+      <c r="H24" s="9">
+        <v>1</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="11">
         <v>3</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="K24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="L24" s="9" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="23" customFormat="1">
-      <c r="A25" s="56" t="s">
+    <row r="25" spans="1:12" ht="123.4">
+      <c r="A25" s="57" t="s">
         <v>213</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>315</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="D25" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D25" s="56" t="s">
+        <v>686</v>
+      </c>
+      <c r="E25" s="56" t="s">
         <v>319</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="58">
-        <v>1</v>
-      </c>
-      <c r="G25" s="58">
+      <c r="F25" s="13"/>
+      <c r="G25" s="63">
+        <v>1</v>
+      </c>
+      <c r="H25" s="63">
         <v>6</v>
       </c>
-      <c r="H25" s="10" t="s">
+      <c r="I25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="9" t="s">
+      <c r="J25" s="11"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="9" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="23" customFormat="1">
-      <c r="A26" s="56" t="s">
+    <row r="26" spans="1:12" ht="299.64999999999998">
+      <c r="A26" s="57" t="s">
         <v>213</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>316</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D26" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D26" s="56" t="s">
+        <v>690</v>
+      </c>
+      <c r="E26" s="56" t="s">
         <v>320</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="58">
-        <v>1</v>
-      </c>
-      <c r="G26" s="58">
+      <c r="F26" s="13"/>
+      <c r="G26" s="63">
+        <v>1</v>
+      </c>
+      <c r="H26" s="63">
         <v>12</v>
       </c>
-      <c r="H26" s="10" t="s">
+      <c r="I26" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I26" s="11"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="9" t="s">
+      <c r="J26" s="11"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="23" customFormat="1">
-      <c r="A27" s="56" t="s">
+    <row r="27" spans="1:12" ht="35.25">
+      <c r="A27" s="57" t="s">
         <v>213</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>317</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="D27" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>687</v>
+      </c>
+      <c r="E27" s="56" t="s">
         <v>321</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="58">
-        <v>1</v>
-      </c>
-      <c r="G27" s="58">
+      <c r="F27" s="13"/>
+      <c r="G27" s="63">
+        <v>1</v>
+      </c>
+      <c r="H27" s="63">
         <v>2</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="I27" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="11"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="9" t="s">
+      <c r="J27" s="11"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="23" customFormat="1">
-      <c r="A28" s="56" t="s">
+    <row r="28" spans="1:12" ht="141">
+      <c r="A28" s="57" t="s">
         <v>213</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>318</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D28" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>691</v>
+      </c>
+      <c r="E28" s="56" t="s">
         <v>322</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="58">
-        <v>1</v>
-      </c>
-      <c r="G28" s="58">
+      <c r="F28" s="13"/>
+      <c r="G28" s="63">
+        <v>1</v>
+      </c>
+      <c r="H28" s="63">
         <v>6</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="I28" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="9" t="s">
+      <c r="J28" s="11"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="9" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="54" t="s">
+    <row r="29" spans="1:12">
+      <c r="A29" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55" t="s">
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="9"/>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="54" t="s">
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="63" t="s">
         <v>363</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55">
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63">
         <v>0</v>
       </c>
-      <c r="G30" s="55">
+      <c r="H30" s="63">
         <v>9999</v>
       </c>
-      <c r="H30" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="I30" s="1">
+      <c r="I30" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="1">
         <v>2</v>
       </c>
-      <c r="J30" s="55" t="s">
+      <c r="K30" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="K30" s="9"/>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="54" t="s">
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="63" t="s">
         <v>364</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55">
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63">
         <v>0.02</v>
       </c>
-      <c r="G31" s="55">
+      <c r="H31" s="63">
         <v>370</v>
       </c>
-      <c r="H31" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="1">
+      <c r="I31" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1">
         <v>3</v>
       </c>
-      <c r="J31" s="55" t="s">
+      <c r="K31" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="9"/>
-    </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="54" t="s">
+      <c r="L31" s="9"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="57" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55">
+      <c r="C32" s="63" t="s">
+        <v>473</v>
+      </c>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63">
         <v>0</v>
       </c>
-      <c r="G32" s="55">
+      <c r="H32" s="63">
         <v>4000</v>
       </c>
-      <c r="H32" s="55" t="s">
+      <c r="I32" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55" t="s">
+      <c r="J32" s="63"/>
+      <c r="K32" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="K32" s="9"/>
-    </row>
-    <row r="33" spans="1:11" s="23" customFormat="1">
-      <c r="A33" s="56" t="s">
+      <c r="L32" s="9"/>
+    </row>
+    <row r="33" spans="1:12" ht="35.25">
+      <c r="A33" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -16065,120 +16125,126 @@
       <c r="C33" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="65" t="s">
+        <v>673</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58">
-        <v>1</v>
-      </c>
-      <c r="G33" s="58">
+      <c r="F33" s="63"/>
+      <c r="G33" s="63">
+        <v>1</v>
+      </c>
+      <c r="H33" s="63">
         <v>2</v>
       </c>
-      <c r="H33" s="58" t="s">
+      <c r="I33" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="58"/>
-      <c r="J33" s="56" t="s">
+      <c r="J33" s="63"/>
+      <c r="K33" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K33" s="9"/>
-    </row>
-    <row r="34" spans="1:11" s="2" customFormat="1">
-      <c r="A34" s="56" t="s">
+      <c r="L33" s="9"/>
+    </row>
+    <row r="34" spans="1:12" s="2" customFormat="1">
+      <c r="A34" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="9">
+      <c r="F34" s="9"/>
+      <c r="G34" s="9">
         <v>0</v>
       </c>
-      <c r="G34" s="9">
+      <c r="H34" s="9">
         <v>15</v>
       </c>
-      <c r="H34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="11">
+      <c r="I34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="11">
         <v>3</v>
       </c>
-      <c r="J34" s="9" t="s">
+      <c r="K34" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="L34" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="2" customFormat="1">
-      <c r="A35" s="56" t="s">
+    <row r="35" spans="1:12" s="2" customFormat="1">
+      <c r="A35" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="9">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9">
         <v>0</v>
       </c>
-      <c r="G35" s="9">
+      <c r="H35" s="9">
         <v>2</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="11">
+      <c r="I35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="11">
         <v>3</v>
       </c>
-      <c r="J35" s="9" t="s">
+      <c r="K35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K35" s="9" t="s">
+      <c r="L35" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="2" customFormat="1">
-      <c r="A36" s="56" t="s">
+    <row r="36" spans="1:12" s="2" customFormat="1">
+      <c r="A36" s="57" t="s">
         <v>182</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>410</v>
+        <v>476</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
-      <c r="F36" s="9">
+      <c r="F36" s="9"/>
+      <c r="G36" s="9">
         <v>0</v>
       </c>
-      <c r="G36" s="9">
+      <c r="H36" s="9">
         <v>2</v>
       </c>
-      <c r="H36" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="11">
+      <c r="I36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" s="11">
         <v>3</v>
       </c>
-      <c r="J36" s="9" t="s">
+      <c r="K36" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="L36" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="56" t="s">
+    <row r="37" spans="1:12">
+      <c r="A37" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -16191,17 +16257,18 @@
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="9" t="s">
+      <c r="H37" s="9"/>
+      <c r="I37" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="9"/>
+      <c r="L37" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="23" customFormat="1">
-      <c r="A38" s="56" t="s">
+    <row r="38" spans="1:12" ht="246.75">
+      <c r="A38" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -16210,620 +16277,666 @@
       <c r="C38" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="9">
+      <c r="D38" s="56" t="s">
+        <v>681</v>
+      </c>
+      <c r="E38" s="56" t="s">
+        <v>670</v>
+      </c>
+      <c r="F38" s="9">
         <v>2</v>
       </c>
-      <c r="F38" s="9">
-        <v>1</v>
-      </c>
       <c r="G38" s="9">
+        <v>1</v>
+      </c>
+      <c r="H38" s="9">
         <v>14</v>
       </c>
-      <c r="H38" s="9" t="s">
+      <c r="I38" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9" t="s">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K38" s="9" t="s">
+      <c r="L38" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="23" customFormat="1" ht="18.75">
-      <c r="A39" s="56" t="s">
+    <row r="39" spans="1:12" ht="18.75">
+      <c r="A39" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="58" t="s">
+      <c r="B39" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58">
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63">
         <v>0</v>
       </c>
-      <c r="G39" s="58">
+      <c r="H39" s="63">
         <v>99</v>
       </c>
-      <c r="H39" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="1">
+      <c r="I39" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="1">
         <v>2</v>
       </c>
-      <c r="J39" s="58" t="s">
+      <c r="K39" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="58" t="s">
+      <c r="L39" s="63" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="23" customFormat="1">
-      <c r="A40" s="56" t="s">
+    <row r="40" spans="1:12" ht="70.5">
+      <c r="A40" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B40" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="C40" s="63" t="s">
+        <v>696</v>
+      </c>
+      <c r="D40" s="67" t="s">
+        <v>697</v>
+      </c>
+      <c r="E40" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="F40" s="63">
+        <v>1</v>
+      </c>
+      <c r="G40" s="63">
+        <v>1</v>
+      </c>
+      <c r="H40" s="63">
+        <v>4</v>
+      </c>
+      <c r="I40" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+    </row>
+    <row r="41" spans="1:12" ht="18.75">
+      <c r="A41" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="E40" s="10">
-        <v>1</v>
-      </c>
-      <c r="F40" s="10">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10">
-        <v>4</v>
-      </c>
-      <c r="H40" s="10" t="s">
+      <c r="B41" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="9">
+        <v>10</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="11">
+        <v>2</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="35.25">
+      <c r="A42" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="C42" s="63" t="s">
+        <v>477</v>
+      </c>
+      <c r="D42" s="55" t="s">
+        <v>688</v>
+      </c>
+      <c r="E42" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="F42" s="63"/>
+      <c r="G42" s="63">
+        <v>1</v>
+      </c>
+      <c r="H42" s="63">
+        <v>2</v>
+      </c>
+      <c r="I42" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="9"/>
-    </row>
-    <row r="41" spans="1:11" s="23" customFormat="1">
-      <c r="A41" s="56" t="s">
+      <c r="J42" s="1"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="52"/>
+    </row>
+    <row r="43" spans="1:12" ht="35.25">
+      <c r="A43" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="58" t="s">
-        <v>270</v>
-      </c>
-      <c r="C41" s="58" t="s">
-        <v>372</v>
-      </c>
-      <c r="D41" s="58" t="s">
-        <v>271</v>
-      </c>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58">
-        <v>1</v>
-      </c>
-      <c r="G41" s="58">
+      <c r="B43" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="63" t="s">
+        <v>668</v>
+      </c>
+      <c r="D43" s="65" t="s">
+        <v>673</v>
+      </c>
+      <c r="E43" s="55" t="s">
+        <v>669</v>
+      </c>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63">
+        <v>1</v>
+      </c>
+      <c r="H43" s="63">
         <v>2</v>
       </c>
-      <c r="H41" s="58" t="s">
+      <c r="I43" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="57"/>
-    </row>
-    <row r="42" spans="1:11" s="23" customFormat="1">
-      <c r="A42" s="56" t="s">
+      <c r="J43" s="63"/>
+      <c r="K43" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="L43" s="52" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B42" s="58" t="s">
-        <v>247</v>
-      </c>
-      <c r="C42" s="58" t="s">
-        <v>369</v>
-      </c>
-      <c r="D42" s="58" t="s">
-        <v>256</v>
-      </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58">
-        <v>1</v>
-      </c>
-      <c r="G42" s="58">
+      <c r="B44" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9">
+        <v>1</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="11">
+        <v>3</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="9">
+        <v>1</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="11">
+        <v>3</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9">
+        <v>1</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="11">
+        <v>3</v>
+      </c>
+      <c r="K46" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="70.5">
+      <c r="A47" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="63" t="s">
+        <v>478</v>
+      </c>
+      <c r="D47" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="E47" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63">
+        <v>1</v>
+      </c>
+      <c r="H47" s="63">
         <v>2</v>
       </c>
-      <c r="H42" s="58" t="s">
+      <c r="I47" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="58"/>
-      <c r="J42" s="56" t="s">
+      <c r="J47" s="63"/>
+      <c r="K47" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K42" s="57" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="56" t="s">
+      <c r="L47" s="52" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="387.75">
+      <c r="A48" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B43" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9">
+      <c r="B48" s="63" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48" s="63" t="s">
+        <v>479</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>692</v>
+      </c>
+      <c r="E48" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F48" s="63"/>
+      <c r="G48" s="63">
+        <v>1</v>
+      </c>
+      <c r="H48" s="63">
+        <v>17</v>
+      </c>
+      <c r="I48" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="63"/>
+      <c r="K48" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="52" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="52.9">
+      <c r="A49" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>257</v>
+      </c>
+      <c r="C49" s="63" t="s">
+        <v>480</v>
+      </c>
+      <c r="D49" s="55" t="s">
+        <v>689</v>
+      </c>
+      <c r="E49" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="F49" s="63"/>
+      <c r="G49" s="63">
+        <v>1</v>
+      </c>
+      <c r="H49" s="63">
+        <v>3</v>
+      </c>
+      <c r="I49" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="63"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="52" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9">
         <v>0.73799999999999999</v>
       </c>
-      <c r="F43" s="9">
+      <c r="G50" s="9">
         <v>0</v>
       </c>
-      <c r="G43" s="9">
-        <v>1</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" s="11">
+      <c r="H50" s="9">
+        <v>1</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="11">
         <v>3</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="K50" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K43" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="56" t="s">
+      <c r="L50" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="70.5">
+      <c r="A51" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B44" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9">
+      <c r="B51" s="63" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" s="63" t="s">
+        <v>482</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="E51" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63">
+        <v>1</v>
+      </c>
+      <c r="H51" s="63">
+        <v>2</v>
+      </c>
+      <c r="I51" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="63"/>
+      <c r="K51" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="52" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="387.75">
+      <c r="A52" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B52" s="63" t="s">
+        <v>277</v>
+      </c>
+      <c r="C52" s="63" t="s">
+        <v>483</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>692</v>
+      </c>
+      <c r="E52" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F52" s="63"/>
+      <c r="G52" s="63">
+        <v>1</v>
+      </c>
+      <c r="H52" s="63">
+        <v>17</v>
+      </c>
+      <c r="I52" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" s="63"/>
+      <c r="K52" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="L52" s="52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="52.9">
+      <c r="A53" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="C53" s="63" t="s">
+        <v>484</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>689</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="F53" s="63"/>
+      <c r="G53" s="63">
+        <v>1</v>
+      </c>
+      <c r="H53" s="63">
+        <v>3</v>
+      </c>
+      <c r="I53" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" s="63"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="52" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9">
         <v>0.73799999999999999</v>
       </c>
-      <c r="F44" s="9">
+      <c r="G54" s="9">
         <v>0</v>
       </c>
-      <c r="G44" s="9">
-        <v>1</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" s="11">
+      <c r="H54" s="9">
+        <v>1</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J54" s="11">
         <v>3</v>
       </c>
-      <c r="J44" s="9" t="s">
+      <c r="K54" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K44" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="56" t="s">
+      <c r="L54" s="52" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="70.5">
+      <c r="A55" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F45" s="9">
-        <v>0</v>
-      </c>
-      <c r="G45" s="9">
-        <v>1</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" s="11">
+      <c r="B55" s="63" t="s">
+        <v>280</v>
+      </c>
+      <c r="C55" s="63" t="s">
+        <v>486</v>
+      </c>
+      <c r="D55" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="E55" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63">
+        <v>1</v>
+      </c>
+      <c r="H55" s="63">
+        <v>2</v>
+      </c>
+      <c r="I55" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="63"/>
+      <c r="K55" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="52" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="387.75">
+      <c r="A56" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B56" s="63" t="s">
+        <v>281</v>
+      </c>
+      <c r="C56" s="63" t="s">
+        <v>487</v>
+      </c>
+      <c r="D56" s="55" t="s">
+        <v>692</v>
+      </c>
+      <c r="E56" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F56" s="63"/>
+      <c r="G56" s="63">
+        <v>1</v>
+      </c>
+      <c r="H56" s="63">
+        <v>17</v>
+      </c>
+      <c r="I56" s="63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" s="63"/>
+      <c r="K56" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="52" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="52.9">
+      <c r="A57" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" s="63" t="s">
+        <v>282</v>
+      </c>
+      <c r="C57" s="63" t="s">
+        <v>488</v>
+      </c>
+      <c r="D57" s="55" t="s">
+        <v>689</v>
+      </c>
+      <c r="E57" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="F57" s="63"/>
+      <c r="G57" s="63">
+        <v>1</v>
+      </c>
+      <c r="H57" s="63">
         <v>3</v>
       </c>
-      <c r="J45" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="23" customFormat="1">
-      <c r="A46" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B46" s="58" t="s">
-        <v>249</v>
-      </c>
-      <c r="C46" s="58" t="s">
-        <v>374</v>
-      </c>
-      <c r="D46" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58">
-        <v>1</v>
-      </c>
-      <c r="G46" s="58">
-        <v>2</v>
-      </c>
-      <c r="H46" s="58" t="s">
+      <c r="I57" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="58"/>
-      <c r="J46" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" s="57" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="23" customFormat="1">
-      <c r="A47" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B47" s="58" t="s">
-        <v>250</v>
-      </c>
-      <c r="C47" s="58" t="s">
-        <v>375</v>
-      </c>
-      <c r="D47" s="61" t="s">
-        <v>298</v>
-      </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58">
-        <v>1</v>
-      </c>
-      <c r="G47" s="58">
-        <v>17</v>
-      </c>
-      <c r="H47" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" s="58"/>
-      <c r="J47" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="K47" s="57" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="23" customFormat="1">
-      <c r="A48" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B48" s="58" t="s">
-        <v>257</v>
-      </c>
-      <c r="C48" s="58" t="s">
-        <v>376</v>
-      </c>
-      <c r="D48" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58">
-        <v>1</v>
-      </c>
-      <c r="G48" s="58">
-        <v>3</v>
-      </c>
-      <c r="H48" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" s="58"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="57" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="23" customFormat="1">
-      <c r="A49" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F49" s="9">
-        <v>0</v>
-      </c>
-      <c r="G49" s="9">
-        <v>1</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I49" s="11">
-        <v>3</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="23" customFormat="1">
-      <c r="A50" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B50" s="58" t="s">
-        <v>276</v>
-      </c>
-      <c r="C50" s="58" t="s">
-        <v>378</v>
-      </c>
-      <c r="D50" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58">
-        <v>1</v>
-      </c>
-      <c r="G50" s="58">
-        <v>2</v>
-      </c>
-      <c r="H50" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" s="58"/>
-      <c r="J50" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" s="57" t="s">
+      <c r="J57" s="63"/>
+      <c r="K57" s="57"/>
+      <c r="L57" s="52" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="23" customFormat="1">
-      <c r="A51" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B51" s="58" t="s">
-        <v>277</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>379</v>
-      </c>
-      <c r="D51" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58">
-        <v>1</v>
-      </c>
-      <c r="G51" s="58">
-        <v>17</v>
-      </c>
-      <c r="H51" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" s="58"/>
-      <c r="J51" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" s="57" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="23" customFormat="1">
-      <c r="A52" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B52" s="58" t="s">
-        <v>278</v>
-      </c>
-      <c r="C52" s="58" t="s">
-        <v>380</v>
-      </c>
-      <c r="D52" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58">
-        <v>1</v>
-      </c>
-      <c r="G52" s="58">
-        <v>3</v>
-      </c>
-      <c r="H52" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" s="58"/>
-      <c r="J52" s="56"/>
-      <c r="K52" s="57" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="23" customFormat="1">
-      <c r="A53" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9">
-        <v>0.73799999999999999</v>
-      </c>
-      <c r="F53" s="9">
-        <v>0</v>
-      </c>
-      <c r="G53" s="9">
-        <v>1</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I53" s="11">
-        <v>3</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" s="57" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="23" customFormat="1">
-      <c r="A54" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B54" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="C54" s="58" t="s">
-        <v>383</v>
-      </c>
-      <c r="D54" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58">
-        <v>1</v>
-      </c>
-      <c r="G54" s="58">
-        <v>2</v>
-      </c>
-      <c r="H54" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I54" s="58"/>
-      <c r="J54" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" s="57" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="23" customFormat="1">
-      <c r="A55" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B55" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="C55" s="58" t="s">
-        <v>382</v>
-      </c>
-      <c r="D55" s="58" t="s">
-        <v>298</v>
-      </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58">
-        <v>1</v>
-      </c>
-      <c r="G55" s="58">
-        <v>17</v>
-      </c>
-      <c r="H55" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I55" s="58"/>
-      <c r="J55" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" s="57" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="23" customFormat="1">
-      <c r="A56" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B56" s="58" t="s">
-        <v>282</v>
-      </c>
-      <c r="C56" s="58" t="s">
-        <v>384</v>
-      </c>
-      <c r="D56" s="58" t="s">
-        <v>258</v>
-      </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58">
-        <v>1</v>
-      </c>
-      <c r="G56" s="58">
-        <v>3</v>
-      </c>
-      <c r="H56" s="58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I56" s="58"/>
-      <c r="J56" s="56"/>
-      <c r="K56" s="57" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="18.75">
-      <c r="A57" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="F57" s="9">
-        <v>0</v>
-      </c>
-      <c r="G57" s="9">
-        <v>10</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I57" s="11">
-        <v>2</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="23" customFormat="1">
-      <c r="A58" s="56" t="s">
+    <row r="58" spans="1:12" ht="35.25">
+      <c r="A58" s="57" t="s">
         <v>219</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -16832,120 +16945,126 @@
       <c r="C58" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="65" t="s">
+        <v>673</v>
+      </c>
+      <c r="E58" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58">
-        <v>1</v>
-      </c>
-      <c r="G58" s="58">
+      <c r="F58" s="63"/>
+      <c r="G58" s="63">
+        <v>1</v>
+      </c>
+      <c r="H58" s="63">
         <v>2</v>
       </c>
-      <c r="H58" s="58" t="s">
+      <c r="I58" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I58" s="58"/>
-      <c r="J58" s="56" t="s">
+      <c r="J58" s="63"/>
+      <c r="K58" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K58" s="9"/>
-    </row>
-    <row r="59" spans="1:11" s="2" customFormat="1">
-      <c r="A59" s="56" t="s">
+      <c r="L58" s="9"/>
+    </row>
+    <row r="59" spans="1:12" s="2" customFormat="1">
+      <c r="A59" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>387</v>
+        <v>489</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="9">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9">
         <v>0</v>
       </c>
-      <c r="G59" s="9">
+      <c r="H59" s="9">
         <v>15</v>
       </c>
-      <c r="H59" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I59" s="11">
+      <c r="I59" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="11">
         <v>3</v>
       </c>
-      <c r="J59" s="9" t="s">
+      <c r="K59" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K59" s="9" t="s">
+      <c r="L59" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="2" customFormat="1">
-      <c r="A60" s="56" t="s">
+    <row r="60" spans="1:12" s="2" customFormat="1">
+      <c r="A60" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>388</v>
+        <v>490</v>
       </c>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="9">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9">
         <v>0</v>
       </c>
-      <c r="G60" s="9">
+      <c r="H60" s="9">
         <v>2</v>
       </c>
-      <c r="H60" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I60" s="11">
+      <c r="I60" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" s="11">
         <v>3</v>
       </c>
-      <c r="J60" s="9" t="s">
+      <c r="K60" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K60" s="9" t="s">
+      <c r="L60" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="2" customFormat="1">
-      <c r="A61" s="56" t="s">
+    <row r="61" spans="1:12" s="2" customFormat="1">
+      <c r="A61" s="57" t="s">
         <v>192</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>389</v>
+        <v>491</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="9">
+      <c r="F61" s="9"/>
+      <c r="G61" s="9">
         <v>0</v>
       </c>
-      <c r="G61" s="9">
+      <c r="H61" s="9">
         <v>2</v>
       </c>
-      <c r="H61" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I61" s="11">
+      <c r="I61" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61" s="11">
         <v>3</v>
       </c>
-      <c r="J61" s="9" t="s">
+      <c r="K61" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K61" s="9" t="s">
+      <c r="L61" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="23" customFormat="1">
-      <c r="A62" s="56" t="s">
+    <row r="62" spans="1:12">
+      <c r="A62" s="57" t="s">
         <v>194</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -16958,17 +17077,18 @@
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="9" t="s">
+      <c r="H62" s="9"/>
+      <c r="I62" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-      <c r="K62" s="9" t="s">
+      <c r="K62" s="9"/>
+      <c r="L62" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="23" customFormat="1">
-      <c r="A63" s="56" t="s">
+    <row r="63" spans="1:12" ht="246.75">
+      <c r="A63" s="57" t="s">
         <v>194</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -16977,91 +17097,98 @@
       <c r="C63" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E63" s="9">
+      <c r="D63" s="56" t="s">
+        <v>693</v>
+      </c>
+      <c r="E63" s="56" t="s">
+        <v>670</v>
+      </c>
+      <c r="F63" s="9">
         <v>2</v>
       </c>
-      <c r="F63" s="9">
-        <v>1</v>
-      </c>
       <c r="G63" s="9">
+        <v>1</v>
+      </c>
+      <c r="H63" s="9">
         <v>14</v>
       </c>
-      <c r="H63" s="9" t="s">
+      <c r="I63" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9" t="s">
+      <c r="J63" s="9"/>
+      <c r="K63" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K63" s="9" t="s">
+      <c r="L63" s="9" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="23" customFormat="1" ht="18.75">
-      <c r="A64" s="56" t="s">
+    <row r="64" spans="1:12" ht="18.75">
+      <c r="A64" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="B64" s="58" t="s">
+      <c r="B64" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58">
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+      <c r="G64" s="63">
         <v>0</v>
       </c>
-      <c r="G64" s="58">
+      <c r="H64" s="63">
         <v>99</v>
       </c>
-      <c r="H64" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="I64" s="1">
+      <c r="I64" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J64" s="1">
         <v>2</v>
       </c>
-      <c r="J64" s="58" t="s">
+      <c r="K64" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K64" s="58" t="s">
+      <c r="L64" s="63" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="23" customFormat="1">
-      <c r="A65" s="56" t="s">
-        <v>194</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="D65" s="9" t="s">
+    <row r="65" spans="1:12" ht="70.5">
+      <c r="A65" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B65" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="C65" s="63" t="s">
+        <v>696</v>
+      </c>
+      <c r="D65" s="67" t="s">
+        <v>697</v>
+      </c>
+      <c r="E65" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="E65" s="10">
-        <v>1</v>
-      </c>
-      <c r="F65" s="10">
-        <v>1</v>
-      </c>
-      <c r="G65" s="10">
+      <c r="F65" s="63">
+        <v>1</v>
+      </c>
+      <c r="G65" s="63">
+        <v>1</v>
+      </c>
+      <c r="H65" s="63">
         <v>4</v>
       </c>
-      <c r="H65" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="9"/>
-    </row>
-    <row r="66" spans="1:11" s="23" customFormat="1" ht="18.75">
-      <c r="A66" s="56" t="s">
+      <c r="I65" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+    </row>
+    <row r="66" spans="1:12" ht="18.75">
+      <c r="A66" s="57" t="s">
         <v>194</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -17071,30 +17198,31 @@
         <v>393</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9">
+      <c r="E66" s="9"/>
+      <c r="F66" s="9">
         <v>2.33</v>
       </c>
-      <c r="F66" s="9">
+      <c r="G66" s="9">
         <v>0</v>
       </c>
-      <c r="G66" s="9">
-        <v>10</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I66" s="11">
+      <c r="H66" s="9">
+        <v>10</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J66" s="11">
         <v>2</v>
       </c>
-      <c r="J66" s="9" t="s">
+      <c r="K66" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K66" s="9" t="s">
+      <c r="L66" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="23" customFormat="1">
-      <c r="A67" s="56" t="s">
+    <row r="67" spans="1:12" ht="35.25">
+      <c r="A67" s="57" t="s">
         <v>194</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -17103,120 +17231,126 @@
       <c r="C67" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="65" t="s">
+        <v>673</v>
+      </c>
+      <c r="E67" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58">
-        <v>1</v>
-      </c>
-      <c r="G67" s="58">
+      <c r="F67" s="63"/>
+      <c r="G67" s="63">
+        <v>1</v>
+      </c>
+      <c r="H67" s="63">
         <v>2</v>
       </c>
-      <c r="H67" s="58" t="s">
+      <c r="I67" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I67" s="58"/>
-      <c r="J67" s="56" t="s">
+      <c r="J67" s="63"/>
+      <c r="K67" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K67" s="9"/>
-    </row>
-    <row r="68" spans="1:11" s="2" customFormat="1">
-      <c r="A68" s="56" t="s">
+      <c r="L67" s="9"/>
+    </row>
+    <row r="68" spans="1:12" s="2" customFormat="1">
+      <c r="A68" s="57" t="s">
         <v>194</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>395</v>
+        <v>563</v>
       </c>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="9">
+      <c r="F68" s="9"/>
+      <c r="G68" s="9">
         <v>0</v>
       </c>
-      <c r="G68" s="9">
+      <c r="H68" s="9">
         <v>15</v>
       </c>
-      <c r="H68" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I68" s="11">
+      <c r="I68" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" s="11">
         <v>3</v>
       </c>
-      <c r="J68" s="9" t="s">
+      <c r="K68" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K68" s="9" t="s">
+      <c r="L68" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="2" customFormat="1">
-      <c r="A69" s="56" t="s">
+    <row r="69" spans="1:12" s="2" customFormat="1">
+      <c r="A69" s="57" t="s">
         <v>194</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>396</v>
+        <v>564</v>
       </c>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="9">
+      <c r="F69" s="9"/>
+      <c r="G69" s="9">
         <v>0</v>
       </c>
-      <c r="G69" s="9">
+      <c r="H69" s="9">
         <v>2</v>
       </c>
-      <c r="H69" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I69" s="11">
+      <c r="I69" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J69" s="11">
         <v>3</v>
       </c>
-      <c r="J69" s="9" t="s">
+      <c r="K69" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K69" s="9" t="s">
+      <c r="L69" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="2" customFormat="1">
-      <c r="A70" s="56" t="s">
+    <row r="70" spans="1:12" s="2" customFormat="1">
+      <c r="A70" s="57" t="s">
         <v>194</v>
       </c>
       <c r="B70" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>397</v>
+        <v>565</v>
       </c>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="9">
+      <c r="F70" s="9"/>
+      <c r="G70" s="9">
         <v>0</v>
       </c>
-      <c r="G70" s="9">
+      <c r="H70" s="9">
         <v>2</v>
       </c>
-      <c r="H70" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I70" s="11">
+      <c r="I70" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J70" s="11">
         <v>3</v>
       </c>
-      <c r="J70" s="9" t="s">
+      <c r="K70" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K70" s="9" t="s">
+      <c r="L70" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="2" customFormat="1">
-      <c r="A71" s="56" t="s">
+    <row r="71" spans="1:12" s="2" customFormat="1" ht="35.25">
+      <c r="A71" s="57" t="s">
         <v>287</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -17225,58 +17359,64 @@
       <c r="C71" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="56" t="s">
+        <v>674</v>
+      </c>
+      <c r="E71" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9">
-        <v>1</v>
-      </c>
+      <c r="F71" s="9"/>
       <c r="G71" s="9">
+        <v>1</v>
+      </c>
+      <c r="H71" s="9">
         <v>2</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="I71" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I71" s="11"/>
-      <c r="J71" s="9" t="s">
+      <c r="J71" s="11"/>
+      <c r="K71" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K71" s="9" t="s">
+      <c r="L71" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="2" customFormat="1">
-      <c r="A72" s="59" t="s">
-        <v>287</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="D72" s="9" t="s">
+    <row r="72" spans="1:12" ht="70.5">
+      <c r="A72" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="C72" s="63" t="s">
+        <v>696</v>
+      </c>
+      <c r="D72" s="67" t="s">
+        <v>697</v>
+      </c>
+      <c r="E72" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="E72" s="10">
-        <v>1</v>
-      </c>
-      <c r="F72" s="10">
-        <v>1</v>
-      </c>
-      <c r="G72" s="10">
+      <c r="F72" s="63">
+        <v>1</v>
+      </c>
+      <c r="G72" s="63">
+        <v>1</v>
+      </c>
+      <c r="H72" s="63">
         <v>4</v>
       </c>
-      <c r="H72" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="9"/>
-    </row>
-    <row r="73" spans="1:11" s="23" customFormat="1">
-      <c r="A73" s="56" t="s">
+      <c r="I72" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="63"/>
+      <c r="L72" s="63"/>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" s="57" t="s">
         <v>183</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -17287,27 +17427,28 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" s="9" t="s">
+      <c r="F73" s="9"/>
+      <c r="G73" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="H73" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H73" s="9" t="s">
+      <c r="I73" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I73" s="11">
+      <c r="J73" s="11">
         <v>3</v>
       </c>
-      <c r="J73" s="9" t="s">
+      <c r="K73" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="K73" s="9" t="s">
+      <c r="L73" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="23" customFormat="1">
-      <c r="A74" s="56" t="s">
+    <row r="74" spans="1:12">
+      <c r="A74" s="57" t="s">
         <v>183</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -17318,27 +17459,28 @@
       </c>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="9">
+      <c r="F74" s="9"/>
+      <c r="G74" s="9">
         <v>0</v>
       </c>
-      <c r="G74" s="9">
-        <v>10</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I74" s="11">
+      <c r="H74" s="9">
+        <v>10</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J74" s="11">
         <v>2</v>
       </c>
-      <c r="J74" s="9" t="s">
+      <c r="K74" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="K74" s="9" t="s">
+      <c r="L74" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="23" customFormat="1">
-      <c r="A75" s="56" t="s">
+    <row r="75" spans="1:12" ht="246.75">
+      <c r="A75" s="57" t="s">
         <v>183</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -17347,31 +17489,34 @@
       <c r="C75" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E75" s="9">
+      <c r="D75" s="56" t="s">
+        <v>693</v>
+      </c>
+      <c r="E75" s="56" t="s">
+        <v>670</v>
+      </c>
+      <c r="F75" s="9">
         <v>2</v>
       </c>
-      <c r="F75" s="9">
-        <v>1</v>
-      </c>
       <c r="G75" s="9">
+        <v>1</v>
+      </c>
+      <c r="H75" s="9">
         <v>14</v>
       </c>
-      <c r="H75" s="9" t="s">
+      <c r="I75" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9" t="s">
+      <c r="J75" s="9"/>
+      <c r="K75" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K75" s="9" t="s">
+      <c r="L75" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="23" customFormat="1">
-      <c r="A76" s="58" t="s">
+    <row r="76" spans="1:12" ht="246.75">
+      <c r="A76" s="63" t="s">
         <v>183</v>
       </c>
       <c r="B76" s="9" t="s">
@@ -17380,31 +17525,34 @@
       <c r="C76" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E76" s="9">
+      <c r="D76" s="56" t="s">
+        <v>693</v>
+      </c>
+      <c r="E76" s="56" t="s">
+        <v>670</v>
+      </c>
+      <c r="F76" s="9">
         <v>2</v>
       </c>
-      <c r="F76" s="9">
-        <v>1</v>
-      </c>
       <c r="G76" s="9">
+        <v>1</v>
+      </c>
+      <c r="H76" s="9">
         <v>14</v>
       </c>
-      <c r="H76" s="9" t="s">
+      <c r="I76" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9" t="s">
+      <c r="J76" s="9"/>
+      <c r="K76" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K76" s="9" t="s">
+      <c r="L76" s="9" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="23" customFormat="1">
-      <c r="A77" s="58" t="s">
+    <row r="77" spans="1:12">
+      <c r="A77" s="63" t="s">
         <v>286</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -17417,17 +17565,18 @@
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
-      <c r="H77" s="9" t="s">
+      <c r="H77" s="9"/>
+      <c r="I77" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I77" s="9"/>
       <c r="J77" s="9"/>
-      <c r="K77" s="9" t="s">
+      <c r="K77" s="9"/>
+      <c r="L77" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="23" customFormat="1">
-      <c r="A78" s="58" t="s">
+    <row r="78" spans="1:12" ht="246.75">
+      <c r="A78" s="63" t="s">
         <v>286</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -17436,196 +17585,209 @@
       <c r="C78" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="D78" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E78" s="9">
+      <c r="D78" s="56" t="s">
+        <v>693</v>
+      </c>
+      <c r="E78" s="56" t="s">
+        <v>670</v>
+      </c>
+      <c r="F78" s="9">
         <v>2</v>
       </c>
-      <c r="F78" s="9">
-        <v>1</v>
-      </c>
       <c r="G78" s="9">
+        <v>1</v>
+      </c>
+      <c r="H78" s="9">
         <v>14</v>
       </c>
-      <c r="H78" s="9" t="s">
+      <c r="I78" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9" t="s">
+      <c r="J78" s="9"/>
+      <c r="K78" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K78" s="9"/>
-    </row>
-    <row r="79" spans="1:11" s="23" customFormat="1">
-      <c r="A79" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="D79" s="9" t="s">
+      <c r="L78" s="9"/>
+    </row>
+    <row r="79" spans="1:12" ht="70.5">
+      <c r="A79" s="57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B79" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="C79" s="63" t="s">
+        <v>696</v>
+      </c>
+      <c r="D79" s="67" t="s">
+        <v>697</v>
+      </c>
+      <c r="E79" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="E79" s="10">
-        <v>1</v>
-      </c>
-      <c r="F79" s="10">
-        <v>1</v>
-      </c>
-      <c r="G79" s="10">
+      <c r="F79" s="63">
+        <v>1</v>
+      </c>
+      <c r="G79" s="63">
+        <v>1</v>
+      </c>
+      <c r="H79" s="63">
         <v>4</v>
       </c>
-      <c r="H79" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="9"/>
-    </row>
-    <row r="80" spans="1:11" s="23" customFormat="1">
-      <c r="A80" s="58" t="s">
+      <c r="I79" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" s="63" t="s">
         <v>286</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C80" s="58" t="s">
+      <c r="C80" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="D80" s="58"/>
-      <c r="E80" s="58"/>
-      <c r="F80" s="9" t="s">
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
+      <c r="F80" s="63"/>
+      <c r="G80" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="H80" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="H80" s="9" t="s">
+      <c r="I80" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="I80" s="11">
+      <c r="J80" s="11">
         <v>3</v>
       </c>
-      <c r="J80" s="9" t="s">
+      <c r="K80" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="K80" s="58"/>
-    </row>
-    <row r="81" spans="1:11" s="23" customFormat="1">
-      <c r="A81" s="58" t="s">
+      <c r="L80" s="63"/>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" s="63" t="s">
         <v>286</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="D81" s="58"/>
-      <c r="E81" s="58"/>
-      <c r="F81" s="9">
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
+      <c r="F81" s="63"/>
+      <c r="G81" s="9">
         <v>0</v>
       </c>
-      <c r="G81" s="9">
-        <v>10</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I81" s="11">
+      <c r="H81" s="9">
+        <v>10</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J81" s="11">
         <v>2</v>
       </c>
-      <c r="J81" s="9" t="s">
+      <c r="K81" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="K81" s="58"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="62" t="s">
+      <c r="L81" s="63"/>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" s="63" t="s">
         <v>439</v>
       </c>
-      <c r="B82" s="62" t="s">
+      <c r="B82" s="63" t="s">
         <v>443</v>
       </c>
-      <c r="C82" s="62" t="s">
+      <c r="C82" s="63" t="s">
         <v>448</v>
       </c>
-      <c r="D82" s="9"/>
+      <c r="D82" s="63"/>
       <c r="E82" s="9"/>
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
-      <c r="H82" s="9" t="s">
+      <c r="H82" s="9"/>
+      <c r="I82" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I82" s="9"/>
       <c r="J82" s="9"/>
-      <c r="K82" s="9" t="s">
+      <c r="K82" s="9"/>
+      <c r="L82" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="18.75">
-      <c r="A83" s="62" t="s">
+    <row r="83" spans="1:12" ht="18.75">
+      <c r="A83" s="63" t="s">
         <v>439</v>
       </c>
-      <c r="B83" s="62" t="s">
+      <c r="B83" s="63" t="s">
         <v>440</v>
       </c>
-      <c r="C83" s="62" t="s">
+      <c r="C83" s="63" t="s">
         <v>449</v>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="62">
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63"/>
+      <c r="G83" s="63">
         <v>0</v>
       </c>
-      <c r="G83" s="62">
+      <c r="H83" s="63">
         <v>99</v>
       </c>
-      <c r="H83" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="I83" s="1">
+      <c r="I83" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="J83" s="1">
         <v>2</v>
       </c>
-      <c r="J83" s="62" t="s">
+      <c r="K83" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K83" s="62" t="s">
+      <c r="L83" s="63" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
-      <c r="A84" s="62" t="s">
-        <v>439</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="D84" s="9" t="s">
+    <row r="84" spans="1:12" ht="70.5">
+      <c r="A84" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="C84" s="63" t="s">
+        <v>696</v>
+      </c>
+      <c r="D84" s="67" t="s">
+        <v>697</v>
+      </c>
+      <c r="E84" s="55" t="s">
         <v>426</v>
       </c>
-      <c r="E84" s="9">
-        <v>1</v>
-      </c>
-      <c r="F84" s="9">
-        <v>1</v>
-      </c>
-      <c r="G84" s="9">
+      <c r="F84" s="63">
+        <v>1</v>
+      </c>
+      <c r="G84" s="63">
+        <v>1</v>
+      </c>
+      <c r="H84" s="63">
         <v>4</v>
       </c>
-      <c r="H84" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
+      <c r="I84" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="63"/>
+      <c r="L84" s="63"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -17663,37 +17825,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17">
-      <c r="A2" s="72" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="72" t="s">
+      <c r="A2" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="63" t="s">
         <v>418</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="72" t="s">
+      <c r="G2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="72" t="s">
+      <c r="K2" s="63" t="s">
         <v>15</v>
       </c>
     </row>
@@ -17701,39 +17863,39 @@
       <c r="A3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="E3" s="66">
+      <c r="E3" s="57">
         <v>6</v>
       </c>
-      <c r="F3" s="66">
-        <v>1</v>
-      </c>
-      <c r="G3" s="66">
+      <c r="F3" s="57">
+        <v>1</v>
+      </c>
+      <c r="G3" s="57">
         <v>8</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:17" s="2" customFormat="1">
       <c r="A4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="51" t="s">
         <v>177</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -17761,27 +17923,27 @@
       <c r="A5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="51" t="s">
         <v>179</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="72">
+      <c r="F5" s="63">
         <v>0</v>
       </c>
-      <c r="G5" s="72">
+      <c r="G5" s="63">
         <v>999.99</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="1">
         <v>2</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="63" t="s">
         <v>14</v>
       </c>
       <c r="K5" s="10"/>
@@ -17790,27 +17952,27 @@
       <c r="A6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="51" t="s">
         <v>180</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="72">
+      <c r="F6" s="63">
         <v>0</v>
       </c>
-      <c r="G6" s="72">
+      <c r="G6" s="63">
         <v>999.99</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
       </c>
-      <c r="J6" s="72" t="s">
+      <c r="J6" s="63" t="s">
         <v>14</v>
       </c>
       <c r="K6" s="10"/>
@@ -17819,82 +17981,82 @@
       <c r="A7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="51" t="s">
         <v>181</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="72">
+      <c r="F7" s="63">
         <v>0</v>
       </c>
-      <c r="G7" s="72">
+      <c r="G7" s="63">
         <v>999.99</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I7" s="1">
         <v>2</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="63" t="s">
         <v>14</v>
       </c>
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="63" t="s">
         <v>342</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72" t="s">
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="63"/>
+      <c r="H8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="72"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72" t="s">
+      <c r="I8" s="63"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="63" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="63" t="s">
         <v>343</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="63" t="s">
         <v>186</v>
       </c>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72">
-        <v>1</v>
-      </c>
-      <c r="G9" s="72">
+      <c r="E9" s="63"/>
+      <c r="F9" s="63">
+        <v>1</v>
+      </c>
+      <c r="G9" s="63">
         <v>6</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="72"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="72" t="s">
+      <c r="K9" s="63" t="s">
         <v>173</v>
       </c>
       <c r="M9" s="12"/>
@@ -17904,7 +18066,7 @@
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B10" s="9" t="s">
@@ -17937,7 +18099,7 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B11" s="9" t="s">
@@ -17970,7 +18132,7 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B12" s="9" t="s">
@@ -18003,7 +18165,7 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B13" s="9" t="s">
@@ -18036,7 +18198,7 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B14" s="9" t="s">
@@ -18069,38 +18231,38 @@
       </c>
     </row>
     <row r="15" spans="1:17" ht="18.75">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="63" t="s">
         <v>351</v>
       </c>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72">
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63">
         <v>0</v>
       </c>
-      <c r="G15" s="72">
+      <c r="G15" s="63">
         <v>99</v>
       </c>
-      <c r="H15" s="72" t="s">
+      <c r="H15" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="1">
         <v>2</v>
       </c>
-      <c r="J15" s="72" t="s">
+      <c r="J15" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="72" t="s">
+      <c r="K15" s="63" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -18129,7 +18291,7 @@
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" ht="18.75">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -18160,7 +18322,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -18169,14 +18331,14 @@
       <c r="C18" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="D18" s="72" t="s">
+      <c r="D18" s="63" t="s">
         <v>306</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="72">
-        <v>1</v>
-      </c>
-      <c r="G18" s="72">
+      <c r="F18" s="63">
+        <v>1</v>
+      </c>
+      <c r="G18" s="63">
         <v>7</v>
       </c>
       <c r="H18" s="10" t="s">
@@ -18191,7 +18353,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -18204,10 +18366,10 @@
         <v>307</v>
       </c>
       <c r="E19" s="13"/>
-      <c r="F19" s="72">
-        <v>1</v>
-      </c>
-      <c r="G19" s="72">
+      <c r="F19" s="63">
+        <v>1</v>
+      </c>
+      <c r="G19" s="63">
         <v>6</v>
       </c>
       <c r="H19" s="10" t="s">
@@ -18222,7 +18384,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B20" s="9" t="s">
@@ -18235,10 +18397,10 @@
         <v>266</v>
       </c>
       <c r="E20" s="13"/>
-      <c r="F20" s="72">
-        <v>1</v>
-      </c>
-      <c r="G20" s="72">
+      <c r="F20" s="63">
+        <v>1</v>
+      </c>
+      <c r="G20" s="63">
         <v>1</v>
       </c>
       <c r="H20" s="10" t="s">
@@ -18253,7 +18415,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B21" s="9" t="s">
@@ -18266,10 +18428,10 @@
         <v>308</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="F21" s="72">
-        <v>1</v>
-      </c>
-      <c r="G21" s="72">
+      <c r="F21" s="63">
+        <v>1</v>
+      </c>
+      <c r="G21" s="63">
         <v>2</v>
       </c>
       <c r="H21" s="10" t="s">
@@ -18284,7 +18446,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -18315,7 +18477,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="18.75">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B23" s="9" t="s">
@@ -18346,7 +18508,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="63" t="s">
         <v>213</v>
       </c>
       <c r="B24" s="9" t="s">
@@ -18377,7 +18539,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="63" t="s">
         <v>213</v>
       </c>
       <c r="B25" s="9" t="s">
@@ -18390,10 +18552,10 @@
         <v>319</v>
       </c>
       <c r="E25" s="13"/>
-      <c r="F25" s="72">
-        <v>1</v>
-      </c>
-      <c r="G25" s="72">
+      <c r="F25" s="63">
+        <v>1</v>
+      </c>
+      <c r="G25" s="63">
         <v>6</v>
       </c>
       <c r="H25" s="10" t="s">
@@ -18406,7 +18568,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="63" t="s">
         <v>213</v>
       </c>
       <c r="B26" s="9" t="s">
@@ -18419,10 +18581,10 @@
         <v>320</v>
       </c>
       <c r="E26" s="13"/>
-      <c r="F26" s="72">
-        <v>1</v>
-      </c>
-      <c r="G26" s="72">
+      <c r="F26" s="63">
+        <v>1</v>
+      </c>
+      <c r="G26" s="63">
         <v>12</v>
       </c>
       <c r="H26" s="10" t="s">
@@ -18435,7 +18597,7 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="63" t="s">
         <v>213</v>
       </c>
       <c r="B27" s="9" t="s">
@@ -18448,10 +18610,10 @@
         <v>321</v>
       </c>
       <c r="E27" s="13"/>
-      <c r="F27" s="72">
-        <v>1</v>
-      </c>
-      <c r="G27" s="72">
+      <c r="F27" s="63">
+        <v>1</v>
+      </c>
+      <c r="G27" s="63">
         <v>2</v>
       </c>
       <c r="H27" s="10" t="s">
@@ -18464,7 +18626,7 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="72" t="s">
+      <c r="A28" s="63" t="s">
         <v>213</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -18477,10 +18639,10 @@
         <v>322</v>
       </c>
       <c r="E28" s="13"/>
-      <c r="F28" s="72">
-        <v>1</v>
-      </c>
-      <c r="G28" s="72">
+      <c r="F28" s="63">
+        <v>1</v>
+      </c>
+      <c r="G28" s="63">
         <v>6</v>
       </c>
       <c r="H28" s="10" t="s">
@@ -18493,113 +18655,113 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="63" t="s">
         <v>218</v>
       </c>
-      <c r="C29" s="72" t="s">
+      <c r="C29" s="63" t="s">
         <v>362</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72" t="s">
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
       <c r="K29" s="9"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="B30" s="72" t="s">
+      <c r="B30" s="63" t="s">
         <v>216</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="63" t="s">
         <v>363</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72">
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63">
         <v>0</v>
       </c>
-      <c r="G30" s="72">
+      <c r="G30" s="63">
         <v>9999</v>
       </c>
-      <c r="H30" s="72" t="s">
+      <c r="H30" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I30" s="1">
         <v>2</v>
       </c>
-      <c r="J30" s="72" t="s">
+      <c r="J30" s="63" t="s">
         <v>37</v>
       </c>
       <c r="K30" s="9"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="63" t="s">
         <v>214</v>
       </c>
-      <c r="C31" s="72" t="s">
+      <c r="C31" s="63" t="s">
         <v>364</v>
       </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72">
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63">
         <v>0.02</v>
       </c>
-      <c r="G31" s="72">
+      <c r="G31" s="63">
         <v>370</v>
       </c>
-      <c r="H31" s="72" t="s">
+      <c r="H31" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="1">
         <v>3</v>
       </c>
-      <c r="J31" s="72" t="s">
+      <c r="J31" s="63" t="s">
         <v>33</v>
       </c>
       <c r="K31" s="9"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="72" t="s">
+      <c r="A32" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="63" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72">
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63">
         <v>0</v>
       </c>
-      <c r="G32" s="72">
+      <c r="G32" s="63">
         <v>4000</v>
       </c>
-      <c r="H32" s="72" t="s">
+      <c r="H32" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="72"/>
-      <c r="J32" s="72" t="s">
+      <c r="I32" s="63"/>
+      <c r="J32" s="63" t="s">
         <v>35</v>
       </c>
       <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -18611,24 +18773,24 @@
       <c r="D33" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="E33" s="72"/>
-      <c r="F33" s="72">
-        <v>1</v>
-      </c>
-      <c r="G33" s="72">
+      <c r="E33" s="63"/>
+      <c r="F33" s="63">
+        <v>1</v>
+      </c>
+      <c r="G33" s="63">
         <v>2</v>
       </c>
-      <c r="H33" s="72" t="s">
+      <c r="H33" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I33" s="72"/>
-      <c r="J33" s="66" t="s">
+      <c r="I33" s="63"/>
+      <c r="J33" s="57" t="s">
         <v>18</v>
       </c>
       <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" s="2" customFormat="1">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -18659,7 +18821,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" s="2" customFormat="1">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -18690,7 +18852,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" s="2" customFormat="1">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="63" t="s">
         <v>182</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -18721,7 +18883,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="63" t="s">
         <v>192</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -18744,7 +18906,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="72" t="s">
+      <c r="A38" s="63" t="s">
         <v>192</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -18777,38 +18939,38 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="18.75">
-      <c r="A39" s="72" t="s">
+      <c r="A39" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="63" t="s">
         <v>368</v>
       </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72">
+      <c r="D39" s="63"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="63">
         <v>0</v>
       </c>
-      <c r="G39" s="72">
+      <c r="G39" s="63">
         <v>99</v>
       </c>
-      <c r="H39" s="72" t="s">
+      <c r="H39" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I39" s="1">
         <v>2</v>
       </c>
-      <c r="J39" s="72" t="s">
+      <c r="J39" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="72" t="s">
+      <c r="K39" s="63" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="63" t="s">
         <v>192</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -18837,65 +18999,65 @@
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="72" t="s">
+      <c r="B41" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="C41" s="72" t="s">
+      <c r="C41" s="63" t="s">
         <v>372</v>
       </c>
-      <c r="D41" s="72" t="s">
+      <c r="D41" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72">
-        <v>1</v>
-      </c>
-      <c r="G41" s="72">
+      <c r="E41" s="63"/>
+      <c r="F41" s="63">
+        <v>1</v>
+      </c>
+      <c r="G41" s="63">
         <v>2</v>
       </c>
-      <c r="H41" s="72" t="s">
+      <c r="H41" s="63" t="s">
         <v>9</v>
       </c>
       <c r="I41" s="1"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="57"/>
+      <c r="J41" s="57"/>
+      <c r="K41" s="52"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="72" t="s">
+      <c r="A42" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B42" s="72" t="s">
+      <c r="B42" s="63" t="s">
         <v>247</v>
       </c>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="D42" s="72" t="s">
+      <c r="D42" s="63" t="s">
         <v>256</v>
       </c>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72">
-        <v>1</v>
-      </c>
-      <c r="G42" s="72">
+      <c r="E42" s="63"/>
+      <c r="F42" s="63">
+        <v>1</v>
+      </c>
+      <c r="G42" s="63">
         <v>2</v>
       </c>
-      <c r="H42" s="72" t="s">
+      <c r="H42" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="72"/>
-      <c r="J42" s="66" t="s">
+      <c r="I42" s="63"/>
+      <c r="J42" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K42" s="57" t="s">
+      <c r="K42" s="52" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="72" t="s">
+      <c r="A43" s="63" t="s">
         <v>192</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -18928,7 +19090,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="72" t="s">
+      <c r="A44" s="63" t="s">
         <v>192</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -18961,7 +19123,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="72" t="s">
+      <c r="A45" s="63" t="s">
         <v>192</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -18994,98 +19156,98 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="72" t="s">
+      <c r="A46" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B46" s="72" t="s">
+      <c r="B46" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="C46" s="72" t="s">
+      <c r="C46" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="D46" s="72" t="s">
+      <c r="D46" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72">
-        <v>1</v>
-      </c>
-      <c r="G46" s="72">
+      <c r="E46" s="63"/>
+      <c r="F46" s="63">
+        <v>1</v>
+      </c>
+      <c r="G46" s="63">
         <v>2</v>
       </c>
-      <c r="H46" s="72" t="s">
+      <c r="H46" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="72"/>
-      <c r="J46" s="66" t="s">
+      <c r="I46" s="63"/>
+      <c r="J46" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K46" s="57" t="s">
+      <c r="K46" s="52" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="72" t="s">
+      <c r="A47" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B47" s="72" t="s">
+      <c r="B47" s="63" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="72" t="s">
+      <c r="C47" s="63" t="s">
         <v>375</v>
       </c>
-      <c r="D47" s="72" t="s">
+      <c r="D47" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72">
-        <v>1</v>
-      </c>
-      <c r="G47" s="72">
+      <c r="E47" s="63"/>
+      <c r="F47" s="63">
+        <v>1</v>
+      </c>
+      <c r="G47" s="63">
         <v>17</v>
       </c>
-      <c r="H47" s="72" t="s">
+      <c r="H47" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="72"/>
-      <c r="J47" s="66" t="s">
+      <c r="I47" s="63"/>
+      <c r="J47" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="57" t="s">
+      <c r="K47" s="52" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="72" t="s">
+      <c r="A48" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="63" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="D48" s="72" t="s">
+      <c r="D48" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72">
-        <v>1</v>
-      </c>
-      <c r="G48" s="72">
+      <c r="E48" s="63"/>
+      <c r="F48" s="63">
+        <v>1</v>
+      </c>
+      <c r="G48" s="63">
         <v>3</v>
       </c>
-      <c r="H48" s="72" t="s">
+      <c r="H48" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I48" s="72"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="57" t="s">
+      <c r="I48" s="63"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="52" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="72" t="s">
+      <c r="A49" s="63" t="s">
         <v>192</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -19118,98 +19280,98 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="72" t="s">
+      <c r="A50" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B50" s="72" t="s">
+      <c r="B50" s="63" t="s">
         <v>276</v>
       </c>
-      <c r="C50" s="72" t="s">
+      <c r="C50" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="D50" s="72" t="s">
+      <c r="D50" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72">
-        <v>1</v>
-      </c>
-      <c r="G50" s="72">
+      <c r="E50" s="63"/>
+      <c r="F50" s="63">
+        <v>1</v>
+      </c>
+      <c r="G50" s="63">
         <v>2</v>
       </c>
-      <c r="H50" s="72" t="s">
+      <c r="H50" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="72"/>
-      <c r="J50" s="66" t="s">
+      <c r="I50" s="63"/>
+      <c r="J50" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K50" s="57" t="s">
+      <c r="K50" s="52" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="72" t="s">
+      <c r="A51" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B51" s="72" t="s">
+      <c r="B51" s="63" t="s">
         <v>277</v>
       </c>
-      <c r="C51" s="72" t="s">
+      <c r="C51" s="63" t="s">
         <v>379</v>
       </c>
-      <c r="D51" s="72" t="s">
+      <c r="D51" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72">
-        <v>1</v>
-      </c>
-      <c r="G51" s="72">
+      <c r="E51" s="63"/>
+      <c r="F51" s="63">
+        <v>1</v>
+      </c>
+      <c r="G51" s="63">
         <v>17</v>
       </c>
-      <c r="H51" s="72" t="s">
+      <c r="H51" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="72"/>
-      <c r="J51" s="66" t="s">
+      <c r="I51" s="63"/>
+      <c r="J51" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K51" s="57" t="s">
+      <c r="K51" s="52" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="72" t="s">
+      <c r="A52" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B52" s="72" t="s">
+      <c r="B52" s="63" t="s">
         <v>278</v>
       </c>
-      <c r="C52" s="72" t="s">
+      <c r="C52" s="63" t="s">
         <v>380</v>
       </c>
-      <c r="D52" s="72" t="s">
+      <c r="D52" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72">
-        <v>1</v>
-      </c>
-      <c r="G52" s="72">
+      <c r="E52" s="63"/>
+      <c r="F52" s="63">
+        <v>1</v>
+      </c>
+      <c r="G52" s="63">
         <v>3</v>
       </c>
-      <c r="H52" s="72" t="s">
+      <c r="H52" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I52" s="72"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="57" t="s">
+      <c r="I52" s="63"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="52" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="72" t="s">
+      <c r="A53" s="63" t="s">
         <v>192</v>
       </c>
       <c r="B53" s="9" t="s">
@@ -19237,103 +19399,103 @@
       <c r="J53" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K53" s="57" t="s">
+      <c r="K53" s="52" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="72" t="s">
+      <c r="A54" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B54" s="72" t="s">
+      <c r="B54" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="C54" s="72" t="s">
+      <c r="C54" s="63" t="s">
         <v>383</v>
       </c>
-      <c r="D54" s="72" t="s">
+      <c r="D54" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72">
-        <v>1</v>
-      </c>
-      <c r="G54" s="72">
+      <c r="E54" s="63"/>
+      <c r="F54" s="63">
+        <v>1</v>
+      </c>
+      <c r="G54" s="63">
         <v>2</v>
       </c>
-      <c r="H54" s="72" t="s">
+      <c r="H54" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I54" s="72"/>
-      <c r="J54" s="66" t="s">
+      <c r="I54" s="63"/>
+      <c r="J54" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K54" s="57" t="s">
+      <c r="K54" s="52" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="72" t="s">
+      <c r="A55" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B55" s="72" t="s">
+      <c r="B55" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="C55" s="72" t="s">
+      <c r="C55" s="63" t="s">
         <v>382</v>
       </c>
-      <c r="D55" s="72" t="s">
+      <c r="D55" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72">
-        <v>1</v>
-      </c>
-      <c r="G55" s="72">
+      <c r="E55" s="63"/>
+      <c r="F55" s="63">
+        <v>1</v>
+      </c>
+      <c r="G55" s="63">
         <v>17</v>
       </c>
-      <c r="H55" s="72" t="s">
+      <c r="H55" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I55" s="72"/>
-      <c r="J55" s="66" t="s">
+      <c r="I55" s="63"/>
+      <c r="J55" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="K55" s="57" t="s">
+      <c r="K55" s="52" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="72" t="s">
+      <c r="A56" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="B56" s="72" t="s">
+      <c r="B56" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="C56" s="72" t="s">
+      <c r="C56" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="D56" s="72" t="s">
+      <c r="D56" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72">
-        <v>1</v>
-      </c>
-      <c r="G56" s="72">
+      <c r="E56" s="63"/>
+      <c r="F56" s="63">
+        <v>1</v>
+      </c>
+      <c r="G56" s="63">
         <v>3</v>
       </c>
-      <c r="H56" s="72" t="s">
+      <c r="H56" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I56" s="72"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="57" t="s">
+      <c r="I56" s="63"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="52" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="18.75">
-      <c r="A57" s="72" t="s">
+      <c r="A57" s="63" t="s">
         <v>192</v>
       </c>
       <c r="B57" s="9" t="s">
@@ -19366,7 +19528,7 @@
       </c>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="72" t="s">
+      <c r="A58" s="63" t="s">
         <v>219</v>
       </c>
       <c r="B58" s="9" t="s">
@@ -19378,24 +19540,24 @@
       <c r="D58" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72">
-        <v>1</v>
-      </c>
-      <c r="G58" s="72">
+      <c r="E58" s="63"/>
+      <c r="F58" s="63">
+        <v>1</v>
+      </c>
+      <c r="G58" s="63">
         <v>2</v>
       </c>
-      <c r="H58" s="72" t="s">
+      <c r="H58" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I58" s="72"/>
-      <c r="J58" s="66" t="s">
+      <c r="I58" s="63"/>
+      <c r="J58" s="57" t="s">
         <v>18</v>
       </c>
       <c r="K58" s="9"/>
     </row>
     <row r="59" spans="1:11" s="2" customFormat="1">
-      <c r="A59" s="72" t="s">
+      <c r="A59" s="63" t="s">
         <v>192</v>
       </c>
       <c r="B59" s="9" t="s">
@@ -19426,7 +19588,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" s="2" customFormat="1">
-      <c r="A60" s="72" t="s">
+      <c r="A60" s="63" t="s">
         <v>192</v>
       </c>
       <c r="B60" s="9" t="s">
@@ -19457,7 +19619,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" s="2" customFormat="1">
-      <c r="A61" s="72" t="s">
+      <c r="A61" s="63" t="s">
         <v>192</v>
       </c>
       <c r="B61" s="9" t="s">
@@ -19488,7 +19650,7 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="63" t="s">
         <v>194</v>
       </c>
       <c r="B62" s="9" t="s">
@@ -19511,7 +19673,7 @@
       </c>
     </row>
     <row r="63" spans="1:11">
-      <c r="A63" s="72" t="s">
+      <c r="A63" s="63" t="s">
         <v>194</v>
       </c>
       <c r="B63" s="9" t="s">
@@ -19544,38 +19706,38 @@
       </c>
     </row>
     <row r="64" spans="1:11" ht="18.75">
-      <c r="A64" s="72" t="s">
+      <c r="A64" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C64" s="72" t="s">
+      <c r="C64" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72">
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63">
         <v>0</v>
       </c>
-      <c r="G64" s="72">
+      <c r="G64" s="63">
         <v>99</v>
       </c>
-      <c r="H64" s="72" t="s">
+      <c r="H64" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I64" s="1">
         <v>2</v>
       </c>
-      <c r="J64" s="72" t="s">
+      <c r="J64" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K64" s="72" t="s">
+      <c r="K64" s="63" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="72" t="s">
+      <c r="A65" s="63" t="s">
         <v>194</v>
       </c>
       <c r="B65" s="10" t="s">
@@ -19604,7 +19766,7 @@
       <c r="K65" s="9"/>
     </row>
     <row r="66" spans="1:11" ht="18.75">
-      <c r="A66" s="72" t="s">
+      <c r="A66" s="63" t="s">
         <v>194</v>
       </c>
       <c r="B66" s="9" t="s">
@@ -19637,7 +19799,7 @@
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="72" t="s">
+      <c r="A67" s="63" t="s">
         <v>194</v>
       </c>
       <c r="B67" s="9" t="s">
@@ -19649,24 +19811,24 @@
       <c r="D67" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72">
-        <v>1</v>
-      </c>
-      <c r="G67" s="72">
+      <c r="E67" s="63"/>
+      <c r="F67" s="63">
+        <v>1</v>
+      </c>
+      <c r="G67" s="63">
         <v>2</v>
       </c>
-      <c r="H67" s="72" t="s">
+      <c r="H67" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="I67" s="72"/>
-      <c r="J67" s="66" t="s">
+      <c r="I67" s="63"/>
+      <c r="J67" s="57" t="s">
         <v>18</v>
       </c>
       <c r="K67" s="9"/>
     </row>
     <row r="68" spans="1:11" s="2" customFormat="1">
-      <c r="A68" s="72" t="s">
+      <c r="A68" s="63" t="s">
         <v>194</v>
       </c>
       <c r="B68" s="9" t="s">
@@ -19697,7 +19859,7 @@
       </c>
     </row>
     <row r="69" spans="1:11" s="2" customFormat="1">
-      <c r="A69" s="72" t="s">
+      <c r="A69" s="63" t="s">
         <v>194</v>
       </c>
       <c r="B69" s="9" t="s">
@@ -19728,7 +19890,7 @@
       </c>
     </row>
     <row r="70" spans="1:11" s="2" customFormat="1">
-      <c r="A70" s="72" t="s">
+      <c r="A70" s="63" t="s">
         <v>194</v>
       </c>
       <c r="B70" s="9" t="s">
@@ -19759,7 +19921,7 @@
       </c>
     </row>
     <row r="71" spans="1:11" s="2" customFormat="1">
-      <c r="A71" s="72" t="s">
+      <c r="A71" s="63" t="s">
         <v>287</v>
       </c>
       <c r="B71" s="9" t="s">
@@ -19790,7 +19952,7 @@
       </c>
     </row>
     <row r="72" spans="1:11" s="2" customFormat="1">
-      <c r="A72" s="72" t="s">
+      <c r="A72" s="63" t="s">
         <v>287</v>
       </c>
       <c r="B72" s="9" t="s">
@@ -19819,7 +19981,7 @@
       <c r="K72" s="9"/>
     </row>
     <row r="73" spans="1:11">
-      <c r="A73" s="72" t="s">
+      <c r="A73" s="63" t="s">
         <v>183</v>
       </c>
       <c r="B73" s="9" t="s">
@@ -19850,7 +20012,7 @@
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="A74" s="72" t="s">
+      <c r="A74" s="63" t="s">
         <v>183</v>
       </c>
       <c r="B74" s="9" t="s">
@@ -19881,7 +20043,7 @@
       </c>
     </row>
     <row r="75" spans="1:11">
-      <c r="A75" s="72" t="s">
+      <c r="A75" s="63" t="s">
         <v>183</v>
       </c>
       <c r="B75" s="9" t="s">
@@ -19914,7 +20076,7 @@
       </c>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="72" t="s">
+      <c r="A76" s="63" t="s">
         <v>183</v>
       </c>
       <c r="B76" s="9" t="s">
@@ -19947,7 +20109,7 @@
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="72" t="s">
+      <c r="A77" s="63" t="s">
         <v>286</v>
       </c>
       <c r="B77" s="9" t="s">
@@ -19970,7 +20132,7 @@
       </c>
     </row>
     <row r="78" spans="1:11">
-      <c r="A78" s="72" t="s">
+      <c r="A78" s="63" t="s">
         <v>286</v>
       </c>
       <c r="B78" s="9" t="s">
@@ -20001,7 +20163,7 @@
       <c r="K78" s="9"/>
     </row>
     <row r="79" spans="1:11">
-      <c r="A79" s="72" t="s">
+      <c r="A79" s="63" t="s">
         <v>286</v>
       </c>
       <c r="B79" s="9" t="s">
@@ -20030,17 +20192,17 @@
       <c r="K79" s="9"/>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="72" t="s">
+      <c r="A80" s="63" t="s">
         <v>286</v>
       </c>
       <c r="B80" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C80" s="72" t="s">
+      <c r="C80" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="63"/>
       <c r="F80" s="9" t="s">
         <v>118</v>
       </c>
@@ -20056,20 +20218,20 @@
       <c r="J80" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="K80" s="72"/>
+      <c r="K80" s="63"/>
     </row>
     <row r="81" spans="1:17">
-      <c r="A81" s="72" t="s">
+      <c r="A81" s="63" t="s">
         <v>286</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="72" t="s">
+      <c r="C81" s="63" t="s">
         <v>404</v>
       </c>
-      <c r="D81" s="72"/>
-      <c r="E81" s="72"/>
+      <c r="D81" s="63"/>
+      <c r="E81" s="63"/>
       <c r="F81" s="9">
         <v>0</v>
       </c>
@@ -20085,16 +20247,16 @@
       <c r="J81" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="K81" s="72"/>
+      <c r="K81" s="63"/>
     </row>
     <row r="82" spans="1:17">
-      <c r="A82" s="72" t="s">
+      <c r="A82" s="63" t="s">
         <v>439</v>
       </c>
-      <c r="B82" s="72" t="s">
+      <c r="B82" s="63" t="s">
         <v>443</v>
       </c>
-      <c r="C82" s="72" t="s">
+      <c r="C82" s="63" t="s">
         <v>448</v>
       </c>
       <c r="D82" s="9"/>
@@ -20111,38 +20273,38 @@
       </c>
     </row>
     <row r="83" spans="1:17" ht="18.75">
-      <c r="A83" s="72" t="s">
+      <c r="A83" s="63" t="s">
         <v>439</v>
       </c>
-      <c r="B83" s="72" t="s">
+      <c r="B83" s="63" t="s">
         <v>440</v>
       </c>
-      <c r="C83" s="72" t="s">
+      <c r="C83" s="63" t="s">
         <v>449</v>
       </c>
-      <c r="D83" s="72"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72">
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="63">
         <v>0</v>
       </c>
-      <c r="G83" s="72">
+      <c r="G83" s="63">
         <v>99</v>
       </c>
-      <c r="H83" s="72" t="s">
+      <c r="H83" s="63" t="s">
         <v>10</v>
       </c>
       <c r="I83" s="1">
         <v>2</v>
       </c>
-      <c r="J83" s="72" t="s">
+      <c r="J83" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="K83" s="72" t="s">
+      <c r="K83" s="63" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:17">
-      <c r="A84" s="72" t="s">
+      <c r="A84" s="63" t="s">
         <v>439</v>
       </c>
       <c r="B84" s="9" t="s">
@@ -20171,56 +20333,56 @@
       <c r="K84" s="9"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="72" t="s">
+      <c r="A85" s="63" t="s">
         <v>662</v>
       </c>
-      <c r="B85" s="72" t="s">
+      <c r="B85" s="63" t="s">
         <v>611</v>
       </c>
-      <c r="C85" s="72" t="s">
+      <c r="C85" s="63" t="s">
         <v>648</v>
       </c>
-      <c r="D85" s="72"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="72" t="s">
+      <c r="D85" s="63"/>
+      <c r="E85" s="63"/>
+      <c r="F85" s="63"/>
+      <c r="G85" s="63"/>
+      <c r="H85" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="I85" s="72"/>
-      <c r="J85" s="72"/>
-      <c r="K85" s="72" t="s">
+      <c r="I85" s="63"/>
+      <c r="J85" s="63"/>
+      <c r="K85" s="63" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="86" spans="1:17">
-      <c r="A86" s="72" t="s">
+      <c r="A86" s="63" t="s">
         <v>662</v>
       </c>
-      <c r="B86" s="72" t="s">
+      <c r="B86" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="C86" s="72" t="s">
+      <c r="C86" s="63" t="s">
         <v>649</v>
       </c>
       <c r="D86" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="E86" s="72"/>
-      <c r="F86" s="72">
-        <v>1</v>
-      </c>
-      <c r="G86" s="72">
+      <c r="E86" s="63"/>
+      <c r="F86" s="63">
+        <v>1</v>
+      </c>
+      <c r="G86" s="63">
         <v>6</v>
       </c>
       <c r="H86" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I86" s="72"/>
+      <c r="I86" s="63"/>
       <c r="J86" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K86" s="72" t="s">
+      <c r="K86" s="63" t="s">
         <v>173</v>
       </c>
       <c r="M86" s="12"/>
@@ -20230,7 +20392,7 @@
       <c r="Q86" s="2"/>
     </row>
     <row r="87" spans="1:17">
-      <c r="A87" s="72" t="s">
+      <c r="A87" s="63" t="s">
         <v>662</v>
       </c>
       <c r="B87" s="9" t="s">
@@ -20263,38 +20425,38 @@
       </c>
     </row>
     <row r="88" spans="1:17" ht="18.75">
-      <c r="A88" s="72" t="s">
+      <c r="A88" s="63" t="s">
         <v>662</v>
       </c>
-      <c r="B88" s="72" t="s">
+      <c r="B88" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="C88" s="72" t="s">
+      <c r="C88" s="63" t="s">
         <v>654</v>
       </c>
-      <c r="D88" s="72"/>
-      <c r="E88" s="72"/>
-      <c r="F88" s="72">
+      <c r="D88" s="63"/>
+      <c r="E88" s="63"/>
+      <c r="F88" s="63">
         <v>0</v>
       </c>
-      <c r="G88" s="72">
+      <c r="G88" s="63">
         